--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\First Global\Work\Daily Report Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ashutosh_WFH_Data\Global Market Update\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="529">
   <si>
     <t>USD</t>
   </si>
@@ -159,408 +159,411 @@
     <t>VANGUARD TOTAL B</t>
   </si>
   <si>
+    <t>Short Term Cap Gain</t>
+  </si>
+  <si>
+    <t>VCIT US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD INT TER</t>
+  </si>
+  <si>
+    <t>Corporate/Preferred</t>
+  </si>
+  <si>
+    <t>TIP US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES TIPS BON</t>
+  </si>
+  <si>
+    <t>Government/Agency</t>
+  </si>
+  <si>
+    <t>VCSH US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD-S/T COR</t>
+  </si>
+  <si>
+    <t>SHY US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 1-3 YEAR</t>
+  </si>
+  <si>
+    <t>Govt/Agency-Short Term</t>
+  </si>
+  <si>
+    <t>SHV US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES SHORT TR</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>IGSB US Equity</t>
+  </si>
+  <si>
+    <t>ISHR 1-5Y INV GR</t>
+  </si>
+  <si>
+    <t>Govt/Corp Short Term</t>
+  </si>
+  <si>
+    <t>MBB US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES MBS ETF</t>
+  </si>
+  <si>
+    <t>Asset Backed Securities</t>
+  </si>
+  <si>
+    <t>HYLB US Equity</t>
+  </si>
+  <si>
+    <t>XTRACKERS USD HI</t>
+  </si>
+  <si>
+    <t>Closed-end Funds</t>
+  </si>
+  <si>
+    <t>IEI US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 3-7 YEAR</t>
+  </si>
+  <si>
+    <t>BSV US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD SHORT-T</t>
+  </si>
+  <si>
+    <t>JPST US Equity</t>
+  </si>
+  <si>
+    <t>JPM ULTRA-SHT IN</t>
+  </si>
+  <si>
+    <t>Cboe BZX</t>
+  </si>
+  <si>
+    <t>BNDX US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD INTL BD</t>
+  </si>
+  <si>
+    <t>Global Debt</t>
+  </si>
+  <si>
+    <t>PFF US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES PREFERRE</t>
+  </si>
+  <si>
+    <t>MUB US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES NATIONAL</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>SJNK US Equity</t>
+  </si>
+  <si>
+    <t>SPDR ST HY BOND</t>
+  </si>
+  <si>
+    <t>VCLT US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD LONG-TE</t>
+  </si>
+  <si>
+    <t>USHY US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES BROAD US</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GOVT US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES US TREAS</t>
+  </si>
+  <si>
+    <t>IGIB US Equity</t>
+  </si>
+  <si>
+    <t>ISHR 5-10Y IN GR</t>
+  </si>
+  <si>
+    <t>SPTL US Equity</t>
+  </si>
+  <si>
+    <t>SPDR-PORT L/T TR</t>
+  </si>
+  <si>
+    <t>BKLN US Equity</t>
+  </si>
+  <si>
+    <t>INVESCO SENIOR L</t>
+  </si>
+  <si>
+    <t>BIV US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD INTERME</t>
+  </si>
+  <si>
+    <t>Govt/Corp Intermediate</t>
+  </si>
+  <si>
+    <t>MINT US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO ENHANCED S</t>
+  </si>
+  <si>
+    <t>SPIB US Equity</t>
+  </si>
+  <si>
+    <t>SPDR INT CORP BD</t>
+  </si>
+  <si>
+    <t>TBT US Equity</t>
+  </si>
+  <si>
+    <t>PRO ULTSH 20+TSY</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>IUSB US Equity</t>
+  </si>
+  <si>
+    <t>ISHA CORE BOND</t>
+  </si>
+  <si>
+    <t>BIL US Equity</t>
+  </si>
+  <si>
+    <t>SPDR 1-3M TBILL</t>
+  </si>
+  <si>
+    <t>SCHP US Equity</t>
+  </si>
+  <si>
+    <t>SCHWAB US TIPS</t>
+  </si>
+  <si>
+    <t>CWB US Equity</t>
+  </si>
+  <si>
+    <t>SPDR BBG BARC CV</t>
+  </si>
+  <si>
+    <t>Convertible</t>
+  </si>
+  <si>
+    <t>ANGL US Equity</t>
+  </si>
+  <si>
+    <t>VE FALLN ANGL HY</t>
+  </si>
+  <si>
+    <t>VTIP US Equity</t>
+  </si>
+  <si>
+    <t>VANG SH TERM TIP</t>
+  </si>
+  <si>
+    <t>USIG US Equity</t>
+  </si>
+  <si>
+    <t>VGSH US Equity</t>
+  </si>
+  <si>
+    <t>SRLN US Equity</t>
+  </si>
+  <si>
+    <t>SPDR BLACKSTONE</t>
+  </si>
+  <si>
+    <t>Govt/Corp High Yield</t>
+  </si>
+  <si>
+    <t>VGIT US Equity</t>
+  </si>
+  <si>
+    <t>VMBS US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD MORTGAG</t>
+  </si>
+  <si>
+    <t>SHYG US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 0-5 HY C</t>
+  </si>
+  <si>
+    <t>VGLT US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD LT TREA</t>
+  </si>
+  <si>
+    <t>EMLC US Equity</t>
+  </si>
+  <si>
+    <t>VANECK EM LCL BD</t>
+  </si>
+  <si>
+    <t>PGX US Equity</t>
+  </si>
+  <si>
+    <t>INVESCO PREFERRE</t>
+  </si>
+  <si>
+    <t>SPSB US Equity</t>
+  </si>
+  <si>
+    <t>SPDR-PORT S/T C</t>
+  </si>
+  <si>
+    <t>VTEB US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD TAX-EXM</t>
+  </si>
+  <si>
+    <t>FLOT US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES FLOATING</t>
+  </si>
+  <si>
+    <t>STIP US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 0-5 YEAR</t>
+  </si>
+  <si>
+    <t>Govt/Agency-ST/Inter</t>
+  </si>
+  <si>
+    <t>FALN US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES F A ETF</t>
+  </si>
+  <si>
+    <t>LMBS US Equity</t>
+  </si>
+  <si>
+    <t>FIRST TRUST LOW</t>
+  </si>
+  <si>
+    <t>IVOL US Equity</t>
+  </si>
+  <si>
+    <t>QUAD INT RTE VOL</t>
+  </si>
+  <si>
+    <t>ICSH US Equity</t>
+  </si>
+  <si>
+    <t>BLACKROCK ULTRA</t>
+  </si>
+  <si>
+    <t>SPLB US Equity</t>
+  </si>
+  <si>
+    <t>SPDR-PORT L/T C</t>
+  </si>
+  <si>
+    <t>Govt/Corp Long Term</t>
+  </si>
+  <si>
+    <t>SPAB US Equity</t>
+  </si>
+  <si>
+    <t>SPDR PORTFOLIO A</t>
+  </si>
+  <si>
+    <t>FIXD US Equity</t>
+  </si>
+  <si>
+    <t>FT TCW OPP FI</t>
+  </si>
+  <si>
+    <t>SPTI US Equity</t>
+  </si>
+  <si>
+    <t>SPDR INT TREAS</t>
+  </si>
+  <si>
+    <t>EDV US Equity</t>
+  </si>
+  <si>
+    <t>VGUARD EXTEND DU</t>
+  </si>
+  <si>
+    <t>SCHO US Equity</t>
+  </si>
+  <si>
+    <t>SCHWAB SHORT-TER</t>
+  </si>
+  <si>
+    <t>IGLB US Equity</t>
+  </si>
+  <si>
+    <t>ISHR 10 YR CORP</t>
+  </si>
+  <si>
+    <t>SCHZ US Equity</t>
+  </si>
+  <si>
+    <t>SCHWAB AGGR BD</t>
+  </si>
+  <si>
+    <t>SCHR US Equity</t>
+  </si>
+  <si>
+    <t>SCHWAB INTERMEDI</t>
+  </si>
+  <si>
+    <t>NEAR US Equity</t>
+  </si>
+  <si>
+    <t>BLACKROCK SHORT</t>
+  </si>
+  <si>
+    <t>FTSM US Equity</t>
+  </si>
+  <si>
+    <t>FT SHORT MATURIT</t>
+  </si>
+  <si>
+    <t>BLV US Equity</t>
+  </si>
+  <si>
     <t>Long Term Cap Gain</t>
   </si>
   <si>
-    <t>VCIT US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD INT TER</t>
-  </si>
-  <si>
-    <t>Corporate/Preferred</t>
-  </si>
-  <si>
-    <t>TIP US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES TIPS BON</t>
-  </si>
-  <si>
-    <t>Government/Agency</t>
-  </si>
-  <si>
-    <t>VCSH US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD-S/T COR</t>
-  </si>
-  <si>
-    <t>SHY US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 1-3 YEAR</t>
-  </si>
-  <si>
-    <t>Govt/Agency-Short Term</t>
-  </si>
-  <si>
-    <t>SHV US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES SHORT TR</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>IGSB US Equity</t>
-  </si>
-  <si>
-    <t>ISHR 1-5Y INV GR</t>
-  </si>
-  <si>
-    <t>Govt/Corp Short Term</t>
-  </si>
-  <si>
-    <t>MBB US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES MBS ETF</t>
-  </si>
-  <si>
-    <t>Asset Backed Securities</t>
-  </si>
-  <si>
-    <t>HYLB US Equity</t>
-  </si>
-  <si>
-    <t>XTRACKERS USD HI</t>
-  </si>
-  <si>
-    <t>Closed-end Funds</t>
-  </si>
-  <si>
-    <t>IEI US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 3-7 YEAR</t>
-  </si>
-  <si>
-    <t>BSV US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD SHORT-T</t>
-  </si>
-  <si>
-    <t>JPST US Equity</t>
-  </si>
-  <si>
-    <t>JPM ULTRA-SHT IN</t>
-  </si>
-  <si>
-    <t>Cboe BZX</t>
-  </si>
-  <si>
-    <t>BNDX US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD INTL BD</t>
-  </si>
-  <si>
-    <t>Global Debt</t>
-  </si>
-  <si>
-    <t>PFF US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES PREFERRE</t>
-  </si>
-  <si>
-    <t>MUB US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES NATIONAL</t>
-  </si>
-  <si>
-    <t>Municipal</t>
-  </si>
-  <si>
-    <t>SJNK US Equity</t>
-  </si>
-  <si>
-    <t>SPDR ST HY BOND</t>
-  </si>
-  <si>
-    <t>VCLT US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD LONG-TE</t>
-  </si>
-  <si>
-    <t>USHY US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES BROAD US</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>GOVT US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES US TREAS</t>
-  </si>
-  <si>
-    <t>IGIB US Equity</t>
-  </si>
-  <si>
-    <t>ISHR 5-10Y IN GR</t>
-  </si>
-  <si>
-    <t>SPTL US Equity</t>
-  </si>
-  <si>
-    <t>SPDR-PORT L/T TR</t>
-  </si>
-  <si>
-    <t>BKLN US Equity</t>
-  </si>
-  <si>
-    <t>INVESCO SENIOR L</t>
-  </si>
-  <si>
-    <t>BIV US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD INTERME</t>
-  </si>
-  <si>
-    <t>Govt/Corp Intermediate</t>
-  </si>
-  <si>
-    <t>MINT US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO ENHANCED S</t>
-  </si>
-  <si>
-    <t>SPIB US Equity</t>
-  </si>
-  <si>
-    <t>SPDR INT CORP BD</t>
-  </si>
-  <si>
-    <t>TBT US Equity</t>
-  </si>
-  <si>
-    <t>PRO ULTSH 20+TSY</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
-    <t>IUSB US Equity</t>
-  </si>
-  <si>
-    <t>ISHA CORE BOND</t>
-  </si>
-  <si>
-    <t>BIL US Equity</t>
-  </si>
-  <si>
-    <t>SPDR 1-3M TBILL</t>
-  </si>
-  <si>
-    <t>SCHP US Equity</t>
-  </si>
-  <si>
-    <t>SCHWAB US TIPS</t>
-  </si>
-  <si>
-    <t>CWB US Equity</t>
-  </si>
-  <si>
-    <t>SPDR BBG BARC CV</t>
-  </si>
-  <si>
-    <t>Convertible</t>
-  </si>
-  <si>
-    <t>ANGL US Equity</t>
-  </si>
-  <si>
-    <t>VE FALLN ANGL HY</t>
-  </si>
-  <si>
-    <t>VTIP US Equity</t>
-  </si>
-  <si>
-    <t>VANG SH TERM TIP</t>
-  </si>
-  <si>
-    <t>USIG US Equity</t>
-  </si>
-  <si>
-    <t>VGSH US Equity</t>
-  </si>
-  <si>
-    <t>SRLN US Equity</t>
-  </si>
-  <si>
-    <t>SPDR BLACKSTONE</t>
-  </si>
-  <si>
-    <t>Govt/Corp High Yield</t>
-  </si>
-  <si>
-    <t>VGIT US Equity</t>
-  </si>
-  <si>
-    <t>VMBS US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD MORTGAG</t>
-  </si>
-  <si>
-    <t>SHYG US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 0-5 HY C</t>
-  </si>
-  <si>
-    <t>VGLT US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD LT TREA</t>
-  </si>
-  <si>
-    <t>EMLC US Equity</t>
-  </si>
-  <si>
-    <t>VANECK EM LCL BD</t>
-  </si>
-  <si>
-    <t>PGX US Equity</t>
-  </si>
-  <si>
-    <t>INVESCO PREFERRE</t>
-  </si>
-  <si>
-    <t>SPSB US Equity</t>
-  </si>
-  <si>
-    <t>SPDR-PORT S/T C</t>
-  </si>
-  <si>
-    <t>VTEB US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD TAX-EXM</t>
-  </si>
-  <si>
-    <t>FLOT US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES FLOATING</t>
-  </si>
-  <si>
-    <t>STIP US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 0-5 YEAR</t>
-  </si>
-  <si>
-    <t>Govt/Agency-ST/Inter</t>
-  </si>
-  <si>
-    <t>FALN US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES F A ETF</t>
-  </si>
-  <si>
-    <t>LMBS US Equity</t>
-  </si>
-  <si>
-    <t>FIRST TRUST LOW</t>
-  </si>
-  <si>
-    <t>IVOL US Equity</t>
-  </si>
-  <si>
-    <t>QUAD INT RTE VOL</t>
-  </si>
-  <si>
-    <t>ICSH US Equity</t>
-  </si>
-  <si>
-    <t>BLACKROCK ULTRA</t>
-  </si>
-  <si>
-    <t>SPLB US Equity</t>
-  </si>
-  <si>
-    <t>SPDR-PORT L/T C</t>
-  </si>
-  <si>
-    <t>Govt/Corp Long Term</t>
-  </si>
-  <si>
-    <t>SPAB US Equity</t>
-  </si>
-  <si>
-    <t>SPDR PORTFOLIO A</t>
-  </si>
-  <si>
-    <t>FIXD US Equity</t>
-  </si>
-  <si>
-    <t>FT TCW OPP FI</t>
-  </si>
-  <si>
-    <t>SPTI US Equity</t>
-  </si>
-  <si>
-    <t>SPDR INT TREAS</t>
-  </si>
-  <si>
-    <t>EDV US Equity</t>
-  </si>
-  <si>
-    <t>VGUARD EXTEND DU</t>
-  </si>
-  <si>
-    <t>SCHO US Equity</t>
-  </si>
-  <si>
-    <t>SCHWAB SHORT-TER</t>
-  </si>
-  <si>
-    <t>IGLB US Equity</t>
-  </si>
-  <si>
-    <t>ISHR 10 YR CORP</t>
-  </si>
-  <si>
-    <t>SCHZ US Equity</t>
-  </si>
-  <si>
-    <t>SCHWAB AGGR BD</t>
-  </si>
-  <si>
-    <t>SCHR US Equity</t>
-  </si>
-  <si>
-    <t>SCHWAB INTERMEDI</t>
-  </si>
-  <si>
-    <t>NEAR US Equity</t>
-  </si>
-  <si>
-    <t>BLACKROCK SHORT</t>
-  </si>
-  <si>
-    <t>FTSM US Equity</t>
-  </si>
-  <si>
-    <t>FT SHORT MATURIT</t>
-  </si>
-  <si>
-    <t>BLV US Equity</t>
-  </si>
-  <si>
     <t>FPE US Equity</t>
   </si>
   <si>
@@ -1137,6 +1140,12 @@
     <t>VANGUARD CANADIA</t>
   </si>
   <si>
+    <t>IGLT LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR CORE GILTS</t>
+  </si>
+  <si>
     <t>ZROZ US Equity</t>
   </si>
   <si>
@@ -1155,12 +1164,6 @@
     <t>ISH $ HY CRP $D</t>
   </si>
   <si>
-    <t>IGLT LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR CORE GILTS</t>
-  </si>
-  <si>
     <t>TFLO US Equity</t>
   </si>
   <si>
@@ -1215,15 +1218,15 @@
     <t>IBDN US Equity</t>
   </si>
   <si>
+    <t>IAF AU Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CORE COM</t>
+  </si>
+  <si>
     <t>BSCP US Equity</t>
   </si>
   <si>
-    <t>IAF AU Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CORE COM</t>
-  </si>
-  <si>
     <t>PFXF US Equity</t>
   </si>
   <si>
@@ -1347,18 +1350,18 @@
     <t>IBDR US Equity</t>
   </si>
   <si>
+    <t>IS15 LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR £ CORP 0-5Y</t>
+  </si>
+  <si>
     <t>UITB US Equity</t>
   </si>
   <si>
     <t>VICTORYSHARES US</t>
   </si>
   <si>
-    <t>IS15 LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR £ CORP 0-5Y</t>
-  </si>
-  <si>
     <t>ZMP CN Equity</t>
   </si>
   <si>
@@ -1389,18 +1392,18 @@
     <t>ISHARES CORE 10+</t>
   </si>
   <si>
+    <t>HBRD AU Equity</t>
+  </si>
+  <si>
+    <t>BETA-ACTV AU HYB</t>
+  </si>
+  <si>
     <t>SGOV US Equity</t>
   </si>
   <si>
     <t>ISHARES 0-3M T/B</t>
   </si>
   <si>
-    <t>HBRD AU Equity</t>
-  </si>
-  <si>
-    <t>BETA-ACTV AU HYB</t>
-  </si>
-  <si>
     <t>BSCQ US Equity</t>
   </si>
   <si>
@@ -1485,13 +1488,13 @@
     <t>ISHARES S&amp;P/TSX</t>
   </si>
   <si>
+    <t>VGB AU Equity</t>
+  </si>
+  <si>
+    <t>VANG AUS GOVT</t>
+  </si>
+  <si>
     <t>XRB CN Equity</t>
-  </si>
-  <si>
-    <t>VGB AU Equity</t>
-  </si>
-  <si>
-    <t>VANG AUS GOVT</t>
   </si>
   <si>
     <t>EHYA NA Equity</t>
@@ -1624,41 +1627,34 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2083,30 +2079,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" style="3" customWidth="1"/>
-    <col min="10" max="12" width="16.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="17" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="3" customWidth="1"/>
     <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2165,7 +2161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>87.069999694824205</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="4" customFormat="1">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -2283,7 +2279,7 @@
         <v>130.61000061035199</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>137.50999450683599</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>108.639999389648</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="4" customFormat="1">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>113.360000610352</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>114.040000915527</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>109.389999389648</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>84.800003051757798</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="4" customFormat="1">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -2696,7 +2692,7 @@
         <v>93.139999389648395</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1">
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
@@ -2755,7 +2751,7 @@
         <v>125.55999755859401</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="4" customFormat="1">
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2810,7 @@
         <v>82.389999389648395</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="4" customFormat="1">
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>86.230003356933594</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="4" customFormat="1">
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>110.51000213623</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="4" customFormat="1">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
@@ -2989,7 +2985,7 @@
         <v>54.599998474121101</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="4" customFormat="1">
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>108.19000244140599</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="4" customFormat="1">
+    <row r="17" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
@@ -3107,7 +3103,7 @@
         <v>49.849998474121101</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="4" customFormat="1">
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>129.96000671386699</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="4" customFormat="1">
+    <row r="19" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -3225,7 +3221,7 @@
         <v>82.120002746582003</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="4" customFormat="1">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -3284,7 +3280,7 @@
         <v>50.7299995422363</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="4" customFormat="1">
+    <row r="21" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
@@ -3343,7 +3339,7 @@
         <v>57.150001525878899</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1">
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A22" s="6" t="s">
         <v>80</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>38.400001525878899</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="4" customFormat="1">
+    <row r="23" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
@@ -3461,7 +3457,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="4" customFormat="1">
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A24" s="6" t="s">
         <v>85</v>
       </c>
@@ -3520,7 +3516,7 @@
         <v>27.290000915527301</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="4" customFormat="1">
+    <row r="25" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A25" s="6" t="s">
         <v>87</v>
       </c>
@@ -3579,7 +3575,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="4" customFormat="1">
+    <row r="26" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A26" s="6" t="s">
         <v>89</v>
       </c>
@@ -3638,7 +3634,7 @@
         <v>41.099998474121101</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="4" customFormat="1">
+    <row r="27" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
@@ -3697,7 +3693,7 @@
         <v>26.245000839233398</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="4" customFormat="1">
+    <row r="28" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A28" s="6" t="s">
         <v>94</v>
       </c>
@@ -3756,7 +3752,7 @@
         <v>59.2700004577637</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="4" customFormat="1">
+    <row r="29" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A29" s="6" t="s">
         <v>96</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>39.470001220703097</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="4" customFormat="1">
+    <row r="30" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A30" s="6" t="s">
         <v>98</v>
       </c>
@@ -3874,7 +3870,7 @@
         <v>22.159999847412099</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="4" customFormat="1">
+    <row r="31" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A31" s="6" t="s">
         <v>100</v>
       </c>
@@ -3918,7 +3914,7 @@
         <v>2.6098270150739098</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>24</v>
@@ -3933,7 +3929,7 @@
         <v>88.540000915527301</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="4" customFormat="1">
+    <row r="32" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A32" s="6" t="s">
         <v>103</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>101.889999389648</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="4" customFormat="1">
+    <row r="33" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -4051,7 +4047,7 @@
         <v>36.279998779296903</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="4" customFormat="1">
+    <row r="34" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A34" s="6" t="s">
         <v>107</v>
       </c>
@@ -4108,7 +4104,7 @@
         <v>21.120000839233398</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1">
+    <row r="35" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A35" s="6" t="s">
         <v>110</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>52.830001831054702</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="4" customFormat="1">
+    <row r="36" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A36" s="6" t="s">
         <v>112</v>
       </c>
@@ -4224,7 +4220,7 @@
         <v>91.510002136230497</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1">
+    <row r="37" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A37" s="6" t="s">
         <v>114</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>61.220001220703097</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="4" customFormat="1">
+    <row r="38" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A38" s="6" t="s">
         <v>116</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>84.339996337890597</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1">
+    <row r="39" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A39" s="6" t="s">
         <v>119</v>
       </c>
@@ -4401,7 +4397,7 @@
         <v>31.9799995422363</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1">
+    <row r="40" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A40" s="6" t="s">
         <v>121</v>
       </c>
@@ -4460,7 +4456,7 @@
         <v>51.590000152587898</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="4" customFormat="1">
+    <row r="41" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A41" s="6" t="s">
         <v>123</v>
       </c>
@@ -4519,7 +4515,7 @@
         <v>59.240001678466797</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="4" customFormat="1">
+    <row r="42" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A42" s="6" t="s">
         <v>124</v>
       </c>
@@ -4578,7 +4574,7 @@
         <v>61.509998321533203</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="4" customFormat="1">
+    <row r="43" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A43" s="6" t="s">
         <v>125</v>
       </c>
@@ -4637,7 +4633,7 @@
         <v>45.689998626708999</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="4" customFormat="1">
+    <row r="44" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A44" s="6" t="s">
         <v>128</v>
       </c>
@@ -4696,7 +4692,7 @@
         <v>67.319999694824205</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1">
+    <row r="45" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A45" s="6" t="s">
         <v>129</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>53.360000610351598</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="4" customFormat="1">
+    <row r="46" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A46" s="6" t="s">
         <v>131</v>
       </c>
@@ -4814,7 +4810,7 @@
         <v>45.669998168945298</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="4" customFormat="1">
+    <row r="47" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A47" s="6" t="s">
         <v>133</v>
       </c>
@@ -4873,7 +4869,7 @@
         <v>83.800003051757798</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1">
+    <row r="48" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A48" s="6" t="s">
         <v>135</v>
       </c>
@@ -4932,7 +4928,7 @@
         <v>30.659999847412099</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="4" customFormat="1">
+    <row r="49" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A49" s="6" t="s">
         <v>137</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>15.0100002288818</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="4" customFormat="1">
+    <row r="50" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A50" s="6" t="s">
         <v>139</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>31.280000686645501</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="4" customFormat="1">
+    <row r="51" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A51" s="6" t="s">
         <v>141</v>
       </c>
@@ -5109,7 +5105,7 @@
         <v>54.630001068115199</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="4" customFormat="1">
+    <row r="52" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A52" s="6" t="s">
         <v>143</v>
       </c>
@@ -5168,7 +5164,7 @@
         <v>50.740001678466797</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="4" customFormat="1">
+    <row r="53" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>105.59999847412099</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="4" customFormat="1">
+    <row r="54" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -5286,7 +5282,7 @@
         <v>29.209999084472699</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="4" customFormat="1">
+    <row r="55" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A55" s="6" t="s">
         <v>150</v>
       </c>
@@ -5345,7 +5341,7 @@
         <v>51.119998931884801</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="4" customFormat="1">
+    <row r="56" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A56" s="6" t="s">
         <v>152</v>
       </c>
@@ -5404,7 +5400,7 @@
         <v>28.430000305175799</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="4" customFormat="1">
+    <row r="57" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A57" s="6" t="s">
         <v>154</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="4" customFormat="1">
+    <row r="58" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A58" s="6" t="s">
         <v>156</v>
       </c>
@@ -5522,7 +5518,7 @@
         <v>30.430000305175799</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="4" customFormat="1">
+    <row r="59" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A59" s="6" t="s">
         <v>159</v>
       </c>
@@ -5581,7 +5577,7 @@
         <v>29.700000762939499</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="4" customFormat="1">
+    <row r="60" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A60" s="6" t="s">
         <v>161</v>
       </c>
@@ -5640,7 +5636,7 @@
         <v>52.930000305175803</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="4" customFormat="1">
+    <row r="61" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A61" s="6" t="s">
         <v>163</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>32.119998931884801</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="4" customFormat="1">
+    <row r="62" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A62" s="6" t="s">
         <v>165</v>
       </c>
@@ -5758,7 +5754,7 @@
         <v>127.169998168945</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="4" customFormat="1">
+    <row r="63" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A63" s="6" t="s">
         <v>167</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>51.279998779296903</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="4" customFormat="1">
+    <row r="64" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A64" s="6" t="s">
         <v>169</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>67.300003051757798</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="4" customFormat="1">
+    <row r="65" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A65" s="6" t="s">
         <v>171</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>54.009998321533203</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="4" customFormat="1">
+    <row r="66" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A66" s="6" t="s">
         <v>173</v>
       </c>
@@ -5994,7 +5990,7 @@
         <v>56.459999084472699</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="4" customFormat="1">
+    <row r="67" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A67" s="6" t="s">
         <v>175</v>
       </c>
@@ -6053,7 +6049,7 @@
         <v>50.154998779296903</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="4" customFormat="1">
+    <row r="68" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A68" s="6" t="s">
         <v>177</v>
       </c>
@@ -6112,7 +6108,7 @@
         <v>59.970001220703097</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="4" customFormat="1">
+    <row r="69" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A69" s="6" t="s">
         <v>179</v>
       </c>
@@ -6156,7 +6152,7 @@
         <v>-0.66478074639773099</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>24</v>
@@ -6171,12 +6167,12 @@
         <v>98.610000610351605</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="4" customFormat="1">
+    <row r="70" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A70" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70" s="5">
         <v>34204776</v>
@@ -6230,25 +6226,25 @@
         <v>20.219999313354499</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="4" customFormat="1">
+    <row r="71" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A71" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" s="5">
-        <v>31958124</v>
+        <v>32010866</v>
       </c>
       <c r="D71" s="5">
-        <v>1026474368</v>
+        <v>1028168384</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H71" s="5">
         <v>-4.8922470474059999E-3</v>
@@ -6266,7 +6262,7 @@
         <v>3.5690226191703398</v>
       </c>
       <c r="M71" s="5">
-        <v>-3.35604257309812</v>
+        <v>-3.1965474644911702</v>
       </c>
       <c r="N71" s="5">
         <v>9.8225229423828395</v>
@@ -6275,10 +6271,10 @@
         <v>23</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R71" s="5">
         <v>94.991085203285095</v>
@@ -6287,12 +6283,12 @@
         <v>91.282745361328097</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="4" customFormat="1">
+    <row r="72" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A72" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C72" s="5">
         <v>31849600</v>
@@ -6346,12 +6342,12 @@
         <v>99.580001831054702</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="4" customFormat="1">
+    <row r="73" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A73" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" s="5">
         <v>31715396</v>
@@ -6405,12 +6401,12 @@
         <v>51.25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="4" customFormat="1">
+    <row r="74" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A74" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C74" s="5">
         <v>31037236</v>
@@ -6464,12 +6460,12 @@
         <v>30.5100002288818</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="4" customFormat="1">
+    <row r="75" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A75" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75" s="5">
         <v>30897600</v>
@@ -6523,12 +6519,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="4" customFormat="1">
+    <row r="76" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A76" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C76" s="5">
         <v>30465440</v>
@@ -6582,12 +6578,12 @@
         <v>109.56999969482401</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="4" customFormat="1">
+    <row r="77" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A77" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77" s="5">
         <v>30373582</v>
@@ -6641,12 +6637,12 @@
         <v>25.889999389648398</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="4" customFormat="1">
+    <row r="78" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A78" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78" s="5">
         <v>29805418</v>
@@ -6700,12 +6696,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="4" customFormat="1">
+    <row r="79" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A79" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" s="5">
         <v>29124940</v>
@@ -6759,12 +6755,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="4" customFormat="1">
+    <row r="80" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A80" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80" s="5">
         <v>28665726</v>
@@ -6818,12 +6814,12 @@
         <v>47.930000305175803</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="4" customFormat="1">
+    <row r="81" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A81" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C81" s="5">
         <v>27962236</v>
@@ -6877,12 +6873,12 @@
         <v>77.769996643066406</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="4" customFormat="1">
+    <row r="82" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A82" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C82" s="5">
         <v>26064466</v>
@@ -6936,12 +6932,12 @@
         <v>30.659999847412099</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="4" customFormat="1">
+    <row r="83" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A83" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C83" s="5">
         <v>24587660</v>
@@ -6956,7 +6952,7 @@
         <v>0.669600009918213</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H83" s="5">
         <v>5.5703584686427998E-2</v>
@@ -6974,7 +6970,7 @@
         <v>6.1227694973540903</v>
       </c>
       <c r="M83" s="5">
-        <v>1.74258246808821</v>
+        <v>1.71021331719587</v>
       </c>
       <c r="N83" s="5">
         <v>13.856906788327301</v>
@@ -6983,10 +6979,10 @@
         <v>23</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R83" s="5">
         <v>40.196078799231501</v>
@@ -6995,12 +6991,12 @@
         <v>39.789909362792997</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="4" customFormat="1">
+    <row r="84" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A84" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C84" s="5">
         <v>23615836</v>
@@ -7054,12 +7050,12 @@
         <v>51.709999084472699</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="4" customFormat="1">
+    <row r="85" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A85" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C85" s="5">
         <v>22966584</v>
@@ -7113,12 +7109,12 @@
         <v>50.490001678466797</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="4" customFormat="1">
+    <row r="86" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A86" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" s="5">
         <v>21964728</v>
@@ -7170,12 +7166,12 @@
         <v>100.129997253418</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="4" customFormat="1">
+    <row r="87" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A87" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C87" s="5">
         <v>21872892</v>
@@ -7229,12 +7225,12 @@
         <v>107.73000335693401</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="4" customFormat="1">
+    <row r="88" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A88" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" s="5">
         <v>21739290</v>
@@ -7288,12 +7284,12 @@
         <v>115.080001831055</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="4" customFormat="1">
+    <row r="89" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A89" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C89" s="5">
         <v>20576082</v>
@@ -7308,7 +7304,7 @@
         <v>2.6128115653991699</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H89" s="5">
         <v>0.37243699647373502</v>
@@ -7326,7 +7322,7 @@
         <v>1.39417658265537</v>
       </c>
       <c r="M89" s="5">
-        <v>-3.4246001980690801</v>
+        <v>-3.4553254225802399</v>
       </c>
       <c r="N89" s="5">
         <v>15.599520490241501</v>
@@ -7335,10 +7331,10 @@
         <v>23</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R89" s="5">
         <v>26.392174699852202</v>
@@ -7347,12 +7343,12 @@
         <v>25.218845367431602</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="4" customFormat="1">
+    <row r="90" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A90" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C90" s="5">
         <v>19403866</v>
@@ -7406,12 +7402,12 @@
         <v>51.029998779296903</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="4" customFormat="1">
+    <row r="91" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A91" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C91" s="5">
         <v>19401260</v>
@@ -7465,12 +7461,12 @@
         <v>50.150001525878899</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="4" customFormat="1">
+    <row r="92" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A92" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C92" s="5">
         <v>19067252</v>
@@ -7524,12 +7520,12 @@
         <v>51.650001525878899</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="4" customFormat="1">
+    <row r="93" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A93" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C93" s="5">
         <v>18989838</v>
@@ -7581,12 +7577,12 @@
         <v>52.200000762939503</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="4" customFormat="1">
+    <row r="94" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A94" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C94" s="5">
         <v>18028090</v>
@@ -7640,12 +7636,12 @@
         <v>49.509998321533203</v>
       </c>
     </row>
-    <row r="95" spans="1:19" s="4" customFormat="1">
+    <row r="95" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A95" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C95" s="5">
         <v>18015926</v>
@@ -7699,12 +7695,12 @@
         <v>30.629999160766602</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="4" customFormat="1">
+    <row r="96" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A96" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C96" s="5">
         <v>17517134</v>
@@ -7758,12 +7754,12 @@
         <v>52.540000915527301</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="4" customFormat="1">
+    <row r="97" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A97" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C97" s="5">
         <v>17507608</v>
@@ -7817,12 +7813,12 @@
         <v>48.779998779296903</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="4" customFormat="1">
+    <row r="98" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A98" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98" s="5">
         <v>17436568</v>
@@ -7837,7 +7833,7 @@
         <v>0.62160003185272195</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H98" s="5">
         <v>5.5703584686427998E-2</v>
@@ -7855,7 +7851,7 @@
         <v>6.0943531879993804</v>
       </c>
       <c r="M98" s="5">
-        <v>1.7051571421721601</v>
+        <v>1.6727998980546701</v>
       </c>
       <c r="N98" s="5">
         <v>13.7865841852856</v>
@@ -7864,10 +7860,10 @@
         <v>23</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R98" s="5">
         <v>40.196078799231501</v>
@@ -7876,12 +7872,12 @@
         <v>39.789909362792997</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="4" customFormat="1">
+    <row r="99" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A99" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C99" s="5">
         <v>17396298</v>
@@ -7935,12 +7931,12 @@
         <v>48.200000762939503</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="4" customFormat="1">
+    <row r="100" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A100" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C100" s="5">
         <v>15432532</v>
@@ -7958,25 +7954,25 @@
         <v>0</v>
       </c>
       <c r="H100" s="5">
-        <v>0.19599857550740599</v>
+        <v>0.19600450563319599</v>
       </c>
       <c r="I100" s="5">
-        <v>0.86818986594214798</v>
+        <v>0.86818890567801299</v>
       </c>
       <c r="J100" s="5">
-        <v>2.31653699075274</v>
+        <v>2.31653588202989</v>
       </c>
       <c r="K100" s="5">
-        <v>-7.2830621342811999E-2</v>
+        <v>-7.2828008551239998E-2</v>
       </c>
       <c r="L100" s="5">
-        <v>5.1672652079060004</v>
+        <v>5.1672722374767499</v>
       </c>
       <c r="M100" s="5">
-        <v>-7.2830621342811999E-2</v>
+        <v>-7.2828008551239998E-2</v>
       </c>
       <c r="N100" s="5">
-        <v>28.825836149868199</v>
+        <v>28.8258375103375</v>
       </c>
       <c r="O100" s="6" t="s">
         <v>23</v>
@@ -7994,12 +7990,12 @@
         <v>25.559999465942401</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="4" customFormat="1">
+    <row r="101" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A101" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C101" s="5">
         <v>13789744</v>
@@ -8053,12 +8049,12 @@
         <v>117.919998168945</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="4" customFormat="1">
+    <row r="102" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A102" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C102" s="5">
         <v>13131090</v>
@@ -8112,12 +8108,12 @@
         <v>26.809999465942401</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="4" customFormat="1">
+    <row r="103" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A103" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C103" s="5">
         <v>12081321</v>
@@ -8132,7 +8128,7 @@
         <v>4.9769587516784703</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H103" s="5">
         <v>-0.12838698330555101</v>
@@ -8150,7 +8146,7 @@
         <v>30.0314327838563</v>
       </c>
       <c r="M103" s="5">
-        <v>13.692174385107601</v>
+        <v>13.656003501111201</v>
       </c>
       <c r="N103" s="5">
         <v>84.920866878778895</v>
@@ -8159,10 +8155,10 @@
         <v>23</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R103" s="5">
         <v>8.7672772801447394</v>
@@ -8171,12 +8167,12 @@
         <v>8.6344108581543004</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="4" customFormat="1">
+    <row r="104" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A104" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C104" s="5">
         <v>12062276</v>
@@ -8228,12 +8224,12 @@
         <v>54.990001678466797</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="4" customFormat="1">
+    <row r="105" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A105" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105" s="5">
         <v>11998179</v>
@@ -8287,12 +8283,12 @@
         <v>26.069999694824201</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="4" customFormat="1">
+    <row r="106" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A106" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C106" s="5">
         <v>11702613</v>
@@ -8346,12 +8342,12 @@
         <v>101.919998168945</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="4" customFormat="1">
+    <row r="107" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A107" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C107" s="5">
         <v>11676248</v>
@@ -8405,12 +8401,12 @@
         <v>55.619998931884801</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="4" customFormat="1">
+    <row r="108" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A108" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C108" s="5">
         <v>11647447</v>
@@ -8464,12 +8460,12 @@
         <v>59.2700004577637</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="4" customFormat="1">
+    <row r="109" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A109" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C109" s="5">
         <v>11574169</v>
@@ -8523,12 +8519,12 @@
         <v>32.189998626708999</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="4" customFormat="1">
+    <row r="110" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A110" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C110" s="5">
         <v>11305513</v>
@@ -8582,12 +8578,12 @@
         <v>141.63000488281199</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="4" customFormat="1">
+    <row r="111" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A111" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C111" s="5">
         <v>11206358</v>
@@ -8639,12 +8635,12 @@
         <v>25.120000839233398</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="4" customFormat="1">
+    <row r="112" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A112" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C112" s="5">
         <v>11149376</v>
@@ -8698,12 +8694,12 @@
         <v>51.360000610351598</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="4" customFormat="1">
+    <row r="113" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A113" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C113" s="5">
         <v>11134836</v>
@@ -8718,7 +8714,7 @@
         <v>2.0637764930725102</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H113" s="5">
         <v>9.1566665348085996E-2</v>
@@ -8736,7 +8732,7 @@
         <v>5.7381489944895696</v>
       </c>
       <c r="M113" s="5">
-        <v>0.95652316366807699</v>
+        <v>0.92440409559864101</v>
       </c>
       <c r="N113" s="5">
         <v>16.370603407940798</v>
@@ -8745,10 +8741,10 @@
         <v>23</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R113" s="5">
         <v>22.420443280721901</v>
@@ -8757,12 +8753,12 @@
         <v>22.210727691650401</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="4" customFormat="1">
+    <row r="114" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A114" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C114" s="5">
         <v>11079525</v>
@@ -8816,12 +8812,12 @@
         <v>21.129999160766602</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="4" customFormat="1">
+    <row r="115" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A115" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C115" s="5">
         <v>10939537</v>
@@ -8875,12 +8871,12 @@
         <v>26.909999847412099</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="4" customFormat="1">
+    <row r="116" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A116" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C116" s="5">
         <v>10844843</v>
@@ -8934,12 +8930,12 @@
         <v>25.340000152587901</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="4" customFormat="1">
+    <row r="117" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A117" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C117" s="5">
         <v>10775634</v>
@@ -8954,7 +8950,7 @@
         <v>3.0456852912902801</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H117" s="5">
         <v>0.24653256737521301</v>
@@ -8972,7 +8968,7 @@
         <v>1.26226514598451</v>
       </c>
       <c r="M117" s="5">
-        <v>-3.3493105305061599</v>
+        <v>-3.3800597082387802</v>
       </c>
       <c r="N117" s="5">
         <v>17.303821569820101</v>
@@ -8981,10 +8977,10 @@
         <v>23</v>
       </c>
       <c r="P117" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R117" s="5">
         <v>13.1645374144641</v>
@@ -8993,12 +8989,12 @@
         <v>12.541779518127401</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="4" customFormat="1">
+    <row r="118" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A118" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C118" s="5">
         <v>10656512</v>
@@ -9052,12 +9048,12 @@
         <v>49.810001373291001</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="4" customFormat="1">
+    <row r="119" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A119" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C119" s="5">
         <v>10608705</v>
@@ -9111,27 +9107,27 @@
         <v>54.7299995422363</v>
       </c>
     </row>
-    <row r="120" spans="1:19" s="4" customFormat="1">
+    <row r="120" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A120" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C120" s="5">
-        <v>10505725</v>
+        <v>10511978</v>
       </c>
       <c r="D120" s="5">
-        <v>6046193664</v>
+        <v>6049792000</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F120" s="5">
         <v>3.2681617736816402</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H120" s="5">
         <v>0.40135334217401603</v>
@@ -9149,19 +9145,19 @@
         <v>6.8234826019091903</v>
       </c>
       <c r="M120" s="5">
-        <v>-2.43595950751337</v>
+        <v>-2.3778908656506901</v>
       </c>
       <c r="N120" s="5">
         <v>31.136742543048499</v>
       </c>
       <c r="O120" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R120" s="5">
         <v>126.72209060897799</v>
@@ -9170,12 +9166,12 @@
         <v>120.73211669921901</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="4" customFormat="1">
+    <row r="121" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A121" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C121" s="5">
         <v>10447845</v>
@@ -9190,7 +9186,7 @@
         <v>2.5283629894256601</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H121" s="5">
         <v>0.163932892330099</v>
@@ -9208,7 +9204,7 @@
         <v>3.3381397052263799</v>
       </c>
       <c r="M121" s="5">
-        <v>-0.93092323692587398</v>
+        <v>-0.96244181859265199</v>
       </c>
       <c r="N121" s="5">
         <v>13.714457666905799</v>
@@ -9217,10 +9213,10 @@
         <v>23</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R121" s="5">
         <v>15.0673006228389</v>
@@ -9229,12 +9225,12 @@
         <v>14.730224609375</v>
       </c>
     </row>
-    <row r="122" spans="1:19" s="4" customFormat="1">
+    <row r="122" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A122" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="5">
         <v>9987960</v>
@@ -9288,12 +9284,12 @@
         <v>89.739997863769503</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="4" customFormat="1">
+    <row r="123" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A123" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C123" s="5">
         <v>9888282</v>
@@ -9308,7 +9304,7 @@
         <v>2.7970747947692902</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H123" s="5">
         <v>0.70003374016831499</v>
@@ -9326,7 +9322,7 @@
         <v>4.1403598426850197</v>
       </c>
       <c r="M123" s="5">
-        <v>-1.6615525061472101</v>
+        <v>-1.69283863991962</v>
       </c>
       <c r="N123" s="5">
         <v>24.542209532114398</v>
@@ -9335,10 +9331,10 @@
         <v>23</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q123" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R123" s="5">
         <v>18.000922176686998</v>
@@ -9347,12 +9343,12 @@
         <v>17.412063598632798</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="4" customFormat="1">
+    <row r="124" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A124" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C124" s="5">
         <v>9757281</v>
@@ -9394,10 +9390,10 @@
         <v>23</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R124" s="5">
         <v>115.860000610352</v>
@@ -9406,12 +9402,12 @@
         <v>108.65000152587901</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="4" customFormat="1">
+    <row r="125" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A125" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C125" s="5">
         <v>9665148</v>
@@ -9442,7 +9438,7 @@
         <v>6.1551884609482501</v>
       </c>
       <c r="M125" s="5">
-        <v>1.7526487779261799</v>
+        <v>1.7202764244622599</v>
       </c>
       <c r="N125" s="5">
         <v>13.902700883034401</v>
@@ -9451,10 +9447,10 @@
         <v>91</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R125" s="5">
         <v>81.083254199517</v>
@@ -9463,12 +9459,12 @@
         <v>80.319908142089801</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="4" customFormat="1">
+    <row r="126" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A126" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C126" s="5">
         <v>9627672</v>
@@ -9522,12 +9518,12 @@
         <v>43.389999389648402</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="4" customFormat="1">
+    <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A127" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C127" s="5">
         <v>9626583</v>
@@ -9581,12 +9577,12 @@
         <v>29.280000686645501</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="4" customFormat="1">
+    <row r="128" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A128" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C128" s="5">
         <v>9621522</v>
@@ -9640,12 +9636,12 @@
         <v>25.930000305175799</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="4" customFormat="1">
+    <row r="129" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A129" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C129" s="5">
         <v>9262141</v>
@@ -9654,7 +9650,7 @@
         <v>4270549760</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F129" s="5">
         <v>2.8311948776245099</v>
@@ -9684,13 +9680,13 @@
         <v>9.53803192501754</v>
       </c>
       <c r="O129" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R129" s="5">
         <v>134.169998168945</v>
@@ -9699,12 +9695,12 @@
         <v>124.699996948242</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="4" customFormat="1">
+    <row r="130" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A130" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C130" s="5">
         <v>9215004</v>
@@ -9758,12 +9754,12 @@
         <v>80.900001525878906</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="4" customFormat="1">
+    <row r="131" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A131" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C131" s="5">
         <v>9152196</v>
@@ -9817,12 +9813,12 @@
         <v>25.254999160766602</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="4" customFormat="1">
+    <row r="132" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A132" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C132" s="5">
         <v>9065774</v>
@@ -9876,12 +9872,12 @@
         <v>23.379999160766602</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="4" customFormat="1">
+    <row r="133" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A133" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C133" s="5">
         <v>9047178</v>
@@ -9935,9 +9931,9 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="4" customFormat="1">
+    <row r="134" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A134" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>42</v>
@@ -9992,12 +9988,12 @@
         <v>42.669998168945298</v>
       </c>
     </row>
-    <row r="135" spans="1:19" s="4" customFormat="1">
+    <row r="135" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A135" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C135" s="5">
         <v>8734199</v>
@@ -10006,13 +10002,13 @@
         <v>2602955264</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F135" s="5">
         <v>2.7860264778137198</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H135" s="5">
         <v>0.40568526949480399</v>
@@ -10030,7 +10026,7 @@
         <v>0.97645667901768995</v>
       </c>
       <c r="M135" s="5">
-        <v>-3.5891674272677601</v>
+        <v>-3.6198402951221</v>
       </c>
       <c r="N135" s="5">
         <v>15.5489201306765</v>
@@ -10039,10 +10035,10 @@
         <v>23</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R135" s="5">
         <v>21.549140002227698</v>
@@ -10051,18 +10047,18 @@
         <v>20.547508239746101</v>
       </c>
     </row>
-    <row r="136" spans="1:19" s="4" customFormat="1">
+    <row r="136" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A136" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C136" s="5">
-        <v>8637325</v>
+        <v>8658910</v>
       </c>
       <c r="D136" s="5">
-        <v>1638440704</v>
+        <v>1642535168</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>91</v>
@@ -10071,7 +10067,7 @@
         <v>0.45243859291076699</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H136" s="5">
         <v>-0.113582563051928</v>
@@ -10089,7 +10085,7 @@
         <v>6.1424197726323504</v>
       </c>
       <c r="M136" s="5">
-        <v>-1.0751015337910299</v>
+        <v>-0.82788462011951203</v>
       </c>
       <c r="N136" s="5">
         <v>25.6672778071711</v>
@@ -10098,10 +10094,10 @@
         <v>23</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q136" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R136" s="5">
         <v>39.776468449964</v>
@@ -10110,12 +10106,12 @@
         <v>38.088249206542997</v>
       </c>
     </row>
-    <row r="137" spans="1:19" s="4" customFormat="1">
+    <row r="137" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A137" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C137" s="5">
         <v>8183387.5</v>
@@ -10169,12 +10165,12 @@
         <v>27.049999237060501</v>
       </c>
     </row>
-    <row r="138" spans="1:19" s="4" customFormat="1">
+    <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C138" s="5">
         <v>8089866.5</v>
@@ -10228,12 +10224,12 @@
         <v>18.930000305175799</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="4" customFormat="1">
+    <row r="139" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A139" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C139" s="5">
         <v>8073008</v>
@@ -10287,12 +10283,12 @@
         <v>56.509998321533203</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="4" customFormat="1">
+    <row r="140" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A140" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C140" s="5">
         <v>8023858.5</v>
@@ -10346,27 +10342,27 @@
         <v>54.619998931884801</v>
       </c>
     </row>
-    <row r="141" spans="1:19" s="4" customFormat="1">
+    <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A141" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C141" s="5">
-        <v>7982545.5</v>
+        <v>7987296.5</v>
       </c>
       <c r="D141" s="5">
-        <v>10280182784</v>
+        <v>10286302208</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F141" s="5">
         <v>0.89618456363678001</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H141" s="5">
         <v>0.34414997342724402</v>
@@ -10384,19 +10380,19 @@
         <v>1.7160142670748599</v>
       </c>
       <c r="M141" s="5">
-        <v>-4.2302224913513999</v>
+        <v>-4.17322176768982</v>
       </c>
       <c r="N141" s="5">
         <v>17.384687436911399</v>
       </c>
       <c r="O141" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R141" s="5">
         <v>168.49770675659201</v>
@@ -10405,12 +10401,12 @@
         <v>159.21806335449199</v>
       </c>
     </row>
-    <row r="142" spans="1:19" s="4" customFormat="1">
+    <row r="142" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A142" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C142" s="5">
         <v>7845441.5</v>
@@ -10464,12 +10460,12 @@
         <v>18.784999847412099</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="4" customFormat="1">
+    <row r="143" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A143" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C143" s="5">
         <v>7715563.5</v>
@@ -10523,12 +10519,12 @@
         <v>21.649999618530298</v>
       </c>
     </row>
-    <row r="144" spans="1:19" s="4" customFormat="1">
+    <row r="144" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A144" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C144" s="5">
         <v>7698947.5</v>
@@ -10582,12 +10578,12 @@
         <v>95.239997863769503</v>
       </c>
     </row>
-    <row r="145" spans="1:19" s="4" customFormat="1">
+    <row r="145" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A145" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C145" s="5">
         <v>7379442</v>
@@ -10641,12 +10637,12 @@
         <v>19.370000839233398</v>
       </c>
     </row>
-    <row r="146" spans="1:19" s="4" customFormat="1">
+    <row r="146" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A146" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C146" s="5">
         <v>6862916</v>
@@ -10655,7 +10651,7 @@
         <v>1065119680</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="6" t="s">
@@ -10677,7 +10673,7 @@
         <v>1.56767943360432</v>
       </c>
       <c r="M146" s="5">
-        <v>-2.7745994075999798</v>
+        <v>-2.8055314282544699</v>
       </c>
       <c r="N146" s="5">
         <v>16.525494355705501</v>
@@ -10686,10 +10682,10 @@
         <v>91</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R146" s="5">
         <v>40.834516846319403</v>
@@ -10698,12 +10694,12 @@
         <v>39.519336700439503</v>
       </c>
     </row>
-    <row r="147" spans="1:19" s="4" customFormat="1">
+    <row r="147" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A147" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C147" s="5">
         <v>6802875</v>
@@ -10718,7 +10714,7 @@
         <v>2.0706000328064</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H147" s="5">
         <v>0.30646592310616899</v>
@@ -10736,7 +10732,7 @@
         <v>10.4637285337742</v>
       </c>
       <c r="M147" s="5">
-        <v>1.7324463136978701</v>
+        <v>1.70008038759797</v>
       </c>
       <c r="N147" s="5">
         <v>29.309736534268399</v>
@@ -10745,10 +10741,10 @@
         <v>23</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R147" s="5">
         <v>16.128521019916601</v>
@@ -10757,12 +10753,12 @@
         <v>15.9159641265869</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="4" customFormat="1">
+    <row r="148" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A148" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C148" s="5">
         <v>6741277</v>
@@ -10816,12 +10812,12 @@
         <v>25.950000762939499</v>
       </c>
     </row>
-    <row r="149" spans="1:19" s="4" customFormat="1">
+    <row r="149" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A149" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C149" s="5">
         <v>6531240</v>
@@ -10875,12 +10871,12 @@
         <v>25.340000152587901</v>
       </c>
     </row>
-    <row r="150" spans="1:19" s="4" customFormat="1">
+    <row r="150" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A150" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C150" s="5">
         <v>6307744</v>
@@ -10934,12 +10930,12 @@
         <v>25.6350002288818</v>
       </c>
     </row>
-    <row r="151" spans="1:19" s="4" customFormat="1">
+    <row r="151" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A151" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C151" s="5">
         <v>6059056.5</v>
@@ -10978,13 +10974,13 @@
         <v>15.270086351138399</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R151" s="5">
         <v>60.889999389648402</v>
@@ -10993,12 +10989,12 @@
         <v>55.069999694824197</v>
       </c>
     </row>
-    <row r="152" spans="1:19" s="4" customFormat="1">
+    <row r="152" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A152" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C152" s="5">
         <v>6048583</v>
@@ -11052,12 +11048,12 @@
         <v>23.0620002746582</v>
       </c>
     </row>
-    <row r="153" spans="1:19" s="4" customFormat="1">
+    <row r="153" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A153" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C153" s="5">
         <v>6046732</v>
@@ -11111,18 +11107,18 @@
         <v>24.819999694824201</v>
       </c>
     </row>
-    <row r="154" spans="1:19" s="4" customFormat="1">
+    <row r="154" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A154" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C154" s="5">
-        <v>5976140</v>
+        <v>5982193</v>
       </c>
       <c r="D154" s="5">
-        <v>2807452160</v>
+        <v>2810295808</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>69</v>
@@ -11131,7 +11127,7 @@
         <v>0.50461816787719704</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H154" s="5">
         <v>0.15572520410494001</v>
@@ -11149,7 +11145,7 @@
         <v>6.7649972772696003</v>
       </c>
       <c r="M154" s="5">
-        <v>-0.42965665670505698</v>
+        <v>-0.32880448431165099</v>
       </c>
       <c r="N154" s="5">
         <v>17.736760329069501</v>
@@ -11158,10 +11154,10 @@
         <v>23</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q154" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R154" s="5">
         <v>158.107331150818</v>
@@ -11170,12 +11166,12 @@
         <v>153.35635375976599</v>
       </c>
     </row>
-    <row r="155" spans="1:19" s="4" customFormat="1">
+    <row r="155" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A155" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C155" s="5">
         <v>5951863</v>
@@ -11229,18 +11225,18 @@
         <v>53.7299995422363</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="4" customFormat="1">
+    <row r="156" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A156" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C156" s="5">
-        <v>5863665</v>
+        <v>5869604</v>
       </c>
       <c r="D156" s="5">
-        <v>2395179264</v>
+        <v>2397605376</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>28</v>
@@ -11249,7 +11245,7 @@
         <v>2.1897382736206099</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H156" s="5">
         <v>0.26604767664930601</v>
@@ -11267,19 +11263,19 @@
         <v>6.4225525265483796</v>
       </c>
       <c r="M156" s="5">
-        <v>-3.6283926963119302</v>
+        <v>-3.5307804392153401</v>
       </c>
       <c r="N156" s="5">
         <v>19.553046446516301</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R156" s="5">
         <v>220.201228662109</v>
@@ -11288,12 +11284,12 @@
         <v>210.48410034179699</v>
       </c>
     </row>
-    <row r="157" spans="1:19" s="4" customFormat="1">
+    <row r="157" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A157" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C157" s="5">
         <v>5793616.5</v>
@@ -11347,12 +11343,12 @@
         <v>26.340000152587901</v>
       </c>
     </row>
-    <row r="158" spans="1:19" s="4" customFormat="1">
+    <row r="158" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A158" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C158" s="5">
         <v>5749847</v>
@@ -11361,7 +11357,7 @@
         <v>1715682432</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F158" s="5">
         <v>1.6027590036392201</v>
@@ -11406,12 +11402,12 @@
         <v>62.049999237060497</v>
       </c>
     </row>
-    <row r="159" spans="1:19" s="4" customFormat="1">
+    <row r="159" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A159" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C159" s="5">
         <v>5723220</v>
@@ -11465,12 +11461,12 @@
         <v>26.090000152587901</v>
       </c>
     </row>
-    <row r="160" spans="1:19" s="4" customFormat="1">
+    <row r="160" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A160" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C160" s="5">
         <v>5722176</v>
@@ -11485,7 +11481,7 @@
         <v>2.88999199867248</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H160" s="5">
         <v>0.136265575880756</v>
@@ -11503,7 +11499,7 @@
         <v>6.4571030671255896</v>
       </c>
       <c r="M160" s="5">
-        <v>1.0296697144389899</v>
+        <v>0.997527374975404</v>
       </c>
       <c r="N160" s="5">
         <v>22.3499119921218</v>
@@ -11512,10 +11508,10 @@
         <v>23</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R160" s="5">
         <v>19.9680898976031</v>
@@ -11524,248 +11520,248 @@
         <v>19.783542633056602</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="4" customFormat="1">
+    <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A161" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C161" s="5">
+        <v>5706933</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2002552832</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F161" s="5">
+        <v>1.02195608615875</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H161" s="5">
+        <v>0.55735046169482805</v>
+      </c>
+      <c r="I161" s="5">
+        <v>-0.61862687629177204</v>
+      </c>
+      <c r="J161" s="5">
+        <v>-0.91621488228028602</v>
+      </c>
+      <c r="K161" s="5">
+        <v>-5.7167677683854601</v>
+      </c>
+      <c r="L161" s="5">
+        <v>0.74903869269067302</v>
+      </c>
+      <c r="M161" s="5">
+        <v>-5.4555601680127301</v>
+      </c>
+      <c r="N161" s="5">
+        <v>5.4923788764547101</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="P161" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q161" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="R161" s="5">
+        <v>20.245850000000001</v>
+      </c>
+      <c r="S161" s="5">
+        <v>19.039127349853501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A162" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="5">
         <v>5705813.5</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D162" s="5">
         <v>291843328</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F162" s="5">
         <v>1.8142613172531099</v>
       </c>
-      <c r="G161" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161" s="5">
+      <c r="G162" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H162" s="5">
         <v>2.4028000058091501</v>
       </c>
-      <c r="I161" s="5">
+      <c r="I162" s="5">
         <v>0.89620140371955404</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J162" s="5">
         <v>-2.6095716447962101</v>
       </c>
-      <c r="K161" s="5">
+      <c r="K162" s="5">
         <v>-17.3396939896225</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L162" s="5">
         <v>-20.919186888390001</v>
       </c>
-      <c r="M161" s="5">
+      <c r="M162" s="5">
         <v>-17.3396939896225</v>
       </c>
-      <c r="N161" s="5">
+      <c r="N162" s="5">
         <v>-23.030316526331799</v>
       </c>
-      <c r="O161" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P161" s="6" t="s">
+      <c r="O162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P162" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q161" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R161" s="5">
+      <c r="Q162" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R162" s="5">
         <v>188.66000366210901</v>
       </c>
-      <c r="S161" s="5">
+      <c r="S162" s="5">
         <v>134.49000549316401</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="4" customFormat="1">
-      <c r="A162" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C162" s="5">
+    <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A163" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" s="5">
         <v>5704304.5</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D163" s="5">
         <v>1771464448</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F163" s="5">
         <v>1.88203132152557</v>
       </c>
-      <c r="G162" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H162" s="5">
+      <c r="G163" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5">
         <v>5.9125491414024997E-2</v>
       </c>
-      <c r="I162" s="5">
+      <c r="I163" s="5">
         <v>0.13727887748853401</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J163" s="5">
         <v>0.56932552223203403</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K163" s="5">
         <v>-1.1764341200795101</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L163" s="5">
         <v>1.10795765929086</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M163" s="5">
         <v>-1.1764341200795101</v>
       </c>
-      <c r="N162" s="5">
+      <c r="N163" s="5">
         <v>9.3233671612692</v>
       </c>
-      <c r="O162" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P162" s="6" t="s">
+      <c r="O163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P163" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q162" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R162" s="5">
+      <c r="Q163" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R163" s="5">
         <v>52.380001068115199</v>
       </c>
-      <c r="S162" s="5">
+      <c r="S163" s="5">
         <v>51.200000762939503</v>
       </c>
     </row>
-    <row r="163" spans="1:19" s="4" customFormat="1">
-      <c r="A163" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C163" s="5">
+    <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A164" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C164" s="5">
         <v>5702575</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D164" s="5">
         <v>4597916672</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F163" s="5">
+      <c r="E164" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F164" s="5">
         <v>4.4793391227722203</v>
       </c>
-      <c r="G163" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163" s="5">
+      <c r="G164" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" s="5">
         <v>0.25047639613873202</v>
       </c>
-      <c r="I163" s="5">
+      <c r="I164" s="5">
         <v>0.72597039756450199</v>
       </c>
-      <c r="J163" s="5">
+      <c r="J164" s="5">
         <v>0.40524717427512502</v>
       </c>
-      <c r="K163" s="5">
+      <c r="K164" s="5">
         <v>0.98010138469248897</v>
       </c>
-      <c r="L163" s="5">
+      <c r="L164" s="5">
         <v>6.4753184106757704</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M164" s="5">
         <v>0.98010138469248897</v>
       </c>
-      <c r="N163" s="5">
+      <c r="N164" s="5">
         <v>22.822062808099702</v>
       </c>
-      <c r="O163" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P163" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q163" s="6" t="s">
+      <c r="O164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P164" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="R163" s="5">
+      <c r="Q164" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="R164" s="5">
         <v>104.75</v>
       </c>
-      <c r="S163" s="5">
+      <c r="S164" s="5">
         <v>104.05999755859401</v>
       </c>
     </row>
-    <row r="164" spans="1:19" s="4" customFormat="1">
-      <c r="A164" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C164" s="5">
-        <v>5701158.5</v>
-      </c>
-      <c r="D164" s="5">
-        <v>2000526464</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F164" s="5">
-        <v>1.02195608615875</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H164" s="5">
-        <v>0.55735046169482805</v>
-      </c>
-      <c r="I164" s="5">
-        <v>-0.61862687629177204</v>
-      </c>
-      <c r="J164" s="5">
-        <v>-0.91621488228028602</v>
-      </c>
-      <c r="K164" s="5">
-        <v>-5.7167677683854601</v>
-      </c>
-      <c r="L164" s="5">
-        <v>0.74903869269067302</v>
-      </c>
-      <c r="M164" s="5">
-        <v>-5.5512248391891896</v>
-      </c>
-      <c r="N164" s="5">
-        <v>5.4923788764547101</v>
-      </c>
-      <c r="O164" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="P164" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q164" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="R164" s="5">
-        <v>20.245850000000001</v>
-      </c>
-      <c r="S164" s="5">
-        <v>19.039127349853501</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" s="4" customFormat="1">
+    <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A165" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C165" s="5">
         <v>5481315</v>
@@ -11817,12 +11813,12 @@
         <v>50.299999237060497</v>
       </c>
     </row>
-    <row r="166" spans="1:19" s="4" customFormat="1">
+    <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A166" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C166" s="5">
         <v>5454694</v>
@@ -11876,12 +11872,12 @@
         <v>56.319999694824197</v>
       </c>
     </row>
-    <row r="167" spans="1:19" s="4" customFormat="1">
+    <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A167" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C167" s="5">
         <v>5439820</v>
@@ -11896,7 +11892,7 @@
         <v>4.3884186744689897</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H167" s="5">
         <v>5.5703584686427998E-2</v>
@@ -11914,7 +11910,7 @@
         <v>29.737875397867999</v>
       </c>
       <c r="M167" s="5">
-        <v>12.8268230460066</v>
+        <v>12.790927471397801</v>
       </c>
       <c r="N167" s="5">
         <v>86.474986409358806</v>
@@ -11923,10 +11919,10 @@
         <v>23</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R167" s="5">
         <v>7.2886529209452098</v>
@@ -11935,12 +11931,12 @@
         <v>7.1462674140930202</v>
       </c>
     </row>
-    <row r="168" spans="1:19" s="4" customFormat="1">
+    <row r="168" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A168" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C168" s="5">
         <v>5437472</v>
@@ -11994,12 +11990,12 @@
         <v>22.180000305175799</v>
       </c>
     </row>
-    <row r="169" spans="1:19" s="4" customFormat="1">
+    <row r="169" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A169" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C169" s="5">
         <v>5423817</v>
@@ -12053,12 +12049,12 @@
         <v>21.149999618530298</v>
       </c>
     </row>
-    <row r="170" spans="1:19" s="4" customFormat="1">
+    <row r="170" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A170" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C170" s="5">
         <v>5327096.5</v>
@@ -12112,12 +12108,12 @@
         <v>26.340000152587901</v>
       </c>
     </row>
-    <row r="171" spans="1:19" s="4" customFormat="1">
+    <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A171" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C171" s="5">
         <v>5310125.5</v>
@@ -12171,27 +12167,27 @@
         <v>20.870000839233398</v>
       </c>
     </row>
-    <row r="172" spans="1:19" s="4" customFormat="1">
+    <row r="172" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A172" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C172" s="5">
-        <v>5197370</v>
+        <v>5202634.5</v>
       </c>
       <c r="D172" s="5">
-        <v>1591561216</v>
+        <v>1593173248</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F172" s="5">
         <v>0.39890670776367199</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H172" s="5">
         <v>0.12267972802482199</v>
@@ -12209,19 +12205,19 @@
         <v>6.4820106031287601</v>
       </c>
       <c r="M172" s="5">
-        <v>0.49078103745634499</v>
+        <v>0.59256549689317195</v>
       </c>
       <c r="N172" s="5">
         <v>11.032208859233201</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q172" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R172" s="5">
         <v>189.42466141967799</v>
@@ -12230,12 +12226,12 @@
         <v>184.53890991210901</v>
       </c>
     </row>
-    <row r="173" spans="1:19" s="4" customFormat="1">
+    <row r="173" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A173" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C173" s="5">
         <v>5046166</v>
@@ -12289,12 +12285,12 @@
         <v>23.610000610351602</v>
       </c>
     </row>
-    <row r="174" spans="1:19" s="4" customFormat="1">
+    <row r="174" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A174" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C174" s="5">
         <v>4879225.5</v>
@@ -12348,130 +12344,130 @@
         <v>25.440000534057599</v>
       </c>
     </row>
-    <row r="175" spans="1:19" s="4" customFormat="1">
+    <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A175" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C175" s="5">
+        <v>4875908.5</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1300585088</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="5">
+        <v>1.29314684867859</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H175" s="5">
+        <v>0.100528894449936</v>
+      </c>
+      <c r="I175" s="5">
+        <v>7.5283079085885996E-2</v>
+      </c>
+      <c r="J175" s="5">
+        <v>-2.33358425194703</v>
+      </c>
+      <c r="K175" s="5">
+        <v>-4.2815902106402897</v>
+      </c>
+      <c r="L175" s="5">
+        <v>2.56551680711652</v>
+      </c>
+      <c r="M175" s="5">
+        <v>-4.0928448166792704</v>
+      </c>
+      <c r="N175" s="5">
+        <v>22.1409603761713</v>
+      </c>
+      <c r="O175" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P175" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q175" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="R175" s="5">
+        <v>90.659687527963101</v>
+      </c>
+      <c r="S175" s="5">
+        <v>85.403785705566406</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A176" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C176" s="5">
         <v>4873989.5</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D176" s="5">
         <v>970827008</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E176" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F176" s="5">
         <v>1.85265052318573</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H175" s="5">
+      <c r="G176" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H176" s="5">
         <v>6.7725946977081994E-2</v>
       </c>
-      <c r="I175" s="5">
+      <c r="I176" s="5">
         <v>-6.7625741397925002E-2</v>
       </c>
-      <c r="J175" s="5">
+      <c r="J176" s="5">
         <v>-0.49623257461940401</v>
       </c>
-      <c r="K175" s="5">
+      <c r="K176" s="5">
         <v>-1.60666675641654</v>
       </c>
-      <c r="L175" s="5">
+      <c r="L176" s="5">
         <v>7.9002224282699995E-3</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M176" s="5">
         <v>-1.60666675641654</v>
       </c>
-      <c r="N175" s="5">
+      <c r="N176" s="5">
         <v>10.601560263383901</v>
       </c>
-      <c r="O175" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P175" s="6" t="s">
+      <c r="O176" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P176" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q175" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R175" s="5">
+      <c r="Q176" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R176" s="5">
         <v>22.629999160766602</v>
       </c>
-      <c r="S175" s="5">
+      <c r="S176" s="5">
         <v>22.165000915527301</v>
       </c>
     </row>
-    <row r="176" spans="1:19" s="4" customFormat="1">
-      <c r="A176" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C176" s="5">
-        <v>4863754</v>
-      </c>
-      <c r="D176" s="5">
-        <v>1297342976</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F176" s="5">
-        <v>1.29314684867859</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H176" s="5">
-        <v>0.100528894449936</v>
-      </c>
-      <c r="I176" s="5">
-        <v>7.5283079085885996E-2</v>
-      </c>
-      <c r="J176" s="5">
-        <v>-2.33358425194703</v>
-      </c>
-      <c r="K176" s="5">
-        <v>-4.2815902106402897</v>
-      </c>
-      <c r="L176" s="5">
-        <v>2.56551680711652</v>
-      </c>
-      <c r="M176" s="5">
-        <v>-4.3319228156975997</v>
-      </c>
-      <c r="N176" s="5">
-        <v>22.1409603761713</v>
-      </c>
-      <c r="O176" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P176" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q176" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="R176" s="5">
-        <v>90.659687527963101</v>
-      </c>
-      <c r="S176" s="5">
-        <v>85.403785705566406</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" s="4" customFormat="1">
+    <row r="177" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A177" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C177" s="5">
         <v>4776784.5</v>
@@ -12525,12 +12521,12 @@
         <v>20.790000915527301</v>
       </c>
     </row>
-    <row r="178" spans="1:19" s="4" customFormat="1">
+    <row r="178" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A178" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C178" s="5">
         <v>4766513.5</v>
@@ -12545,7 +12541,7 @@
         <v>2.6368358135223402</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H178" s="5">
         <v>3.5723774385476997E-2</v>
@@ -12563,7 +12559,7 @@
         <v>6.0321078891086204</v>
       </c>
       <c r="M178" s="5">
-        <v>1.6721879644817399</v>
+        <v>1.63984120942655</v>
       </c>
       <c r="N178" s="5">
         <v>15.357241834336801</v>
@@ -12572,10 +12568,10 @@
         <v>23</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q178" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R178" s="5">
         <v>40.308582326753502</v>
@@ -12584,12 +12580,12 @@
         <v>39.837657928466797</v>
       </c>
     </row>
-    <row r="179" spans="1:19" s="4" customFormat="1">
+    <row r="179" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A179" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C179" s="5">
         <v>4733881.5</v>
@@ -12604,7 +12600,7 @@
         <v>2.9126212596893302</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H179" s="5">
         <v>5.5703584686427998E-2</v>
@@ -12622,7 +12618,7 @@
         <v>6.4542409101835796</v>
       </c>
       <c r="M179" s="5">
-        <v>0.92929325318729095</v>
+        <v>0.89718284824651395</v>
       </c>
       <c r="N179" s="5">
         <v>21.974753749435902</v>
@@ -12631,10 +12627,10 @@
         <v>23</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q179" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R179" s="5">
         <v>11.5949001989792</v>
@@ -12643,12 +12639,12 @@
         <v>11.4754095077515</v>
       </c>
     </row>
-    <row r="180" spans="1:19" s="4" customFormat="1">
+    <row r="180" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A180" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C180" s="5">
         <v>4679886</v>
@@ -12702,12 +12698,12 @@
         <v>111.65000152587901</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="4" customFormat="1">
+    <row r="181" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A181" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C181" s="5">
         <v>4665126</v>
@@ -12761,12 +12757,12 @@
         <v>40.439998626708999</v>
       </c>
     </row>
-    <row r="182" spans="1:19" s="4" customFormat="1">
+    <row r="182" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A182" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C182" s="5">
         <v>4583085</v>
@@ -12820,12 +12816,12 @@
         <v>26.815000534057599</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="4" customFormat="1">
+    <row r="183" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A183" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C183" s="5">
         <v>4538453</v>
@@ -12865,10 +12861,10 @@
         <v>91</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R183" s="5">
         <v>6.1500000953674299</v>
@@ -12877,12 +12873,12 @@
         <v>5.7979998588562003</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="4" customFormat="1">
+    <row r="184" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A184" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C184" s="5">
         <v>4431408</v>
@@ -12936,12 +12932,12 @@
         <v>44.560001373291001</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="4" customFormat="1">
+    <row r="185" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A185" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C185" s="5">
         <v>4288655.5</v>
@@ -12950,7 +12946,7 @@
         <v>2606224640</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="6" t="s">
@@ -12981,10 +12977,10 @@
         <v>91</v>
       </c>
       <c r="P185" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q185" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R185" s="5">
         <v>5.4569997787475604</v>
@@ -12993,12 +12989,12 @@
         <v>5.4140000343322798</v>
       </c>
     </row>
-    <row r="186" spans="1:19" s="4" customFormat="1">
+    <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A186" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C186" s="5">
         <v>4258230</v>
@@ -13007,7 +13003,7 @@
         <v>1677664512</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="6" t="s">
@@ -13038,10 +13034,10 @@
         <v>91</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q186" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R186" s="5">
         <v>6.6090002059936497</v>
@@ -13050,12 +13046,12 @@
         <v>6.2340002059936497</v>
       </c>
     </row>
-    <row r="187" spans="1:19" s="4" customFormat="1">
+    <row r="187" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A187" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C187" s="5">
         <v>4254831.5</v>
@@ -13070,7 +13066,7 @@
         <v>2.9485714435577401</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H187" s="5">
         <v>0.74654184590765604</v>
@@ -13088,7 +13084,7 @@
         <v>-8.7649336085339495</v>
       </c>
       <c r="M187" s="5">
-        <v>-11.0069798104717</v>
+        <v>-11.0352927196686</v>
       </c>
       <c r="N187" s="5">
         <v>1.0577727251340101</v>
@@ -13097,10 +13093,10 @@
         <v>23</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R187" s="5">
         <v>16.037025486109599</v>
@@ -13109,12 +13105,12 @@
         <v>13.9264678955078</v>
       </c>
     </row>
-    <row r="188" spans="1:19" s="4" customFormat="1">
+    <row r="188" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A188" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C188" s="5">
         <v>4161577.75</v>
@@ -13123,13 +13119,13 @@
         <v>344863840</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F188" s="5">
         <v>2.74810814857483</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H188" s="5">
         <v>0.78206005661301004</v>
@@ -13147,7 +13143,7 @@
         <v>4.1679674508587903</v>
       </c>
       <c r="M188" s="5">
-        <v>-1.3322166550658301</v>
+        <v>-1.36360756622446</v>
       </c>
       <c r="N188" s="5">
         <v>24.7453769674966</v>
@@ -13156,10 +13152,10 @@
         <v>23</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R188" s="5">
         <v>9.1023820491031895</v>
@@ -13168,27 +13164,27 @@
         <v>8.8333597183227504</v>
       </c>
     </row>
-    <row r="189" spans="1:19" s="4" customFormat="1">
+    <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A189" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C189" s="5">
-        <v>4119779</v>
+        <v>4123952</v>
       </c>
       <c r="D189" s="5">
-        <v>1289953152</v>
+        <v>1291259776</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F189" s="5">
         <v>0.64597749710082997</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H189" s="5">
         <v>1.6173880322490499</v>
@@ -13206,19 +13202,19 @@
         <v>2.74471828495619</v>
       </c>
       <c r="M189" s="5">
-        <v>-3.6669684282648598</v>
+        <v>-3.5693952435088798</v>
       </c>
       <c r="N189" s="5">
         <v>13.963307114534601</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q189" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R189" s="5">
         <v>27.957001322937</v>
@@ -13227,12 +13223,12 @@
         <v>26.761875152587901</v>
       </c>
     </row>
-    <row r="190" spans="1:19" s="4" customFormat="1">
+    <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A190" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C190" s="5">
         <v>3860909.5</v>
@@ -13241,13 +13237,13 @@
         <v>999347584</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F190" s="5">
         <v>2.27335548400879</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H190" s="5">
         <v>0.13846453788342</v>
@@ -13265,7 +13261,7 @@
         <v>5.7664082833494001</v>
       </c>
       <c r="M190" s="5">
-        <v>0.93167750343783295</v>
+        <v>0.89956633995376101</v>
       </c>
       <c r="N190" s="5">
         <v>17.169245716587</v>
@@ -13274,10 +13270,10 @@
         <v>23</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R190" s="5">
         <v>19.439087539422701</v>
@@ -13286,18 +13282,18 @@
         <v>19.258316040039102</v>
       </c>
     </row>
-    <row r="191" spans="1:19" s="4" customFormat="1">
+    <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A191" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C191" s="5">
-        <v>3850134</v>
+        <v>3859755.75</v>
       </c>
       <c r="D191" s="5">
-        <v>1147549568</v>
+        <v>1150417280</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>52</v>
@@ -13306,7 +13302,7 @@
         <v>1.8048179149627701</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H191" s="5">
         <v>0.13900547422582801</v>
@@ -13324,7 +13320,7 @@
         <v>2.54625308789065</v>
       </c>
       <c r="M191" s="5">
-        <v>-4.3613121287451202</v>
+        <v>-4.1223075746873601</v>
       </c>
       <c r="N191" s="5">
         <v>22.381688129351399</v>
@@ -13333,10 +13329,10 @@
         <v>23</v>
       </c>
       <c r="P191" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q191" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R191" s="5">
         <v>40.500221851977599</v>
@@ -13345,12 +13341,12 @@
         <v>38.019786834716797</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="4" customFormat="1">
+    <row r="192" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A192" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C192" s="5">
         <v>3792341.25</v>
@@ -13365,7 +13361,7 @@
         <v>2.6192893981933598</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H192" s="5">
         <v>0.20830855665883199</v>
@@ -13383,7 +13379,7 @@
         <v>6.6989198904718004</v>
       </c>
       <c r="M192" s="5">
-        <v>1.07472681819445</v>
+        <v>1.0425701439247901</v>
       </c>
       <c r="N192" s="5">
         <v>23.8251528538988</v>
@@ -13392,10 +13388,10 @@
         <v>23</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q192" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R192" s="5">
         <v>15.8126848796043</v>
@@ -13404,12 +13400,12 @@
         <v>15.677225112915</v>
       </c>
     </row>
-    <row r="193" spans="1:19" s="4" customFormat="1">
+    <row r="193" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A193" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C193" s="5">
         <v>3700895.5</v>
@@ -13424,7 +13420,7 @@
         <v>3.3138997554779102</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H193" s="5">
         <v>0.33201442208756798</v>
@@ -13442,7 +13438,7 @@
         <v>5.8961019608243701</v>
       </c>
       <c r="M193" s="5">
-        <v>6.1384416411569998E-2</v>
+        <v>2.9550134519951001E-2</v>
       </c>
       <c r="N193" s="5">
         <v>22.322806928189198</v>
@@ -13451,10 +13447,10 @@
         <v>23</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q193" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R193" s="5">
         <v>16.779955376411898</v>
@@ -13463,12 +13459,12 @@
         <v>16.488937377929702</v>
       </c>
     </row>
-    <row r="194" spans="1:19" s="4" customFormat="1">
+    <row r="194" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A194" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C194" s="5">
         <v>3643949.5</v>
@@ -13522,12 +13518,12 @@
         <v>53.044998168945298</v>
       </c>
     </row>
-    <row r="195" spans="1:19" s="4" customFormat="1">
+    <row r="195" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A195" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C195" s="5">
         <v>3641186.75</v>
@@ -13536,13 +13532,13 @@
         <v>549399424</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F195" s="5">
         <v>4.4122462272643999</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H195" s="5">
         <v>0.345324382398005</v>
@@ -13560,7 +13556,7 @@
         <v>2.7904611563900601</v>
       </c>
       <c r="M195" s="5">
-        <v>-1.7956804161672599</v>
+        <v>-1.8269238774769401</v>
       </c>
       <c r="N195" s="5">
         <v>14.2218028814835</v>
@@ -13569,10 +13565,10 @@
         <v>23</v>
       </c>
       <c r="P195" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q195" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R195" s="5">
         <v>21.249298372223599</v>
@@ -13581,12 +13577,12 @@
         <v>20.4042644500732</v>
       </c>
     </row>
-    <row r="196" spans="1:19" s="4" customFormat="1">
+    <row r="196" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A196" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C196" s="5">
         <v>3496366</v>
@@ -13640,12 +13636,12 @@
         <v>105.68499755859401</v>
       </c>
     </row>
-    <row r="197" spans="1:19" s="4" customFormat="1">
+    <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A197" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C197" s="5">
         <v>3477136.75</v>
@@ -13660,7 +13656,7 @@
         <v>3.1967210769653298</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H197" s="5">
         <v>0.55020841251145503</v>
@@ -13678,7 +13674,7 @@
         <v>-4.5868336252219404</v>
       </c>
       <c r="M197" s="5">
-        <v>-9.0336379559962801</v>
+        <v>-9.0625786790219802</v>
       </c>
       <c r="N197" s="5">
         <v>13.334005699936</v>
@@ -13687,10 +13683,10 @@
         <v>23</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q197" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R197" s="5">
         <v>21.628017097565799</v>
@@ -13699,12 +13695,12 @@
         <v>19.417474746704102</v>
       </c>
     </row>
-    <row r="198" spans="1:19" s="4" customFormat="1">
+    <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A198" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C198" s="5">
         <v>3467004</v>
@@ -13744,10 +13740,10 @@
         <v>91</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R198" s="5">
         <v>5.1690001487731898</v>
@@ -13756,12 +13752,12 @@
         <v>5.1490001678466797</v>
       </c>
     </row>
-    <row r="199" spans="1:19" s="4" customFormat="1">
+    <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A199" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C199" s="5">
         <v>3400714.75</v>
@@ -13815,130 +13811,130 @@
         <v>26.340000152587901</v>
       </c>
     </row>
-    <row r="200" spans="1:19" s="4" customFormat="1">
+    <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A200" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C200" s="5">
+        <v>3307607.25</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1871608320</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1.7929285764694201</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H200" s="5">
+        <v>0.170606091071801</v>
+      </c>
+      <c r="I200" s="5">
+        <v>0.59431997629477695</v>
+      </c>
+      <c r="J200" s="5">
+        <v>-0.70916517033817705</v>
+      </c>
+      <c r="K200" s="5">
+        <v>0.48591470054350999</v>
+      </c>
+      <c r="L200" s="5">
+        <v>8.2877891844568499</v>
+      </c>
+      <c r="M200" s="5">
+        <v>0.76430656332677804</v>
+      </c>
+      <c r="N200" s="5">
+        <v>18.4120785826915</v>
+      </c>
+      <c r="O200" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="P200" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q200" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="R200" s="5">
+        <v>151.895973721313</v>
+      </c>
+      <c r="S200" s="5">
+        <v>147.15162658691401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A201" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C201" s="5">
         <v>3306882.25</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D201" s="5">
         <v>745552000</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F200" s="5">
+      <c r="F201" s="5">
         <v>1.88436651229858</v>
       </c>
-      <c r="G200" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H200" s="5">
+      <c r="G201" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H201" s="5">
         <v>0.34833639021294399</v>
       </c>
-      <c r="I200" s="5">
+      <c r="I201" s="5">
         <v>2.6771193448005E-2</v>
       </c>
-      <c r="J200" s="5">
+      <c r="J201" s="5">
         <v>-0.79334163570157201</v>
       </c>
-      <c r="K200" s="5">
+      <c r="K201" s="5">
         <v>-2.4212133585762499</v>
       </c>
-      <c r="L200" s="5">
+      <c r="L201" s="5">
         <v>-0.78550166990072301</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M201" s="5">
         <v>-2.4212133585762499</v>
       </c>
-      <c r="N200" s="5">
+      <c r="N201" s="5">
         <v>7.3753782617854498</v>
       </c>
-      <c r="O200" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P200" s="6" t="s">
+      <c r="O201" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P201" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q200" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R200" s="5">
+      <c r="Q201" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R201" s="5">
         <v>54.950000762939503</v>
       </c>
-      <c r="S200" s="5">
+      <c r="S201" s="5">
         <v>53.064201354980497</v>
       </c>
     </row>
-    <row r="201" spans="1:19" s="4" customFormat="1">
-      <c r="A201" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C201" s="5">
-        <v>3304260.25</v>
-      </c>
-      <c r="D201" s="5">
-        <v>1869714560</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F201" s="5">
-        <v>1.7929285764694201</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H201" s="5">
-        <v>0.170606091071801</v>
-      </c>
-      <c r="I201" s="5">
-        <v>0.59431997629477695</v>
-      </c>
-      <c r="J201" s="5">
-        <v>-0.70916517033817705</v>
-      </c>
-      <c r="K201" s="5">
-        <v>0.48591470054350999</v>
-      </c>
-      <c r="L201" s="5">
-        <v>8.2877891844568499</v>
-      </c>
-      <c r="M201" s="5">
-        <v>0.66234832791034504</v>
-      </c>
-      <c r="N201" s="5">
-        <v>18.4120785826915</v>
-      </c>
-      <c r="O201" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="P201" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q201" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="R201" s="5">
-        <v>151.895973721313</v>
-      </c>
-      <c r="S201" s="5">
-        <v>147.15162658691401</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" s="4" customFormat="1">
+    <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A202" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C202" s="5">
         <v>3279544</v>
@@ -13953,7 +13949,7 @@
         <v>2.66144824028015</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H202" s="5">
         <v>0.25188949006980099</v>
@@ -13971,7 +13967,7 @@
         <v>1.3511345903460401</v>
       </c>
       <c r="M202" s="5">
-        <v>-3.05598802459438</v>
+        <v>-3.08683052215655</v>
       </c>
       <c r="N202" s="5">
         <v>13.9870519746655</v>
@@ -13980,10 +13976,10 @@
         <v>23</v>
       </c>
       <c r="P202" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q202" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R202" s="5">
         <v>12.7474270637132</v>
@@ -13992,27 +13988,27 @@
         <v>12.1995859146118</v>
       </c>
     </row>
-    <row r="203" spans="1:19" s="4" customFormat="1">
+    <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A203" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C203" s="5">
-        <v>3233996.25</v>
+        <v>3237271.75</v>
       </c>
       <c r="D203" s="5">
-        <v>1045684160</v>
+        <v>1046743296</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F203" s="5">
         <v>1.40561866760254</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H203" s="5">
         <v>0.16590586425056</v>
@@ -14030,7 +14026,7 @@
         <v>6.8136107843743199</v>
       </c>
       <c r="M203" s="5">
-        <v>-0.29042425018588303</v>
+        <v>-0.18943105296326301</v>
       </c>
       <c r="N203" s="5">
         <v>17.765606192381401</v>
@@ -14039,10 +14035,10 @@
         <v>23</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q203" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R203" s="5">
         <v>7.5521105955123904</v>
@@ -14051,12 +14047,12 @@
         <v>7.35378074645996</v>
       </c>
     </row>
-    <row r="204" spans="1:19" s="4" customFormat="1">
+    <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A204" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C204" s="5">
         <v>3080607</v>
@@ -14065,7 +14061,7 @@
         <v>1489210880</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="6" t="s">
@@ -14096,10 +14092,10 @@
         <v>91</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R204" s="5">
         <v>6.1170001029968297</v>
@@ -14108,12 +14104,12 @@
         <v>6.0729999542236301</v>
       </c>
     </row>
-    <row r="205" spans="1:19" s="4" customFormat="1">
+    <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A205" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C205" s="5">
         <v>3039655</v>
@@ -14131,25 +14127,25 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>0.103611797548497</v>
+        <v>0.103610881572735</v>
       </c>
       <c r="I205" s="5">
-        <v>1.3531951020136399</v>
+        <v>1.35319992831664</v>
       </c>
       <c r="J205" s="5">
-        <v>0.87757644850576799</v>
+        <v>0.87757420277092502</v>
       </c>
       <c r="K205" s="5">
-        <v>1.4428652114390199</v>
+        <v>1.4428611950010799</v>
       </c>
       <c r="L205" s="5">
-        <v>6.3315863537440498</v>
+        <v>6.3315900273784598</v>
       </c>
       <c r="M205" s="5">
-        <v>1.4428652114390199</v>
+        <v>1.4428611950010799</v>
       </c>
       <c r="N205" s="5">
-        <v>21.3101988898126</v>
+        <v>21.310199406990801</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>23</v>
@@ -14167,12 +14163,12 @@
         <v>96.620002746582003</v>
       </c>
     </row>
-    <row r="206" spans="1:19" s="4" customFormat="1">
+    <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A206" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C206" s="5">
         <v>2998548.25</v>
@@ -14226,128 +14222,128 @@
         <v>69.180000305175795</v>
       </c>
     </row>
-    <row r="207" spans="1:19" s="4" customFormat="1">
+    <row r="207" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A207" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C207" s="5">
+        <v>2893584.75</v>
+      </c>
+      <c r="D207" s="5">
+        <v>825705408</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F207" s="5">
+        <v>2.7672586441039999</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H207" s="5">
+        <v>-0.19309237179421199</v>
+      </c>
+      <c r="I207" s="5">
+        <v>0.60089553120688</v>
+      </c>
+      <c r="J207" s="5">
+        <v>-1.6548808251206599</v>
+      </c>
+      <c r="K207" s="5">
+        <v>0.29432948241887602</v>
+      </c>
+      <c r="L207" s="5">
+        <v>8.8271744448547</v>
+      </c>
+      <c r="M207" s="5">
+        <v>0.49209804932122098</v>
+      </c>
+      <c r="N207" s="5">
+        <v>38.061178901884396</v>
+      </c>
+      <c r="O207" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P207" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q207" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="R207" s="5">
+        <v>8.1813598951561897</v>
+      </c>
+      <c r="S207" s="5">
+        <v>7.7971749305725098</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A208" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C208" s="5">
         <v>2893111.5</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D208" s="5">
         <v>740185024</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F207" s="5">
+      <c r="F208" s="5">
         <v>1.086928229779E-2</v>
       </c>
-      <c r="G207" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H207" s="5">
+      <c r="G208" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H208" s="5">
         <v>1.0908497009732E-2</v>
       </c>
-      <c r="I207" s="5">
+      <c r="I208" s="5">
         <v>5.9116523014819998E-3</v>
       </c>
-      <c r="J207" s="5">
+      <c r="J208" s="5">
         <v>-4.0881661851789996E-3</v>
       </c>
-      <c r="K207" s="5">
+      <c r="K208" s="5">
         <v>1.5875321435210001E-2</v>
       </c>
-      <c r="L207" s="5">
+      <c r="L208" s="5">
         <v>3.2648675077240001E-2</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M208" s="5">
         <v>1.5875321435210001E-2</v>
       </c>
-      <c r="N207" s="5"/>
-      <c r="O207" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P207" s="6" t="s">
+      <c r="N208" s="5"/>
+      <c r="O208" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P208" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q207" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R207" s="5">
+      <c r="Q208" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R208" s="5">
         <v>100.050003051758</v>
       </c>
-      <c r="S207" s="5">
+      <c r="S208" s="5">
         <v>100.02500152587901</v>
       </c>
     </row>
-    <row r="208" spans="1:19" s="4" customFormat="1">
-      <c r="A208" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C208" s="5">
-        <v>2886371.5</v>
-      </c>
-      <c r="D208" s="5">
-        <v>823647040</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F208" s="5">
-        <v>2.7672586441039999</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H208" s="5">
-        <v>-0.19309237179421199</v>
-      </c>
-      <c r="I208" s="5">
-        <v>0.60089553120688</v>
-      </c>
-      <c r="J208" s="5">
-        <v>-1.6548808251206599</v>
-      </c>
-      <c r="K208" s="5">
-        <v>0.29432948241887602</v>
-      </c>
-      <c r="L208" s="5">
-        <v>8.8271744448547</v>
-      </c>
-      <c r="M208" s="5">
-        <v>0.241590674007441</v>
-      </c>
-      <c r="N208" s="5">
-        <v>38.061178901884396</v>
-      </c>
-      <c r="O208" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P208" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q208" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="R208" s="5">
-        <v>8.1813598951561897</v>
-      </c>
-      <c r="S208" s="5">
-        <v>7.7971749305725098</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" s="4" customFormat="1">
+    <row r="209" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A209" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C209" s="5">
         <v>2836939.75</v>
@@ -14401,12 +14397,12 @@
         <v>21.329999923706101</v>
       </c>
     </row>
-    <row r="210" spans="1:19" s="4" customFormat="1">
+    <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A210" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C210" s="5">
         <v>2817152.75</v>
@@ -14460,12 +14456,12 @@
         <v>53.557899475097699</v>
       </c>
     </row>
-    <row r="211" spans="1:19" s="4" customFormat="1">
+    <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A211" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C211" s="5">
         <v>2809021.5</v>
@@ -14505,10 +14501,10 @@
         <v>91</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q211" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R211" s="5">
         <v>5.68400001525879</v>
@@ -14517,12 +14513,12 @@
         <v>5.6329998970031703</v>
       </c>
     </row>
-    <row r="212" spans="1:19" s="4" customFormat="1">
+    <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A212" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C212" s="5">
         <v>2805108.5</v>
@@ -14537,7 +14533,7 @@
         <v>2.5437788963317902</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H212" s="5">
         <v>0.38879314237769702</v>
@@ -14555,7 +14551,7 @@
         <v>4.2223220412345404</v>
       </c>
       <c r="M212" s="5">
-        <v>-1.79598770088006</v>
+        <v>-1.82723106442788</v>
       </c>
       <c r="N212" s="5">
         <v>22.449232651583898</v>
@@ -14564,10 +14560,10 @@
         <v>23</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q212" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R212" s="5">
         <v>17.846980654209698</v>
@@ -14576,18 +14572,18 @@
         <v>17.268821716308601</v>
       </c>
     </row>
-    <row r="213" spans="1:19" s="4" customFormat="1">
+    <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A213" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C213" s="5">
-        <v>2747544</v>
+        <v>2749179.25</v>
       </c>
       <c r="D213" s="5">
-        <v>329931136</v>
+        <v>330127488</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>69</v>
@@ -14612,7 +14608,7 @@
         <v>-0.88457093712410695</v>
       </c>
       <c r="M213" s="5">
-        <v>-5.93395885116262</v>
+        <v>-5.8779721656241799</v>
       </c>
       <c r="N213" s="5">
         <v>10.34700762678</v>
@@ -14621,10 +14617,10 @@
         <v>91</v>
       </c>
       <c r="P213" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q213" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R213" s="5">
         <v>13.639716024398799</v>
@@ -14633,12 +14629,12 @@
         <v>12.7499227523804</v>
       </c>
     </row>
-    <row r="214" spans="1:19" s="4" customFormat="1">
+    <row r="214" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A214" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C214" s="5">
         <v>2735937.25</v>
@@ -14692,12 +14688,12 @@
         <v>55.549999237060497</v>
       </c>
     </row>
-    <row r="215" spans="1:19" s="4" customFormat="1">
+    <row r="215" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A215" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C215" s="5">
         <v>2633231.5</v>
@@ -14712,7 +14708,7 @@
         <v>4.6132969856262198</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H215" s="5">
         <v>-0.66315124141126403</v>
@@ -14730,7 +14726,7 @@
         <v>29.590431761456301</v>
       </c>
       <c r="M215" s="5">
-        <v>13.059281654440101</v>
+        <v>13.0233121237</v>
       </c>
       <c r="N215" s="5">
         <v>84.112325500692506</v>
@@ -14739,10 +14735,10 @@
         <v>23</v>
       </c>
       <c r="P215" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q215" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R215" s="5">
         <v>17.992606388338501</v>
@@ -14751,12 +14747,12 @@
         <v>17.595098495483398</v>
       </c>
     </row>
-    <row r="216" spans="1:19" s="4" customFormat="1">
+    <row r="216" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A216" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C216" s="5">
         <v>2627691</v>
@@ -14796,10 +14792,10 @@
         <v>91</v>
       </c>
       <c r="P216" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q216" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R216" s="5">
         <v>5.9660000801086399</v>
@@ -14808,12 +14804,12 @@
         <v>5.7280001640319798</v>
       </c>
     </row>
-    <row r="217" spans="1:19" s="4" customFormat="1">
+    <row r="217" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A217" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C217" s="5">
         <v>2611910.75</v>
@@ -14867,12 +14863,12 @@
         <v>56.159999847412102</v>
       </c>
     </row>
-    <row r="218" spans="1:19" s="4" customFormat="1">
+    <row r="218" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A218" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C218" s="5">
         <v>2606717</v>
@@ -14926,18 +14922,18 @@
         <v>79.705001831054702</v>
       </c>
     </row>
-    <row r="219" spans="1:19" s="4" customFormat="1">
+    <row r="219" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A219" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C219" s="5">
-        <v>2553331.25</v>
+        <v>2555917.5</v>
       </c>
       <c r="D219" s="5">
-        <v>209564848</v>
+        <v>209777120</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>69</v>
@@ -14946,7 +14942,7 @@
         <v>1.2915632724762001</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H219" s="5">
         <v>0.16809767399414999</v>
@@ -14964,7 +14960,7 @@
         <v>9.5869810263455904</v>
       </c>
       <c r="M219" s="5">
-        <v>2.42941359071451</v>
+        <v>2.5331616398900598</v>
       </c>
       <c r="N219" s="5">
         <v>18.9245647665234</v>
@@ -14973,10 +14969,10 @@
         <v>23</v>
       </c>
       <c r="P219" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q219" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R219" s="5">
         <v>6.94897276234627</v>
@@ -14985,12 +14981,12 @@
         <v>6.8262410163879403</v>
       </c>
     </row>
-    <row r="220" spans="1:19" s="4" customFormat="1">
+    <row r="220" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A220" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C220" s="5">
         <v>2525378.5</v>
@@ -15042,27 +15038,27 @@
         <v>23.915000915527301</v>
       </c>
     </row>
-    <row r="221" spans="1:19" s="4" customFormat="1">
+    <row r="221" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A221" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C221" s="5">
-        <v>2486994.5</v>
+        <v>2488474.75</v>
       </c>
       <c r="D221" s="5">
-        <v>815006080</v>
+        <v>815491136</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F221" s="5">
         <v>4.3963890075683603</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H221" s="5">
         <v>0.359044243374806</v>
@@ -15080,7 +15076,7 @@
         <v>5.8840023719795198</v>
       </c>
       <c r="M221" s="5">
-        <v>-3.33378247102402</v>
+        <v>-3.2762481998153201</v>
       </c>
       <c r="N221" s="5">
         <v>30.565856689106301</v>
@@ -15089,10 +15085,10 @@
         <v>23</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q221" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R221" s="5">
         <v>5.8591869130611398</v>
@@ -15101,12 +15097,12 @@
         <v>5.6074800491332999</v>
       </c>
     </row>
-    <row r="222" spans="1:19" s="4" customFormat="1">
+    <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A222" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C222" s="5">
         <v>2485051.5</v>
@@ -15121,7 +15117,7 @@
         <v>4.35703468322754</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H222" s="5">
         <v>-9.5434216491673995E-2</v>
@@ -15139,7 +15135,7 @@
         <v>24.108209881275702</v>
       </c>
       <c r="M222" s="5">
-        <v>10.680801192064299</v>
+        <v>10.6455883689988</v>
       </c>
       <c r="N222" s="5">
         <v>74.002880193550496</v>
@@ -15148,10 +15144,10 @@
         <v>23</v>
       </c>
       <c r="P222" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q222" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R222" s="5">
         <v>10.687881863335599</v>
@@ -15160,136 +15156,136 @@
         <v>10.5204524993896</v>
       </c>
     </row>
-    <row r="223" spans="1:19" s="4" customFormat="1">
+    <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A223" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>297</v>
+        <v>490</v>
       </c>
       <c r="C223" s="5">
+        <v>2475776</v>
+      </c>
+      <c r="D223" s="5">
+        <v>432178144</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F223" s="5">
+        <v>1.5208495855331401</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H223" s="5">
+        <v>-2.6825677040364999E-2</v>
+      </c>
+      <c r="I223" s="5">
+        <v>-0.17164648819161199</v>
+      </c>
+      <c r="J223" s="5">
+        <v>-2.52455175742474</v>
+      </c>
+      <c r="K223" s="5">
+        <v>-4.7513186923471196</v>
+      </c>
+      <c r="L223" s="5">
+        <v>1.97720053263657</v>
+      </c>
+      <c r="M223" s="5">
+        <v>-4.5634995474486404</v>
+      </c>
+      <c r="N223" s="5">
+        <v>20.7683828970723</v>
+      </c>
+      <c r="O223" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P223" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q223" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="R223" s="5">
+        <v>41.466924216580303</v>
+      </c>
+      <c r="S223" s="5">
+        <v>38.681594848632798</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A224" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C224" s="5">
         <v>2474251.25</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D224" s="5">
         <v>467219968</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E224" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F223" s="5">
+      <c r="F224" s="5">
         <v>1.5243115425109901</v>
       </c>
-      <c r="G223" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H223" s="5">
+      <c r="G224" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H224" s="5">
         <v>-0.25819636249516698</v>
       </c>
-      <c r="I223" s="5">
+      <c r="I224" s="5">
         <v>-1.01193707647362</v>
       </c>
-      <c r="J223" s="5">
+      <c r="J224" s="5">
         <v>-0.56599296124481002</v>
       </c>
-      <c r="K223" s="5">
+      <c r="K224" s="5">
         <v>-6.1330197022059103</v>
       </c>
-      <c r="L223" s="5">
+      <c r="L224" s="5">
         <v>-1.50979474356849</v>
       </c>
-      <c r="M223" s="5">
-        <v>-5.8530125174837</v>
-      </c>
-      <c r="N223" s="5">
+      <c r="M224" s="5">
+        <v>-5.8829651486235299</v>
+      </c>
+      <c r="N224" s="5">
         <v>25.331014789389201</v>
       </c>
-      <c r="O223" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P223" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q223" s="6" t="s">
+      <c r="O224" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P224" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="R223" s="5">
+      <c r="Q224" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="R224" s="5">
         <v>21.6674548930072</v>
       </c>
-      <c r="S223" s="5">
+      <c r="S224" s="5">
         <v>20.229190826416001</v>
       </c>
     </row>
-    <row r="224" spans="1:19" s="4" customFormat="1">
-      <c r="A224" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C224" s="5">
-        <v>2469604.25</v>
-      </c>
-      <c r="D224" s="5">
-        <v>431100800</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F224" s="5">
-        <v>1.5208495855331401</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H224" s="5">
-        <v>-2.6825677040364999E-2</v>
-      </c>
-      <c r="I224" s="5">
-        <v>-0.17164648819161199</v>
-      </c>
-      <c r="J224" s="5">
-        <v>-2.52455175742474</v>
-      </c>
-      <c r="K224" s="5">
-        <v>-4.7513186923471196</v>
-      </c>
-      <c r="L224" s="5">
-        <v>1.97720053263657</v>
-      </c>
-      <c r="M224" s="5">
-        <v>-4.8014042952007197</v>
-      </c>
-      <c r="N224" s="5">
-        <v>20.7683828970723</v>
-      </c>
-      <c r="O224" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P224" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q224" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="R224" s="5">
-        <v>41.466924216580303</v>
-      </c>
-      <c r="S224" s="5">
-        <v>38.681594848632798</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" s="4" customFormat="1">
+    <row r="225" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A225" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C225" s="5">
-        <v>2439344.5</v>
+        <v>2440796.5</v>
       </c>
       <c r="D225" s="5">
-        <v>739448064</v>
+        <v>739888192</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>69</v>
@@ -15314,7 +15310,7 @@
         <v>6.0012245361742398</v>
       </c>
       <c r="M225" s="5">
-        <v>-2.4970330032118002</v>
+        <v>-2.4390007113704</v>
       </c>
       <c r="N225" s="5">
         <v>29.8797993206333</v>
@@ -15323,10 +15319,10 @@
         <v>91</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q225" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R225" s="5">
         <v>6.33435400190353</v>
@@ -15335,12 +15331,12 @@
         <v>6.1176042556762704</v>
       </c>
     </row>
-    <row r="226" spans="1:19" s="4" customFormat="1">
+    <row r="226" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A226" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C226" s="5">
         <v>2430942.75</v>
@@ -15394,12 +15390,12 @@
         <v>76.129997253417997</v>
       </c>
     </row>
-    <row r="227" spans="1:19" s="4" customFormat="1">
+    <row r="227" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A227" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C227" s="5">
         <v>2385388.75</v>
@@ -15453,12 +15449,12 @@
         <v>25.069999694824201</v>
       </c>
     </row>
-    <row r="228" spans="1:19" s="4" customFormat="1">
+    <row r="228" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A228" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C228" s="5">
         <v>2339607</v>
@@ -15512,12 +15508,12 @@
         <v>26.7299995422363</v>
       </c>
     </row>
-    <row r="229" spans="1:19" s="4" customFormat="1">
+    <row r="229" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A229" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C229" s="5">
         <v>2313766</v>
@@ -15571,12 +15567,12 @@
         <v>50.284999847412102</v>
       </c>
     </row>
-    <row r="230" spans="1:19" s="4" customFormat="1">
+    <row r="230" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A230" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C230" s="5">
         <v>2249940</v>
@@ -15591,7 +15587,7 @@
         <v>4.0167360305786097</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H230" s="5">
         <v>0.195449388890823</v>
@@ -15609,7 +15605,7 @@
         <v>33.3519088535867</v>
       </c>
       <c r="M230" s="5">
-        <v>15.3676647859944</v>
+        <v>15.3309608488722</v>
       </c>
       <c r="N230" s="5">
         <v>82.518371927996796</v>
@@ -15618,10 +15614,10 @@
         <v>23</v>
       </c>
       <c r="P230" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q230" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R230" s="5">
         <v>17.454516019189999</v>
@@ -15630,18 +15626,18 @@
         <v>17.117618560791001</v>
       </c>
     </row>
-    <row r="231" spans="1:19" s="4" customFormat="1">
+    <row r="231" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A231" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C231" s="5">
-        <v>2239379.25</v>
+        <v>2239854.75</v>
       </c>
       <c r="D231" s="5">
-        <v>1547026816</v>
+        <v>1547355136</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>40</v>
@@ -15650,7 +15646,7 @@
         <v>0.67756080627441395</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H231" s="5">
         <v>0.12621139045485599</v>
@@ -15668,7 +15664,7 @@
         <v>-1.39019714842241</v>
       </c>
       <c r="M231" s="5">
-        <v>-6.1453353430127899</v>
+        <v>-6.1254136893867903</v>
       </c>
       <c r="N231" s="5">
         <v>6.5423902801566003</v>
@@ -15677,10 +15673,10 @@
         <v>23</v>
       </c>
       <c r="P231" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q231" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R231" s="5">
         <v>114.92027233776</v>
@@ -15689,12 +15685,12 @@
         <v>106.641166687012</v>
       </c>
     </row>
-    <row r="232" spans="1:19" s="4" customFormat="1">
+    <row r="232" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A232" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C232" s="5">
         <v>2226370.5</v>
@@ -15748,12 +15744,12 @@
         <v>40.439998626708999</v>
       </c>
     </row>
-    <row r="233" spans="1:19" s="4" customFormat="1">
+    <row r="233" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A233" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C233" s="5">
         <v>2181958.25</v>
@@ -15768,7 +15764,7 @@
         <v>4.1564493179321298</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H233" s="5">
         <v>3.6603189091999E-2</v>
@@ -15786,7 +15782,7 @@
         <v>11.2547399246903</v>
       </c>
       <c r="M233" s="5">
-        <v>3.6238310223713799</v>
+        <v>3.5908633569058601</v>
       </c>
       <c r="N233" s="5">
         <v>38.574874698281498</v>
@@ -15795,10 +15791,10 @@
         <v>23</v>
       </c>
       <c r="P233" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q233" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R233" s="5">
         <v>15.461266289873199</v>
@@ -15807,12 +15803,12 @@
         <v>15.239535331726101</v>
       </c>
     </row>
-    <row r="234" spans="1:19" s="4" customFormat="1">
+    <row r="234" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A234" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C234" s="5">
         <v>2106665.75</v>
@@ -15827,7 +15823,7 @@
         <v>1.1964461803436299</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H234" s="5">
         <v>0.25364225348136799</v>
@@ -15845,7 +15841,7 @@
         <v>7.64906555289582</v>
       </c>
       <c r="M234" s="5">
-        <v>1.8122841503485301</v>
+        <v>1.77989282403843</v>
       </c>
       <c r="N234" s="5">
         <v>26.8161006185587</v>
@@ -15854,10 +15850,10 @@
         <v>23</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q234" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R234" s="5">
         <v>8.1404693944398208</v>
@@ -15866,12 +15862,12 @@
         <v>8.0614356994628906</v>
       </c>
     </row>
-    <row r="235" spans="1:19" s="4" customFormat="1">
+    <row r="235" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A235" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C235" s="5">
         <v>2098978.75</v>
@@ -15886,7 +15882,7 @@
         <v>2.0011117458343501</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H235" s="5">
         <v>0.111353193265651</v>
@@ -15904,7 +15900,7 @@
         <v>5.1512275160758003</v>
       </c>
       <c r="M235" s="5">
-        <v>0.69843747776463505</v>
+        <v>0.66640051901765096</v>
       </c>
       <c r="N235" s="5">
         <v>14.197874830292999</v>
@@ -15913,10 +15909,10 @@
         <v>23</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q235" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R235" s="5">
         <v>14.4648023143684</v>
@@ -15925,12 +15921,12 @@
         <v>14.316409111022899</v>
       </c>
     </row>
-    <row r="236" spans="1:19" s="4" customFormat="1">
+    <row r="236" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A236" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C236" s="5">
         <v>2098813.75</v>
@@ -15970,10 +15966,10 @@
         <v>91</v>
       </c>
       <c r="P236" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q236" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R236" s="5">
         <v>5.3460001945495597</v>
@@ -15982,25 +15978,25 @@
         <v>5.3235001564025897</v>
       </c>
     </row>
-    <row r="237" spans="1:19" s="4" customFormat="1">
+    <row r="237" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A237" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C237" s="5">
-        <v>2079626.75</v>
+        <v>2083058.875</v>
       </c>
       <c r="D237" s="5">
-        <v>1765340032</v>
+        <v>1768253440</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H237" s="5">
         <v>-4.8792642853290004E-3</v>
@@ -16018,7 +16014,7 @@
         <v>3.5042821401326498</v>
       </c>
       <c r="M237" s="5">
-        <v>-3.3931908435705398</v>
+        <v>-3.2337570421326198</v>
       </c>
       <c r="N237" s="5">
         <v>9.5884461109206001</v>
@@ -16027,10 +16023,10 @@
         <v>23</v>
       </c>
       <c r="P237" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q237" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R237" s="5">
         <v>94.773989117481307</v>
@@ -16039,18 +16035,18 @@
         <v>91.039146423339801</v>
       </c>
     </row>
-    <row r="238" spans="1:19" s="4" customFormat="1">
+    <row r="238" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A238" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C238" s="5">
-        <v>2035827.125</v>
+        <v>2040914.75</v>
       </c>
       <c r="D238" s="5">
-        <v>510964736</v>
+        <v>512241664</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>69</v>
@@ -16059,7 +16055,7 @@
         <v>0.89557939767837502</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H238" s="5">
         <v>-0.40072684917262802</v>
@@ -16077,7 +16073,7 @@
         <v>6.7875236816259399</v>
       </c>
       <c r="M238" s="5">
-        <v>-1.3724980467690699</v>
+        <v>-1.1260243377832699</v>
       </c>
       <c r="N238" s="5">
         <v>29.869865848478899</v>
@@ -16086,10 +16082,10 @@
         <v>23</v>
       </c>
       <c r="P238" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q238" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R238" s="5">
         <v>20.7657143466649</v>
@@ -16098,12 +16094,12 @@
         <v>19.8238410949707</v>
       </c>
     </row>
-    <row r="239" spans="1:19" s="4" customFormat="1">
+    <row r="239" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A239" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C239" s="5">
         <v>2028238.625</v>
@@ -16118,7 +16114,7 @@
         <v>3.2662723064422599</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H239" s="5">
         <v>0.11494455407290401</v>
@@ -16136,7 +16132,7 @@
         <v>4.22603982445131</v>
       </c>
       <c r="M239" s="5">
-        <v>-2.1665039226250098</v>
+        <v>-2.1976294073535501</v>
       </c>
       <c r="N239" s="5">
         <v>28.1158122698433</v>
@@ -16145,10 +16141,10 @@
         <v>23</v>
       </c>
       <c r="P239" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q239" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R239" s="5">
         <v>14.0063345479474</v>
@@ -16157,12 +16153,12 @@
         <v>13.4489889144897</v>
       </c>
     </row>
-    <row r="240" spans="1:19" s="4" customFormat="1">
+    <row r="240" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A240" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C240" s="5">
         <v>2027964.625</v>
@@ -16177,7 +16173,7 @@
         <v>2.54102683067322</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H240" s="5">
         <v>0.21485251745916301</v>
@@ -16195,7 +16191,7 @@
         <v>6.1020376427985799</v>
       </c>
       <c r="M240" s="5">
-        <v>0.80376512315210003</v>
+        <v>0.77169465467532605</v>
       </c>
       <c r="N240" s="5">
         <v>21.6884029222234</v>
@@ -16204,10 +16200,10 @@
         <v>23</v>
       </c>
       <c r="P240" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q240" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R240" s="5">
         <v>15.18606516641</v>
@@ -16216,12 +16212,12 @@
         <v>15.0326271057129</v>
       </c>
     </row>
-    <row r="241" spans="1:19" s="4" customFormat="1">
+    <row r="241" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A241" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C241" s="5">
         <v>2016485.875</v>
@@ -16236,7 +16232,7 @@
         <v>1.83588314056397</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H241" s="5">
         <v>-1.3829418295351999E-2</v>
@@ -16254,7 +16250,7 @@
         <v>5.0869594242011003</v>
       </c>
       <c r="M241" s="5">
-        <v>0.79449182946977903</v>
+        <v>0.76242431126845001</v>
       </c>
       <c r="N241" s="5">
         <v>13.5559402713933</v>
@@ -16263,10 +16259,10 @@
         <v>23</v>
       </c>
       <c r="P241" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q241" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R241" s="5">
         <v>11.571841544945601</v>
@@ -16275,12 +16271,12 @@
         <v>11.4435777664185</v>
       </c>
     </row>
-    <row r="242" spans="1:19" s="4" customFormat="1">
+    <row r="242" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A242" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C242" s="5">
         <v>2003323.875</v>
@@ -16322,10 +16318,10 @@
         <v>23</v>
       </c>
       <c r="P242" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q242" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R242" s="5">
         <v>6.4650001525878897</v>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -1014,6 +1014,12 @@
     <t>PIMCO MONTHLY IN</t>
   </si>
   <si>
+    <t>FLCB US Equity</t>
+  </si>
+  <si>
+    <t>F/L US CORE BOND</t>
+  </si>
+  <si>
     <t>IHYG LN Equity</t>
   </si>
   <si>
@@ -1023,12 +1029,6 @@
     <t>Interim</t>
   </si>
   <si>
-    <t>FLCB US Equity</t>
-  </si>
-  <si>
-    <t>F/L US CORE BOND</t>
-  </si>
-  <si>
     <t>TAIL US Equity</t>
   </si>
   <si>
@@ -1407,6 +1407,15 @@
     <t>VANGUARD CANADIA</t>
   </si>
   <si>
+    <t>CNYB NA Equity</t>
+  </si>
+  <si>
+    <t>ISH CNY BOND $D</t>
+  </si>
+  <si>
+    <t>EN Amsterdam</t>
+  </si>
+  <si>
     <t>CHCORP SW Equity</t>
   </si>
   <si>
@@ -1420,15 +1429,6 @@
   </si>
   <si>
     <t>Switzerland</t>
-  </si>
-  <si>
-    <t>CNYB NA Equity</t>
-  </si>
-  <si>
-    <t>ISH CNY BOND $D</t>
-  </si>
-  <si>
-    <t>EN Amsterdam</t>
   </si>
   <si>
     <t>00764B TT Equity</t>
@@ -2149,7 +2149,7 @@
         <v>2101051904</v>
       </c>
       <c r="D2" s="5">
-        <v>23117041664</v>
+        <v>23204339712</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -2205,10 +2205,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5">
-        <v>2006969600</v>
+        <v>2006969728</v>
       </c>
       <c r="D3" s="5">
-        <v>41365696512</v>
+        <v>41627836416</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
@@ -2264,10 +2264,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="5">
-        <v>1860374784</v>
+        <v>1860374912</v>
       </c>
       <c r="D4" s="5">
-        <v>14413409280</v>
+        <v>14385557504</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>31</v>
@@ -2326,7 +2326,7 @@
         <v>1113463936</v>
       </c>
       <c r="D5" s="5">
-        <v>10690131968</v>
+        <v>10624732160</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>22</v>
@@ -2503,13 +2503,13 @@
         <v>505628192</v>
       </c>
       <c r="D8" s="5">
-        <v>19007498240</v>
+        <v>19018620928</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="5">
-        <v>3.7430365085601802</v>
+        <v>3.7551522254943901</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>443597792</v>
       </c>
       <c r="D9" s="5">
-        <v>72830976000</v>
+        <v>72933244928</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>40</v>
@@ -2621,7 +2621,7 @@
         <v>260609376</v>
       </c>
       <c r="D10" s="5">
-        <v>24970561536</v>
+        <v>24997926912</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>49</v>
@@ -2680,7 +2680,7 @@
         <v>253753120</v>
       </c>
       <c r="D11" s="5">
-        <v>43359490048</v>
+        <v>43350126592</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>52</v>
@@ -2857,7 +2857,7 @@
         <v>224647984</v>
       </c>
       <c r="D14" s="5">
-        <v>38367391744</v>
+        <v>38408671232</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>52</v>
@@ -2975,7 +2975,7 @@
         <v>215120880</v>
       </c>
       <c r="D16" s="5">
-        <v>15230488576</v>
+        <v>15198440448</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>63</v>
@@ -3032,7 +3032,7 @@
         <v>193699136</v>
       </c>
       <c r="D17" s="5">
-        <v>11670799360</v>
+        <v>11514318848</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>37</v>
@@ -3091,7 +3091,7 @@
         <v>186052176</v>
       </c>
       <c r="D18" s="5">
-        <v>32186615808</v>
+        <v>32194842624</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>49</v>
@@ -3150,7 +3150,7 @@
         <v>172966352</v>
       </c>
       <c r="D19" s="5">
-        <v>6745603584</v>
+        <v>6761627648</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>73</v>
@@ -3209,7 +3209,7 @@
         <v>154293232</v>
       </c>
       <c r="D20" s="5">
-        <v>11299075072</v>
+        <v>11203699712</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
@@ -3327,7 +3327,7 @@
         <v>150199856</v>
       </c>
       <c r="D22" s="5">
-        <v>40571822080</v>
+        <v>40602324992</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
@@ -3386,13 +3386,13 @@
         <v>144517648</v>
       </c>
       <c r="D23" s="5">
-        <v>19061848064</v>
+        <v>19122096128</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="5">
-        <v>4.6783018112182599</v>
+        <v>4.6770982742309597</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="5">
-        <v>1.8680441379547099</v>
+        <v>1.86916208267212</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>139142688</v>
       </c>
       <c r="D25" s="5">
-        <v>4459680256</v>
+        <v>4500720128</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>22</v>
@@ -3563,7 +3563,7 @@
         <v>138483776</v>
       </c>
       <c r="D26" s="5">
-        <v>6377406464</v>
+        <v>6392939008</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>40</v>
@@ -3575,25 +3575,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>-4.5046074496223998E-2</v>
+        <v>-4.5051241695782E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>-0.269660521089365</v>
+        <v>-0.26966564845881702</v>
       </c>
       <c r="J26" s="5">
-        <v>9.3736105203313005E-2</v>
+        <v>9.3738360338635002E-2</v>
       </c>
       <c r="K26" s="5">
-        <v>-0.183992032531544</v>
+        <v>-0.18399742007918499</v>
       </c>
       <c r="L26" s="5">
-        <v>3.7261784971534402</v>
+        <v>3.72617934074484</v>
       </c>
       <c r="M26" s="5">
-        <v>0.443215974976297</v>
+        <v>0.44320870220144698</v>
       </c>
       <c r="N26" s="5">
-        <v>7.5590257370769001</v>
+        <v>7.5590142455450602</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>23</v>
@@ -3622,7 +3622,7 @@
         <v>127479496</v>
       </c>
       <c r="D27" s="5">
-        <v>14622164992</v>
+        <v>14777748480</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>58</v>
@@ -3740,7 +3740,7 @@
         <v>112819312</v>
       </c>
       <c r="D29" s="5">
-        <v>14332096512</v>
+        <v>14305366016</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>97</v>
@@ -3799,7 +3799,7 @@
         <v>112118400</v>
       </c>
       <c r="D30" s="5">
-        <v>14648592384</v>
+        <v>14655730688</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>63</v>
@@ -3858,7 +3858,7 @@
         <v>109269032</v>
       </c>
       <c r="D31" s="5">
-        <v>12086647808</v>
+        <v>12100372480</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>63</v>
@@ -3915,7 +3915,7 @@
         <v>108123744</v>
       </c>
       <c r="D32" s="5">
-        <v>17400713216</v>
+        <v>17533259776</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>58</v>
@@ -4092,7 +4092,7 @@
         <v>100356080</v>
       </c>
       <c r="D35" s="5">
-        <v>12577021952</v>
+        <v>12598256640</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>107</v>
@@ -4151,7 +4151,7 @@
         <v>85564664</v>
       </c>
       <c r="D36" s="5">
-        <v>12694848512</v>
+        <v>12722323456</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>63</v>
@@ -4210,7 +4210,7 @@
         <v>84074504</v>
       </c>
       <c r="D37" s="5">
-        <v>5848874496</v>
+        <v>5819139584</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>40</v>
@@ -4269,7 +4269,7 @@
         <v>83848672</v>
       </c>
       <c r="D38" s="5">
-        <v>6273638912</v>
+        <v>6266360320</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>97</v>
@@ -4328,7 +4328,7 @@
         <v>83558432</v>
       </c>
       <c r="D39" s="5">
-        <v>10046703616</v>
+        <v>10040551424</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>63</v>
@@ -4387,7 +4387,7 @@
         <v>81960648</v>
       </c>
       <c r="D40" s="5">
-        <v>6750214656</v>
+        <v>6758814208</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>120</v>
@@ -4443,10 +4443,10 @@
         <v>122</v>
       </c>
       <c r="C41" s="5">
-        <v>73638288</v>
+        <v>73638280</v>
       </c>
       <c r="D41" s="5">
-        <v>1203053568</v>
+        <v>1208181120</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>31</v>
@@ -4503,7 +4503,7 @@
         <v>72557536</v>
       </c>
       <c r="D42" s="5">
-        <v>4316777472</v>
+        <v>4325947392</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>125</v>
@@ -4562,7 +4562,7 @@
         <v>72284784</v>
       </c>
       <c r="D43" s="5">
-        <v>4795172864</v>
+        <v>4799994880</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>22</v>
@@ -4680,7 +4680,7 @@
         <v>67848608</v>
       </c>
       <c r="D45" s="5">
-        <v>13899479040</v>
+        <v>13904836608</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>55</v>
@@ -4739,7 +4739,7 @@
         <v>61006396</v>
       </c>
       <c r="D46" s="5">
-        <v>11809691648</v>
+        <v>11837250560</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>107</v>
@@ -4857,7 +4857,7 @@
         <v>59154456</v>
       </c>
       <c r="D48" s="5">
-        <v>7802451456</v>
+        <v>7827500032</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>52</v>
@@ -5093,7 +5093,7 @@
         <v>55249528</v>
       </c>
       <c r="D52" s="5">
-        <v>7273182208</v>
+        <v>7274872320</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>37</v>
@@ -5152,7 +5152,7 @@
         <v>54072184</v>
       </c>
       <c r="D53" s="5">
-        <v>8721189888</v>
+        <v>8759178240</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>40</v>
@@ -5270,7 +5270,7 @@
         <v>49186588</v>
       </c>
       <c r="D55" s="5">
-        <v>937889600</v>
+        <v>913409600</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>151</v>
@@ -5385,10 +5385,10 @@
         <v>155</v>
       </c>
       <c r="C57" s="5">
-        <v>48136496</v>
+        <v>48136500</v>
       </c>
       <c r="D57" s="5">
-        <v>7485775360</v>
+        <v>7570404352</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>63</v>
@@ -5447,7 +5447,7 @@
         <v>47407620</v>
       </c>
       <c r="D58" s="5">
-        <v>4569153536</v>
+        <v>4606214656</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>158</v>
@@ -5506,7 +5506,7 @@
         <v>45945316</v>
       </c>
       <c r="D59" s="5">
-        <v>3992384000</v>
+        <v>3924332032</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>37</v>
@@ -5639,22 +5639,22 @@
         <v>0</v>
       </c>
       <c r="I61" s="5">
-        <v>0.26472510100521401</v>
+        <v>0.26472571233637798</v>
       </c>
       <c r="J61" s="5">
-        <v>1.6251072886831299</v>
+        <v>1.6251152327109799</v>
       </c>
       <c r="K61" s="5">
-        <v>2.2651455443996298</v>
+        <v>2.2651453746543599</v>
       </c>
       <c r="L61" s="5">
-        <v>4.1519285144407903</v>
+        <v>4.1519367985470197</v>
       </c>
       <c r="M61" s="5">
-        <v>0.52275111410176001</v>
+        <v>0.52275127904963803</v>
       </c>
       <c r="N61" s="5">
-        <v>15.0114787579629</v>
+        <v>15.0114764305193</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>23</v>
@@ -5683,7 +5683,7 @@
         <v>42355612</v>
       </c>
       <c r="D62" s="5">
-        <v>5667707904</v>
+        <v>5679639552</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>40</v>
@@ -5860,7 +5860,7 @@
         <v>40122400</v>
       </c>
       <c r="D65" s="5">
-        <v>2798700032</v>
+        <v>2837175040</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>107</v>
@@ -5978,7 +5978,7 @@
         <v>37975240</v>
       </c>
       <c r="D67" s="5">
-        <v>1655927936</v>
+        <v>1666056064</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>107</v>
@@ -6096,7 +6096,7 @@
         <v>37187448</v>
       </c>
       <c r="D69" s="5">
-        <v>5156689920</v>
+        <v>5176600064</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>151</v>
@@ -6214,7 +6214,7 @@
         <v>32700632</v>
       </c>
       <c r="D71" s="5">
-        <v>2984190976</v>
+        <v>2962722048</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>63</v>
@@ -6332,7 +6332,7 @@
         <v>31793064</v>
       </c>
       <c r="D73" s="5">
-        <v>3473525760</v>
+        <v>3476123904</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>55</v>
@@ -6391,7 +6391,7 @@
         <v>29960598</v>
       </c>
       <c r="D74" s="5">
-        <v>3425871104</v>
+        <v>3432123136</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>86</v>
@@ -6509,7 +6509,7 @@
         <v>27388494</v>
       </c>
       <c r="D76" s="5">
-        <v>1118834944</v>
+        <v>1144508800</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>107</v>
@@ -6627,7 +6627,7 @@
         <v>26710210</v>
       </c>
       <c r="D78" s="5">
-        <v>2850047232</v>
+        <v>2847288064</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>43</v>
@@ -6639,25 +6639,25 @@
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <v>-0.216996263183211</v>
+        <v>-0.216994800669956</v>
       </c>
       <c r="I78" s="5">
-        <v>1.62062814084649</v>
+        <v>1.6206266367517299</v>
       </c>
       <c r="J78" s="5">
-        <v>2.3173923791961499</v>
+        <v>2.3173923540104502</v>
       </c>
       <c r="K78" s="5">
-        <v>-0.94367492506630701</v>
+        <v>-0.94366906015376195</v>
       </c>
       <c r="L78" s="5">
-        <v>2.626349741226</v>
+        <v>2.6263455159936302</v>
       </c>
       <c r="M78" s="5">
-        <v>-3.2449137230549301</v>
+        <v>-3.2449122134139499</v>
       </c>
       <c r="N78" s="5">
-        <v>19.2379084249682</v>
+        <v>19.237911755642401</v>
       </c>
       <c r="O78" s="6" t="s">
         <v>23</v>
@@ -6686,7 +6686,7 @@
         <v>26634332</v>
       </c>
       <c r="D79" s="5">
-        <v>1896459776</v>
+        <v>1906025600</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>52</v>
@@ -6804,7 +6804,7 @@
         <v>26445236</v>
       </c>
       <c r="D81" s="5">
-        <v>4643569664</v>
+        <v>4659768320</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>86</v>
@@ -6979,7 +6979,7 @@
         <v>23855106</v>
       </c>
       <c r="D84" s="5">
-        <v>3561088768</v>
+        <v>3571508736</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>23178200</v>
       </c>
       <c r="D85" s="5">
-        <v>2749717504</v>
+        <v>2773381376</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>43</v>
@@ -7097,7 +7097,7 @@
         <v>22300704</v>
       </c>
       <c r="D86" s="5">
-        <v>1509969792</v>
+        <v>1497970048</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>63</v>
@@ -7124,7 +7124,7 @@
         <v>5.72181741093054</v>
       </c>
       <c r="M86" s="5">
-        <v>2.2940171332421802</v>
+        <v>2.23678423676294</v>
       </c>
       <c r="N86" s="5">
         <v>13.9707822466492</v>
@@ -7212,10 +7212,10 @@
         <v>221</v>
       </c>
       <c r="C88" s="5">
-        <v>20166146</v>
+        <v>20127346</v>
       </c>
       <c r="D88" s="5">
-        <v>1028866432</v>
+        <v>1026886848</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>107</v>
@@ -7240,7 +7240,7 @@
         <v>2.7215952611627601</v>
       </c>
       <c r="M88" s="5">
-        <v>-2.13872205353477</v>
+        <v>-2.32700759422239</v>
       </c>
       <c r="N88" s="5">
         <v>11.1603636354284</v>
@@ -7284,25 +7284,25 @@
         <v>0</v>
       </c>
       <c r="H89" s="5">
-        <v>5.9415286788699999E-2</v>
+        <v>5.9410295178973997E-2</v>
       </c>
       <c r="I89" s="5">
-        <v>5.9415286788699999E-2</v>
+        <v>5.9410295178973997E-2</v>
       </c>
       <c r="J89" s="5">
-        <v>7.9430188338180996E-2</v>
+        <v>7.9428682078930002E-2</v>
       </c>
       <c r="K89" s="5">
-        <v>4.6950662144084998E-2</v>
+        <v>4.6946351831577998E-2</v>
       </c>
       <c r="L89" s="5">
-        <v>0.333109941811638</v>
+        <v>0.333111966174715</v>
       </c>
       <c r="M89" s="5">
-        <v>6.6726187040045001E-2</v>
+        <v>6.6725232056529998E-2</v>
       </c>
       <c r="N89" s="5">
-        <v>2.2840279077871499</v>
+        <v>2.2840216777548501</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>23</v>
@@ -7358,7 +7358,7 @@
         <v>0.92859360058208396</v>
       </c>
       <c r="M90" s="5">
-        <v>-2.8690332732098902</v>
+        <v>-2.9233774735785301</v>
       </c>
       <c r="N90" s="5">
         <v>12.672152607298299</v>
@@ -7447,7 +7447,7 @@
         <v>19169388</v>
       </c>
       <c r="D92" s="5">
-        <v>2383259904</v>
+        <v>2401393664</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>49</v>
@@ -7636,25 +7636,25 @@
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>-0.21439415483254201</v>
+        <v>-0.21439443963237001</v>
       </c>
       <c r="I95" s="5">
-        <v>0.77327555162667305</v>
+        <v>0.77328170395858398</v>
       </c>
       <c r="J95" s="5">
-        <v>1.5696183985382599</v>
+        <v>1.56961926342354</v>
       </c>
       <c r="K95" s="5">
-        <v>-1.80716214929783</v>
+        <v>-1.80715547469058</v>
       </c>
       <c r="L95" s="5">
-        <v>-0.19597023496095201</v>
+        <v>-0.19596429730074399</v>
       </c>
       <c r="M95" s="5">
-        <v>-2.10027032705757</v>
+        <v>-2.1002661535759102</v>
       </c>
       <c r="N95" s="5">
-        <v>5.1012226560017204</v>
+        <v>5.1012259197851701</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>23</v>
@@ -7828,7 +7828,7 @@
         <v>5.7404188479924798</v>
       </c>
       <c r="M98" s="5">
-        <v>2.2870554346630798</v>
+        <v>2.22982643321295</v>
       </c>
       <c r="N98" s="5">
         <v>13.9459570360575</v>
@@ -7860,7 +7860,7 @@
         <v>17119642</v>
       </c>
       <c r="D99" s="5">
-        <v>1295024000</v>
+        <v>1267113984</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>28</v>
@@ -7975,7 +7975,7 @@
         <v>250</v>
       </c>
       <c r="C101" s="5">
-        <v>16841478</v>
+        <v>16841476</v>
       </c>
       <c r="D101" s="5">
         <v>1579787520</v>
@@ -8298,7 +8298,7 @@
         <v>0.95531736814931101</v>
       </c>
       <c r="M106" s="5">
-        <v>-2.6696960798582201</v>
+        <v>-2.7241518082054301</v>
       </c>
       <c r="N106" s="5">
         <v>12.196160502068601</v>
@@ -8401,25 +8401,25 @@
         <v>0</v>
       </c>
       <c r="H108" s="5">
-        <v>-0.25653790481125999</v>
+        <v>-0.256543840749268</v>
       </c>
       <c r="I108" s="5">
         <v>0</v>
       </c>
       <c r="J108" s="5">
-        <v>1.40191532415523</v>
+        <v>1.4019131747389499</v>
       </c>
       <c r="K108" s="5">
-        <v>1.09397407186329</v>
+        <v>1.0939671744191599</v>
       </c>
       <c r="L108" s="5">
-        <v>5.5170409640330504</v>
+        <v>5.5170446014785899</v>
       </c>
       <c r="M108" s="5">
-        <v>0.93795967674608105</v>
+        <v>0.93795742346920497</v>
       </c>
       <c r="N108" s="5">
-        <v>14.8091204240121</v>
+        <v>14.8091066639251</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>23</v>
@@ -8448,7 +8448,7 @@
         <v>12264330</v>
       </c>
       <c r="D109" s="5">
-        <v>1241603968</v>
+        <v>1249563008</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>43</v>
@@ -8532,7 +8532,7 @@
         <v>5.7624370468120301</v>
       </c>
       <c r="M110" s="5">
-        <v>2.3038552991806198</v>
+        <v>2.2466168983058501</v>
       </c>
       <c r="N110" s="5">
         <v>14.0164003907463</v>
@@ -8564,7 +8564,7 @@
         <v>11966079</v>
       </c>
       <c r="D111" s="5">
-        <v>1038512576</v>
+        <v>1035374976</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>58</v>
@@ -8618,16 +8618,16 @@
         <v>272</v>
       </c>
       <c r="C112" s="5">
-        <v>11567944</v>
+        <v>11560468</v>
       </c>
       <c r="D112" s="5">
-        <v>1678045824</v>
+        <v>1676961408</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F112" s="5">
-        <v>0.452348232269287</v>
+        <v>0.45243859291076699</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>273</v>
@@ -8648,7 +8648,7 @@
         <v>9.4067751773371509</v>
       </c>
       <c r="M112" s="5">
-        <v>0.65540135123334198</v>
+        <v>0.59034957497219298</v>
       </c>
       <c r="N112" s="5">
         <v>23.767857158367601</v>
@@ -8707,7 +8707,7 @@
         <v>3.6063027145011302</v>
       </c>
       <c r="M113" s="5">
-        <v>-1.3840882456653201</v>
+        <v>-1.43926326397835</v>
       </c>
       <c r="N113" s="5">
         <v>17.213735846303901</v>
@@ -8739,7 +8739,7 @@
         <v>11391231</v>
       </c>
       <c r="D114" s="5">
-        <v>1348605824</v>
+        <v>1362303616</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>107</v>
@@ -8795,10 +8795,10 @@
         <v>281</v>
       </c>
       <c r="C115" s="5">
-        <v>11188925</v>
+        <v>11161843</v>
       </c>
       <c r="D115" s="5">
-        <v>10856542208</v>
+        <v>10809810944</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>282</v>
@@ -8825,7 +8825,7 @@
         <v>2.7755774102669299</v>
       </c>
       <c r="M115" s="5">
-        <v>-2.65518720562737</v>
+        <v>-2.8908106018563098</v>
       </c>
       <c r="N115" s="5">
         <v>17.2732162692649</v>
@@ -8943,7 +8943,7 @@
         <v>28.539273357238802</v>
       </c>
       <c r="M117" s="5">
-        <v>15.0113427933574</v>
+        <v>14.946994628523299</v>
       </c>
       <c r="N117" s="5">
         <v>71.220940942881896</v>
@@ -8987,25 +8987,25 @@
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>2.3656898106083998E-2</v>
+        <v>2.3657303551382999E-2</v>
       </c>
       <c r="I118" s="5">
-        <v>7.0995256000406001E-2</v>
+        <v>7.0996466437489997E-2</v>
       </c>
       <c r="J118" s="5">
-        <v>3.6888708175130999E-2</v>
+        <v>3.6890408575041E-2</v>
       </c>
       <c r="K118" s="5">
-        <v>0.107041437515765</v>
+        <v>0.10703460641015</v>
       </c>
       <c r="L118" s="5">
-        <v>0.15459449751278301</v>
+        <v>0.15458857180159499</v>
       </c>
       <c r="M118" s="5">
-        <v>5.9849600688254997E-2</v>
+        <v>5.9842112570195997E-2</v>
       </c>
       <c r="N118" s="5">
-        <v>1.45235365961018</v>
+        <v>1.45235154930321</v>
       </c>
       <c r="O118" s="6" t="s">
         <v>23</v>
@@ -9152,7 +9152,7 @@
         <v>10093709</v>
       </c>
       <c r="D121" s="5">
-        <v>2238152448</v>
+        <v>2242619904</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>37</v>
@@ -9179,7 +9179,7 @@
         <v>5.1951070195407603</v>
       </c>
       <c r="M121" s="5">
-        <v>1.54597301527946</v>
+        <v>1.4891586450519501</v>
       </c>
       <c r="N121" s="5">
         <v>15.446395345110901</v>
@@ -9211,7 +9211,7 @@
         <v>10083676</v>
       </c>
       <c r="D122" s="5">
-        <v>1571951104</v>
+        <v>1577927936</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>86</v>
@@ -9270,7 +9270,7 @@
         <v>9908628</v>
       </c>
       <c r="D123" s="5">
-        <v>2074436224</v>
+        <v>2082984576</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>86</v>
@@ -9341,25 +9341,25 @@
         <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>-0.11057419913325101</v>
+        <v>-0.11057430449558101</v>
       </c>
       <c r="I124" s="5">
-        <v>0.63126652197353905</v>
+        <v>0.63126479909425504</v>
       </c>
       <c r="J124" s="5">
-        <v>1.15509362442341</v>
+        <v>1.1551003968965701</v>
       </c>
       <c r="K124" s="5">
-        <v>0.60453189686937603</v>
+        <v>0.60453446610557704</v>
       </c>
       <c r="L124" s="5">
-        <v>3.53468041124128</v>
+        <v>3.5346769056098202</v>
       </c>
       <c r="M124" s="5">
-        <v>0.56742482095357705</v>
+        <v>0.56742542062764301</v>
       </c>
       <c r="N124" s="5">
-        <v>6.5390710733874</v>
+        <v>6.5390684055196102</v>
       </c>
       <c r="O124" s="6" t="s">
         <v>23</v>
@@ -9459,25 +9459,25 @@
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>-3.8256423547567003E-2</v>
+        <v>-3.8260407288437E-2</v>
       </c>
       <c r="I126" s="5">
-        <v>0.345615368951813</v>
+        <v>0.34561456588464401</v>
       </c>
       <c r="J126" s="5">
-        <v>1.5763576310029701</v>
+        <v>1.57634984875372</v>
       </c>
       <c r="K126" s="5">
-        <v>1.61266444062411</v>
+        <v>1.6126569899654899</v>
       </c>
       <c r="L126" s="5">
-        <v>7.6550288302923004</v>
+        <v>7.6550329979257796</v>
       </c>
       <c r="M126" s="5">
-        <v>1.80844727319072</v>
+        <v>1.8084451282790199</v>
       </c>
       <c r="N126" s="5">
-        <v>18.802974383247001</v>
+        <v>18.802974219043001</v>
       </c>
       <c r="O126" s="6" t="s">
         <v>23</v>
@@ -9506,7 +9506,7 @@
         <v>9183997</v>
       </c>
       <c r="D127" s="5">
-        <v>479599968</v>
+        <v>488319968</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>43</v>
@@ -9622,7 +9622,7 @@
         <v>8709416</v>
       </c>
       <c r="D129" s="5">
-        <v>843966656</v>
+        <v>854948672</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>158</v>
@@ -9740,7 +9740,7 @@
         <v>8405588</v>
       </c>
       <c r="D131" s="5">
-        <v>2631721984</v>
+        <v>2633789184</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>318</v>
@@ -9767,7 +9767,7 @@
         <v>0.863553071425471</v>
       </c>
       <c r="M131" s="5">
-        <v>-2.9831057068078901</v>
+        <v>-3.0373860843258198</v>
       </c>
       <c r="N131" s="5">
         <v>11.6216834616769</v>
@@ -9811,25 +9811,25 @@
         <v>0</v>
       </c>
       <c r="H132" s="5">
-        <v>9.2380868896423995E-2</v>
+        <v>9.2383764911895996E-2</v>
       </c>
       <c r="I132" s="5">
-        <v>4.6169108736316002E-2</v>
+        <v>4.6170555407276999E-2</v>
       </c>
       <c r="J132" s="5">
-        <v>0.14643832172673801</v>
+        <v>0.146444508114696</v>
       </c>
       <c r="K132" s="5">
-        <v>0.11211076469535</v>
+        <v>0.112105328360523</v>
       </c>
       <c r="L132" s="5">
-        <v>0.31838554212824099</v>
+        <v>0.31838793087899397</v>
       </c>
       <c r="M132" s="5">
-        <v>6.6074683769401996E-2</v>
+        <v>6.6076895973420993E-2</v>
       </c>
       <c r="N132" s="5">
-        <v>2.9708251227575899</v>
+        <v>2.9708240481563002</v>
       </c>
       <c r="O132" s="6" t="s">
         <v>23</v>
@@ -9917,7 +9917,7 @@
         <v>7953485</v>
       </c>
       <c r="D134" s="5">
-        <v>847080000</v>
+        <v>853867520</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>73</v>
@@ -9988,25 +9988,25 @@
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>-4.5893659759832998E-2</v>
+        <v>-4.5894212263009E-2</v>
       </c>
       <c r="I135" s="5">
         <v>0</v>
       </c>
       <c r="J135" s="5">
-        <v>0.19549496420590001</v>
+        <v>0.195495090217679</v>
       </c>
       <c r="K135" s="5">
-        <v>-6.1122494470320001E-3</v>
+        <v>-6.1204941150359996E-3</v>
       </c>
       <c r="L135" s="5">
-        <v>0.56684365760928401</v>
+        <v>0.56684105080597702</v>
       </c>
       <c r="M135" s="5">
-        <v>-9.7435462238837006E-2</v>
+        <v>-9.7435489506014994E-2</v>
       </c>
       <c r="N135" s="5">
-        <v>4.2584475278571299</v>
+        <v>4.2584505808648698</v>
       </c>
       <c r="O135" s="6" t="s">
         <v>23</v>
@@ -10047,25 +10047,25 @@
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>-0.35254850088717299</v>
+        <v>-0.35255232555633198</v>
       </c>
       <c r="I136" s="5">
-        <v>0.248269890341835</v>
+        <v>0.24826580478150001</v>
       </c>
       <c r="J136" s="5">
-        <v>0.91279123255179095</v>
+        <v>0.91278427918066696</v>
       </c>
       <c r="K136" s="5">
-        <v>-1.1191769144005299</v>
+        <v>-1.11917529471494</v>
       </c>
       <c r="L136" s="5">
-        <v>3.2016455499594997E-2</v>
+        <v>3.2011645613571997E-2</v>
       </c>
       <c r="M136" s="5">
-        <v>-1.58211122875123</v>
+        <v>-1.58211179225232</v>
       </c>
       <c r="N136" s="5">
-        <v>6.0592169567639198</v>
+        <v>6.0592172081092004</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>23</v>
@@ -10106,25 +10106,25 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>-5.2484629572858002E-2</v>
+        <v>-5.2484583596001999E-2</v>
       </c>
       <c r="I137" s="5">
         <v>0</v>
       </c>
       <c r="J137" s="5">
-        <v>1.4093463929054399</v>
+        <v>1.4093531552785299</v>
       </c>
       <c r="K137" s="5">
-        <v>1.9576072547445</v>
+        <v>1.9576037282220899</v>
       </c>
       <c r="L137" s="5">
-        <v>3.0952715125898802</v>
+        <v>3.0952757452725499</v>
       </c>
       <c r="M137" s="5">
-        <v>0.31227867364567202</v>
+        <v>0.31227327498299901</v>
       </c>
       <c r="N137" s="5">
-        <v>12.999747227797601</v>
+        <v>12.999742347100799</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>23</v>
@@ -10153,7 +10153,7 @@
         <v>7783843.5</v>
       </c>
       <c r="D138" s="5">
-        <v>1310252288</v>
+        <v>1314269056</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>73</v>
@@ -10180,7 +10180,7 @@
         <v>10.0957019322239</v>
       </c>
       <c r="M138" s="5">
-        <v>2.7132913058892401</v>
+        <v>2.65582382799467</v>
       </c>
       <c r="N138" s="5">
         <v>26.254842043617199</v>
@@ -10209,114 +10209,114 @@
         <v>332</v>
       </c>
       <c r="C139" s="5">
-        <v>7764279.5</v>
+        <v>7749793.5</v>
       </c>
       <c r="D139" s="5">
-        <v>6130626560</v>
+        <v>1491697152</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="F139" s="5">
-        <v>3.2627530097961399</v>
+        <v>2.75750708580017</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="H139" s="5">
-        <v>0.16153836565573301</v>
+        <v>-0.122047786593216</v>
       </c>
       <c r="I139" s="5">
-        <v>0.877081231126842</v>
+        <v>0.35205218409142303</v>
       </c>
       <c r="J139" s="5">
-        <v>1.3956257672325301</v>
+        <v>0.74459426111608296</v>
       </c>
       <c r="K139" s="5">
-        <v>0.81864164019482799</v>
+        <v>-1.78217345084228</v>
       </c>
       <c r="L139" s="5">
-        <v>8.4668127078171498</v>
+        <v>-1.5140680891918199</v>
       </c>
       <c r="M139" s="5">
-        <v>-0.44618257020664398</v>
+        <v>-2.4064061649079398</v>
       </c>
       <c r="N139" s="5">
-        <v>27.355985536561299</v>
+        <v>0.96915697607111695</v>
       </c>
       <c r="O139" s="6" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="R139" s="5">
-        <v>126.72209060897799</v>
+        <v>26.7700004577637</v>
       </c>
       <c r="S139" s="5">
-        <v>123.06883239746099</v>
+        <v>25.3689994812012</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A140" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="5">
+        <v>7745486</v>
+      </c>
+      <c r="D140" s="5">
+        <v>6130519040</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F140" s="5">
+        <v>3.2627530097961399</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H140" s="5">
+        <v>0.16153836565573301</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0.877081231126842</v>
+      </c>
+      <c r="J140" s="5">
+        <v>1.3956257672325301</v>
+      </c>
+      <c r="K140" s="5">
+        <v>0.81864164019482799</v>
+      </c>
+      <c r="L140" s="5">
+        <v>8.4668127078171498</v>
+      </c>
+      <c r="M140" s="5">
+        <v>-0.68715286843827905</v>
+      </c>
+      <c r="N140" s="5">
+        <v>27.355985536561299</v>
+      </c>
+      <c r="O140" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C140" s="5">
-        <v>7749793.5</v>
-      </c>
-      <c r="D140" s="5">
-        <v>1491697152</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F140" s="5">
-        <v>2.75750708580017</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140" s="5">
-        <v>-0.122047786593216</v>
-      </c>
-      <c r="I140" s="5">
-        <v>0.35205218409142303</v>
-      </c>
-      <c r="J140" s="5">
-        <v>0.74459426111608296</v>
-      </c>
-      <c r="K140" s="5">
-        <v>-1.78217345084228</v>
-      </c>
-      <c r="L140" s="5">
-        <v>-1.5140680891918199</v>
-      </c>
-      <c r="M140" s="5">
-        <v>-2.4064061649079398</v>
-      </c>
-      <c r="N140" s="5">
-        <v>0.96915697607111695</v>
-      </c>
-      <c r="O140" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="P140" s="6" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="R140" s="5">
-        <v>26.7700004577637</v>
+        <v>126.72209060897799</v>
       </c>
       <c r="S140" s="5">
-        <v>25.3689994812012</v>
+        <v>123.06883239746099</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10389,7 +10389,7 @@
         <v>7485654</v>
       </c>
       <c r="D142" s="5">
-        <v>628835968</v>
+        <v>631546496</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>55</v>
@@ -10460,25 +10460,25 @@
         <v>0</v>
       </c>
       <c r="H143" s="5">
-        <v>-7.8587258012175004E-2</v>
+        <v>-7.8588049249007003E-2</v>
       </c>
       <c r="I143" s="5">
-        <v>0.11811294132311199</v>
+        <v>0.118114132855762</v>
       </c>
       <c r="J143" s="5">
-        <v>1.29277279978253</v>
+        <v>1.2927727040539001</v>
       </c>
       <c r="K143" s="5">
-        <v>1.3510463579582199</v>
+        <v>1.35104758514875</v>
       </c>
       <c r="L143" s="5">
-        <v>4.6208528667295097</v>
+        <v>4.62084435151686</v>
       </c>
       <c r="M143" s="5">
-        <v>1.23125334365135</v>
+        <v>1.2312494640201599</v>
       </c>
       <c r="N143" s="5">
-        <v>13.7681092639904</v>
+        <v>13.7681006842268</v>
       </c>
       <c r="O143" s="6" t="s">
         <v>23</v>
@@ -10504,10 +10504,10 @@
         <v>342</v>
       </c>
       <c r="C144" s="5">
-        <v>7073465</v>
+        <v>7059855.5</v>
       </c>
       <c r="D144" s="5">
-        <v>1787317120</v>
+        <v>1783878272</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>107</v>
@@ -10532,7 +10532,7 @@
         <v>2.6574398648215398</v>
       </c>
       <c r="M144" s="5">
-        <v>-2.1905084916725301</v>
+        <v>-2.37869439501931</v>
       </c>
       <c r="N144" s="5">
         <v>10.934443032961401</v>
@@ -10564,7 +10564,7 @@
         <v>6839863</v>
       </c>
       <c r="D145" s="5">
-        <v>7947880448</v>
+        <v>8038091776</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>43</v>
@@ -10635,25 +10635,25 @@
         <v>0</v>
       </c>
       <c r="H146" s="5">
-        <v>-8.5399050804946003E-2</v>
+        <v>-8.5400270069368997E-2</v>
       </c>
       <c r="I146" s="5">
-        <v>8.5545160314782001E-2</v>
+        <v>8.5546383754886005E-2</v>
       </c>
       <c r="J146" s="5">
-        <v>1.05742453357374</v>
+        <v>1.0574253103846001</v>
       </c>
       <c r="K146" s="5">
-        <v>1.30389237972683</v>
+        <v>1.30389250664893</v>
       </c>
       <c r="L146" s="5">
-        <v>3.4911873379145999</v>
+        <v>3.4911867989499101</v>
       </c>
       <c r="M146" s="5">
-        <v>1.2170794729300201</v>
+        <v>1.21708073221105</v>
       </c>
       <c r="N146" s="5">
-        <v>8.4709223204143296</v>
+        <v>8.4709289169386608</v>
       </c>
       <c r="O146" s="6" t="s">
         <v>23</v>
@@ -10682,7 +10682,7 @@
         <v>6643627</v>
       </c>
       <c r="D147" s="5">
-        <v>4196065792</v>
+        <v>4153224704</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>282</v>
@@ -10715,7 +10715,7 @@
         <v>2.60359358966722</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P147" s="6" t="s">
         <v>285</v>
@@ -10886,7 +10886,7 @@
         <v>5.1130211766641196</v>
       </c>
       <c r="M150" s="5">
-        <v>1.40636216100982</v>
+        <v>1.3496259022280701</v>
       </c>
       <c r="N150" s="5">
         <v>15.116889883119599</v>
@@ -10945,7 +10945,7 @@
         <v>-8.8565220366168305</v>
       </c>
       <c r="M151" s="5">
-        <v>-10.960387097522499</v>
+        <v>-11.010204233368899</v>
       </c>
       <c r="N151" s="5">
         <v>0.84685793126340103</v>
@@ -11095,7 +11095,7 @@
         <v>5912745.5</v>
       </c>
       <c r="D154" s="5">
-        <v>1112305792</v>
+        <v>1118263040</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>282</v>
@@ -11120,7 +11120,7 @@
         <v>1.2666934544926201</v>
       </c>
       <c r="M154" s="5">
-        <v>-2.27696313652898</v>
+        <v>-2.3316385966309801</v>
       </c>
       <c r="N154" s="5">
         <v>11.7964486304312</v>
@@ -11149,10 +11149,10 @@
         <v>362</v>
       </c>
       <c r="C155" s="5">
-        <v>5882363.5</v>
+        <v>5883640</v>
       </c>
       <c r="D155" s="5">
-        <v>2445872384</v>
+        <v>2446403072</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>28</v>
@@ -11179,13 +11179,13 @@
         <v>6.0994858455382301</v>
       </c>
       <c r="M155" s="5">
-        <v>-2.57838684892356</v>
+        <v>-2.5572445555421899</v>
       </c>
       <c r="N155" s="5">
         <v>16.009003411326901</v>
       </c>
       <c r="O155" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P155" s="6" t="s">
         <v>285</v>
@@ -11326,10 +11326,10 @@
         <v>367</v>
       </c>
       <c r="C158" s="5">
-        <v>5819366</v>
+        <v>5820629</v>
       </c>
       <c r="D158" s="5">
-        <v>2043592704</v>
+        <v>2044036096</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>282</v>
@@ -11356,13 +11356,13 @@
         <v>0.21514555420418799</v>
       </c>
       <c r="M158" s="5">
-        <v>-4.9581737976834601</v>
+        <v>-4.9375479621211404</v>
       </c>
       <c r="N158" s="5">
         <v>4.2247005516616003</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P158" s="6" t="s">
         <v>285</v>
@@ -11388,7 +11388,7 @@
         <v>5805323</v>
       </c>
       <c r="D159" s="5">
-        <v>1408568320</v>
+        <v>1415180800</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>63</v>
@@ -11474,7 +11474,7 @@
         <v>5.9258014520878799</v>
       </c>
       <c r="M160" s="5">
-        <v>1.5920653927527</v>
+        <v>1.5352252341131101</v>
       </c>
       <c r="N160" s="5">
         <v>19.4876119166073</v>
@@ -11621,16 +11621,16 @@
         <v>378</v>
       </c>
       <c r="C163" s="5">
-        <v>5488087.5</v>
+        <v>5484541</v>
       </c>
       <c r="D163" s="5">
-        <v>1317085952</v>
+        <v>1316234752</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F163" s="5">
-        <v>1.1997641324996999</v>
+        <v>1.2002979516982999</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>273</v>
@@ -11651,7 +11651,7 @@
         <v>5.3269147184075596</v>
       </c>
       <c r="M163" s="5">
-        <v>-2.27917384522924</v>
+        <v>-2.3423290583001402</v>
       </c>
       <c r="N163" s="5">
         <v>21.627504359384901</v>
@@ -11742,7 +11742,7 @@
         <v>5295829.5</v>
       </c>
       <c r="D165" s="5">
-        <v>1980849792</v>
+        <v>1978934528</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>43</v>
@@ -11799,7 +11799,7 @@
         <v>5137251</v>
       </c>
       <c r="D166" s="5">
-        <v>778169664</v>
+        <v>789398656</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>40</v>
@@ -11942,7 +11942,7 @@
         <v>5.9851198792960902</v>
       </c>
       <c r="M168" s="5">
-        <v>1.5865856013297399</v>
+        <v>1.5297485086009901</v>
       </c>
       <c r="N168" s="5">
         <v>19.404548258786399</v>
@@ -11971,7 +11971,7 @@
         <v>389</v>
       </c>
       <c r="C169" s="5">
-        <v>4902143.5</v>
+        <v>4902144</v>
       </c>
       <c r="D169" s="5">
         <v>945520000</v>
@@ -12048,22 +12048,22 @@
         <v>0</v>
       </c>
       <c r="I170" s="5">
-        <v>4.5025796011067001E-2</v>
+        <v>4.5027939255715001E-2</v>
       </c>
       <c r="J170" s="5">
-        <v>0.393761213279542</v>
+        <v>0.39376025507240597</v>
       </c>
       <c r="K170" s="5">
-        <v>-0.209813577372886</v>
+        <v>-0.209809618469081</v>
       </c>
       <c r="L170" s="5">
-        <v>0.91034903556066504</v>
+        <v>0.91035212237209295</v>
       </c>
       <c r="M170" s="5">
-        <v>-0.254388285689577</v>
+        <v>-0.254377557078445</v>
       </c>
       <c r="N170" s="5">
-        <v>5.9097351456367102</v>
+        <v>5.9097424105992902</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>23</v>
@@ -12148,10 +12148,10 @@
         <v>394</v>
       </c>
       <c r="C172" s="5">
-        <v>4705385.5</v>
+        <v>4706406.5</v>
       </c>
       <c r="D172" s="5">
-        <v>1611042816</v>
+        <v>1611392384</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>282</v>
@@ -12178,7 +12178,7 @@
         <v>6.2930609998855997</v>
       </c>
       <c r="M172" s="5">
-        <v>0.57255536732538903</v>
+        <v>0.59438147349335502</v>
       </c>
       <c r="N172" s="5">
         <v>10.671330043235001</v>
@@ -12237,7 +12237,7 @@
         <v>4.6956713018735803</v>
       </c>
       <c r="M173" s="5">
-        <v>1.3808499597338699</v>
+        <v>1.3241279748775501</v>
       </c>
       <c r="N173" s="5">
         <v>13.205438200389899</v>
@@ -12266,10 +12266,10 @@
         <v>399</v>
       </c>
       <c r="C174" s="5">
-        <v>4548381</v>
+        <v>4548381.5</v>
       </c>
       <c r="D174" s="5">
-        <v>2619523584</v>
+        <v>2568629504</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>282</v>
@@ -12338,25 +12338,25 @@
         <v>0</v>
       </c>
       <c r="H175" s="5">
-        <v>-6.4974616605140006E-2</v>
+        <v>-6.4971740189845001E-2</v>
       </c>
       <c r="I175" s="5">
         <v>0</v>
       </c>
       <c r="J175" s="5">
-        <v>0.29555508143208598</v>
+        <v>0.29556239421653102</v>
       </c>
       <c r="K175" s="5">
-        <v>0.63046479712833803</v>
+        <v>0.63046945671847399</v>
       </c>
       <c r="L175" s="5">
-        <v>1.7070775046031901</v>
+        <v>1.7070726708327699</v>
       </c>
       <c r="M175" s="5">
-        <v>0.63046479712833803</v>
+        <v>0.63046945671847399</v>
       </c>
       <c r="N175" s="5">
-        <v>5.2754971599007199</v>
+        <v>5.2754993454244801</v>
       </c>
       <c r="O175" s="6" t="s">
         <v>23</v>
@@ -12385,7 +12385,7 @@
         <v>4433913.5</v>
       </c>
       <c r="D176" s="5">
-        <v>1278110976</v>
+        <v>1280748928</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>107</v>
@@ -12441,7 +12441,7 @@
         <v>236</v>
       </c>
       <c r="C177" s="5">
-        <v>4414802</v>
+        <v>4414802.5</v>
       </c>
       <c r="D177" s="5">
         <v>700369024</v>
@@ -12503,7 +12503,7 @@
         <v>4403222.5</v>
       </c>
       <c r="D178" s="5">
-        <v>695099968</v>
+        <v>697200000</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>37</v>
@@ -12621,7 +12621,7 @@
         <v>4347249</v>
       </c>
       <c r="D180" s="5">
-        <v>4668822016</v>
+        <v>4728133632</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>282</v>
@@ -12739,7 +12739,7 @@
         <v>4188241</v>
       </c>
       <c r="D182" s="5">
-        <v>1341442560</v>
+        <v>1342170240</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>28</v>
@@ -12766,7 +12766,7 @@
         <v>29.344440439540001</v>
       </c>
       <c r="M182" s="5">
-        <v>14.9197490789866</v>
+        <v>14.855452160293</v>
       </c>
       <c r="N182" s="5">
         <v>73.769990415577695</v>
@@ -12798,7 +12798,7 @@
         <v>4023739</v>
       </c>
       <c r="D183" s="5">
-        <v>988565952</v>
+        <v>978546752</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>73</v>
@@ -12810,25 +12810,25 @@
         <v>0</v>
       </c>
       <c r="H183" s="5">
-        <v>-0.210652942054457</v>
+        <v>-0.210654948888822</v>
       </c>
       <c r="I183" s="5">
-        <v>0.112408357857707</v>
+        <v>0.112410707222921</v>
       </c>
       <c r="J183" s="5">
-        <v>0.606555571394507</v>
+        <v>0.60655112152920898</v>
       </c>
       <c r="K183" s="5">
-        <v>-0.72406892393879196</v>
+        <v>-0.72407055510287399</v>
       </c>
       <c r="L183" s="5">
-        <v>0.17619890257569701</v>
+        <v>0.17620054994991199</v>
       </c>
       <c r="M183" s="5">
-        <v>-1.1627604725619001</v>
+        <v>-1.16275993506108</v>
       </c>
       <c r="N183" s="5">
-        <v>5.4888816333523902</v>
+        <v>5.48888299828221</v>
       </c>
       <c r="O183" s="6" t="s">
         <v>23</v>
@@ -12854,16 +12854,16 @@
         <v>415</v>
       </c>
       <c r="C184" s="5">
-        <v>3987982.5</v>
+        <v>3985405.25</v>
       </c>
       <c r="D184" s="5">
-        <v>1134867584</v>
+        <v>1134134144</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F184" s="5">
-        <v>1.79690837860107</v>
+        <v>1.7972663640976001</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>273</v>
@@ -12884,7 +12884,7 @@
         <v>5.35978294181505</v>
       </c>
       <c r="M184" s="5">
-        <v>-2.27942431551139</v>
+        <v>-2.3425793667078598</v>
       </c>
       <c r="N184" s="5">
         <v>21.616931699175101</v>
@@ -12916,7 +12916,7 @@
         <v>3918562</v>
       </c>
       <c r="D185" s="5">
-        <v>3142858240</v>
+        <v>3158465024</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>28</v>
@@ -13044,25 +13044,25 @@
         <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>-1.9920944026252999E-2</v>
+        <v>-1.9919524815515E-2</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
       </c>
       <c r="J187" s="5">
-        <v>0.109467258832985</v>
+        <v>0.109466890758769</v>
       </c>
       <c r="K187" s="5">
-        <v>0.30002965298534501</v>
+        <v>0.30003136740124298</v>
       </c>
       <c r="L187" s="5">
-        <v>1.2597438667062399</v>
+        <v>1.25975340607085</v>
       </c>
       <c r="M187" s="5">
-        <v>0.62111867757408401</v>
+        <v>0.62112005680281501</v>
       </c>
       <c r="N187" s="5">
-        <v>8.4391973525586703</v>
+        <v>8.4391998424716608</v>
       </c>
       <c r="O187" s="6" t="s">
         <v>23</v>
@@ -13091,7 +13091,7 @@
         <v>3663116</v>
       </c>
       <c r="D188" s="5">
-        <v>1673540864</v>
+        <v>1647371648</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>282</v>
@@ -13145,7 +13145,7 @@
         <v>423</v>
       </c>
       <c r="C189" s="5">
-        <v>3642633.75</v>
+        <v>3642634</v>
       </c>
       <c r="D189" s="5">
         <v>707032704</v>
@@ -13160,25 +13160,25 @@
         <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>-1.4190529878433E-2</v>
+        <v>-1.4190630257427001E-2</v>
       </c>
       <c r="I189" s="5">
-        <v>-1.4190529878433E-2</v>
+        <v>-1.4190630257427001E-2</v>
       </c>
       <c r="J189" s="5">
-        <v>1.5882040905749999E-3</v>
+        <v>1.588215326764E-3</v>
       </c>
       <c r="K189" s="5">
-        <v>1.4873341225340999E-2</v>
+        <v>1.4880667658955999E-2</v>
       </c>
       <c r="L189" s="5">
-        <v>1.6974737821162999E-2</v>
+        <v>1.6974857932127999E-2</v>
       </c>
       <c r="M189" s="5">
-        <v>2.9072122693895999E-2</v>
+        <v>2.9072328429213999E-2</v>
       </c>
       <c r="N189" s="5">
-        <v>7.6739006895243003E-2</v>
+        <v>7.6746780345060994E-2</v>
       </c>
       <c r="O189" s="6" t="s">
         <v>23</v>
@@ -13234,7 +13234,7 @@
         <v>5.6555130010881696</v>
       </c>
       <c r="M190" s="5">
-        <v>0.86477910691031801</v>
+        <v>0.80834586063838199</v>
       </c>
       <c r="N190" s="5">
         <v>16.339675049172499</v>
@@ -13322,10 +13322,10 @@
         <v>429</v>
       </c>
       <c r="C192" s="5">
-        <v>3600051.5</v>
+        <v>3600832.75</v>
       </c>
       <c r="D192" s="5">
-        <v>1799381248</v>
+        <v>1799771648</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>52</v>
@@ -13352,7 +13352,7 @@
         <v>7.8426937838086603</v>
       </c>
       <c r="M192" s="5">
-        <v>0.76239212391613398</v>
+        <v>0.78425942817426098</v>
       </c>
       <c r="N192" s="5">
         <v>16.453214023053999</v>
@@ -13384,7 +13384,7 @@
         <v>3515590.25</v>
       </c>
       <c r="D193" s="5">
-        <v>562212416</v>
+        <v>564272576</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>318</v>
@@ -13411,7 +13411,7 @@
         <v>3.00166805527466</v>
       </c>
       <c r="M193" s="5">
-        <v>-0.83106334554566796</v>
+        <v>-0.88654777801356899</v>
       </c>
       <c r="N193" s="5">
         <v>12.103186829312</v>
@@ -13558,10 +13558,10 @@
         <v>436</v>
       </c>
       <c r="C196" s="5">
-        <v>3297064</v>
+        <v>3297779.5</v>
       </c>
       <c r="D196" s="5">
-        <v>1273996288</v>
+        <v>1278473344</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>282</v>
@@ -13588,13 +13588,13 @@
         <v>0.95309597349717601</v>
       </c>
       <c r="M196" s="5">
-        <v>-3.9177362697083802</v>
+        <v>-3.89688463994342</v>
       </c>
       <c r="N196" s="5">
         <v>9.7935261399201305</v>
       </c>
       <c r="O196" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P196" s="6" t="s">
         <v>285</v>
@@ -13647,7 +13647,7 @@
         <v>1.0455764325950001</v>
       </c>
       <c r="M197" s="5">
-        <v>-2.36910836439215</v>
+        <v>-2.42373226978515</v>
       </c>
       <c r="N197" s="5">
         <v>11.468018646619999</v>
@@ -13676,10 +13676,10 @@
         <v>440</v>
       </c>
       <c r="C198" s="5">
-        <v>3218179.75</v>
+        <v>3218878.25</v>
       </c>
       <c r="D198" s="5">
-        <v>1079170304</v>
+        <v>1081350400</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>282</v>
@@ -13706,7 +13706,7 @@
         <v>7.4514821695782301</v>
       </c>
       <c r="M198" s="5">
-        <v>0.60995926878950602</v>
+        <v>0.63179349229645099</v>
       </c>
       <c r="N198" s="5">
         <v>16.081795619025101</v>
@@ -13794,10 +13794,10 @@
         <v>444</v>
       </c>
       <c r="C200" s="5">
-        <v>3154012</v>
+        <v>3154696.25</v>
       </c>
       <c r="D200" s="5">
-        <v>2837974272</v>
+        <v>2838589952</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>73</v>
@@ -13824,7 +13824,7 @@
         <v>7.3581049865319503</v>
       </c>
       <c r="M200" s="5">
-        <v>0.460745905340953</v>
+        <v>0.48254774678602202</v>
       </c>
       <c r="N200" s="5">
         <v>15.8022638057957</v>
@@ -13915,7 +13915,7 @@
         <v>3099230.75</v>
       </c>
       <c r="D202" s="5">
-        <v>1589475840</v>
+        <v>1564397184</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>282</v>
@@ -14058,7 +14058,7 @@
         <v>5.6152782654165696</v>
       </c>
       <c r="M204" s="5">
-        <v>2.1925845705331701</v>
+        <v>2.1354084249717702</v>
       </c>
       <c r="N204" s="5">
         <v>14.9026640925472</v>
@@ -14087,16 +14087,16 @@
         <v>455</v>
       </c>
       <c r="C205" s="5">
-        <v>2991563.25</v>
+        <v>2989630</v>
       </c>
       <c r="D205" s="5">
-        <v>855677632</v>
+        <v>857124608</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F205" s="5">
-        <v>2.7672586441039999</v>
+        <v>2.76186966896057</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>273</v>
@@ -14117,7 +14117,7 @@
         <v>11.9943312206935</v>
       </c>
       <c r="M205" s="5">
-        <v>2.1941460203090499</v>
+        <v>2.1280997810325899</v>
       </c>
       <c r="N205" s="5">
         <v>36.124128087964202</v>
@@ -14176,7 +14176,7 @@
         <v>-5.3861828551078199</v>
       </c>
       <c r="M206" s="5">
-        <v>-8.8259599562565896</v>
+        <v>-8.8769712914417198</v>
       </c>
       <c r="N206" s="5">
         <v>5.6197593776489096</v>
@@ -14292,7 +14292,7 @@
         <v>5.8481096895753204</v>
       </c>
       <c r="M208" s="5">
-        <v>1.5467776697458699</v>
+        <v>1.4899628493189701</v>
       </c>
       <c r="N208" s="5">
         <v>18.505377285233202</v>
@@ -14321,114 +14321,114 @@
         <v>463</v>
       </c>
       <c r="C209" s="5">
-        <v>2722183</v>
+        <v>2721618</v>
       </c>
       <c r="D209" s="5">
-        <v>1607481984</v>
+        <v>5831235584</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F209" s="5">
-        <v>0.67959225177764904</v>
+        <v>2.5244767665863002</v>
       </c>
       <c r="G209" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H209" s="5">
+        <v>9.258545818724E-3</v>
+      </c>
+      <c r="I209" s="5">
+        <v>0.77590653760089001</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0.54336845495761599</v>
+      </c>
+      <c r="K209" s="5">
+        <v>2.2218093048521001E-2</v>
+      </c>
+      <c r="L209" s="5">
+        <v>5.10426878650168</v>
+      </c>
+      <c r="M209" s="5">
+        <v>1.07564883605922</v>
+      </c>
+      <c r="N209" s="5">
+        <v>7.6744823821888897</v>
+      </c>
+      <c r="O209" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P209" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H209" s="5">
-        <v>8.0828115795084005E-2</v>
-      </c>
-      <c r="I209" s="5">
-        <v>0.46480494814242801</v>
-      </c>
-      <c r="J209" s="5">
-        <v>0.40799108487932201</v>
-      </c>
-      <c r="K209" s="5">
-        <v>-3.4732340820098799</v>
-      </c>
-      <c r="L209" s="5">
-        <v>0.147496468343422</v>
-      </c>
-      <c r="M209" s="5">
-        <v>-4.1272192199595104</v>
-      </c>
-      <c r="N209" s="5">
-        <v>8.7958408981094696</v>
-      </c>
-      <c r="O209" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P209" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="Q209" s="6" t="s">
-        <v>466</v>
+        <v>286</v>
       </c>
       <c r="R209" s="5">
-        <v>114.92027233776</v>
+        <v>5.4429001808166504</v>
       </c>
       <c r="S209" s="5">
-        <v>108.760864257812</v>
+        <v>5.4031000137329102</v>
       </c>
     </row>
     <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A210" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C210" s="5">
+        <v>2718932.25</v>
+      </c>
+      <c r="D210" s="5">
+        <v>1611536896</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F210" s="5">
+        <v>0.67959225177764904</v>
+      </c>
+      <c r="G210" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="H210" s="5">
+        <v>8.0828115795084005E-2</v>
+      </c>
+      <c r="I210" s="5">
+        <v>0.46480494814242801</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0.40799108487932201</v>
+      </c>
+      <c r="K210" s="5">
+        <v>-3.4732340820098799</v>
+      </c>
+      <c r="L210" s="5">
+        <v>0.147496468343422</v>
+      </c>
+      <c r="M210" s="5">
+        <v>-4.2417128321821496</v>
+      </c>
+      <c r="N210" s="5">
+        <v>8.7958408981094696</v>
+      </c>
+      <c r="O210" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P210" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C210" s="5">
-        <v>2721618</v>
-      </c>
-      <c r="D210" s="5">
-        <v>5798817280</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F210" s="5">
-        <v>2.5244767665863002</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H210" s="5">
-        <v>9.258545818724E-3</v>
-      </c>
-      <c r="I210" s="5">
-        <v>0.77590653760089001</v>
-      </c>
-      <c r="J210" s="5">
-        <v>0.54336845495761599</v>
-      </c>
-      <c r="K210" s="5">
-        <v>2.2218093048521001E-2</v>
-      </c>
-      <c r="L210" s="5">
-        <v>5.10426878650168</v>
-      </c>
-      <c r="M210" s="5">
-        <v>1.07564883605922</v>
-      </c>
-      <c r="N210" s="5">
-        <v>7.6744823821888897</v>
-      </c>
-      <c r="O210" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P210" s="6" t="s">
+      <c r="Q210" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="Q210" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="R210" s="5">
-        <v>5.4429001808166504</v>
+        <v>114.92027233776</v>
       </c>
       <c r="S210" s="5">
-        <v>5.4031000137329102</v>
+        <v>108.760864257812</v>
       </c>
     </row>
     <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14439,10 +14439,10 @@
         <v>471</v>
       </c>
       <c r="C211" s="5">
-        <v>2700331.75</v>
+        <v>2711528.75</v>
       </c>
       <c r="D211" s="5">
-        <v>561077184</v>
+        <v>563403712</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>107</v>
@@ -14469,7 +14469,7 @@
         <v>-13.75433056688</v>
       </c>
       <c r="M211" s="5">
-        <v>-11.280728135196499</v>
+        <v>-10.912846197433</v>
       </c>
       <c r="N211" s="5">
         <v>-16.980474139582999</v>
@@ -14646,7 +14646,7 @@
         <v>22.114130200622501</v>
       </c>
       <c r="M214" s="5">
-        <v>11.583909998356599</v>
+        <v>11.521479461863301</v>
       </c>
       <c r="N214" s="5">
         <v>60.204217298241602</v>
@@ -14675,16 +14675,16 @@
         <v>482</v>
       </c>
       <c r="C215" s="5">
-        <v>2569572.25</v>
+        <v>2567911.75</v>
       </c>
       <c r="D215" s="5">
-        <v>429982304</v>
+        <v>429704416</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F215" s="5">
-        <v>1.5113388299942001</v>
+        <v>1.5125210285186801</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>273</v>
@@ -14705,7 +14705,7 @@
         <v>4.8711809821804701</v>
       </c>
       <c r="M215" s="5">
-        <v>-2.6027104120990598</v>
+        <v>-2.6656565293035102</v>
       </c>
       <c r="N215" s="5">
         <v>21.029956501225701</v>
@@ -14734,7 +14734,7 @@
         <v>292</v>
       </c>
       <c r="C216" s="5">
-        <v>2524172.5</v>
+        <v>2524172.75</v>
       </c>
       <c r="D216" s="5">
         <v>444118496</v>
@@ -14749,25 +14749,25 @@
         <v>0</v>
       </c>
       <c r="H216" s="5">
-        <v>-0.11638556360821201</v>
+        <v>-0.11638612801158101</v>
       </c>
       <c r="I216" s="5">
-        <v>0.25701077643083298</v>
+        <v>0.257013826076191</v>
       </c>
       <c r="J216" s="5">
-        <v>0.68699460581682603</v>
+        <v>0.68699768107911596</v>
       </c>
       <c r="K216" s="5">
-        <v>-1.23417343911461</v>
+        <v>-1.2341724784532599</v>
       </c>
       <c r="L216" s="5">
-        <v>-9.2503659734321994E-2</v>
+        <v>-9.2501325514283E-2</v>
       </c>
       <c r="M216" s="5">
-        <v>-1.6620226418828801</v>
+        <v>-1.66202713388955</v>
       </c>
       <c r="N216" s="5">
-        <v>5.6699307554988403</v>
+        <v>5.6699303325973496</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>23</v>
@@ -14823,7 +14823,7 @@
         <v>3.7829816549930699</v>
       </c>
       <c r="M217" s="5">
-        <v>-1.49119335922795</v>
+        <v>-1.5463084528645601</v>
       </c>
       <c r="N217" s="5">
         <v>20.642750240139399</v>
@@ -14852,16 +14852,16 @@
         <v>487</v>
       </c>
       <c r="C218" s="5">
-        <v>2441204</v>
+        <v>2451326.5</v>
       </c>
       <c r="D218" s="5">
-        <v>655996032</v>
+        <v>658716160</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F218" s="5">
-        <v>2.0911128520965598</v>
+        <v>2.0911126136779798</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>472</v>
@@ -14882,7 +14882,7 @@
         <v>-13.221398614941601</v>
       </c>
       <c r="M218" s="5">
-        <v>-11.0220997642885</v>
+        <v>-10.653145402188599</v>
       </c>
       <c r="N218" s="5">
         <v>-15.646352564229</v>
@@ -14914,7 +14914,7 @@
         <v>2422507.75</v>
       </c>
       <c r="D219" s="5">
-        <v>5676076032</v>
+        <v>5682439168</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>43</v>
@@ -15118,7 +15118,7 @@
         <v>4.7604701752040199</v>
       </c>
       <c r="M222" s="5">
-        <v>1.32637498423203</v>
+        <v>1.2696834778017401</v>
       </c>
       <c r="N222" s="5">
         <v>13.5037146131646</v>
@@ -15177,7 +15177,7 @@
         <v>10.5886431701752</v>
       </c>
       <c r="M223" s="5">
-        <v>4.5349355964711098</v>
+        <v>4.4764489193894796</v>
       </c>
       <c r="N223" s="5">
         <v>33.872124335659599</v>
@@ -15209,7 +15209,7 @@
         <v>2293331</v>
       </c>
       <c r="D224" s="5">
-        <v>704649344</v>
+        <v>705542656</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>107</v>
@@ -15236,7 +15236,7 @@
         <v>28.505628942144</v>
       </c>
       <c r="M224" s="5">
-        <v>14.8200819383718</v>
+        <v>14.7558407828529</v>
       </c>
       <c r="N224" s="5">
         <v>72.202697018990605</v>
@@ -15354,7 +15354,7 @@
         <v>31.6407497374461</v>
       </c>
       <c r="M226" s="5">
-        <v>16.874612627165799</v>
+        <v>16.809221973899799</v>
       </c>
       <c r="N226" s="5">
         <v>75.614996519200304</v>
@@ -15588,7 +15588,7 @@
         <v>3.8916626585907999</v>
       </c>
       <c r="M230" s="5">
-        <v>-1.24786322349025</v>
+        <v>-1.3031144588960499</v>
       </c>
       <c r="N230" s="5">
         <v>18.4234567785564</v>
@@ -15620,7 +15620,7 @@
         <v>2101281</v>
       </c>
       <c r="D231" s="5">
-        <v>785988480</v>
+        <v>789011520</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>40</v>
@@ -15647,7 +15647,7 @@
         <v>5.4853522510990702</v>
       </c>
       <c r="M231" s="5">
-        <v>1.37335473791322</v>
+        <v>1.3166369465891199</v>
       </c>
       <c r="N231" s="5">
         <v>17.884078022326101</v>
@@ -15706,7 +15706,7 @@
         <v>4.88568352837133</v>
       </c>
       <c r="M232" s="5">
-        <v>1.32083992550125</v>
+        <v>1.2641515159035299</v>
       </c>
       <c r="N232" s="5">
         <v>13.820199856127401</v>
@@ -15765,7 +15765,7 @@
         <v>-2.53064395004031</v>
       </c>
       <c r="M233" s="5">
-        <v>-5.9667505180631997</v>
+        <v>-6.0193615639877702</v>
       </c>
       <c r="N233" s="5">
         <v>17.410443800020001</v>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ashutosh_WFH_Data\Global Market Update\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\First Global\Work\Daily Report Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="522">
   <si>
     <t>USD</t>
   </si>
@@ -1585,9 +1585,6 @@
   </si>
   <si>
     <t>BMO MID-TERM US</t>
-  </si>
-  <si>
-    <t>The BLOOMBERG PROFESSIONAL service, BLOOMBERG Data and BLOOMBERG Order Management Systems (the "Services") are owned and distributed locally by Bloomberg Finance L.P. ("BFLP") and its subsidiaries in all jurisdictions other than Argentina, Bermuda, China, India, Japan and Korea (the "BLP Countries"). BFLP is a wholly-owned subsidiary of Bloomberg L.P. ("BLP"). BLP provides BFLP with all global marketing and operational support and service for the Services and distributes the Services either directly or through a non-BFLP subsidiary in the BLP Countries. The Services include electronic trading and order-routing services, which are available only to sophisticated institutional investors and only where necessary legal clearances have been obtained. BFLP, BLP and their affiliates do not provide investment advice or guarantee the accuracy of prices or information in the Services. Nothing on the Services shall constitute an offering of financial instruments by BFLP, BLP or their affiliates. BLOOMBERG, BLOOMBERG PROFESSIONAL, BLOOMBERG MARKET, BLOOMBERG NEWS, BLOOMBERG ANYWHERE, BLOOMBERG TRADEBOOK, BLOOMBERG BONDTRADER, BLOOMBERG TELEVISION, BLOOMBERG RADIO, BLOOMBERG PRESS and BLOOMBERG.COM are trademarks and service marks of BFLP, a Delaware limited partnership, or its subsidiaries.</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1731,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1752,9 +1749,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -2066,34 +2060,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T237"/>
+  <dimension ref="A1:S235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="3" customWidth="1"/>
     <col min="10" max="12" width="17" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="3" customWidth="1"/>
     <col min="15" max="15" width="20" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="13.8">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +2145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="2" spans="1:19" s="4" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2211,7 +2204,7 @@
         <v>87.160003662109403</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:19" s="4" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -2270,7 +2263,7 @@
         <v>130.72999572753901</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:19" s="4" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -2329,7 +2322,7 @@
         <v>138.86000061035199</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:19" s="4" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -2388,7 +2381,7 @@
         <v>108.90000152587901</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:19" s="4" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +2440,7 @@
         <v>114.169998168945</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:19" s="4" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2499,7 @@
         <v>114.449996948242</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:19" s="4" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -2565,7 +2558,7 @@
         <v>111.139999389648</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:19" s="4" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -2624,7 +2617,7 @@
         <v>85.165000915527301</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="10" spans="1:19" s="4" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -2683,7 +2676,7 @@
         <v>54.709999084472699</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="11" spans="1:19" s="4" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
@@ -2742,7 +2735,7 @@
         <v>108.610000610352</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="12" spans="1:19" s="4" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -2801,7 +2794,7 @@
         <v>93.559997558593807</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="13" spans="1:19" s="4" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
@@ -2860,7 +2853,7 @@
         <v>126.26000213623</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="14" spans="1:19" s="4" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -2917,7 +2910,7 @@
         <v>110.51000213623</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="15" spans="1:19" s="4" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -2976,7 +2969,7 @@
         <v>82.559997558593807</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:19" s="4" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
@@ -3035,7 +3028,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="17" spans="1:19" s="4" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
@@ -3094,7 +3087,7 @@
         <v>130.39999389648401</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="18" spans="1:19" s="4" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -3153,7 +3146,7 @@
         <v>82.260002136230497</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="19" spans="1:19" s="4" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
@@ -3212,7 +3205,7 @@
         <v>40.0200004577637</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="20" spans="1:19" s="4" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -3271,7 +3264,7 @@
         <v>59.560001373291001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="21" spans="1:19" s="4" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -3330,7 +3323,7 @@
         <v>57.069999694824197</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="22" spans="1:19" s="4" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -3389,7 +3382,7 @@
         <v>50.7299995422363</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="23" spans="1:19" s="4" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
@@ -3448,7 +3441,7 @@
         <v>26.360000610351602</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="24" spans="1:19" s="4" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>84</v>
       </c>
@@ -3507,7 +3500,7 @@
         <v>38.720001220703097</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="25" spans="1:19" s="4" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
@@ -3566,7 +3559,7 @@
         <v>116.94000244140599</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="26" spans="1:19" s="4" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>89</v>
       </c>
@@ -3625,7 +3618,7 @@
         <v>27.350000381469702</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="27" spans="1:19" s="4" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>91</v>
       </c>
@@ -3684,7 +3677,7 @@
         <v>22.129999160766602</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="28" spans="1:19" s="4" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>93</v>
       </c>
@@ -3743,7 +3736,7 @@
         <v>39.860000610351598</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="29" spans="1:19" s="4" customFormat="1">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>101.94000244140599</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="30" spans="1:19" s="4" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3861,7 +3854,7 @@
         <v>61.529998779296903</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="31" spans="1:19" s="4" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -3920,7 +3913,7 @@
         <v>89.029998779296903</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="32" spans="1:19" s="4" customFormat="1">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -3977,7 +3970,7 @@
         <v>91.489997863769503</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="33" spans="1:19" s="4" customFormat="1">
       <c r="A33" s="6" t="s">
         <v>104</v>
       </c>
@@ -4036,7 +4029,7 @@
         <v>61.549999237060497</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="34" spans="1:19" s="4" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
@@ -4095,7 +4088,7 @@
         <v>41.220001220703097</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="35" spans="1:19" s="4" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>109</v>
       </c>
@@ -4154,7 +4147,7 @@
         <v>102.209999084473</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="36" spans="1:19" s="4" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>111</v>
       </c>
@@ -4213,7 +4206,7 @@
         <v>53.040000915527301</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="37" spans="1:19" s="4" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
@@ -4272,7 +4265,7 @@
         <v>51.740001678466797</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="38" spans="1:19" s="4" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>115</v>
       </c>
@@ -4331,7 +4324,7 @@
         <v>36.380001068115199</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="39" spans="1:19" s="4" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>117</v>
       </c>
@@ -4390,7 +4383,7 @@
         <v>84.919998168945298</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="40" spans="1:19" s="4" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
@@ -4449,7 +4442,7 @@
         <v>59.380001068115199</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="41" spans="1:19" s="4" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>121</v>
       </c>
@@ -4508,7 +4501,7 @@
         <v>45.900001525878899</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="42" spans="1:19" s="4" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>124</v>
       </c>
@@ -4565,7 +4558,7 @@
         <v>20.639999389648398</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="43" spans="1:19" s="4" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>126</v>
       </c>
@@ -4624,7 +4617,7 @@
         <v>32.119998931884801</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="44" spans="1:19" s="4" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>128</v>
       </c>
@@ -4683,7 +4676,7 @@
         <v>84.580001831054702</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="45" spans="1:19" s="4" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>130</v>
       </c>
@@ -4742,7 +4735,7 @@
         <v>53.569999694824197</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:19" s="4" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>132</v>
       </c>
@@ -4801,7 +4794,7 @@
         <v>55.119998931884801</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:19" s="4" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>134</v>
       </c>
@@ -4860,7 +4853,7 @@
         <v>50.759998321533203</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:19" s="4" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>136</v>
       </c>
@@ -4919,7 +4912,7 @@
         <v>45.819999694824197</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="49" spans="1:19" s="4" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>138</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>31.299999237060501</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="50" spans="1:19" s="4" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>140</v>
       </c>
@@ -5037,7 +5030,7 @@
         <v>31.420000076293899</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="51" spans="1:19" s="4" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>142</v>
       </c>
@@ -5096,7 +5089,7 @@
         <v>67.339996337890597</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="52" spans="1:19" s="4" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>144</v>
       </c>
@@ -5155,7 +5148,7 @@
         <v>51.290000915527301</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="53" spans="1:19" s="4" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>146</v>
       </c>
@@ -5214,7 +5207,7 @@
         <v>54.220001220703097</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="54" spans="1:19" s="4" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -5273,7 +5266,7 @@
         <v>67.610000610351605</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="55" spans="1:19" s="4" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
@@ -5332,7 +5325,7 @@
         <v>29.399999618530298</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="56" spans="1:19" s="4" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>151</v>
       </c>
@@ -5391,7 +5384,7 @@
         <v>56.700000762939503</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="57" spans="1:19" s="4" customFormat="1">
       <c r="A57" s="6" t="s">
         <v>153</v>
       </c>
@@ -5450,7 +5443,7 @@
         <v>30.440000534057599</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="58" spans="1:19" s="4" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>156</v>
       </c>
@@ -5509,7 +5502,7 @@
         <v>51.189998626708999</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="59" spans="1:19" s="4" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>158</v>
       </c>
@@ -5568,7 +5561,7 @@
         <v>105.879997253418</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="60" spans="1:19" s="4" customFormat="1">
       <c r="A60" s="6" t="s">
         <v>161</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v>50.509998321533203</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="61" spans="1:19" s="4" customFormat="1">
       <c r="A61" s="6" t="s">
         <v>163</v>
       </c>
@@ -5686,7 +5679,7 @@
         <v>29.780000686645501</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="62" spans="1:19" s="4" customFormat="1">
       <c r="A62" s="6" t="s">
         <v>165</v>
       </c>
@@ -5745,7 +5738,7 @@
         <v>15.069999694824199</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="63" spans="1:19" s="4" customFormat="1">
       <c r="A63" s="6" t="s">
         <v>167</v>
       </c>
@@ -5804,7 +5797,7 @@
         <v>32.2700004577637</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="64" spans="1:19" s="4" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>169</v>
       </c>
@@ -5863,7 +5856,7 @@
         <v>28.459999084472699</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="65" spans="1:19" s="4" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>171</v>
       </c>
@@ -5922,7 +5915,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="66" spans="1:19" s="4" customFormat="1">
       <c r="A66" s="6" t="s">
         <v>173</v>
       </c>
@@ -5981,7 +5974,7 @@
         <v>51.319999694824197</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="67" spans="1:19" s="4" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>175</v>
       </c>
@@ -6040,7 +6033,7 @@
         <v>100.18000030517599</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="68" spans="1:19" s="4" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>177</v>
       </c>
@@ -6099,7 +6092,7 @@
         <v>99.180000305175795</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="69" spans="1:19" s="4" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>179</v>
       </c>
@@ -6158,7 +6151,7 @@
         <v>128.669998168945</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="70" spans="1:19" s="4" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>181</v>
       </c>
@@ -6217,7 +6210,7 @@
         <v>50.169998168945298</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="71" spans="1:19" s="4" customFormat="1">
       <c r="A71" s="6" t="s">
         <v>183</v>
       </c>
@@ -6276,7 +6269,7 @@
         <v>59.970001220703097</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="72" spans="1:19" s="4" customFormat="1">
       <c r="A72" s="6" t="s">
         <v>185</v>
       </c>
@@ -6335,7 +6328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="73" spans="1:19" s="4" customFormat="1">
       <c r="A73" s="6" t="s">
         <v>187</v>
       </c>
@@ -6394,7 +6387,7 @@
         <v>30.659999847412099</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="74" spans="1:19" s="4" customFormat="1">
       <c r="A74" s="6" t="s">
         <v>189</v>
       </c>
@@ -6453,7 +6446,7 @@
         <v>62.409999847412102</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="75" spans="1:19" s="4" customFormat="1">
       <c r="A75" s="6" t="s">
         <v>191</v>
       </c>
@@ -6512,7 +6505,7 @@
         <v>20.399999618530298</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="76" spans="1:19" s="4" customFormat="1">
       <c r="A76" s="6" t="s">
         <v>193</v>
       </c>
@@ -6571,7 +6564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="77" spans="1:19" s="4" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>195</v>
       </c>
@@ -6630,7 +6623,7 @@
         <v>47.919998168945298</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="78" spans="1:19" s="4" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>197</v>
       </c>
@@ -6689,7 +6682,7 @@
         <v>107.98999786377</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="79" spans="1:19" s="4" customFormat="1">
       <c r="A79" s="6" t="s">
         <v>199</v>
       </c>
@@ -6748,7 +6741,7 @@
         <v>27.530000686645501</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="80" spans="1:19" s="4" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>201</v>
       </c>
@@ -6807,7 +6800,7 @@
         <v>99.110000610351605</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="81" spans="1:19" s="4" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>203</v>
       </c>
@@ -6866,7 +6859,7 @@
         <v>30.690000534057599</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="82" spans="1:19" s="4" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>205</v>
       </c>
@@ -6925,7 +6918,7 @@
         <v>49.720001220703097</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="83" spans="1:19" s="4" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>207</v>
       </c>
@@ -6982,7 +6975,7 @@
         <v>100.139999389648</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="84" spans="1:19" s="4" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>209</v>
       </c>
@@ -7041,7 +7034,7 @@
         <v>39.908958435058601</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="85" spans="1:19" s="4" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>214</v>
       </c>
@@ -7100,7 +7093,7 @@
         <v>52.080001831054702</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="86" spans="1:19" s="4" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>216</v>
       </c>
@@ -7159,7 +7152,7 @@
         <v>78.819999694824205</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="87" spans="1:19" s="4" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>218</v>
       </c>
@@ -7218,7 +7211,7 @@
         <v>110.23000335693401</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="88" spans="1:19" s="4" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>220</v>
       </c>
@@ -7277,7 +7270,7 @@
         <v>50.470001220703097</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="89" spans="1:19" s="4" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>222</v>
       </c>
@@ -7334,7 +7327,7 @@
         <v>54.869998931884801</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="90" spans="1:19" s="4" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>224</v>
       </c>
@@ -7393,7 +7386,7 @@
         <v>25.2453517913818</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="91" spans="1:19" s="4" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>226</v>
       </c>
@@ -7452,7 +7445,7 @@
         <v>50.189998626708999</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="92" spans="1:19" s="4" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>228</v>
       </c>
@@ -7511,7 +7504,7 @@
         <v>29.840000152587901</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="93" spans="1:19" s="4" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>230</v>
       </c>
@@ -7570,7 +7563,7 @@
         <v>51.060001373291001</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="94" spans="1:19" s="4" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>232</v>
       </c>
@@ -7629,7 +7622,7 @@
         <v>39.910636901855497</v>
       </c>
     </row>
-    <row r="95" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="95" spans="1:19" s="4" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>234</v>
       </c>
@@ -7688,7 +7681,7 @@
         <v>51.790000915527301</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="96" spans="1:19" s="4" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>236</v>
       </c>
@@ -7747,7 +7740,7 @@
         <v>55.7299995422363</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="97" spans="1:19" s="4" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>238</v>
       </c>
@@ -7806,7 +7799,7 @@
         <v>32.439998626708999</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="98" spans="1:19" s="4" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>240</v>
       </c>
@@ -7863,7 +7856,7 @@
         <v>92.441658020019503</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="99" spans="1:19" s="4" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>245</v>
       </c>
@@ -7922,7 +7915,7 @@
         <v>48.740001678466797</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="100" spans="1:19" s="4" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>247</v>
       </c>
@@ -7981,7 +7974,7 @@
         <v>48.409999847412102</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="101" spans="1:19" s="4" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>249</v>
       </c>
@@ -8040,7 +8033,7 @@
         <v>115.220001220703</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="102" spans="1:19" s="4" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>251</v>
       </c>
@@ -8099,7 +8092,7 @@
         <v>25.780000686645501</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="103" spans="1:19" s="4" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>253</v>
       </c>
@@ -8158,7 +8151,7 @@
         <v>52.810001373291001</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="104" spans="1:19" s="4" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>255</v>
       </c>
@@ -8217,7 +8210,7 @@
         <v>30.639999389648398</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="105" spans="1:19" s="4" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>257</v>
       </c>
@@ -8276,7 +8269,7 @@
         <v>12.5748023986816</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="106" spans="1:19" s="4" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>259</v>
       </c>
@@ -8333,7 +8326,7 @@
         <v>53.090000152587898</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="107" spans="1:19" s="4" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>261</v>
       </c>
@@ -8392,7 +8385,7 @@
         <v>118.169998168945</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="108" spans="1:19" s="4" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>263</v>
       </c>
@@ -8451,7 +8444,7 @@
         <v>38.839298248291001</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="109" spans="1:19" s="4" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>268</v>
       </c>
@@ -8508,7 +8501,7 @@
         <v>80.559318542480497</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="110" spans="1:19" s="4" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>270</v>
       </c>
@@ -8567,7 +8560,7 @@
         <v>19.370000839233398</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="111" spans="1:19" s="4" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>272</v>
       </c>
@@ -8624,7 +8617,7 @@
         <v>25.110000610351602</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="112" spans="1:19" s="4" customFormat="1">
       <c r="A112" s="6" t="s">
         <v>274</v>
       </c>
@@ -8683,7 +8676,7 @@
         <v>51.709999084472699</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="113" spans="1:19" s="4" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>276</v>
       </c>
@@ -8742,7 +8735,7 @@
         <v>17.386100769043001</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="114" spans="1:19" s="4" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>278</v>
       </c>
@@ -8801,7 +8794,7 @@
         <v>49.810001373291001</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="115" spans="1:19" s="4" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>280</v>
       </c>
@@ -8860,7 +8853,7 @@
         <v>162.27224731445301</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="116" spans="1:19" s="4" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>287</v>
       </c>
@@ -8919,7 +8912,7 @@
         <v>43.650001525878899</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="117" spans="1:19" s="4" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>289</v>
       </c>
@@ -8978,7 +8971,7 @@
         <v>101.959999084473</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="118" spans="1:19" s="4" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>291</v>
       </c>
@@ -9037,7 +9030,7 @@
         <v>8.7289552688598597</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="119" spans="1:19" s="4" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>293</v>
       </c>
@@ -9096,7 +9089,7 @@
         <v>59.790000915527301</v>
       </c>
     </row>
-    <row r="120" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="120" spans="1:19" s="4" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>295</v>
       </c>
@@ -9155,7 +9148,7 @@
         <v>21.120000839233398</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="121" spans="1:19" s="4" customFormat="1">
       <c r="A121" s="6" t="s">
         <v>297</v>
       </c>
@@ -9214,7 +9207,7 @@
         <v>81.610000610351605</v>
       </c>
     </row>
-    <row r="122" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="122" spans="1:19" s="4" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>299</v>
       </c>
@@ -9273,7 +9266,7 @@
         <v>57.049999237060497</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="123" spans="1:19" s="4" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>301</v>
       </c>
@@ -9332,7 +9325,7 @@
         <v>22.277187347412099</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="124" spans="1:19" s="4" customFormat="1">
       <c r="A124" s="6" t="s">
         <v>303</v>
       </c>
@@ -9391,7 +9384,7 @@
         <v>27.030000686645501</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="125" spans="1:19" s="4" customFormat="1">
       <c r="A125" s="6" t="s">
         <v>305</v>
       </c>
@@ -9450,7 +9443,7 @@
         <v>26.579999923706101</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="126" spans="1:19" s="4" customFormat="1">
       <c r="A126" s="6" t="s">
         <v>307</v>
       </c>
@@ -9509,7 +9502,7 @@
         <v>26.069999694824201</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="127" spans="1:19" s="4" customFormat="1">
       <c r="A127" s="6" t="s">
         <v>309</v>
       </c>
@@ -9568,7 +9561,7 @@
         <v>142.96000671386699</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="128" spans="1:19" s="4" customFormat="1">
       <c r="A128" s="6" t="s">
         <v>311</v>
       </c>
@@ -9625,7 +9618,7 @@
         <v>43.630001068115199</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="129" spans="1:19" s="4" customFormat="1">
       <c r="A129" s="6" t="s">
         <v>312</v>
       </c>
@@ -9684,7 +9677,7 @@
         <v>54.909999847412102</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="130" spans="1:19" s="4" customFormat="1">
       <c r="A130" s="6" t="s">
         <v>314</v>
       </c>
@@ -9743,7 +9736,7 @@
         <v>95.289901733398395</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="131" spans="1:19" s="4" customFormat="1">
       <c r="A131" s="6" t="s">
         <v>316</v>
       </c>
@@ -9802,7 +9795,7 @@
         <v>21.629999160766602</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="132" spans="1:19" s="4" customFormat="1">
       <c r="A132" s="6" t="s">
         <v>317</v>
       </c>
@@ -9861,7 +9854,7 @@
         <v>20.577674865722699</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="133" spans="1:19" s="4" customFormat="1">
       <c r="A133" s="6" t="s">
         <v>320</v>
       </c>
@@ -9920,7 +9913,7 @@
         <v>89.919998168945298</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="134" spans="1:19" s="4" customFormat="1">
       <c r="A134" s="6" t="s">
         <v>322</v>
       </c>
@@ -9979,7 +9972,7 @@
         <v>27.110000610351602</v>
       </c>
     </row>
-    <row r="135" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="135" spans="1:19" s="4" customFormat="1">
       <c r="A135" s="6" t="s">
         <v>324</v>
       </c>
@@ -10038,7 +10031,7 @@
         <v>54.189998626708999</v>
       </c>
     </row>
-    <row r="136" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="136" spans="1:19" s="4" customFormat="1">
       <c r="A136" s="6" t="s">
         <v>326</v>
       </c>
@@ -10097,7 +10090,7 @@
         <v>56.470001220703097</v>
       </c>
     </row>
-    <row r="137" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="137" spans="1:19" s="4" customFormat="1">
       <c r="A137" s="6" t="s">
         <v>328</v>
       </c>
@@ -10156,7 +10149,7 @@
         <v>25.325799942016602</v>
       </c>
     </row>
-    <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="138" spans="1:19" s="4" customFormat="1">
       <c r="A138" s="6" t="s">
         <v>330</v>
       </c>
@@ -10215,7 +10208,7 @@
         <v>16.0536193847656</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="139" spans="1:19" s="4" customFormat="1">
       <c r="A139" s="6" t="s">
         <v>332</v>
       </c>
@@ -10274,7 +10267,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="140" spans="1:19" s="4" customFormat="1">
       <c r="A140" s="6" t="s">
         <v>333</v>
       </c>
@@ -10333,7 +10326,7 @@
         <v>18.819999694824201</v>
       </c>
     </row>
-    <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="141" spans="1:19" s="4" customFormat="1">
       <c r="A141" s="6" t="s">
         <v>335</v>
       </c>
@@ -10390,7 +10383,7 @@
         <v>92.181610107421903</v>
       </c>
     </row>
-    <row r="142" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="142" spans="1:19" s="4" customFormat="1">
       <c r="A142" s="6" t="s">
         <v>337</v>
       </c>
@@ -10449,7 +10442,7 @@
         <v>123.38950347900401</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="143" spans="1:19" s="4" customFormat="1">
       <c r="A143" s="6" t="s">
         <v>340</v>
       </c>
@@ -10508,7 +10501,7 @@
         <v>25.309999465942401</v>
       </c>
     </row>
-    <row r="144" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="144" spans="1:19" s="4" customFormat="1">
       <c r="A144" s="6" t="s">
         <v>341</v>
       </c>
@@ -10567,7 +10560,7 @@
         <v>19.309024810791001</v>
       </c>
     </row>
-    <row r="145" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="145" spans="1:19" s="4" customFormat="1">
       <c r="A145" s="6" t="s">
         <v>343</v>
       </c>
@@ -10626,7 +10619,7 @@
         <v>13.8274955749512</v>
       </c>
     </row>
-    <row r="146" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="146" spans="1:19" s="4" customFormat="1">
       <c r="A146" s="6" t="s">
         <v>345</v>
       </c>
@@ -10685,7 +10678,7 @@
         <v>21.360000610351602</v>
       </c>
     </row>
-    <row r="147" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="147" spans="1:19" s="4" customFormat="1">
       <c r="A147" s="6" t="s">
         <v>347</v>
       </c>
@@ -10744,7 +10737,7 @@
         <v>110.40000152587901</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="148" spans="1:19" s="4" customFormat="1">
       <c r="A148" s="6" t="s">
         <v>349</v>
       </c>
@@ -10803,7 +10796,7 @@
         <v>18.959999084472699</v>
       </c>
     </row>
-    <row r="149" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="149" spans="1:19" s="4" customFormat="1">
       <c r="A149" s="6" t="s">
         <v>351</v>
       </c>
@@ -10862,7 +10855,7 @@
         <v>23.299999237060501</v>
       </c>
     </row>
-    <row r="150" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="150" spans="1:19" s="4" customFormat="1">
       <c r="A150" s="6" t="s">
         <v>352</v>
       </c>
@@ -10921,7 +10914,7 @@
         <v>54.799999237060497</v>
       </c>
     </row>
-    <row r="151" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="151" spans="1:19" s="4" customFormat="1">
       <c r="A151" s="6" t="s">
         <v>353</v>
       </c>
@@ -10980,7 +10973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="152" spans="1:19" s="4" customFormat="1">
       <c r="A152" s="6" t="s">
         <v>354</v>
       </c>
@@ -11039,7 +11032,7 @@
         <v>24.819999694824201</v>
       </c>
     </row>
-    <row r="153" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="153" spans="1:19" s="4" customFormat="1">
       <c r="A153" s="6" t="s">
         <v>356</v>
       </c>
@@ -11098,7 +11091,7 @@
         <v>15.718503952026399</v>
       </c>
     </row>
-    <row r="154" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="154" spans="1:19" s="4" customFormat="1">
       <c r="A154" s="6" t="s">
         <v>358</v>
       </c>
@@ -11155,7 +11148,7 @@
         <v>100.029998779297</v>
       </c>
     </row>
-    <row r="155" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="155" spans="1:19" s="4" customFormat="1">
       <c r="A155" s="6" t="s">
         <v>360</v>
       </c>
@@ -11214,7 +11207,7 @@
         <v>25.450000762939499</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="156" spans="1:19" s="4" customFormat="1">
       <c r="A156" s="6" t="s">
         <v>361</v>
       </c>
@@ -11273,7 +11266,7 @@
         <v>51.740001678466797</v>
       </c>
     </row>
-    <row r="157" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="157" spans="1:19" s="4" customFormat="1">
       <c r="A157" s="6" t="s">
         <v>363</v>
       </c>
@@ -11332,7 +11325,7 @@
         <v>26.450000762939499</v>
       </c>
     </row>
-    <row r="158" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="158" spans="1:19" s="4" customFormat="1">
       <c r="A158" s="6" t="s">
         <v>365</v>
       </c>
@@ -11391,7 +11384,7 @@
         <v>19.419561386108398</v>
       </c>
     </row>
-    <row r="159" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="159" spans="1:19" s="4" customFormat="1">
       <c r="A159" s="6" t="s">
         <v>368</v>
       </c>
@@ -11450,7 +11443,7 @@
         <v>136.38999938964801</v>
       </c>
     </row>
-    <row r="160" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="160" spans="1:19" s="4" customFormat="1">
       <c r="A160" s="6" t="s">
         <v>370</v>
       </c>
@@ -11509,7 +11502,7 @@
         <v>214.77601623535199</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="161" spans="1:19" s="4" customFormat="1">
       <c r="A161" s="6" t="s">
         <v>372</v>
       </c>
@@ -11568,7 +11561,7 @@
         <v>62.599998474121101</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="162" spans="1:19" s="4" customFormat="1">
       <c r="A162" s="6" t="s">
         <v>375</v>
       </c>
@@ -11627,7 +11620,7 @@
         <v>124.860000610352</v>
       </c>
     </row>
-    <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="163" spans="1:19" s="4" customFormat="1">
       <c r="A163" s="6" t="s">
         <v>377</v>
       </c>
@@ -11686,7 +11679,7 @@
         <v>112.330001831055</v>
       </c>
     </row>
-    <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="164" spans="1:19" s="4" customFormat="1">
       <c r="A164" s="6" t="s">
         <v>379</v>
       </c>
@@ -11745,7 +11738,7 @@
         <v>26.100000381469702</v>
       </c>
     </row>
-    <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="165" spans="1:19" s="4" customFormat="1">
       <c r="A165" s="6" t="s">
         <v>380</v>
       </c>
@@ -11804,7 +11797,7 @@
         <v>87.242973327636705</v>
       </c>
     </row>
-    <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="166" spans="1:19" s="4" customFormat="1">
       <c r="A166" s="6" t="s">
         <v>382</v>
       </c>
@@ -11863,7 +11856,7 @@
         <v>25.379999160766602</v>
       </c>
     </row>
-    <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="167" spans="1:19" s="4" customFormat="1">
       <c r="A167" s="6" t="s">
         <v>384</v>
       </c>
@@ -11920,7 +11913,7 @@
         <v>5.4145002365112296</v>
       </c>
     </row>
-    <row r="168" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="168" spans="1:19" s="4" customFormat="1">
       <c r="A168" s="6" t="s">
         <v>386</v>
       </c>
@@ -11977,7 +11970,7 @@
         <v>5.9210000038146999</v>
       </c>
     </row>
-    <row r="169" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="169" spans="1:19" s="4" customFormat="1">
       <c r="A169" s="6" t="s">
         <v>388</v>
       </c>
@@ -12036,7 +12029,7 @@
         <v>11.5136041641235</v>
       </c>
     </row>
-    <row r="170" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="170" spans="1:19" s="4" customFormat="1">
       <c r="A170" s="6" t="s">
         <v>390</v>
       </c>
@@ -12095,7 +12088,7 @@
         <v>95.459999084472699</v>
       </c>
     </row>
-    <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="171" spans="1:19" s="4" customFormat="1">
       <c r="A171" s="6" t="s">
         <v>392</v>
       </c>
@@ -12154,7 +12147,7 @@
         <v>21.120000839233398</v>
       </c>
     </row>
-    <row r="172" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="172" spans="1:19" s="4" customFormat="1">
       <c r="A172" s="6" t="s">
         <v>394</v>
       </c>
@@ -12213,7 +12206,7 @@
         <v>53.279998779296903</v>
       </c>
     </row>
-    <row r="173" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="173" spans="1:19" s="4" customFormat="1">
       <c r="A173" s="6" t="s">
         <v>395</v>
       </c>
@@ -12272,7 +12265,7 @@
         <v>22.183300018310501</v>
       </c>
     </row>
-    <row r="174" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="174" spans="1:19" s="4" customFormat="1">
       <c r="A174" s="6" t="s">
         <v>396</v>
       </c>
@@ -12331,7 +12324,7 @@
         <v>23.709999084472699</v>
       </c>
     </row>
-    <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="175" spans="1:19" s="4" customFormat="1">
       <c r="A175" s="6" t="s">
         <v>398</v>
       </c>
@@ -12390,7 +12383,7 @@
         <v>20.9899997711182</v>
       </c>
     </row>
-    <row r="176" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="176" spans="1:19" s="4" customFormat="1">
       <c r="A176" s="6" t="s">
         <v>400</v>
       </c>
@@ -12449,7 +12442,7 @@
         <v>186.88792419433599</v>
       </c>
     </row>
-    <row r="177" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="177" spans="1:19" s="4" customFormat="1">
       <c r="A177" s="6" t="s">
         <v>403</v>
       </c>
@@ -12508,7 +12501,7 @@
         <v>40.650001525878899</v>
       </c>
     </row>
-    <row r="178" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="178" spans="1:19" s="4" customFormat="1">
       <c r="A178" s="6" t="s">
         <v>405</v>
       </c>
@@ -12567,7 +12560,7 @@
         <v>11.4737091064453</v>
       </c>
     </row>
-    <row r="179" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="179" spans="1:19" s="4" customFormat="1">
       <c r="A179" s="6" t="s">
         <v>407</v>
       </c>
@@ -12626,7 +12619,7 @@
         <v>23.034999847412099</v>
       </c>
     </row>
-    <row r="180" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="180" spans="1:19" s="4" customFormat="1">
       <c r="A180" s="6" t="s">
         <v>408</v>
       </c>
@@ -12685,7 +12678,7 @@
         <v>104.610000610352</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="181" spans="1:19" s="4" customFormat="1">
       <c r="A181" s="6" t="s">
         <v>410</v>
       </c>
@@ -12744,7 +12737,7 @@
         <v>7.2289161682128897</v>
       </c>
     </row>
-    <row r="182" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="182" spans="1:19" s="4" customFormat="1">
       <c r="A182" s="6" t="s">
         <v>412</v>
       </c>
@@ -12803,7 +12796,7 @@
         <v>26.379999160766602</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="183" spans="1:19" s="4" customFormat="1">
       <c r="A183" s="6" t="s">
         <v>413</v>
       </c>
@@ -12860,7 +12853,7 @@
         <v>39.5356254577637</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="184" spans="1:19" s="4" customFormat="1">
       <c r="A184" s="6" t="s">
         <v>415</v>
       </c>
@@ -12919,7 +12912,7 @@
         <v>38.971168518066399</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="185" spans="1:19" s="4" customFormat="1">
       <c r="A185" s="6" t="s">
         <v>417</v>
       </c>
@@ -12978,7 +12971,7 @@
         <v>22.2399997711182</v>
       </c>
     </row>
-    <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="186" spans="1:19" s="4" customFormat="1">
       <c r="A186" s="6" t="s">
         <v>418</v>
       </c>
@@ -13035,7 +13028,7 @@
         <v>5.6350002288818404</v>
       </c>
     </row>
-    <row r="187" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="187" spans="1:19" s="4" customFormat="1">
       <c r="A187" s="6" t="s">
         <v>420</v>
       </c>
@@ -13094,7 +13087,7 @@
         <v>53.162799835205099</v>
       </c>
     </row>
-    <row r="188" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="188" spans="1:19" s="4" customFormat="1">
       <c r="A188" s="6" t="s">
         <v>422</v>
       </c>
@@ -13153,7 +13146,7 @@
         <v>105.68499755859401</v>
       </c>
     </row>
-    <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="189" spans="1:19" s="4" customFormat="1">
       <c r="A189" s="6" t="s">
         <v>424</v>
       </c>
@@ -13212,7 +13205,7 @@
         <v>25.084999084472699</v>
       </c>
     </row>
-    <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="190" spans="1:19" s="4" customFormat="1">
       <c r="A190" s="6" t="s">
         <v>425</v>
       </c>
@@ -13271,7 +13264,7 @@
         <v>26.4799995422363</v>
       </c>
     </row>
-    <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="191" spans="1:19" s="4" customFormat="1">
       <c r="A191" s="6" t="s">
         <v>426</v>
       </c>
@@ -13330,7 +13323,7 @@
         <v>149.20265197753901</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="192" spans="1:19" s="4" customFormat="1">
       <c r="A192" s="6" t="s">
         <v>428</v>
       </c>
@@ -13389,7 +13382,7 @@
         <v>45.299999237060497</v>
       </c>
     </row>
-    <row r="193" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="193" spans="1:19" s="4" customFormat="1">
       <c r="A193" s="6" t="s">
         <v>430</v>
       </c>
@@ -13446,7 +13439,7 @@
         <v>6.2569999694824201</v>
       </c>
     </row>
-    <row r="194" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="194" spans="1:19" s="4" customFormat="1">
       <c r="A194" s="6" t="s">
         <v>432</v>
       </c>
@@ -13505,7 +13498,7 @@
         <v>16.572250366210898</v>
       </c>
     </row>
-    <row r="195" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="195" spans="1:19" s="4" customFormat="1">
       <c r="A195" s="6" t="s">
         <v>434</v>
       </c>
@@ -13564,7 +13557,7 @@
         <v>20.545759201049801</v>
       </c>
     </row>
-    <row r="196" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="196" spans="1:19" s="4" customFormat="1">
       <c r="A196" s="6" t="s">
         <v>436</v>
       </c>
@@ -13621,7 +13614,7 @@
         <v>6.1050000190734899</v>
       </c>
     </row>
-    <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="197" spans="1:19" s="4" customFormat="1">
       <c r="A197" s="6" t="s">
         <v>438</v>
       </c>
@@ -13680,7 +13673,7 @@
         <v>12.2795820236206</v>
       </c>
     </row>
-    <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="198" spans="1:19" s="4" customFormat="1">
       <c r="A198" s="6" t="s">
         <v>440</v>
       </c>
@@ -13739,7 +13732,7 @@
         <v>27.269901275634801</v>
       </c>
     </row>
-    <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="199" spans="1:19" s="4" customFormat="1">
       <c r="A199" s="6" t="s">
         <v>442</v>
       </c>
@@ -13798,7 +13791,7 @@
         <v>69.730003356933594</v>
       </c>
     </row>
-    <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="200" spans="1:19" s="4" customFormat="1">
       <c r="A200" s="6" t="s">
         <v>444</v>
       </c>
@@ -13857,7 +13850,7 @@
         <v>7.50278997421265</v>
       </c>
     </row>
-    <row r="201" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="201" spans="1:19" s="4" customFormat="1">
       <c r="A201" s="6" t="s">
         <v>446</v>
       </c>
@@ -13916,7 +13909,7 @@
         <v>26.934999465942401</v>
       </c>
     </row>
-    <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="202" spans="1:19" s="4" customFormat="1">
       <c r="A202" s="6" t="s">
         <v>447</v>
       </c>
@@ -13975,7 +13968,7 @@
         <v>56.439998626708999</v>
       </c>
     </row>
-    <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="203" spans="1:19" s="4" customFormat="1">
       <c r="A203" s="6" t="s">
         <v>449</v>
       </c>
@@ -14034,7 +14027,7 @@
         <v>56.6531982421875</v>
       </c>
     </row>
-    <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="204" spans="1:19" s="4" customFormat="1">
       <c r="A204" s="6" t="s">
         <v>451</v>
       </c>
@@ -14093,7 +14086,7 @@
         <v>156.54530334472699</v>
       </c>
     </row>
-    <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="205" spans="1:19" s="4" customFormat="1">
       <c r="A205" s="6" t="s">
         <v>454</v>
       </c>
@@ -14152,7 +14145,7 @@
         <v>7.9664392471313503</v>
       </c>
     </row>
-    <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="206" spans="1:19" s="4" customFormat="1">
       <c r="A206" s="6" t="s">
         <v>456</v>
       </c>
@@ -14211,7 +14204,7 @@
         <v>39.958511352539098</v>
       </c>
     </row>
-    <row r="207" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="207" spans="1:19" s="4" customFormat="1">
       <c r="A207" s="6" t="s">
         <v>458</v>
       </c>
@@ -14270,7 +14263,7 @@
         <v>12.782255172729499</v>
       </c>
     </row>
-    <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="208" spans="1:19" s="4" customFormat="1">
       <c r="A208" s="6" t="s">
         <v>460</v>
       </c>
@@ -14329,7 +14322,7 @@
         <v>1.6093178987503101</v>
       </c>
     </row>
-    <row r="209" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="209" spans="1:19" s="4" customFormat="1">
       <c r="A209" s="6" t="s">
         <v>465</v>
       </c>
@@ -14388,7 +14381,7 @@
         <v>5.4194002151489302</v>
       </c>
     </row>
-    <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="210" spans="1:19" s="4" customFormat="1">
       <c r="A210" s="6" t="s">
         <v>468</v>
       </c>
@@ -14447,7 +14440,7 @@
         <v>1.55889356136322</v>
       </c>
     </row>
-    <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="211" spans="1:19" s="4" customFormat="1">
       <c r="A211" s="6" t="s">
         <v>470</v>
       </c>
@@ -14506,7 +14499,7 @@
         <v>1.4878733158111599</v>
       </c>
     </row>
-    <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="212" spans="1:19" s="4" customFormat="1">
       <c r="A212" s="6" t="s">
         <v>472</v>
       </c>
@@ -14565,7 +14558,7 @@
         <v>19.843612670898398</v>
       </c>
     </row>
-    <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="213" spans="1:19" s="4" customFormat="1">
       <c r="A213" s="6" t="s">
         <v>474</v>
       </c>
@@ -14624,7 +14617,7 @@
         <v>109.32138824462901</v>
       </c>
     </row>
-    <row r="214" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="214" spans="1:19" s="4" customFormat="1">
       <c r="A214" s="6" t="s">
         <v>479</v>
       </c>
@@ -14683,7 +14676,7 @@
         <v>79.790000915527301</v>
       </c>
     </row>
-    <row r="215" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="215" spans="1:19" s="4" customFormat="1">
       <c r="A215" s="6" t="s">
         <v>481</v>
       </c>
@@ -14742,7 +14735,7 @@
         <v>76.169998168945298</v>
       </c>
     </row>
-    <row r="216" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="216" spans="1:19" s="4" customFormat="1">
       <c r="A216" s="6" t="s">
         <v>483</v>
       </c>
@@ -14801,7 +14794,7 @@
         <v>10.5880479812622</v>
       </c>
     </row>
-    <row r="217" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="217" spans="1:19" s="4" customFormat="1">
       <c r="A217" s="6" t="s">
         <v>485</v>
       </c>
@@ -14860,7 +14853,7 @@
         <v>1.4612407684326201</v>
       </c>
     </row>
-    <row r="218" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="218" spans="1:19" s="4" customFormat="1">
       <c r="A218" s="6" t="s">
         <v>487</v>
       </c>
@@ -14919,7 +14912,7 @@
         <v>13.508337974548301</v>
       </c>
     </row>
-    <row r="219" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="219" spans="1:19" s="4" customFormat="1">
       <c r="A219" s="6" t="s">
         <v>489</v>
       </c>
@@ -14976,7 +14969,7 @@
         <v>5.1500000953674299</v>
       </c>
     </row>
-    <row r="220" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="220" spans="1:19" s="4" customFormat="1">
       <c r="A220" s="6" t="s">
         <v>491</v>
       </c>
@@ -15035,7 +15028,7 @@
         <v>39.669296264648402</v>
       </c>
     </row>
-    <row r="221" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="221" spans="1:19" s="4" customFormat="1">
       <c r="A221" s="6" t="s">
         <v>493</v>
       </c>
@@ -15094,7 +15087,7 @@
         <v>21.399999618530298</v>
       </c>
     </row>
-    <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="222" spans="1:19" s="4" customFormat="1">
       <c r="A222" s="6" t="s">
         <v>494</v>
       </c>
@@ -15151,7 +15144,7 @@
         <v>50.284999847412102</v>
       </c>
     </row>
-    <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="223" spans="1:19" s="4" customFormat="1">
       <c r="A223" s="6" t="s">
         <v>496</v>
       </c>
@@ -15210,7 +15203,7 @@
         <v>1.4275062084198</v>
       </c>
     </row>
-    <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
+    <row r="224" spans="1:19" s="4" customFormat="1">
       <c r="A224" s="6" t="s">
         <v>498</v>
       </c>
@@ -15269,7 +15262,7 @@
         <v>53.573799133300803</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="225" spans="1:19" s="4" customFormat="1">
       <c r="A225" s="6" t="s">
         <v>500</v>
       </c>
@@ -15328,7 +15321,7 @@
         <v>17.289556503295898</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="226" spans="1:19" s="4" customFormat="1">
       <c r="A226" s="6" t="s">
         <v>502</v>
       </c>
@@ -15387,7 +15380,7 @@
         <v>40.470500946044901</v>
       </c>
     </row>
-    <row r="227" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="227" spans="1:19" s="4" customFormat="1">
       <c r="A227" s="6" t="s">
         <v>504</v>
       </c>
@@ -15446,7 +15439,7 @@
         <v>15.3594512939453</v>
       </c>
     </row>
-    <row r="228" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="228" spans="1:19" s="4" customFormat="1">
       <c r="A228" s="6" t="s">
         <v>506</v>
       </c>
@@ -15505,7 +15498,7 @@
         <v>17.793025970458999</v>
       </c>
     </row>
-    <row r="229" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="229" spans="1:19" s="4" customFormat="1">
       <c r="A229" s="6" t="s">
         <v>508</v>
       </c>
@@ -15564,7 +15557,7 @@
         <v>14.362084388732899</v>
       </c>
     </row>
-    <row r="230" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="230" spans="1:19" s="4" customFormat="1">
       <c r="A230" s="6" t="s">
         <v>510</v>
       </c>
@@ -15623,7 +15616,7 @@
         <v>56.665000915527301</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="231" spans="1:19" s="4" customFormat="1">
       <c r="A231" s="6" t="s">
         <v>512</v>
       </c>
@@ -15682,7 +15675,7 @@
         <v>17.298332214355501</v>
       </c>
     </row>
-    <row r="232" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="232" spans="1:19" s="4" customFormat="1">
       <c r="A232" s="6" t="s">
         <v>514</v>
       </c>
@@ -15741,7 +15734,7 @@
         <v>26.850000381469702</v>
       </c>
     </row>
-    <row r="233" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="233" spans="1:19" s="4" customFormat="1">
       <c r="A233" s="6" t="s">
         <v>516</v>
       </c>
@@ -15800,7 +15793,7 @@
         <v>50.369998931884801</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="234" spans="1:19" s="4" customFormat="1">
       <c r="A234" s="6" t="s">
         <v>518</v>
       </c>
@@ -15859,7 +15852,7 @@
         <v>10.5800685882568</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="235" spans="1:19" s="4" customFormat="1">
       <c r="A235" s="6" t="s">
         <v>520</v>
       </c>
@@ -15918,34 +15911,7 @@
         <v>15.2238092422485</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="30" customHeight="1">
-      <c r="A237" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="8"/>
-      <c r="M237" s="8"/>
-      <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-      <c r="Q237" s="8"/>
-      <c r="R237" s="8"/>
-      <c r="S237" s="8"/>
-      <c r="T237" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A237:T237"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="507">
   <si>
     <t>USD</t>
   </si>
@@ -336,6 +336,15 @@
     <t>Omitted</t>
   </si>
   <si>
+    <t>BLV US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD LONG-TE</t>
+  </si>
+  <si>
+    <t>Govt/Corp Long Term</t>
+  </si>
+  <si>
     <t>SRLN US Equity</t>
   </si>
   <si>
@@ -348,9 +357,6 @@
     <t>VCLT US Equity</t>
   </si>
   <si>
-    <t>VANGUARD LONG-TE</t>
-  </si>
-  <si>
     <t>BIL US Equity</t>
   </si>
   <si>
@@ -363,10 +369,10 @@
     <t>ISHR 5-10Y IN GR</t>
   </si>
   <si>
-    <t>BLV US Equity</t>
-  </si>
-  <si>
-    <t>Govt/Corp Long Term</t>
+    <t>BIV US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD INTERME</t>
   </si>
   <si>
     <t>VGLT US Equity</t>
@@ -375,12 +381,6 @@
     <t>VANGUARD LT TREA</t>
   </si>
   <si>
-    <t>BIV US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD INTERME</t>
-  </si>
-  <si>
     <t>USHY US Equity</t>
   </si>
   <si>
@@ -414,6 +414,21 @@
     <t>Convertible</t>
   </si>
   <si>
+    <t>214980 KS Equity</t>
+  </si>
+  <si>
+    <t>SS KODEX KRW ETF</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Korea SE</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
     <t>SPLB US Equity</t>
   </si>
   <si>
@@ -429,21 +444,6 @@
     <t>USIG US Equity</t>
   </si>
   <si>
-    <t>214980 KS Equity</t>
-  </si>
-  <si>
-    <t>SS KODEX KRW ETF</t>
-  </si>
-  <si>
-    <t>KRW</t>
-  </si>
-  <si>
-    <t>Korea SE</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
     <t>VMBS US Equity</t>
   </si>
   <si>
@@ -651,39 +651,39 @@
     <t>SPDR INT TREAS</t>
   </si>
   <si>
+    <t>SHM US Equity</t>
+  </si>
+  <si>
+    <t>SPDR NUV ST MUNI</t>
+  </si>
+  <si>
+    <t>XBB CN Equity</t>
+  </si>
+  <si>
+    <t>ISHR C CA U BOND</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>VNLA US Equity</t>
+  </si>
+  <si>
+    <t>JANUS HENDERSON</t>
+  </si>
+  <si>
     <t>FALN US Equity</t>
   </si>
   <si>
     <t>ISHARES F A ETF</t>
   </si>
   <si>
-    <t>SHM US Equity</t>
-  </si>
-  <si>
-    <t>SPDR NUV ST MUNI</t>
-  </si>
-  <si>
-    <t>XBB CN Equity</t>
-  </si>
-  <si>
-    <t>ISHR C CA U BOND</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>VNLA US Equity</t>
-  </si>
-  <si>
-    <t>JANUS HENDERSON</t>
-  </si>
-  <si>
     <t>VWOB US Equity</t>
   </si>
   <si>
@@ -720,6 +720,12 @@
     <t>ISHARES 0-5 IGC</t>
   </si>
   <si>
+    <t>BOND US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO ACTIVE BON</t>
+  </si>
+  <si>
     <t>HYLS US Equity</t>
   </si>
   <si>
@@ -744,12 +750,6 @@
     <t>ISHARES AGENCY B</t>
   </si>
   <si>
-    <t>BOND US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO ACTIVE BON</t>
-  </si>
-  <si>
     <t>SUSB US Equity</t>
   </si>
   <si>
@@ -828,51 +828,51 @@
     <t>SUSC US Equity</t>
   </si>
   <si>
+    <t>AAA AU Equity</t>
+  </si>
+  <si>
+    <t>BETA AUS INTERES</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t>PZA US Equity</t>
   </si>
   <si>
     <t>INVESCO NATIONAL</t>
   </si>
   <si>
-    <t>AAA AU Equity</t>
-  </si>
-  <si>
-    <t>BETA AUS INTERES</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>ASE</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>ZPR CN Equity</t>
   </si>
   <si>
     <t>BMO LADDERED PRE</t>
   </si>
   <si>
+    <t>XCB CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CANADIAN</t>
+  </si>
+  <si>
+    <t>FMB US Equity</t>
+  </si>
+  <si>
+    <t>FIRST TRUST MANA</t>
+  </si>
+  <si>
     <t>FBND US Equity</t>
   </si>
   <si>
     <t>FID-TOT BOND ETF</t>
   </si>
   <si>
-    <t>XCB CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CANADIAN</t>
-  </si>
-  <si>
-    <t>FMB US Equity</t>
-  </si>
-  <si>
-    <t>FIRST TRUST MANA</t>
-  </si>
-  <si>
     <t>BSCL US Equity</t>
   </si>
   <si>
@@ -921,27 +921,27 @@
     <t>BMO ULTRA SHORT-</t>
   </si>
   <si>
+    <t>JAGG US Equity</t>
+  </si>
+  <si>
+    <t>JPM US AGG BOND</t>
+  </si>
+  <si>
+    <t>IEMB LN Equity</t>
+  </si>
+  <si>
+    <t>ISH JP $EM BD $D</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>BSCM US Equity</t>
   </si>
   <si>
-    <t>JAGG US Equity</t>
-  </si>
-  <si>
-    <t>JPM US AGG BOND</t>
-  </si>
-  <si>
-    <t>IEMB LN Equity</t>
-  </si>
-  <si>
-    <t>ISH JP $EM BD $D</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>TLH US Equity</t>
   </si>
   <si>
@@ -960,46 +960,52 @@
     <t>SPDR ICE PREFERR</t>
   </si>
   <si>
+    <t>CSAV CN Equity</t>
+  </si>
+  <si>
+    <t>CI HIGH INTEREST</t>
+  </si>
+  <si>
+    <t>LQDE LN Equity</t>
+  </si>
+  <si>
+    <t>ISH $ CORP BD $D</t>
+  </si>
+  <si>
+    <t>Geo Focus-Debt</t>
+  </si>
+  <si>
+    <t>Interim</t>
+  </si>
+  <si>
+    <t>GTO US Equity</t>
+  </si>
+  <si>
+    <t>INVESCO TOTAL RE</t>
+  </si>
+  <si>
+    <t>GVI US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES INTERMED</t>
+  </si>
+  <si>
+    <t>LDUR US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO ENHANCED L</t>
+  </si>
+  <si>
+    <t>BSCN US Equity</t>
+  </si>
+  <si>
     <t>00679B TT Equity</t>
   </si>
   <si>
     <t>YUANTA UST 20+</t>
   </si>
   <si>
-    <t>CSAV CN Equity</t>
-  </si>
-  <si>
-    <t>CI HIGH INTEREST</t>
-  </si>
-  <si>
-    <t>LQDE LN Equity</t>
-  </si>
-  <si>
-    <t>ISH $ CORP BD $D</t>
-  </si>
-  <si>
-    <t>Geo Focus-Debt</t>
-  </si>
-  <si>
-    <t>Interim</t>
-  </si>
-  <si>
-    <t>GTO US Equity</t>
-  </si>
-  <si>
-    <t>INVESCO TOTAL RE</t>
-  </si>
-  <si>
-    <t>GVI US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES INTERMED</t>
-  </si>
-  <si>
-    <t>LDUR US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO ENHANCED L</t>
+    <t>EAGG US Equity</t>
   </si>
   <si>
     <t>HYEM US Equity</t>
@@ -1008,12 +1014,6 @@
     <t>VANECK EM HI YLD</t>
   </si>
   <si>
-    <t>BSCN US Equity</t>
-  </si>
-  <si>
-    <t>EAGG US Equity</t>
-  </si>
-  <si>
     <t>IHYU LN Equity</t>
   </si>
   <si>
@@ -1044,54 +1044,60 @@
     <t>ISH US TR 0-1 $A</t>
   </si>
   <si>
+    <t>IGOV US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES INTERNAT</t>
+  </si>
+  <si>
+    <t>IGLT LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR CORE GILTS</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>XSH CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CORE CA</t>
+  </si>
+  <si>
+    <t>BSCO US Equity</t>
+  </si>
+  <si>
+    <t>LEMB US Equity</t>
+  </si>
+  <si>
+    <t>BSJM US Equity</t>
+  </si>
+  <si>
+    <t>EBND US Equity</t>
+  </si>
+  <si>
+    <t>SPDR EM LOCAL BD</t>
+  </si>
+  <si>
+    <t>CMF US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CALIFORN</t>
+  </si>
+  <si>
+    <t>Muni-California</t>
+  </si>
+  <si>
     <t>AGGY US Equity</t>
   </si>
   <si>
     <t>WISDOMTREE YIELD</t>
   </si>
   <si>
-    <t>IGOV US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES INTERNAT</t>
-  </si>
-  <si>
-    <t>IGLT LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR CORE GILTS</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>XSH CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CORE CA</t>
-  </si>
-  <si>
-    <t>LEMB US Equity</t>
-  </si>
-  <si>
-    <t>BSCO US Equity</t>
-  </si>
-  <si>
-    <t>BSJM US Equity</t>
-  </si>
-  <si>
-    <t>CMF US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CALIFORN</t>
-  </si>
-  <si>
-    <t>Muni-California</t>
-  </si>
-  <si>
     <t>PGF US Equity</t>
   </si>
   <si>
@@ -1134,12 +1140,6 @@
     <t>FLEXSHARES IBOXX</t>
   </si>
   <si>
-    <t>EBND US Equity</t>
-  </si>
-  <si>
-    <t>SPDR EM LOCAL BD</t>
-  </si>
-  <si>
     <t>TIPX US Equity</t>
   </si>
   <si>
@@ -1182,30 +1182,30 @@
     <t>BMO SHORT CORPOR</t>
   </si>
   <si>
+    <t>BSCQ US Equity</t>
+  </si>
+  <si>
+    <t>JMBS US Equity</t>
+  </si>
+  <si>
+    <t>DIAL US Equity</t>
+  </si>
+  <si>
+    <t>COL DIV FI ETF</t>
+  </si>
+  <si>
     <t>IAF AU Equity</t>
   </si>
   <si>
     <t>ISHARES CORE COM</t>
   </si>
   <si>
-    <t>JMBS US Equity</t>
-  </si>
-  <si>
-    <t>BSCQ US Equity</t>
-  </si>
-  <si>
     <t>ITPG LN Equity</t>
   </si>
   <si>
     <t>ISH $TIPS £H DIS</t>
   </si>
   <si>
-    <t>DIAL US Equity</t>
-  </si>
-  <si>
-    <t>COL DIV FI ETF</t>
-  </si>
-  <si>
     <t>VSC CN Equity</t>
   </si>
   <si>
@@ -1230,15 +1230,15 @@
     <t>ISH $TRS 1-3Y $A</t>
   </si>
   <si>
+    <t>IBDN US Equity</t>
+  </si>
+  <si>
     <t>CMBS US Equity</t>
   </si>
   <si>
     <t>ISHARES CMBS ETF</t>
   </si>
   <si>
-    <t>IBDN US Equity</t>
-  </si>
-  <si>
     <t>LQDA LN Equity</t>
   </si>
   <si>
@@ -1284,24 +1284,24 @@
     <t>ISH $TRS1-3Y €HA</t>
   </si>
   <si>
+    <t>GNMA US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES GNMA BON</t>
+  </si>
+  <si>
+    <t>EMHY US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES J.P. MOR</t>
+  </si>
+  <si>
     <t>HBRD AU Equity</t>
   </si>
   <si>
     <t>BETA-ACTV AU HYB</t>
   </si>
   <si>
-    <t>GNMA US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES GNMA BON</t>
-  </si>
-  <si>
-    <t>EMHY US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES J.P. MOR</t>
-  </si>
-  <si>
     <t>MUB CN Equity</t>
   </si>
   <si>
@@ -1326,126 +1326,126 @@
     <t>ISHR CORE £ CORP</t>
   </si>
   <si>
+    <t>ZCM CN Equity</t>
+  </si>
+  <si>
+    <t>BMO MID CORPORAT</t>
+  </si>
+  <si>
+    <t>PFXF US Equity</t>
+  </si>
+  <si>
+    <t>VANECK PFD X FIN</t>
+  </si>
+  <si>
+    <t>IBDQ US Equity</t>
+  </si>
+  <si>
+    <t>BSCP US Equity</t>
+  </si>
+  <si>
+    <t>CPD CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES S&amp;P/TSX</t>
+  </si>
+  <si>
+    <t>TIPH LN Equity</t>
+  </si>
+  <si>
+    <t>LYX US TIPS DGBP</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>TAIL US Equity</t>
+  </si>
+  <si>
+    <t>CAMBRIA TAIL RIS</t>
+  </si>
+  <si>
+    <t>VAF AU Equity</t>
+  </si>
+  <si>
+    <t>VANG-AU FI I ETF</t>
+  </si>
+  <si>
+    <t>VTC US Equity</t>
+  </si>
+  <si>
+    <t>VGUARD TOT CORP</t>
+  </si>
+  <si>
+    <t>HBB CN Equity</t>
+  </si>
+  <si>
+    <t>HORIZONS CDN SEL</t>
+  </si>
+  <si>
+    <t>VRIG US Equity</t>
+  </si>
+  <si>
+    <t>CNYB NA Equity</t>
+  </si>
+  <si>
+    <t>ISH CNY BOND $D</t>
+  </si>
+  <si>
+    <t>EN Amsterdam</t>
+  </si>
+  <si>
+    <t>IHYA LN Equity</t>
+  </si>
+  <si>
+    <t>ISH $ HY CRP $A</t>
+  </si>
+  <si>
+    <t>MFT CN Equity</t>
+  </si>
+  <si>
+    <t>MACKENZIE FLOATI</t>
+  </si>
+  <si>
     <t>273130 KS Equity</t>
   </si>
   <si>
     <t>SS KR BOND AA-</t>
   </si>
   <si>
-    <t>ZCM CN Equity</t>
-  </si>
-  <si>
-    <t>BMO MID CORPORAT</t>
-  </si>
-  <si>
-    <t>00687B TT Equity</t>
-  </si>
-  <si>
-    <t>CATHAY UST 20+</t>
-  </si>
-  <si>
-    <t>PFXF US Equity</t>
-  </si>
-  <si>
-    <t>VANECK PFD X FIN</t>
-  </si>
-  <si>
-    <t>IBDQ US Equity</t>
-  </si>
-  <si>
-    <t>BSCP US Equity</t>
-  </si>
-  <si>
-    <t>TIPH LN Equity</t>
-  </si>
-  <si>
-    <t>LYX US TIPS DGBP</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>VAF AU Equity</t>
-  </si>
-  <si>
-    <t>VANG-AU FI I ETF</t>
-  </si>
-  <si>
-    <t>CPD CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES S&amp;P/TSX</t>
-  </si>
-  <si>
-    <t>TAIL US Equity</t>
-  </si>
-  <si>
-    <t>CAMBRIA TAIL RIS</t>
-  </si>
-  <si>
-    <t>VTC US Equity</t>
-  </si>
-  <si>
-    <t>VGUARD TOT CORP</t>
-  </si>
-  <si>
-    <t>HBB CN Equity</t>
-  </si>
-  <si>
-    <t>HORIZONS CDN SEL</t>
-  </si>
-  <si>
-    <t>VRIG US Equity</t>
-  </si>
-  <si>
-    <t>CNYB NA Equity</t>
-  </si>
-  <si>
-    <t>ISH CNY BOND $D</t>
-  </si>
-  <si>
-    <t>EN Amsterdam</t>
-  </si>
-  <si>
-    <t>IHYA LN Equity</t>
-  </si>
-  <si>
-    <t>ISH $ HY CRP $A</t>
-  </si>
-  <si>
-    <t>MFT CN Equity</t>
-  </si>
-  <si>
-    <t>MACKENZIE FLOATI</t>
-  </si>
-  <si>
     <t>TDTF US Equity</t>
   </si>
   <si>
+    <t>BNDW US Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD TOTAL W</t>
+  </si>
+  <si>
+    <t>159972 CH Equity</t>
+  </si>
+  <si>
+    <t>PH CSI5Y LCL GV</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
     <t>HTRB US Equity</t>
   </si>
   <si>
     <t>HRTFRD TR BD ETF</t>
   </si>
   <si>
-    <t>159972 CH Equity</t>
-  </si>
-  <si>
-    <t>PH CSI5Y LCL GV</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>JPEA LN Equity</t>
   </si>
   <si>
@@ -1470,12 +1470,6 @@
     <t>BMO SHORT PROVIN</t>
   </si>
   <si>
-    <t>BNDW US Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD TOTAL W</t>
-  </si>
-  <si>
     <t>LQDH US Equity</t>
   </si>
   <si>
@@ -1500,6 +1494,12 @@
     <t>FRANKLIN LIBERTY</t>
   </si>
   <si>
+    <t>CBO CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 1-5 YEAR</t>
+  </si>
+  <si>
     <t>IEML LN Equity</t>
   </si>
   <si>
@@ -1540,12 +1540,6 @@
   </si>
   <si>
     <t>ISHARES CANADIA</t>
-  </si>
-  <si>
-    <t>CBO CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 1-5 YEAR</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2017,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S230"/>
+  <dimension ref="A1:S229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2125,7 +2119,7 @@
         <v>2043947264</v>
       </c>
       <c r="D2" s="5">
-        <v>14627867648</v>
+        <v>14766150656</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -2184,7 +2178,7 @@
         <v>1897460096</v>
       </c>
       <c r="D3" s="5">
-        <v>39323013120</v>
+        <v>39575199744</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
@@ -2243,7 +2237,7 @@
         <v>1519829504</v>
       </c>
       <c r="D4" s="5">
-        <v>19536867328</v>
+        <v>20231692288</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -2302,7 +2296,7 @@
         <v>718656448</v>
       </c>
       <c r="D5" s="5">
-        <v>13322855424</v>
+        <v>13353919488</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
@@ -2361,7 +2355,7 @@
         <v>696141632</v>
       </c>
       <c r="D6" s="5">
-        <v>9425169408</v>
+        <v>9547730944</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
@@ -2417,10 +2411,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="5">
-        <v>625080832</v>
+        <v>617847744</v>
       </c>
       <c r="D7" s="5">
-        <v>88312381440</v>
+        <v>88339243008</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>40</v>
@@ -2476,10 +2470,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="5">
-        <v>555535232</v>
+        <v>557774208</v>
       </c>
       <c r="D8" s="5">
-        <v>77876527104</v>
+        <v>77912358912</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>40</v>
@@ -2538,7 +2532,7 @@
         <v>436006944</v>
       </c>
       <c r="D9" s="5">
-        <v>28245028864</v>
+        <v>28303898624</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>45</v>
@@ -2594,16 +2588,16 @@
         <v>47</v>
       </c>
       <c r="C10" s="5">
-        <v>406951680</v>
+        <v>404517632</v>
       </c>
       <c r="D10" s="5">
-        <v>19671455744</v>
+        <v>19662696448</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="5">
-        <v>3.8281764984130899</v>
+        <v>3.8237442970275901</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -2656,7 +2650,7 @@
         <v>240993744</v>
       </c>
       <c r="D11" s="5">
-        <v>19523403776</v>
+        <v>19524536320</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
@@ -2715,7 +2709,7 @@
         <v>226571504</v>
       </c>
       <c r="D12" s="5">
-        <v>40195997696</v>
+        <v>40138162176</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>54</v>
@@ -2774,7 +2768,7 @@
         <v>221570864</v>
       </c>
       <c r="D13" s="5">
-        <v>46233169920</v>
+        <v>46257287168</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>54</v>
@@ -2830,10 +2824,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="5">
-        <v>169626336</v>
+        <v>170700208</v>
       </c>
       <c r="D14" s="5">
-        <v>34324441088</v>
+        <v>34322198528</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>59</v>
@@ -2892,7 +2886,7 @@
         <v>158212832</v>
       </c>
       <c r="D15" s="5">
-        <v>14563686400</v>
+        <v>14549125120</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>51</v>
@@ -2946,10 +2940,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="5">
-        <v>140289440</v>
+        <v>142769136</v>
       </c>
       <c r="D16" s="5">
-        <v>6768720384</v>
+        <v>6798515200</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>40</v>
@@ -3008,7 +3002,7 @@
         <v>131041240</v>
       </c>
       <c r="D17" s="5">
-        <v>18131169280</v>
+        <v>18156931072</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>45</v>
@@ -3067,7 +3061,7 @@
         <v>129645496</v>
       </c>
       <c r="D18" s="5">
-        <v>10861487104</v>
+        <v>10857321472</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>35</v>
@@ -3123,10 +3117,10 @@
         <v>70</v>
       </c>
       <c r="C19" s="5">
-        <v>126614624</v>
+        <v>126165976</v>
       </c>
       <c r="D19" s="5">
-        <v>42673684480</v>
+        <v>42716319744</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>71</v>
@@ -3185,7 +3179,7 @@
         <v>124993120</v>
       </c>
       <c r="D20" s="5">
-        <v>5012322304</v>
+        <v>5031569920</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>32</v>
@@ -3244,7 +3238,7 @@
         <v>124482488</v>
       </c>
       <c r="D21" s="5">
-        <v>19504531456</v>
+        <v>19522680832</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>54</v>
@@ -3286,7 +3280,7 @@
         <v>25</v>
       </c>
       <c r="R21" s="5">
-        <v>39.209999084472699</v>
+        <v>39.2299995422363</v>
       </c>
       <c r="S21" s="5">
         <v>39.150001525878899</v>
@@ -3303,7 +3297,7 @@
         <v>120465368</v>
       </c>
       <c r="D22" s="5">
-        <v>26022676480</v>
+        <v>26354241536</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>59</v>
@@ -3362,7 +3356,7 @@
         <v>119669184</v>
       </c>
       <c r="D23" s="5">
-        <v>17285414912</v>
+        <v>17301467136</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>80</v>
@@ -3421,7 +3415,7 @@
         <v>118409312</v>
       </c>
       <c r="D24" s="5">
-        <v>14826806272</v>
+        <v>14833016832</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>51</v>
@@ -3480,13 +3474,13 @@
         <v>118313304</v>
       </c>
       <c r="D25" s="5">
-        <v>22678599680</v>
+        <v>22687948800</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="5">
-        <v>1.8079570531845099</v>
+        <v>1.8122874498367301</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -3539,7 +3533,7 @@
         <v>108152568</v>
       </c>
       <c r="D26" s="5">
-        <v>6756362240</v>
+        <v>6698717696</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>89</v>
@@ -3598,7 +3592,7 @@
         <v>107541320</v>
       </c>
       <c r="D27" s="5">
-        <v>14024644608</v>
+        <v>14021908480</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>51</v>
@@ -3657,7 +3651,7 @@
         <v>105777064</v>
       </c>
       <c r="D28" s="5">
-        <v>14444471296</v>
+        <v>14452595712</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>94</v>
@@ -3716,7 +3710,7 @@
         <v>104657280</v>
       </c>
       <c r="D29" s="5">
-        <v>25638946816</v>
+        <v>25719257088</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>97</v>
@@ -3775,7 +3769,7 @@
         <v>97445096</v>
       </c>
       <c r="D30" s="5">
-        <v>16945190912</v>
+        <v>16977554432</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>45</v>
@@ -3834,7 +3828,7 @@
         <v>86814472</v>
       </c>
       <c r="D31" s="5">
-        <v>6703870464</v>
+        <v>6813397504</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>80</v>
@@ -3893,7 +3887,7 @@
         <v>85890080</v>
       </c>
       <c r="D32" s="5">
-        <v>1458405120</v>
+        <v>1480740224</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>22</v>
@@ -3947,40 +3941,40 @@
         <v>106</v>
       </c>
       <c r="C33" s="5">
-        <v>82689656</v>
+        <v>84100416</v>
       </c>
       <c r="D33" s="5">
-        <v>6053818368</v>
+        <v>5471417344</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="5">
-        <v>4.41271924972534</v>
+        <v>2.9127464294433598</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="5">
-        <v>0.108270326396998</v>
+        <v>-0.21448885771443399</v>
       </c>
       <c r="I33" s="5">
-        <v>0.108270326396998</v>
+        <v>1.22638498297327</v>
       </c>
       <c r="J33" s="5">
-        <v>0.95912239688378298</v>
+        <v>3.6953834162135601</v>
       </c>
       <c r="K33" s="5">
-        <v>2.2225350653785099</v>
+        <v>5.3580300356978396</v>
       </c>
       <c r="L33" s="5">
-        <v>3.6849963386172102</v>
+        <v>-4.5589825463532296</v>
       </c>
       <c r="M33" s="5">
-        <v>3.1398859283261902</v>
+        <v>-5.2031491967838202</v>
       </c>
       <c r="N33" s="5">
-        <v>10.1252996230143</v>
+        <v>-1.74040069192966</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>23</v>
@@ -3992,10 +3986,10 @@
         <v>25</v>
       </c>
       <c r="R33" s="5">
-        <v>46.25</v>
+        <v>117.98000335693401</v>
       </c>
       <c r="S33" s="5">
-        <v>46.2299995422363</v>
+        <v>102.34999847412099</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4006,112 +4000,114 @@
         <v>109</v>
       </c>
       <c r="C34" s="5">
-        <v>81915328</v>
+        <v>82689656</v>
       </c>
       <c r="D34" s="5">
-        <v>5492429312</v>
+        <v>6080901632</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F34" s="5">
-        <v>3.13447213172913</v>
+        <v>4.41271924972534</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="5">
-        <v>-0.18837425985817099</v>
+        <v>0.108270326396998</v>
       </c>
       <c r="I34" s="5">
-        <v>0.96227338513752403</v>
+        <v>0.108270326396998</v>
       </c>
       <c r="J34" s="5">
-        <v>3.7956551948941999</v>
+        <v>0.95912239688378298</v>
       </c>
       <c r="K34" s="5">
-        <v>6.2796321130270396</v>
+        <v>2.2225350653785099</v>
       </c>
       <c r="L34" s="5">
-        <v>-2.4861924416531598</v>
+        <v>3.6849963386172102</v>
       </c>
       <c r="M34" s="5">
-        <v>-3.3465904686406902</v>
+        <v>3.1398859283261902</v>
       </c>
       <c r="N34" s="5">
-        <v>3.7667082763469502</v>
+        <v>10.1252996230143</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R34" s="5">
-        <v>113.290000915527</v>
+        <v>46.264999389648402</v>
       </c>
       <c r="S34" s="5">
-        <v>105.970001220703</v>
+        <v>46.2299995422363</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5">
-        <v>81293696</v>
+        <v>81915328</v>
       </c>
       <c r="D35" s="5">
-        <v>11963772928</v>
+        <v>5506941440</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3.13447213172913</v>
+      </c>
       <c r="G35" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <v>0</v>
+        <v>-0.18837425985817099</v>
       </c>
       <c r="I35" s="5">
-        <v>-1.0933685902303E-2</v>
+        <v>0.96227338513752403</v>
       </c>
       <c r="J35" s="5">
-        <v>-2.1856643931917E-2</v>
+        <v>3.7956551948941999</v>
       </c>
       <c r="K35" s="5">
-        <v>-4.3712069275003998E-2</v>
+        <v>6.2796321130270396</v>
       </c>
       <c r="L35" s="5">
-        <v>-4.3712069275003998E-2</v>
+        <v>-2.4861924416531598</v>
       </c>
       <c r="M35" s="5">
-        <v>-5.4627867348234001E-2</v>
+        <v>-3.3465904686406902</v>
       </c>
       <c r="N35" s="5">
-        <v>-6.2000931264327999E-2</v>
+        <v>3.7667082763469502</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R35" s="5">
-        <v>91.549697875976605</v>
+        <v>113.290000915527</v>
       </c>
       <c r="S35" s="5">
-        <v>91.470001220703097</v>
+        <v>105.970001220703</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4122,55 +4118,53 @@
         <v>113</v>
       </c>
       <c r="C36" s="5">
-        <v>73934120</v>
+        <v>81132920</v>
       </c>
       <c r="D36" s="5">
-        <v>11805838336</v>
+        <v>11963772928</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2.2774717807769802</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="5">
-        <v>-0.115989555251161</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>0.36629603892033302</v>
+        <v>-1.0933685902303E-2</v>
       </c>
       <c r="J36" s="5">
-        <v>1.029214132546</v>
+        <v>-2.1856643931917E-2</v>
       </c>
       <c r="K36" s="5">
-        <v>2.2656091696852099</v>
+        <v>-4.3712069275003998E-2</v>
       </c>
       <c r="L36" s="5">
-        <v>-1.1222180604360601</v>
+        <v>-4.3712069275003998E-2</v>
       </c>
       <c r="M36" s="5">
-        <v>-1.50627330275768</v>
+        <v>-5.4627867348234001E-2</v>
       </c>
       <c r="N36" s="5">
-        <v>2.7165607966812102</v>
+        <v>-6.2000931264327999E-2</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R36" s="5">
-        <v>61.830001831054702</v>
+        <v>91.549697875976605</v>
       </c>
       <c r="S36" s="5">
-        <v>60.279998779296903</v>
+        <v>91.470001220703097</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4178,58 +4172,58 @@
         <v>114</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C37" s="5">
-        <v>70540032</v>
+        <v>73934120</v>
       </c>
       <c r="D37" s="5">
-        <v>5516664832</v>
+        <v>11833854976</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F37" s="5">
-        <v>2.9127464294433598</v>
+        <v>2.2774717807769802</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="5">
-        <v>-0.21448885771443399</v>
+        <v>-0.115989555251161</v>
       </c>
       <c r="I37" s="5">
-        <v>1.22638498297327</v>
+        <v>0.36629603892033302</v>
       </c>
       <c r="J37" s="5">
-        <v>3.6953834162135601</v>
+        <v>1.029214132546</v>
       </c>
       <c r="K37" s="5">
-        <v>5.3580300356978396</v>
+        <v>2.2656091696852099</v>
       </c>
       <c r="L37" s="5">
-        <v>-4.5589825463532296</v>
+        <v>-1.1222180604360601</v>
       </c>
       <c r="M37" s="5">
-        <v>-5.2031491967838202</v>
+        <v>-1.50627330275768</v>
       </c>
       <c r="N37" s="5">
-        <v>-1.74040069192966</v>
+        <v>2.7165607966812102</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R37" s="5">
-        <v>117.98000335693401</v>
+        <v>61.830001831054702</v>
       </c>
       <c r="S37" s="5">
-        <v>102.34999847412099</v>
+        <v>60.279998779296903</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4240,55 +4234,55 @@
         <v>117</v>
       </c>
       <c r="C38" s="5">
-        <v>69197200</v>
+        <v>69410336</v>
       </c>
       <c r="D38" s="5">
-        <v>2333234944</v>
+        <v>14433435648</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F38" s="5">
-        <v>1.93406093120575</v>
+        <v>1.97317862510681</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>-0.229222863314826</v>
+        <v>-0.155797227573473</v>
       </c>
       <c r="I38" s="5">
-        <v>1.55156534311092</v>
+        <v>0.40286549674648497</v>
       </c>
       <c r="J38" s="5">
-        <v>3.9274168815612001</v>
+        <v>0.69268616636421998</v>
       </c>
       <c r="K38" s="5">
-        <v>4.3222656707160096</v>
+        <v>1.5388342795646099</v>
       </c>
       <c r="L38" s="5">
-        <v>-7.8589643069328998</v>
+        <v>-1.99675349838967</v>
       </c>
       <c r="M38" s="5">
-        <v>-8.4837480264738794</v>
+        <v>-2.2395135160973201</v>
       </c>
       <c r="N38" s="5">
-        <v>-9.8718303269461405</v>
+        <v>-0.397983563496496</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R38" s="5">
-        <v>104.90000152587901</v>
+        <v>94.429901123046903</v>
       </c>
       <c r="S38" s="5">
-        <v>87.050003051757798</v>
+        <v>89.720001220703097</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4299,55 +4293,55 @@
         <v>119</v>
       </c>
       <c r="C39" s="5">
-        <v>68521992</v>
+        <v>69197200</v>
       </c>
       <c r="D39" s="5">
-        <v>14404910080</v>
+        <v>2337255168</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F39" s="5">
-        <v>1.97317862510681</v>
+        <v>1.93406093120575</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="5">
-        <v>-0.155797227573473</v>
+        <v>-0.229222863314826</v>
       </c>
       <c r="I39" s="5">
-        <v>0.40286549674648497</v>
+        <v>1.55156534311092</v>
       </c>
       <c r="J39" s="5">
-        <v>0.69268616636421998</v>
+        <v>3.9274168815612001</v>
       </c>
       <c r="K39" s="5">
-        <v>1.5388342795646099</v>
+        <v>4.3222656707160096</v>
       </c>
       <c r="L39" s="5">
-        <v>-1.99675349838967</v>
+        <v>-7.8589643069328998</v>
       </c>
       <c r="M39" s="5">
-        <v>-2.2395135160973201</v>
+        <v>-8.4837480264738794</v>
       </c>
       <c r="N39" s="5">
-        <v>-0.397983563496496</v>
+        <v>-9.8718303269461405</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R39" s="5">
-        <v>94.429901123046903</v>
+        <v>104.90000152587901</v>
       </c>
       <c r="S39" s="5">
-        <v>89.720001220703097</v>
+        <v>87.050003051757798</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4361,7 +4355,7 @@
         <v>68503344</v>
       </c>
       <c r="D40" s="5">
-        <v>8266882560</v>
+        <v>8363588096</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>94</v>
@@ -4420,7 +4414,7 @@
         <v>68474712</v>
       </c>
       <c r="D41" s="5">
-        <v>12615325696</v>
+        <v>12613354496</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>51</v>
@@ -4479,7 +4473,7 @@
         <v>67180288</v>
       </c>
       <c r="D42" s="5">
-        <v>13177494528</v>
+        <v>13176300544</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>94</v>
@@ -4538,7 +4532,7 @@
         <v>64298292</v>
       </c>
       <c r="D43" s="5">
-        <v>5758637568</v>
+        <v>5798813184</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>127</v>
@@ -4594,10 +4588,10 @@
         <v>129</v>
       </c>
       <c r="C44" s="5">
-        <v>62265688</v>
+        <v>63409296</v>
       </c>
       <c r="D44" s="5">
-        <v>6592962048</v>
+        <v>6617655808</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>130</v>
@@ -4653,99 +4647,97 @@
         <v>132</v>
       </c>
       <c r="C45" s="5">
-        <v>60066680</v>
+        <v>63006336</v>
       </c>
       <c r="D45" s="5">
-        <v>902474560</v>
+        <v>1462821120</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3.0316190719604501</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F45" s="5"/>
       <c r="G45" s="6" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H45" s="5">
-        <v>-0.22172852550168501</v>
+        <v>4.8496605237649997E-3</v>
       </c>
       <c r="I45" s="5">
-        <v>0.89686320564952304</v>
+        <v>7.4910648619974998E-2</v>
       </c>
       <c r="J45" s="5">
-        <v>3.6835272360653502</v>
+        <v>-0.92918467281081196</v>
       </c>
       <c r="K45" s="5">
-        <v>5.9006643915169299</v>
+        <v>-7.4675641829719999E-3</v>
       </c>
       <c r="L45" s="5">
-        <v>-2.7366254756255399</v>
+        <v>-2.4882428591135102</v>
       </c>
       <c r="M45" s="5">
-        <v>-3.5887817644828099</v>
+        <v>-3.7961771487826099</v>
       </c>
       <c r="N45" s="5">
-        <v>3.5755711730404398</v>
+        <v>6.7906765594250702</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="R45" s="5">
-        <v>33.7098999023438</v>
+        <v>94.991085203285095</v>
       </c>
       <c r="S45" s="5">
-        <v>31.5</v>
+        <v>90.867019653320298</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A46" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C46" s="5">
-        <v>59461636</v>
+        <v>60066680</v>
       </c>
       <c r="D46" s="5">
-        <v>3567869952</v>
+        <v>920556608</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F46" s="5">
-        <v>1.8004682064056401</v>
+        <v>3.0316190719604501</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="5">
-        <v>-0.21897848157965699</v>
+        <v>-0.22172852550168501</v>
       </c>
       <c r="I46" s="5">
-        <v>1.6104997555796099</v>
+        <v>0.89686320564952304</v>
       </c>
       <c r="J46" s="5">
-        <v>3.93131200831409</v>
+        <v>3.6835272360653502</v>
       </c>
       <c r="K46" s="5">
-        <v>4.3441947909068599</v>
+        <v>5.9006643915169299</v>
       </c>
       <c r="L46" s="5">
-        <v>-7.8461999900392998</v>
+        <v>-2.7366254756255399</v>
       </c>
       <c r="M46" s="5">
-        <v>-8.4792124727121703</v>
+        <v>-3.5887817644828099</v>
       </c>
       <c r="N46" s="5">
-        <v>-9.8376494388946796</v>
+        <v>3.5755711730404398</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>23</v>
@@ -4757,126 +4749,128 @@
         <v>25</v>
       </c>
       <c r="R46" s="5">
-        <v>49.189998626708999</v>
+        <v>33.7098999023438</v>
       </c>
       <c r="S46" s="5">
-        <v>41.009998321533203</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A47" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C47" s="5">
-        <v>58443176</v>
+        <v>59461636</v>
       </c>
       <c r="D47" s="5">
-        <v>5856100864</v>
+        <v>3585410816</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F47" s="5">
-        <v>2.3297429084777801</v>
+        <v>1.8004682064056401</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="5">
-        <v>-0.14900687138117399</v>
+        <v>-0.21897848157965699</v>
       </c>
       <c r="I47" s="5">
-        <v>0.44970095544059102</v>
+        <v>1.6104997555796099</v>
       </c>
       <c r="J47" s="5">
-        <v>1.5264180904853</v>
+        <v>3.93131200831409</v>
       </c>
       <c r="K47" s="5">
-        <v>2.98488601406688</v>
+        <v>4.3441947909068599</v>
       </c>
       <c r="L47" s="5">
-        <v>-1.2207588103209099</v>
+        <v>-7.8461999900392998</v>
       </c>
       <c r="M47" s="5">
-        <v>-1.6989581208309299</v>
+        <v>-8.4792124727121703</v>
       </c>
       <c r="N47" s="5">
-        <v>3.0497029106795002</v>
+        <v>-9.8376494388946796</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R47" s="5">
-        <v>62.290000915527301</v>
+        <v>49.189998626708999</v>
       </c>
       <c r="S47" s="5">
-        <v>60.310001373291001</v>
+        <v>41.009998321533203</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A48" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C48" s="5">
-        <v>57423044</v>
+        <v>58443176</v>
       </c>
       <c r="D48" s="5">
-        <v>1442270592</v>
+        <v>5861442048</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2.3297429084777801</v>
+      </c>
       <c r="G48" s="6" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="H48" s="5">
-        <v>5.7151618537699999E-3</v>
+        <v>-0.14900687138117399</v>
       </c>
       <c r="I48" s="5">
-        <v>-1.44585835013806</v>
+        <v>0.44970095544059102</v>
       </c>
       <c r="J48" s="5">
-        <v>-0.66803239380917001</v>
+        <v>1.5264180904853</v>
       </c>
       <c r="K48" s="5">
-        <v>-0.238989045339844</v>
+        <v>2.98488601406688</v>
       </c>
       <c r="L48" s="5">
-        <v>-2.2724472794053998</v>
+        <v>-1.2207588103209099</v>
       </c>
       <c r="M48" s="5">
-        <v>-3.8008424813489801</v>
+        <v>-1.6989581208309299</v>
       </c>
       <c r="N48" s="5">
-        <v>6.9191906115042796</v>
+        <v>3.0497029106795002</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="R48" s="5">
-        <v>94.991085203285095</v>
+        <v>62.290000915527301</v>
       </c>
       <c r="S48" s="5">
-        <v>90.862617492675795</v>
+        <v>60.310001373291001</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4890,7 +4884,7 @@
         <v>54461192</v>
       </c>
       <c r="D49" s="5">
-        <v>15068765184</v>
+        <v>15082580992</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>97</v>
@@ -4946,10 +4940,10 @@
         <v>144</v>
       </c>
       <c r="C50" s="5">
-        <v>47972100</v>
+        <v>50092052</v>
       </c>
       <c r="D50" s="5">
-        <v>3556065792</v>
+        <v>3567397888</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>48</v>
@@ -5008,7 +5002,7 @@
         <v>47866724</v>
       </c>
       <c r="D51" s="5">
-        <v>3323992832</v>
+        <v>3310866176</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>94</v>
@@ -5064,10 +5058,10 @@
         <v>148</v>
       </c>
       <c r="C52" s="5">
-        <v>45904592</v>
+        <v>45920488</v>
       </c>
       <c r="D52" s="5">
-        <v>4847904256</v>
+        <v>4866482688</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>32</v>
@@ -5109,7 +5103,7 @@
         <v>25</v>
       </c>
       <c r="R52" s="5">
-        <v>32.659999847412102</v>
+        <v>32.680000305175803</v>
       </c>
       <c r="S52" s="5">
         <v>32.580001831054702</v>
@@ -5126,7 +5120,7 @@
         <v>45834620</v>
       </c>
       <c r="D53" s="5">
-        <v>2512921088</v>
+        <v>2511719936</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>28</v>
@@ -5179,13 +5173,13 @@
         <v>151</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="5">
         <v>45720748</v>
       </c>
       <c r="D54" s="5">
-        <v>7610899456</v>
+        <v>7617107968</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>35</v>
@@ -5244,10 +5238,10 @@
         <v>45132776</v>
       </c>
       <c r="D55" s="5">
-        <v>2262736128</v>
+        <v>2265232896</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F55" s="5">
         <v>3.9727127552032502</v>
@@ -5286,7 +5280,7 @@
         <v>25</v>
       </c>
       <c r="R55" s="5">
-        <v>99.764999389648395</v>
+        <v>99.900001525878906</v>
       </c>
       <c r="S55" s="5">
         <v>99.680000305175795</v>
@@ -5303,10 +5297,10 @@
         <v>43879748</v>
       </c>
       <c r="D56" s="5">
-        <v>5262419968</v>
+        <v>5266427392</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F56" s="5">
         <v>4.7934203147888201</v>
@@ -5345,7 +5339,7 @@
         <v>25</v>
       </c>
       <c r="R56" s="5">
-        <v>45.990001678466797</v>
+        <v>46.009998321533203</v>
       </c>
       <c r="S56" s="5">
         <v>45.959999084472699</v>
@@ -5362,7 +5356,7 @@
         <v>40372492</v>
       </c>
       <c r="D57" s="5">
-        <v>9056488448</v>
+        <v>9053146112</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>51</v>
@@ -5421,7 +5415,7 @@
         <v>39987004</v>
       </c>
       <c r="D58" s="5">
-        <v>7689292800</v>
+        <v>7699905024</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>54</v>
@@ -5477,10 +5471,10 @@
         <v>161</v>
       </c>
       <c r="C59" s="5">
-        <v>39080788</v>
+        <v>38996296</v>
       </c>
       <c r="D59" s="5">
-        <v>6413484032</v>
+        <v>6438260224</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>59</v>
@@ -5539,7 +5533,7 @@
         <v>36472064</v>
       </c>
       <c r="D60" s="5">
-        <v>5907169792</v>
+        <v>5909123072</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>40</v>
@@ -5598,7 +5592,7 @@
         <v>36454592</v>
       </c>
       <c r="D61" s="5">
-        <v>7264348160</v>
+        <v>7248667648</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>97</v>
@@ -5610,25 +5604,25 @@
         <v>0</v>
       </c>
       <c r="H61" s="5">
-        <v>-9.8018503638020005E-2</v>
+        <v>-9.8019612762601002E-2</v>
       </c>
       <c r="I61" s="5">
-        <v>-3.9231969288466999E-2</v>
+        <v>-3.9233914713388003E-2</v>
       </c>
       <c r="J61" s="5">
-        <v>-9.8018503638020005E-2</v>
+        <v>-9.8019612762601002E-2</v>
       </c>
       <c r="K61" s="5">
-        <v>3.8536101422592998E-2</v>
+        <v>3.8536764238127998E-2</v>
       </c>
       <c r="L61" s="5">
-        <v>-0.17605935070482701</v>
+        <v>-0.17605644346072599</v>
       </c>
       <c r="M61" s="5">
-        <v>-0.117775396815312</v>
+        <v>-0.117774046551911</v>
       </c>
       <c r="N61" s="5">
-        <v>0.69708541440844896</v>
+        <v>0.69708788449702697</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>23</v>
@@ -5657,7 +5651,7 @@
         <v>34335056</v>
       </c>
       <c r="D62" s="5">
-        <v>3839523584</v>
+        <v>3840857856</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>86</v>
@@ -5716,7 +5710,7 @@
         <v>33348562</v>
       </c>
       <c r="D63" s="5">
-        <v>8933080064</v>
+        <v>8949421056</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>40</v>
@@ -5775,7 +5769,7 @@
         <v>32667620</v>
       </c>
       <c r="D64" s="5">
-        <v>5417197056</v>
+        <v>5436335616</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>94</v>
@@ -5834,7 +5828,7 @@
         <v>32429424</v>
       </c>
       <c r="D65" s="5">
-        <v>3888059904</v>
+        <v>3892902144</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>97</v>
@@ -5893,7 +5887,7 @@
         <v>32136644</v>
       </c>
       <c r="D66" s="5">
-        <v>3393804032</v>
+        <v>3405088512</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>51</v>
@@ -6011,7 +6005,7 @@
         <v>31116914</v>
       </c>
       <c r="D68" s="5">
-        <v>5035442176</v>
+        <v>5051533824</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>86</v>
@@ -6070,7 +6064,7 @@
         <v>30550404</v>
       </c>
       <c r="D69" s="5">
-        <v>6950257152</v>
+        <v>6967984640</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>28</v>
@@ -6082,25 +6076,25 @@
         <v>0</v>
       </c>
       <c r="H69" s="5">
-        <v>4.8591977254175002E-2</v>
+        <v>4.8584596952915997E-2</v>
       </c>
       <c r="I69" s="5">
-        <v>0.243423733358994</v>
+        <v>0.243424019799687</v>
       </c>
       <c r="J69" s="5">
-        <v>1.4285759922488399</v>
+        <v>1.42857587345833</v>
       </c>
       <c r="K69" s="5">
-        <v>3.0606711537543498</v>
+        <v>3.0606739179044098</v>
       </c>
       <c r="L69" s="5">
-        <v>4.14463238987799</v>
+        <v>4.1446310386849898</v>
       </c>
       <c r="M69" s="5">
-        <v>3.9303942698293501</v>
+        <v>3.9303909262077701</v>
       </c>
       <c r="N69" s="5">
-        <v>15.644113056684599</v>
+        <v>15.644102728604899</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>23</v>
@@ -6129,7 +6123,7 @@
         <v>30513912</v>
       </c>
       <c r="D70" s="5">
-        <v>7244248064</v>
+        <v>7244088320</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>54</v>
@@ -6185,10 +6179,10 @@
         <v>185</v>
       </c>
       <c r="C71" s="5">
-        <v>30015098</v>
+        <v>29799816</v>
       </c>
       <c r="D71" s="5">
-        <v>1097820672</v>
+        <v>1124995456</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>22</v>
@@ -6247,7 +6241,7 @@
         <v>29524604</v>
       </c>
       <c r="D72" s="5">
-        <v>3801575936</v>
+        <v>3799749632</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>86</v>
@@ -6306,7 +6300,7 @@
         <v>29165932</v>
       </c>
       <c r="D73" s="5">
-        <v>1723814912</v>
+        <v>1715034240</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>94</v>
@@ -6365,7 +6359,7 @@
         <v>27837144</v>
       </c>
       <c r="D74" s="5">
-        <v>3913151744</v>
+        <v>3955938048</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>94</v>
@@ -6422,7 +6416,7 @@
         <v>27487720</v>
       </c>
       <c r="D75" s="5">
-        <v>4825392128</v>
+        <v>4825526784</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>40</v>
@@ -6478,10 +6472,10 @@
         <v>195</v>
       </c>
       <c r="C76" s="5">
-        <v>26802804</v>
+        <v>26799184</v>
       </c>
       <c r="D76" s="5">
-        <v>5189222912</v>
+        <v>5185717248</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>80</v>
@@ -6493,25 +6487,25 @@
         <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>-7.4593624816899004E-2</v>
+        <v>-7.4591780403165997E-2</v>
       </c>
       <c r="I76" s="5">
-        <v>0.39348492293946902</v>
+        <v>0.39348955467344299</v>
       </c>
       <c r="J76" s="5">
-        <v>0.77111844316151101</v>
+        <v>0.77112100135405803</v>
       </c>
       <c r="K76" s="5">
-        <v>1.5039861432227799</v>
+        <v>1.50399379542783</v>
       </c>
       <c r="L76" s="5">
-        <v>-1.16993822169474</v>
+        <v>-1.16993951761031</v>
       </c>
       <c r="M76" s="5">
-        <v>-1.36749545115019</v>
+        <v>-1.36748894475195</v>
       </c>
       <c r="N76" s="5">
-        <v>1.0535394663967901</v>
+        <v>1.0535392710778799</v>
       </c>
       <c r="O76" s="6" t="s">
         <v>23</v>
@@ -6540,7 +6534,7 @@
         <v>26036298</v>
       </c>
       <c r="D77" s="5">
-        <v>5490784256</v>
+        <v>5494000128</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>59</v>
@@ -6599,7 +6593,7 @@
         <v>22467932</v>
       </c>
       <c r="D78" s="5">
-        <v>2564743936</v>
+        <v>2563091968</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>45</v>
@@ -6658,7 +6652,7 @@
         <v>22413372</v>
       </c>
       <c r="D79" s="5">
-        <v>3424436992</v>
+        <v>3422627840</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>35</v>
@@ -6717,7 +6711,7 @@
         <v>22249524</v>
       </c>
       <c r="D80" s="5">
-        <v>2815609856</v>
+        <v>2810302464</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>48</v>
@@ -6776,7 +6770,7 @@
         <v>20844304</v>
       </c>
       <c r="D81" s="5">
-        <v>2987823872</v>
+        <v>2987380224</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>59</v>
@@ -6835,7 +6829,7 @@
         <v>19885936</v>
       </c>
       <c r="D82" s="5">
-        <v>2302074112</v>
+        <v>2304718336</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>54</v>
@@ -6847,25 +6841,25 @@
         <v>0</v>
       </c>
       <c r="H82" s="5">
-        <v>-0.14543879757067399</v>
+        <v>-0.145442399420426</v>
       </c>
       <c r="I82" s="5">
-        <v>-0.24906378398647</v>
+        <v>-0.24906881091678601</v>
       </c>
       <c r="J82" s="5">
-        <v>0.187617574103882</v>
+        <v>0.18761539036387101</v>
       </c>
       <c r="K82" s="5">
-        <v>0.95864159758800604</v>
+        <v>0.958637384720196</v>
       </c>
       <c r="L82" s="5">
-        <v>2.88041523748177</v>
+        <v>2.88041115667215</v>
       </c>
       <c r="M82" s="5">
-        <v>2.2438203580315701</v>
+        <v>2.2438154491277298</v>
       </c>
       <c r="N82" s="5">
-        <v>7.5037613309240703</v>
+        <v>7.5037581991042002</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>23</v>
@@ -6894,7 +6888,7 @@
         <v>19538864</v>
       </c>
       <c r="D83" s="5">
-        <v>2945273856</v>
+        <v>2946093824</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>35</v>
@@ -6950,55 +6944,55 @@
         <v>211</v>
       </c>
       <c r="C84" s="5">
-        <v>19315532</v>
+        <v>18545396</v>
       </c>
       <c r="D84" s="5">
-        <v>2629573888</v>
+        <v>4820095488</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F84" s="5">
-        <v>3.2269039154052699</v>
+        <v>0.75236827135086104</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H84" s="5">
-        <v>3.3591631602503003E-2</v>
+        <v>2.0190471407067E-2</v>
       </c>
       <c r="I84" s="5">
-        <v>0.40458813166133201</v>
+        <v>-0.20149564107627699</v>
       </c>
       <c r="J84" s="5">
-        <v>1.56786100904609</v>
+        <v>4.2516554719762997E-2</v>
       </c>
       <c r="K84" s="5">
-        <v>3.6366045250493002</v>
+        <v>0.30211162958277998</v>
       </c>
       <c r="L84" s="5">
-        <v>3.4835370322244401</v>
+        <v>-5.9199412424081999E-2</v>
       </c>
       <c r="M84" s="5">
-        <v>2.7900655057770098</v>
+        <v>-0.15956486029751199</v>
       </c>
       <c r="N84" s="5">
-        <v>17.215615648801599</v>
+        <v>0.42874064416444901</v>
       </c>
       <c r="O84" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q84" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R84" s="5">
-        <v>29.799999237060501</v>
+        <v>50.080001831054702</v>
       </c>
       <c r="S84" s="5">
-        <v>29.780000686645501</v>
+        <v>49.529998779296903</v>
       </c>
     </row>
     <row r="85" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7009,114 +7003,114 @@
         <v>213</v>
       </c>
       <c r="C85" s="5">
-        <v>18545396</v>
+        <v>18042306</v>
       </c>
       <c r="D85" s="5">
-        <v>4806940160</v>
+        <v>3641852672</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="F85" s="5">
-        <v>0.75236827135086104</v>
+        <v>2.5539906024932901</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H85" s="5">
-        <v>2.0190471407067E-2</v>
+        <v>0.33921333650834801</v>
       </c>
       <c r="I85" s="5">
-        <v>-0.20149564107627699</v>
+        <v>-0.67178262747650297</v>
       </c>
       <c r="J85" s="5">
-        <v>4.2516554719762997E-2</v>
+        <v>-1.7328091545209999E-2</v>
       </c>
       <c r="K85" s="5">
-        <v>0.30211162958277998</v>
+        <v>3.7481691349038999</v>
       </c>
       <c r="L85" s="5">
-        <v>-5.9199412424081999E-2</v>
+        <v>1.27752737302069</v>
       </c>
       <c r="M85" s="5">
-        <v>-0.15956486029751199</v>
+        <v>-8.5005060806898E-2</v>
       </c>
       <c r="N85" s="5">
-        <v>0.42874064416444901</v>
+        <v>7.3662963900246403</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R85" s="5">
-        <v>50.080001831054702</v>
+        <v>26.392174699852202</v>
       </c>
       <c r="S85" s="5">
-        <v>49.529998779296903</v>
+        <v>25.9734992980957</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A86" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C86" s="5">
-        <v>18042306</v>
+        <v>17837548</v>
       </c>
       <c r="D86" s="5">
-        <v>3649276416</v>
+        <v>2881474304</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F86" s="5">
-        <v>2.5539906024932901</v>
+        <v>1.0191513299942001</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H86" s="5">
-        <v>0.33921143089032901</v>
+        <v>0</v>
       </c>
       <c r="I86" s="5">
-        <v>-0.67178488000870795</v>
+        <v>-5.9742320320322E-2</v>
       </c>
       <c r="J86" s="5">
-        <v>-1.7331456904479001E-2</v>
+        <v>2.5118402019574999E-2</v>
       </c>
       <c r="K86" s="5">
-        <v>3.74816621429206</v>
+        <v>0.29038231219173899</v>
       </c>
       <c r="L86" s="5">
-        <v>1.2775257754062701</v>
+        <v>-0.11591770473075</v>
       </c>
       <c r="M86" s="5">
-        <v>-8.5005342452227003E-2</v>
+        <v>-0.151059671643861</v>
       </c>
       <c r="N86" s="5">
-        <v>7.3662892513602296</v>
+        <v>0.85917683869163297</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R86" s="5">
-        <v>26.392174699852202</v>
+        <v>50.5200004577637</v>
       </c>
       <c r="S86" s="5">
-        <v>25.9734992980957</v>
+        <v>50.189998626708999</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7127,55 +7121,55 @@
         <v>220</v>
       </c>
       <c r="C87" s="5">
-        <v>17837548</v>
+        <v>16899520</v>
       </c>
       <c r="D87" s="5">
-        <v>2880905984</v>
+        <v>2631339776</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F87" s="5">
-        <v>1.0191513299942001</v>
+        <v>3.2269039154052699</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H87" s="5">
-        <v>0</v>
+        <v>3.3591631602503003E-2</v>
       </c>
       <c r="I87" s="5">
-        <v>-5.9742320320322E-2</v>
+        <v>0.40458813166133201</v>
       </c>
       <c r="J87" s="5">
-        <v>2.5118402019574999E-2</v>
+        <v>1.56786100904609</v>
       </c>
       <c r="K87" s="5">
-        <v>0.29038231219173899</v>
+        <v>3.6366045250493002</v>
       </c>
       <c r="L87" s="5">
-        <v>-0.11591770473075</v>
+        <v>3.4835370322244401</v>
       </c>
       <c r="M87" s="5">
-        <v>-0.151059671643861</v>
+        <v>2.7900655057770098</v>
       </c>
       <c r="N87" s="5">
-        <v>0.85917683869163297</v>
+        <v>17.215615648801599</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R87" s="5">
-        <v>50.5200004577637</v>
+        <v>29.819999694824201</v>
       </c>
       <c r="S87" s="5">
-        <v>50.189998626708999</v>
+        <v>29.780000686645501</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7189,7 +7183,7 @@
         <v>16254863</v>
       </c>
       <c r="D88" s="5">
-        <v>2981035776</v>
+        <v>2981783040</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>48</v>
@@ -7248,7 +7242,7 @@
         <v>15892600</v>
       </c>
       <c r="D89" s="5">
-        <v>1928439936</v>
+        <v>1927699968</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>80</v>
@@ -7290,7 +7284,7 @@
         <v>25</v>
       </c>
       <c r="R89" s="5">
-        <v>26.100000381469702</v>
+        <v>26.120000839233398</v>
       </c>
       <c r="S89" s="5">
         <v>26.059999465942401</v>
@@ -7307,7 +7301,7 @@
         <v>15848138</v>
       </c>
       <c r="D90" s="5">
-        <v>1402886016</v>
+        <v>1406952192</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>51</v>
@@ -7316,7 +7310,7 @@
         <v>0.59256297349929798</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H90" s="5">
         <v>0.27639984677947399</v>
@@ -7343,10 +7337,10 @@
         <v>23</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R90" s="5">
         <v>41.5227485233587</v>
@@ -7423,7 +7417,7 @@
         <v>15530924</v>
       </c>
       <c r="D92" s="5">
-        <v>1825037440</v>
+        <v>1830199936</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>80</v>
@@ -7482,7 +7476,7 @@
         <v>14884830</v>
       </c>
       <c r="D93" s="5">
-        <v>2575454208</v>
+        <v>2550903552</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>59</v>
@@ -7538,55 +7532,55 @@
         <v>234</v>
       </c>
       <c r="C94" s="5">
-        <v>14227842</v>
+        <v>14248556</v>
       </c>
       <c r="D94" s="5">
-        <v>2364876800</v>
+        <v>4273506304</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F94" s="5">
-        <v>5.5050401687622097</v>
+        <v>2.6011559963226301</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>-0.14379559241041201</v>
+        <v>-0.117273121522254</v>
       </c>
       <c r="I94" s="5">
-        <v>-0.102752234314296</v>
+        <v>0.344394503738088</v>
       </c>
       <c r="J94" s="5">
-        <v>0.43388239225647901</v>
+        <v>0.75494567208520502</v>
       </c>
       <c r="K94" s="5">
-        <v>1.17327885688381</v>
+        <v>1.63846708855493</v>
       </c>
       <c r="L94" s="5">
-        <v>2.3109777383968599</v>
+        <v>-0.68776037544636703</v>
       </c>
       <c r="M94" s="5">
-        <v>2.0429049109732502</v>
+        <v>-1.0736213674497099</v>
       </c>
       <c r="N94" s="5">
-        <v>9.7981522492697195</v>
+        <v>2.19168300935495</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R94" s="5">
-        <v>49.290000915527301</v>
+        <v>113.220001220703</v>
       </c>
       <c r="S94" s="5">
-        <v>48.610000610351598</v>
+        <v>110.720001220703</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7597,55 +7591,55 @@
         <v>236</v>
       </c>
       <c r="C95" s="5">
-        <v>14048719</v>
+        <v>14227842</v>
       </c>
       <c r="D95" s="5">
-        <v>990739584</v>
+        <v>2360352000</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F95" s="5">
-        <v>6.1113133430481001</v>
+        <v>5.5050401687622097</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>3.639093540182E-2</v>
+        <v>-0.14379300231004399</v>
       </c>
       <c r="I95" s="5">
-        <v>0.43843232811580102</v>
+        <v>-0.102752625338243</v>
       </c>
       <c r="J95" s="5">
-        <v>-3.7466849779365999E-2</v>
+        <v>0.433882483417869</v>
       </c>
       <c r="K95" s="5">
-        <v>1.62936400649094</v>
+        <v>1.17327689187898</v>
       </c>
       <c r="L95" s="5">
-        <v>2.8015824366197202</v>
+        <v>2.3109838594227199</v>
       </c>
       <c r="M95" s="5">
-        <v>2.6985535019580702</v>
+        <v>2.0429076323208699</v>
       </c>
       <c r="N95" s="5">
-        <v>5.8668347097627898</v>
+        <v>9.7981527849137393</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q95" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R95" s="5">
-        <v>55.490001678466797</v>
+        <v>49.290000915527301</v>
       </c>
       <c r="S95" s="5">
-        <v>54.9799995422363</v>
+        <v>48.610000610351598</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7656,40 +7650,40 @@
         <v>238</v>
       </c>
       <c r="C96" s="5">
-        <v>13886810</v>
+        <v>14048719</v>
       </c>
       <c r="D96" s="5">
-        <v>3180113920</v>
+        <v>990199040</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="F96" s="5">
-        <v>2.5764865875244101</v>
+        <v>6.1113133430481001</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>-0.185866049760297</v>
+        <v>3.639093540182E-2</v>
       </c>
       <c r="I96" s="5">
-        <v>0.22812237156131199</v>
+        <v>0.43843232811580102</v>
       </c>
       <c r="J96" s="5">
-        <v>0.21488256761808</v>
+        <v>-3.7466849779365999E-2</v>
       </c>
       <c r="K96" s="5">
-        <v>0.56933422037377401</v>
+        <v>1.62936400649094</v>
       </c>
       <c r="L96" s="5">
-        <v>-0.79679403156168704</v>
+        <v>2.8015824366197202</v>
       </c>
       <c r="M96" s="5">
-        <v>-0.87731116263327602</v>
+        <v>2.6985535019580702</v>
       </c>
       <c r="N96" s="5">
-        <v>0.52843720239801295</v>
+        <v>5.8668347097627898</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>23</v>
@@ -7701,10 +7695,10 @@
         <v>25</v>
       </c>
       <c r="R96" s="5">
-        <v>49.919998168945298</v>
+        <v>55.490001678466797</v>
       </c>
       <c r="S96" s="5">
-        <v>48.330001831054702</v>
+        <v>54.9799995422363</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7715,40 +7709,40 @@
         <v>240</v>
       </c>
       <c r="C97" s="5">
-        <v>13831572</v>
+        <v>13886810</v>
       </c>
       <c r="D97" s="5">
-        <v>727278080</v>
+        <v>3181430016</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F97" s="5">
-        <v>0.62378251552581798</v>
+        <v>2.5764865875244101</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>-2.8236950713755999E-2</v>
+        <v>-0.185866049760297</v>
       </c>
       <c r="I97" s="5">
-        <v>0.19198563866493801</v>
+        <v>0.22812237156131199</v>
       </c>
       <c r="J97" s="5">
-        <v>0.11685800776732901</v>
+        <v>0.21488256761808</v>
       </c>
       <c r="K97" s="5">
-        <v>0.36340964428653899</v>
+        <v>0.56933422037377401</v>
       </c>
       <c r="L97" s="5">
-        <v>-0.84284796929762196</v>
+        <v>-0.79679403156168704</v>
       </c>
       <c r="M97" s="5">
-        <v>-0.79308547641420102</v>
+        <v>-0.87731116263327602</v>
       </c>
       <c r="N97" s="5">
-        <v>-0.447718210041748</v>
+        <v>0.52843720239801295</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>23</v>
@@ -7760,10 +7754,10 @@
         <v>25</v>
       </c>
       <c r="R97" s="5">
-        <v>122</v>
+        <v>49.919998168945298</v>
       </c>
       <c r="S97" s="5">
-        <v>118.25659942627</v>
+        <v>48.330001831054702</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7774,40 +7768,40 @@
         <v>242</v>
       </c>
       <c r="C98" s="5">
-        <v>13770076</v>
+        <v>13703917</v>
       </c>
       <c r="D98" s="5">
-        <v>4271577600</v>
+        <v>726684608</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F98" s="5">
-        <v>2.6011559963226301</v>
+        <v>0.62378251552581798</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H98" s="5">
-        <v>-0.117273121522254</v>
+        <v>-2.8236950713755999E-2</v>
       </c>
       <c r="I98" s="5">
-        <v>0.344394503738088</v>
+        <v>0.19198563866493801</v>
       </c>
       <c r="J98" s="5">
-        <v>0.75494567208520502</v>
+        <v>0.11685800776732901</v>
       </c>
       <c r="K98" s="5">
-        <v>1.63846708855493</v>
+        <v>0.36340964428653899</v>
       </c>
       <c r="L98" s="5">
-        <v>-0.68776037544636703</v>
+        <v>-0.84284796929762196</v>
       </c>
       <c r="M98" s="5">
-        <v>-1.0736213674497099</v>
+        <v>-0.79308547641420102</v>
       </c>
       <c r="N98" s="5">
-        <v>2.19168300935495</v>
+        <v>-0.447718210041748</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>23</v>
@@ -7819,10 +7813,10 @@
         <v>25</v>
       </c>
       <c r="R98" s="5">
-        <v>113.220001220703</v>
+        <v>122</v>
       </c>
       <c r="S98" s="5">
-        <v>110.720001220703</v>
+        <v>118.25659942627</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7836,7 +7830,7 @@
         <v>13618778</v>
       </c>
       <c r="D99" s="5">
-        <v>1030193984</v>
+        <v>1030384064</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>80</v>
@@ -7895,7 +7889,7 @@
         <v>13369446</v>
       </c>
       <c r="D100" s="5">
-        <v>1558262144</v>
+        <v>1558362368</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>94</v>
@@ -7951,10 +7945,10 @@
         <v>248</v>
       </c>
       <c r="C101" s="5">
-        <v>12992360</v>
+        <v>13160174</v>
       </c>
       <c r="D101" s="5">
-        <v>2452800000</v>
+        <v>2467791872</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>28</v>
@@ -8013,7 +8007,7 @@
         <v>12486489</v>
       </c>
       <c r="D102" s="5">
-        <v>1185979520</v>
+        <v>1189020032</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>28</v>
@@ -8072,7 +8066,7 @@
         <v>12286143</v>
       </c>
       <c r="D103" s="5">
-        <v>1752206976</v>
+        <v>1752033536</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>86</v>
@@ -8140,7 +8134,7 @@
         <v>3.0188679695129399</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H104" s="5">
         <v>0.27639984677947399</v>
@@ -8167,10 +8161,10 @@
         <v>23</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R104" s="5">
         <v>13.1645374144641</v>
@@ -8190,7 +8184,7 @@
         <v>10737785</v>
       </c>
       <c r="D105" s="5">
-        <v>383545472</v>
+        <v>384480000</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>22</v>
@@ -8249,7 +8243,7 @@
         <v>10484224</v>
       </c>
       <c r="D106" s="5">
-        <v>2434361344</v>
+        <v>2429987840</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>35</v>
@@ -8258,37 +8252,37 @@
         <v>2.02658987045288</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H106" s="5">
-        <v>0.31244538814949602</v>
+        <v>0.312444387001309</v>
       </c>
       <c r="I106" s="5">
         <v>-1.1381192610741799</v>
       </c>
       <c r="J106" s="5">
-        <v>-1.7777711170732</v>
+        <v>-1.7777758968856801</v>
       </c>
       <c r="K106" s="5">
-        <v>2.2591292538798098</v>
+        <v>2.2591293689297101</v>
       </c>
       <c r="L106" s="5">
-        <v>4.00229390619808</v>
+        <v>4.0022945608161997</v>
       </c>
       <c r="M106" s="5">
-        <v>3.1995609356669799</v>
+        <v>3.1995572542445401</v>
       </c>
       <c r="N106" s="5">
-        <v>10.668101687511699</v>
+        <v>10.6680991302176</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R106" s="5">
         <v>23.148454965764401</v>
@@ -8308,7 +8302,7 @@
         <v>10426025</v>
       </c>
       <c r="D107" s="5">
-        <v>1760032896</v>
+        <v>1763381248</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>94</v>
@@ -8364,40 +8358,40 @@
         <v>262</v>
       </c>
       <c r="C108" s="5">
-        <v>10304833</v>
+        <v>10319882</v>
       </c>
       <c r="D108" s="5">
-        <v>794461760</v>
+        <v>791086656</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F108" s="5">
-        <v>2.55099654197693</v>
+        <v>2.5636193752288801</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>263</v>
       </c>
       <c r="H108" s="5">
-        <v>0.33925619461891998</v>
+        <v>-0.424833045502993</v>
       </c>
       <c r="I108" s="5">
-        <v>1.6189677340550299</v>
+        <v>1.62528007420604</v>
       </c>
       <c r="J108" s="5">
-        <v>4.5703951714133098</v>
+        <v>3.9276876169899801</v>
       </c>
       <c r="K108" s="5">
-        <v>5.4658224019651103</v>
+        <v>3.3987177028908202</v>
       </c>
       <c r="L108" s="5">
-        <v>-8.5529152354711702</v>
+        <v>-8.2557868653883908</v>
       </c>
       <c r="M108" s="5">
-        <v>-8.2423081866226404</v>
+        <v>-8.6321251832366492</v>
       </c>
       <c r="N108" s="5">
-        <v>-10.0515404639692</v>
+        <v>-9.8410192911028709</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>23</v>
@@ -8412,7 +8406,7 @@
         <v>1.82590958051477</v>
       </c>
       <c r="S108" s="5">
-        <v>1.52288806438446</v>
+        <v>1.51641833782196</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8426,7 +8420,7 @@
         <v>10016934</v>
       </c>
       <c r="D109" s="5">
-        <v>790886080</v>
+        <v>807341696</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>94</v>
@@ -8460,10 +8454,10 @@
         <v>94</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R109" s="5">
         <v>83.900699976550797</v>
@@ -8483,7 +8477,7 @@
         <v>9961001</v>
       </c>
       <c r="D110" s="5">
-        <v>755692032</v>
+        <v>756955136</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>80</v>
@@ -8539,114 +8533,114 @@
         <v>270</v>
       </c>
       <c r="C111" s="5">
-        <v>9535899</v>
+        <v>9752720</v>
       </c>
       <c r="D111" s="5">
-        <v>2399040000</v>
+        <v>1628685568</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F111" s="5">
-        <v>2.3554410934448202</v>
+        <v>0.37392172217369102</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="H111" s="5">
-        <v>-0.11016812266317901</v>
+        <v>2.9953848067721001E-2</v>
       </c>
       <c r="I111" s="5">
-        <v>-0.46262579645553997</v>
+        <v>0.47755491882892598</v>
       </c>
       <c r="J111" s="5">
-        <v>0.69098766053621297</v>
+        <v>-2.1064646367342901</v>
       </c>
       <c r="K111" s="5">
-        <v>2.4387307500430202</v>
+        <v>-0.34097366686729502</v>
       </c>
       <c r="L111" s="5">
-        <v>1.6499056323091601</v>
+        <v>-0.108915596226278</v>
       </c>
       <c r="M111" s="5">
-        <v>1.5374117042937601</v>
+        <v>-1.3131918600716299</v>
       </c>
       <c r="N111" s="5">
-        <v>4.9814965455555997</v>
+        <v>10.503330813294101</v>
       </c>
       <c r="O111" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="R111" s="5">
-        <v>27.450000762939499</v>
+        <v>39.776468449964</v>
       </c>
       <c r="S111" s="5">
-        <v>27.200000762939499</v>
+        <v>37.953193664550803</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A112" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C112" s="5">
-        <v>9242282</v>
+        <v>9535899</v>
       </c>
       <c r="D112" s="5">
-        <v>1622043776</v>
+        <v>2398598912</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F112" s="5">
-        <v>0.37392172217369102</v>
+        <v>2.3554410934448202</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="H112" s="5">
-        <v>0.48742626332069999</v>
+        <v>-0.11016812266317901</v>
       </c>
       <c r="I112" s="5">
-        <v>-1.6740195303051999</v>
+        <v>-0.46262579645553997</v>
       </c>
       <c r="J112" s="5">
-        <v>-1.83444302943562</v>
+        <v>0.69098766053621297</v>
       </c>
       <c r="K112" s="5">
-        <v>-0.90456293005406496</v>
+        <v>2.4387307500430202</v>
       </c>
       <c r="L112" s="5">
-        <v>0.23035094107481899</v>
+        <v>1.6499056323091601</v>
       </c>
       <c r="M112" s="5">
-        <v>-1.3427435047899801</v>
+        <v>1.5374117042937601</v>
       </c>
       <c r="N112" s="5">
-        <v>9.6586691805324598</v>
+        <v>4.9814965455555997</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P112" s="6" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="R112" s="5">
-        <v>39.776468449964</v>
+        <v>27.450000762939499</v>
       </c>
       <c r="S112" s="5">
-        <v>37.941829681396499</v>
+        <v>27.200000762939499</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8660,7 +8654,7 @@
         <v>9224098</v>
       </c>
       <c r="D113" s="5">
-        <v>1763733888</v>
+        <v>1762960512</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>54</v>
@@ -8669,7 +8663,7 @@
         <v>4.7368426322937003</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H113" s="5">
         <v>0.45262816388260702</v>
@@ -8696,10 +8690,10 @@
         <v>23</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R113" s="5">
         <v>9.5845058133637302</v>
@@ -8716,55 +8710,55 @@
         <v>279</v>
       </c>
       <c r="C114" s="5">
-        <v>8996963</v>
+        <v>8987868</v>
       </c>
       <c r="D114" s="5">
-        <v>1894382464</v>
+        <v>1233301376</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F114" s="5">
-        <v>1.93948519229889</v>
+        <v>3.0698950290679901</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H114" s="5">
-        <v>-0.13138081161408999</v>
+        <v>0.18486445143244301</v>
       </c>
       <c r="I114" s="5">
-        <v>0.33943109432250701</v>
+        <v>-0.70719977863558103</v>
       </c>
       <c r="J114" s="5">
-        <v>0.94031714319582305</v>
+        <v>-0.52567022872007696</v>
       </c>
       <c r="K114" s="5">
-        <v>1.7178820233809899</v>
+        <v>3.58316194943942</v>
       </c>
       <c r="L114" s="5">
-        <v>-0.88135108570401899</v>
+        <v>1.98589230846662</v>
       </c>
       <c r="M114" s="5">
-        <v>-1.125910152883</v>
+        <v>1.03893586965102</v>
       </c>
       <c r="N114" s="5">
-        <v>2.1655578275806802</v>
+        <v>10.4286831104542</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R114" s="5">
-        <v>55.409999847412102</v>
+        <v>18.099659998098002</v>
       </c>
       <c r="S114" s="5">
-        <v>53.209999084472699</v>
+        <v>17.795301437377901</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8775,55 +8769,55 @@
         <v>281</v>
       </c>
       <c r="C115" s="5">
-        <v>8987868</v>
+        <v>8931060</v>
       </c>
       <c r="D115" s="5">
-        <v>1234993920</v>
+        <v>2242352640</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F115" s="5">
-        <v>3.0698950290679901</v>
+        <v>1.93852615356445</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H115" s="5">
-        <v>0.18486292693482601</v>
+        <v>-0.13952105456540601</v>
       </c>
       <c r="I115" s="5">
-        <v>-0.707203420089764</v>
+        <v>-0.31337252563089502</v>
       </c>
       <c r="J115" s="5">
-        <v>-0.52566781701335297</v>
+        <v>0.47375698210438999</v>
       </c>
       <c r="K115" s="5">
-        <v>3.5831635185400499</v>
+        <v>1.9493356677323701</v>
       </c>
       <c r="L115" s="5">
-        <v>1.98588994265618</v>
+        <v>1.8989669975286301</v>
       </c>
       <c r="M115" s="5">
-        <v>1.03893825373948</v>
+        <v>1.7957373551734901</v>
       </c>
       <c r="N115" s="5">
-        <v>10.428681876489099</v>
+        <v>6.2647122412015799</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R115" s="5">
-        <v>18.099659998098002</v>
+        <v>57.720001220703097</v>
       </c>
       <c r="S115" s="5">
-        <v>17.795301437377901</v>
+        <v>57.259998321533203</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8834,55 +8828,55 @@
         <v>283</v>
       </c>
       <c r="C116" s="5">
-        <v>8931060</v>
+        <v>8847534</v>
       </c>
       <c r="D116" s="5">
-        <v>2247454976</v>
+        <v>1896518528</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F116" s="5">
-        <v>1.93852615356445</v>
+        <v>1.93948519229889</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H116" s="5">
-        <v>-0.139521853578295</v>
+        <v>-0.13138081161408999</v>
       </c>
       <c r="I116" s="5">
-        <v>-0.31337101232464798</v>
+        <v>0.33943109432250701</v>
       </c>
       <c r="J116" s="5">
-        <v>0.473761423257546</v>
+        <v>0.94031714319582305</v>
       </c>
       <c r="K116" s="5">
-        <v>1.9493380483812199</v>
+        <v>1.7178820233809899</v>
       </c>
       <c r="L116" s="5">
-        <v>1.8989676955542001</v>
+        <v>-0.88135108570401899</v>
       </c>
       <c r="M116" s="5">
-        <v>1.7957389651795701</v>
+        <v>-1.125910152883</v>
       </c>
       <c r="N116" s="5">
-        <v>6.2647079416318796</v>
+        <v>2.1655578275806802</v>
       </c>
       <c r="O116" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q116" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R116" s="5">
-        <v>57.720001220703097</v>
+        <v>55.409999847412102</v>
       </c>
       <c r="S116" s="5">
-        <v>57.259998321533203</v>
+        <v>53.209999084472699</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8893,7 +8887,7 @@
         <v>285</v>
       </c>
       <c r="C117" s="5">
-        <v>8644003</v>
+        <v>8695693</v>
       </c>
       <c r="D117" s="5">
         <v>1778729984</v>
@@ -8955,7 +8949,7 @@
         <v>8516728</v>
       </c>
       <c r="D118" s="5">
-        <v>394844992</v>
+        <v>395724960</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>22</v>
@@ -9011,10 +9005,10 @@
         <v>289</v>
       </c>
       <c r="C119" s="5">
-        <v>8242384</v>
+        <v>8015311.5</v>
       </c>
       <c r="D119" s="5">
-        <v>998017152</v>
+        <v>999712128</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>45</v>
@@ -9070,10 +9064,10 @@
         <v>285</v>
       </c>
       <c r="C120" s="5">
-        <v>7980993.5</v>
+        <v>7944369</v>
       </c>
       <c r="D120" s="5">
-        <v>653484032</v>
+        <v>653625984</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>80</v>
@@ -9129,7 +9123,7 @@
         <v>292</v>
       </c>
       <c r="C121" s="5">
-        <v>7799451.5</v>
+        <v>7749580</v>
       </c>
       <c r="D121" s="5">
         <v>2327909888</v>
@@ -9191,7 +9185,7 @@
         <v>7679001</v>
       </c>
       <c r="D122" s="5">
-        <v>2731851008</v>
+        <v>2732375296</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>295</v>
@@ -9200,7 +9194,7 @@
         <v>2.7338349819183301</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H122" s="5">
         <v>0.23791991698418599</v>
@@ -9227,10 +9221,10 @@
         <v>23</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R122" s="5">
         <v>21.549140002227698</v>
@@ -9250,7 +9244,7 @@
         <v>7527074</v>
       </c>
       <c r="D123" s="5">
-        <v>1114884096</v>
+        <v>1114493312</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>45</v>
@@ -9307,7 +9301,7 @@
         <v>7396987</v>
       </c>
       <c r="D124" s="5">
-        <v>564490304</v>
+        <v>564603392</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>28</v>
@@ -9316,7 +9310,7 @@
         <v>2.1651964187622101</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H124" s="5">
         <v>0.27639984677947399</v>
@@ -9343,10 +9337,10 @@
         <v>23</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R124" s="5">
         <v>41.486890142714898</v>
@@ -9360,176 +9354,176 @@
         <v>300</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C125" s="5">
-        <v>7206380</v>
+        <v>7199240.5</v>
       </c>
       <c r="D125" s="5">
-        <v>2380297728</v>
+        <v>1099129088</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F125" s="5">
-        <v>1.5245946645736701</v>
+        <v>1.30864918231964</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>-4.6297355116787002E-2</v>
+        <v>-7.3558136707719005E-2</v>
       </c>
       <c r="I125" s="5">
-        <v>-5.8167223881833E-2</v>
+        <v>0.33234916115749702</v>
       </c>
       <c r="J125" s="5">
-        <v>-3.7205511926385999E-2</v>
+        <v>0.77736691497658506</v>
       </c>
       <c r="K125" s="5">
-        <v>0.169022390422602</v>
+        <v>1.46211840782973</v>
       </c>
       <c r="L125" s="5">
-        <v>0.188571980372232</v>
+        <v>-1.57437824061353</v>
       </c>
       <c r="M125" s="5">
-        <v>9.6440969213173994E-2</v>
+        <v>-1.93359734678529</v>
       </c>
       <c r="N125" s="5">
-        <v>1.15950173169204</v>
+        <v>-0.80955816473689002</v>
       </c>
       <c r="O125" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q125" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R125" s="5">
-        <v>21.909999847412099</v>
+        <v>56.691001892089801</v>
       </c>
       <c r="S125" s="5">
-        <v>21.590000152587901</v>
+        <v>54.340000152587898</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A126" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C126" s="5">
-        <v>7199240.5</v>
+        <v>7072060.5</v>
       </c>
       <c r="D126" s="5">
-        <v>1098928896</v>
+        <v>7791190528</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F126" s="5">
-        <v>1.30864918231964</v>
+        <v>3.3651192188262899</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>-7.3558136707719005E-2</v>
+        <v>4.4806794714858003E-2</v>
       </c>
       <c r="I126" s="5">
-        <v>0.33234916115749702</v>
+        <v>0.26046427615038498</v>
       </c>
       <c r="J126" s="5">
-        <v>0.77736691497658506</v>
+        <v>1.1052320189125899</v>
       </c>
       <c r="K126" s="5">
-        <v>1.46211840782973</v>
+        <v>3.57280841677141</v>
       </c>
       <c r="L126" s="5">
-        <v>-1.57437824061353</v>
+        <v>-0.87609239716369702</v>
       </c>
       <c r="M126" s="5">
-        <v>-1.93359734678529</v>
+        <v>-1.66415095886675</v>
       </c>
       <c r="N126" s="5">
-        <v>-0.80955816473689002</v>
+        <v>7.4079389383359597</v>
       </c>
       <c r="O126" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R126" s="5">
-        <v>56.691001892089801</v>
+        <v>115.860000610352</v>
       </c>
       <c r="S126" s="5">
-        <v>54.340000152587898</v>
+        <v>111.629997253418</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A127" s="6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C127" s="5">
-        <v>7072060.5</v>
+        <v>7060634.5</v>
       </c>
       <c r="D127" s="5">
-        <v>7781430784</v>
+        <v>2380848640</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F127" s="5">
-        <v>3.3651192188262899</v>
+        <v>1.5245946645736701</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>0.30564902356573498</v>
+        <v>-4.6297355116787002E-2</v>
       </c>
       <c r="I127" s="5">
-        <v>-0.139606403622694</v>
+        <v>-5.8167223881833E-2</v>
       </c>
       <c r="J127" s="5">
-        <v>1.3253411213936599</v>
+        <v>-3.7205511926385999E-2</v>
       </c>
       <c r="K127" s="5">
-        <v>3.5740117225131298</v>
+        <v>0.169022390422602</v>
       </c>
       <c r="L127" s="5">
-        <v>-0.86003918414228098</v>
+        <v>0.188571980372232</v>
       </c>
       <c r="M127" s="5">
-        <v>-1.7081923673342501</v>
+        <v>9.6440969213173994E-2</v>
       </c>
       <c r="N127" s="5">
-        <v>6.8456314059373904</v>
+        <v>1.15950173169204</v>
       </c>
       <c r="O127" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="Q127" s="6" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="R127" s="5">
-        <v>115.860000610352</v>
+        <v>21.909999847412099</v>
       </c>
       <c r="S127" s="5">
-        <v>111.580001831055</v>
+        <v>21.590000152587901</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9543,7 +9537,7 @@
         <v>6958867.5</v>
       </c>
       <c r="D128" s="5">
-        <v>891636992</v>
+        <v>892124992</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>22</v>
@@ -9602,7 +9596,7 @@
         <v>6660368</v>
       </c>
       <c r="D129" s="5">
-        <v>1858918400</v>
+        <v>1867555840</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>86</v>
@@ -9661,7 +9655,7 @@
         <v>6625980</v>
       </c>
       <c r="D130" s="5">
-        <v>1478689920</v>
+        <v>1477996544</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>54</v>
@@ -9717,55 +9711,55 @@
         <v>314</v>
       </c>
       <c r="C131" s="5">
-        <v>6611565</v>
+        <v>6584178.5</v>
       </c>
       <c r="D131" s="5">
-        <v>663137664</v>
+        <v>1642471296</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F131" s="5">
-        <v>2.1568627357482901</v>
+        <v>0.67640906572341897</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="H131" s="5">
-        <v>0.30808017587022901</v>
+        <v>0.29423604369367401</v>
       </c>
       <c r="I131" s="5">
-        <v>1.9597129192517699</v>
+        <v>-1.1205346651487</v>
       </c>
       <c r="J131" s="5">
-        <v>4.7441415612271802</v>
+        <v>-1.6700329086999399</v>
       </c>
       <c r="K131" s="5">
-        <v>5.5208589529789798</v>
+        <v>2.24586807860454</v>
       </c>
       <c r="L131" s="5">
-        <v>-8.4491010215761904</v>
+        <v>4.6927631870614404</v>
       </c>
       <c r="M131" s="5">
-        <v>-8.0522046301598902</v>
+        <v>4.0640825104772302</v>
       </c>
       <c r="N131" s="5">
-        <v>-10.010532617743801</v>
+        <v>10.541843848220299</v>
       </c>
       <c r="O131" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="R131" s="5">
-        <v>1.7477049141747301</v>
+        <v>41.531053186452702</v>
       </c>
       <c r="S131" s="5">
-        <v>1.45683062076569</v>
+        <v>40.670597076416001</v>
       </c>
     </row>
     <row r="132" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9776,114 +9770,114 @@
         <v>316</v>
       </c>
       <c r="C132" s="5">
-        <v>6575716</v>
+        <v>6567817</v>
       </c>
       <c r="D132" s="5">
-        <v>1643092096</v>
+        <v>3884392448</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="F132" s="5">
-        <v>0.67640906572341897</v>
+        <v>2.70064449310303</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H132" s="5">
-        <v>0.294241284934249</v>
+        <v>9.4312125586881998E-2</v>
       </c>
       <c r="I132" s="5">
-        <v>-1.1205294978421101</v>
+        <v>0</v>
       </c>
       <c r="J132" s="5">
-        <v>-1.6700313567957401</v>
+        <v>1.7432535707104799</v>
       </c>
       <c r="K132" s="5">
-        <v>2.2458747294519701</v>
+        <v>3.7272471607456601</v>
       </c>
       <c r="L132" s="5">
-        <v>4.6927714952880599</v>
+        <v>-1.8191534323446601</v>
       </c>
       <c r="M132" s="5">
-        <v>4.0640823981055796</v>
+        <v>-2.6631847757105098</v>
       </c>
       <c r="N132" s="5">
-        <v>10.5418538784857</v>
+        <v>2.91329555173425</v>
       </c>
       <c r="O132" s="6" t="s">
-        <v>23</v>
+        <v>318</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="R132" s="5">
-        <v>41.531053186452702</v>
+        <v>134.169998168945</v>
       </c>
       <c r="S132" s="5">
-        <v>40.670597076416001</v>
+        <v>127.360000610352</v>
       </c>
     </row>
     <row r="133" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A133" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C133" s="5">
-        <v>6567817</v>
+        <v>6410326.5</v>
       </c>
       <c r="D133" s="5">
-        <v>3910438656</v>
+        <v>777065792</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="F133" s="5">
-        <v>2.70064449310303</v>
+        <v>1.8821675777435301</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H133" s="5">
-        <v>-4.7136831539496001E-2</v>
+        <v>-0.14913033881721599</v>
       </c>
       <c r="I133" s="5">
-        <v>-1.1151439485967999E-2</v>
+        <v>0.34243392992729899</v>
       </c>
       <c r="J133" s="5">
-        <v>1.9467602429664901</v>
+        <v>0.89395296504590804</v>
       </c>
       <c r="K133" s="5">
-        <v>3.8732417174087002</v>
+        <v>1.84198679599983</v>
       </c>
       <c r="L133" s="5">
-        <v>-1.5372029189799099</v>
+        <v>-9.9427255832540001E-2</v>
       </c>
       <c r="M133" s="5">
-        <v>-2.7548986977777599</v>
+        <v>-0.56713345712394703</v>
       </c>
       <c r="N133" s="5">
-        <v>2.1572991752184101</v>
+        <v>3.3253885345001102</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="R133" s="5">
-        <v>134.169998168945</v>
+        <v>61.569999694824197</v>
       </c>
       <c r="S133" s="5">
-        <v>127.23999786377</v>
+        <v>56.845100402832003</v>
       </c>
     </row>
     <row r="134" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9894,55 +9888,55 @@
         <v>322</v>
       </c>
       <c r="C134" s="5">
-        <v>6410326.5</v>
+        <v>6397304</v>
       </c>
       <c r="D134" s="5">
-        <v>775935616</v>
+        <v>2343837952</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F134" s="5">
-        <v>1.8821675777435301</v>
+        <v>1.46857142448425</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>-0.14913033881721599</v>
+        <v>-9.5148006029598997E-2</v>
       </c>
       <c r="I134" s="5">
-        <v>0.34243392992729899</v>
+        <v>8.6653789253787999E-2</v>
       </c>
       <c r="J134" s="5">
-        <v>0.89395296504590804</v>
+        <v>0.13978331601587299</v>
       </c>
       <c r="K134" s="5">
-        <v>1.84198679599983</v>
+        <v>0.56246982142653701</v>
       </c>
       <c r="L134" s="5">
-        <v>-9.9427255832540001E-2</v>
+        <v>-1.04283774861255</v>
       </c>
       <c r="M134" s="5">
-        <v>-0.56713345712394703</v>
+        <v>-1.2026677104936101</v>
       </c>
       <c r="N134" s="5">
-        <v>3.3253885345001102</v>
+        <v>-0.13229218272865501</v>
       </c>
       <c r="O134" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="Q134" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R134" s="5">
-        <v>61.569999694824197</v>
+        <v>118.580001831055</v>
       </c>
       <c r="S134" s="5">
-        <v>56.845100402832003</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="135" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9953,55 +9947,55 @@
         <v>324</v>
       </c>
       <c r="C135" s="5">
-        <v>6397304</v>
+        <v>6369975</v>
       </c>
       <c r="D135" s="5">
-        <v>2344649984</v>
+        <v>1128481536</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F135" s="5">
-        <v>1.46857142448425</v>
+        <v>0.82616174221038796</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>-9.5148006029598997E-2</v>
+        <v>-6.3883244914896997E-2</v>
       </c>
       <c r="I135" s="5">
-        <v>8.6653789253787999E-2</v>
+        <v>-7.3707074439500003E-2</v>
       </c>
       <c r="J135" s="5">
-        <v>0.13978331601587299</v>
+        <v>-0.14242732182835299</v>
       </c>
       <c r="K135" s="5">
-        <v>0.56246982142653701</v>
+        <v>-5.9124250166676003E-2</v>
       </c>
       <c r="L135" s="5">
-        <v>-1.04283774861255</v>
+        <v>8.2796868453472006E-2</v>
       </c>
       <c r="M135" s="5">
-        <v>-1.2026677104936101</v>
+        <v>7.2996784191659003E-2</v>
       </c>
       <c r="N135" s="5">
-        <v>-0.13229218272865501</v>
+        <v>1.62527278902673</v>
       </c>
       <c r="O135" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="Q135" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R135" s="5">
-        <v>118.580001831055</v>
+        <v>102.93000030517599</v>
       </c>
       <c r="S135" s="5">
-        <v>115.5</v>
+        <v>101.675003051758</v>
       </c>
     </row>
     <row r="136" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10009,220 +10003,220 @@
         <v>325</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C136" s="5">
-        <v>6369975</v>
+        <v>6322352</v>
       </c>
       <c r="D136" s="5">
-        <v>1128592512</v>
+        <v>1974329984</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F136" s="5">
-        <v>0.82616174221038796</v>
+        <v>1.45094430446625</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>-6.3883244914896997E-2</v>
+        <v>-4.6041570893084999E-2</v>
       </c>
       <c r="I136" s="5">
-        <v>-7.3707074439500003E-2</v>
+        <v>-0.109146957334394</v>
       </c>
       <c r="J136" s="5">
-        <v>-0.14242732182835299</v>
+        <v>-0.111557661585726</v>
       </c>
       <c r="K136" s="5">
-        <v>-5.9124250166676003E-2</v>
+        <v>0.25324260098611401</v>
       </c>
       <c r="L136" s="5">
-        <v>8.2796868453472006E-2</v>
+        <v>0.108742992919564</v>
       </c>
       <c r="M136" s="5">
-        <v>7.2996784191659003E-2</v>
+        <v>-2.8386923605794E-2</v>
       </c>
       <c r="N136" s="5">
-        <v>1.62527278902673</v>
+        <v>1.7194634511915401</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q136" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R136" s="5">
-        <v>102.93000030517599</v>
+        <v>21.950000762939499</v>
       </c>
       <c r="S136" s="5">
-        <v>101.675003051758</v>
+        <v>21.709999084472699</v>
       </c>
     </row>
     <row r="137" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A137" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="C137" s="5">
-        <v>6122204.5</v>
+        <v>6226273.5</v>
       </c>
       <c r="D137" s="5">
-        <v>839168000</v>
+        <v>662937216</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F137" s="5">
-        <v>5.4614090919494602</v>
+        <v>2.15897941589356</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="H137" s="5">
-        <v>-8.3824213126781996E-2</v>
+        <v>-3.0220178708629E-2</v>
       </c>
       <c r="I137" s="5">
-        <v>0.25231061484400902</v>
+        <v>2.11283152603214</v>
       </c>
       <c r="J137" s="5">
-        <v>0.83790729385955198</v>
+        <v>4.5068752523087703</v>
       </c>
       <c r="K137" s="5">
-        <v>2.4020057282410998</v>
+        <v>3.9803737633237</v>
       </c>
       <c r="L137" s="5">
-        <v>2.3843402989872202</v>
+        <v>-7.7327300486449904</v>
       </c>
       <c r="M137" s="5">
-        <v>1.8550720811175001</v>
+        <v>-8.0799914182393007</v>
       </c>
       <c r="N137" s="5">
-        <v>11.590047284833799</v>
+        <v>-9.4966939469312699</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="R137" s="5">
-        <v>24.049999237060501</v>
+        <v>1.7477049141747301</v>
       </c>
       <c r="S137" s="5">
-        <v>23.840000152587901</v>
+        <v>1.4563903808593801</v>
       </c>
     </row>
     <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="C138" s="5">
-        <v>6029672</v>
+        <v>6129133.5</v>
       </c>
       <c r="D138" s="5">
-        <v>1973438976</v>
+        <v>1318921472</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F138" s="5">
-        <v>1.45094430446625</v>
+        <v>1.0287237167358401</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>-4.6041570893084999E-2</v>
+        <v>-6.3411264798673997E-2</v>
       </c>
       <c r="I138" s="5">
-        <v>-0.109146957334394</v>
+        <v>0.34181074689016999</v>
       </c>
       <c r="J138" s="5">
-        <v>-0.111557661585726</v>
+        <v>0.76208494477545397</v>
       </c>
       <c r="K138" s="5">
-        <v>0.25324260098611401</v>
+        <v>1.26506192004019</v>
       </c>
       <c r="L138" s="5">
-        <v>0.108742992919564</v>
+        <v>-1.68867281646332</v>
       </c>
       <c r="M138" s="5">
-        <v>-2.8386923605794E-2</v>
+        <v>-1.96687764326683</v>
       </c>
       <c r="N138" s="5">
-        <v>1.7194634511915401</v>
+        <v>-0.69552933355492297</v>
       </c>
       <c r="O138" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q138" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R138" s="5">
-        <v>21.950000762939499</v>
+        <v>57.296699523925803</v>
       </c>
       <c r="S138" s="5">
-        <v>21.709999084472699</v>
+        <v>55.159999847412102</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A139" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="C139" s="5">
-        <v>5890836</v>
+        <v>6122204.5</v>
       </c>
       <c r="D139" s="5">
-        <v>1318323968</v>
+        <v>841984000</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F139" s="5">
-        <v>1.0287237167358401</v>
+        <v>5.4614090919494602</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H139" s="5">
-        <v>-6.3411264798673997E-2</v>
+        <v>-8.3824213126781996E-2</v>
       </c>
       <c r="I139" s="5">
-        <v>0.34181074689016999</v>
+        <v>0.25231061484400902</v>
       </c>
       <c r="J139" s="5">
-        <v>0.76208494477545397</v>
+        <v>0.83790729385955198</v>
       </c>
       <c r="K139" s="5">
-        <v>1.26506192004019</v>
+        <v>2.4020057282410998</v>
       </c>
       <c r="L139" s="5">
-        <v>-1.68867281646332</v>
+        <v>2.3843402989872202</v>
       </c>
       <c r="M139" s="5">
-        <v>-1.96687764326683</v>
+        <v>1.8550720811175001</v>
       </c>
       <c r="N139" s="5">
-        <v>-0.69552933355492297</v>
+        <v>11.590047284833799</v>
       </c>
       <c r="O139" s="6" t="s">
         <v>23</v>
@@ -10234,10 +10228,10 @@
         <v>25</v>
       </c>
       <c r="R139" s="5">
-        <v>57.296699523925803</v>
+        <v>24.049999237060501</v>
       </c>
       <c r="S139" s="5">
-        <v>55.159999847412102</v>
+        <v>23.840000152587901</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10251,10 +10245,10 @@
         <v>5780747</v>
       </c>
       <c r="D140" s="5">
-        <v>4592658432</v>
+        <v>4599327232</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F140" s="5">
         <v>4.6098742485046396</v>
@@ -10263,40 +10257,40 @@
         <v>0</v>
       </c>
       <c r="H140" s="5">
-        <v>3.8738054135012003E-2</v>
+        <v>0.14520221883171899</v>
       </c>
       <c r="I140" s="5">
-        <v>9.6835474313159992E-3</v>
+        <v>0.427137950574763</v>
       </c>
       <c r="J140" s="5">
-        <v>1.0664357470391099</v>
+        <v>1.0648655054623</v>
       </c>
       <c r="K140" s="5">
-        <v>2.5832694511567702</v>
+        <v>2.4935148808898502</v>
       </c>
       <c r="L140" s="5">
-        <v>2.9529202545008899</v>
+        <v>2.8420010513710201</v>
       </c>
       <c r="M140" s="5">
-        <v>2.5832694511567702</v>
+        <v>2.7322226345499501</v>
       </c>
       <c r="N140" s="5">
-        <v>10.757447539505099</v>
+        <v>12.042593279806701</v>
       </c>
       <c r="O140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P140" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q140" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q140" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R140" s="5">
         <v>105.279998779297</v>
       </c>
       <c r="S140" s="5">
-        <v>103.300003051758</v>
+        <v>103.449996948242</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10307,10 +10301,10 @@
         <v>334</v>
       </c>
       <c r="C141" s="5">
-        <v>5769408</v>
+        <v>5765578.5</v>
       </c>
       <c r="D141" s="5">
-        <v>1611940736</v>
+        <v>1613207808</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>94</v>
@@ -10369,7 +10363,7 @@
         <v>5704337</v>
       </c>
       <c r="D142" s="5">
-        <v>596771392</v>
+        <v>596910784</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>22</v>
@@ -10428,7 +10422,7 @@
         <v>5640936</v>
       </c>
       <c r="D143" s="5">
-        <v>834405056</v>
+        <v>835413120</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>32</v>
@@ -10487,7 +10481,7 @@
         <v>5563779</v>
       </c>
       <c r="D144" s="5">
-        <v>3871356672</v>
+        <v>3927610880</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>80</v>
@@ -10497,34 +10491,34 @@
         <v>94</v>
       </c>
       <c r="H144" s="5">
+        <v>0</v>
+      </c>
+      <c r="I144" s="5">
         <v>-9.7126634891699995E-3</v>
-      </c>
-      <c r="I144" s="5">
-        <v>0</v>
       </c>
       <c r="J144" s="5">
         <v>-1.9414184167743001E-2</v>
       </c>
       <c r="K144" s="5">
-        <v>-1.9414184167743001E-2</v>
+        <v>0</v>
       </c>
       <c r="L144" s="5">
-        <v>1.9421725306778999E-2</v>
+        <v>3.8850996147332999E-2</v>
       </c>
       <c r="M144" s="5">
         <v>2.9140049895626002E-2</v>
       </c>
       <c r="N144" s="5">
-        <v>0.106917568538378</v>
+        <v>7.7732192025581001E-2</v>
       </c>
       <c r="O144" s="6" t="s">
         <v>94</v>
       </c>
       <c r="P144" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q144" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q144" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R144" s="5">
         <v>5.1690001487731898</v>
@@ -10541,55 +10535,53 @@
         <v>342</v>
       </c>
       <c r="C145" s="5">
-        <v>5539804.5</v>
+        <v>5401856</v>
       </c>
       <c r="D145" s="5">
-        <v>1064063936</v>
+        <v>1267633536</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F145" s="5">
-        <v>2.0705523490905802</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H145" s="5">
-        <v>-5.7479938850812998E-2</v>
+        <v>-0.361695471395795</v>
       </c>
       <c r="I145" s="5">
-        <v>0.413899612765456</v>
+        <v>-0.81485749752825398</v>
       </c>
       <c r="J145" s="5">
-        <v>1.16334550170236</v>
+        <v>-1.6350290299829</v>
       </c>
       <c r="K145" s="5">
-        <v>1.97071035317236</v>
+        <v>-0.55101825886725297</v>
       </c>
       <c r="L145" s="5">
-        <v>-1.4835860746434499</v>
+        <v>-5.3526204797647603</v>
       </c>
       <c r="M145" s="5">
-        <v>-1.9790180202952199</v>
+        <v>-5.9140766715049198</v>
       </c>
       <c r="N145" s="5">
-        <v>-0.25319264708360001</v>
+        <v>2.22656127472876</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R145" s="5">
-        <v>54.740001678466797</v>
+        <v>55.970001220703097</v>
       </c>
       <c r="S145" s="5">
-        <v>52.159999847412102</v>
+        <v>52.340000152587898</v>
       </c>
     </row>
     <row r="146" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10600,112 +10592,114 @@
         <v>344</v>
       </c>
       <c r="C146" s="5">
-        <v>5401856</v>
+        <v>5395421.5</v>
       </c>
       <c r="D146" s="5">
-        <v>1264011008</v>
+        <v>1937049216</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F146" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0.86013734340667702</v>
+      </c>
       <c r="G146" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H146" s="5">
-        <v>-0.361695471395795</v>
+        <v>0.39754466949135597</v>
       </c>
       <c r="I146" s="5">
-        <v>-0.81485749752825398</v>
+        <v>0.97283689764833303</v>
       </c>
       <c r="J146" s="5">
-        <v>-1.6350290299829</v>
+        <v>-0.25730254148836901</v>
       </c>
       <c r="K146" s="5">
-        <v>-0.55101825886725297</v>
+        <v>2.3072652396062501</v>
       </c>
       <c r="L146" s="5">
-        <v>-5.3526204797647603</v>
+        <v>-1.85003108371978</v>
       </c>
       <c r="M146" s="5">
-        <v>-5.9140766715049198</v>
+        <v>-3.4121371299985701</v>
       </c>
       <c r="N146" s="5">
-        <v>2.22656127472876</v>
+        <v>5.1032473796484696</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R146" s="5">
-        <v>55.970001220703097</v>
+        <v>20.245850000000001</v>
       </c>
       <c r="S146" s="5">
-        <v>52.340000152587898</v>
+        <v>19.394607543945298</v>
       </c>
     </row>
     <row r="147" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A147" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C147" s="5">
-        <v>5395421.5</v>
+        <v>5384383.5</v>
       </c>
       <c r="D147" s="5">
-        <v>1925533312</v>
+        <v>1345924608</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
       <c r="F147" s="5">
-        <v>0.86013734340667702</v>
+        <v>2.62862992286682</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="H147" s="5">
-        <v>0.15407822038973101</v>
+        <v>0.22534647291860799</v>
       </c>
       <c r="I147" s="5">
-        <v>-1.20692303167574</v>
+        <v>-1.2387440519892601</v>
       </c>
       <c r="J147" s="5">
-        <v>-0.157024504997094</v>
+        <v>-1.7071822005941399</v>
       </c>
       <c r="K147" s="5">
-        <v>1.6181459436915899</v>
+        <v>2.5159531277632698</v>
       </c>
       <c r="L147" s="5">
-        <v>-1.25880561061261</v>
+        <v>4.2126967737073704</v>
       </c>
       <c r="M147" s="5">
-        <v>-3.7945965830453399</v>
+        <v>3.3526335556758098</v>
       </c>
       <c r="N147" s="5">
-        <v>4.7841536084070899</v>
+        <v>12.4676121657393</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="R147" s="5">
-        <v>20.245850000000001</v>
+        <v>16.3317835239903</v>
       </c>
       <c r="S147" s="5">
-        <v>19.3178100585938</v>
+        <v>15.958051681518601</v>
       </c>
     </row>
     <row r="148" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10713,63 +10707,63 @@
         <v>349</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="C148" s="5">
-        <v>5384383.5</v>
+        <v>5368190</v>
       </c>
       <c r="D148" s="5">
-        <v>1350051072</v>
+        <v>1459578368</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F148" s="5">
-        <v>2.62862992286682</v>
+        <v>1.81340551376343</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>0.22534144652091001</v>
+        <v>-4.5117204912136999E-2</v>
       </c>
       <c r="I148" s="5">
-        <v>-1.23874434547833</v>
+        <v>-0.186735241376634</v>
       </c>
       <c r="J148" s="5">
-        <v>-1.7071822005941399</v>
+        <v>-0.20607260377880601</v>
       </c>
       <c r="K148" s="5">
-        <v>2.5159405524018998</v>
+        <v>0.49269586107445501</v>
       </c>
       <c r="L148" s="5">
-        <v>4.2126924412158004</v>
+        <v>0.23465690886961299</v>
       </c>
       <c r="M148" s="5">
-        <v>3.3526316155989302</v>
+        <v>-7.8719958929018993E-2</v>
       </c>
       <c r="N148" s="5">
-        <v>12.4676082859243</v>
+        <v>2.68389344801039</v>
       </c>
       <c r="O148" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P148" s="6" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="Q148" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R148" s="5">
-        <v>16.3317835239903</v>
+        <v>22.420000076293899</v>
       </c>
       <c r="S148" s="5">
-        <v>15.958051681518601</v>
+        <v>22.155000686645501</v>
       </c>
     </row>
     <row r="149" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A149" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>47</v>
@@ -10778,7 +10772,7 @@
         <v>5319811.5</v>
       </c>
       <c r="D149" s="5">
-        <v>522000000</v>
+        <v>523199936</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>48</v>
@@ -10826,46 +10820,46 @@
     </row>
     <row r="150" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A150" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C150" s="5">
-        <v>5317090</v>
+        <v>5285506.5</v>
       </c>
       <c r="D150" s="5">
-        <v>1458906752</v>
+        <v>870208960</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F150" s="5">
-        <v>1.81340551376343</v>
+        <v>3.21097755432129</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H150" s="5">
-        <v>-4.5117204912136999E-2</v>
+        <v>0</v>
       </c>
       <c r="I150" s="5">
-        <v>-0.186735241376634</v>
+        <v>0.18177330908377701</v>
       </c>
       <c r="J150" s="5">
-        <v>-0.20607260377880601</v>
+        <v>0.59678140219439102</v>
       </c>
       <c r="K150" s="5">
-        <v>0.49269586107445501</v>
+        <v>1.3656056730400901</v>
       </c>
       <c r="L150" s="5">
-        <v>0.23465690886961299</v>
+        <v>2.0722517230917799</v>
       </c>
       <c r="M150" s="5">
-        <v>-7.8719958929018993E-2</v>
+        <v>1.72239405127139</v>
       </c>
       <c r="N150" s="5">
-        <v>2.68389344801039</v>
+        <v>7.4295033193903199</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>23</v>
@@ -10877,69 +10871,69 @@
         <v>25</v>
       </c>
       <c r="R150" s="5">
-        <v>22.420000076293899</v>
+        <v>23.430000305175799</v>
       </c>
       <c r="S150" s="5">
-        <v>22.155000686645501</v>
+        <v>23.319999694824201</v>
       </c>
     </row>
     <row r="151" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A151" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="C151" s="5">
-        <v>5310447</v>
+        <v>5260191.5</v>
       </c>
       <c r="D151" s="5">
-        <v>869835968</v>
+        <v>1336987520</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F151" s="5">
-        <v>3.21097755432129</v>
+        <v>3.6490352153778098</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H151" s="5">
-        <v>0</v>
+        <v>3.7850979761389E-2</v>
       </c>
       <c r="I151" s="5">
-        <v>0.18177330908377701</v>
+        <v>-0.30177262548227701</v>
       </c>
       <c r="J151" s="5">
-        <v>0.59678140219439102</v>
+        <v>-0.60314111970031203</v>
       </c>
       <c r="K151" s="5">
-        <v>1.3656056730400901</v>
+        <v>2.11759639187144</v>
       </c>
       <c r="L151" s="5">
-        <v>2.0722517230917799</v>
+        <v>-3.5315546721254099</v>
       </c>
       <c r="M151" s="5">
-        <v>1.72239405127139</v>
+        <v>-4.42573704692356</v>
       </c>
       <c r="N151" s="5">
-        <v>7.4295033193903199</v>
+        <v>3.7504896669785301</v>
       </c>
       <c r="O151" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R151" s="5">
-        <v>23.430000305175799</v>
+        <v>28.25</v>
       </c>
       <c r="S151" s="5">
-        <v>23.319999694824201</v>
+        <v>26.430000305175799</v>
       </c>
     </row>
     <row r="152" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10950,10 +10944,10 @@
         <v>355</v>
       </c>
       <c r="C152" s="5">
-        <v>5256915</v>
+        <v>5239489</v>
       </c>
       <c r="D152" s="5">
-        <v>1850148096</v>
+        <v>1850295936</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>356</v>
@@ -11009,40 +11003,40 @@
         <v>358</v>
       </c>
       <c r="C153" s="5">
-        <v>5194514</v>
+        <v>5205300.5</v>
       </c>
       <c r="D153" s="5">
-        <v>1855694976</v>
+        <v>1062839936</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F153" s="5">
-        <v>4.6458659172058097</v>
+        <v>2.0705523490905802</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H153" s="5">
-        <v>5.2030329027564E-2</v>
+        <v>-5.7484102910820997E-2</v>
       </c>
       <c r="I153" s="5">
-        <v>0.54521681470955896</v>
+        <v>0.41389406392358102</v>
       </c>
       <c r="J153" s="5">
-        <v>2.2785090066350899</v>
+        <v>1.16334783951433</v>
       </c>
       <c r="K153" s="5">
-        <v>3.7852577811473598</v>
+        <v>1.97071007866554</v>
       </c>
       <c r="L153" s="5">
-        <v>3.1681084059114601</v>
+        <v>-1.4835952721957599</v>
       </c>
       <c r="M153" s="5">
-        <v>2.5236516392046502</v>
+        <v>-1.9790203889647899</v>
       </c>
       <c r="N153" s="5">
-        <v>12.309705654909299</v>
+        <v>-0.25319911517326399</v>
       </c>
       <c r="O153" s="6" t="s">
         <v>23</v>
@@ -11054,10 +11048,10 @@
         <v>25</v>
       </c>
       <c r="R153" s="5">
-        <v>19.329999923706101</v>
+        <v>54.740001678466797</v>
       </c>
       <c r="S153" s="5">
-        <v>19.2299995422363</v>
+        <v>52.159999847412102</v>
       </c>
     </row>
     <row r="154" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11065,78 +11059,78 @@
         <v>359</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="C154" s="5">
-        <v>5126130.5</v>
+        <v>5194514</v>
       </c>
       <c r="D154" s="5">
-        <v>629920000</v>
+        <v>1858573952</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F154" s="5">
-        <v>3.5206298828125</v>
+        <v>4.6458659172058097</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H154" s="5">
-        <v>0</v>
+        <v>5.2030329027564E-2</v>
       </c>
       <c r="I154" s="5">
-        <v>0.17552832453497899</v>
+        <v>0.54521681470955896</v>
       </c>
       <c r="J154" s="5">
-        <v>0.88603305510266395</v>
+        <v>2.2785090066350899</v>
       </c>
       <c r="K154" s="5">
-        <v>1.8801471147391799</v>
+        <v>3.7852577811473598</v>
       </c>
       <c r="L154" s="5">
-        <v>2.3217354897486802</v>
+        <v>3.1681084059114601</v>
       </c>
       <c r="M154" s="5">
-        <v>2.03953170168651</v>
+        <v>2.5236516392046502</v>
       </c>
       <c r="N154" s="5">
-        <v>9.2981229772187906</v>
+        <v>12.309705654909299</v>
       </c>
       <c r="O154" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q154" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R154" s="5">
-        <v>25.4899997711182</v>
+        <v>19.329999923706101</v>
       </c>
       <c r="S154" s="5">
-        <v>25.399999618530298</v>
+        <v>19.2299995422363</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A155" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="C155" s="5">
-        <v>4957151</v>
+        <v>5138048</v>
       </c>
       <c r="D155" s="5">
-        <v>1577932928</v>
+        <v>630044032</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F155" s="5">
-        <v>1.75068318843842</v>
+        <v>3.5206298828125</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>0</v>
@@ -11145,37 +11139,37 @@
         <v>0</v>
       </c>
       <c r="I155" s="5">
-        <v>-0.11498921605998</v>
+        <v>0.17552832453497899</v>
       </c>
       <c r="J155" s="5">
-        <v>-0.122670585653539</v>
+        <v>0.88603305510266395</v>
       </c>
       <c r="K155" s="5">
-        <v>0.26519785596141898</v>
+        <v>1.8801471147391799</v>
       </c>
       <c r="L155" s="5">
-        <v>0.17792780209342501</v>
+        <v>2.3217354897486802</v>
       </c>
       <c r="M155" s="5">
-        <v>-1.2748188085099E-2</v>
+        <v>2.03953170168651</v>
       </c>
       <c r="N155" s="5">
-        <v>1.6407424572564899</v>
+        <v>9.2981229772187906</v>
       </c>
       <c r="O155" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q155" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R155" s="5">
-        <v>26.389999389648398</v>
+        <v>25.4899997711182</v>
       </c>
       <c r="S155" s="5">
-        <v>26.059999465942401</v>
+        <v>25.399999618530298</v>
       </c>
     </row>
     <row r="156" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11186,173 +11180,173 @@
         <v>363</v>
       </c>
       <c r="C156" s="5">
-        <v>4944233.5</v>
+        <v>4957151</v>
       </c>
       <c r="D156" s="5">
-        <v>10366208000</v>
+        <v>1578235776</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="F156" s="5">
-        <v>0.89857649803161599</v>
+        <v>1.75068318843842</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="H156" s="5">
-        <v>0.179215809512456</v>
+        <v>0</v>
       </c>
       <c r="I156" s="5">
-        <v>-1.63315860990415</v>
+        <v>-0.11498921605998</v>
       </c>
       <c r="J156" s="5">
-        <v>-1.2962610444662701</v>
+        <v>-0.122670585653539</v>
       </c>
       <c r="K156" s="5">
-        <v>0.85236278225766504</v>
+        <v>0.26519785596141898</v>
       </c>
       <c r="L156" s="5">
-        <v>-2.5187844255750802</v>
+        <v>0.17792780209342501</v>
       </c>
       <c r="M156" s="5">
-        <v>-3.0639213105607501</v>
+        <v>-1.2748188085099E-2</v>
       </c>
       <c r="N156" s="5">
-        <v>9.0219879691591398</v>
+        <v>1.6407424572564899</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="R156" s="5">
-        <v>168.49770675659201</v>
+        <v>26.389999389648398</v>
       </c>
       <c r="S156" s="5">
-        <v>160.99276733398401</v>
+        <v>26.059999465942401</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A157" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C157" s="5">
+        <v>4945891</v>
+      </c>
+      <c r="D157" s="5">
+        <v>10307677184</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0.89857649803161599</v>
+      </c>
+      <c r="G157" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C157" s="5">
-        <v>4921561</v>
-      </c>
-      <c r="D157" s="5">
-        <v>742352000</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F157" s="5">
-        <v>2.0524699687957799</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="H157" s="5">
-        <v>-7.5246267197437003E-2</v>
+        <v>-3.7072249368063998E-2</v>
       </c>
       <c r="I157" s="5">
-        <v>3.7665646588336002E-2</v>
+        <v>0.23960081499796401</v>
       </c>
       <c r="J157" s="5">
-        <v>7.6683043682957003E-2</v>
+        <v>-1.79607969507358</v>
       </c>
       <c r="K157" s="5">
-        <v>1.2557818136179799</v>
+        <v>0.966550507012509</v>
       </c>
       <c r="L157" s="5">
-        <v>-0.78166448328347304</v>
+        <v>-2.6087881733220701</v>
       </c>
       <c r="M157" s="5">
-        <v>-1.0800286933568699</v>
+        <v>-3.09985769538011</v>
       </c>
       <c r="N157" s="5">
-        <v>2.0502553072206</v>
+        <v>9.3974023021273094</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>23</v>
+        <v>367</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R157" s="5">
-        <v>27.139999389648398</v>
+        <v>168.49770675659201</v>
       </c>
       <c r="S157" s="5">
-        <v>26.559999465942401</v>
+        <v>160.93309020996099</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A158" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C158" s="5">
-        <v>4817737</v>
+        <v>4921561</v>
       </c>
       <c r="D158" s="5">
-        <v>1425052160</v>
+        <v>742352000</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="F158" s="5">
-        <v>4.0675816535949698</v>
+        <v>2.0524699687957799</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H158" s="5">
-        <v>-4.0259649927465002E-2</v>
+        <v>-7.5246267197437003E-2</v>
       </c>
       <c r="I158" s="5">
-        <v>-1.1381192610741799</v>
+        <v>3.7665646588336002E-2</v>
       </c>
       <c r="J158" s="5">
-        <v>-0.63989822410223096</v>
+        <v>7.6683043682957003E-2</v>
       </c>
       <c r="K158" s="5">
-        <v>7.7958733841588099</v>
+        <v>1.2557818136179799</v>
       </c>
       <c r="L158" s="5">
-        <v>23.784346853934998</v>
+        <v>-0.78166448328347304</v>
       </c>
       <c r="M158" s="5">
-        <v>22.405934378570699</v>
+        <v>-1.0800286933568699</v>
       </c>
       <c r="N158" s="5">
-        <v>57.677552316481602</v>
+        <v>2.0502553072206</v>
       </c>
       <c r="O158" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="Q158" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R158" s="5">
-        <v>8.0009946260925897</v>
+        <v>27.139999389648398</v>
       </c>
       <c r="S158" s="5">
-        <v>7.6985611915588397</v>
+        <v>26.559999465942401</v>
       </c>
     </row>
     <row r="159" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11363,55 +11357,55 @@
         <v>370</v>
       </c>
       <c r="C159" s="5">
-        <v>4764414</v>
+        <v>4817737</v>
       </c>
       <c r="D159" s="5">
-        <v>1478940288</v>
+        <v>1431264640</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F159" s="5">
-        <v>6.9069743156433097</v>
+        <v>4.0675816535949698</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H159" s="5">
-        <v>5.6729914317200002E-2</v>
+        <v>-4.0259649927465002E-2</v>
       </c>
       <c r="I159" s="5">
-        <v>0.51291880868973305</v>
+        <v>-1.1381192610741799</v>
       </c>
       <c r="J159" s="5">
-        <v>-0.124688970649922</v>
+        <v>-0.63989822410223096</v>
       </c>
       <c r="K159" s="5">
-        <v>1.69503219331593</v>
+        <v>7.7958733841588099</v>
       </c>
       <c r="L159" s="5">
-        <v>2.88593112655624</v>
+        <v>23.784346853934998</v>
       </c>
       <c r="M159" s="5">
-        <v>2.7084748471206899</v>
+        <v>22.405934378570699</v>
       </c>
       <c r="N159" s="5">
-        <v>6.6082149891958597</v>
+        <v>57.677552316481602</v>
       </c>
       <c r="O159" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q159" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R159" s="5">
-        <v>26.7299995422363</v>
+        <v>8.0009946260925897</v>
       </c>
       <c r="S159" s="5">
-        <v>26.454999923706101</v>
+        <v>7.6985611915588397</v>
       </c>
     </row>
     <row r="160" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11422,40 +11416,40 @@
         <v>372</v>
       </c>
       <c r="C160" s="5">
-        <v>4688105</v>
+        <v>4764414</v>
       </c>
       <c r="D160" s="5">
-        <v>1326786048</v>
+        <v>1477866880</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F160" s="5">
-        <v>3.6490352153778098</v>
+        <v>6.9069743156433097</v>
       </c>
       <c r="G160" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H160" s="5">
-        <v>3.7850979761389E-2</v>
+        <v>5.6729914317200002E-2</v>
       </c>
       <c r="I160" s="5">
-        <v>-0.30177262548227701</v>
+        <v>0.51291880868973305</v>
       </c>
       <c r="J160" s="5">
-        <v>-0.60314111970031203</v>
+        <v>-0.124688970649922</v>
       </c>
       <c r="K160" s="5">
-        <v>2.11759639187144</v>
+        <v>1.69503219331593</v>
       </c>
       <c r="L160" s="5">
-        <v>-3.5315546721254099</v>
+        <v>2.88593112655624</v>
       </c>
       <c r="M160" s="5">
-        <v>-4.42573704692356</v>
+        <v>2.7084748471206899</v>
       </c>
       <c r="N160" s="5">
-        <v>3.7504896669785301</v>
+        <v>6.6082149891958597</v>
       </c>
       <c r="O160" s="6" t="s">
         <v>23</v>
@@ -11467,10 +11461,10 @@
         <v>25</v>
       </c>
       <c r="R160" s="5">
-        <v>28.25</v>
+        <v>26.7299995422363</v>
       </c>
       <c r="S160" s="5">
-        <v>26.430000305175799</v>
+        <v>26.454999923706101</v>
       </c>
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11484,7 +11478,7 @@
         <v>4588135</v>
       </c>
       <c r="D161" s="5">
-        <v>763096000</v>
+        <v>762915008</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>35</v>
@@ -11543,7 +11537,7 @@
         <v>4517002</v>
       </c>
       <c r="D162" s="5">
-        <v>5071841280</v>
+        <v>5070842368</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>51</v>
@@ -11555,40 +11549,40 @@
         <v>0</v>
       </c>
       <c r="H162" s="5">
-        <v>9.8489844915670005E-3</v>
+        <v>-1.9696029124283001E-2</v>
       </c>
       <c r="I162" s="5">
-        <v>-2.1817117282140999E-2</v>
+        <v>-9.8489844915670005E-3</v>
       </c>
       <c r="J162" s="5">
-        <v>1.7550724297965999E-2</v>
+        <v>2.77248971905E-3</v>
       </c>
       <c r="K162" s="5">
-        <v>0.139079463802738</v>
+        <v>0.109498593020541</v>
       </c>
       <c r="L162" s="5">
-        <v>0.12699086995515699</v>
+        <v>0.112194325747161</v>
       </c>
       <c r="M162" s="5">
-        <v>0.122065887300171</v>
+        <v>0.10234581604318101</v>
       </c>
       <c r="N162" s="5">
-        <v>0.81789837121610798</v>
+        <v>0.77812119991458295</v>
       </c>
       <c r="O162" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P162" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q162" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q162" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R162" s="5">
         <v>101.84999847412099</v>
       </c>
       <c r="S162" s="5">
-        <v>101.56500244140599</v>
+        <v>101.544998168945</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11602,7 +11596,7 @@
         <v>4298367.5</v>
       </c>
       <c r="D163" s="5">
-        <v>3294158080</v>
+        <v>3299451136</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>28</v>
@@ -11636,10 +11630,10 @@
         <v>94</v>
       </c>
       <c r="P163" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q163" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q163" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R163" s="5">
         <v>5.68400001525879</v>
@@ -11656,55 +11650,55 @@
         <v>380</v>
       </c>
       <c r="C164" s="5">
-        <v>4194476</v>
+        <v>4195882</v>
       </c>
       <c r="D164" s="5">
-        <v>6017759232</v>
+        <v>6005198848</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" s="5">
         <v>3.24349164962769</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H164" s="5">
-        <v>4.7110156811180998E-2</v>
+        <v>9.6724152316210003E-3</v>
       </c>
       <c r="I164" s="5">
-        <v>-1.7111595009966101</v>
+        <v>0.31683411560750102</v>
       </c>
       <c r="J164" s="5">
-        <v>-1.07980087536261</v>
+        <v>-1.51210941149216</v>
       </c>
       <c r="K164" s="5">
-        <v>2.2285933723625</v>
+        <v>2.37793009943621</v>
       </c>
       <c r="L164" s="5">
-        <v>0.48102726550807201</v>
+        <v>0.259154229922265</v>
       </c>
       <c r="M164" s="5">
-        <v>-0.23111631544365799</v>
+        <v>-0.22146625474173101</v>
       </c>
       <c r="N164" s="5">
-        <v>15.4935592611704</v>
+        <v>16.550590787777701</v>
       </c>
       <c r="O164" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P164" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q164" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q164" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R164" s="5">
         <v>126.72209060897799</v>
       </c>
       <c r="S164" s="5">
-        <v>123.33469390869099</v>
+        <v>123.34661865234401</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11718,7 +11712,7 @@
         <v>4167562.75</v>
       </c>
       <c r="D165" s="5">
-        <v>602537536</v>
+        <v>602656256</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>28</v>
@@ -11777,7 +11771,7 @@
         <v>4153371.75</v>
       </c>
       <c r="D166" s="5">
-        <v>641445824</v>
+        <v>640204288</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>45</v>
@@ -11786,7 +11780,7 @@
         <v>2.6322581768035902</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H166" s="5">
         <v>0.341137546245673</v>
@@ -11813,10 +11807,10 @@
         <v>23</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q166" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R166" s="5">
         <v>12.857852028671999</v>
@@ -11845,7 +11839,7 @@
         <v>2.9227557182311998</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H167" s="5">
         <v>0.20666501076180799</v>
@@ -11872,10 +11866,10 @@
         <v>23</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R167" s="5">
         <v>11.9648191804629</v>
@@ -11889,72 +11883,72 @@
         <v>387</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>388</v>
+        <v>285</v>
       </c>
       <c r="C168" s="5">
-        <v>4094070</v>
+        <v>4095687.75</v>
       </c>
       <c r="D168" s="5">
-        <v>1370301952</v>
+        <v>535225536</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F168" s="5">
-        <v>1.1910762786865201</v>
+        <v>1.8491621017456099</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="H168" s="5">
-        <v>0.66400190807625004</v>
+        <v>-9.3025384947308998E-2</v>
       </c>
       <c r="I168" s="5">
-        <v>-1.9423601841887701</v>
+        <v>3.7814961453519001E-2</v>
       </c>
       <c r="J168" s="5">
-        <v>-1.3512440076838199</v>
+        <v>3.2279061636831002E-2</v>
       </c>
       <c r="K168" s="5">
-        <v>8.1655487753295994E-2</v>
+        <v>1.27485365707361</v>
       </c>
       <c r="L168" s="5">
-        <v>-2.1772328528700799</v>
+        <v>-0.78601516739691402</v>
       </c>
       <c r="M168" s="5">
-        <v>-3.5125508218977899</v>
+        <v>-1.0814394528295801</v>
       </c>
       <c r="N168" s="5">
-        <v>7.9334707195491996</v>
+        <v>1.97557249115841</v>
       </c>
       <c r="O168" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="R168" s="5">
-        <v>90.659687527963101</v>
+        <v>22</v>
       </c>
       <c r="S168" s="5">
-        <v>85.832260131835895</v>
+        <v>21.4799995422363</v>
       </c>
     </row>
     <row r="169" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A169" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C169" s="5">
         <v>4092819</v>
       </c>
       <c r="D169" s="5">
-        <v>742700032</v>
+        <v>742840000</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>80</v>
@@ -12004,61 +11998,61 @@
     </row>
     <row r="170" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A170" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="C170" s="5">
-        <v>4085746.25</v>
+        <v>4058468</v>
       </c>
       <c r="D170" s="5">
-        <v>534852000</v>
+        <v>1139219200</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F170" s="5">
-        <v>1.8491621017456099</v>
+        <v>2.6065595149993901</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H170" s="5">
-        <v>-9.3025384947308998E-2</v>
+        <v>-6.9732168706804001E-2</v>
       </c>
       <c r="I170" s="5">
-        <v>3.7814961453519001E-2</v>
+        <v>0.163102312460328</v>
       </c>
       <c r="J170" s="5">
-        <v>3.2279061636831002E-2</v>
+        <v>0.99383690102190503</v>
       </c>
       <c r="K170" s="5">
-        <v>1.27485365707361</v>
+        <v>2.23709076050871</v>
       </c>
       <c r="L170" s="5">
-        <v>-0.78601516739691402</v>
+        <v>-1.0065565668926499</v>
       </c>
       <c r="M170" s="5">
-        <v>-1.0814394528295801</v>
+        <v>-1.6878749491954701</v>
       </c>
       <c r="N170" s="5">
-        <v>1.97557249115841</v>
+        <v>3.8333947727339499</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q170" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R170" s="5">
-        <v>22</v>
+        <v>22.137800216674801</v>
       </c>
       <c r="S170" s="5">
-        <v>21.4799995422363</v>
+        <v>21.495000839233398</v>
       </c>
     </row>
     <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12069,55 +12063,55 @@
         <v>392</v>
       </c>
       <c r="C171" s="5">
-        <v>4001667.25</v>
+        <v>4006896</v>
       </c>
       <c r="D171" s="5">
-        <v>1292458240</v>
+        <v>1371686528</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="F171" s="5">
-        <v>1.2395708560943599</v>
+        <v>1.1908659934997601</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="H171" s="5">
-        <v>0.32854147735019701</v>
+        <v>-4.4134377561822001E-2</v>
       </c>
       <c r="I171" s="5">
-        <v>-1.40851219982709</v>
+        <v>0.76671152326621705</v>
       </c>
       <c r="J171" s="5">
-        <v>-0.29727532545130703</v>
+        <v>-1.7312440278125101</v>
       </c>
       <c r="K171" s="5">
-        <v>4.2388470398277498</v>
+        <v>0.19299987427736601</v>
       </c>
       <c r="L171" s="5">
-        <v>5.1578792507079401</v>
+        <v>-2.17772620268217</v>
       </c>
       <c r="M171" s="5">
-        <v>3.5476811221150499</v>
+        <v>-3.5551349570178101</v>
       </c>
       <c r="N171" s="5">
-        <v>17.611166581099699</v>
+        <v>8.8243932787770003</v>
       </c>
       <c r="O171" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="Q171" s="6" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="R171" s="5">
-        <v>7.7403027188301099</v>
+        <v>90.659687527963101</v>
       </c>
       <c r="S171" s="5">
-        <v>7.6147217750549299</v>
+        <v>85.794380187988295</v>
       </c>
     </row>
     <row r="172" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12128,55 +12122,55 @@
         <v>394</v>
       </c>
       <c r="C172" s="5">
-        <v>3996779</v>
+        <v>4001667.25</v>
       </c>
       <c r="D172" s="5">
-        <v>1138160256</v>
+        <v>1296032384</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="F172" s="5">
-        <v>2.6065595149993901</v>
+        <v>1.2395708560943599</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H172" s="5">
-        <v>-6.9732168706804001E-2</v>
+        <v>0.32854147735019701</v>
       </c>
       <c r="I172" s="5">
-        <v>0.163102312460328</v>
+        <v>-1.40851219982709</v>
       </c>
       <c r="J172" s="5">
-        <v>0.99383690102190503</v>
+        <v>-0.29727532545130703</v>
       </c>
       <c r="K172" s="5">
-        <v>2.23709076050871</v>
+        <v>4.2388470398277498</v>
       </c>
       <c r="L172" s="5">
-        <v>-1.0065565668926499</v>
+        <v>5.1578792507079401</v>
       </c>
       <c r="M172" s="5">
-        <v>-1.6878749491954701</v>
+        <v>3.5476811221150499</v>
       </c>
       <c r="N172" s="5">
-        <v>3.8333947727339499</v>
+        <v>17.611166581099699</v>
       </c>
       <c r="O172" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="Q172" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R172" s="5">
-        <v>22.137800216674801</v>
+        <v>7.7403027188301099</v>
       </c>
       <c r="S172" s="5">
-        <v>21.495000839233398</v>
+        <v>7.6147217750549299</v>
       </c>
     </row>
     <row r="173" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12190,7 +12184,7 @@
         <v>3961068.25</v>
       </c>
       <c r="D173" s="5">
-        <v>1041060928</v>
+        <v>1040220224</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>54</v>
@@ -12199,7 +12193,7 @@
         <v>2.67357301712036</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H173" s="5">
         <v>0.27639984677947399</v>
@@ -12226,10 +12220,10 @@
         <v>23</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q173" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R173" s="5">
         <v>20.6355798533301</v>
@@ -12249,7 +12243,7 @@
         <v>3946028.25</v>
       </c>
       <c r="D174" s="5">
-        <v>403533024</v>
+        <v>402245344</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>45</v>
@@ -12258,37 +12252,37 @@
         <v>3.0634226799011199</v>
       </c>
       <c r="G174" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H174" s="5">
+        <v>0.51695950569390403</v>
+      </c>
+      <c r="I174" s="5">
+        <v>0.30220080123091198</v>
+      </c>
+      <c r="J174" s="5">
+        <v>3.0184260308537199</v>
+      </c>
+      <c r="K174" s="5">
+        <v>6.2372619323706902</v>
+      </c>
+      <c r="L174" s="5">
+        <v>-2.1906320710045399</v>
+      </c>
+      <c r="M174" s="5">
+        <v>-3.9893509186634901</v>
+      </c>
+      <c r="N174" s="5">
+        <v>2.4978576006083202</v>
+      </c>
+      <c r="O174" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P174" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q174" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="H174" s="5">
-        <v>0.51696483607857102</v>
-      </c>
-      <c r="I174" s="5">
-        <v>0.30220201473196701</v>
-      </c>
-      <c r="J174" s="5">
-        <v>3.0184324571419299</v>
-      </c>
-      <c r="K174" s="5">
-        <v>6.2372618529328996</v>
-      </c>
-      <c r="L174" s="5">
-        <v>-2.1906337631833499</v>
-      </c>
-      <c r="M174" s="5">
-        <v>-3.9893504113397502</v>
-      </c>
-      <c r="N174" s="5">
-        <v>2.4978633811862498</v>
-      </c>
-      <c r="O174" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P174" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q174" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="R174" s="5">
         <v>21.628017097565799</v>
@@ -12308,7 +12302,7 @@
         <v>3892686</v>
       </c>
       <c r="D175" s="5">
-        <v>1401755904</v>
+        <v>1403270400</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>80</v>
@@ -12317,7 +12311,7 @@
         <v>2.9320700168609601</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H175" s="5">
         <v>0.226410466090954</v>
@@ -12344,10 +12338,10 @@
         <v>23</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q175" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R175" s="5">
         <v>16.6805049423679</v>
@@ -12361,13 +12355,13 @@
         <v>400</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C176" s="5">
         <v>3861094.75</v>
       </c>
       <c r="D176" s="5">
-        <v>1404459008</v>
+        <v>1404799232</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>94</v>
@@ -12426,10 +12420,10 @@
         <v>3738985.75</v>
       </c>
       <c r="D177" s="5">
-        <v>2439209216</v>
+        <v>2429340160</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="6" t="s">
@@ -12460,10 +12454,10 @@
         <v>94</v>
       </c>
       <c r="P177" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q177" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q177" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R177" s="5">
         <v>5.4569997787475604</v>
@@ -12477,43 +12471,43 @@
         <v>403</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="C178" s="5">
-        <v>3717479.25</v>
+        <v>3693182.75</v>
       </c>
       <c r="D178" s="5">
-        <v>702276032</v>
+        <v>1566871552</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F178" s="5">
-        <v>2.1944746971130402</v>
+        <v>1.61414182186127</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H178" s="5">
-        <v>-5.5080949737041002E-2</v>
+        <v>3.9386487287251998E-2</v>
       </c>
       <c r="I178" s="5">
-        <v>0.11033019017157</v>
+        <v>0</v>
       </c>
       <c r="J178" s="5">
-        <v>0.42317979314727699</v>
+        <v>5.5674497285962E-2</v>
       </c>
       <c r="K178" s="5">
-        <v>1.4407076153607501</v>
+        <v>0.18426288301709401</v>
       </c>
       <c r="L178" s="5">
-        <v>-0.51543186510643002</v>
+        <v>0.147654246007134</v>
       </c>
       <c r="M178" s="5">
-        <v>-0.67725562222177305</v>
+        <v>6.9320821269513999E-2</v>
       </c>
       <c r="N178" s="5">
-        <v>2.1872076087197101</v>
+        <v>1.00790099660704</v>
       </c>
       <c r="O178" s="6" t="s">
         <v>23</v>
@@ -12525,54 +12519,54 @@
         <v>25</v>
       </c>
       <c r="R178" s="5">
-        <v>55.889999389648402</v>
+        <v>25.719999313354499</v>
       </c>
       <c r="S178" s="5">
-        <v>54.439998626708999</v>
+        <v>25.399999618530298</v>
       </c>
     </row>
     <row r="179" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A179" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="C179" s="5">
-        <v>3693182.75</v>
+        <v>3672305.5</v>
       </c>
       <c r="D179" s="5">
-        <v>1567179904</v>
+        <v>707004992</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F179" s="5">
-        <v>1.61414182186127</v>
+        <v>2.1944746971130402</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H179" s="5">
-        <v>3.9386487287251998E-2</v>
+        <v>-5.5080949737041002E-2</v>
       </c>
       <c r="I179" s="5">
-        <v>0</v>
+        <v>0.11033019017157</v>
       </c>
       <c r="J179" s="5">
-        <v>5.5674497285962E-2</v>
+        <v>0.42317979314727699</v>
       </c>
       <c r="K179" s="5">
-        <v>0.18426288301709401</v>
+        <v>1.4407076153607501</v>
       </c>
       <c r="L179" s="5">
-        <v>0.147654246007134</v>
+        <v>-0.51543186510643002</v>
       </c>
       <c r="M179" s="5">
-        <v>6.9320821269513999E-2</v>
+        <v>-0.67725562222177305</v>
       </c>
       <c r="N179" s="5">
-        <v>1.00790099660704</v>
+        <v>2.1872076087197101</v>
       </c>
       <c r="O179" s="6" t="s">
         <v>23</v>
@@ -12584,10 +12578,10 @@
         <v>25</v>
       </c>
       <c r="R179" s="5">
-        <v>25.719999313354499</v>
+        <v>55.889999389648402</v>
       </c>
       <c r="S179" s="5">
-        <v>25.399999618530298</v>
+        <v>54.439998626708999</v>
       </c>
     </row>
     <row r="180" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12601,10 +12595,10 @@
         <v>3564597.5</v>
       </c>
       <c r="D180" s="5">
-        <v>1427415168</v>
+        <v>1406183936</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="6" t="s">
@@ -12635,10 +12629,10 @@
         <v>94</v>
       </c>
       <c r="P180" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q180" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q180" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R180" s="5">
         <v>6.6090002059936497</v>
@@ -12658,7 +12652,7 @@
         <v>3497990.5</v>
       </c>
       <c r="D181" s="5">
-        <v>1918463744</v>
+        <v>1923861504</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>40</v>
@@ -12667,7 +12661,7 @@
         <v>2.9037704467773402</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H181" s="5">
         <v>0.107401548092723</v>
@@ -12694,10 +12688,10 @@
         <v>23</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q181" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R181" s="5">
         <v>16.037025486109599</v>
@@ -12726,7 +12720,7 @@
         <v>2.1548256874084499</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H182" s="5">
         <v>0.27639984677947399</v>
@@ -12753,10 +12747,10 @@
         <v>23</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q182" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R182" s="5">
         <v>20.087951447454898</v>
@@ -12776,52 +12770,52 @@
         <v>3475470.25</v>
       </c>
       <c r="D183" s="5">
-        <v>1602768896</v>
+        <v>1606913152</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F183" s="5">
         <v>0.39923557639121998</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H183" s="5">
-        <v>0.198447467044294</v>
+        <v>2.9984671451722001E-2</v>
       </c>
       <c r="I183" s="5">
-        <v>-1.1260896659742901</v>
+        <v>0.54241240157564297</v>
       </c>
       <c r="J183" s="5">
-        <v>-1.4045022408455501</v>
+        <v>-1.4847527112302299</v>
       </c>
       <c r="K183" s="5">
-        <v>1.3006588262382399</v>
+        <v>1.6783407340851899</v>
       </c>
       <c r="L183" s="5">
-        <v>2.8946581230571802</v>
+        <v>2.4311929032164099</v>
       </c>
       <c r="M183" s="5">
-        <v>1.43227571767484</v>
+        <v>1.46268985229479</v>
       </c>
       <c r="N183" s="5">
-        <v>10.8319671874045</v>
+        <v>11.4047372970751</v>
       </c>
       <c r="O183" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P183" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q183" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q183" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R183" s="5">
         <v>190.83588865356401</v>
       </c>
       <c r="S183" s="5">
-        <v>186.30830383300801</v>
+        <v>186.36416625976599</v>
       </c>
     </row>
     <row r="184" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12835,52 +12829,52 @@
         <v>3389477</v>
       </c>
       <c r="D184" s="5">
-        <v>1313308288</v>
+        <v>1317415680</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F184" s="5">
         <v>0.25171509385108898</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H184" s="5">
-        <v>1.09006269906298</v>
+        <v>0.31275361440363803</v>
       </c>
       <c r="I184" s="5">
-        <v>-1.87132349048274</v>
+        <v>0.81674978224279804</v>
       </c>
       <c r="J184" s="5">
-        <v>0.82205335162461901</v>
+        <v>0.33503254334170701</v>
       </c>
       <c r="K184" s="5">
-        <v>4.20336400449506</v>
+        <v>4.2181153871360797</v>
       </c>
       <c r="L184" s="5">
-        <v>2.6538354580077499</v>
+        <v>1.7375090537454101</v>
       </c>
       <c r="M184" s="5">
-        <v>-0.38277740405848698</v>
+        <v>-7.1220939821158999E-2</v>
       </c>
       <c r="N184" s="5">
-        <v>7.8295624709613998</v>
+        <v>8.4938739800142198</v>
       </c>
       <c r="O184" s="6" t="s">
         <v>104</v>
       </c>
       <c r="P184" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q184" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q184" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R184" s="5">
         <v>28.557656361389199</v>
       </c>
       <c r="S184" s="5">
-        <v>27.680250167846701</v>
+        <v>27.766820907592798</v>
       </c>
     </row>
     <row r="185" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12894,7 +12888,7 @@
         <v>3385133.5</v>
       </c>
       <c r="D185" s="5">
-        <v>1816980352</v>
+        <v>1817321088</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>54</v>
@@ -12903,43 +12897,43 @@
         <v>1.7899868488311801</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H185" s="5">
-        <v>0.106474445439542</v>
+        <v>1.8748023982583999E-2</v>
       </c>
       <c r="I185" s="5">
-        <v>-1.13173722502858</v>
+        <v>0.39745103047654801</v>
       </c>
       <c r="J185" s="5">
-        <v>-1.2473598760584601</v>
+        <v>-1.4396356802222501</v>
       </c>
       <c r="K185" s="5">
-        <v>1.6468242378929501</v>
+        <v>2.1102379370965698</v>
       </c>
       <c r="L185" s="5">
-        <v>3.4269962881589699</v>
+        <v>2.8447465863692201</v>
       </c>
       <c r="M185" s="5">
-        <v>1.85633605825188</v>
+        <v>1.8754321085638701</v>
       </c>
       <c r="N185" s="5">
-        <v>14.2135126629728</v>
+        <v>15.0324969235862</v>
       </c>
       <c r="O185" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P185" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q185" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q185" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R185" s="5">
         <v>152.34992346191399</v>
       </c>
       <c r="S185" s="5">
-        <v>148.92936706543</v>
+        <v>148.95729064941401</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12947,13 +12941,13 @@
         <v>418</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C186" s="5">
         <v>3339627.5</v>
       </c>
       <c r="D186" s="5">
-        <v>1339897472</v>
+        <v>1340151680</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>94</v>
@@ -13009,13 +13003,13 @@
         <v>420</v>
       </c>
       <c r="C187" s="5">
-        <v>3330614</v>
+        <v>3331730.5</v>
       </c>
       <c r="D187" s="5">
-        <v>678079168</v>
+        <v>673267840</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="6" t="s">
@@ -13046,10 +13040,10 @@
         <v>94</v>
       </c>
       <c r="P187" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q187" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q187" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R187" s="5">
         <v>6.2656198310852096</v>
@@ -13066,55 +13060,53 @@
         <v>422</v>
       </c>
       <c r="C188" s="5">
-        <v>3288357.25</v>
+        <v>3242703.5</v>
       </c>
       <c r="D188" s="5">
-        <v>916430144</v>
+        <v>504798016</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F188" s="5">
-        <v>2.5604298114776598</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F188" s="5"/>
       <c r="G188" s="6" t="s">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="H188" s="5">
-        <v>0.477390427957536</v>
+        <v>-2.0004645107596E-2</v>
       </c>
       <c r="I188" s="5">
-        <v>-1.4816055579848999</v>
+        <v>-2.0004645107596E-2</v>
       </c>
       <c r="J188" s="5">
-        <v>-1.8475585328902</v>
+        <v>-0.23956664308089101</v>
       </c>
       <c r="K188" s="5">
-        <v>-0.34488492297427598</v>
+        <v>-0.40902793067751902</v>
       </c>
       <c r="L188" s="5">
-        <v>1.61207642894832</v>
+        <v>-1.40331273059905</v>
       </c>
       <c r="M188" s="5">
-        <v>0.22360119659194899</v>
+        <v>-1.4226412214820501</v>
       </c>
       <c r="N188" s="5">
-        <v>14.730451237854099</v>
+        <v>-1.2228551736775</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="R188" s="5">
-        <v>8.1813598951561897</v>
+        <v>51.630001068115199</v>
       </c>
       <c r="S188" s="5">
-        <v>7.7588481903076199</v>
+        <v>49.970001220703097</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13125,53 +13117,55 @@
         <v>424</v>
       </c>
       <c r="C189" s="5">
-        <v>3242703.5</v>
+        <v>3233046.25</v>
       </c>
       <c r="D189" s="5">
-        <v>504697024</v>
+        <v>434530016</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F189" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="F189" s="5">
+        <v>5.2721276283264196</v>
+      </c>
       <c r="G189" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>-2.0004645107596E-2</v>
+        <v>0.241123658323183</v>
       </c>
       <c r="I189" s="5">
-        <v>-2.0004645107596E-2</v>
+        <v>0.39517081929900699</v>
       </c>
       <c r="J189" s="5">
-        <v>-0.23956664308089101</v>
+        <v>0.93548397961056295</v>
       </c>
       <c r="K189" s="5">
-        <v>-0.40902793067751902</v>
+        <v>3.96263367432095</v>
       </c>
       <c r="L189" s="5">
-        <v>-1.40331273059905</v>
+        <v>1.46923219775144</v>
       </c>
       <c r="M189" s="5">
-        <v>-1.4226412214820501</v>
+        <v>0.93287498146634695</v>
       </c>
       <c r="N189" s="5">
-        <v>-1.2228551736775</v>
+        <v>12.015133264505</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="Q189" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R189" s="5">
-        <v>51.630001068115199</v>
+        <v>46.7299995422363</v>
       </c>
       <c r="S189" s="5">
-        <v>49.970001220703097</v>
+        <v>45.7299995422363</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13182,55 +13176,55 @@
         <v>426</v>
       </c>
       <c r="C190" s="5">
-        <v>3226031.25</v>
+        <v>3217215.25</v>
       </c>
       <c r="D190" s="5">
-        <v>434435008</v>
+        <v>919027328</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F190" s="5">
-        <v>5.2721276283264196</v>
+        <v>2.5579319000244101</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="H190" s="5">
-        <v>0.241123658323183</v>
+        <v>9.7658487357011006E-2</v>
       </c>
       <c r="I190" s="5">
-        <v>0.39517081929900699</v>
+        <v>0.73225869135504795</v>
       </c>
       <c r="J190" s="5">
-        <v>0.93548397961056295</v>
+        <v>-2.1388950433469001</v>
       </c>
       <c r="K190" s="5">
-        <v>3.96263367432095</v>
+        <v>0.19187418454680299</v>
       </c>
       <c r="L190" s="5">
-        <v>1.46923219775144</v>
+        <v>1.33667562579121</v>
       </c>
       <c r="M190" s="5">
-        <v>0.93287498146634695</v>
+        <v>0.32147804949527198</v>
       </c>
       <c r="N190" s="5">
-        <v>12.015133264505</v>
+        <v>15.5768536697376</v>
       </c>
       <c r="O190" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="R190" s="5">
-        <v>46.7299995422363</v>
+        <v>8.1813598951561897</v>
       </c>
       <c r="S190" s="5">
-        <v>45.7299995422363</v>
+        <v>7.7664251327514604</v>
       </c>
     </row>
     <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13244,7 +13238,7 @@
         <v>3183843.25</v>
       </c>
       <c r="D191" s="5">
-        <v>893538752</v>
+        <v>899016704</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>94</v>
@@ -13253,7 +13247,7 @@
         <v>3.2355899810790998</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H191" s="5">
         <v>0.179512222339406</v>
@@ -13280,10 +13274,10 @@
         <v>23</v>
       </c>
       <c r="P191" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q191" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R191" s="5">
         <v>17.2118893575526</v>
@@ -13303,7 +13297,7 @@
         <v>3175323.75</v>
       </c>
       <c r="D192" s="5">
-        <v>401615104</v>
+        <v>401704448</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>59</v>
@@ -13362,7 +13356,7 @@
         <v>3146417.25</v>
       </c>
       <c r="D193" s="5">
-        <v>292735712</v>
+        <v>292647296</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>45</v>
@@ -13371,7 +13365,7 @@
         <v>2.03021168708801</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H193" s="5">
         <v>0.27639984677947399</v>
@@ -13398,10 +13392,10 @@
         <v>23</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q193" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R193" s="5">
         <v>13.7597212980031</v>
@@ -13421,7 +13415,7 @@
         <v>3063045.75</v>
       </c>
       <c r="D194" s="5">
-        <v>2412569600</v>
+        <v>2423136000</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>28</v>
@@ -13430,43 +13424,43 @@
         <v>2.1412603855133101</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H194" s="5">
-        <v>0.30330371073790102</v>
+        <v>0.43796456246383297</v>
       </c>
       <c r="I194" s="5">
-        <v>-1.12322869183235</v>
+        <v>1.0741821693061699</v>
       </c>
       <c r="J194" s="5">
-        <v>-0.53234719452448498</v>
+        <v>-0.35716623994232999</v>
       </c>
       <c r="K194" s="5">
-        <v>2.6177264979628099</v>
+        <v>3.1321679876689501</v>
       </c>
       <c r="L194" s="5">
-        <v>0.57675169883288901</v>
+        <v>7.5540919737714998E-2</v>
       </c>
       <c r="M194" s="5">
-        <v>-1.71083823490464</v>
+        <v>-1.28036653763077</v>
       </c>
       <c r="N194" s="5">
-        <v>13.0042700113205</v>
+        <v>13.8755495404712</v>
       </c>
       <c r="O194" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P194" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q194" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q194" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R194" s="5">
         <v>220.201228662109</v>
       </c>
       <c r="S194" s="5">
-        <v>213.60597229003901</v>
+        <v>214.54148864746099</v>
       </c>
     </row>
     <row r="195" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13477,53 +13471,55 @@
         <v>436</v>
       </c>
       <c r="C195" s="5">
-        <v>3038833</v>
+        <v>3014239</v>
       </c>
       <c r="D195" s="5">
-        <v>1310217344</v>
+        <v>857199616</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F195" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F195" s="5">
+        <v>3.2432432174682599</v>
+      </c>
       <c r="G195" s="6" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="H195" s="5">
-        <v>-2.2087600207998E-2</v>
+        <v>0.21751629366835201</v>
       </c>
       <c r="I195" s="5">
-        <v>-1.35552176843808</v>
+        <v>-1.1961721909165901</v>
       </c>
       <c r="J195" s="5">
-        <v>-0.41286857121252102</v>
+        <v>-0.97592464944365998</v>
       </c>
       <c r="K195" s="5">
-        <v>-0.33470301476403702</v>
+        <v>3.4861411828533999</v>
       </c>
       <c r="L195" s="5">
-        <v>-3.69418712556929</v>
+        <v>2.4551439216073101</v>
       </c>
       <c r="M195" s="5">
-        <v>-4.9209315220827801</v>
+        <v>1.2129593509607299</v>
       </c>
       <c r="N195" s="5">
-        <v>4.8084871521391497</v>
+        <v>12.140927494640099</v>
       </c>
       <c r="O195" s="6" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="P195" s="6" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="Q195" s="6" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="R195" s="5">
-        <v>101.818064241965</v>
+        <v>14.156876228985199</v>
       </c>
       <c r="S195" s="5">
-        <v>95.969779968261705</v>
+        <v>13.8362741470337</v>
       </c>
     </row>
     <row r="196" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13534,55 +13530,55 @@
         <v>438</v>
       </c>
       <c r="C196" s="5">
-        <v>3014239</v>
+        <v>2965418.25</v>
       </c>
       <c r="D196" s="5">
-        <v>857703616</v>
+        <v>974686528</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F196" s="5">
-        <v>3.2432432174682599</v>
+        <v>6.4180793762206996</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H196" s="5">
-        <v>0.21751629366835201</v>
+        <v>0.141445959172493</v>
       </c>
       <c r="I196" s="5">
-        <v>-1.1961721909165901</v>
+        <v>0.52058975258175699</v>
       </c>
       <c r="J196" s="5">
-        <v>-0.97592464944365998</v>
+        <v>1.7368822746191701</v>
       </c>
       <c r="K196" s="5">
-        <v>3.4861411828533999</v>
+        <v>4.5907643907342299</v>
       </c>
       <c r="L196" s="5">
-        <v>2.4551439216073101</v>
+        <v>5.9444673991211801</v>
       </c>
       <c r="M196" s="5">
-        <v>1.2129593509607299</v>
+        <v>4.8015764077903098</v>
       </c>
       <c r="N196" s="5">
-        <v>12.140927494640099</v>
+        <v>20.774429029218201</v>
       </c>
       <c r="O196" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P196" s="6" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="Q196" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R196" s="5">
-        <v>14.156876228985199</v>
+        <v>21.319999694824201</v>
       </c>
       <c r="S196" s="5">
-        <v>13.8362741470337</v>
+        <v>21.2399997711182</v>
       </c>
     </row>
     <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13590,294 +13586,294 @@
         <v>439</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="C197" s="5">
-        <v>3003401</v>
+        <v>2907173.5</v>
       </c>
       <c r="D197" s="5">
-        <v>277407392</v>
+        <v>1126143616</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F197" s="5">
-        <v>2.25246357917786</v>
+        <v>1.8569310903549201</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="H197" s="5">
-        <v>0.339529852487575</v>
+        <v>-0.111072515332411</v>
       </c>
       <c r="I197" s="5">
-        <v>1.5965169899668299</v>
+        <v>0</v>
       </c>
       <c r="J197" s="5">
-        <v>4.3430176540704597</v>
+        <v>-3.087000406653E-2</v>
       </c>
       <c r="K197" s="5">
-        <v>5.1812141714972597</v>
+        <v>1.0017353091899901</v>
       </c>
       <c r="L197" s="5">
-        <v>-8.8024919205671104</v>
+        <v>-0.26965770244756798</v>
       </c>
       <c r="M197" s="5">
-        <v>-8.4339903939517207</v>
+        <v>-0.615824980643498</v>
       </c>
       <c r="N197" s="5">
-        <v>-10.456447954718</v>
+        <v>2.3519111448779801</v>
       </c>
       <c r="O197" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="Q197" s="6" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="R197" s="5">
-        <v>1.82250929867804</v>
+        <v>27.409999847412099</v>
       </c>
       <c r="S197" s="5">
-        <v>1.52181673049927</v>
+        <v>26.9799995422363</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A198" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>442</v>
+        <v>285</v>
       </c>
       <c r="C198" s="5">
-        <v>2965418.25</v>
+        <v>2893914.25</v>
       </c>
       <c r="D198" s="5">
-        <v>973854016</v>
+        <v>1022633664</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F198" s="5">
-        <v>6.4180793762206996</v>
+        <v>1.66588854789734</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H198" s="5">
-        <v>0.141445959172493</v>
+        <v>-6.7276921269831993E-2</v>
       </c>
       <c r="I198" s="5">
-        <v>0.52058975258175699</v>
+        <v>-1.8145624974263998E-2</v>
       </c>
       <c r="J198" s="5">
-        <v>1.7368822746191701</v>
+        <v>-6.6769863199639999E-3</v>
       </c>
       <c r="K198" s="5">
-        <v>4.5907643907342299</v>
+        <v>0.97653302121252195</v>
       </c>
       <c r="L198" s="5">
-        <v>5.9444673991211801</v>
+        <v>-0.36003376169514401</v>
       </c>
       <c r="M198" s="5">
-        <v>4.8015764077903098</v>
+        <v>-0.668238699560875</v>
       </c>
       <c r="N198" s="5">
-        <v>20.774429029218201</v>
+        <v>2.3770729229797101</v>
       </c>
       <c r="O198" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q198" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R198" s="5">
-        <v>21.319999694824201</v>
+        <v>22.629999160766602</v>
       </c>
       <c r="S198" s="5">
-        <v>21.2399997711182</v>
+        <v>22.280000686645501</v>
       </c>
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A199" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="C199" s="5">
-        <v>2907173.5</v>
+        <v>2890536.5</v>
       </c>
       <c r="D199" s="5">
-        <v>1126414976</v>
+        <v>1182023296</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F199" s="5">
-        <v>1.8569310903549201</v>
+        <v>4.1830062866210902</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H199" s="5">
-        <v>-0.111072515332411</v>
+        <v>0.20363177628246501</v>
       </c>
       <c r="I199" s="5">
-        <v>0</v>
+        <v>-0.70545813328407603</v>
       </c>
       <c r="J199" s="5">
-        <v>-3.087000406653E-2</v>
+        <v>-0.36862992147449503</v>
       </c>
       <c r="K199" s="5">
-        <v>1.0017353091899901</v>
+        <v>6.6971518481487902</v>
       </c>
       <c r="L199" s="5">
-        <v>-0.26965770244756798</v>
+        <v>19.690836561232501</v>
       </c>
       <c r="M199" s="5">
-        <v>-0.615824980643498</v>
+        <v>18.63225678229</v>
       </c>
       <c r="N199" s="5">
-        <v>2.3519111448779801</v>
+        <v>47.8524611989357</v>
       </c>
       <c r="O199" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P199" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q199" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R199" s="5">
-        <v>27.409999847412099</v>
+        <v>11.5496230040426</v>
       </c>
       <c r="S199" s="5">
-        <v>26.9799995422363</v>
+        <v>11.194211959838899</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A200" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="C200" s="5">
-        <v>2890263.5</v>
+        <v>2865338</v>
       </c>
       <c r="D200" s="5">
-        <v>1019310080</v>
+        <v>2802086656</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F200" s="5">
-        <v>1.66588854789734</v>
+        <v>0.491012692451477</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="H200" s="5">
-        <v>-6.7276921269831993E-2</v>
+        <v>0.33493054311506398</v>
       </c>
       <c r="I200" s="5">
-        <v>-1.8145624974263998E-2</v>
+        <v>-1.4377641830939301</v>
       </c>
       <c r="J200" s="5">
-        <v>-6.6769863199639999E-3</v>
+        <v>-0.38528772861056199</v>
       </c>
       <c r="K200" s="5">
-        <v>0.97653302121252195</v>
+        <v>4.1134949011942599</v>
       </c>
       <c r="L200" s="5">
-        <v>-0.36003376169514401</v>
+        <v>5.0709202941800404</v>
       </c>
       <c r="M200" s="5">
-        <v>-0.668238699560875</v>
+        <v>3.3732079346805</v>
       </c>
       <c r="N200" s="5">
-        <v>2.3770729229797101</v>
+        <v>17.4044475871111</v>
       </c>
       <c r="O200" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P200" s="6" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="Q200" s="6" t="s">
-        <v>25</v>
+        <v>445</v>
       </c>
       <c r="R200" s="5">
-        <v>22.629999160766602</v>
+        <v>162.281386701965</v>
       </c>
       <c r="S200" s="5">
-        <v>22.280000686645501</v>
+        <v>159.24801635742199</v>
       </c>
     </row>
     <row r="201" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A201" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C201" s="5">
-        <v>2865338</v>
+        <v>2802903.75</v>
       </c>
       <c r="D201" s="5">
-        <v>2798125312</v>
+        <v>306270016</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F201" s="5">
-        <v>0.491012692451477</v>
+        <v>0.16700480878353099</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="H201" s="5">
-        <v>0.33493054311506398</v>
+        <v>-0.21311062855423599</v>
       </c>
       <c r="I201" s="5">
-        <v>-1.4377641830939301</v>
+        <v>0.21401259772928499</v>
       </c>
       <c r="J201" s="5">
-        <v>-0.38528772861056199</v>
+        <v>-0.42530475452189398</v>
       </c>
       <c r="K201" s="5">
-        <v>4.1134949011942599</v>
+        <v>-2.1019585840050601</v>
       </c>
       <c r="L201" s="5">
-        <v>5.0709202941800404</v>
+        <v>-8.9077029306609692</v>
       </c>
       <c r="M201" s="5">
-        <v>3.3732079346805</v>
+        <v>-8.9519718975112994</v>
       </c>
       <c r="N201" s="5">
-        <v>17.4044475871111</v>
+        <v>-15.342778350310301</v>
       </c>
       <c r="O201" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P201" s="6" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="Q201" s="6" t="s">
-        <v>447</v>
+        <v>25</v>
       </c>
       <c r="R201" s="5">
-        <v>162.281386701965</v>
+        <v>22.629999160766602</v>
       </c>
       <c r="S201" s="5">
-        <v>159.24801635742199</v>
+        <v>18.7299995422363</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13888,55 +13884,55 @@
         <v>449</v>
       </c>
       <c r="C202" s="5">
-        <v>2855133.25</v>
+        <v>2802290.25</v>
       </c>
       <c r="D202" s="5">
-        <v>1115146752</v>
+        <v>1116987264</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F202" s="5">
-        <v>1.78517317771912</v>
+        <v>1.7844668626785301</v>
       </c>
       <c r="G202" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H202" s="5">
+        <v>1.9782986450512002E-2</v>
+      </c>
+      <c r="I202" s="5">
+        <v>0.77634308688121501</v>
+      </c>
+      <c r="J202" s="5">
+        <v>-1.76784946926638</v>
+      </c>
+      <c r="K202" s="5">
+        <v>0.12798626155190501</v>
+      </c>
+      <c r="L202" s="5">
+        <v>-2.45340304534353</v>
+      </c>
+      <c r="M202" s="5">
+        <v>-3.6013754180002899</v>
+      </c>
+      <c r="N202" s="5">
+        <v>8.7366332308136396</v>
+      </c>
+      <c r="O202" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P202" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q202" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="H202" s="5">
-        <v>0.63669235740024799</v>
-      </c>
-      <c r="I202" s="5">
-        <v>-2.0808838825911602</v>
-      </c>
-      <c r="J202" s="5">
-        <v>-1.4555738461757299</v>
-      </c>
-      <c r="K202" s="5">
-        <v>7.7218563180769997E-3</v>
-      </c>
-      <c r="L202" s="5">
-        <v>-2.3175968002802101</v>
-      </c>
-      <c r="M202" s="5">
-        <v>-3.6204421728662801</v>
-      </c>
-      <c r="N202" s="5">
-        <v>7.8550992973959204</v>
-      </c>
-      <c r="O202" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P202" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q202" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="R202" s="5">
         <v>40.500221851977599</v>
       </c>
       <c r="S202" s="5">
-        <v>38.294158935546903</v>
+        <v>38.301734924316399</v>
       </c>
     </row>
     <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13947,55 +13943,55 @@
         <v>451</v>
       </c>
       <c r="C203" s="5">
-        <v>2850050.5</v>
+        <v>2801389</v>
       </c>
       <c r="D203" s="5">
-        <v>1184347648</v>
+        <v>715591232</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F203" s="5">
-        <v>4.1830062866210902</v>
+        <v>2.3603978157043501</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H203" s="5">
-        <v>0.20363559871579001</v>
+        <v>-0.13095615058857901</v>
       </c>
       <c r="I203" s="5">
-        <v>-0.70546030323851405</v>
+        <v>0.41699209290631001</v>
       </c>
       <c r="J203" s="5">
-        <v>-0.36863141022710499</v>
+        <v>1.6770647518264501</v>
       </c>
       <c r="K203" s="5">
-        <v>6.6971518461244699</v>
+        <v>3.2717474549923198</v>
       </c>
       <c r="L203" s="5">
-        <v>19.6908391678569</v>
+        <v>-1.2667464968517801</v>
       </c>
       <c r="M203" s="5">
-        <v>18.632253224218299</v>
+        <v>-1.85915645538913</v>
       </c>
       <c r="N203" s="5">
-        <v>47.852457937957297</v>
+        <v>2.6823391994896402</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="Q203" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R203" s="5">
-        <v>11.5496230040426</v>
+        <v>94.930000305175795</v>
       </c>
       <c r="S203" s="5">
-        <v>11.194211959838899</v>
+        <v>91.510002136230497</v>
       </c>
     </row>
     <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14006,55 +14002,53 @@
         <v>453</v>
       </c>
       <c r="C204" s="5">
-        <v>2802903.75</v>
+        <v>2772220.25</v>
       </c>
       <c r="D204" s="5">
-        <v>307172032</v>
+        <v>1163076992</v>
       </c>
       <c r="E204" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F204" s="5">
-        <v>0.16700480878353099</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="H204" s="5">
-        <v>-0.21311089265743099</v>
+        <v>0.376434635174627</v>
       </c>
       <c r="I204" s="5">
-        <v>0.21401287873599201</v>
+        <v>-0.70269669884749397</v>
       </c>
       <c r="J204" s="5">
-        <v>-0.42530529493582903</v>
+        <v>-9.4197162905095999E-2</v>
       </c>
       <c r="K204" s="5">
-        <v>-2.1019649862916601</v>
+        <v>3.44575241390026</v>
       </c>
       <c r="L204" s="5">
-        <v>-8.9077075793068801</v>
+        <v>1.52834784399338</v>
       </c>
       <c r="M204" s="5">
-        <v>-8.9519723938479192</v>
+        <v>0.35589173993260098</v>
       </c>
       <c r="N204" s="5">
-        <v>-15.3427811157229</v>
+        <v>7.62765791002571</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R204" s="5">
-        <v>22.629999160766602</v>
+        <v>41.428098374006503</v>
       </c>
       <c r="S204" s="5">
-        <v>18.7299995422363</v>
+        <v>40.785301208496101</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14062,43 +14056,43 @@
         <v>454</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>455</v>
+        <v>260</v>
       </c>
       <c r="C205" s="5">
-        <v>2801389</v>
+        <v>2738742.25</v>
       </c>
       <c r="D205" s="5">
-        <v>714693120</v>
+        <v>480569280</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F205" s="5">
-        <v>2.3603978157043501</v>
+        <v>0.77226537466049205</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>-0.13095615058857901</v>
+        <v>1.9924913257062998E-2</v>
       </c>
       <c r="I205" s="5">
-        <v>0.41699209290631001</v>
+        <v>6.4326489561694997E-2</v>
       </c>
       <c r="J205" s="5">
-        <v>1.6770647518264501</v>
+        <v>9.5667884317852003E-2</v>
       </c>
       <c r="K205" s="5">
-        <v>3.2717474549923198</v>
+        <v>0.30477938258732801</v>
       </c>
       <c r="L205" s="5">
-        <v>-1.2667464968517801</v>
+        <v>0.84734102947015</v>
       </c>
       <c r="M205" s="5">
-        <v>-1.85915645538913</v>
+        <v>0.84734102947015</v>
       </c>
       <c r="N205" s="5">
-        <v>2.6823391994896402</v>
+        <v>2.8266489143537301</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>23</v>
@@ -14110,67 +14104,69 @@
         <v>25</v>
       </c>
       <c r="R205" s="5">
-        <v>94.930000305175795</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="S205" s="5">
-        <v>91.510002136230497</v>
+        <v>25.094999313354499</v>
       </c>
     </row>
     <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A206" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="C206" s="5">
+        <v>2707482</v>
+      </c>
+      <c r="D206" s="5">
+        <v>6246054400</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F206" s="5">
+        <v>2.8679664134979199</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H206" s="5">
+        <v>0.20739498024326999</v>
+      </c>
+      <c r="I206" s="5">
+        <v>-0.921471665715345</v>
+      </c>
+      <c r="J206" s="5">
+        <v>-0.58051666035333604</v>
+      </c>
+      <c r="K206" s="5">
+        <v>2.14269706507348</v>
+      </c>
+      <c r="L206" s="5">
+        <v>3.29015264159582</v>
+      </c>
+      <c r="M206" s="5">
+        <v>2.6853624875169202</v>
+      </c>
+      <c r="N206" s="5">
+        <v>11.578122121136399</v>
+      </c>
+      <c r="O206" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P206" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C206" s="5">
-        <v>2772220.25</v>
-      </c>
-      <c r="D206" s="5">
-        <v>1162845184</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F206" s="5"/>
-      <c r="G206" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H206" s="5">
-        <v>0.376434635174627</v>
-      </c>
-      <c r="I206" s="5">
-        <v>-0.70269669884749397</v>
-      </c>
-      <c r="J206" s="5">
-        <v>-9.4197162905095999E-2</v>
-      </c>
-      <c r="K206" s="5">
-        <v>3.44575241390026</v>
-      </c>
-      <c r="L206" s="5">
-        <v>1.52834784399338</v>
-      </c>
-      <c r="M206" s="5">
-        <v>0.35589173993260098</v>
-      </c>
-      <c r="N206" s="5">
-        <v>7.62765791002571</v>
-      </c>
-      <c r="O206" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P206" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="Q206" s="6" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="R206" s="5">
-        <v>41.428098374006503</v>
+        <v>5.59299993515015</v>
       </c>
       <c r="S206" s="5">
-        <v>40.785301208496101</v>
+        <v>5.41149997711182</v>
       </c>
     </row>
     <row r="207" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14178,117 +14174,115 @@
         <v>458</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>260</v>
+        <v>459</v>
       </c>
       <c r="C207" s="5">
-        <v>2738742.25</v>
+        <v>2702107.75</v>
       </c>
       <c r="D207" s="5">
-        <v>480569280</v>
+        <v>1740285184</v>
       </c>
       <c r="E207" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F207" s="5"/>
+      <c r="G207" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F207" s="5">
-        <v>0.77226537466049205</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="H207" s="5">
-        <v>1.9924913257062998E-2</v>
+        <v>3.2417814771835002E-2</v>
       </c>
       <c r="I207" s="5">
-        <v>6.4326489561694997E-2</v>
+        <v>0.113562125947975</v>
       </c>
       <c r="J207" s="5">
-        <v>9.5667884317852003E-2</v>
+        <v>1.03143752824097</v>
       </c>
       <c r="K207" s="5">
-        <v>0.30477938258732801</v>
+        <v>2.5764663416839602</v>
       </c>
       <c r="L207" s="5">
-        <v>0.84734102947015</v>
+        <v>2.8157306373681101</v>
       </c>
       <c r="M207" s="5">
-        <v>0.84734102947015</v>
+        <v>2.4232349566188902</v>
       </c>
       <c r="N207" s="5">
-        <v>2.8266489143537301</v>
+        <v>10.710443751991599</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="P207" s="6" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="Q207" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R207" s="5">
-        <v>25.129999160766602</v>
+        <v>6.2039999961853001</v>
       </c>
       <c r="S207" s="5">
-        <v>25.094999313354499</v>
+        <v>6.1710000038146999</v>
       </c>
     </row>
     <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A208" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C208" s="5">
-        <v>2707482</v>
+        <v>2680107.5</v>
       </c>
       <c r="D208" s="5">
-        <v>6251037696</v>
+        <v>692474176</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F208" s="5">
-        <v>2.8679664134979199</v>
+        <v>4.0020780563354501</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H208" s="5">
-        <v>0.20739498024326999</v>
+        <v>0.22433406599040601</v>
       </c>
       <c r="I208" s="5">
-        <v>-0.921471665715345</v>
+        <v>-1.24072864473714</v>
       </c>
       <c r="J208" s="5">
-        <v>-0.58051666035333604</v>
+        <v>-1.1731523474244701</v>
       </c>
       <c r="K208" s="5">
-        <v>2.14269706507348</v>
+        <v>3.3070591630673101</v>
       </c>
       <c r="L208" s="5">
-        <v>3.29015264159582</v>
+        <v>7.7012200019015404</v>
       </c>
       <c r="M208" s="5">
-        <v>2.6853624875169202</v>
+        <v>7.1393747478718703</v>
       </c>
       <c r="N208" s="5">
-        <v>11.578122121136399</v>
+        <v>20.864886446418101</v>
       </c>
       <c r="O208" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P208" s="6" t="s">
-        <v>461</v>
+        <v>215</v>
       </c>
       <c r="Q208" s="6" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="R208" s="5">
-        <v>5.59299993515015</v>
+        <v>15.9595626689442</v>
       </c>
       <c r="S208" s="5">
-        <v>5.41149997711182</v>
+        <v>15.6491346359253</v>
       </c>
     </row>
     <row r="209" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14299,53 +14293,53 @@
         <v>463</v>
       </c>
       <c r="C209" s="5">
-        <v>2702107.75</v>
+        <v>2656687.75</v>
       </c>
       <c r="D209" s="5">
-        <v>1738313344</v>
+        <v>1318634112</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="6" t="s">
         <v>94</v>
       </c>
       <c r="H209" s="5">
-        <v>3.2417814771835002E-2</v>
+        <v>-3.2141053308231998E-2</v>
       </c>
       <c r="I209" s="5">
-        <v>0.113562125947975</v>
+        <v>2.8449636398475E-2</v>
       </c>
       <c r="J209" s="5">
-        <v>1.03143752824097</v>
+        <v>-0.66573702151977399</v>
       </c>
       <c r="K209" s="5">
-        <v>2.5764663416839602</v>
+        <v>-0.25940384605502897</v>
       </c>
       <c r="L209" s="5">
-        <v>2.8157306373681101</v>
+        <v>-3.8118138745305701</v>
       </c>
       <c r="M209" s="5">
-        <v>2.4232349566188902</v>
+        <v>-4.9514909361672501</v>
       </c>
       <c r="N209" s="5">
-        <v>10.710443751991599</v>
+        <v>4.5684469682171702</v>
       </c>
       <c r="O209" s="6" t="s">
         <v>94</v>
       </c>
       <c r="P209" s="6" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="Q209" s="6" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="R209" s="5">
-        <v>6.1900000572204599</v>
+        <v>101.818064241965</v>
       </c>
       <c r="S209" s="5">
-        <v>6.1710000038146999</v>
+        <v>95.938934326171903</v>
       </c>
     </row>
     <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14353,117 +14347,117 @@
         <v>464</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="C210" s="5">
-        <v>2680107.5</v>
+        <v>2653665.75</v>
       </c>
       <c r="D210" s="5">
-        <v>687779456</v>
+        <v>628197824</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F210" s="5">
-        <v>4.0020780563354501</v>
+        <v>6.93749904632568</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>0.22433406599040601</v>
+        <v>6.8033729594584993E-2</v>
       </c>
       <c r="I210" s="5">
-        <v>-1.24072864473714</v>
+        <v>0.74117978318051203</v>
       </c>
       <c r="J210" s="5">
-        <v>-1.1731523474244701</v>
+        <v>7.5217469469036E-2</v>
       </c>
       <c r="K210" s="5">
-        <v>3.3070591630673101</v>
+        <v>2.2467057162842301</v>
       </c>
       <c r="L210" s="5">
-        <v>7.7012200019015404</v>
+        <v>2.1360540376435599</v>
       </c>
       <c r="M210" s="5">
-        <v>7.1393747478718703</v>
+        <v>1.82382105195416</v>
       </c>
       <c r="N210" s="5">
-        <v>20.864886446418101</v>
+        <v>6.5715454110211002</v>
       </c>
       <c r="O210" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P210" s="6" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="Q210" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R210" s="5">
-        <v>15.9595626689442</v>
+        <v>28.315000534057599</v>
       </c>
       <c r="S210" s="5">
-        <v>15.6491346359253</v>
+        <v>27.944999694824201</v>
       </c>
     </row>
     <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A211" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="C211" s="5">
-        <v>2653665.75</v>
+        <v>2626334</v>
       </c>
       <c r="D211" s="5">
-        <v>628762496</v>
+        <v>560104960</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F211" s="5">
-        <v>6.93749904632568</v>
+        <v>1.3386693000793499</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>6.8033729594584993E-2</v>
+        <v>-4.5006140062087002E-2</v>
       </c>
       <c r="I211" s="5">
-        <v>0.74117978318051203</v>
+        <v>0.112678521091536</v>
       </c>
       <c r="J211" s="5">
-        <v>7.5217469469036E-2</v>
+        <v>0.62798172501650196</v>
       </c>
       <c r="K211" s="5">
-        <v>2.2467057162842301</v>
+        <v>0.53657792097352397</v>
       </c>
       <c r="L211" s="5">
-        <v>2.1360540376435599</v>
+        <v>-1.85433710791548</v>
       </c>
       <c r="M211" s="5">
-        <v>1.82382105195416</v>
+        <v>-2.1767127844622398</v>
       </c>
       <c r="N211" s="5">
-        <v>6.5715454110211002</v>
+        <v>-0.111063774224018</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q211" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R211" s="5">
-        <v>28.315000534057599</v>
+        <v>82.5</v>
       </c>
       <c r="S211" s="5">
-        <v>27.944999694824201</v>
+        <v>79.959999084472699</v>
       </c>
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14474,112 +14468,112 @@
         <v>468</v>
       </c>
       <c r="C212" s="5">
-        <v>2575497</v>
+        <v>2617888.75</v>
       </c>
       <c r="D212" s="5">
-        <v>1009241984</v>
+        <v>523980800</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F212" s="5">
-        <v>2.0413508415222199</v>
-      </c>
+      <c r="F212" s="5"/>
       <c r="G212" s="6" t="s">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="H212" s="5">
-        <v>-4.8924797556504002E-2</v>
+        <v>0.14274148251518501</v>
       </c>
       <c r="I212" s="5">
-        <v>0.64039937438962202</v>
+        <v>-0.34398846962789797</v>
       </c>
       <c r="J212" s="5">
-        <v>0.86258419690154997</v>
+        <v>-0.62879156539731296</v>
       </c>
       <c r="K212" s="5">
-        <v>1.53726828335137</v>
+        <v>0.55485317496375397</v>
       </c>
       <c r="L212" s="5">
-        <v>-0.97895933096294696</v>
+        <v>1.5003510412074501</v>
       </c>
       <c r="M212" s="5">
-        <v>-1.2430088416756799</v>
+        <v>1.4382235535194601</v>
       </c>
       <c r="N212" s="5">
-        <v>1.9097510294486999</v>
+        <v>9.6521575037226608</v>
       </c>
       <c r="O212" s="6" t="s">
-        <v>23</v>
+        <v>470</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>29</v>
+        <v>471</v>
       </c>
       <c r="Q212" s="6" t="s">
-        <v>25</v>
+        <v>472</v>
       </c>
       <c r="R212" s="5">
-        <v>42.880001068115199</v>
+        <v>16.385927576241802</v>
       </c>
       <c r="S212" s="5">
-        <v>40.860000610351598</v>
+        <v>16.109643936157202</v>
       </c>
     </row>
     <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A213" s="6" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C213" s="5">
-        <v>2535125.75</v>
+        <v>2575497</v>
       </c>
       <c r="D213" s="5">
-        <v>523394784</v>
+        <v>1009982976</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F213" s="5"/>
+      <c r="F213" s="5">
+        <v>2.0413508415222199</v>
+      </c>
       <c r="G213" s="6" t="s">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="H213" s="5">
-        <v>0.1050359706672</v>
+        <v>-4.8924797556504002E-2</v>
       </c>
       <c r="I213" s="5">
-        <v>-1.1310389593452601</v>
+        <v>0.64039937438962202</v>
       </c>
       <c r="J213" s="5">
-        <v>-0.42970895185452401</v>
+        <v>0.86258419690154997</v>
       </c>
       <c r="K213" s="5">
-        <v>0.38135865694113302</v>
+        <v>1.53726828335137</v>
       </c>
       <c r="L213" s="5">
-        <v>1.55212579279618</v>
+        <v>-0.97895933096294696</v>
       </c>
       <c r="M213" s="5">
-        <v>1.29363551648967</v>
+        <v>-1.2430088416756799</v>
       </c>
       <c r="N213" s="5">
-        <v>9.2284929006709397</v>
+        <v>1.9097510294486999</v>
       </c>
       <c r="O213" s="6" t="s">
-        <v>472</v>
+        <v>23</v>
       </c>
       <c r="P213" s="6" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="Q213" s="6" t="s">
-        <v>474</v>
+        <v>25</v>
       </c>
       <c r="R213" s="5">
-        <v>16.385927576241802</v>
+        <v>42.880001068115199</v>
       </c>
       <c r="S213" s="5">
-        <v>16.0866813659668</v>
+        <v>40.860000610351598</v>
       </c>
     </row>
     <row r="214" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14593,7 +14587,7 @@
         <v>2533085.75</v>
       </c>
       <c r="D214" s="5">
-        <v>1623804928</v>
+        <v>1612603136</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>48</v>
@@ -14627,10 +14621,10 @@
         <v>94</v>
       </c>
       <c r="P214" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q214" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q214" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R214" s="5">
         <v>6.1500000953674299</v>
@@ -14650,7 +14644,7 @@
         <v>2474841.75</v>
       </c>
       <c r="D215" s="5">
-        <v>412988320</v>
+        <v>414419232</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>45</v>
@@ -14709,7 +14703,7 @@
         <v>2466895.5</v>
       </c>
       <c r="D216" s="5">
-        <v>758384064</v>
+        <v>759148480</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>80</v>
@@ -14768,7 +14762,7 @@
         <v>2356761.75</v>
       </c>
       <c r="D217" s="5">
-        <v>363819296</v>
+        <v>363268480</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>40</v>
@@ -14777,7 +14771,7 @@
         <v>2.90688896179199</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H217" s="5">
         <v>0.27639984677947399</v>
@@ -14804,10 +14798,10 @@
         <v>23</v>
       </c>
       <c r="P217" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q217" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R217" s="5">
         <v>11.0023234557599</v>
@@ -14824,55 +14818,55 @@
         <v>484</v>
       </c>
       <c r="C218" s="5">
-        <v>2330131.5</v>
+        <v>2319777.75</v>
       </c>
       <c r="D218" s="5">
-        <v>559720000</v>
+        <v>629684288</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F218" s="5">
-        <v>1.3386693000793499</v>
+        <v>1.71215915679932</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H218" s="5">
-        <v>-4.5006140062087002E-2</v>
+        <v>0.14603044293062301</v>
       </c>
       <c r="I218" s="5">
-        <v>0.112678521091536</v>
+        <v>-0.25971327077906098</v>
       </c>
       <c r="J218" s="5">
-        <v>0.62798172501650196</v>
+        <v>0.41500248878609802</v>
       </c>
       <c r="K218" s="5">
-        <v>0.53657792097352397</v>
+        <v>1.2597050565629</v>
       </c>
       <c r="L218" s="5">
-        <v>-1.85433710791548</v>
+        <v>1.9207146375039199</v>
       </c>
       <c r="M218" s="5">
-        <v>-2.1767127844622398</v>
+        <v>1.2429801337503501</v>
       </c>
       <c r="N218" s="5">
-        <v>-0.111063774224018</v>
+        <v>8.9235584654410598</v>
       </c>
       <c r="O218" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P218" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q218" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R218" s="5">
-        <v>82.5</v>
+        <v>96.869903564453097</v>
       </c>
       <c r="S218" s="5">
-        <v>79.959999084472699</v>
+        <v>96.010002136230497</v>
       </c>
     </row>
     <row r="219" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14883,40 +14877,40 @@
         <v>486</v>
       </c>
       <c r="C219" s="5">
-        <v>2319777.75</v>
+        <v>2291759.25</v>
       </c>
       <c r="D219" s="5">
-        <v>628865536</v>
+        <v>635550976</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F219" s="5">
-        <v>1.71215915679932</v>
+        <v>1.52437400817871</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H219" s="5">
-        <v>0.14603044293062301</v>
+        <v>-0.12510862644547999</v>
       </c>
       <c r="I219" s="5">
-        <v>-0.25971327077906098</v>
+        <v>-0.23059411306477501</v>
       </c>
       <c r="J219" s="5">
-        <v>0.41500248878609802</v>
+        <v>0.30528246475911602</v>
       </c>
       <c r="K219" s="5">
-        <v>1.2597050565629</v>
+        <v>1.2837310000041</v>
       </c>
       <c r="L219" s="5">
-        <v>1.9207146375039199</v>
+        <v>0.68027690284651099</v>
       </c>
       <c r="M219" s="5">
-        <v>1.2429801337503501</v>
+        <v>0.58606139258801104</v>
       </c>
       <c r="N219" s="5">
-        <v>8.9235584654410598</v>
+        <v>3.4487536313617499</v>
       </c>
       <c r="O219" s="6" t="s">
         <v>23</v>
@@ -14928,10 +14922,10 @@
         <v>25</v>
       </c>
       <c r="R219" s="5">
-        <v>96.869903564453097</v>
+        <v>57.119998931884801</v>
       </c>
       <c r="S219" s="5">
-        <v>96.010002136230497</v>
+        <v>56.679000854492202</v>
       </c>
     </row>
     <row r="220" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14942,55 +14936,55 @@
         <v>488</v>
       </c>
       <c r="C220" s="5">
-        <v>2291759.25</v>
+        <v>2269095.5</v>
       </c>
       <c r="D220" s="5">
-        <v>635371584</v>
+        <v>592659072</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F220" s="5">
-        <v>1.52437400817871</v>
+        <v>3.76634669303894</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H220" s="5">
-        <v>-0.12510862644547999</v>
+        <v>0.40771504828816002</v>
       </c>
       <c r="I220" s="5">
-        <v>-0.23059411306477501</v>
+        <v>-4.7739946003270001E-3</v>
       </c>
       <c r="J220" s="5">
-        <v>0.30528246475911602</v>
+        <v>0.977942129803266</v>
       </c>
       <c r="K220" s="5">
-        <v>1.2837310000041</v>
+        <v>9.1142127447537895</v>
       </c>
       <c r="L220" s="5">
-        <v>0.68027690284651099</v>
+        <v>27.7936636700097</v>
       </c>
       <c r="M220" s="5">
-        <v>0.58606139258801104</v>
+        <v>26.533693229573299</v>
       </c>
       <c r="N220" s="5">
-        <v>3.4487536313617499</v>
+        <v>62.519411057790201</v>
       </c>
       <c r="O220" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P220" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q220" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R220" s="5">
-        <v>57.119998931884801</v>
+        <v>19.2770085399221</v>
       </c>
       <c r="S220" s="5">
-        <v>56.679000854492202</v>
+        <v>18.648891448974599</v>
       </c>
     </row>
     <row r="221" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15001,55 +14995,55 @@
         <v>490</v>
       </c>
       <c r="C221" s="5">
-        <v>2226621.5</v>
+        <v>2215908.25</v>
       </c>
       <c r="D221" s="5">
-        <v>596298304</v>
+        <v>472003488</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F221" s="5">
-        <v>3.76634669303894</v>
+        <v>0.69369858503341697</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H221" s="5">
-        <v>0.407711975534575</v>
+        <v>1.5807966813242001E-2</v>
       </c>
       <c r="I221" s="5">
-        <v>-4.7810214823809996E-3</v>
+        <v>-6.3181928361621995E-2</v>
       </c>
       <c r="J221" s="5">
-        <v>0.97793553588909599</v>
+        <v>-0.30407948529864698</v>
       </c>
       <c r="K221" s="5">
-        <v>9.1142161032523106</v>
+        <v>-0.18759261572939301</v>
       </c>
       <c r="L221" s="5">
-        <v>27.793657601922298</v>
+        <v>-0.32993830323602102</v>
       </c>
       <c r="M221" s="5">
-        <v>26.533692436286</v>
+        <v>-0.43005151028336902</v>
       </c>
       <c r="N221" s="5">
-        <v>62.519402935671998</v>
+        <v>0.412248797493309</v>
       </c>
       <c r="O221" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="Q221" s="6" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="R221" s="5">
-        <v>19.2770085399221</v>
+        <v>97.589996337890597</v>
       </c>
       <c r="S221" s="5">
-        <v>18.648891448974599</v>
+        <v>94.900001525878906</v>
       </c>
     </row>
     <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15060,55 +15054,55 @@
         <v>492</v>
       </c>
       <c r="C222" s="5">
-        <v>2215908.25</v>
+        <v>2178535.25</v>
       </c>
       <c r="D222" s="5">
-        <v>472222400</v>
+        <v>818313984</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F222" s="5">
-        <v>0.69369858503341697</v>
+        <v>2.5531914234161399</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H222" s="5">
-        <v>1.5807966813242001E-2</v>
+        <v>6.3497770337695006E-2</v>
       </c>
       <c r="I222" s="5">
-        <v>-6.3181928361621995E-2</v>
+        <v>-1.45263862913105</v>
       </c>
       <c r="J222" s="5">
-        <v>-0.30407948529864698</v>
+        <v>-1.81163341741378</v>
       </c>
       <c r="K222" s="5">
-        <v>-0.18759261572939301</v>
+        <v>2.3753727366101698</v>
       </c>
       <c r="L222" s="5">
-        <v>-0.32993830323602102</v>
+        <v>3.7931730660440501</v>
       </c>
       <c r="M222" s="5">
-        <v>-0.43005151028336902</v>
+        <v>2.9366732119338899</v>
       </c>
       <c r="N222" s="5">
-        <v>0.412248797493309</v>
+        <v>11.6800541721075</v>
       </c>
       <c r="O222" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P222" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q222" s="6" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="R222" s="5">
-        <v>97.589996337890597</v>
+        <v>15.6592499255659</v>
       </c>
       <c r="S222" s="5">
-        <v>94.900001525878906</v>
+        <v>15.2833099365234</v>
       </c>
     </row>
     <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15122,7 +15116,7 @@
         <v>2169587</v>
       </c>
       <c r="D223" s="5">
-        <v>5721100288</v>
+        <v>5739725824</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>48</v>
@@ -15134,40 +15128,40 @@
         <v>0</v>
       </c>
       <c r="H223" s="5">
-        <v>0.70985188413554801</v>
+        <v>0.105729292142764</v>
       </c>
       <c r="I223" s="5">
-        <v>-1.5611474450263501</v>
+        <v>0.28243573363191399</v>
       </c>
       <c r="J223" s="5">
-        <v>-0.33368217648649401</v>
+        <v>-0.31584541125534399</v>
       </c>
       <c r="K223" s="5">
-        <v>2.7707329689866902</v>
+        <v>3.3284864428724701</v>
       </c>
       <c r="L223" s="5">
-        <v>-3.1161949438654801</v>
+        <v>-3.1757901782507001</v>
       </c>
       <c r="M223" s="5">
-        <v>-3.9678912466775</v>
+        <v>-3.86635717786285</v>
       </c>
       <c r="N223" s="5">
-        <v>4.0294558727625303</v>
+        <v>5.0891056397218701</v>
       </c>
       <c r="O223" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P223" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q223" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q223" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R223" s="5">
         <v>60.889999389648402</v>
       </c>
       <c r="S223" s="5">
-        <v>56.75</v>
+        <v>56.810001373291001</v>
       </c>
     </row>
     <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15181,16 +15175,16 @@
         <v>2167331</v>
       </c>
       <c r="D224" s="5">
-        <v>645264896</v>
+        <v>645749632</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F224" s="5">
         <v>5.4094662666320801</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H224" s="5">
         <v>0.35179736072934498</v>
@@ -15217,10 +15211,10 @@
         <v>23</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R224" s="5">
         <v>11.019832157473401</v>
@@ -15240,7 +15234,7 @@
         <v>2157292.5</v>
       </c>
       <c r="D225" s="5">
-        <v>4196909568</v>
+        <v>4204503040</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>80</v>
@@ -15274,10 +15268,10 @@
         <v>94</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q225" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R225" s="5">
         <v>5.6231999397277797</v>
@@ -15294,10 +15288,10 @@
         <v>500</v>
       </c>
       <c r="C226" s="5">
-        <v>2113072.25</v>
+        <v>2111022.5</v>
       </c>
       <c r="D226" s="5">
-        <v>432595008</v>
+        <v>432954016</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>80</v>
@@ -15356,7 +15350,7 @@
         <v>2075358.5</v>
       </c>
       <c r="D227" s="5">
-        <v>2124786560</v>
+        <v>2125882112</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>28</v>
@@ -15392,10 +15386,10 @@
         <v>23</v>
       </c>
       <c r="P227" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q227" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="Q227" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="R227" s="5">
         <v>105.610000610352</v>
@@ -15412,10 +15406,10 @@
         <v>504</v>
       </c>
       <c r="C228" s="5">
-        <v>2074217.375</v>
+        <v>2073428.375</v>
       </c>
       <c r="D228" s="5">
-        <v>790089280</v>
+        <v>791162112</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>40</v>
@@ -15474,7 +15468,7 @@
         <v>2063466.125</v>
       </c>
       <c r="D229" s="5">
-        <v>443763968</v>
+        <v>441362496</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>45</v>
@@ -15483,102 +15477,43 @@
         <v>2.32537174224854</v>
       </c>
       <c r="G229" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H229" s="5">
+        <v>0.36686602541069502</v>
+      </c>
+      <c r="I229" s="5">
+        <v>-0.55551886876744605</v>
+      </c>
+      <c r="J229" s="5">
+        <v>5.1275157792906999E-2</v>
+      </c>
+      <c r="K229" s="5">
+        <v>4.00257020688659</v>
+      </c>
+      <c r="L229" s="5">
+        <v>0.88501236485416501</v>
+      </c>
+      <c r="M229" s="5">
+        <v>-0.49599156346614698</v>
+      </c>
+      <c r="N229" s="5">
+        <v>5.9212578913871301</v>
+      </c>
+      <c r="O229" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P229" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q229" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="H229" s="5">
-        <v>0.36686326098456201</v>
-      </c>
-      <c r="I229" s="5">
-        <v>-0.55551951478755002</v>
-      </c>
-      <c r="J229" s="5">
-        <v>5.1273201647150997E-2</v>
-      </c>
-      <c r="K229" s="5">
-        <v>4.0025682751737799</v>
-      </c>
-      <c r="L229" s="5">
-        <v>0.88501563231764302</v>
-      </c>
-      <c r="M229" s="5">
-        <v>-0.49598738893371602</v>
-      </c>
-      <c r="N229" s="5">
-        <v>5.9212594101762299</v>
-      </c>
-      <c r="O229" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P229" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q229" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="R229" s="5">
         <v>18.370406148862099</v>
       </c>
       <c r="S229" s="5">
         <v>18.0391845703125</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" s="4" customFormat="1" ht="12.75">
-      <c r="A230" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C230" s="5">
-        <v>2060461</v>
-      </c>
-      <c r="D230" s="5">
-        <v>819185408</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F230" s="5">
-        <v>2.5531914234161399</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H230" s="5">
-        <v>6.3493914339419005E-2</v>
-      </c>
-      <c r="I230" s="5">
-        <v>-1.45263932568184</v>
-      </c>
-      <c r="J230" s="5">
-        <v>-1.8116402974457599</v>
-      </c>
-      <c r="K230" s="5">
-        <v>2.3753698421006901</v>
-      </c>
-      <c r="L230" s="5">
-        <v>3.7931722314138199</v>
-      </c>
-      <c r="M230" s="5">
-        <v>2.9366748452339699</v>
-      </c>
-      <c r="N230" s="5">
-        <v>11.680043269223701</v>
-      </c>
-      <c r="O230" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P230" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q230" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="R230" s="5">
-        <v>15.6592499255659</v>
-      </c>
-      <c r="S230" s="5">
-        <v>15.2833099365234</v>
       </c>
     </row>
   </sheetData>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="494">
   <si>
     <t>USD</t>
   </si>
@@ -429,27 +429,27 @@
     <t>Govt/Agency-ST/Inter</t>
   </si>
   <si>
+    <t>214980 KS Equity</t>
+  </si>
+  <si>
+    <t>SS KODEX KRW ETF</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Korea SE</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
     <t>VMBS US Equity</t>
   </si>
   <si>
     <t>VANGUARD MORTGAG</t>
   </si>
   <si>
-    <t>214980 KS Equity</t>
-  </si>
-  <si>
-    <t>SS KODEX KRW ETF</t>
-  </si>
-  <si>
-    <t>KRW</t>
-  </si>
-  <si>
-    <t>Korea SE</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
     <t>USHY US Equity</t>
   </si>
   <si>
@@ -990,6 +990,12 @@
     <t>INVESCO FUNDAMEN</t>
   </si>
   <si>
+    <t>00679B TT Equity</t>
+  </si>
+  <si>
+    <t>YUANTA UST 20+</t>
+  </si>
+  <si>
     <t>GTO US Equity</t>
   </si>
   <si>
@@ -1002,12 +1008,6 @@
     <t>ISHARES ESG AWAR</t>
   </si>
   <si>
-    <t>00679B TT Equity</t>
-  </si>
-  <si>
-    <t>YUANTA UST 20+</t>
-  </si>
-  <si>
     <t>TLH US Equity</t>
   </si>
   <si>
@@ -1161,6 +1161,12 @@
     <t>ISH $TIPS £H DIS</t>
   </si>
   <si>
+    <t>IAF AU Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CORE COM</t>
+  </si>
+  <si>
     <t>ZFS CN Equity</t>
   </si>
   <si>
@@ -1173,12 +1179,6 @@
     <t>PIMCO US DOLLAR</t>
   </si>
   <si>
-    <t>IAF AU Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CORE COM</t>
-  </si>
-  <si>
     <t>EMHY US Equity</t>
   </si>
   <si>
@@ -1212,18 +1212,18 @@
     <t>SPDR SH-TERM BD</t>
   </si>
   <si>
+    <t>IGLS LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR UK GILT 0-5</t>
+  </si>
+  <si>
     <t>LQDA LN Equity</t>
   </si>
   <si>
     <t>ISH $ CORP BD $A</t>
   </si>
   <si>
-    <t>IGLS LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR UK GILT 0-5</t>
-  </si>
-  <si>
     <t>UITB US Equity</t>
   </si>
   <si>
@@ -1290,6 +1290,12 @@
     <t>ISHR CORE £ CORP</t>
   </si>
   <si>
+    <t>HBRD AU Equity</t>
+  </si>
+  <si>
+    <t>BETA-ACTV AU HYB</t>
+  </si>
+  <si>
     <t>IB01 LN Equity</t>
   </si>
   <si>
@@ -1302,12 +1308,6 @@
     <t>VANECK PFD X FIN</t>
   </si>
   <si>
-    <t>HBRD AU Equity</t>
-  </si>
-  <si>
-    <t>BETA-ACTV AU HYB</t>
-  </si>
-  <si>
     <t>MUB CN Equity</t>
   </si>
   <si>
@@ -1332,6 +1332,15 @@
     <t>BMO MID PROVINCI</t>
   </si>
   <si>
+    <t>TIPH LN Equity</t>
+  </si>
+  <si>
+    <t>LYX US TIPS DGBP</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
     <t>BSCP US Equity</t>
   </si>
   <si>
@@ -1341,15 +1350,6 @@
     <t>F/L US CORE BOND</t>
   </si>
   <si>
-    <t>TIPH LN Equity</t>
-  </si>
-  <si>
-    <t>LYX US TIPS DGBP</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>CPD CN Equity</t>
   </si>
   <si>
@@ -1386,12 +1386,54 @@
     <t>VANGUARD TOTAL W</t>
   </si>
   <si>
+    <t>VAF AU Equity</t>
+  </si>
+  <si>
+    <t>VANG-AU FI I ETF</t>
+  </si>
+  <si>
     <t>TAIL US Equity</t>
   </si>
   <si>
     <t>CAMBRIA TAIL RIS</t>
   </si>
   <si>
+    <t>TDTF US Equity</t>
+  </si>
+  <si>
+    <t>IBDQ US Equity</t>
+  </si>
+  <si>
+    <t>WIP US Equity</t>
+  </si>
+  <si>
+    <t>SPDR FTSE INTERN</t>
+  </si>
+  <si>
+    <t>SGOV US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 0-3M T/B</t>
+  </si>
+  <si>
+    <t>IEML LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR JP EM LCL</t>
+  </si>
+  <si>
+    <t>MUNI US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO INTERMEDIA</t>
+  </si>
+  <si>
+    <t>ZIC CN Equity</t>
+  </si>
+  <si>
+    <t>BMO MID-TERM US</t>
+  </si>
+  <si>
     <t>CNYB NA Equity</t>
   </si>
   <si>
@@ -1401,48 +1443,6 @@
     <t>EN Amsterdam</t>
   </si>
   <si>
-    <t>VAF AU Equity</t>
-  </si>
-  <si>
-    <t>VANG-AU FI I ETF</t>
-  </si>
-  <si>
-    <t>TDTF US Equity</t>
-  </si>
-  <si>
-    <t>IBDQ US Equity</t>
-  </si>
-  <si>
-    <t>WIP US Equity</t>
-  </si>
-  <si>
-    <t>SPDR FTSE INTERN</t>
-  </si>
-  <si>
-    <t>SGOV US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 0-3M T/B</t>
-  </si>
-  <si>
-    <t>IEML LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR JP EM LCL</t>
-  </si>
-  <si>
-    <t>MUNI US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO INTERMEDIA</t>
-  </si>
-  <si>
-    <t>ZIC CN Equity</t>
-  </si>
-  <si>
-    <t>BMO MID-TERM US</t>
-  </si>
-  <si>
     <t>HBB CN Equity</t>
   </si>
   <si>
@@ -1479,12 +1479,6 @@
     <t>BMO HIGH YIELD U</t>
   </si>
   <si>
-    <t>CYBA NA Equity</t>
-  </si>
-  <si>
-    <t>ISH CNY BOND $A</t>
-  </si>
-  <si>
     <t>RPF CN Equity</t>
   </si>
   <si>
@@ -1497,28 +1491,16 @@
     <t>DYNAMIC ACTIVE P</t>
   </si>
   <si>
-    <t>159972 CH Equity</t>
-  </si>
-  <si>
-    <t>PH CSI5Y LCL GV</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>HTRB US Equity</t>
   </si>
   <si>
     <t>HRTFRD TR BD ETF</t>
+  </si>
+  <si>
+    <t>MFT CN Equity</t>
+  </si>
+  <si>
+    <t>MACKENZIE FLOATI</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +1978,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S226"/>
+  <dimension ref="A1:S225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2098,13 +2080,13 @@
         <v>2110089472</v>
       </c>
       <c r="D2" s="5">
-        <v>15693327360</v>
+        <v>15838366720</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5">
-        <v>1.55131280422211</v>
+        <v>1.55131268501282</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>0</v>
@@ -2216,7 +2198,7 @@
         <v>1550490240</v>
       </c>
       <c r="D4" s="5">
-        <v>20614846464</v>
+        <v>20817383424</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -2275,7 +2257,7 @@
         <v>733340288</v>
       </c>
       <c r="D5" s="5">
-        <v>12755650560</v>
+        <v>12744075264</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
@@ -2390,10 +2372,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="5">
-        <v>634160192</v>
+        <v>634160128</v>
       </c>
       <c r="D7" s="5">
-        <v>9706676224</v>
+        <v>9442771968</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>32</v>
@@ -2449,10 +2431,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="5">
-        <v>523857440</v>
+        <v>523857472</v>
       </c>
       <c r="D8" s="5">
-        <v>78866767872</v>
+        <v>78952669184</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>38</v>
@@ -2511,13 +2493,13 @@
         <v>476479872</v>
       </c>
       <c r="D9" s="5">
-        <v>20136751104</v>
+        <v>20204025856</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="5">
-        <v>3.8089044094085698</v>
+        <v>3.8044881820678702</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -2570,7 +2552,7 @@
         <v>417509056</v>
       </c>
       <c r="D10" s="5">
-        <v>28354912256</v>
+        <v>28329342976</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>48</v>
@@ -2629,7 +2611,7 @@
         <v>259697536</v>
       </c>
       <c r="D11" s="5">
-        <v>46305284096</v>
+        <v>46276763648</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
@@ -2688,7 +2670,7 @@
         <v>243183280</v>
       </c>
       <c r="D12" s="5">
-        <v>19500271616</v>
+        <v>19508887552</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>54</v>
@@ -2747,7 +2729,7 @@
         <v>213292560</v>
       </c>
       <c r="D13" s="5">
-        <v>40308506624</v>
+        <v>40325029888</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>51</v>
@@ -2803,7 +2785,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="5">
-        <v>170746624</v>
+        <v>170746048</v>
       </c>
       <c r="D14" s="5">
         <v>25666369536</v>
@@ -2865,7 +2847,7 @@
         <v>168283360</v>
       </c>
       <c r="D15" s="5">
-        <v>26717403136</v>
+        <v>26668120064</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>62</v>
@@ -2924,13 +2906,13 @@
         <v>164917840</v>
       </c>
       <c r="D16" s="5">
-        <v>18377938944</v>
+        <v>18646732800</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="5">
-        <v>6.1084628105163601</v>
+        <v>6.1084623336792001</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -2983,13 +2965,13 @@
         <v>158911136</v>
       </c>
       <c r="D17" s="5">
-        <v>34521526272</v>
+        <v>34554380288</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="5">
-        <v>1.1463711261749301</v>
+        <v>1.1463712453842201</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -3042,7 +3024,7 @@
         <v>155116000</v>
       </c>
       <c r="D18" s="5">
-        <v>14644344832</v>
+        <v>14622245888</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>54</v>
@@ -3096,7 +3078,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="5">
-        <v>142788992</v>
+        <v>142788976</v>
       </c>
       <c r="D19" s="5">
         <v>6830577152</v>
@@ -3158,7 +3140,7 @@
         <v>134561264</v>
       </c>
       <c r="D20" s="5">
-        <v>5125194240</v>
+        <v>5075621888</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>32</v>
@@ -3217,7 +3199,7 @@
         <v>134339872</v>
       </c>
       <c r="D21" s="5">
-        <v>6822482944</v>
+        <v>6617074688</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>76</v>
@@ -3276,13 +3258,13 @@
         <v>120965640</v>
       </c>
       <c r="D22" s="5">
-        <v>42979856384</v>
+        <v>43061379072</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="5">
-        <v>0.87047719955444303</v>
+        <v>0.87047713994979903</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -3335,7 +3317,7 @@
         <v>115362208</v>
       </c>
       <c r="D23" s="5">
-        <v>17352960000</v>
+        <v>17368174592</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>82</v>
@@ -3400,7 +3382,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="5">
-        <v>1.8228785991668699</v>
+        <v>1.82116746902466</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -3453,13 +3435,13 @@
         <v>111000328</v>
       </c>
       <c r="D25" s="5">
-        <v>10881479680</v>
+        <v>10868416512</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="5">
-        <v>0.67922222614288297</v>
+        <v>0.67922228574752797</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -3512,13 +3494,13 @@
         <v>107358016</v>
       </c>
       <c r="D26" s="5">
-        <v>19648034816</v>
+        <v>19679473664</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="5">
-        <v>4.7144517898559597</v>
+        <v>4.70485496520996</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>0</v>
@@ -3571,7 +3553,7 @@
         <v>106589312</v>
       </c>
       <c r="D27" s="5">
-        <v>15029407744</v>
+        <v>15034613760</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>54</v>
@@ -3630,7 +3612,7 @@
         <v>103109368</v>
       </c>
       <c r="D28" s="5">
-        <v>5375116800</v>
+        <v>5439322624</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>51</v>
@@ -3689,7 +3671,7 @@
         <v>101445592</v>
       </c>
       <c r="D29" s="5">
-        <v>6894215680</v>
+        <v>6906312192</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>82</v>
@@ -3754,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="F30" s="5">
-        <v>1.79604816436768</v>
+        <v>1.79604804515839</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>0</v>
@@ -3807,13 +3789,13 @@
         <v>88021432</v>
       </c>
       <c r="D31" s="5">
-        <v>11871163392</v>
+        <v>11889309696</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="5">
-        <v>2.2261595726013201</v>
+        <v>2.2261598110199001</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>0</v>
@@ -3872,7 +3854,7 @@
         <v>54</v>
       </c>
       <c r="F32" s="5">
-        <v>0.43550762534141502</v>
+        <v>0.43550759553909302</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>0</v>
@@ -3925,13 +3907,13 @@
         <v>83857824</v>
       </c>
       <c r="D33" s="5">
-        <v>17123609600</v>
+        <v>17144840192</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F33" s="5">
-        <v>0.96357190608978305</v>
+        <v>0.96357196569442705</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>0</v>
@@ -3984,7 +3966,7 @@
         <v>83366176</v>
       </c>
       <c r="D34" s="5">
-        <v>1479892864</v>
+        <v>1471527296</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>22</v>
@@ -4041,7 +4023,7 @@
         <v>80879936</v>
       </c>
       <c r="D35" s="5">
-        <v>5715808256</v>
+        <v>5757151744</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>108</v>
@@ -4159,13 +4141,13 @@
         <v>74328056</v>
       </c>
       <c r="D37" s="5">
-        <v>14543095808</v>
+        <v>14516089856</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F37" s="5">
-        <v>1.8785425424575799</v>
+        <v>1.8785424232482899</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>0</v>
@@ -4275,13 +4257,13 @@
         <v>71650440</v>
       </c>
       <c r="D39" s="5">
-        <v>1006469568</v>
+        <v>984209536</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>108</v>
       </c>
       <c r="F39" s="5">
-        <v>3.0140757560729998</v>
+        <v>3.0140755176544198</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>0</v>
@@ -4393,7 +4375,7 @@
         <v>70165496</v>
       </c>
       <c r="D41" s="5">
-        <v>13312663552</v>
+        <v>13326480384</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>122</v>
@@ -4452,7 +4434,7 @@
         <v>70062936</v>
       </c>
       <c r="D42" s="5">
-        <v>3481133312</v>
+        <v>3426416128</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>122</v>
@@ -4688,7 +4670,7 @@
         <v>63783672</v>
       </c>
       <c r="D46" s="5">
-        <v>12596393984</v>
+        <v>12601001984</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>54</v>
@@ -4803,112 +4785,112 @@
         <v>137</v>
       </c>
       <c r="C48" s="5">
-        <v>62144332</v>
+        <v>62785052</v>
       </c>
       <c r="D48" s="5">
-        <v>15096720384</v>
+        <v>1431408896</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1.0475833415985101</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F48" s="5"/>
       <c r="G48" s="6" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="H48" s="5">
-        <v>0.131306871170489</v>
+        <v>0.26382378698970299</v>
       </c>
       <c r="I48" s="5">
-        <v>0.23764204081469001</v>
+        <v>6.1090778950201E-2</v>
       </c>
       <c r="J48" s="5">
-        <v>-6.2454797982609998E-3</v>
+        <v>-1.6290032664838501</v>
       </c>
       <c r="K48" s="5">
-        <v>0.24391802451688699</v>
+        <v>-0.51227848339079296</v>
       </c>
       <c r="L48" s="5">
-        <v>-0.81994158026985597</v>
+        <v>-3.5957545756672502</v>
       </c>
       <c r="M48" s="5">
-        <v>-0.81994158026985597</v>
+        <v>-3.3911937928752001</v>
       </c>
       <c r="N48" s="5">
-        <v>-0.573074942050533</v>
+        <v>6.6648809221976801</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="R48" s="5">
-        <v>54.5200004577637</v>
+        <v>94.991085203285095</v>
       </c>
       <c r="S48" s="5">
-        <v>53.380001068115199</v>
+        <v>91.249534606933594</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A49" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C49" s="5">
-        <v>60955644</v>
+        <v>62144332</v>
       </c>
       <c r="D49" s="5">
-        <v>1439132032</v>
+        <v>15096720384</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1.0475833415985101</v>
+      </c>
       <c r="G49" s="6" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H49" s="5">
-        <v>0.22119480539797301</v>
+        <v>0.131306871170489</v>
       </c>
       <c r="I49" s="5">
-        <v>-0.39765988837281402</v>
+        <v>0.23764204081469001</v>
       </c>
       <c r="J49" s="5">
-        <v>-1.9874082856597399</v>
+        <v>-6.2454797982609998E-3</v>
       </c>
       <c r="K49" s="5">
-        <v>-0.29940575877857001</v>
+        <v>0.24391802451688699</v>
       </c>
       <c r="L49" s="5">
-        <v>-3.9170847715966199</v>
+        <v>-0.81994158026985597</v>
       </c>
       <c r="M49" s="5">
-        <v>-3.6454001471457702</v>
+        <v>-0.81994158026985597</v>
       </c>
       <c r="N49" s="5">
-        <v>6.3546492737107698</v>
+        <v>-0.573074942050533</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="R49" s="5">
-        <v>94.991085203285095</v>
+        <v>54.5200004577637</v>
       </c>
       <c r="S49" s="5">
-        <v>91.009429931640597</v>
+        <v>53.380001068115199</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4922,7 +4904,7 @@
         <v>53905768</v>
       </c>
       <c r="D50" s="5">
-        <v>8386086912</v>
+        <v>8448591872</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>122</v>
@@ -5105,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="F53" s="5">
-        <v>2.0751881599426301</v>
+        <v>2.0751883983612101</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>0</v>
@@ -5158,7 +5140,7 @@
         <v>50256584</v>
       </c>
       <c r="D54" s="5">
-        <v>2635875072</v>
+        <v>2607759104</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>28</v>
@@ -5276,7 +5258,7 @@
         <v>46304024</v>
       </c>
       <c r="D56" s="5">
-        <v>7773722112</v>
+        <v>7786229760</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>51</v>
@@ -5400,7 +5382,7 @@
         <v>35</v>
       </c>
       <c r="F58" s="5">
-        <v>1.0862449407577499</v>
+        <v>1.0862450599670399</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>0</v>
@@ -5453,7 +5435,7 @@
         <v>39307612</v>
       </c>
       <c r="D59" s="5">
-        <v>9086428160</v>
+        <v>9094111232</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>54</v>
@@ -5518,7 +5500,7 @@
         <v>119</v>
       </c>
       <c r="F60" s="5">
-        <v>3.8434588909149201</v>
+        <v>3.8434591293335001</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>0</v>
@@ -5630,13 +5612,13 @@
         <v>36493620</v>
       </c>
       <c r="D62" s="5">
-        <v>3499087872</v>
+        <v>3486832128</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F62" s="5">
-        <v>0.162767633795738</v>
+        <v>0.162767618894577</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>0</v>
@@ -5689,13 +5671,13 @@
         <v>35601556</v>
       </c>
       <c r="D63" s="5">
-        <v>3893656320</v>
+        <v>3900003072</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="5">
-        <v>3.1422717571258501</v>
+        <v>3.14227199554443</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>0</v>
@@ -6102,13 +6084,13 @@
         <v>29854936</v>
       </c>
       <c r="D70" s="5">
-        <v>7084444672</v>
+        <v>7112295424</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="5">
-        <v>4.1589922904968297</v>
+        <v>4.1589918136596697</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>0</v>
@@ -6220,13 +6202,13 @@
         <v>28492912</v>
       </c>
       <c r="D72" s="5">
-        <v>7297681408</v>
+        <v>7305341952</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F72" s="5">
-        <v>4.8986949920654297</v>
+        <v>4.8986945152282697</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>0</v>
@@ -6279,7 +6261,7 @@
         <v>27070830</v>
       </c>
       <c r="D73" s="5">
-        <v>5111788544</v>
+        <v>5117175296</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>86</v>
@@ -6344,7 +6326,7 @@
         <v>38</v>
       </c>
       <c r="F74" s="5">
-        <v>0.75812911987304699</v>
+        <v>0.75812906026840199</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>0</v>
@@ -6456,13 +6438,13 @@
         <v>24648752</v>
       </c>
       <c r="D76" s="5">
-        <v>3738946560</v>
+        <v>3744157440</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F76" s="5">
-        <v>1.7312377691268901</v>
+        <v>1.7312378883361801</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>0</v>
@@ -6633,13 +6615,13 @@
         <v>23794868</v>
       </c>
       <c r="D79" s="5">
-        <v>5503176192</v>
+        <v>5523672576</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F79" s="5">
-        <v>1.5331381559371999</v>
+        <v>1.5331382751464799</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>0</v>
@@ -6689,10 +6671,10 @@
         <v>202</v>
       </c>
       <c r="C80" s="5">
-        <v>23687314</v>
+        <v>23687312</v>
       </c>
       <c r="D80" s="5">
-        <v>2373241600</v>
+        <v>2385264128</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>51</v>
@@ -6814,7 +6796,7 @@
         <v>35</v>
       </c>
       <c r="F82" s="5">
-        <v>0.93394243717193604</v>
+        <v>0.93394237756729104</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>0</v>
@@ -6864,7 +6846,7 @@
         <v>208</v>
       </c>
       <c r="C83" s="5">
-        <v>22974846</v>
+        <v>22974844</v>
       </c>
       <c r="D83" s="5">
         <v>2744154112</v>
@@ -6926,7 +6908,7 @@
         <v>22450696</v>
       </c>
       <c r="D84" s="5">
-        <v>2804999936</v>
+        <v>2807749888</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>45</v>
@@ -7044,7 +7026,7 @@
         <v>21584070</v>
       </c>
       <c r="D86" s="5">
-        <v>2973991680</v>
+        <v>3005831424</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>45</v>
@@ -7109,7 +7091,7 @@
         <v>62</v>
       </c>
       <c r="F87" s="5">
-        <v>1.52018547058106</v>
+        <v>1.52018535137177</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>0</v>
@@ -7162,7 +7144,7 @@
         <v>18773002</v>
       </c>
       <c r="D88" s="5">
-        <v>4821798912</v>
+        <v>4831705088</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>86</v>
@@ -7218,10 +7200,10 @@
         <v>220</v>
       </c>
       <c r="C89" s="5">
-        <v>18546100</v>
+        <v>18546102</v>
       </c>
       <c r="D89" s="5">
-        <v>4276978944</v>
+        <v>4271436032</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>76</v>
@@ -7277,7 +7259,7 @@
         <v>222</v>
       </c>
       <c r="C90" s="5">
-        <v>16797258</v>
+        <v>16797260</v>
       </c>
       <c r="D90" s="5">
         <v>2859119872</v>
@@ -7457,13 +7439,13 @@
         <v>15555342</v>
       </c>
       <c r="D93" s="5">
-        <v>1982844928</v>
+        <v>1992011520</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F93" s="5">
-        <v>4.9942722320556596</v>
+        <v>4.9942727088928196</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>0</v>
@@ -7570,40 +7552,40 @@
         <v>233</v>
       </c>
       <c r="C95" s="5">
-        <v>14769584</v>
+        <v>14782759</v>
       </c>
       <c r="D95" s="5">
-        <v>4937435136</v>
+        <v>4940052480</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F95" s="5">
-        <v>3.0226700305938698</v>
+        <v>3.0264816284179701</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H95" s="5">
-        <v>0.79940279888694998</v>
+        <v>-3.6863525831764998E-2</v>
       </c>
       <c r="I95" s="5">
-        <v>-1.9376223831447E-2</v>
+        <v>0.27887721417156902</v>
       </c>
       <c r="J95" s="5">
-        <v>-1.61827702963663</v>
+        <v>-1.3754871069985399</v>
       </c>
       <c r="K95" s="5">
-        <v>3.3814037854852401</v>
+        <v>3.29310221399821</v>
       </c>
       <c r="L95" s="5">
-        <v>-0.39419446467582298</v>
+        <v>-0.52404242228865106</v>
       </c>
       <c r="M95" s="5">
-        <v>-8.1165082018896995E-2</v>
+        <v>-0.117998687539678</v>
       </c>
       <c r="N95" s="5">
-        <v>7.59048099247868</v>
+        <v>7.2335656321795598</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>23</v>
@@ -7618,7 +7600,7 @@
         <v>13.1645374144641</v>
       </c>
       <c r="S95" s="5">
-        <v>12.8655920028687</v>
+        <v>12.8608493804932</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7806,40 +7788,40 @@
         <v>244</v>
       </c>
       <c r="C99" s="5">
-        <v>13292102</v>
+        <v>13303958</v>
       </c>
       <c r="D99" s="5">
-        <v>3648960512</v>
+        <v>3643910144</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="5">
-        <v>2.5563910007476802</v>
+        <v>2.5604016780853298</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H99" s="5">
-        <v>0.67244850519967403</v>
+        <v>-6.7582649085350999E-2</v>
       </c>
       <c r="I99" s="5">
-        <v>-5.2550950872510001E-2</v>
+        <v>0.152048077251488</v>
       </c>
       <c r="J99" s="5">
-        <v>-1.50478154816058</v>
+        <v>-1.50942581291306</v>
       </c>
       <c r="K99" s="5">
-        <v>3.22867678342873</v>
+        <v>3.3036131305974799</v>
       </c>
       <c r="L99" s="5">
-        <v>-0.61881493730375803</v>
+        <v>-0.51271323895807397</v>
       </c>
       <c r="M99" s="5">
-        <v>-0.30649146538668198</v>
+        <v>-0.37386697942050101</v>
       </c>
       <c r="N99" s="5">
-        <v>7.4831965546255503</v>
+        <v>7.0938508527921096</v>
       </c>
       <c r="O99" s="6" t="s">
         <v>23</v>
@@ -7854,7 +7836,7 @@
         <v>26.392174699852202</v>
       </c>
       <c r="S99" s="5">
-        <v>25.860811233520501</v>
+        <v>25.843334197998001</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7924,40 +7906,40 @@
         <v>248</v>
       </c>
       <c r="C101" s="5">
-        <v>11843505</v>
+        <v>11812820</v>
       </c>
       <c r="D101" s="5">
-        <v>1588656128</v>
+        <v>1598717696</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F101" s="5">
-        <v>0.34915411472320601</v>
+        <v>0.34911924600601202</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>249</v>
       </c>
       <c r="H101" s="5">
-        <v>0.42182994246922101</v>
+        <v>0.44666693177664002</v>
       </c>
       <c r="I101" s="5">
-        <v>-1.2093524822438799</v>
+        <v>-0.41392565696008998</v>
       </c>
       <c r="J101" s="5">
-        <v>-3.1944043982765198</v>
+        <v>-2.6558228982044398</v>
       </c>
       <c r="K101" s="5">
-        <v>-1.2717393544087101</v>
+        <v>-1.5044078550659601</v>
       </c>
       <c r="L101" s="5">
-        <v>-2.3331613029123899</v>
+        <v>-2.8001765628495998</v>
       </c>
       <c r="M101" s="5">
-        <v>-2.3331613029123899</v>
+        <v>-1.89691583114088</v>
       </c>
       <c r="N101" s="5">
-        <v>8.9138524408682205</v>
+        <v>9.05959680236192</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>23</v>
@@ -7972,7 +7954,7 @@
         <v>39.776468449964</v>
       </c>
       <c r="S101" s="5">
-        <v>37.550006866455099</v>
+        <v>37.717731475830099</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7983,10 +7965,10 @@
         <v>253</v>
       </c>
       <c r="C102" s="5">
-        <v>11753174</v>
+        <v>11763658</v>
       </c>
       <c r="D102" s="5">
-        <v>862004480</v>
+        <v>862944128</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>122</v>
@@ -7996,25 +7978,25 @@
         <v>122</v>
       </c>
       <c r="H102" s="5">
-        <v>0.66248866781291005</v>
+        <v>0.10900250910581601</v>
       </c>
       <c r="I102" s="5">
-        <v>-0.39698329336020899</v>
+        <v>0.10900250910581601</v>
       </c>
       <c r="J102" s="5">
-        <v>-2.37414082942077</v>
+        <v>-1.9593718915215601</v>
       </c>
       <c r="K102" s="5">
-        <v>1.98431364879046</v>
+        <v>1.8091865831996199</v>
       </c>
       <c r="L102" s="5">
-        <v>3.4466405694436602</v>
+        <v>3.1525836230064299</v>
       </c>
       <c r="M102" s="5">
-        <v>3.77174047563238</v>
+        <v>3.8848542764935901</v>
       </c>
       <c r="N102" s="5">
-        <v>10.861965759320499</v>
+        <v>10.710508628449199</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>122</v>
@@ -8029,7 +8011,7 @@
         <v>83.900699976550797</v>
       </c>
       <c r="S102" s="5">
-        <v>81.900672912597699</v>
+        <v>81.989944458007798</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8099,10 +8081,10 @@
         <v>257</v>
       </c>
       <c r="C104" s="5">
-        <v>10997359</v>
+        <v>11007168</v>
       </c>
       <c r="D104" s="5">
-        <v>1385400576</v>
+        <v>1386636416</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>54</v>
@@ -8114,25 +8096,25 @@
         <v>234</v>
       </c>
       <c r="H104" s="5">
-        <v>0.67244850519967403</v>
+        <v>8.9196280741688005E-2</v>
       </c>
       <c r="I104" s="5">
-        <v>-0.40752973720212798</v>
+        <v>8.8593024603910997E-2</v>
       </c>
       <c r="J104" s="5">
-        <v>-2.3742179026309702</v>
+        <v>-1.98865435562343</v>
       </c>
       <c r="K104" s="5">
-        <v>1.9740754402635801</v>
+        <v>1.77873202015593</v>
       </c>
       <c r="L104" s="5">
-        <v>3.4260217752417201</v>
+        <v>3.1116191168392802</v>
       </c>
       <c r="M104" s="5">
-        <v>3.7510568831148801</v>
+        <v>3.8435989670848199</v>
       </c>
       <c r="N104" s="5">
-        <v>10.8050489063288</v>
+        <v>10.620675629595199</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>23</v>
@@ -8147,7 +8129,7 @@
         <v>41.5227485233587</v>
       </c>
       <c r="S104" s="5">
-        <v>40.5087890625</v>
+        <v>40.544921875</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8217,40 +8199,40 @@
         <v>261</v>
       </c>
       <c r="C106" s="5">
-        <v>10797949</v>
+        <v>10807580</v>
       </c>
       <c r="D106" s="5">
-        <v>2444225792</v>
+        <v>2445525504</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F106" s="5">
-        <v>2.0302374362945601</v>
+        <v>2.0309686660766602</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H106" s="5">
-        <v>0.74498074719147001</v>
+        <v>5.3166228665869002E-2</v>
       </c>
       <c r="I106" s="5">
-        <v>-0.36111534420757402</v>
+        <v>5.3166228665869002E-2</v>
       </c>
       <c r="J106" s="5">
-        <v>-2.6079695884074199</v>
+        <v>-2.3188246498558001</v>
       </c>
       <c r="K106" s="5">
-        <v>1.86292076451069</v>
+        <v>1.7142453897232901</v>
       </c>
       <c r="L106" s="5">
-        <v>2.5150869822719599</v>
+        <v>2.2390993269790802</v>
       </c>
       <c r="M106" s="5">
-        <v>2.8372593116720002</v>
+        <v>2.8919340041113402</v>
       </c>
       <c r="N106" s="5">
-        <v>10.8318897304347</v>
+        <v>10.5513302937327</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>23</v>
@@ -8265,7 +8247,7 @@
         <v>23.148454965764401</v>
       </c>
       <c r="S106" s="5">
-        <v>22.506685256958001</v>
+        <v>22.518651962280298</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8276,40 +8258,40 @@
         <v>263</v>
       </c>
       <c r="C107" s="5">
-        <v>10326128</v>
+        <v>10346077</v>
       </c>
       <c r="D107" s="5">
-        <v>796362176</v>
+        <v>800938176</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F107" s="5">
-        <v>2.19318699836731</v>
+        <v>2.18808197975159</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>264</v>
       </c>
       <c r="H107" s="5">
-        <v>0.468828000260402</v>
+        <v>0.57460518224825596</v>
       </c>
       <c r="I107" s="5">
-        <v>0.51252779779931101</v>
+        <v>2.2297055953809801</v>
       </c>
       <c r="J107" s="5">
-        <v>4.1772027966765704</v>
+        <v>4.77119382709179</v>
       </c>
       <c r="K107" s="5">
-        <v>6.18564723059092</v>
+        <v>6.79579546238174</v>
       </c>
       <c r="L107" s="5">
-        <v>-7.7575836514235199</v>
+        <v>-7.2106457721312198</v>
       </c>
       <c r="M107" s="5">
-        <v>-7.7575836514235199</v>
+        <v>-7.2275539468535799</v>
       </c>
       <c r="N107" s="5">
-        <v>-10.417924908207</v>
+        <v>-9.8634979394925502</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>23</v>
@@ -8324,7 +8306,7 @@
         <v>1.82590958051477</v>
       </c>
       <c r="S107" s="5">
-        <v>1.53093302249908</v>
+        <v>1.5397297143936199</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8403,7 +8385,7 @@
         <v>22</v>
       </c>
       <c r="F109" s="5">
-        <v>1.5351928472518901</v>
+        <v>1.5351929664611801</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>0</v>
@@ -8456,7 +8438,7 @@
         <v>9689658</v>
       </c>
       <c r="D110" s="5">
-        <v>2351022336</v>
+        <v>2359330048</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>86</v>
@@ -8515,7 +8497,7 @@
         <v>9565280</v>
       </c>
       <c r="D111" s="5">
-        <v>1771560064</v>
+        <v>1724107520</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>82</v>
@@ -8574,7 +8556,7 @@
         <v>9483836</v>
       </c>
       <c r="D112" s="5">
-        <v>2408824064</v>
+        <v>2411552000</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>86</v>
@@ -8639,7 +8621,7 @@
         <v>86</v>
       </c>
       <c r="F113" s="5">
-        <v>1.9361590147018399</v>
+        <v>1.9361591339111299</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>0</v>
@@ -8689,40 +8671,40 @@
         <v>280</v>
       </c>
       <c r="C114" s="5">
-        <v>8909629</v>
+        <v>8917577</v>
       </c>
       <c r="D114" s="5">
-        <v>1758236928</v>
+        <v>1756185984</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F114" s="5">
-        <v>4.7703185081481898</v>
+        <v>4.7577095031738299</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H114" s="5">
-        <v>0.40634784617490399</v>
+        <v>0.35445641282385598</v>
       </c>
       <c r="I114" s="5">
-        <v>-0.70347552946969905</v>
+        <v>0.177460377561656</v>
       </c>
       <c r="J114" s="5">
-        <v>-3.6523573456351199</v>
+        <v>-3.0899856770754601</v>
       </c>
       <c r="K114" s="5">
-        <v>7.5195865943643403</v>
+        <v>7.6087882979301504</v>
       </c>
       <c r="L114" s="5">
-        <v>21.858387777690201</v>
+        <v>20.8256058582216</v>
       </c>
       <c r="M114" s="5">
-        <v>22.2413499523608</v>
+        <v>22.674642256389401</v>
       </c>
       <c r="N114" s="5">
-        <v>58.711185494526902</v>
+        <v>58.516352618812</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>23</v>
@@ -8737,7 +8719,7 @@
         <v>9.5845058133637302</v>
       </c>
       <c r="S114" s="5">
-        <v>9.1711902618408203</v>
+        <v>9.2036981582641602</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8810,37 +8792,37 @@
         <v>8495961</v>
       </c>
       <c r="D116" s="5">
-        <v>7801396736</v>
+        <v>7777364992</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F116" s="5">
-        <v>3.3651192188262899</v>
+        <v>3.3645162582397501</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H116" s="5">
-        <v>3.5862394835040001E-2</v>
+        <v>1.7921350365890001E-2</v>
       </c>
       <c r="I116" s="5">
-        <v>8.9700817285520998E-2</v>
+        <v>-8.9616845943660001E-3</v>
       </c>
       <c r="J116" s="5">
-        <v>0.42503956056105802</v>
+        <v>0.29900518567298501</v>
       </c>
       <c r="K116" s="5">
-        <v>3.6788701601509199</v>
+        <v>3.6974508137276998</v>
       </c>
       <c r="L116" s="5">
-        <v>-1.7081923673342501</v>
+        <v>-0.94587269249690697</v>
       </c>
       <c r="M116" s="5">
-        <v>-1.7081923673342501</v>
+        <v>-1.6905771481074301</v>
       </c>
       <c r="N116" s="5">
-        <v>6.0737979910040698</v>
+        <v>5.7447018616100696</v>
       </c>
       <c r="O116" s="6" t="s">
         <v>23</v>
@@ -8855,7 +8837,7 @@
         <v>115.860000610352</v>
       </c>
       <c r="S116" s="5">
-        <v>111.580001831055</v>
+        <v>111.59999847412099</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8866,40 +8848,40 @@
         <v>288</v>
       </c>
       <c r="C117" s="5">
-        <v>8293342</v>
+        <v>8300739.5</v>
       </c>
       <c r="D117" s="5">
-        <v>2720465152</v>
+        <v>2720799744</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>289</v>
       </c>
       <c r="F117" s="5">
-        <v>2.7359354496002202</v>
+        <v>2.7380392551422101</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H117" s="5">
-        <v>0.67244850519967403</v>
+        <v>1.2291567333821999E-2</v>
       </c>
       <c r="I117" s="5">
-        <v>-1.6249584679284002E-2</v>
+        <v>0.24031316924917301</v>
       </c>
       <c r="J117" s="5">
-        <v>-1.4045150533891599</v>
+        <v>-1.4629143158346301</v>
       </c>
       <c r="K117" s="5">
-        <v>3.30093666057076</v>
+        <v>3.3543642803139</v>
       </c>
       <c r="L117" s="5">
-        <v>-0.71871764738523602</v>
+        <v>-0.44229803962904102</v>
       </c>
       <c r="M117" s="5">
-        <v>-0.406708137927425</v>
+        <v>-0.39446656139822101</v>
       </c>
       <c r="N117" s="5">
-        <v>7.2928964268839804</v>
+        <v>6.9753576661146104</v>
       </c>
       <c r="O117" s="6" t="s">
         <v>23</v>
@@ -8914,7 +8896,7 @@
         <v>21.549140002227698</v>
       </c>
       <c r="S117" s="5">
-        <v>21.0888767242432</v>
+        <v>21.091468811035199</v>
       </c>
     </row>
     <row r="118" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8928,7 +8910,7 @@
         <v>8219710</v>
       </c>
       <c r="D118" s="5">
-        <v>969729600</v>
+        <v>977961600</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>135</v>
@@ -9100,40 +9082,40 @@
         <v>297</v>
       </c>
       <c r="C121" s="5">
-        <v>7032781.5</v>
+        <v>7039054.5</v>
       </c>
       <c r="D121" s="5">
-        <v>1636826880</v>
+        <v>1638342528</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F121" s="5">
-        <v>0.67668765783309903</v>
+        <v>0.67666471004486095</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H121" s="5">
-        <v>0.66903127779551796</v>
+        <v>9.2593825548159994E-2</v>
       </c>
       <c r="I121" s="5">
-        <v>-0.39041072310785901</v>
+        <v>0.109210760069978</v>
       </c>
       <c r="J121" s="5">
-        <v>-2.37070160091525</v>
+        <v>-1.99159380201578</v>
       </c>
       <c r="K121" s="5">
-        <v>1.98671884341064</v>
+        <v>1.7846359790180999</v>
       </c>
       <c r="L121" s="5">
-        <v>3.4007978529220702</v>
+        <v>3.1105874854108202</v>
       </c>
       <c r="M121" s="5">
-        <v>3.7257536900259001</v>
+        <v>3.8217973334461601</v>
       </c>
       <c r="N121" s="5">
-        <v>10.788439698918699</v>
+        <v>10.618905749546</v>
       </c>
       <c r="O121" s="6" t="s">
         <v>23</v>
@@ -9148,7 +9130,7 @@
         <v>41.531053186452702</v>
       </c>
       <c r="S121" s="5">
-        <v>40.515514373779297</v>
+        <v>40.553031921386697</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9218,40 +9200,40 @@
         <v>261</v>
       </c>
       <c r="C123" s="5">
-        <v>6892221.5</v>
+        <v>6898369.5</v>
       </c>
       <c r="D123" s="5">
-        <v>1234902400</v>
+        <v>1235439488</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F123" s="5">
-        <v>3.06849336624146</v>
+        <v>3.0698950290679901</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H123" s="5">
-        <v>0.71843971375233895</v>
+        <v>4.3492404538891999E-2</v>
       </c>
       <c r="I123" s="5">
-        <v>1.4033988680984001E-2</v>
+        <v>0.27242138420802098</v>
       </c>
       <c r="J123" s="5">
-        <v>-1.6335747813032799</v>
+        <v>-1.50640907383923</v>
       </c>
       <c r="K123" s="5">
-        <v>2.70560324557119</v>
+        <v>2.99006058687903</v>
       </c>
       <c r="L123" s="5">
-        <v>0.68267895043989701</v>
+        <v>0.50742419162015395</v>
       </c>
       <c r="M123" s="5">
-        <v>0.99909260390837995</v>
+        <v>1.0430195378442699</v>
       </c>
       <c r="N123" s="5">
-        <v>10.7815337733352</v>
+        <v>10.273422852001801</v>
       </c>
       <c r="O123" s="6" t="s">
         <v>23</v>
@@ -9266,7 +9248,7 @@
         <v>18.099659998098002</v>
       </c>
       <c r="S123" s="5">
-        <v>17.7428493499756</v>
+        <v>17.750566482543899</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9398,37 +9380,37 @@
         <v>6636034</v>
       </c>
       <c r="D126" s="5">
-        <v>3824153856</v>
+        <v>3830685184</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F126" s="5">
-        <v>2.6825134754180899</v>
+        <v>2.6795849800109899</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>0.297529657986639</v>
+        <v>0.10928913581418299</v>
       </c>
       <c r="I126" s="5">
-        <v>0.747152627790859</v>
+        <v>0.39928139264608897</v>
       </c>
       <c r="J126" s="5">
-        <v>2.04286604983885</v>
+        <v>1.9607303147947801</v>
       </c>
       <c r="K126" s="5">
-        <v>3.4012568152522502</v>
+        <v>3.5142631552466299</v>
       </c>
       <c r="L126" s="5">
-        <v>-2.0976243359501501</v>
+        <v>-0.55834887096128905</v>
       </c>
       <c r="M126" s="5">
-        <v>-2.0976243359501501</v>
+        <v>-1.99062767564537</v>
       </c>
       <c r="N126" s="5">
-        <v>1.6165925618210699</v>
+        <v>1.8298776194258599</v>
       </c>
       <c r="O126" s="6" t="s">
         <v>307</v>
@@ -9443,7 +9425,7 @@
         <v>134.169998168945</v>
       </c>
       <c r="S126" s="5">
-        <v>128.10000610351599</v>
+        <v>128.24000549316401</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9457,7 +9439,7 @@
         <v>6509145</v>
       </c>
       <c r="D127" s="5">
-        <v>1482955392</v>
+        <v>1485158912</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>51</v>
@@ -9754,7 +9736,7 @@
         <v>86</v>
       </c>
       <c r="F132" s="5">
-        <v>1.6484659910202</v>
+        <v>1.64846611022949</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>0</v>
@@ -9807,13 +9789,13 @@
         <v>6115284.5</v>
       </c>
       <c r="D133" s="5">
-        <v>613824064</v>
+        <v>575460032</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F133" s="5">
-        <v>1.61157321929932</v>
+        <v>1.61157333850861</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>0</v>
@@ -9866,13 +9848,13 @@
         <v>6103533</v>
       </c>
       <c r="D134" s="5">
-        <v>836920064</v>
+        <v>842800000</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F134" s="5">
-        <v>3.2724487781524698</v>
+        <v>3.27244901657104</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>0</v>
@@ -9922,55 +9904,55 @@
         <v>324</v>
       </c>
       <c r="C135" s="5">
-        <v>5951794.5</v>
+        <v>5984452</v>
       </c>
       <c r="D135" s="5">
-        <v>780643520</v>
+        <v>614850240</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F135" s="5">
-        <v>1.87081670761108</v>
+        <v>2.1400778293609601</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="H135" s="5">
-        <v>0.29813778951342002</v>
+        <v>0.53608719563873497</v>
       </c>
       <c r="I135" s="5">
-        <v>0.68661865296992797</v>
+        <v>2.1034365529125001</v>
       </c>
       <c r="J135" s="5">
-        <v>1.00465576290878</v>
+        <v>4.7334120244660403</v>
       </c>
       <c r="K135" s="5">
-        <v>2.0232805024940999</v>
+        <v>6.6625867096143496</v>
       </c>
       <c r="L135" s="5">
-        <v>3.6158978329691997E-2</v>
+        <v>-7.1143867406881798</v>
       </c>
       <c r="M135" s="5">
-        <v>3.6158978329691997E-2</v>
+        <v>-6.9823046234003598</v>
       </c>
       <c r="N135" s="5">
-        <v>3.52168802052533</v>
+        <v>-9.7642310504526897</v>
       </c>
       <c r="O135" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="R135" s="5">
-        <v>61.569999694824197</v>
+        <v>1.7477049141747301</v>
       </c>
       <c r="S135" s="5">
-        <v>57.189998626708999</v>
+        <v>1.4737823009491</v>
       </c>
     </row>
     <row r="136" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9981,40 +9963,40 @@
         <v>326</v>
       </c>
       <c r="C136" s="5">
-        <v>5950970.5</v>
+        <v>5951794.5</v>
       </c>
       <c r="D136" s="5">
-        <v>1332971008</v>
+        <v>780643520</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F136" s="5">
-        <v>0.93956243991851796</v>
+        <v>1.87081658840179</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>0.14485213057715601</v>
+        <v>0.29813778951342002</v>
       </c>
       <c r="I136" s="5">
-        <v>0.51456645388039401</v>
+        <v>0.68661865296992797</v>
       </c>
       <c r="J136" s="5">
-        <v>0.79185138970232505</v>
+        <v>1.00465576290878</v>
       </c>
       <c r="K136" s="5">
-        <v>1.52001509582453</v>
+        <v>2.0232805024940999</v>
       </c>
       <c r="L136" s="5">
-        <v>-1.6232132329508</v>
+        <v>3.6158978329691997E-2</v>
       </c>
       <c r="M136" s="5">
-        <v>-1.6232132329508</v>
+        <v>3.6158978329691997E-2</v>
       </c>
       <c r="N136" s="5">
-        <v>-0.88146623282666603</v>
+        <v>3.52168802052533</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>23</v>
@@ -10026,10 +10008,10 @@
         <v>25</v>
       </c>
       <c r="R136" s="5">
-        <v>57.296699523925803</v>
+        <v>61.569999694824197</v>
       </c>
       <c r="S136" s="5">
-        <v>55.310001373291001</v>
+        <v>57.189998626708999</v>
       </c>
     </row>
     <row r="137" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10040,55 +10022,55 @@
         <v>328</v>
       </c>
       <c r="C137" s="5">
-        <v>5950957.5</v>
+        <v>5950970.5</v>
       </c>
       <c r="D137" s="5">
-        <v>655549312</v>
+        <v>1344033024</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F137" s="5">
-        <v>2.1442494392395002</v>
+        <v>0.93956249952316295</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>0.43252058550633499</v>
+        <v>0.14485213057715601</v>
       </c>
       <c r="I137" s="5">
-        <v>0.45359185710518402</v>
+        <v>0.51456645388039401</v>
       </c>
       <c r="J137" s="5">
-        <v>4.13060922389956</v>
+        <v>0.79185138970232505</v>
       </c>
       <c r="K137" s="5">
-        <v>6.09383126484098</v>
+        <v>1.52001509582453</v>
       </c>
       <c r="L137" s="5">
-        <v>-7.4783016017011201</v>
+        <v>-1.6232132329508</v>
       </c>
       <c r="M137" s="5">
-        <v>-7.4783016017011201</v>
+        <v>-1.6232132329508</v>
       </c>
       <c r="N137" s="5">
-        <v>-10.175232553485801</v>
+        <v>-0.88146623282666603</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="R137" s="5">
-        <v>1.7477049141747301</v>
+        <v>57.296699523925803</v>
       </c>
       <c r="S137" s="5">
-        <v>1.4659237861633301</v>
+        <v>55.310001373291001</v>
       </c>
     </row>
     <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10158,40 +10140,40 @@
         <v>332</v>
       </c>
       <c r="C139" s="5">
-        <v>5840035</v>
+        <v>5863303.5</v>
       </c>
       <c r="D139" s="5">
-        <v>1907651456</v>
+        <v>1910038656</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F139" s="5">
-        <v>0.85488510131835904</v>
+        <v>0.85549968481063798</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>333</v>
       </c>
       <c r="H139" s="5">
-        <v>0.52880154592533901</v>
+        <v>0.31183340227642897</v>
       </c>
       <c r="I139" s="5">
-        <v>-5.8767177993912997E-2</v>
+        <v>-0.16576898972167101</v>
       </c>
       <c r="J139" s="5">
-        <v>-1.4849333224587</v>
+        <v>-1.1548531442090799</v>
       </c>
       <c r="K139" s="5">
-        <v>1.31865757863432</v>
+        <v>1.0497386159953099</v>
       </c>
       <c r="L139" s="5">
-        <v>-4.4527558352942398</v>
+        <v>-3.6195953034719901</v>
       </c>
       <c r="M139" s="5">
-        <v>-4.3057714867894203</v>
+        <v>-4.0073649182344901</v>
       </c>
       <c r="N139" s="5">
-        <v>4.0569990114524197</v>
+        <v>4.5243291346884797</v>
       </c>
       <c r="O139" s="6" t="s">
         <v>334</v>
@@ -10206,7 +10188,7 @@
         <v>20.245850000000001</v>
       </c>
       <c r="S139" s="5">
-        <v>19.215167999267599</v>
+        <v>19.275087356567401</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10217,10 +10199,10 @@
         <v>336</v>
       </c>
       <c r="C140" s="5">
-        <v>5818932</v>
+        <v>5824122</v>
       </c>
       <c r="D140" s="5">
-        <v>552478208</v>
+        <v>552971008</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>28</v>
@@ -10232,25 +10214,25 @@
         <v>234</v>
       </c>
       <c r="H140" s="5">
-        <v>0.63202499588868</v>
+        <v>8.9196280741688005E-2</v>
       </c>
       <c r="I140" s="5">
-        <v>-0.39698329336020899</v>
+        <v>8.9196280741688005E-2</v>
       </c>
       <c r="J140" s="5">
-        <v>-2.44197625358195</v>
+        <v>-2.0272466220777901</v>
       </c>
       <c r="K140" s="5">
-        <v>1.9042638124259701</v>
+        <v>1.7395563754555701</v>
       </c>
       <c r="L140" s="5">
-        <v>3.2837033665725102</v>
+        <v>2.9492799322834902</v>
       </c>
       <c r="M140" s="5">
-        <v>3.60829121292945</v>
+        <v>3.7007059552313999</v>
       </c>
       <c r="N140" s="5">
-        <v>10.9571603845448</v>
+        <v>10.729168250333</v>
       </c>
       <c r="O140" s="6" t="s">
         <v>23</v>
@@ -10265,7 +10247,7 @@
         <v>41.486890142714898</v>
       </c>
       <c r="S140" s="5">
-        <v>40.338653564453097</v>
+        <v>40.374637603759801</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10279,7 +10261,7 @@
         <v>5685351</v>
       </c>
       <c r="D141" s="5">
-        <v>779589952</v>
+        <v>781696960</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>35</v>
@@ -10335,40 +10317,40 @@
         <v>340</v>
       </c>
       <c r="C142" s="5">
-        <v>5655697.5</v>
+        <v>5665248</v>
       </c>
       <c r="D142" s="5">
-        <v>10474432512</v>
+        <v>10743783424</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F142" s="5">
-        <v>0.89611828327178999</v>
+        <v>0.89658236503601096</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>341</v>
       </c>
       <c r="H142" s="5">
-        <v>0.120654245012575</v>
+        <v>0.150771370892056</v>
       </c>
       <c r="I142" s="5">
-        <v>-0.40722399251516</v>
+        <v>-0.20290793545674199</v>
       </c>
       <c r="J142" s="5">
-        <v>-2.58487624449889</v>
+        <v>-2.1705287040878498</v>
       </c>
       <c r="K142" s="5">
-        <v>0.71316012235509396</v>
+        <v>0.395513325029273</v>
       </c>
       <c r="L142" s="5">
-        <v>-3.4682737926576701</v>
+        <v>-4.2084381406924498</v>
       </c>
       <c r="M142" s="5">
-        <v>-3.5472306288915298</v>
+        <v>-3.4018074662473499</v>
       </c>
       <c r="N142" s="5">
-        <v>8.8134324868026397</v>
+        <v>8.9132334154541404</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>342</v>
@@ -10383,7 +10365,7 @@
         <v>168.49770675659201</v>
       </c>
       <c r="S142" s="5">
-        <v>160.19009399414099</v>
+        <v>160.43161010742199</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10462,7 +10444,7 @@
         <v>82</v>
       </c>
       <c r="F144" s="5">
-        <v>1.44894206523895</v>
+        <v>1.44894194602966</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>0</v>
@@ -10512,40 +10494,40 @@
         <v>346</v>
       </c>
       <c r="C145" s="5">
-        <v>5376787</v>
+        <v>5381583.5</v>
       </c>
       <c r="D145" s="5">
-        <v>1029649216</v>
+        <v>1030139392</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>289</v>
       </c>
       <c r="F145" s="5">
-        <v>2.15930199623108</v>
+        <v>2.16019940376282</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H145" s="5">
-        <v>0.75616971593430704</v>
+        <v>4.7612779117401E-2</v>
       </c>
       <c r="I145" s="5">
-        <v>-0.383153334455133</v>
+        <v>2.0015282996643999E-2</v>
       </c>
       <c r="J145" s="5">
-        <v>-2.6108405622339599</v>
+        <v>-2.3378996382544299</v>
       </c>
       <c r="K145" s="5">
-        <v>1.7978633224759999</v>
+        <v>1.6548232098284801</v>
       </c>
       <c r="L145" s="5">
-        <v>2.4244104142411498</v>
+        <v>2.1540546080674998</v>
       </c>
       <c r="M145" s="5">
-        <v>2.7462977760134502</v>
+        <v>2.7952181438248598</v>
       </c>
       <c r="N145" s="5">
-        <v>10.723759471119299</v>
+        <v>10.5156915129247</v>
       </c>
       <c r="O145" s="6" t="s">
         <v>23</v>
@@ -10560,7 +10542,7 @@
         <v>20.087951447454898</v>
       </c>
       <c r="S145" s="5">
-        <v>19.500930786132798</v>
+        <v>19.510217666626001</v>
       </c>
     </row>
     <row r="146" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10574,7 +10556,7 @@
         <v>5362076</v>
       </c>
       <c r="D146" s="5">
-        <v>603253568</v>
+        <v>607580992</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>22</v>
@@ -10689,40 +10671,40 @@
         <v>352</v>
       </c>
       <c r="C148" s="5">
-        <v>5274591</v>
+        <v>5279295.5</v>
       </c>
       <c r="D148" s="5">
-        <v>1360174208</v>
+        <v>1363868032</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F148" s="5">
-        <v>2.6339969635009801</v>
+        <v>2.6353423595428498</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H148" s="5">
-        <v>0.67244850519967403</v>
+        <v>3.8103127928513003E-2</v>
       </c>
       <c r="I148" s="5">
-        <v>-0.34611235524637501</v>
+        <v>3.8103127928513003E-2</v>
       </c>
       <c r="J148" s="5">
-        <v>-2.6058643435715099</v>
+        <v>-2.3110098343635599</v>
       </c>
       <c r="K148" s="5">
-        <v>1.9214317607745699</v>
+        <v>1.8395181348624701</v>
       </c>
       <c r="L148" s="5">
-        <v>2.6940786436222099</v>
+        <v>2.5354377436691302</v>
       </c>
       <c r="M148" s="5">
-        <v>3.0168134869133798</v>
+        <v>3.0560661151441701</v>
       </c>
       <c r="N148" s="5">
-        <v>12.577572905902</v>
+        <v>12.298237426079</v>
       </c>
       <c r="O148" s="6" t="s">
         <v>23</v>
@@ -10737,7 +10719,7 @@
         <v>16.3317835239903</v>
       </c>
       <c r="S148" s="5">
-        <v>15.871344566345201</v>
+        <v>15.877391815185501</v>
       </c>
     </row>
     <row r="149" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10751,7 +10733,7 @@
         <v>5265100.5</v>
       </c>
       <c r="D149" s="5">
-        <v>628445952</v>
+        <v>616936064</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>82</v>
@@ -10804,7 +10786,7 @@
         <v>354</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C150" s="5">
         <v>5257329.5</v>
@@ -11043,40 +11025,40 @@
         <v>362</v>
       </c>
       <c r="C154" s="5">
-        <v>5033300.5</v>
+        <v>5037790.5</v>
       </c>
       <c r="D154" s="5">
-        <v>1422727424</v>
+        <v>1420989056</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F154" s="5">
-        <v>4.0675816535949698</v>
+        <v>4.0761904716491699</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H154" s="5">
-        <v>0.67244850519967403</v>
+        <v>-0.12219016977220699</v>
       </c>
       <c r="I154" s="5">
-        <v>-0.58426103795817796</v>
+        <v>-0.414587742161521</v>
       </c>
       <c r="J154" s="5">
-        <v>-3.5180021379614299</v>
+        <v>-3.33185604710707</v>
       </c>
       <c r="K154" s="5">
-        <v>8.4874289083161507</v>
+        <v>7.7019232912536504</v>
       </c>
       <c r="L154" s="5">
-        <v>22.019448927650298</v>
+        <v>21.095543799517401</v>
       </c>
       <c r="M154" s="5">
-        <v>22.402917266314699</v>
+        <v>22.253352933900899</v>
       </c>
       <c r="N154" s="5">
-        <v>59.763882384667099</v>
+        <v>59.658493414729001</v>
       </c>
       <c r="O154" s="6" t="s">
         <v>23</v>
@@ -11091,7 +11073,7 @@
         <v>8.0009946260925897</v>
       </c>
       <c r="S154" s="5">
-        <v>7.6723651885986301</v>
+        <v>7.6629905700683603</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11111,7 +11093,7 @@
         <v>22</v>
       </c>
       <c r="F155" s="5">
-        <v>3.13592576980591</v>
+        <v>3.13592600822449</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>0</v>
@@ -11164,7 +11146,7 @@
         <v>4901834.5</v>
       </c>
       <c r="D156" s="5">
-        <v>1587138048</v>
+        <v>1597554048</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>122</v>
@@ -11282,7 +11264,7 @@
         <v>4814768</v>
       </c>
       <c r="D158" s="5">
-        <v>1470028544</v>
+        <v>1472667520</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>54</v>
@@ -11397,40 +11379,40 @@
         <v>373</v>
       </c>
       <c r="C160" s="5">
-        <v>4763784.5</v>
+        <v>4771828.5</v>
       </c>
       <c r="D160" s="5">
-        <v>5973846016</v>
+        <v>5979318784</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F160" s="5">
-        <v>3.24160933494568</v>
+        <v>3.2409822940826398</v>
       </c>
       <c r="G160" s="6" t="s">
         <v>341</v>
       </c>
       <c r="H160" s="5">
-        <v>-3.5166681164539998E-3</v>
+        <v>0.22202525189696201</v>
       </c>
       <c r="I160" s="5">
-        <v>-0.71186716308241405</v>
+        <v>-0.35529453470396499</v>
       </c>
       <c r="J160" s="5">
-        <v>-2.7359122694745901</v>
+        <v>-2.1633501390359</v>
       </c>
       <c r="K160" s="5">
-        <v>1.5306073989865401</v>
+        <v>1.28239015167115</v>
       </c>
       <c r="L160" s="5">
-        <v>-0.86154811229486306</v>
+        <v>-1.3280583110719899</v>
       </c>
       <c r="M160" s="5">
-        <v>-0.94263708498516496</v>
+        <v>-0.72270472545061804</v>
       </c>
       <c r="N160" s="5">
-        <v>15.327347777975801</v>
+        <v>15.716115925362701</v>
       </c>
       <c r="O160" s="6" t="s">
         <v>307</v>
@@ -11445,7 +11427,7 @@
         <v>126.72209060897799</v>
       </c>
       <c r="S160" s="5">
-        <v>122.455116271973</v>
+        <v>122.72698974609401</v>
       </c>
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11459,37 +11441,37 @@
         <v>4716817</v>
       </c>
       <c r="D161" s="5">
-        <v>4533232128</v>
+        <v>4510983680</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F161" s="5">
-        <v>4.5740084648132298</v>
+        <v>4.5700578689575204</v>
       </c>
       <c r="G161" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>0.22141255584797701</v>
+        <v>8.6443509137467997E-2</v>
       </c>
       <c r="I161" s="5">
-        <v>0.57965265359711804</v>
+        <v>0.54032956570018198</v>
       </c>
       <c r="J161" s="5">
-        <v>1.2940278720090701</v>
+        <v>1.33229125040604</v>
       </c>
       <c r="K161" s="5">
-        <v>2.3841736356310799</v>
+        <v>2.4726781081231</v>
       </c>
       <c r="L161" s="5">
-        <v>3.3876469473158801</v>
+        <v>3.3967536132873999</v>
       </c>
       <c r="M161" s="5">
-        <v>3.3876469473158801</v>
+        <v>3.4770188573517902</v>
       </c>
       <c r="N161" s="5">
-        <v>12.3159677516133</v>
+        <v>12.5986712934974</v>
       </c>
       <c r="O161" s="6" t="s">
         <v>23</v>
@@ -11504,7 +11486,7 @@
         <v>105.279998779297</v>
       </c>
       <c r="S161" s="5">
-        <v>104.110000610352</v>
+        <v>104.199996948242</v>
       </c>
     </row>
     <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11515,40 +11497,40 @@
         <v>377</v>
       </c>
       <c r="C162" s="5">
-        <v>4693220</v>
+        <v>4711919.5</v>
       </c>
       <c r="D162" s="5">
-        <v>1772053888</v>
+        <v>1781277184</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F162" s="5">
-        <v>1.78546714782715</v>
+        <v>1.7832990884780899</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>333</v>
       </c>
       <c r="H162" s="5">
-        <v>0.22916668603363299</v>
+        <v>0.50598902894269904</v>
       </c>
       <c r="I162" s="5">
-        <v>-0.60268842156019398</v>
+        <v>-5.5155671295329996E-3</v>
       </c>
       <c r="J162" s="5">
-        <v>-2.3341491840922601</v>
+        <v>-1.93388918275354</v>
       </c>
       <c r="K162" s="5">
-        <v>0.28712317502004298</v>
+        <v>0.21453470116781201</v>
       </c>
       <c r="L162" s="5">
-        <v>0.79631404477731305</v>
+        <v>1.6149481178122</v>
       </c>
       <c r="M162" s="5">
-        <v>0.95137325847918197</v>
+        <v>1.46217613173407</v>
       </c>
       <c r="N162" s="5">
-        <v>13.4203541474822</v>
+        <v>13.9318296465236</v>
       </c>
       <c r="O162" s="6" t="s">
         <v>334</v>
@@ -11563,7 +11545,7 @@
         <v>152.34992346191399</v>
       </c>
       <c r="S162" s="5">
-        <v>147.60617065429699</v>
+        <v>148.35304260253901</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11574,40 +11556,40 @@
         <v>379</v>
       </c>
       <c r="C163" s="5">
-        <v>4580127.5</v>
+        <v>4598376.5</v>
       </c>
       <c r="D163" s="5">
-        <v>1331144320</v>
+        <v>1341688960</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F163" s="5">
-        <v>1.2304331064224201</v>
+        <v>1.22931432723999</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>333</v>
       </c>
       <c r="H163" s="5">
-        <v>0.61483486280888799</v>
+        <v>0.47530985013228799</v>
       </c>
       <c r="I163" s="5">
-        <v>0.12426165501671101</v>
+        <v>0.281611412560001</v>
       </c>
       <c r="J163" s="5">
-        <v>-1.731910852565</v>
+        <v>-1.1972264422436101</v>
       </c>
       <c r="K163" s="5">
-        <v>3.4291746255285198</v>
+        <v>3.3227632927467199</v>
       </c>
       <c r="L163" s="5">
-        <v>2.9703895301377998</v>
+        <v>3.4885999791238098</v>
       </c>
       <c r="M163" s="5">
-        <v>3.1287932156934599</v>
+        <v>3.6189745281701899</v>
       </c>
       <c r="N163" s="5">
-        <v>17.4177730829119</v>
+        <v>17.5763668108765</v>
       </c>
       <c r="O163" s="6" t="s">
         <v>23</v>
@@ -11622,7 +11604,7 @@
         <v>7.7403027188301099</v>
       </c>
       <c r="S163" s="5">
-        <v>7.5839176177978498</v>
+        <v>7.6199645996093803</v>
       </c>
     </row>
     <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11633,55 +11615,55 @@
         <v>381</v>
       </c>
       <c r="C164" s="5">
-        <v>4396450</v>
+        <v>4437315</v>
       </c>
       <c r="D164" s="5">
-        <v>356632768</v>
+        <v>1366286720</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F164" s="5">
-        <v>1.8461538553237899</v>
+        <v>2.5823059082031201</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H164" s="5">
-        <v>0.74289969693055502</v>
+        <v>0.73791149378510401</v>
       </c>
       <c r="I164" s="5">
-        <v>-0.38328441772016397</v>
+        <v>0.35572078289993803</v>
       </c>
       <c r="J164" s="5">
-        <v>-2.7485653323129502</v>
+        <v>-1.55645951595237</v>
       </c>
       <c r="K164" s="5">
-        <v>1.7227508333331301</v>
+        <v>0.217862068118579</v>
       </c>
       <c r="L164" s="5">
-        <v>2.2097139906246199</v>
+        <v>-4.35862597320265</v>
       </c>
       <c r="M164" s="5">
-        <v>2.53092662978831</v>
+        <v>-3.4677629594715098</v>
       </c>
       <c r="N164" s="5">
-        <v>9.6951917202740692</v>
+        <v>7.9806880487356402</v>
       </c>
       <c r="O164" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q164" s="6" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="R164" s="5">
-        <v>11.939927267941201</v>
+        <v>90.659687527963101</v>
       </c>
       <c r="S164" s="5">
-        <v>11.5855140686035</v>
+        <v>85.318763732910199</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11692,55 +11674,55 @@
         <v>383</v>
       </c>
       <c r="C165" s="5">
-        <v>4368932</v>
+        <v>4400371.5</v>
       </c>
       <c r="D165" s="5">
-        <v>5290440192</v>
+        <v>357606656</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F165" s="5">
-        <v>0.26971936225891102</v>
+        <v>1.8448636531829801</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H165" s="5">
-        <v>-1.4768265926134999E-2</v>
+        <v>0.15919032675959499</v>
       </c>
       <c r="I165" s="5">
-        <v>-1.4768265926134999E-2</v>
+        <v>1.9306655026651999E-2</v>
       </c>
       <c r="J165" s="5">
-        <v>-2.6746436794022999E-2</v>
+        <v>-2.21837701149565</v>
       </c>
       <c r="K165" s="5">
-        <v>0.15882756407337201</v>
+        <v>1.6797618684137401</v>
       </c>
       <c r="L165" s="5">
-        <v>0.107279594359189</v>
+        <v>1.970268439601</v>
       </c>
       <c r="M165" s="5">
-        <v>0.107279594359189</v>
+        <v>2.69414594691992</v>
       </c>
       <c r="N165" s="5">
-        <v>0.67370889479838603</v>
+        <v>9.53623887799613</v>
       </c>
       <c r="O165" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="R165" s="5">
-        <v>101.84999847412099</v>
+        <v>11.939927267941201</v>
       </c>
       <c r="S165" s="5">
-        <v>101.550003051758</v>
+        <v>11.6039571762085</v>
       </c>
     </row>
     <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11751,55 +11733,55 @@
         <v>385</v>
       </c>
       <c r="C166" s="5">
-        <v>4366452.5</v>
+        <v>4368932</v>
       </c>
       <c r="D166" s="5">
-        <v>1353762688</v>
+        <v>5291221504</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F166" s="5">
-        <v>2.5891668796539302</v>
+        <v>0.26967951655387901</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="H166" s="5">
-        <v>0.63797647043650796</v>
+        <v>1.4770447265078E-2</v>
       </c>
       <c r="I166" s="5">
-        <v>-0.89139466002872103</v>
+        <v>1.4770447265078E-2</v>
       </c>
       <c r="J166" s="5">
-        <v>-2.4555901731035199</v>
+        <v>-1.1979940097295E-2</v>
       </c>
       <c r="K166" s="5">
-        <v>0.164173479695018</v>
+        <v>0.17362147088004801</v>
       </c>
       <c r="L166" s="5">
-        <v>-4.1748676251999397</v>
+        <v>8.2675936716402998E-2</v>
       </c>
       <c r="M166" s="5">
-        <v>-4.1748676251999397</v>
+        <v>0.122065887300171</v>
       </c>
       <c r="N166" s="5">
-        <v>7.71366620770306</v>
+        <v>0.69851824328985801</v>
       </c>
       <c r="O166" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="Q166" s="6" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="R166" s="5">
-        <v>90.659687527963101</v>
+        <v>101.84999847412099</v>
       </c>
       <c r="S166" s="5">
-        <v>84.693794250488295</v>
+        <v>101.56500244140599</v>
       </c>
     </row>
     <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11813,7 +11795,7 @@
         <v>4362692</v>
       </c>
       <c r="D167" s="5">
-        <v>450746976</v>
+        <v>455300000</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>45</v>
@@ -11878,7 +11860,7 @@
         <v>122</v>
       </c>
       <c r="F168" s="5">
-        <v>1.68553614616394</v>
+        <v>1.68553626537323</v>
       </c>
       <c r="G168" s="6" t="s">
         <v>0</v>
@@ -11987,10 +11969,10 @@
         <v>392</v>
       </c>
       <c r="C170" s="5">
-        <v>4179925.5</v>
+        <v>4183654</v>
       </c>
       <c r="D170" s="5">
-        <v>1036587648</v>
+        <v>1037512256</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>51</v>
@@ -12002,25 +11984,25 @@
         <v>234</v>
       </c>
       <c r="H170" s="5">
-        <v>0.63171376027926196</v>
+        <v>8.9196280741688005E-2</v>
       </c>
       <c r="I170" s="5">
-        <v>-0.25529094948106801</v>
+        <v>6.9653590810991997E-2</v>
       </c>
       <c r="J170" s="5">
-        <v>-2.5988218577803899</v>
+        <v>-2.32252119015362</v>
       </c>
       <c r="K170" s="5">
-        <v>1.8475816959909499</v>
+        <v>1.7445035282172701</v>
       </c>
       <c r="L170" s="5">
-        <v>2.5739197016344302</v>
+        <v>2.2621073309813799</v>
       </c>
       <c r="M170" s="5">
-        <v>2.8962769235688199</v>
+        <v>2.9880565756062998</v>
       </c>
       <c r="N170" s="5">
-        <v>12.429885041694799</v>
+        <v>12.174936228996801</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>23</v>
@@ -12035,7 +12017,7 @@
         <v>20.6355798533301</v>
       </c>
       <c r="S170" s="5">
-        <v>20.0113430023193</v>
+        <v>20.0291938781738</v>
       </c>
     </row>
     <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12046,40 +12028,40 @@
         <v>394</v>
       </c>
       <c r="C171" s="5">
-        <v>4027219</v>
+        <v>4043264.75</v>
       </c>
       <c r="D171" s="5">
-        <v>1299215616</v>
+        <v>1303797760</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F171" s="5">
-        <v>0.25261983275413502</v>
+        <v>0.25273501873016402</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>333</v>
       </c>
       <c r="H171" s="5">
-        <v>0.530511056491489</v>
+        <v>0.33820836756648398</v>
       </c>
       <c r="I171" s="5">
-        <v>-0.98064976962983796</v>
+        <v>-0.93421212895339301</v>
       </c>
       <c r="J171" s="5">
-        <v>-3.2393968593097702</v>
+        <v>-2.6015804827605802</v>
       </c>
       <c r="K171" s="5">
-        <v>1.8655190374031301</v>
+        <v>1.62186098761097</v>
       </c>
       <c r="L171" s="5">
-        <v>-2.02058324698526</v>
+        <v>4.1916523244057001E-2</v>
       </c>
       <c r="M171" s="5">
-        <v>-1.8698573849865701</v>
+        <v>-1.5379730315576701</v>
       </c>
       <c r="N171" s="5">
-        <v>5.5212495395729402</v>
+        <v>5.7593342385069004</v>
       </c>
       <c r="O171" s="6" t="s">
         <v>231</v>
@@ -12094,7 +12076,7 @@
         <v>28.557656361389199</v>
       </c>
       <c r="S171" s="5">
-        <v>27.267042160034201</v>
+        <v>27.359260559081999</v>
       </c>
     </row>
     <row r="172" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12164,41 +12146,43 @@
         <v>398</v>
       </c>
       <c r="C173" s="5">
-        <v>3954066.75</v>
+        <v>3954463.25</v>
       </c>
       <c r="D173" s="5">
-        <v>1399916032</v>
+        <v>1593036800</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F173" s="5"/>
+      <c r="F173" s="5">
+        <v>0.39868277311325101</v>
+      </c>
       <c r="G173" s="6" t="s">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="H173" s="5">
-        <v>0.33413059386955302</v>
+        <v>0.387710230752636</v>
       </c>
       <c r="I173" s="5">
-        <v>0.74906146868523005</v>
+        <v>-0.126904110090931</v>
       </c>
       <c r="J173" s="5">
-        <v>2.1034303015348401</v>
+        <v>-2.1637999510697199</v>
       </c>
       <c r="K173" s="5">
-        <v>3.5611106496229201</v>
+        <v>-0.26770642769338199</v>
       </c>
       <c r="L173" s="5">
-        <v>-1.68278889131025</v>
+        <v>0.95365843621120205</v>
       </c>
       <c r="M173" s="5">
-        <v>-1.68278889131025</v>
+        <v>0.80183289553035197</v>
       </c>
       <c r="N173" s="5">
-        <v>1.6532832915835001</v>
+        <v>10.4763401552273</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="P173" s="6" t="s">
         <v>285</v>
@@ -12207,10 +12191,10 @@
         <v>286</v>
       </c>
       <c r="R173" s="5">
-        <v>6.6090002059936497</v>
+        <v>190.83588865356401</v>
       </c>
       <c r="S173" s="5">
-        <v>6.4559998512268102</v>
+        <v>185.150314331055</v>
       </c>
     </row>
     <row r="174" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12221,43 +12205,41 @@
         <v>400</v>
       </c>
       <c r="C174" s="5">
-        <v>3938769.75</v>
+        <v>3954066.75</v>
       </c>
       <c r="D174" s="5">
-        <v>1586655232</v>
+        <v>1410761728</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F174" s="5">
-        <v>0.39869770407676702</v>
-      </c>
+      <c r="F174" s="5"/>
       <c r="G174" s="6" t="s">
-        <v>333</v>
+        <v>122</v>
       </c>
       <c r="H174" s="5">
-        <v>0.321085440358715</v>
+        <v>7.7478654039840004E-3</v>
       </c>
       <c r="I174" s="5">
-        <v>-0.59334365900166597</v>
+        <v>0.34970528588143002</v>
       </c>
       <c r="J174" s="5">
-        <v>-2.62457335545714</v>
+        <v>1.93400600947304</v>
       </c>
       <c r="K174" s="5">
-        <v>-7.7875569074282003E-2</v>
+        <v>3.5691344250869301</v>
       </c>
       <c r="L174" s="5">
-        <v>0.25829171855105099</v>
+        <v>-0.60806282036120995</v>
       </c>
       <c r="M174" s="5">
-        <v>0.412523269856235</v>
+        <v>-1.6751714061245899</v>
       </c>
       <c r="N174" s="5">
-        <v>10.0958471587115</v>
+        <v>1.6371521790989201</v>
       </c>
       <c r="O174" s="6" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>285</v>
@@ -12266,10 +12248,10 @@
         <v>286</v>
       </c>
       <c r="R174" s="5">
-        <v>190.83588865356401</v>
+        <v>6.6090002059936497</v>
       </c>
       <c r="S174" s="5">
-        <v>184.43524169921901</v>
+        <v>6.4565000534057599</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12342,7 +12324,7 @@
         <v>3875867</v>
       </c>
       <c r="D176" s="5">
-        <v>1155889280</v>
+        <v>1159121024</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>82</v>
@@ -12398,10 +12380,10 @@
         <v>406</v>
       </c>
       <c r="C177" s="5">
-        <v>3767305.25</v>
+        <v>3770665.75</v>
       </c>
       <c r="D177" s="5">
-        <v>1406869120</v>
+        <v>1413831680</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>82</v>
@@ -12413,25 +12395,25 @@
         <v>234</v>
       </c>
       <c r="H177" s="5">
-        <v>0.72253544589819796</v>
+        <v>8.9196280741688005E-2</v>
       </c>
       <c r="I177" s="5">
-        <v>-0.29782421353716798</v>
+        <v>8.9196280741688005E-2</v>
       </c>
       <c r="J177" s="5">
-        <v>-1.7934443224004799</v>
+        <v>-1.64124420478724</v>
       </c>
       <c r="K177" s="5">
-        <v>3.0387150557160001</v>
+        <v>2.80021315714629</v>
       </c>
       <c r="L177" s="5">
-        <v>4.4954052479179598</v>
+        <v>4.0739936146159801</v>
       </c>
       <c r="M177" s="5">
-        <v>4.8238010880945899</v>
+        <v>4.9173000199972403</v>
       </c>
       <c r="N177" s="5">
-        <v>18.8641293147478</v>
+        <v>18.321476899877499</v>
       </c>
       <c r="O177" s="6" t="s">
         <v>23</v>
@@ -12446,7 +12428,7 @@
         <v>16.6805049423679</v>
       </c>
       <c r="S177" s="5">
-        <v>16.292636871337901</v>
+        <v>16.3071689605713</v>
       </c>
     </row>
     <row r="178" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12454,13 +12436,13 @@
         <v>407</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C178" s="5">
         <v>3766440.25</v>
       </c>
       <c r="D178" s="5">
-        <v>762448576</v>
+        <v>776311232</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>82</v>
@@ -12578,7 +12560,7 @@
         <v>3640521.25</v>
       </c>
       <c r="D180" s="5">
-        <v>3332228864</v>
+        <v>3340399872</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>28</v>
@@ -12588,25 +12570,25 @@
         <v>122</v>
       </c>
       <c r="H180" s="5">
-        <v>7.0803858455770002E-2</v>
+        <v>-1.7688440515551001E-2</v>
       </c>
       <c r="I180" s="5">
-        <v>0.14171651072105701</v>
+        <v>9.7402633046340004E-2</v>
       </c>
       <c r="J180" s="5">
-        <v>-3.5372799371302999E-2</v>
+        <v>-5.3054982990275001E-2</v>
       </c>
       <c r="K180" s="5">
-        <v>0.35505026259905498</v>
+        <v>0.33729901922898697</v>
       </c>
       <c r="L180" s="5">
-        <v>-7.0712159701414007E-2</v>
+        <v>-5.3054982990275001E-2</v>
       </c>
       <c r="M180" s="5">
-        <v>-7.0712159701414007E-2</v>
+        <v>-8.8388092338665E-2</v>
       </c>
       <c r="N180" s="5">
-        <v>1.2356691607538199</v>
+        <v>1.06392022116035</v>
       </c>
       <c r="O180" s="6" t="s">
         <v>122</v>
@@ -12621,7 +12603,7 @@
         <v>5.68400001525879</v>
       </c>
       <c r="S180" s="5">
-        <v>5.6529998779296902</v>
+        <v>5.65199995040894</v>
       </c>
     </row>
     <row r="181" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12632,40 +12614,40 @@
         <v>412</v>
       </c>
       <c r="C181" s="5">
-        <v>3625530.25</v>
+        <v>3628764.25</v>
       </c>
       <c r="D181" s="5">
-        <v>1936088576</v>
+        <v>1945324672</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F181" s="5">
-        <v>2.8923766613006601</v>
+        <v>2.8956229686737101</v>
       </c>
       <c r="G181" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H181" s="5">
-        <v>1.0121725160069801</v>
+        <v>-2.3013905675961999E-2</v>
       </c>
       <c r="I181" s="5">
-        <v>0.69160979784224097</v>
+        <v>0.76776103380327099</v>
       </c>
       <c r="J181" s="5">
-        <v>0.92613983274387701</v>
+        <v>0.69711624349944001</v>
       </c>
       <c r="K181" s="5">
-        <v>4.5750284244867396</v>
+        <v>5.1089854784924098</v>
       </c>
       <c r="L181" s="5">
-        <v>-7.2270758353270699</v>
+        <v>-6.4032868745943903</v>
       </c>
       <c r="M181" s="5">
-        <v>-6.9355200266824797</v>
+        <v>-6.9569377983213698</v>
       </c>
       <c r="N181" s="5">
-        <v>-2.9884408861106899</v>
+        <v>-3.1925698543781902</v>
       </c>
       <c r="O181" s="6" t="s">
         <v>23</v>
@@ -12680,7 +12662,7 @@
         <v>16.037025486109599</v>
       </c>
       <c r="S181" s="5">
-        <v>14.4535369873047</v>
+        <v>14.4502105712891</v>
       </c>
     </row>
     <row r="182" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12694,7 +12676,7 @@
         <v>3610101.75</v>
       </c>
       <c r="D182" s="5">
-        <v>745008000</v>
+        <v>748992000</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>82</v>
@@ -12750,10 +12732,10 @@
         <v>415</v>
       </c>
       <c r="C183" s="5">
-        <v>3588736.5</v>
+        <v>3588736.75</v>
       </c>
       <c r="D183" s="5">
-        <v>1695149056</v>
+        <v>1702406400</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>45</v>
@@ -12763,25 +12745,25 @@
         <v>122</v>
       </c>
       <c r="H183" s="5">
-        <v>3.3250198589684997E-2</v>
+        <v>-3.3239146507458003E-2</v>
       </c>
       <c r="I183" s="5">
-        <v>6.6514581988075E-2</v>
+        <v>3.3253326601268E-2</v>
       </c>
       <c r="J183" s="5">
-        <v>0.48422579804541199</v>
+        <v>0.30009417493897</v>
       </c>
       <c r="K183" s="5">
-        <v>3.79441656406334</v>
+        <v>3.7599161858750301</v>
       </c>
       <c r="L183" s="5">
-        <v>-1.50572840620344</v>
+        <v>-1.0851691407789199</v>
       </c>
       <c r="M183" s="5">
-        <v>-1.50572840620344</v>
+        <v>-1.53846706143996</v>
       </c>
       <c r="N183" s="5">
-        <v>6.0627485452852303</v>
+        <v>5.7851241055320299</v>
       </c>
       <c r="O183" s="6" t="s">
         <v>122</v>
@@ -12796,7 +12778,7 @@
         <v>6.1500000953674299</v>
       </c>
       <c r="S183" s="5">
-        <v>6.0180001258850098</v>
+        <v>6.0159997940063503</v>
       </c>
     </row>
     <row r="184" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12866,40 +12848,40 @@
         <v>418</v>
       </c>
       <c r="C185" s="5">
-        <v>3294872.5</v>
+        <v>3297811.5</v>
       </c>
       <c r="D185" s="5">
-        <v>591231424</v>
+        <v>593707456</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>289</v>
       </c>
       <c r="F185" s="5">
-        <v>1.39873695373535</v>
+        <v>1.39712309837341</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H185" s="5">
-        <v>0.78979192921753105</v>
+        <v>0.20481987310254601</v>
       </c>
       <c r="I185" s="5">
-        <v>0.14328221356301199</v>
+        <v>0.47637507073994301</v>
       </c>
       <c r="J185" s="5">
-        <v>-1.5122925337805</v>
+        <v>-1.1909771727277001</v>
       </c>
       <c r="K185" s="5">
-        <v>3.5622246202930801</v>
+        <v>3.6552989102612599</v>
       </c>
       <c r="L185" s="5">
-        <v>1.38396251067752</v>
+        <v>1.4967543076310801</v>
       </c>
       <c r="M185" s="5">
-        <v>1.70258007544162</v>
+        <v>1.9108871708941599</v>
       </c>
       <c r="N185" s="5">
-        <v>9.1541205278086402</v>
+        <v>8.4305872456621191</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>23</v>
@@ -12914,7 +12896,7 @@
         <v>21.4711242453578</v>
       </c>
       <c r="S185" s="5">
-        <v>21.040266036987301</v>
+        <v>21.083360671997099</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12925,10 +12907,10 @@
         <v>420</v>
       </c>
       <c r="C186" s="5">
-        <v>3282196.5</v>
+        <v>3282196.75</v>
       </c>
       <c r="D186" s="5">
-        <v>2400662528</v>
+        <v>2400343040</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>306</v>
@@ -12938,25 +12920,25 @@
         <v>122</v>
       </c>
       <c r="H186" s="5">
-        <v>1.8488345953083001E-2</v>
+        <v>9.2336534597499999E-3</v>
       </c>
       <c r="I186" s="5">
-        <v>3.6974712293557997E-2</v>
+        <v>2.7723706562632001E-2</v>
       </c>
       <c r="J186" s="5">
-        <v>-0.11074274117107701</v>
+        <v>-0.119952831927794</v>
       </c>
       <c r="K186" s="5">
-        <v>-3.6938585681977998E-2</v>
+        <v>-2.7708343003219001E-2</v>
       </c>
       <c r="L186" s="5">
-        <v>-0.119955105057301</v>
+        <v>-4.6169108736305003E-2</v>
       </c>
       <c r="M186" s="5">
-        <v>-0.119955105057301</v>
+        <v>-0.11073252783625499</v>
       </c>
       <c r="N186" s="5">
-        <v>5.5467913548689997E-2</v>
+        <v>7.3952296184410002E-2</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>122</v>
@@ -12971,7 +12953,7 @@
         <v>5.4569997787475604</v>
       </c>
       <c r="S186" s="5">
-        <v>5.4120001792907697</v>
+        <v>5.4124999046325701</v>
       </c>
     </row>
     <row r="187" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12982,40 +12964,40 @@
         <v>422</v>
       </c>
       <c r="C187" s="5">
-        <v>3140376.5</v>
+        <v>3152889</v>
       </c>
       <c r="D187" s="5">
-        <v>2495201792</v>
+        <v>2517895936</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F187" s="5">
-        <v>2.1219797134399401</v>
+        <v>2.1234929561614999</v>
       </c>
       <c r="G187" s="6" t="s">
         <v>333</v>
       </c>
       <c r="H187" s="5">
-        <v>0.53001466604349901</v>
+        <v>0.312418598579778</v>
       </c>
       <c r="I187" s="5">
-        <v>-3.1450211461602998E-2</v>
+        <v>0.22063667454417199</v>
       </c>
       <c r="J187" s="5">
-        <v>-1.38166399825426</v>
+        <v>-0.81548768372688996</v>
       </c>
       <c r="K187" s="5">
-        <v>1.7445025175209601</v>
+        <v>1.4750452602870601</v>
       </c>
       <c r="L187" s="5">
-        <v>-2.0977879422803101</v>
+        <v>-1.50484829741966</v>
       </c>
       <c r="M187" s="5">
-        <v>-1.9471808475149199</v>
+        <v>-1.64084560405077</v>
       </c>
       <c r="N187" s="5">
-        <v>12.507939721670001</v>
+        <v>12.877927977603701</v>
       </c>
       <c r="O187" s="6" t="s">
         <v>307</v>
@@ -13030,7 +13012,7 @@
         <v>220.201228662109</v>
       </c>
       <c r="S187" s="5">
-        <v>213.09234619140599</v>
+        <v>213.75807189941401</v>
       </c>
     </row>
     <row r="188" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13041,53 +13023,55 @@
         <v>424</v>
       </c>
       <c r="C188" s="5">
-        <v>3138758.25</v>
+        <v>3143415.25</v>
       </c>
       <c r="D188" s="5">
-        <v>3882497792</v>
+        <v>926948672</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F188" s="5"/>
+      <c r="F188" s="5">
+        <v>2.4879841804504399</v>
+      </c>
       <c r="G188" s="6" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="H188" s="5">
-        <v>0</v>
+        <v>0.42660905122853299</v>
       </c>
       <c r="I188" s="5">
-        <v>0</v>
+        <v>-0.50757270975990698</v>
       </c>
       <c r="J188" s="5">
-        <v>-9.7126634891699995E-3</v>
+        <v>-2.0916777232722201</v>
       </c>
       <c r="K188" s="5">
-        <v>9.7052889008959996E-3</v>
+        <v>-0.77965053775219695</v>
       </c>
       <c r="L188" s="5">
-        <v>2.9140049895626002E-2</v>
+        <v>-0.99241819741386905</v>
       </c>
       <c r="M188" s="5">
-        <v>2.9140049895626002E-2</v>
+        <v>0.14031233602938001</v>
       </c>
       <c r="N188" s="5">
-        <v>8.7461851868697996E-2</v>
+        <v>14.3688864373632</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="R188" s="5">
-        <v>5.1690001487731898</v>
+        <v>8.1813598951561897</v>
       </c>
       <c r="S188" s="5">
-        <v>5.1494998931884801</v>
+        <v>7.7363915443420401</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13098,55 +13082,53 @@
         <v>426</v>
       </c>
       <c r="C189" s="5">
-        <v>3128571</v>
+        <v>3138758.25</v>
       </c>
       <c r="D189" s="5">
-        <v>981325504</v>
+        <v>3898590976</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F189" s="5">
-        <v>5.4340686798095703</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F189" s="5"/>
       <c r="G189" s="6" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H189" s="5">
-        <v>0.235179851939149</v>
+        <v>0</v>
       </c>
       <c r="I189" s="5">
-        <v>0.83243835477973005</v>
+        <v>0</v>
       </c>
       <c r="J189" s="5">
-        <v>1.35760649460774</v>
+        <v>0</v>
       </c>
       <c r="K189" s="5">
-        <v>3.6394952946741101</v>
+        <v>9.7052889008959996E-3</v>
       </c>
       <c r="L189" s="5">
-        <v>5.6242380170139699</v>
+        <v>-9.7126634891699995E-3</v>
       </c>
       <c r="M189" s="5">
-        <v>5.6242380170139699</v>
+        <v>2.9140049895626002E-2</v>
       </c>
       <c r="N189" s="5">
-        <v>22.214031528979199</v>
+        <v>8.7461851868697996E-2</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="Q189" s="6" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="R189" s="5">
-        <v>21.349899291992202</v>
+        <v>5.1690001487731898</v>
       </c>
       <c r="S189" s="5">
-        <v>21.309999465942401</v>
+        <v>5.1494998931884801</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13157,55 +13139,55 @@
         <v>428</v>
       </c>
       <c r="C190" s="5">
-        <v>3118614.5</v>
+        <v>3128571</v>
       </c>
       <c r="D190" s="5">
-        <v>919813184</v>
+        <v>985587456</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F190" s="5">
-        <v>2.4879841804504399</v>
+        <v>5.4340686798095703</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="H190" s="5">
-        <v>0.24666938214419301</v>
+        <v>0.235179851939149</v>
       </c>
       <c r="I190" s="5">
-        <v>-0.99417542802492398</v>
+        <v>0.83243835477973005</v>
       </c>
       <c r="J190" s="5">
-        <v>-2.6333842155454201</v>
+        <v>1.35760649460774</v>
       </c>
       <c r="K190" s="5">
-        <v>-0.52540622877591503</v>
+        <v>3.6394952946741101</v>
       </c>
       <c r="L190" s="5">
-        <v>-0.28508053583000698</v>
+        <v>5.6242380170139699</v>
       </c>
       <c r="M190" s="5">
-        <v>-0.28508053583000698</v>
+        <v>5.6242380170139699</v>
       </c>
       <c r="N190" s="5">
-        <v>14.376053503838699</v>
+        <v>22.214031528979199</v>
       </c>
       <c r="O190" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="R190" s="5">
-        <v>8.1813598951561897</v>
+        <v>21.349899291992202</v>
       </c>
       <c r="S190" s="5">
-        <v>7.7035274505615199</v>
+        <v>21.309999465942401</v>
       </c>
     </row>
     <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13216,40 +13198,40 @@
         <v>430</v>
       </c>
       <c r="C191" s="5">
-        <v>3078323.75</v>
+        <v>3081069.5</v>
       </c>
       <c r="D191" s="5">
-        <v>898037760</v>
+        <v>897903104</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F191" s="5">
-        <v>3.2355899810790998</v>
+        <v>3.2450046539306601</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H191" s="5">
-        <v>0.506490020943695</v>
+        <v>-0.20119531668705301</v>
       </c>
       <c r="I191" s="5">
-        <v>-0.41734569186410198</v>
+        <v>-0.17346336000566601</v>
       </c>
       <c r="J191" s="5">
-        <v>-2.3953082910468302</v>
+        <v>-1.8582668045727799</v>
       </c>
       <c r="K191" s="5">
-        <v>2.4502118499560201</v>
+        <v>2.2141316436829599</v>
       </c>
       <c r="L191" s="5">
-        <v>2.19193665875859</v>
+        <v>1.68157052022249</v>
       </c>
       <c r="M191" s="5">
-        <v>2.51309342941952</v>
+        <v>2.3068418864485198</v>
       </c>
       <c r="N191" s="5">
-        <v>12.624276403011301</v>
+        <v>12.186865645471</v>
       </c>
       <c r="O191" s="6" t="s">
         <v>23</v>
@@ -13264,7 +13246,7 @@
         <v>17.2118893575526</v>
       </c>
       <c r="S191" s="5">
-        <v>16.754436492919901</v>
+        <v>16.720727920532202</v>
       </c>
     </row>
     <row r="192" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13337,7 +13319,7 @@
         <v>2940632.5</v>
       </c>
       <c r="D193" s="5">
-        <v>793762176</v>
+        <v>810943168</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>38</v>
@@ -13452,40 +13434,40 @@
         <v>436</v>
       </c>
       <c r="C195" s="5">
-        <v>2830583.75</v>
+        <v>2833108.5</v>
       </c>
       <c r="D195" s="5">
-        <v>622134272</v>
+        <v>623263744</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F195" s="5">
-        <v>2.63565921783447</v>
+        <v>2.6390686035156201</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H195" s="5">
-        <v>0.80268130213352296</v>
+        <v>-4.0114723748674003E-2</v>
       </c>
       <c r="I195" s="5">
-        <v>-4.8377048360460001E-2</v>
+        <v>0.28379440791841398</v>
       </c>
       <c r="J195" s="5">
-        <v>-1.95406394479177</v>
+        <v>-1.9382221004125</v>
       </c>
       <c r="K195" s="5">
-        <v>3.5009911431927501</v>
+        <v>3.3818846689989801</v>
       </c>
       <c r="L195" s="5">
-        <v>2.3670406886422E-2</v>
+        <v>-0.28589054570026301</v>
       </c>
       <c r="M195" s="5">
-        <v>0.338013005997717</v>
+        <v>0.29776268926544602</v>
       </c>
       <c r="N195" s="5">
-        <v>8.3796286875250896</v>
+        <v>8.0141884379002502</v>
       </c>
       <c r="O195" s="6" t="s">
         <v>23</v>
@@ -13500,7 +13482,7 @@
         <v>12.857852028671999</v>
       </c>
       <c r="S195" s="5">
-        <v>12.541521072387701</v>
+        <v>12.5364904403687</v>
       </c>
     </row>
     <row r="196" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13508,176 +13490,176 @@
         <v>437</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>274</v>
+        <v>438</v>
       </c>
       <c r="C196" s="5">
-        <v>2824846.25</v>
+        <v>2830464</v>
       </c>
       <c r="D196" s="5">
-        <v>1024258560</v>
+        <v>3220353024</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F196" s="5">
-        <v>1.66327571868897</v>
+        <v>0.486871868371964</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="H196" s="5">
-        <v>0.112156202348368</v>
+        <v>0.471299784850232</v>
       </c>
       <c r="I196" s="5">
-        <v>0.22232341979728801</v>
+        <v>0.26033237314402302</v>
       </c>
       <c r="J196" s="5">
-        <v>-6.2613091158770007E-2</v>
+        <v>-1.24014703816744</v>
       </c>
       <c r="K196" s="5">
-        <v>1.1123363237105499</v>
+        <v>3.30946816430875</v>
       </c>
       <c r="L196" s="5">
-        <v>-0.51219756932988603</v>
+        <v>3.4188701075694499</v>
       </c>
       <c r="M196" s="5">
-        <v>-0.51219756932988603</v>
+        <v>3.4609664905519</v>
       </c>
       <c r="N196" s="5">
-        <v>2.2615119826465899</v>
+        <v>17.247404467115</v>
       </c>
       <c r="O196" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P196" s="6" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="Q196" s="6" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="R196" s="5">
-        <v>22.629999160766602</v>
+        <v>162.281386701965</v>
       </c>
       <c r="S196" s="5">
-        <v>22.315000534057599</v>
+        <v>159.38320922851599</v>
       </c>
     </row>
     <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A197" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="C197" s="5">
-        <v>2820267</v>
+        <v>2824846.25</v>
       </c>
       <c r="D197" s="5">
-        <v>1623533312</v>
+        <v>1024258560</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F197" s="5">
-        <v>2.3482310771942099</v>
+        <v>1.66327583789825</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H197" s="5">
-        <v>0.26414978624425001</v>
+        <v>0.112156202348368</v>
       </c>
       <c r="I197" s="5">
-        <v>0.56825484083351496</v>
+        <v>0.22232341979728801</v>
       </c>
       <c r="J197" s="5">
-        <v>0.93645218886671</v>
+        <v>-6.2613091158770007E-2</v>
       </c>
       <c r="K197" s="5">
-        <v>1.5497725762468899</v>
+        <v>1.1123363237105499</v>
       </c>
       <c r="L197" s="5">
-        <v>-1.3392816961613301</v>
+        <v>-0.51219756932988603</v>
       </c>
       <c r="M197" s="5">
-        <v>-1.3392816961613301</v>
+        <v>-0.51219756932988603</v>
       </c>
       <c r="N197" s="5">
-        <v>0.34351196015287599</v>
+        <v>2.2615119826465899</v>
       </c>
       <c r="O197" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q197" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R197" s="5">
-        <v>26.7700004577637</v>
+        <v>22.629999160766602</v>
       </c>
       <c r="S197" s="5">
-        <v>25.507200241088899</v>
+        <v>22.315000534057599</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A198" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C198" s="5">
-        <v>2819231.25</v>
+        <v>2820267</v>
       </c>
       <c r="D198" s="5">
-        <v>3189713664</v>
+        <v>1623533312</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F198" s="5">
-        <v>0.48729550838470498</v>
+        <v>2.3482310771942099</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="H198" s="5">
-        <v>0.58236828823559095</v>
+        <v>0.26414978624425001</v>
       </c>
       <c r="I198" s="5">
-        <v>0.10516995644216399</v>
+        <v>0.56825484083351496</v>
       </c>
       <c r="J198" s="5">
-        <v>-1.7667708341464901</v>
+        <v>0.93645218886671</v>
       </c>
       <c r="K198" s="5">
-        <v>3.4199933949443402</v>
+        <v>1.5497725762468899</v>
       </c>
       <c r="L198" s="5">
-        <v>2.8174740597097099</v>
+        <v>-1.3392816961613301</v>
       </c>
       <c r="M198" s="5">
-        <v>2.9756425089590302</v>
+        <v>-1.3392816961613301</v>
       </c>
       <c r="N198" s="5">
-        <v>17.1894132184702</v>
+        <v>0.34351196015287599</v>
       </c>
       <c r="O198" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="R198" s="5">
-        <v>162.281386701965</v>
+        <v>26.7700004577637</v>
       </c>
       <c r="S198" s="5">
-        <v>158.63555908203099</v>
+        <v>25.507200241088899</v>
       </c>
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13688,40 +13670,40 @@
         <v>444</v>
       </c>
       <c r="C199" s="5">
-        <v>2768508.75</v>
+        <v>2770978.25</v>
       </c>
       <c r="D199" s="5">
-        <v>1178506880</v>
+        <v>1182999552</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F199" s="5">
-        <v>4.2013130187988299</v>
+        <v>4.1890907287597701</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H199" s="5">
-        <v>0.45264161851685802</v>
+        <v>0.38121407957394399</v>
       </c>
       <c r="I199" s="5">
-        <v>-0.46958190451195098</v>
+        <v>0.16204307026714801</v>
       </c>
       <c r="J199" s="5">
-        <v>-3.48917944561002</v>
+        <v>-2.8854268269088101</v>
       </c>
       <c r="K199" s="5">
-        <v>6.7257853964097603</v>
+        <v>6.9236899914587404</v>
       </c>
       <c r="L199" s="5">
-        <v>17.7548849522585</v>
+        <v>16.882115147424901</v>
       </c>
       <c r="M199" s="5">
-        <v>18.124951122029799</v>
+        <v>18.575260067196801</v>
       </c>
       <c r="N199" s="5">
-        <v>48.662031500062902</v>
+        <v>48.598386881007897</v>
       </c>
       <c r="O199" s="6" t="s">
         <v>23</v>
@@ -13736,7 +13718,7 @@
         <v>11.5496230040426</v>
       </c>
       <c r="S199" s="5">
-        <v>11.107510566711399</v>
+        <v>11.149853706359901</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13756,7 +13738,7 @@
         <v>82</v>
       </c>
       <c r="F200" s="5">
-        <v>2.2945396900177002</v>
+        <v>2.2945399284362802</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>0</v>
@@ -13806,10 +13788,10 @@
         <v>448</v>
       </c>
       <c r="C201" s="5">
-        <v>2696354.5</v>
+        <v>2700907.5</v>
       </c>
       <c r="D201" s="5">
-        <v>675565760</v>
+        <v>627393216</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>306</v>
@@ -13819,25 +13801,25 @@
         <v>122</v>
       </c>
       <c r="H201" s="5">
-        <v>-1.2605432579248999E-2</v>
+        <v>0.22240983228094499</v>
       </c>
       <c r="I201" s="5">
-        <v>-0.75950741069795702</v>
+        <v>-0.42199983468583802</v>
       </c>
       <c r="J201" s="5">
-        <v>-3.2425579173588499</v>
+        <v>-2.5919138901093199</v>
       </c>
       <c r="K201" s="5">
-        <v>0.477699684919353</v>
+        <v>0.23244115567278001</v>
       </c>
       <c r="L201" s="5">
-        <v>-3.54167014502019</v>
+        <v>-3.9669285029824199</v>
       </c>
       <c r="M201" s="5">
-        <v>-3.6205669476878599</v>
+        <v>-3.4062096122829</v>
       </c>
       <c r="N201" s="5">
-        <v>4.6201037909910898</v>
+        <v>4.7212987811322096</v>
       </c>
       <c r="O201" s="6" t="s">
         <v>122</v>
@@ -13852,7 +13834,7 @@
         <v>6.2656198310852096</v>
       </c>
       <c r="S201" s="5">
-        <v>6.0019469261169398</v>
+        <v>6.0152959823608398</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13923,7 +13905,7 @@
         <v>2614664</v>
       </c>
       <c r="D203" s="5">
-        <v>1689403008</v>
+        <v>1690761472</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>306</v>
@@ -13933,25 +13915,25 @@
         <v>122</v>
       </c>
       <c r="H203" s="5">
-        <v>0.19336262022255901</v>
+        <v>8.0413549261271006E-2</v>
       </c>
       <c r="I203" s="5">
-        <v>0.56606577576345796</v>
+        <v>0.484421291530368</v>
       </c>
       <c r="J203" s="5">
-        <v>1.22089870955899</v>
+        <v>1.4178600223420299</v>
       </c>
       <c r="K203" s="5">
-        <v>2.3876170265021899</v>
+        <v>2.46995054335724</v>
       </c>
       <c r="L203" s="5">
-        <v>3.2033167921625498</v>
+        <v>3.4064459856738099</v>
       </c>
       <c r="M203" s="5">
-        <v>3.2033167921625498</v>
+        <v>3.2863062421504901</v>
       </c>
       <c r="N203" s="5">
-        <v>12.319367556794299</v>
+        <v>12.45030971582</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>122</v>
@@ -13963,10 +13945,10 @@
         <v>286</v>
       </c>
       <c r="R203" s="5">
-        <v>6.2189998626709002</v>
+        <v>6.22300004959106</v>
       </c>
       <c r="S203" s="5">
-        <v>6.21799993515015</v>
+        <v>6.22300004959106</v>
       </c>
     </row>
     <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14036,55 +14018,55 @@
         <v>456</v>
       </c>
       <c r="C205" s="5">
-        <v>2571783.5</v>
+        <v>2590113</v>
       </c>
       <c r="D205" s="5">
-        <v>308385056</v>
+        <v>1110292096</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F205" s="5">
-        <v>0.57292664051055897</v>
+        <v>3.1443800926208501</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="H205" s="5">
-        <v>0.107126179335526</v>
+        <v>0.685802355193177</v>
       </c>
       <c r="I205" s="5">
-        <v>0.48387177818314298</v>
+        <v>0.42363477313007702</v>
       </c>
       <c r="J205" s="5">
-        <v>3.6272164763229003E-2</v>
+        <v>-1.5543386689624801</v>
       </c>
       <c r="K205" s="5">
-        <v>-0.36313420621931802</v>
+        <v>0.21592663829499401</v>
       </c>
       <c r="L205" s="5">
-        <v>-9.0162124600324596</v>
+        <v>-4.5948004561265803</v>
       </c>
       <c r="M205" s="5">
-        <v>-9.0162124600324596</v>
+        <v>-3.4992781915107201</v>
       </c>
       <c r="N205" s="5">
-        <v>-15.264975115481199</v>
+        <v>8.0570904234218705</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="Q205" s="6" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="R205" s="5">
-        <v>22.360000610351602</v>
+        <v>40.500221851977599</v>
       </c>
       <c r="S205" s="5">
-        <v>18.690000534057599</v>
+        <v>38.041648864746101</v>
       </c>
     </row>
     <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14095,158 +14077,158 @@
         <v>458</v>
       </c>
       <c r="C206" s="5">
-        <v>2531663.5</v>
+        <v>2571783.5</v>
       </c>
       <c r="D206" s="5">
-        <v>6548784128</v>
+        <v>308385056</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F206" s="5">
-        <v>2.86468434333801</v>
+        <v>0.57292670011520397</v>
       </c>
       <c r="G206" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H206" s="5">
-        <v>-0.14192440635731901</v>
+        <v>0.107126179335526</v>
       </c>
       <c r="I206" s="5">
-        <v>-0.18240277928349699</v>
+        <v>0.48387177818314298</v>
       </c>
       <c r="J206" s="5">
-        <v>-1.3758308312874401</v>
+        <v>3.6272164763229003E-2</v>
       </c>
       <c r="K206" s="5">
-        <v>2.7760852071416999</v>
+        <v>-0.36313420621931802</v>
       </c>
       <c r="L206" s="5">
-        <v>2.80300685317789</v>
+        <v>-9.0162124600324596</v>
       </c>
       <c r="M206" s="5">
-        <v>2.80300685317789</v>
+        <v>-9.0162124600324596</v>
       </c>
       <c r="N206" s="5">
-        <v>11.315015869268001</v>
+        <v>-15.264975115481199</v>
       </c>
       <c r="O206" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P206" s="6" t="s">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="Q206" s="6" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="R206" s="5">
-        <v>5.59299993515015</v>
+        <v>22.360000610351602</v>
       </c>
       <c r="S206" s="5">
-        <v>5.4176998138427699</v>
+        <v>18.690000534057599</v>
       </c>
     </row>
     <row r="207" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A207" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="C207" s="5">
-        <v>2527841.5</v>
+        <v>2516722</v>
       </c>
       <c r="D207" s="5">
-        <v>1100683904</v>
+        <v>631410112</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F207" s="5">
-        <v>3.15500092506409</v>
+        <v>8.1204071044921893</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="H207" s="5">
-        <v>0.72183516603037101</v>
+        <v>0.37183534979412503</v>
       </c>
       <c r="I207" s="5">
-        <v>-0.73309825056905298</v>
+        <v>0.73149513975565605</v>
       </c>
       <c r="J207" s="5">
-        <v>-2.3316322340525399</v>
+        <v>0.36846533168388701</v>
       </c>
       <c r="K207" s="5">
-        <v>0.214077259291545</v>
+        <v>2.7749940202713699</v>
       </c>
       <c r="L207" s="5">
-        <v>-4.1565746597916897</v>
+        <v>2.4915736239368198</v>
       </c>
       <c r="M207" s="5">
-        <v>-4.1565746597916897</v>
+        <v>2.4915736239368198</v>
       </c>
       <c r="N207" s="5">
-        <v>7.8020364244762597</v>
+        <v>6.8527849907049898</v>
       </c>
       <c r="O207" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P207" s="6" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="Q207" s="6" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="R207" s="5">
-        <v>40.500221851977599</v>
+        <v>28.315000534057599</v>
       </c>
       <c r="S207" s="5">
-        <v>37.782535552978501</v>
+        <v>27.938499450683601</v>
       </c>
     </row>
     <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A208" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C208" s="5">
-        <v>2516722</v>
+        <v>2507298.5</v>
       </c>
       <c r="D208" s="5">
-        <v>631410112</v>
+        <v>1141677056</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F208" s="5">
-        <v>8.1204080581665004</v>
+        <v>1.87767314910889</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H208" s="5">
-        <v>0.37183534979412503</v>
+        <v>0.14841932113678299</v>
       </c>
       <c r="I208" s="5">
-        <v>0.73149513975565605</v>
+        <v>0.23097588568969901</v>
       </c>
       <c r="J208" s="5">
-        <v>0.36846533168388701</v>
+        <v>-2.8499635488677E-2</v>
       </c>
       <c r="K208" s="5">
-        <v>2.7749940202713699</v>
+        <v>1.12863163178729</v>
       </c>
       <c r="L208" s="5">
-        <v>2.4915736239368198</v>
+        <v>-0.423189024642112</v>
       </c>
       <c r="M208" s="5">
-        <v>2.4915736239368198</v>
+        <v>-0.423189024642112</v>
       </c>
       <c r="N208" s="5">
-        <v>6.8527849907049898</v>
+        <v>2.3337285990447301</v>
       </c>
       <c r="O208" s="6" t="s">
         <v>23</v>
@@ -14258,54 +14240,54 @@
         <v>25</v>
       </c>
       <c r="R208" s="5">
-        <v>28.315000534057599</v>
+        <v>27.409999847412099</v>
       </c>
       <c r="S208" s="5">
-        <v>27.938499450683601</v>
+        <v>26.9899997711182</v>
       </c>
     </row>
     <row r="209" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A209" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="C209" s="5">
-        <v>2507298.5</v>
+        <v>2499532.5</v>
       </c>
       <c r="D209" s="5">
-        <v>1141677056</v>
+        <v>410360128</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F209" s="5">
-        <v>1.87767314910889</v>
+        <v>6.4085254669189498</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H209" s="5">
-        <v>0.14841932113678299</v>
+        <v>0.80703152167360703</v>
       </c>
       <c r="I209" s="5">
-        <v>0.23097588568969901</v>
+        <v>-6.6117942228426999E-2</v>
       </c>
       <c r="J209" s="5">
-        <v>-2.8499635488677E-2</v>
+        <v>-2.26114293946857</v>
       </c>
       <c r="K209" s="5">
-        <v>1.12863163178729</v>
+        <v>2.50355785809777</v>
       </c>
       <c r="L209" s="5">
-        <v>-0.423189024642112</v>
+        <v>-2.3094827554201101</v>
       </c>
       <c r="M209" s="5">
-        <v>-0.423189024642112</v>
+        <v>-2.3094827554201101</v>
       </c>
       <c r="N209" s="5">
-        <v>2.3337285990447301</v>
+        <v>9.1453544141121306</v>
       </c>
       <c r="O209" s="6" t="s">
         <v>23</v>
@@ -14317,54 +14299,54 @@
         <v>25</v>
       </c>
       <c r="R209" s="5">
-        <v>27.409999847412099</v>
+        <v>58.8799018859863</v>
       </c>
       <c r="S209" s="5">
-        <v>26.9899997711182</v>
+        <v>56.209999084472699</v>
       </c>
     </row>
     <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A210" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="C210" s="5">
-        <v>2499532.5</v>
+        <v>2463138</v>
       </c>
       <c r="D210" s="5">
-        <v>410360128</v>
+        <v>745152704</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="F210" s="5">
-        <v>6.4085254669189498</v>
+        <v>2.2843316197394999E-2</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>0.80703152167360703</v>
+        <v>0</v>
       </c>
       <c r="I210" s="5">
-        <v>-6.6117942228426999E-2</v>
+        <v>-7.5891156674279996E-3</v>
       </c>
       <c r="J210" s="5">
-        <v>-2.26114293946857</v>
+        <v>-2.5933952173320001E-3</v>
       </c>
       <c r="K210" s="5">
-        <v>2.50355785809777</v>
+        <v>2.5630168416950001E-3</v>
       </c>
       <c r="L210" s="5">
-        <v>-2.3094827554201101</v>
+        <v>1.8439866732488999E-2</v>
       </c>
       <c r="M210" s="5">
-        <v>-2.3094827554201101</v>
+        <v>1.8439866732488999E-2</v>
       </c>
       <c r="N210" s="5">
-        <v>9.1453544141121306</v>
+        <v>5.1667095699436998E-2</v>
       </c>
       <c r="O210" s="6" t="s">
         <v>23</v>
@@ -14376,246 +14358,246 @@
         <v>25</v>
       </c>
       <c r="R210" s="5">
-        <v>58.8799018859863</v>
+        <v>100.050003051758</v>
       </c>
       <c r="S210" s="5">
-        <v>56.209999084472699</v>
+        <v>100.020500183105</v>
       </c>
     </row>
     <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A211" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>467</v>
-      </c>
       <c r="C211" s="5">
-        <v>2463138</v>
+        <v>2442483.25</v>
       </c>
       <c r="D211" s="5">
-        <v>745152704</v>
+        <v>5705671680</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F211" s="5">
-        <v>2.2843316197394999E-2</v>
+        <v>4.1972427368164098</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>0</v>
+        <v>8.845401174169E-2</v>
       </c>
       <c r="I211" s="5">
-        <v>-7.5891156674279996E-3</v>
+        <v>-0.562389606753666</v>
       </c>
       <c r="J211" s="5">
-        <v>-2.5933952173320001E-3</v>
+        <v>-2.3472503070225601</v>
       </c>
       <c r="K211" s="5">
-        <v>2.5630168416950001E-3</v>
+        <v>2.74196866642145</v>
       </c>
       <c r="L211" s="5">
-        <v>1.8439866732488999E-2</v>
+        <v>-4.1601815980746899</v>
       </c>
       <c r="M211" s="5">
-        <v>1.8439866732488999E-2</v>
+        <v>-4.2555614254972696</v>
       </c>
       <c r="N211" s="5">
-        <v>5.1667095699436998E-2</v>
+        <v>5.0262839957451604</v>
       </c>
       <c r="O211" s="6" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="Q211" s="6" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="R211" s="5">
-        <v>100.050003051758</v>
+        <v>60.889999389648402</v>
       </c>
       <c r="S211" s="5">
-        <v>100.020500183105</v>
+        <v>56.580001831054702</v>
       </c>
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A212" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>469</v>
-      </c>
       <c r="C212" s="5">
-        <v>2442483.25</v>
+        <v>2435546.75</v>
       </c>
       <c r="D212" s="5">
-        <v>5700629504</v>
+        <v>647289280</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F212" s="5">
-        <v>4.2009553909301802</v>
+        <v>1.60761499404907</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>0.106246781117036</v>
+        <v>0.123543408070481</v>
       </c>
       <c r="I212" s="5">
-        <v>-0.65026842998193701</v>
+        <v>0.15178237889954499</v>
       </c>
       <c r="J212" s="5">
-        <v>-2.1803116737655701</v>
+        <v>0.29324356230839799</v>
       </c>
       <c r="K212" s="5">
-        <v>2.6511695888203901</v>
+        <v>1.42238904727083</v>
       </c>
       <c r="L212" s="5">
-        <v>-4.3401763771167303</v>
+        <v>0.81160798858275196</v>
       </c>
       <c r="M212" s="5">
-        <v>-4.3401763771167303</v>
+        <v>0.81160798858275196</v>
       </c>
       <c r="N212" s="5">
-        <v>4.2481013359922901</v>
+        <v>3.6620990485054299</v>
       </c>
       <c r="O212" s="6" t="s">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="Q212" s="6" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="R212" s="5">
-        <v>60.889999389648402</v>
+        <v>57.119998931884801</v>
       </c>
       <c r="S212" s="5">
-        <v>56.529998779296903</v>
+        <v>56.7299995422363</v>
       </c>
     </row>
     <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A213" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="C213" s="5">
-        <v>2435546.75</v>
+        <v>2341945.25</v>
       </c>
       <c r="D213" s="5">
-        <v>647289280</v>
+        <v>1595057024</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F213" s="5">
-        <v>1.60761499404907</v>
+        <v>3.47003149986267</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H213" s="5">
-        <v>0.123543408070481</v>
+        <v>0.67142117599918705</v>
       </c>
       <c r="I213" s="5">
-        <v>0.15178237889954499</v>
+        <v>0.458917278777493</v>
       </c>
       <c r="J213" s="5">
-        <v>0.29324356230839799</v>
+        <v>1.40261045184222</v>
       </c>
       <c r="K213" s="5">
-        <v>1.42238904727083</v>
+        <v>3.4412719418687798</v>
       </c>
       <c r="L213" s="5">
-        <v>0.81160798858275196</v>
+        <v>-0.89579493604410299</v>
       </c>
       <c r="M213" s="5">
-        <v>0.81160798858275196</v>
+        <v>-0.93194050602079004</v>
       </c>
       <c r="N213" s="5">
-        <v>3.6620990485054299</v>
+        <v>1.91983161385498</v>
       </c>
       <c r="O213" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P213" s="6" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="Q213" s="6" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="R213" s="5">
-        <v>57.119998931884801</v>
+        <v>15.9671749161202</v>
       </c>
       <c r="S213" s="5">
-        <v>56.7299995422363</v>
+        <v>15.4232892990112</v>
       </c>
     </row>
     <row r="214" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A214" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="C214" s="5">
+        <v>2327488</v>
+      </c>
+      <c r="D214" s="5">
+        <v>6566223872</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F214" s="5">
+        <v>2.8569850921630899</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H214" s="5">
+        <v>0.26949217285381399</v>
+      </c>
+      <c r="I214" s="5">
+        <v>0.147482563969037</v>
+      </c>
+      <c r="J214" s="5">
+        <v>-0.93046080145705601</v>
+      </c>
+      <c r="K214" s="5">
+        <v>3.0530587123405</v>
+      </c>
+      <c r="L214" s="5">
+        <v>1.9717466962714301</v>
+      </c>
+      <c r="M214" s="5">
+        <v>3.08005291010558</v>
+      </c>
+      <c r="N214" s="5">
+        <v>11.908168645953801</v>
+      </c>
+      <c r="O214" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P214" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C214" s="5">
-        <v>2339858.5</v>
-      </c>
-      <c r="D214" s="5">
-        <v>1584418944</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F214" s="5">
-        <v>3.49021673202515</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H214" s="5">
-        <v>-0.27679567022650398</v>
-      </c>
-      <c r="I214" s="5">
-        <v>0.31649389846808401</v>
-      </c>
-      <c r="J214" s="5">
-        <v>0.62792391343495801</v>
-      </c>
-      <c r="K214" s="5">
-        <v>2.4866999433780501</v>
-      </c>
-      <c r="L214" s="5">
-        <v>-1.9009622611247099</v>
-      </c>
-      <c r="M214" s="5">
-        <v>-1.59266817065877</v>
-      </c>
-      <c r="N214" s="5">
-        <v>1.4312520698867699</v>
-      </c>
-      <c r="O214" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P214" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="Q214" s="6" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="R214" s="5">
-        <v>15.9671749161202</v>
+        <v>5.59299993515015</v>
       </c>
       <c r="S214" s="5">
-        <v>15.320424079895</v>
+        <v>5.4323000907897896</v>
       </c>
     </row>
     <row r="215" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14626,10 +14608,10 @@
         <v>475</v>
       </c>
       <c r="C215" s="5">
-        <v>2321934.75</v>
+        <v>2324005.75</v>
       </c>
       <c r="D215" s="5">
-        <v>1170215168</v>
+        <v>1168226944</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>306</v>
@@ -14639,25 +14621,25 @@
         <v>122</v>
       </c>
       <c r="H215" s="5">
-        <v>0.67244850519967403</v>
+        <v>-0.16989774767358601</v>
       </c>
       <c r="I215" s="5">
-        <v>-3.8698459715046998E-2</v>
+        <v>0.12917690297085099</v>
       </c>
       <c r="J215" s="5">
-        <v>-1.55994063044094</v>
+        <v>-1.55555903984202</v>
       </c>
       <c r="K215" s="5">
-        <v>2.9711294219254798</v>
+        <v>2.8702345318281499</v>
       </c>
       <c r="L215" s="5">
-        <v>-0.199548019571127</v>
+        <v>-0.39578326117595303</v>
       </c>
       <c r="M215" s="5">
-        <v>0.114093074985733</v>
+        <v>-5.5998514252498001E-2</v>
       </c>
       <c r="N215" s="5">
-        <v>7.5153254765758497</v>
+        <v>7.267657093605</v>
       </c>
       <c r="O215" s="6" t="s">
         <v>122</v>
@@ -14672,7 +14654,7 @@
         <v>41.428098374006503</v>
       </c>
       <c r="S215" s="5">
-        <v>40.6870307922363</v>
+        <v>40.617904663085902</v>
       </c>
     </row>
     <row r="216" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14683,40 +14665,40 @@
         <v>477</v>
       </c>
       <c r="C216" s="5">
-        <v>2285172.25</v>
+        <v>2287210.5</v>
       </c>
       <c r="D216" s="5">
-        <v>1056509312</v>
+        <v>1057643904</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F216" s="5">
-        <v>2.9288702011108398</v>
+        <v>2.9309141635894802</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H216" s="5">
-        <v>0.742703043406712</v>
+        <v>1.9397475946992E-2</v>
       </c>
       <c r="I216" s="5">
-        <v>-0.362327472201385</v>
+        <v>1.9397475946992E-2</v>
       </c>
       <c r="J216" s="5">
-        <v>-2.5918248201804799</v>
+        <v>-2.26553873730216</v>
       </c>
       <c r="K216" s="5">
-        <v>1.9991756717713201</v>
+        <v>1.74296468221475</v>
       </c>
       <c r="L216" s="5">
-        <v>2.6245260467874698</v>
+        <v>2.38126682164377</v>
       </c>
       <c r="M216" s="5">
-        <v>2.9470423083771902</v>
+        <v>2.9670114361471001</v>
       </c>
       <c r="N216" s="5">
-        <v>12.6556677948772</v>
+        <v>12.3344140282904</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>23</v>
@@ -14731,7 +14713,7 @@
         <v>11.9648191804629</v>
       </c>
       <c r="S216" s="5">
-        <v>11.6179208755493</v>
+        <v>11.620175361633301</v>
       </c>
     </row>
     <row r="217" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14745,7 +14727,7 @@
         <v>2265262.5</v>
       </c>
       <c r="D217" s="5">
-        <v>768040064</v>
+        <v>762554048</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>82</v>
@@ -14801,40 +14783,40 @@
         <v>481</v>
       </c>
       <c r="C218" s="5">
-        <v>2246098.5</v>
+        <v>2248102</v>
       </c>
       <c r="D218" s="5">
-        <v>813357760</v>
+        <v>814734080</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F218" s="5">
-        <v>2.5579535961151101</v>
+        <v>2.5559103488922101</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H218" s="5">
-        <v>0.64562539598160795</v>
+        <v>0.16921055244125699</v>
       </c>
       <c r="I218" s="5">
-        <v>-0.37044110320669799</v>
+        <v>0.195903621807236</v>
       </c>
       <c r="J218" s="5">
-        <v>-2.6556454403183301</v>
+        <v>-2.1832784421755398</v>
       </c>
       <c r="K218" s="5">
-        <v>1.7952036106850799</v>
+        <v>1.74546110695351</v>
       </c>
       <c r="L218" s="5">
-        <v>2.2919360749216602</v>
+        <v>2.1158005844551999</v>
       </c>
       <c r="M218" s="5">
-        <v>2.61340711195834</v>
+        <v>2.78703982501129</v>
       </c>
       <c r="N218" s="5">
-        <v>11.8796321410362</v>
+        <v>11.746161906610199</v>
       </c>
       <c r="O218" s="6" t="s">
         <v>23</v>
@@ -14849,7 +14831,7 @@
         <v>15.6592499255659</v>
       </c>
       <c r="S218" s="5">
-        <v>15.2029485702515</v>
+        <v>15.2286739349365</v>
       </c>
     </row>
     <row r="219" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14919,40 +14901,40 @@
         <v>261</v>
       </c>
       <c r="C220" s="5">
-        <v>2184731.25</v>
+        <v>2186680</v>
       </c>
       <c r="D220" s="5">
-        <v>411164224</v>
+        <v>412354016</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F220" s="5">
-        <v>3.0732295513153098</v>
+        <v>3.06586861610413</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H220" s="5">
-        <v>0.67244850519967403</v>
+        <v>0.28937161882329798</v>
       </c>
       <c r="I220" s="5">
-        <v>8.3420484700314004E-2</v>
+        <v>0.53064301449186102</v>
       </c>
       <c r="J220" s="5">
-        <v>6.8407855984143007E-2</v>
+        <v>1.9824207137353E-2</v>
       </c>
       <c r="K220" s="5">
-        <v>5.1603753486165296</v>
+        <v>5.6121968616076803</v>
       </c>
       <c r="L220" s="5">
-        <v>-4.6391198707723804</v>
+        <v>-3.8989429177892498</v>
       </c>
       <c r="M220" s="5">
-        <v>-4.33943093922825</v>
+        <v>-4.0626164019615096</v>
       </c>
       <c r="N220" s="5">
-        <v>2.6596502751461002</v>
+        <v>2.1599261812788502</v>
       </c>
       <c r="O220" s="6" t="s">
         <v>23</v>
@@ -14967,7 +14949,7 @@
         <v>21.628017097565799</v>
       </c>
       <c r="S220" s="5">
-        <v>20.25439453125</v>
+        <v>20.313005447387699</v>
       </c>
     </row>
     <row r="221" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14978,40 +14960,40 @@
         <v>485</v>
       </c>
       <c r="C221" s="5">
-        <v>2084878.875</v>
+        <v>2086738.625</v>
       </c>
       <c r="D221" s="5">
-        <v>635507712</v>
+        <v>638364928</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F221" s="5">
-        <v>5.4462933540344203</v>
+        <v>5.4176073074340803</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H221" s="5">
-        <v>6.6900528942648002E-2</v>
+        <v>0.61916701094864002</v>
       </c>
       <c r="I221" s="5">
-        <v>-1.06880342186693</v>
+        <v>0.31564040667642101</v>
       </c>
       <c r="J221" s="5">
-        <v>-1.90669310347512</v>
+        <v>-0.76255730187273496</v>
       </c>
       <c r="K221" s="5">
-        <v>3.3702295307767001</v>
+        <v>3.4936702621057201</v>
       </c>
       <c r="L221" s="5">
-        <v>5.4777218942577903</v>
+        <v>6.1134117233866903</v>
       </c>
       <c r="M221" s="5">
-        <v>5.8092048433807699</v>
+        <v>6.4643405343180396</v>
       </c>
       <c r="N221" s="5">
-        <v>23.9885572508548</v>
+        <v>24.663456253103099</v>
       </c>
       <c r="O221" s="6" t="s">
         <v>23</v>
@@ -15026,7 +15008,7 @@
         <v>11.019832157473401</v>
       </c>
       <c r="S221" s="5">
-        <v>10.710524559021</v>
+        <v>10.7768411636353</v>
       </c>
     </row>
     <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15037,53 +15019,55 @@
         <v>487</v>
       </c>
       <c r="C222" s="5">
-        <v>2066971.5</v>
+        <v>2049577.75</v>
       </c>
       <c r="D222" s="5">
-        <v>4347187200</v>
+        <v>775558656</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F222" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="F222" s="5">
+        <v>4.2304387092590297</v>
+      </c>
       <c r="G222" s="6" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="H222" s="5">
-        <v>-6.8733205366000999E-2</v>
+        <v>0.39131844691255901</v>
       </c>
       <c r="I222" s="5">
-        <v>-0.19329676553754299</v>
+        <v>4.6183180109271998E-2</v>
       </c>
       <c r="J222" s="5">
-        <v>-1.40802091561822</v>
+        <v>-2.9334917751246001</v>
       </c>
       <c r="K222" s="5">
-        <v>2.6190217437996401</v>
+        <v>7.6919933653868799</v>
       </c>
       <c r="L222" s="5">
-        <v>2.8808246281691199</v>
+        <v>21.182061410969499</v>
       </c>
       <c r="M222" s="5">
-        <v>2.8808246281691199</v>
+        <v>22.5278178929508</v>
       </c>
       <c r="N222" s="5">
-        <v>11.4997356411371</v>
+        <v>58.854126389930897</v>
       </c>
       <c r="O222" s="6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="P222" s="6" t="s">
-        <v>459</v>
+        <v>235</v>
       </c>
       <c r="Q222" s="6" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="R222" s="5">
-        <v>5.6231999397277797</v>
+        <v>19.6169470586287</v>
       </c>
       <c r="S222" s="5">
-        <v>5.5247001647949201</v>
+        <v>18.861497879028299</v>
       </c>
     </row>
     <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15094,40 +15078,40 @@
         <v>489</v>
       </c>
       <c r="C223" s="5">
-        <v>2047751.125</v>
+        <v>2036484.75</v>
       </c>
       <c r="D223" s="5">
-        <v>771596224</v>
+        <v>592725056</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F223" s="5">
-        <v>4.2432084083557102</v>
+        <v>3.7795271873474099</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>234</v>
       </c>
       <c r="H223" s="5">
-        <v>0.32634674150029402</v>
+        <v>0.176842065743399</v>
       </c>
       <c r="I223" s="5">
-        <v>-0.56848660624790903</v>
+        <v>0.132999994295147</v>
       </c>
       <c r="J223" s="5">
-        <v>-3.65684006070058</v>
+        <v>-2.9074950426464099</v>
       </c>
       <c r="K223" s="5">
-        <v>7.9524059494217498</v>
+        <v>9.4765322154355403</v>
       </c>
       <c r="L223" s="5">
-        <v>21.667849521891501</v>
+        <v>24.115517304405898</v>
       </c>
       <c r="M223" s="5">
-        <v>22.050212895395099</v>
+        <v>26.172122541975199</v>
       </c>
       <c r="N223" s="5">
-        <v>58.421291779479297</v>
+        <v>64.882822828618799</v>
       </c>
       <c r="O223" s="6" t="s">
         <v>23</v>
@@ -15139,10 +15123,10 @@
         <v>236</v>
       </c>
       <c r="R223" s="5">
-        <v>19.6169470586287</v>
+        <v>19.2770085399221</v>
       </c>
       <c r="S223" s="5">
-        <v>18.787977218627901</v>
+        <v>18.5371398925781</v>
       </c>
     </row>
     <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15153,55 +15137,55 @@
         <v>491</v>
       </c>
       <c r="C224" s="5">
-        <v>2034669.875</v>
+        <v>2003446.25</v>
       </c>
       <c r="D224" s="5">
-        <v>591678656</v>
+        <v>1012206016</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F224" s="5">
-        <v>3.7828369140625</v>
+        <v>2.4239530563354501</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="H224" s="5">
-        <v>0.54038718160500698</v>
+        <v>0.19559416472589899</v>
       </c>
       <c r="I224" s="5">
-        <v>-0.35335416643439399</v>
+        <v>0.71871346745355802</v>
       </c>
       <c r="J224" s="5">
-        <v>-3.4254572747110599</v>
+        <v>1.0160411163212499</v>
       </c>
       <c r="K224" s="5">
-        <v>9.1721784706678893</v>
+        <v>1.90470002001542</v>
       </c>
       <c r="L224" s="5">
-        <v>25.554812175593899</v>
+        <v>-0.75231252653802405</v>
       </c>
       <c r="M224" s="5">
-        <v>25.949391037074001</v>
+        <v>-0.75231252653802405</v>
       </c>
       <c r="N224" s="5">
-        <v>64.361469008133696</v>
+        <v>2.1857287795026301</v>
       </c>
       <c r="O224" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="R224" s="5">
-        <v>19.2770085399221</v>
+        <v>42.880001068115199</v>
       </c>
       <c r="S224" s="5">
-        <v>18.504415512085</v>
+        <v>40.9799995422363</v>
       </c>
     </row>
     <row r="225" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15212,112 +15196,55 @@
         <v>493</v>
       </c>
       <c r="C225" s="5">
-        <v>2031291.875</v>
+        <v>2001163.375</v>
       </c>
       <c r="D225" s="5">
-        <v>523878304</v>
+        <v>699008256</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F225" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="F225" s="5">
+        <v>4.0083246231079102</v>
+      </c>
       <c r="G225" s="6" t="s">
-        <v>494</v>
+        <v>234</v>
       </c>
       <c r="H225" s="5">
-        <v>-6.5992918550384E-2</v>
+        <v>0.24566077400205399</v>
       </c>
       <c r="I225" s="5">
-        <v>6.1391746018845998E-2</v>
+        <v>0.21546989211791401</v>
       </c>
       <c r="J225" s="5">
-        <v>-1.4480476658213699</v>
+        <v>-1.5970860645149001</v>
       </c>
       <c r="K225" s="5">
-        <v>1.1583420951660299</v>
+        <v>3.1986172055703999</v>
       </c>
       <c r="L225" s="5">
-        <v>1.6058078672829901</v>
+        <v>6.1938600455620803</v>
       </c>
       <c r="M225" s="5">
-        <v>1.6058078672829901</v>
+        <v>7.0604733081235604</v>
       </c>
       <c r="N225" s="5">
-        <v>9.6437154420905493</v>
+        <v>21.909975173801101</v>
       </c>
       <c r="O225" s="6" t="s">
-        <v>495</v>
+        <v>23</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="Q225" s="6" t="s">
-        <v>497</v>
+        <v>236</v>
       </c>
       <c r="R225" s="5">
-        <v>16.385927576241802</v>
+        <v>15.9595626689442</v>
       </c>
       <c r="S225" s="5">
-        <v>16.136257171630898</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" s="4" customFormat="1" ht="12.75">
-      <c r="A226" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C226" s="5">
-        <v>2003446.25</v>
-      </c>
-      <c r="D226" s="5">
-        <v>1012206016</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F226" s="5">
-        <v>2.4239530563354501</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H226" s="5">
-        <v>0.19559416472589899</v>
-      </c>
-      <c r="I226" s="5">
-        <v>0.71871346745355802</v>
-      </c>
-      <c r="J226" s="5">
-        <v>1.0160411163212499</v>
-      </c>
-      <c r="K226" s="5">
-        <v>1.90470002001542</v>
-      </c>
-      <c r="L226" s="5">
-        <v>-0.75231252653802405</v>
-      </c>
-      <c r="M226" s="5">
-        <v>-0.75231252653802405</v>
-      </c>
-      <c r="N226" s="5">
-        <v>2.1857287795026301</v>
-      </c>
-      <c r="O226" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P226" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q226" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R226" s="5">
-        <v>42.880001068115199</v>
-      </c>
-      <c r="S226" s="5">
-        <v>40.9799995422363</v>
+        <v>15.5854682922363</v>
       </c>
     </row>
   </sheetData>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -360,6 +360,21 @@
     <t>VANECK EM LCL BD</t>
   </si>
   <si>
+    <t>SRLN US Equity</t>
+  </si>
+  <si>
+    <t>SPDR BLACKSTONE</t>
+  </si>
+  <si>
+    <t>Govt/Corp High Yield</t>
+  </si>
+  <si>
+    <t>MINT US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO ENHANCED S</t>
+  </si>
+  <si>
     <t>214980 KS Equity</t>
   </si>
   <si>
@@ -378,21 +393,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>SRLN US Equity</t>
-  </si>
-  <si>
-    <t>SPDR BLACKSTONE</t>
-  </si>
-  <si>
-    <t>Govt/Corp High Yield</t>
-  </si>
-  <si>
-    <t>MINT US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO ENHANCED S</t>
-  </si>
-  <si>
     <t>SPLB US Equity</t>
   </si>
   <si>
@@ -993,6 +993,9 @@
     <t>ISHARES INTERMED</t>
   </si>
   <si>
+    <t>BSCM US Equity</t>
+  </si>
+  <si>
     <t>00679B TT Equity</t>
   </si>
   <si>
@@ -1008,9 +1011,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>BSCM US Equity</t>
-  </si>
-  <si>
     <t>QLTA US Equity</t>
   </si>
   <si>
@@ -1137,18 +1137,18 @@
     <t>SUSC US Equity</t>
   </si>
   <si>
+    <t>IHYG LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR € HY CORP</t>
+  </si>
+  <si>
     <t>IBDO US Equity</t>
   </si>
   <si>
     <t>ISHARES IBONDS D</t>
   </si>
   <si>
-    <t>IHYG LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR € HY CORP</t>
-  </si>
-  <si>
     <t>BSCO US Equity</t>
   </si>
   <si>
@@ -1320,16 +1320,16 @@
     <t>VGUARD TOT CORP</t>
   </si>
   <si>
+    <t>IBTA LN Equity</t>
+  </si>
+  <si>
+    <t>ISH $TRS 1-3Y $A</t>
+  </si>
+  <si>
     <t>HBRD AU Equity</t>
   </si>
   <si>
     <t>BETA-ACTV AU HYB</t>
-  </si>
-  <si>
-    <t>IBTA LN Equity</t>
-  </si>
-  <si>
-    <t>ISH $TRS 1-3Y $A</t>
   </si>
   <si>
     <t>MUNI US Equity</t>
@@ -1534,30 +1534,25 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2097,13 +2092,13 @@
         <v>2404878336</v>
       </c>
       <c r="D2" s="5">
-        <v>15887068160</v>
+        <v>15984240640</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5">
-        <v>1.54938983917236</v>
+        <v>1.53198337554932</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>0</v>
@@ -2156,13 +2151,13 @@
         <v>2020280192</v>
       </c>
       <c r="D3" s="5">
-        <v>40503226368</v>
+        <v>40493879296</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="5">
-        <v>2.2612202167511</v>
+        <v>2.2508254051208501</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>0</v>
@@ -2215,13 +2210,13 @@
         <v>1695857280</v>
       </c>
       <c r="D4" s="5">
-        <v>20287322112</v>
+        <v>20233728000</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="5">
-        <v>3.9884302616119398</v>
+        <v>3.9820742607116699</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -2274,13 +2269,13 @@
         <v>808415680</v>
       </c>
       <c r="D5" s="5">
-        <v>12492123136</v>
+        <v>12567113728</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="5">
-        <v>0.79384779930114702</v>
+        <v>0.79044044017791704</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -2333,13 +2328,13 @@
         <v>725719296</v>
       </c>
       <c r="D6" s="5">
-        <v>88942559232</v>
+        <v>89220202496</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="5">
-        <v>1.61766993999481</v>
+        <v>1.6122194528579701</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -2392,13 +2387,13 @@
         <v>672156992</v>
       </c>
       <c r="D7" s="5">
-        <v>9174921216</v>
+        <v>8765438976</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="5">
-        <v>4.27520656585693</v>
+        <v>4.2705330848693803</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -2451,13 +2446,13 @@
         <v>567933248</v>
       </c>
       <c r="D8" s="5">
-        <v>78540349440</v>
+        <v>78790729728</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="5">
-        <v>1.8454155921936</v>
+        <v>1.83920633792877</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -2510,13 +2505,13 @@
         <v>502414496</v>
       </c>
       <c r="D9" s="5">
-        <v>20328873984</v>
+        <v>20470978560</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="5">
-        <v>3.80109786987305</v>
+        <v>3.79838991165161</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -2569,13 +2564,13 @@
         <v>449897344</v>
       </c>
       <c r="D10" s="5">
-        <v>28976193536</v>
+        <v>29179715584</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="5">
-        <v>7.7974081039428702</v>
+        <v>7.77679491043091</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -2611,7 +2606,7 @@
         <v>25</v>
       </c>
       <c r="R10" s="5">
-        <v>128.66000366210901</v>
+        <v>128.72000122070301</v>
       </c>
       <c r="S10" s="5">
         <v>128.27000427246099</v>
@@ -2628,13 +2623,13 @@
         <v>309547744</v>
       </c>
       <c r="D11" s="5">
-        <v>46305894400</v>
+        <v>46587977728</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="5">
-        <v>2.1392509937286399</v>
+        <v>2.1320753097534202</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>0</v>
@@ -2687,13 +2682,13 @@
         <v>241320160</v>
       </c>
       <c r="D12" s="5">
-        <v>19568736256</v>
+        <v>19599153152</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="5">
-        <v>0.18375480175018299</v>
+        <v>0.18362686038017301</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>0</v>
@@ -2746,13 +2741,13 @@
         <v>226109680</v>
       </c>
       <c r="D13" s="5">
-        <v>40323518464</v>
+        <v>40352813056</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="5">
-        <v>1.4978208541870099</v>
+        <v>1.4965525865554801</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -2805,13 +2800,13 @@
         <v>225018800</v>
       </c>
       <c r="D14" s="5">
-        <v>25776910336</v>
+        <v>25815277568</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="5">
-        <v>1.07521867752075</v>
+        <v>1.07293725013733</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -2864,13 +2859,13 @@
         <v>181544112</v>
       </c>
       <c r="D15" s="5">
-        <v>18351874048</v>
+        <v>18312112128</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="5">
-        <v>6.0880098342895499</v>
+        <v>6.0696229934692401</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -2906,7 +2901,7 @@
         <v>25</v>
       </c>
       <c r="R15" s="5">
-        <v>62.955001831054702</v>
+        <v>62.965000152587898</v>
       </c>
       <c r="S15" s="5">
         <v>62.720001220703097</v>
@@ -2923,13 +2918,13 @@
         <v>160534272</v>
       </c>
       <c r="D16" s="5">
-        <v>34747236352</v>
+        <v>34809724928</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="5">
-        <v>1.1465108394622801</v>
+        <v>1.1453948020935101</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -2982,13 +2977,13 @@
         <v>155152736</v>
       </c>
       <c r="D17" s="5">
-        <v>43382820864</v>
+        <v>43521454080</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="5">
-        <v>0.86835223436355602</v>
+        <v>0.866840660572052</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -3041,7 +3036,7 @@
         <v>152128880</v>
       </c>
       <c r="D18" s="5">
-        <v>14570316800</v>
+        <v>14569511936</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>54</v>
@@ -3098,13 +3093,13 @@
         <v>149674512</v>
       </c>
       <c r="D19" s="5">
-        <v>6694536192</v>
+        <v>6691514880</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="5">
-        <v>2.9312274456024201</v>
+        <v>2.9325509071350102</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>0</v>
@@ -3157,13 +3152,13 @@
         <v>148457696</v>
       </c>
       <c r="D20" s="5">
-        <v>26648037376</v>
+        <v>26620030976</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="5">
-        <v>1.5038480758667001</v>
+        <v>1.5023382902145399</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
@@ -3216,13 +3211,13 @@
         <v>137873360</v>
       </c>
       <c r="D21" s="5">
-        <v>6446588416</v>
+        <v>6525026816</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="5">
-        <v>1.5350968837737999</v>
+        <v>1.53092193603516</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>0</v>
@@ -3275,13 +3270,13 @@
         <v>123682488</v>
       </c>
       <c r="D22" s="5">
-        <v>10877568000</v>
+        <v>10927068160</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="5">
-        <v>0.67865073680877697</v>
+        <v>0.67709714174270597</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -3334,13 +3329,13 @@
         <v>122624584</v>
       </c>
       <c r="D23" s="5">
-        <v>2275994624</v>
+        <v>2286541056</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="5">
-        <v>1.79319727420807</v>
+        <v>1.77349174022675</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -3393,13 +3388,13 @@
         <v>120629760</v>
       </c>
       <c r="D24" s="5">
-        <v>19749218304</v>
+        <v>19704729600</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="5">
-        <v>4.6976828575134304</v>
+        <v>4.7204699516296396</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>0</v>
@@ -3452,13 +3447,13 @@
         <v>116811240</v>
       </c>
       <c r="D25" s="5">
-        <v>23245455360</v>
+        <v>23271061504</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="5">
-        <v>1.8148175477981601</v>
+        <v>1.81450891494751</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>0</v>
@@ -3511,13 +3506,13 @@
         <v>115449264</v>
       </c>
       <c r="D26" s="5">
-        <v>4863165952</v>
+        <v>4884084224</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="5">
-        <v>4.2319445610046396</v>
+        <v>4.2288646697998002</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>0</v>
@@ -3576,7 +3571,7 @@
         <v>91</v>
       </c>
       <c r="F27" s="5">
-        <v>0.65430885553359996</v>
+        <v>0.65417981147766102</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>0</v>
@@ -3629,13 +3624,13 @@
         <v>108145168</v>
       </c>
       <c r="D28" s="5">
-        <v>5917370368</v>
+        <v>5984025088</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F28" s="5">
-        <v>2.79797434806824</v>
+        <v>2.7674243450164799</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>0</v>
@@ -3688,13 +3683,13 @@
         <v>107559184</v>
       </c>
       <c r="D29" s="5">
-        <v>5432206336</v>
+        <v>5479053824</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="5">
-        <v>3.0788807868957502</v>
+        <v>3.0543022155761701</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>0</v>
@@ -3753,7 +3748,7 @@
         <v>91</v>
       </c>
       <c r="F30" s="5">
-        <v>4.7307801246643102</v>
+        <v>4.7284288406372097</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>0</v>
@@ -3806,13 +3801,13 @@
         <v>103391672</v>
       </c>
       <c r="D31" s="5">
-        <v>15275612160</v>
+        <v>15279066112</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="5">
-        <v>3.6835856437683101</v>
+        <v>3.6821751594543501</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>0</v>
@@ -3865,13 +3860,13 @@
         <v>94076008</v>
       </c>
       <c r="D32" s="5">
-        <v>3594940160</v>
+        <v>3626079744</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="5">
-        <v>1.7284792661666899</v>
+        <v>1.71037149429321</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>0</v>
@@ -3924,13 +3919,13 @@
         <v>93690544</v>
       </c>
       <c r="D33" s="5">
-        <v>11936778240</v>
+        <v>11940839424</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="5">
-        <v>2.22689604759216</v>
+        <v>2.2184579372406001</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>0</v>
@@ -3983,13 +3978,13 @@
         <v>90859048</v>
       </c>
       <c r="D34" s="5">
-        <v>14700180480</v>
+        <v>14779515904</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F34" s="5">
-        <v>1.87687456607819</v>
+        <v>1.8702322244644201</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>0</v>
@@ -4042,13 +4037,13 @@
         <v>87466680</v>
       </c>
       <c r="D35" s="5">
-        <v>17351512064</v>
+        <v>17418301440</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="5">
-        <v>0.96049576997757002</v>
+        <v>0.957439184188843</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>0</v>
@@ -4101,7 +4096,7 @@
         <v>87229208</v>
       </c>
       <c r="D36" s="5">
-        <v>1517128192</v>
+        <v>1488425728</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>22</v>
@@ -4158,13 +4153,13 @@
         <v>86661296</v>
       </c>
       <c r="D37" s="5">
-        <v>3521485312</v>
+        <v>3554038784</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="5">
-        <v>4.8653907775878897</v>
+        <v>4.8200511932373002</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>0</v>
@@ -4214,97 +4209,99 @@
         <v>114</v>
       </c>
       <c r="C38" s="5">
-        <v>81778224</v>
+        <v>80947064</v>
       </c>
       <c r="D38" s="5">
-        <v>1372688384</v>
+        <v>6468930048</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5">
+        <v>4.4270830154418999</v>
+      </c>
       <c r="G38" s="6" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>-0.13120192008586601</v>
+        <v>-8.6723984727644005E-2</v>
       </c>
       <c r="I38" s="5">
-        <v>-0.71354556754537102</v>
+        <v>-0.21654065279398399</v>
       </c>
       <c r="J38" s="5">
-        <v>-2.6551801871528098</v>
+        <v>0.17264603201467801</v>
       </c>
       <c r="K38" s="5">
-        <v>-2.0785031762843502</v>
+        <v>1.37714718188122</v>
       </c>
       <c r="L38" s="5">
-        <v>-4.1332467953520604</v>
+        <v>2.5548211207511402</v>
       </c>
       <c r="M38" s="5">
-        <v>-5.0993177813036601</v>
+        <v>3.1838492741055302</v>
       </c>
       <c r="N38" s="5">
-        <v>5.1122467635448299</v>
+        <v>11.4643023633068</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="R38" s="5">
-        <v>94.991085203285095</v>
+        <v>46.339900970458999</v>
       </c>
       <c r="S38" s="5">
-        <v>89.878349304199205</v>
+        <v>46.080001831054702</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A39" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5">
-        <v>80947064</v>
+        <v>79185128</v>
       </c>
       <c r="D39" s="5">
-        <v>6425856512</v>
+        <v>14034793472</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F39" s="5">
-        <v>4.4270830154418999</v>
+        <v>0.43546488881111101</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="5">
-        <v>-8.6723984727644005E-2</v>
+        <v>-9.8089007656509998E-3</v>
       </c>
       <c r="I39" s="5">
-        <v>-0.21654065279398399</v>
+        <v>-9.8089007656509998E-3</v>
       </c>
       <c r="J39" s="5">
-        <v>0.17264603201467801</v>
+        <v>-2.2532913427152999E-2</v>
       </c>
       <c r="K39" s="5">
-        <v>1.37714718188122</v>
+        <v>0.12855378194092101</v>
       </c>
       <c r="L39" s="5">
-        <v>2.5548211207511402</v>
+        <v>0.117729589180304</v>
       </c>
       <c r="M39" s="5">
-        <v>3.1838492741055302</v>
+        <v>0.14716216006593899</v>
       </c>
       <c r="N39" s="5">
-        <v>11.4643023633068</v>
+        <v>0.89431671984516703</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>23</v>
@@ -4316,69 +4313,67 @@
         <v>25</v>
       </c>
       <c r="R39" s="5">
-        <v>46.339900970458999</v>
+        <v>102.16000366210901</v>
       </c>
       <c r="S39" s="5">
-        <v>46.080001831054702</v>
+        <v>101.959999084473</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A40" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="5">
+        <v>77074480</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1329389312</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.10593728480716701</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-0.34476828453365899</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-2.4896673702119601</v>
+      </c>
+      <c r="K40" s="5">
+        <v>-2.5911153605883901</v>
+      </c>
+      <c r="L40" s="5">
+        <v>-4.2688895507701199</v>
+      </c>
+      <c r="M40" s="5">
+        <v>-4.7421101381691999</v>
+      </c>
+      <c r="N40" s="5">
+        <v>5.7035933527322698</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="Q40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="5">
-        <v>79185128</v>
-      </c>
-      <c r="D40" s="5">
-        <v>14034793472</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.43546488881111101</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>-9.8089007656509998E-3</v>
-      </c>
-      <c r="I40" s="5">
-        <v>-9.8089007656509998E-3</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-2.2532913427152999E-2</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0.12855378194092101</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0.117729589180304</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0.14716216006593899</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0.89431671984516703</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R40" s="5">
-        <v>102.16000366210901</v>
+        <v>94.991085203285095</v>
       </c>
       <c r="S40" s="5">
-        <v>101.959999084473</v>
+        <v>89.973564147949205</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -4392,13 +4387,13 @@
         <v>75054824</v>
       </c>
       <c r="D41" s="5">
-        <v>1011237056</v>
+        <v>1044799552</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F41" s="5">
-        <v>3.0188221931457502</v>
+        <v>2.99243235588074</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>0</v>
@@ -4451,13 +4446,13 @@
         <v>74814168</v>
       </c>
       <c r="D42" s="5">
-        <v>12606629888</v>
+        <v>12610754560</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="5">
-        <v>0.32622495293617199</v>
+        <v>0.32606571912765497</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>0</v>
@@ -4510,7 +4505,7 @@
         <v>73399256</v>
       </c>
       <c r="D43" s="5">
-        <v>11945479168</v>
+        <v>11963119616</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>54</v>
@@ -4567,13 +4562,13 @@
         <v>71443984</v>
       </c>
       <c r="D44" s="5">
-        <v>6551881216</v>
+        <v>6499241472</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F44" s="5">
-        <v>1.2903457880020099</v>
+        <v>1.30385971069336</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>0</v>
@@ -4626,13 +4621,13 @@
         <v>71161360</v>
       </c>
       <c r="D45" s="5">
-        <v>3353005568</v>
+        <v>3356621312</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F45" s="5">
-        <v>3.5980160236358598</v>
+        <v>3.5941400527954102</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>0</v>
@@ -4685,13 +4680,13 @@
         <v>69079648</v>
       </c>
       <c r="D46" s="5">
-        <v>6844558848</v>
+        <v>6841867264</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F46" s="5">
-        <v>2.12305879592896</v>
+        <v>2.1238939762115501</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>0</v>
@@ -4744,13 +4739,13 @@
         <v>68095216</v>
       </c>
       <c r="D47" s="5">
-        <v>5938530816</v>
+        <v>5929235456</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>138</v>
       </c>
       <c r="F47" s="5">
-        <v>6.7727150917053196</v>
+        <v>6.7714414596557599</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>0</v>
@@ -4803,13 +4798,13 @@
         <v>68003224</v>
       </c>
       <c r="D48" s="5">
-        <v>14938760192</v>
+        <v>14952762368</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="5">
-        <v>1.0483689308166499</v>
+        <v>1.0469949245452901</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>0</v>
@@ -4862,13 +4857,13 @@
         <v>65053216</v>
       </c>
       <c r="D49" s="5">
-        <v>13483427840</v>
+        <v>13489506304</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F49" s="5">
-        <v>1.61629998683929</v>
+        <v>1.6151350736618</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>0</v>
@@ -4921,13 +4916,13 @@
         <v>58695132</v>
       </c>
       <c r="D50" s="5">
-        <v>5837020160</v>
+        <v>5857745920</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F50" s="5">
-        <v>2.3506126403808598</v>
+        <v>2.34017753601074</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>0</v>
@@ -4980,13 +4975,13 @@
         <v>58017244</v>
       </c>
       <c r="D51" s="5">
-        <v>8430345728</v>
+        <v>8438474752</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F51" s="5">
-        <v>4.9308509826660201</v>
+        <v>4.9237465858459499</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>0</v>
@@ -5039,13 +5034,13 @@
         <v>56772888</v>
       </c>
       <c r="D52" s="5">
-        <v>6170063872</v>
+        <v>6275649536</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="5">
-        <v>2.0751881599426301</v>
+        <v>2.0689833164215101</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>0</v>
@@ -5098,13 +5093,13 @@
         <v>54787208</v>
       </c>
       <c r="D53" s="5">
-        <v>5172324864</v>
+        <v>5190420480</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F53" s="5">
-        <v>3.7288959026336701</v>
+        <v>3.7243881225585902</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>0</v>
@@ -5157,13 +5152,13 @@
         <v>53282656</v>
       </c>
       <c r="D54" s="5">
-        <v>7778124800</v>
+        <v>7778092032</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="5">
-        <v>1.0212479829788199</v>
+        <v>1.02026855945587</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>0</v>
@@ -5216,13 +5211,13 @@
         <v>50073956</v>
       </c>
       <c r="D55" s="5">
-        <v>2593699840</v>
+        <v>2615159808</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="5">
-        <v>3.23037958145142</v>
+        <v>3.19889259338379</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>0</v>
@@ -5275,13 +5270,13 @@
         <v>46106600</v>
       </c>
       <c r="D56" s="5">
-        <v>14733900800</v>
+        <v>14773832704</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F56" s="5">
-        <v>1.6319550275802599</v>
+        <v>1.6270890235900899</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>0</v>
@@ -5334,13 +5329,13 @@
         <v>45824992</v>
       </c>
       <c r="D57" s="5">
-        <v>7725157376</v>
+        <v>7746766336</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="5">
-        <v>1.08496534824371</v>
+        <v>1.0819383859634399</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>0</v>
@@ -5393,13 +5388,13 @@
         <v>43934016</v>
       </c>
       <c r="D58" s="5">
-        <v>9198080000</v>
+        <v>9220500480</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F58" s="5">
-        <v>0.37968751788139299</v>
+        <v>0.37953925132751498</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>0</v>
@@ -5452,13 +5447,13 @@
         <v>40954464</v>
       </c>
       <c r="D59" s="5">
-        <v>3492960000</v>
+        <v>3493530112</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="5">
-        <v>0.162767633795738</v>
+        <v>0.16271452605724299</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>0</v>
@@ -5511,7 +5506,7 @@
         <v>39965920</v>
       </c>
       <c r="D60" s="5">
-        <v>6517640192</v>
+        <v>6516998144</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>64</v>
@@ -5570,13 +5565,13 @@
         <v>38956088</v>
       </c>
       <c r="D61" s="5">
-        <v>1083585024</v>
+        <v>1103239936</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="5">
-        <v>2.0554659366607702</v>
+        <v>2.0251555442810099</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>0</v>
@@ -5632,7 +5627,7 @@
         <v>2200275968</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F62" s="5">
         <v>3.8569707870483398</v>
@@ -5688,13 +5683,13 @@
         <v>34921156</v>
       </c>
       <c r="D63" s="5">
-        <v>4426552320</v>
+        <v>4426678272</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F63" s="5">
-        <v>0.400400400161743</v>
+        <v>0.40033358335495001</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>0</v>
@@ -5747,13 +5742,13 @@
         <v>34180992</v>
       </c>
       <c r="D64" s="5">
-        <v>5287657984</v>
+        <v>5291116544</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F64" s="5">
-        <v>4.7282247543334996</v>
+        <v>4.7241044044494602</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>0</v>
@@ -5806,13 +5801,13 @@
         <v>33517836</v>
       </c>
       <c r="D65" s="5">
-        <v>3376657664</v>
+        <v>3576338176</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="5">
-        <v>0.93279522657394398</v>
+        <v>0.93034654855728105</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>0</v>
@@ -5865,13 +5860,13 @@
         <v>33489630</v>
       </c>
       <c r="D66" s="5">
-        <v>9003540480</v>
+        <v>9029148672</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="5">
-        <v>2.1274726390838601</v>
+        <v>2.1204819679260201</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>0</v>
@@ -5924,10 +5919,10 @@
         <v>33111846</v>
       </c>
       <c r="D67" s="5">
-        <v>5676200448</v>
+        <v>5675637760</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F67" s="5">
         <v>0.39927920699119601</v>
@@ -5983,13 +5978,13 @@
         <v>32698286</v>
       </c>
       <c r="D68" s="5">
-        <v>3945870080</v>
+        <v>3956390144</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F68" s="5">
-        <v>2.52851486206055</v>
+        <v>2.5226461887359601</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>0</v>
@@ -6042,13 +6037,13 @@
         <v>32503530</v>
       </c>
       <c r="D69" s="5">
-        <v>7167056896</v>
+        <v>7179827712</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F69" s="5">
-        <v>4.1529526710510298</v>
+        <v>4.1489362716674796</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>0</v>
@@ -6101,13 +6096,13 @@
         <v>31497642</v>
       </c>
       <c r="D70" s="5">
-        <v>7342257664</v>
+        <v>7344658944</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F70" s="5">
-        <v>4.9083061218261701</v>
+        <v>4.9050979614257804</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>0</v>
@@ -6160,13 +6155,13 @@
         <v>31246962</v>
       </c>
       <c r="D71" s="5">
-        <v>3959801344</v>
+        <v>3960197888</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F71" s="5">
-        <v>3.12503910064697</v>
+        <v>3.12650871276856</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>0</v>
@@ -6219,13 +6214,13 @@
         <v>30238758</v>
       </c>
       <c r="D72" s="5">
-        <v>5210121216</v>
+        <v>5236185600</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F72" s="5">
-        <v>0.77301931381225597</v>
+        <v>0.77280437946319602</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>0</v>
@@ -6278,13 +6273,13 @@
         <v>30180140</v>
       </c>
       <c r="D73" s="5">
-        <v>5170749952</v>
+        <v>5177483776</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F73" s="5">
-        <v>1.3395348787307699</v>
+        <v>1.3375440835952801</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>0</v>
@@ -6337,13 +6332,13 @@
         <v>29880404</v>
       </c>
       <c r="D74" s="5">
-        <v>1312104064</v>
+        <v>1312656000</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F74" s="5">
-        <v>3.7156078815460201</v>
+        <v>3.7078087329864502</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>0</v>
@@ -6396,13 +6391,13 @@
         <v>28267828</v>
       </c>
       <c r="D75" s="5">
-        <v>4708146176</v>
+        <v>4708615680</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="5">
-        <v>0.75805348157882702</v>
+        <v>0.75790232419967696</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>0</v>
@@ -6455,13 +6450,13 @@
         <v>27049766</v>
       </c>
       <c r="D76" s="5">
-        <v>2629580032</v>
+        <v>2644771328</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F76" s="5">
-        <v>7.6823825836181596</v>
+        <v>7.6627535820007298</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>0</v>
@@ -6514,13 +6509,13 @@
         <v>24566210</v>
       </c>
       <c r="D77" s="5">
-        <v>2869632000</v>
+        <v>2872494080</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F77" s="5">
-        <v>2.9812898635864298</v>
+        <v>2.9763426780700701</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>0</v>
@@ -6573,13 +6568,13 @@
         <v>24044926</v>
       </c>
       <c r="D78" s="5">
-        <v>3071673088</v>
+        <v>3068532992</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F78" s="5">
-        <v>0.51873111724853505</v>
+        <v>0.51761519908904996</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>0</v>
@@ -6632,13 +6627,13 @@
         <v>24021040</v>
       </c>
       <c r="D79" s="5">
-        <v>1694941440</v>
+        <v>1676238080</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F79" s="5">
-        <v>0.702558934688568</v>
+        <v>0.71139925718307495</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>0</v>
@@ -6691,13 +6686,13 @@
         <v>23778352</v>
       </c>
       <c r="D80" s="5">
-        <v>2410604032</v>
+        <v>2416296704</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F80" s="5">
-        <v>3.4985423088073699</v>
+        <v>3.5</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>0</v>
@@ -6750,7 +6745,7 @@
         <v>23251188</v>
       </c>
       <c r="D81" s="5">
-        <v>2998511872</v>
+        <v>2998214912</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>64</v>
@@ -6809,13 +6804,13 @@
         <v>22971522</v>
       </c>
       <c r="D82" s="5">
-        <v>5539043840</v>
+        <v>5541746688</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F82" s="5">
-        <v>1.5331381559371999</v>
+        <v>1.53194236755371</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>0</v>
@@ -6868,13 +6863,13 @@
         <v>22849900</v>
       </c>
       <c r="D83" s="5">
-        <v>2027218304</v>
+        <v>2029165952</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F83" s="5">
-        <v>5.0269021987915004</v>
+        <v>5.0211133956909197</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>0</v>
@@ -6927,13 +6922,13 @@
         <v>22438812</v>
       </c>
       <c r="D84" s="5">
-        <v>3745696512</v>
+        <v>3750931712</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F84" s="5">
-        <v>1.72330093383789</v>
+        <v>1.72198522090912</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>0</v>
@@ -6986,13 +6981,13 @@
         <v>22119468</v>
       </c>
       <c r="D85" s="5">
-        <v>3045535744</v>
+        <v>3055828224</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F85" s="5">
-        <v>4.1279754638671902</v>
+        <v>4.1129517555236799</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>0</v>
@@ -7045,13 +7040,13 @@
         <v>20952854</v>
       </c>
       <c r="D86" s="5">
-        <v>2800280064</v>
+        <v>2819387904</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F86" s="5">
-        <v>4.6931390762329102</v>
+        <v>4.6675863265991202</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>0</v>
@@ -7104,13 +7099,13 @@
         <v>19946620</v>
       </c>
       <c r="D87" s="5">
-        <v>2525888000</v>
+        <v>2543134464</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F87" s="5">
-        <v>1.5207728147506701</v>
+        <v>1.51959848403931</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>0</v>
@@ -7163,13 +7158,13 @@
         <v>19644478</v>
       </c>
       <c r="D88" s="5">
-        <v>4241236224</v>
+        <v>4251175680</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F88" s="5">
-        <v>2.59599781036377</v>
+        <v>2.5882987976074201</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>0</v>
@@ -7222,13 +7217,13 @@
         <v>16690559</v>
       </c>
       <c r="D89" s="5">
-        <v>4849988608</v>
+        <v>4857394176</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F89" s="5">
-        <v>0.84553217887878396</v>
+        <v>0.84476518630981401</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>0</v>
@@ -7281,13 +7276,13 @@
         <v>16150332</v>
       </c>
       <c r="D90" s="5">
-        <v>1887036544</v>
+        <v>1887221376</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F90" s="5">
-        <v>0.31274721026420599</v>
+        <v>0.312685966491699</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>0</v>
@@ -7340,13 +7335,13 @@
         <v>15919981</v>
       </c>
       <c r="D91" s="5">
-        <v>2337682688</v>
+        <v>2335766272</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F91" s="5">
-        <v>5.4129762649536097</v>
+        <v>5.4096331596374503</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>0</v>
@@ -7399,10 +7394,10 @@
         <v>14952343</v>
       </c>
       <c r="D92" s="5">
-        <v>4013005312</v>
+        <v>4024235008</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="6" t="s">
@@ -7456,10 +7451,10 @@
         <v>14889316</v>
       </c>
       <c r="D93" s="5">
-        <v>1775951360</v>
+        <v>1775862784</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="6" t="s">
@@ -7513,7 +7508,7 @@
         <v>14268607</v>
       </c>
       <c r="D94" s="5">
-        <v>2482649856</v>
+        <v>2481896704</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>28</v>
@@ -7575,10 +7570,10 @@
         <v>2838490112</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F95" s="5">
-        <v>1.0494915246963501</v>
+        <v>1.04928231239319</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>0</v>
@@ -7628,16 +7623,16 @@
         <v>235</v>
       </c>
       <c r="C96" s="5">
-        <v>13896224</v>
+        <v>13890672</v>
       </c>
       <c r="D96" s="5">
-        <v>3582170112</v>
+        <v>3611212800</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F96" s="5">
-        <v>2.5620095729827899</v>
+        <v>2.5468165874481201</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>236</v>
@@ -7658,7 +7653,7 @@
         <v>-1.31955567841748</v>
       </c>
       <c r="M96" s="5">
-        <v>-1.79023562192823</v>
+        <v>-1.89225367484791</v>
       </c>
       <c r="N96" s="5">
         <v>5.4795596430623696</v>
@@ -7687,40 +7682,40 @@
         <v>240</v>
       </c>
       <c r="C97" s="5">
-        <v>13692139</v>
+        <v>13862711</v>
       </c>
       <c r="D97" s="5">
-        <v>1606870656</v>
+        <v>1610857088</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F97" s="5">
-        <v>0.34908437728881803</v>
+        <v>0.34911924600601202</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>241</v>
       </c>
       <c r="H97" s="5">
-        <v>-0.29719689798926002</v>
+        <v>0.14074048024541599</v>
       </c>
       <c r="I97" s="5">
-        <v>-0.28388583652331201</v>
+        <v>-0.16684518634245701</v>
       </c>
       <c r="J97" s="5">
-        <v>-3.0043626419475902</v>
+        <v>-2.9812528516503698</v>
       </c>
       <c r="K97" s="5">
-        <v>-2.0993646783738198</v>
+        <v>-3.26707290754563</v>
       </c>
       <c r="L97" s="5">
-        <v>-3.4288630063927101</v>
+        <v>-3.93103943031119</v>
       </c>
       <c r="M97" s="5">
-        <v>-2.82819786290997</v>
+        <v>-2.6262145375164998</v>
       </c>
       <c r="N97" s="5">
-        <v>7.45587909010899</v>
+        <v>7.8018171823661699</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>23</v>
@@ -7735,7 +7730,7 @@
         <v>39.776468449964</v>
       </c>
       <c r="S97" s="5">
-        <v>37.384723663330099</v>
+        <v>37.437335968017599</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7746,10 +7741,10 @@
         <v>245</v>
       </c>
       <c r="C98" s="5">
-        <v>13392622</v>
+        <v>13387271</v>
       </c>
       <c r="D98" s="5">
-        <v>4881513984</v>
+        <v>4894917632</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>38</v>
@@ -7776,7 +7771,7 @@
         <v>-0.93103573062743905</v>
       </c>
       <c r="M98" s="5">
-        <v>-1.2898078691627199</v>
+        <v>-1.3923457549654801</v>
       </c>
       <c r="N98" s="5">
         <v>5.8516263772185004</v>
@@ -7808,13 +7803,13 @@
         <v>13250477</v>
       </c>
       <c r="D99" s="5">
-        <v>728775040</v>
+        <v>730374016</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F99" s="5">
-        <v>0.64330124855041504</v>
+        <v>0.642109155654907</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>0</v>
@@ -7864,17 +7859,17 @@
         <v>249</v>
       </c>
       <c r="C100" s="5">
-        <v>12213562</v>
+        <v>12208682</v>
       </c>
       <c r="D100" s="5">
-        <v>856812224</v>
+        <v>866484032</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H100" s="5">
         <v>-0.33386589507333803</v>
@@ -7892,13 +7887,13 @@
         <v>1.7870154644812599</v>
       </c>
       <c r="M100" s="5">
-        <v>2.4823848458502198</v>
+        <v>2.3759284926887299</v>
       </c>
       <c r="N100" s="5">
         <v>9.1967390042923203</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>237</v>
@@ -7924,13 +7919,13 @@
         <v>11802237</v>
       </c>
       <c r="D101" s="5">
-        <v>397120000</v>
+        <v>401900416</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F101" s="5">
-        <v>1.53424656391144</v>
+        <v>1.50770676136017</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>0</v>
@@ -7983,13 +7978,13 @@
         <v>11653317</v>
       </c>
       <c r="D102" s="5">
-        <v>1789577984</v>
+        <v>1803824000</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F102" s="5">
-        <v>3.1803450584411599</v>
+        <v>3.17721319198608</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>0</v>
@@ -8042,10 +8037,10 @@
         <v>11460443</v>
       </c>
       <c r="D103" s="5">
-        <v>3113253120</v>
+        <v>3115743488</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F103" s="5">
         <v>2.7865149974822998</v>
@@ -8098,16 +8093,16 @@
         <v>257</v>
       </c>
       <c r="C104" s="5">
-        <v>11266369</v>
+        <v>11261868</v>
       </c>
       <c r="D104" s="5">
-        <v>2473774592</v>
+        <v>2479009024</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F104" s="5">
-        <v>2.0302374362945601</v>
+        <v>2.0287768840789799</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>236</v>
@@ -8128,7 +8123,7 @@
         <v>0.86049298735453295</v>
       </c>
       <c r="M104" s="5">
-        <v>1.52937770642223</v>
+        <v>1.42391131524058</v>
       </c>
       <c r="N104" s="5">
         <v>9.0126406689495298</v>
@@ -8160,13 +8155,13 @@
         <v>10783932</v>
       </c>
       <c r="D105" s="5">
-        <v>1807714944</v>
+        <v>1806687488</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F105" s="5">
-        <v>4.2061386108398402</v>
+        <v>4.2077331542968803</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>0</v>
@@ -8219,10 +8214,10 @@
         <v>10548930</v>
       </c>
       <c r="D106" s="5">
-        <v>1586067968</v>
+        <v>1585752064</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F106" s="5">
         <v>1.1934834718704199</v>
@@ -8278,13 +8273,13 @@
         <v>10376434</v>
       </c>
       <c r="D107" s="5">
-        <v>2358843136</v>
+        <v>2369477888</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F107" s="5">
-        <v>2.58899927139282</v>
+        <v>2.5789222717285201</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>0</v>
@@ -8337,13 +8332,13 @@
         <v>10025484</v>
       </c>
       <c r="D108" s="5">
-        <v>1860507904</v>
+        <v>1807588608</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F108" s="5">
-        <v>4.6434512138366699</v>
+        <v>4.6410388946533203</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>0</v>
@@ -8396,13 +8391,13 @@
         <v>9964031</v>
       </c>
       <c r="D109" s="5">
-        <v>1724107520</v>
+        <v>1724516224</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F109" s="5">
-        <v>0.68335700035095204</v>
+        <v>0.68303316831588701</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>0</v>
@@ -8455,37 +8450,37 @@
         <v>9816068</v>
       </c>
       <c r="D110" s="5">
-        <v>7793051136</v>
+        <v>7805826560</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F110" s="5">
-        <v>3.9210152626037602</v>
+        <v>3.9220664501190199</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>0.232844795189768</v>
+        <v>-2.6803770360672999E-2</v>
       </c>
       <c r="I110" s="5">
-        <v>0.27775070056310602</v>
+        <v>0</v>
       </c>
       <c r="J110" s="5">
-        <v>-4.9404404725294997E-2</v>
+        <v>0.119967998521031</v>
       </c>
       <c r="K110" s="5">
-        <v>3.14984531648612</v>
+        <v>2.81246479450366</v>
       </c>
       <c r="L110" s="5">
-        <v>0.67049024233325505</v>
+        <v>0.52066244345405599</v>
       </c>
       <c r="M110" s="5">
-        <v>-1.40868659487193</v>
+        <v>-1.4351127841126099</v>
       </c>
       <c r="N110" s="5">
-        <v>5.98030010120796</v>
+        <v>6.4268847215025904</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>23</v>
@@ -8500,7 +8495,7 @@
         <v>115.860000610352</v>
       </c>
       <c r="S110" s="5">
-        <v>111.919998168945</v>
+        <v>111.889999389648</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8514,13 +8509,13 @@
         <v>9791617</v>
       </c>
       <c r="D111" s="5">
-        <v>1970197760</v>
+        <v>1983386112</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F111" s="5">
-        <v>1.9329463243484499</v>
+        <v>1.92609179019928</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>0</v>
@@ -8573,37 +8568,37 @@
         <v>9450460</v>
       </c>
       <c r="D112" s="5">
-        <v>3947080960</v>
+        <v>3928059648</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F112" s="5">
-        <v>2.6683490276336701</v>
+        <v>2.6695928573608398</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H112" s="5">
-        <v>8.549048878288E-2</v>
+        <v>-4.6589190217783003E-2</v>
       </c>
       <c r="I112" s="5">
-        <v>-0.100849336063369</v>
+        <v>-0.28661796241673498</v>
       </c>
       <c r="J112" s="5">
-        <v>1.13585604784792</v>
+        <v>1.43299243953445</v>
       </c>
       <c r="K112" s="5">
-        <v>3.7919990004161601</v>
+        <v>3.4124299603030401</v>
       </c>
       <c r="L112" s="5">
-        <v>0.17462285522611401</v>
+        <v>-0.117373240629826</v>
       </c>
       <c r="M112" s="5">
-        <v>-1.5779296035444299</v>
+        <v>-1.62378364913772</v>
       </c>
       <c r="N112" s="5">
-        <v>1.5910835763052</v>
+        <v>1.35691336872181</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>277</v>
@@ -8618,7 +8613,7 @@
         <v>134.169998168945</v>
       </c>
       <c r="S112" s="5">
-        <v>128.77999877929699</v>
+        <v>128.72000122070301</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8638,7 +8633,7 @@
         <v>86</v>
       </c>
       <c r="F113" s="5">
-        <v>2.3339889049529998</v>
+        <v>2.3331391811370801</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>0</v>
@@ -8691,13 +8686,13 @@
         <v>9325236</v>
       </c>
       <c r="D114" s="5">
-        <v>2282544128</v>
+        <v>2284314112</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F114" s="5">
-        <v>1.9257460832595801</v>
+        <v>1.9237434864044201</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>0</v>
@@ -8750,13 +8745,13 @@
         <v>9269043</v>
       </c>
       <c r="D115" s="5">
-        <v>932148096</v>
+        <v>952959936</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F115" s="5">
-        <v>1.5348985195159901</v>
+        <v>1.5210207700729399</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>0</v>
@@ -8806,10 +8801,10 @@
         <v>285</v>
       </c>
       <c r="C116" s="5">
-        <v>8779589</v>
+        <v>8776082</v>
       </c>
       <c r="D116" s="5">
-        <v>1357185792</v>
+        <v>1356914816</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>54</v>
@@ -8836,7 +8831,7 @@
         <v>1.7363734180066499</v>
       </c>
       <c r="M116" s="5">
-        <v>2.4520364961416701</v>
+        <v>2.3456116681504802</v>
       </c>
       <c r="N116" s="5">
         <v>9.1408845912125596</v>
@@ -8868,13 +8863,13 @@
         <v>8542212</v>
       </c>
       <c r="D117" s="5">
-        <v>1327577984</v>
+        <v>1339336064</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F117" s="5">
-        <v>3.4895150661468501</v>
+        <v>3.4588937759399401</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>0</v>
@@ -8924,16 +8919,16 @@
         <v>289</v>
       </c>
       <c r="C118" s="5">
-        <v>8340108</v>
+        <v>8336776</v>
       </c>
       <c r="D118" s="5">
-        <v>1733339520</v>
+        <v>1731123200</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F118" s="5">
-        <v>4.7493405342102104</v>
+        <v>4.7451672554016104</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>236</v>
@@ -8954,7 +8949,7 @@
         <v>18.135430530928598</v>
       </c>
       <c r="M118" s="5">
-        <v>21.2197580801001</v>
+        <v>21.093837772959201</v>
       </c>
       <c r="N118" s="5">
         <v>57.397741366530298</v>
@@ -8983,16 +8978,16 @@
         <v>257</v>
       </c>
       <c r="C119" s="5">
-        <v>7808372.5</v>
+        <v>7805253</v>
       </c>
       <c r="D119" s="5">
-        <v>1220724992</v>
+        <v>1224776576</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F119" s="5">
-        <v>3.0670926570892298</v>
+        <v>3.06010961532593</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>236</v>
@@ -9013,7 +9008,7 @@
         <v>-0.59136880859894703</v>
       </c>
       <c r="M119" s="5">
-        <v>-0.239878426054496</v>
+        <v>-0.34350695450534602</v>
       </c>
       <c r="N119" s="5">
         <v>8.7790491159101194</v>
@@ -9101,16 +9096,16 @@
         <v>294</v>
       </c>
       <c r="C121" s="5">
-        <v>7635844</v>
+        <v>7632793.5</v>
       </c>
       <c r="D121" s="5">
-        <v>1633020288</v>
+        <v>1632367872</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F121" s="5">
-        <v>0.67666471004486095</v>
+        <v>0.67659705877304099</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>236</v>
@@ -9131,7 +9126,7 @@
         <v>1.74553348288495</v>
       </c>
       <c r="M121" s="5">
-        <v>2.41004844477049</v>
+        <v>2.3036672330049499</v>
       </c>
       <c r="N121" s="5">
         <v>9.1064099848189493</v>
@@ -9163,13 +9158,13 @@
         <v>7296653.5</v>
       </c>
       <c r="D122" s="5">
-        <v>2018100096</v>
+        <v>2019085824</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F122" s="5">
-        <v>1.4516128301620499</v>
+        <v>1.45094430446625</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>0</v>
@@ -9222,13 +9217,13 @@
         <v>7244286</v>
       </c>
       <c r="D123" s="5">
-        <v>1121445376</v>
+        <v>1123914112</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F123" s="5">
-        <v>1.3290038108825699</v>
+        <v>1.3251143693923999</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>0</v>
@@ -9281,13 +9276,13 @@
         <v>7149157.5</v>
       </c>
       <c r="D124" s="5">
-        <v>576480000</v>
+        <v>576137472</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F124" s="5">
-        <v>1.6087218523025499</v>
+        <v>1.6090568304061901</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>0</v>
@@ -9340,13 +9335,13 @@
         <v>7125103.5</v>
       </c>
       <c r="D125" s="5">
-        <v>1907576064</v>
+        <v>1917591552</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F125" s="5">
-        <v>1.6414985656738299</v>
+        <v>1.6399232149124101</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>0</v>
@@ -9396,16 +9391,16 @@
         <v>303</v>
       </c>
       <c r="C126" s="5">
-        <v>6795727.5</v>
+        <v>6793012.5</v>
       </c>
       <c r="D126" s="5">
-        <v>2708076800</v>
+        <v>2715311360</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>304</v>
       </c>
       <c r="F126" s="5">
-        <v>2.73488473892212</v>
+        <v>2.7254650592803999</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>236</v>
@@ -9426,7 +9421,7 @@
         <v>-1.12846079403999</v>
       </c>
       <c r="M126" s="5">
-        <v>-1.6355578224063501</v>
+        <v>-1.73773655107998</v>
       </c>
       <c r="N126" s="5">
         <v>5.6449430896961603</v>
@@ -9458,13 +9453,13 @@
         <v>6706435.5</v>
       </c>
       <c r="D127" s="5">
-        <v>834358016</v>
+        <v>829980032</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F127" s="5">
-        <v>3.2824971675872798</v>
+        <v>3.27411937713623</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>0</v>
@@ -9517,13 +9512,13 @@
         <v>6703054</v>
       </c>
       <c r="D128" s="5">
-        <v>1132934656</v>
+        <v>1133940608</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F128" s="5">
-        <v>0.76696389913559004</v>
+        <v>0.76636558771133401</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>0</v>
@@ -9576,7 +9571,7 @@
         <v>6638487.5</v>
       </c>
       <c r="D129" s="5">
-        <v>1261837568</v>
+        <v>1271224576</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>48</v>
@@ -9633,13 +9628,13 @@
         <v>6475958.5</v>
       </c>
       <c r="D130" s="5">
-        <v>993949120</v>
+        <v>1001481664</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F130" s="5">
-        <v>0.87114596366882302</v>
+        <v>0.86436545848846402</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>0</v>
@@ -9692,7 +9687,7 @@
         <v>6419284</v>
       </c>
       <c r="D131" s="5">
-        <v>1483820032</v>
+        <v>1485043584</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>51</v>
@@ -9751,13 +9746,13 @@
         <v>6347719</v>
       </c>
       <c r="D132" s="5">
-        <v>613322496</v>
+        <v>616185856</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F132" s="5">
-        <v>6.77809810638428</v>
+        <v>6.7315402030944798</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>0</v>
@@ -9810,7 +9805,7 @@
         <v>6242248.5</v>
       </c>
       <c r="D133" s="5">
-        <v>516599968</v>
+        <v>519839968</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>45</v>
@@ -9867,13 +9862,13 @@
         <v>6231668.5</v>
       </c>
       <c r="D134" s="5">
-        <v>819278976</v>
+        <v>797116224</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F134" s="5">
-        <v>7.5734906196594203</v>
+        <v>7.56455755233765</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>0</v>
@@ -9923,16 +9918,16 @@
         <v>321</v>
       </c>
       <c r="C135" s="5">
-        <v>6217972</v>
+        <v>6215488</v>
       </c>
       <c r="D135" s="5">
-        <v>364845984</v>
+        <v>365210272</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F135" s="5">
-        <v>1.8461538553237899</v>
+        <v>1.8448636531829801</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>236</v>
@@ -9953,7 +9948,7 @@
         <v>0.56004871725503502</v>
       </c>
       <c r="M135" s="5">
-        <v>1.2269409556670401</v>
+        <v>1.1217887288522199</v>
       </c>
       <c r="N135" s="5">
         <v>7.8264378446853096</v>
@@ -9985,13 +9980,13 @@
         <v>6101076.5</v>
       </c>
       <c r="D136" s="5">
-        <v>2377429504</v>
+        <v>2379895552</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F136" s="5">
-        <v>1.4534323215484599</v>
+        <v>1.4511744976043699</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>0</v>
@@ -10038,117 +10033,117 @@
         <v>324</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="C137" s="5">
-        <v>5996822.5</v>
+        <v>5984566.5</v>
       </c>
       <c r="D137" s="5">
-        <v>656900608</v>
+        <v>2386918144</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F137" s="5">
-        <v>2.11538457870483</v>
+        <v>1.5231837034225499</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>-0.24235193957048401</v>
+        <v>-2.3149622253105E-2</v>
       </c>
       <c r="I137" s="5">
-        <v>0.95047018411640305</v>
+        <v>-4.6297355116787002E-2</v>
       </c>
       <c r="J137" s="5">
-        <v>2.58430947587927</v>
+        <v>-1.1951525038445E-2</v>
       </c>
       <c r="K137" s="5">
-        <v>6.6505401593720803</v>
+        <v>7.65291552564E-2</v>
       </c>
       <c r="L137" s="5">
-        <v>-2.4317343347387301</v>
+        <v>0.142489714482674</v>
       </c>
       <c r="M137" s="5">
-        <v>-6.2392632246100401</v>
+        <v>9.6440969213173994E-2</v>
       </c>
       <c r="N137" s="5">
-        <v>-10.6905155441445</v>
+        <v>0.97430392812518596</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="R137" s="5">
-        <v>1.7477049141747301</v>
+        <v>21.909999847412099</v>
       </c>
       <c r="S137" s="5">
-        <v>1.4855550527572601</v>
+        <v>21.590000152587901</v>
       </c>
     </row>
     <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="C138" s="5">
-        <v>5984566.5</v>
+        <v>5981188</v>
       </c>
       <c r="D138" s="5">
-        <v>2386774528</v>
+        <v>653046144</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F138" s="5">
-        <v>1.5245946645736701</v>
+        <v>2.12817430496216</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="H138" s="5">
-        <v>-2.3149622253105E-2</v>
+        <v>-0.586766073688894</v>
       </c>
       <c r="I138" s="5">
-        <v>-4.6297355116787002E-2</v>
+        <v>-0.80792718808200303</v>
       </c>
       <c r="J138" s="5">
-        <v>-1.1951525038445E-2</v>
+        <v>1.9823795509467801</v>
       </c>
       <c r="K138" s="5">
-        <v>7.65291552564E-2</v>
+        <v>5.3957825522258398</v>
       </c>
       <c r="L138" s="5">
-        <v>0.142489714482674</v>
+        <v>-3.7663245392160798</v>
       </c>
       <c r="M138" s="5">
-        <v>9.6440969213173994E-2</v>
+        <v>-6.7894194184487704</v>
       </c>
       <c r="N138" s="5">
-        <v>0.97430392812518596</v>
+        <v>-11.174522279085799</v>
       </c>
       <c r="O138" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>24</v>
+        <v>328</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="R138" s="5">
-        <v>21.909999847412099</v>
+        <v>1.7477049141747301</v>
       </c>
       <c r="S138" s="5">
-        <v>21.590000152587901</v>
+        <v>1.4768383502960201</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10162,13 +10157,13 @@
         <v>5814061.5</v>
       </c>
       <c r="D139" s="5">
-        <v>1192799872</v>
+        <v>1197209984</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F139" s="5">
-        <v>1.9185422658920299</v>
+        <v>1.91080486774445</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>0</v>
@@ -10218,40 +10213,40 @@
         <v>333</v>
       </c>
       <c r="C140" s="5">
-        <v>5745567</v>
+        <v>5770927.5</v>
       </c>
       <c r="D140" s="5">
-        <v>11068848128</v>
+        <v>10855211008</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F140" s="5">
-        <v>0.70745193958282504</v>
+        <v>0.70719128847122203</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>334</v>
       </c>
       <c r="H140" s="5">
-        <v>-0.45905600379684303</v>
+        <v>0.28262672937560102</v>
       </c>
       <c r="I140" s="5">
-        <v>7.6558381312352999E-2</v>
+        <v>0.38321542559605098</v>
       </c>
       <c r="J140" s="5">
-        <v>-2.0828719803836</v>
+        <v>-1.96151266139333</v>
       </c>
       <c r="K140" s="5">
-        <v>-0.57281725823977703</v>
+        <v>-0.57966408631372501</v>
       </c>
       <c r="L140" s="5">
-        <v>-3.0207049975982998</v>
+        <v>-2.81589747223267</v>
       </c>
       <c r="M140" s="5">
-        <v>-3.7623489260941501</v>
+        <v>-3.3019382306027101</v>
       </c>
       <c r="N140" s="5">
-        <v>7.4607045576016802</v>
+        <v>7.1500635914689203</v>
       </c>
       <c r="O140" s="6" t="s">
         <v>335</v>
@@ -10266,7 +10261,7 @@
         <v>168.49770675659201</v>
       </c>
       <c r="S140" s="5">
-        <v>160.14486694335901</v>
+        <v>160.59747314453099</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10280,13 +10275,13 @@
         <v>5739908.5</v>
       </c>
       <c r="D141" s="5">
-        <v>1361856000</v>
+        <v>1365194240</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F141" s="5">
-        <v>0.93871384859085105</v>
+        <v>0.93575751781463601</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>0</v>
@@ -10396,13 +10391,13 @@
         <v>5572654.5</v>
       </c>
       <c r="D143" s="5">
-        <v>653036992</v>
+        <v>654062464</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F143" s="5">
-        <v>3.5192444324493399</v>
+        <v>3.5137131214141899</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>0</v>
@@ -10455,13 +10450,13 @@
         <v>5457397.5</v>
       </c>
       <c r="D144" s="5">
-        <v>1867407488</v>
+        <v>1868894976</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>343</v>
       </c>
       <c r="F144" s="5">
-        <v>1.5578205585479701</v>
+        <v>1.55682849884033</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>0</v>
@@ -10520,7 +10515,7 @@
         <v>91</v>
       </c>
       <c r="F145" s="5">
-        <v>1.1108601093292201</v>
+        <v>1.1103776693344101</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>0</v>
@@ -10573,13 +10568,13 @@
         <v>5442767</v>
       </c>
       <c r="D146" s="5">
-        <v>750857984</v>
+        <v>753516160</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F146" s="5">
-        <v>2.0221135616302499</v>
+        <v>2.0187742710113499</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>0</v>
@@ -10632,13 +10627,13 @@
         <v>5423818</v>
       </c>
       <c r="D147" s="5">
-        <v>1043000960</v>
+        <v>1052913600</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F147" s="5">
-        <v>1.06975781917572</v>
+        <v>1.06852531433105</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>0</v>
@@ -10688,16 +10683,16 @@
         <v>349</v>
       </c>
       <c r="C148" s="5">
-        <v>5394164.5</v>
+        <v>5392009.5</v>
       </c>
       <c r="D148" s="5">
-        <v>1918357760</v>
+        <v>1928352128</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F148" s="5">
-        <v>2.8956229686737101</v>
+        <v>2.8770561218261701</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>236</v>
@@ -10718,7 +10713,7 @@
         <v>-5.2476453179893099</v>
       </c>
       <c r="M148" s="5">
-        <v>-8.2221195138751195</v>
+        <v>-8.3174562731839501</v>
       </c>
       <c r="N148" s="5">
         <v>-4.1379759317179596</v>
@@ -10750,7 +10745,7 @@
         <v>5365413</v>
       </c>
       <c r="D149" s="5">
-        <v>622833472</v>
+        <v>630568704</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>28</v>
@@ -10809,13 +10804,13 @@
         <v>5131027</v>
       </c>
       <c r="D150" s="5">
-        <v>453600000</v>
+        <v>454750016</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F150" s="5">
-        <v>5.2954759597778303</v>
+        <v>5.28092336654663</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>0</v>
@@ -10865,16 +10860,16 @@
         <v>355</v>
       </c>
       <c r="C151" s="5">
-        <v>5013629</v>
+        <v>5011626</v>
       </c>
       <c r="D151" s="5">
-        <v>1021676224</v>
+        <v>1022116672</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>304</v>
       </c>
       <c r="F151" s="5">
-        <v>2.15930199623108</v>
+        <v>2.1566140651702899</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>236</v>
@@ -10895,7 +10890,7 @@
         <v>0.81244531988311497</v>
       </c>
       <c r="M151" s="5">
-        <v>1.43957301722255</v>
+        <v>1.3341999130943101</v>
       </c>
       <c r="N151" s="5">
         <v>8.8382426527850608</v>
@@ -10924,16 +10919,16 @@
         <v>357</v>
       </c>
       <c r="C152" s="5">
-        <v>4946521.5</v>
+        <v>4944545.5</v>
       </c>
       <c r="D152" s="5">
-        <v>1348468480</v>
+        <v>1353312000</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F152" s="5">
-        <v>2.6366889476776101</v>
+        <v>2.6326529979705802</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>236</v>
@@ -10954,7 +10949,7 @@
         <v>0.88282134838764104</v>
       </c>
       <c r="M152" s="5">
-        <v>1.6028106691334101</v>
+        <v>1.4972679974726999</v>
       </c>
       <c r="N152" s="5">
         <v>10.492706137665399</v>
@@ -10986,13 +10981,13 @@
         <v>4915083.5</v>
       </c>
       <c r="D153" s="5">
-        <v>398193984</v>
+        <v>400894976</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F153" s="5">
-        <v>3.1364066600799601</v>
+        <v>3.10930299758911</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>0</v>
@@ -11045,13 +11040,13 @@
         <v>4886587</v>
       </c>
       <c r="D154" s="5">
-        <v>1057469952</v>
+        <v>1061307968</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F154" s="5">
-        <v>2.06303739547729</v>
+        <v>2.05440378189087</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>0</v>
@@ -11104,13 +11099,13 @@
         <v>4825720.5</v>
       </c>
       <c r="D155" s="5">
-        <v>794107008</v>
+        <v>797304000</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F155" s="5">
-        <v>1.87278139591217</v>
+        <v>1.86429703235626</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>0</v>
@@ -11160,40 +11155,40 @@
         <v>365</v>
       </c>
       <c r="C156" s="5">
-        <v>4690835</v>
+        <v>4702375</v>
       </c>
       <c r="D156" s="5">
-        <v>1928796800</v>
+        <v>1934743168</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F156" s="5">
-        <v>0.84479546546936002</v>
+        <v>0.84427100419998202</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H156" s="5">
-        <v>2.2514114189387001E-2</v>
+        <v>0.14886934483353501</v>
       </c>
       <c r="I156" s="5">
-        <v>0.91392253786122302</v>
+        <v>0.484433846338583</v>
       </c>
       <c r="J156" s="5">
-        <v>-0.513862989261893</v>
+        <v>-9.8690742221175007E-2</v>
       </c>
       <c r="K156" s="5">
-        <v>2.9985887097014898</v>
+        <v>3.00854785608264</v>
       </c>
       <c r="L156" s="5">
-        <v>-1.5008747290853699</v>
+        <v>-1.8420562507614899</v>
       </c>
       <c r="M156" s="5">
-        <v>-3.05062579599845</v>
+        <v>-2.7517343148855802</v>
       </c>
       <c r="N156" s="5">
-        <v>4.4054261176834402</v>
+        <v>4.8032768827110104</v>
       </c>
       <c r="O156" s="6" t="s">
         <v>367</v>
@@ -11208,7 +11203,7 @@
         <v>20.245850000000001</v>
       </c>
       <c r="S156" s="5">
-        <v>19.4981880187988</v>
+        <v>19.527214050293001</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11222,13 +11217,13 @@
         <v>4681155.5</v>
       </c>
       <c r="D157" s="5">
-        <v>1488844032</v>
+        <v>1489687040</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F157" s="5">
-        <v>8.1905317306518608</v>
+        <v>8.1843528747558594</v>
       </c>
       <c r="G157" s="6" t="s">
         <v>0</v>
@@ -11281,13 +11276,13 @@
         <v>4680543</v>
       </c>
       <c r="D158" s="5">
-        <v>768043520</v>
+        <v>769346240</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F158" s="5">
-        <v>1.1932830810546899</v>
+        <v>1.1910383701324501</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>0</v>
@@ -11340,13 +11335,13 @@
         <v>4678871.5</v>
       </c>
       <c r="D159" s="5">
-        <v>784331648</v>
+        <v>787588992</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F159" s="5">
-        <v>2.01894307136536</v>
+        <v>2.0113155841827401</v>
       </c>
       <c r="G159" s="6" t="s">
         <v>0</v>
@@ -11396,55 +11391,55 @@
         <v>373</v>
       </c>
       <c r="C160" s="5">
-        <v>4635330</v>
+        <v>4643047.5</v>
       </c>
       <c r="D160" s="5">
-        <v>1596327040</v>
+        <v>6007348736</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="F160" s="5">
-        <v>1.7551729679107699</v>
+        <v>3.2400424480438201</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="H160" s="5">
-        <v>0</v>
+        <v>0.28446044655199298</v>
       </c>
       <c r="I160" s="5">
-        <v>-7.6806670739193006E-2</v>
+        <v>0.211851878459801</v>
       </c>
       <c r="J160" s="5">
-        <v>-0.122544497607091</v>
+        <v>-2.5066210842614001</v>
       </c>
       <c r="K160" s="5">
-        <v>6.2331866062615003E-2</v>
+        <v>-0.353085081178584</v>
       </c>
       <c r="L160" s="5">
-        <v>5.5873559411235001E-2</v>
+        <v>-0.65167139523901696</v>
       </c>
       <c r="M160" s="5">
-        <v>-2.0308184579487E-2</v>
+        <v>-0.98676783354456599</v>
       </c>
       <c r="N160" s="5">
-        <v>1.38346857719602</v>
+        <v>13.919041715947399</v>
       </c>
       <c r="O160" s="6" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="R160" s="5">
-        <v>26.389999389648398</v>
+        <v>126.72209060897799</v>
       </c>
       <c r="S160" s="5">
-        <v>26.0200004577637</v>
+        <v>122.40055847168</v>
       </c>
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11455,55 +11450,55 @@
         <v>375</v>
       </c>
       <c r="C161" s="5">
-        <v>4622643.5</v>
+        <v>4635330</v>
       </c>
       <c r="D161" s="5">
-        <v>5978636288</v>
+        <v>1596946688</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="F161" s="5">
-        <v>3.2412958145141602</v>
+        <v>1.75449872016907</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>-0.50349195203129904</v>
+        <v>0</v>
       </c>
       <c r="I161" s="5">
-        <v>-2.5416505681563999E-2</v>
+        <v>-7.6806670739193006E-2</v>
       </c>
       <c r="J161" s="5">
-        <v>-2.6386498056206098</v>
+        <v>-0.122544497607091</v>
       </c>
       <c r="K161" s="5">
-        <v>-0.156861697052746</v>
+        <v>6.2331866062615003E-2</v>
       </c>
       <c r="L161" s="5">
-        <v>-0.81445747210455699</v>
+        <v>5.5873559411235001E-2</v>
       </c>
       <c r="M161" s="5">
-        <v>-1.46000365517772</v>
+        <v>-2.0308184579487E-2</v>
       </c>
       <c r="N161" s="5">
-        <v>13.5957612857787</v>
+        <v>1.38346857719602</v>
       </c>
       <c r="O161" s="6" t="s">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="Q161" s="6" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="R161" s="5">
-        <v>126.72209060897799</v>
+        <v>26.389999389648398</v>
       </c>
       <c r="S161" s="5">
-        <v>122.053359985352</v>
+        <v>26.0200004577637</v>
       </c>
     </row>
     <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11517,13 +11512,13 @@
         <v>4608216.5</v>
       </c>
       <c r="D162" s="5">
-        <v>1490159872</v>
+        <v>1491168128</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F162" s="5">
-        <v>1.8117700815200799</v>
+        <v>1.81136155128479</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>0</v>
@@ -11573,55 +11568,55 @@
         <v>378</v>
       </c>
       <c r="C163" s="5">
-        <v>4442853</v>
+        <v>4461360.5</v>
       </c>
       <c r="D163" s="5">
-        <v>388900864</v>
+        <v>359614848</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F163" s="5">
-        <v>2.3354868888854998</v>
+        <v>2.34671807289123</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H163" s="5">
-        <v>-0.47867320237884298</v>
+        <v>-0.46437224455779802</v>
       </c>
       <c r="I163" s="5">
-        <v>1.28823815579309</v>
+        <v>-0.518750612188557</v>
       </c>
       <c r="J163" s="5">
-        <v>2.71884362777908</v>
+        <v>2.2418458280409399</v>
       </c>
       <c r="K163" s="5">
-        <v>6.7709219187032801</v>
+        <v>5.3849383251549003</v>
       </c>
       <c r="L163" s="5">
-        <v>-2.4615703185064799</v>
+        <v>-3.5176585067667698</v>
       </c>
       <c r="M163" s="5">
-        <v>-5.9703523140620698</v>
+        <v>-6.4069998995710504</v>
       </c>
       <c r="N163" s="5">
-        <v>-10.5711069995369</v>
+        <v>-11.1579950964629</v>
       </c>
       <c r="O163" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q163" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R163" s="5">
         <v>1.7613056523991999</v>
       </c>
       <c r="S163" s="5">
-        <v>1.4923400878906199</v>
+        <v>1.4854102134704601</v>
       </c>
     </row>
     <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11632,40 +11627,40 @@
         <v>380</v>
       </c>
       <c r="C164" s="5">
-        <v>4405102</v>
+        <v>4415939.5</v>
       </c>
       <c r="D164" s="5">
-        <v>1775103232</v>
+        <v>1780801024</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F164" s="5">
-        <v>1.7844659090042101</v>
+        <v>1.7831325531005899</v>
       </c>
       <c r="G164" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H164" s="5">
-        <v>-0.39056015659063598</v>
+        <v>0.16153833453198499</v>
       </c>
       <c r="I164" s="5">
-        <v>0.335296837660914</v>
+        <v>0.34285644421931899</v>
       </c>
       <c r="J164" s="5">
-        <v>-1.7819744585000401</v>
+        <v>-1.66987218375039</v>
       </c>
       <c r="K164" s="5">
-        <v>1.26124614054657</v>
+        <v>1.0242740507135699</v>
       </c>
       <c r="L164" s="5">
-        <v>1.54161076825798</v>
+        <v>1.3321990847026099</v>
       </c>
       <c r="M164" s="5">
-        <v>1.1250950526863199</v>
+        <v>1.44969205559162</v>
       </c>
       <c r="N164" s="5">
-        <v>12.264658635713699</v>
+        <v>13.0517294506413</v>
       </c>
       <c r="O164" s="6" t="s">
         <v>367</v>
@@ -11680,7 +11675,7 @@
         <v>152.34992346191399</v>
       </c>
       <c r="S164" s="5">
-        <v>148.09555053710901</v>
+        <v>148.33477783203099</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11691,16 +11686,16 @@
         <v>382</v>
       </c>
       <c r="C165" s="5">
-        <v>4356880.5</v>
+        <v>4355140</v>
       </c>
       <c r="D165" s="5">
-        <v>1054336320</v>
+        <v>1055385920</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F165" s="5">
-        <v>2.9309141635894802</v>
+        <v>2.9288702011108398</v>
       </c>
       <c r="G165" s="6" t="s">
         <v>236</v>
@@ -11721,7 +11716,7 @@
         <v>0.89775393663789105</v>
       </c>
       <c r="M165" s="5">
-        <v>1.5668857621677501</v>
+        <v>1.4613804084772299</v>
       </c>
       <c r="N165" s="5">
         <v>10.732851151157501</v>
@@ -11750,40 +11745,40 @@
         <v>384</v>
       </c>
       <c r="C166" s="5">
-        <v>4291512.5</v>
+        <v>4244984</v>
       </c>
       <c r="D166" s="5">
-        <v>1353916800</v>
+        <v>1356950272</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F166" s="5">
-        <v>2.5682408809661901</v>
+        <v>2.5707249641418501</v>
       </c>
       <c r="G166" s="6" t="s">
         <v>241</v>
       </c>
       <c r="H166" s="5">
-        <v>-0.36843252223374101</v>
+        <v>0.116745438021937</v>
       </c>
       <c r="I166" s="5">
-        <v>0.57216367241041999</v>
+        <v>0.231963596214002</v>
       </c>
       <c r="J166" s="5">
-        <v>-2.45746749535884</v>
+        <v>-2.4576054499803601</v>
       </c>
       <c r="K166" s="5">
-        <v>-4.3146452211151001E-2</v>
+        <v>-1.4261401053132201</v>
       </c>
       <c r="L166" s="5">
-        <v>-4.0644452377646996</v>
+        <v>-4.6630522582912404</v>
       </c>
       <c r="M166" s="5">
-        <v>-3.9390078000813098</v>
+        <v>-3.7623987526248599</v>
       </c>
       <c r="N166" s="5">
-        <v>6.9926989989453698</v>
+        <v>7.3421449015457698</v>
       </c>
       <c r="O166" s="6" t="s">
         <v>23</v>
@@ -11798,7 +11793,7 @@
         <v>90.659687527963101</v>
       </c>
       <c r="S166" s="5">
-        <v>84.959167480468807</v>
+        <v>85.058349609375</v>
       </c>
     </row>
     <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11812,13 +11807,13 @@
         <v>4208673</v>
       </c>
       <c r="D167" s="5">
-        <v>890824000</v>
+        <v>891779008</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F167" s="5">
-        <v>3.21097755432129</v>
+        <v>3.2068521976471001</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>0</v>
@@ -11868,10 +11863,10 @@
         <v>387</v>
       </c>
       <c r="C168" s="5">
-        <v>4202950.5</v>
+        <v>4201271.5</v>
       </c>
       <c r="D168" s="5">
-        <v>1409814784</v>
+        <v>1410582656</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>28</v>
@@ -11898,7 +11893,7 @@
         <v>18.510731018373999</v>
       </c>
       <c r="M168" s="5">
-        <v>21.4842500641609</v>
+        <v>21.358055008807298</v>
       </c>
       <c r="N168" s="5">
         <v>58.657834914326799</v>
@@ -11930,13 +11925,13 @@
         <v>4147880.75</v>
       </c>
       <c r="D169" s="5">
-        <v>405572416</v>
+        <v>405561408</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F169" s="5">
-        <v>0.52892887592315696</v>
+        <v>0.52889752388000499</v>
       </c>
       <c r="G169" s="6" t="s">
         <v>0</v>
@@ -11983,16 +11978,16 @@
         <v>390</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C170" s="5">
         <v>3999275.75</v>
       </c>
       <c r="D170" s="5">
-        <v>1395900032</v>
+        <v>1381329024</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F170" s="5">
         <v>1.0292364358902</v>
@@ -12042,16 +12037,16 @@
         <v>391</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C171" s="5">
         <v>3950096.5</v>
       </c>
       <c r="D171" s="5">
-        <v>1577392128</v>
+        <v>1577703040</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F171" s="5">
         <v>1.68553614616394</v>
@@ -12107,13 +12102,13 @@
         <v>3915956.25</v>
       </c>
       <c r="D172" s="5">
-        <v>1166399104</v>
+        <v>1168020480</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F172" s="5">
-        <v>2.28044486045837</v>
+        <v>2.2783331871032702</v>
       </c>
       <c r="G172" s="6" t="s">
         <v>0</v>
@@ -12163,10 +12158,10 @@
         <v>395</v>
       </c>
       <c r="C173" s="5">
-        <v>3912539.25</v>
+        <v>3910976</v>
       </c>
       <c r="D173" s="5">
-        <v>1390159104</v>
+        <v>1392822144</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>91</v>
@@ -12193,7 +12188,7 @@
         <v>2.96221240121357</v>
       </c>
       <c r="M173" s="5">
-        <v>3.6450352635330101</v>
+        <v>3.5373711757578801</v>
       </c>
       <c r="N173" s="5">
         <v>16.768558957252299</v>
@@ -12222,40 +12217,40 @@
         <v>397</v>
       </c>
       <c r="C174" s="5">
-        <v>3855775.75</v>
+        <v>3865261.75</v>
       </c>
       <c r="D174" s="5">
-        <v>1328974592</v>
+        <v>1340028800</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F174" s="5">
-        <v>0.246724337339401</v>
+        <v>0.245812818408012</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H174" s="5">
-        <v>0.14511099370588801</v>
+        <v>0.45784246442730497</v>
       </c>
       <c r="I174" s="5">
-        <v>1.3972393429244401</v>
+        <v>0.48739012719589703</v>
       </c>
       <c r="J174" s="5">
-        <v>-1.53596777515009</v>
+        <v>-1.1044258448844599</v>
       </c>
       <c r="K174" s="5">
-        <v>5.6101486609039899</v>
+        <v>6.2511313580075898</v>
       </c>
       <c r="L174" s="5">
-        <v>3.6801418959489398</v>
+        <v>3.1877781061520301</v>
       </c>
       <c r="M174" s="5">
-        <v>0.59143414964726304</v>
+        <v>1.2128492281791501</v>
       </c>
       <c r="N174" s="5">
-        <v>8.9966677509676103</v>
+        <v>8.7879528490048209</v>
       </c>
       <c r="O174" s="6" t="s">
         <v>229</v>
@@ -12270,7 +12265,7 @@
         <v>28.557656361389199</v>
       </c>
       <c r="S174" s="5">
-        <v>27.995445251464801</v>
+        <v>28.123619079589801</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12284,37 +12279,37 @@
         <v>3776338.25</v>
       </c>
       <c r="D175" s="5">
-        <v>4508459008</v>
+        <v>4473614848</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F175" s="5">
-        <v>4.5770859718322798</v>
+        <v>4.5881104469299299</v>
       </c>
       <c r="G175" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H175" s="5">
-        <v>-6.7236283175330994E-2</v>
+        <v>-0.24029219319497999</v>
       </c>
       <c r="I175" s="5">
-        <v>0</v>
+        <v>-0.29778824508899199</v>
       </c>
       <c r="J175" s="5">
-        <v>0.71635802701648399</v>
+        <v>0.52300330801680095</v>
       </c>
       <c r="K175" s="5">
-        <v>2.12885610129536</v>
+        <v>1.5813854367709099</v>
       </c>
       <c r="L175" s="5">
-        <v>3.0980295088302898</v>
+        <v>2.5920010449269602</v>
       </c>
       <c r="M175" s="5">
-        <v>3.3181329362460801</v>
+        <v>3.06986752864547</v>
       </c>
       <c r="N175" s="5">
-        <v>11.1978899953358</v>
+        <v>11.556969365129699</v>
       </c>
       <c r="O175" s="6" t="s">
         <v>23</v>
@@ -12329,7 +12324,7 @@
         <v>105.279998779297</v>
       </c>
       <c r="S175" s="5">
-        <v>104.040000915527</v>
+        <v>103.790000915527</v>
       </c>
     </row>
     <row r="176" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12340,40 +12335,40 @@
         <v>401</v>
       </c>
       <c r="C176" s="5">
-        <v>3761659</v>
+        <v>3770913.25</v>
       </c>
       <c r="D176" s="5">
-        <v>1592422400</v>
+        <v>1617997312</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F176" s="5">
-        <v>0.25180530548095698</v>
+        <v>0.25183355808258101</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H176" s="5">
-        <v>-0.284424636473535</v>
+        <v>7.5464570269412001E-2</v>
       </c>
       <c r="I176" s="5">
-        <v>0.41212242363814999</v>
+        <v>0.32303656164598399</v>
       </c>
       <c r="J176" s="5">
-        <v>-1.9012983245302999</v>
+        <v>-1.8572133444827399</v>
       </c>
       <c r="K176" s="5">
-        <v>0.80961576753071396</v>
+        <v>0.45799408604967301</v>
       </c>
       <c r="L176" s="5">
-        <v>0.93880520223268404</v>
+        <v>0.63297114054818904</v>
       </c>
       <c r="M176" s="5">
-        <v>0.54771737398777698</v>
+        <v>0.78377810098913003</v>
       </c>
       <c r="N176" s="5">
-        <v>9.0635330163528494</v>
+        <v>9.6961059139663899</v>
       </c>
       <c r="O176" s="6" t="s">
         <v>277</v>
@@ -12388,7 +12383,7 @@
         <v>190.83588865356401</v>
       </c>
       <c r="S176" s="5">
-        <v>184.97755432128901</v>
+        <v>185.11714172363301</v>
       </c>
     </row>
     <row r="177" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12402,13 +12397,13 @@
         <v>3761506.25</v>
       </c>
       <c r="D177" s="5">
-        <v>897882176</v>
+        <v>900797952</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F177" s="5">
-        <v>2.4566283226013201</v>
+        <v>2.44783234596252</v>
       </c>
       <c r="G177" s="6" t="s">
         <v>0</v>
@@ -12461,38 +12456,38 @@
         <v>3377796.5</v>
       </c>
       <c r="D178" s="5">
-        <v>1718236160</v>
+        <v>1719141632</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H178" s="5">
-        <v>0.165943445182481</v>
+        <v>0</v>
       </c>
       <c r="I178" s="5">
-        <v>0.29909685396034602</v>
+        <v>0.11610498769785101</v>
       </c>
       <c r="J178" s="5">
-        <v>-4.9681393978429002E-2</v>
+        <v>0.19919665922703</v>
       </c>
       <c r="K178" s="5">
-        <v>3.1794850142305302</v>
+        <v>2.8454560928357702</v>
       </c>
       <c r="L178" s="5">
-        <v>0.633538330376759</v>
+        <v>0.56647651970198598</v>
       </c>
       <c r="M178" s="5">
         <v>-1.21113513853523</v>
       </c>
       <c r="N178" s="5">
-        <v>6.0621998087624096</v>
+        <v>6.3424885337719701</v>
       </c>
       <c r="O178" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P178" s="6" t="s">
         <v>270</v>
@@ -12518,38 +12513,38 @@
         <v>3373089</v>
       </c>
       <c r="D179" s="5">
-        <v>3886842880</v>
+        <v>3887597568</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H179" s="5">
-        <v>0</v>
+        <v>1.9419838573630999E-2</v>
       </c>
       <c r="I179" s="5">
-        <v>-9.7043470659750001E-3</v>
+        <v>9.7136069391319992E-3</v>
       </c>
       <c r="J179" s="5">
-        <v>-2.9116647213910999E-2</v>
+        <v>-9.7024630461569998E-3</v>
       </c>
       <c r="K179" s="5">
-        <v>-3.8824597798826001E-2</v>
+        <v>0</v>
       </c>
       <c r="L179" s="5">
-        <v>9.7154934891820009E-3</v>
+        <v>2.9137218795959999E-2</v>
       </c>
       <c r="M179" s="5">
-        <v>1.9432874978076001E-2</v>
+        <v>3.8856487384663997E-2</v>
       </c>
       <c r="N179" s="5">
-        <v>5.8302748791127998E-2</v>
+        <v>9.7183954508351003E-2</v>
       </c>
       <c r="O179" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P179" s="6" t="s">
         <v>270</v>
@@ -12561,7 +12556,7 @@
         <v>5.1690001487731898</v>
       </c>
       <c r="S179" s="5">
-        <v>5.1490001678466797</v>
+        <v>5.1500000953674299</v>
       </c>
     </row>
     <row r="180" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12572,40 +12567,40 @@
         <v>409</v>
       </c>
       <c r="C180" s="5">
-        <v>3306599.75</v>
+        <v>3314734.75</v>
       </c>
       <c r="D180" s="5">
-        <v>1365206144</v>
+        <v>1369553280</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F180" s="5">
-        <v>1.2206572294235201</v>
+        <v>1.21977627277374</v>
       </c>
       <c r="G180" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H180" s="5">
-        <v>1.8883782235091E-2</v>
+        <v>0.15898407052159499</v>
       </c>
       <c r="I180" s="5">
-        <v>0.81219266526346701</v>
+        <v>0.80420119225124198</v>
       </c>
       <c r="J180" s="5">
-        <v>-0.61737483488525402</v>
+        <v>-0.233007435802879</v>
       </c>
       <c r="K180" s="5">
-        <v>4.9842627075267698</v>
+        <v>4.5641984376465903</v>
       </c>
       <c r="L180" s="5">
-        <v>4.7499620028041498</v>
+        <v>4.4056212400036499</v>
       </c>
       <c r="M180" s="5">
-        <v>4.0752217159362401</v>
+        <v>4.4066256131261197</v>
       </c>
       <c r="N180" s="5">
-        <v>16.736229393308399</v>
+        <v>17.0370215238665</v>
       </c>
       <c r="O180" s="6" t="s">
         <v>23</v>
@@ -12620,7 +12615,7 @@
         <v>7.7403027188301099</v>
       </c>
       <c r="S180" s="5">
-        <v>7.6656999588012704</v>
+        <v>7.6778864860534703</v>
       </c>
     </row>
     <row r="181" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12634,13 +12629,13 @@
         <v>3297377.25</v>
       </c>
       <c r="D181" s="5">
-        <v>810801600</v>
+        <v>813668992</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F181" s="5">
-        <v>2.4100594520568901</v>
+        <v>2.4000000953674299</v>
       </c>
       <c r="G181" s="6" t="s">
         <v>0</v>
@@ -12693,38 +12688,38 @@
         <v>3286696.5</v>
       </c>
       <c r="D182" s="5">
-        <v>1700428800</v>
+        <v>1706094848</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H182" s="5">
-        <v>6.4384146718187998E-2</v>
+        <v>-0.24127177846530201</v>
       </c>
       <c r="I182" s="5">
-        <v>-6.4301346971030002E-2</v>
+        <v>-0.27335137325117398</v>
       </c>
       <c r="J182" s="5">
-        <v>0.72910040172680102</v>
+        <v>0.74723851183433598</v>
       </c>
       <c r="K182" s="5">
-        <v>2.1524818057947002</v>
+        <v>1.7555431441414999</v>
       </c>
       <c r="L182" s="5">
-        <v>3.0840634399764002</v>
+        <v>2.71613168981672</v>
       </c>
       <c r="M182" s="5">
-        <v>3.1867204850268802</v>
+        <v>2.9377600493726299</v>
       </c>
       <c r="N182" s="5">
-        <v>11.256267127802699</v>
+        <v>11.6069815067505</v>
       </c>
       <c r="O182" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P182" s="6" t="s">
         <v>270</v>
@@ -12736,7 +12731,7 @@
         <v>6.2280001640319798</v>
       </c>
       <c r="S182" s="5">
-        <v>6.2170000076293999</v>
+        <v>6.2020001411437997</v>
       </c>
     </row>
     <row r="183" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12750,13 +12745,13 @@
         <v>3247990.25</v>
       </c>
       <c r="D183" s="5">
-        <v>468208256</v>
+        <v>468172864</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F183" s="5">
-        <v>0.77195775508880604</v>
+        <v>0.77180403470992998</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>0</v>
@@ -12809,13 +12804,13 @@
         <v>3178618.75</v>
       </c>
       <c r="D184" s="5">
-        <v>1631360000</v>
+        <v>1636800000</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F184" s="5">
-        <v>2.3498156070709202</v>
+        <v>2.3410904407501198</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>0</v>
@@ -12865,40 +12860,40 @@
         <v>418</v>
       </c>
       <c r="C185" s="5">
-        <v>3127821.5</v>
+        <v>3135516.5</v>
       </c>
       <c r="D185" s="5">
-        <v>3331099904</v>
+        <v>3343355648</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F185" s="5">
-        <v>0.51250863075256303</v>
+        <v>0.51188611984252896</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H185" s="5">
-        <v>-9.7227605206274006E-2</v>
+        <v>0.20841558257880299</v>
       </c>
       <c r="I185" s="5">
-        <v>0.54572021285181904</v>
+        <v>0.85063327361176699</v>
       </c>
       <c r="J185" s="5">
-        <v>-0.74358534784320096</v>
+        <v>-0.32300448761934902</v>
       </c>
       <c r="K185" s="5">
-        <v>4.8339373685803499</v>
+        <v>4.53266868554672</v>
       </c>
       <c r="L185" s="5">
-        <v>4.6666136229596997</v>
+        <v>4.2676829618468703</v>
       </c>
       <c r="M185" s="5">
-        <v>3.8053742506569201</v>
+        <v>4.1873131305295797</v>
       </c>
       <c r="N185" s="5">
-        <v>16.5151692472819</v>
+        <v>16.8239656072776</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>23</v>
@@ -12913,7 +12908,7 @@
         <v>162.281386701965</v>
       </c>
       <c r="S185" s="5">
-        <v>159.34910583496099</v>
+        <v>159.68121337890599</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12927,7 +12922,7 @@
         <v>3096414.75</v>
       </c>
       <c r="D186" s="5">
-        <v>987392000</v>
+        <v>988139008</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>51</v>
@@ -12980,19 +12975,19 @@
         <v>422</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C187" s="5">
         <v>3074599.75</v>
       </c>
       <c r="D187" s="5">
-        <v>1356796032</v>
+        <v>1357827072</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F187" s="5">
-        <v>1.8980698585510201</v>
+        <v>1.89662861824036</v>
       </c>
       <c r="G187" s="6" t="s">
         <v>0</v>
@@ -13045,38 +13040,38 @@
         <v>3056297</v>
       </c>
       <c r="D188" s="5">
-        <v>3246810624</v>
+        <v>3304306688</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H188" s="5">
-        <v>-0.18554434303357201</v>
+        <v>0.15048418578018599</v>
       </c>
       <c r="I188" s="5">
-        <v>-0.15907777035234499</v>
+        <v>7.0762197179297007E-2</v>
       </c>
       <c r="J188" s="5">
-        <v>-0.26485153933327699</v>
+        <v>3.5364367237967001E-2</v>
       </c>
       <c r="K188" s="5">
-        <v>0.33750872549756</v>
+        <v>0.40823999010102302</v>
       </c>
       <c r="L188" s="5">
-        <v>0.10633658915018</v>
+        <v>0.16821649648006701</v>
       </c>
       <c r="M188" s="5">
-        <v>-0.150258071145248</v>
+        <v>0</v>
       </c>
       <c r="N188" s="5">
-        <v>1.28204810318082</v>
+        <v>1.40719321936424</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P188" s="6" t="s">
         <v>270</v>
@@ -13088,7 +13083,7 @@
         <v>5.68400001525879</v>
       </c>
       <c r="S188" s="5">
-        <v>5.6484999656677202</v>
+        <v>5.65700006484985</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13099,16 +13094,16 @@
         <v>426</v>
       </c>
       <c r="C189" s="5">
-        <v>3019789</v>
+        <v>3018582.5</v>
       </c>
       <c r="D189" s="5">
-        <v>894314944</v>
+        <v>894822144</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F189" s="5">
-        <v>3.2355899810790998</v>
+        <v>3.2309031486511199</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>236</v>
@@ -13129,7 +13124,7 @@
         <v>0.73252997976416301</v>
       </c>
       <c r="M189" s="5">
-        <v>1.20933455747951</v>
+        <v>1.1042006197877099</v>
       </c>
       <c r="N189" s="5">
         <v>10.403540425174899</v>
@@ -13158,10 +13153,10 @@
         <v>428</v>
       </c>
       <c r="C190" s="5">
-        <v>3007879.5</v>
+        <v>3006677.75</v>
       </c>
       <c r="D190" s="5">
-        <v>528187968</v>
+        <v>528082944</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>28</v>
@@ -13188,7 +13183,7 @@
         <v>1.5561895807945301</v>
       </c>
       <c r="M190" s="5">
-        <v>2.2906036438931698</v>
+        <v>2.1843465086499201</v>
       </c>
       <c r="N190" s="5">
         <v>9.1615500825597405</v>
@@ -13217,16 +13212,16 @@
         <v>430</v>
       </c>
       <c r="C191" s="5">
-        <v>2964261</v>
+        <v>2963076.75</v>
       </c>
       <c r="D191" s="5">
-        <v>588755328</v>
+        <v>590332352</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>304</v>
       </c>
       <c r="F191" s="5">
-        <v>1.39819860458374</v>
+        <v>1.39337170124054</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>236</v>
@@ -13247,7 +13242,7 @@
         <v>0.65341528622249201</v>
       </c>
       <c r="M191" s="5">
-        <v>0.44779368496370398</v>
+        <v>0.34345081848081699</v>
       </c>
       <c r="N191" s="5">
         <v>7.1952253706830698</v>
@@ -13279,13 +13274,13 @@
         <v>2944078</v>
       </c>
       <c r="D192" s="5">
-        <v>718665856</v>
+        <v>722317504</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F192" s="5">
-        <v>2.2955136299133301</v>
+        <v>2.28583812713623</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>0</v>
@@ -13335,55 +13330,53 @@
         <v>434</v>
       </c>
       <c r="C193" s="5">
-        <v>2942108.75</v>
+        <v>2930217.25</v>
       </c>
       <c r="D193" s="5">
-        <v>928461824</v>
+        <v>2400470272</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F193" s="5">
-        <v>2.4879841804504399</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="F193" s="5"/>
       <c r="G193" s="6" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="H193" s="5">
-        <v>-0.50130162276003098</v>
+        <v>-1.8472704618899001E-2</v>
       </c>
       <c r="I193" s="5">
-        <v>-0.48801781078409201</v>
+        <v>-1.8472704618899001E-2</v>
       </c>
       <c r="J193" s="5">
-        <v>-2.7564556448104698</v>
+        <v>-0.147599573626644</v>
       </c>
       <c r="K193" s="5">
-        <v>-1.0885568343246399</v>
+        <v>-5.5397646969313E-2</v>
       </c>
       <c r="L193" s="5">
-        <v>-1.9206130388616101</v>
+        <v>-6.4629021054352004E-2</v>
       </c>
       <c r="M193" s="5">
-        <v>-1.02324915009895</v>
+        <v>-0.119955105057301</v>
       </c>
       <c r="N193" s="5">
-        <v>12.355273349588</v>
+        <v>3.6974712293557997E-2</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="Q193" s="6" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="R193" s="5">
-        <v>8.1813598951561897</v>
+        <v>5.4569997787475604</v>
       </c>
       <c r="S193" s="5">
-        <v>7.6516251564025897</v>
+        <v>5.4120001792907697</v>
       </c>
     </row>
     <row r="194" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13394,53 +13387,55 @@
         <v>436</v>
       </c>
       <c r="C194" s="5">
-        <v>2930217.25</v>
+        <v>2885025</v>
       </c>
       <c r="D194" s="5">
-        <v>2400209920</v>
+        <v>932767680</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F194" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F194" s="5">
+        <v>2.4879841804504399</v>
+      </c>
       <c r="G194" s="6" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="H194" s="5">
-        <v>-5.5387419193664002E-2</v>
+        <v>0.35618497372111901</v>
       </c>
       <c r="I194" s="5">
-        <v>-1.8469292840983999E-2</v>
+        <v>-4.9577277325784999E-2</v>
       </c>
       <c r="J194" s="5">
-        <v>-0.165987175173365</v>
+        <v>-2.52402552689761</v>
       </c>
       <c r="K194" s="5">
-        <v>1.8476117657529E-2</v>
+        <v>-2.6308186732982999</v>
       </c>
       <c r="L194" s="5">
-        <v>-1.8469292840983999E-2</v>
+        <v>-2.5269320548350702</v>
       </c>
       <c r="M194" s="5">
-        <v>-0.101501150446104</v>
+        <v>-0.60413113240440597</v>
       </c>
       <c r="N194" s="5">
-        <v>8.3200741427313998E-2</v>
+        <v>12.982044060611999</v>
       </c>
       <c r="O194" s="6" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="P194" s="6" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="Q194" s="6" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="R194" s="5">
-        <v>5.4569997787475604</v>
+        <v>8.1813598951561897</v>
       </c>
       <c r="S194" s="5">
-        <v>5.4130001068115199</v>
+        <v>7.6788792610168501</v>
       </c>
     </row>
     <row r="195" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13454,13 +13449,13 @@
         <v>2880763.75</v>
       </c>
       <c r="D195" s="5">
-        <v>654688832</v>
+        <v>655609600</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F195" s="5">
-        <v>1.6033754348754901</v>
+        <v>1.60084247589111</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>0</v>
@@ -13510,40 +13505,40 @@
         <v>440</v>
       </c>
       <c r="C196" s="5">
-        <v>2835225.5</v>
+        <v>2842200.75</v>
       </c>
       <c r="D196" s="5">
-        <v>2540952320</v>
+        <v>2546465536</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F196" s="5">
-        <v>2.1098835468292201</v>
+        <v>2.1104953289032</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H196" s="5">
-        <v>-0.24638276545260199</v>
+        <v>5.7689927873871998E-2</v>
       </c>
       <c r="I196" s="5">
-        <v>0.473400204909602</v>
+        <v>0.25811935447943601</v>
       </c>
       <c r="J196" s="5">
-        <v>-0.73633876250149799</v>
+        <v>-0.52906051920187402</v>
       </c>
       <c r="K196" s="5">
-        <v>2.6078146100028601</v>
+        <v>2.3414673902343499</v>
       </c>
       <c r="L196" s="5">
-        <v>0.13962180205031599</v>
+        <v>-0.25224687947803498</v>
       </c>
       <c r="M196" s="5">
-        <v>-1.2707348595107599</v>
+        <v>-1.0565201102821</v>
       </c>
       <c r="N196" s="5">
-        <v>11.5761277628096</v>
+        <v>12.2222029357554</v>
       </c>
       <c r="O196" s="6" t="s">
         <v>277</v>
@@ -13558,7 +13553,7 @@
         <v>220.201228662109</v>
       </c>
       <c r="S196" s="5">
-        <v>214.90397644043</v>
+        <v>215.02793884277301</v>
       </c>
     </row>
     <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13572,38 +13567,38 @@
         <v>2815108.5</v>
       </c>
       <c r="D197" s="5">
-        <v>1415195264</v>
+        <v>1411728512</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H197" s="5">
-        <v>0.107974235640973</v>
+        <v>-0.15407938978948499</v>
       </c>
       <c r="I197" s="5">
-        <v>-0.123120554968581</v>
+        <v>-0.27701024135826602</v>
       </c>
       <c r="J197" s="5">
-        <v>1.34291018551453</v>
+        <v>1.40051560045815</v>
       </c>
       <c r="K197" s="5">
-        <v>3.7901806620372902</v>
+        <v>3.34928291524399</v>
       </c>
       <c r="L197" s="5">
-        <v>0.37116750250825198</v>
+        <v>-0.18484417333574099</v>
       </c>
       <c r="M197" s="5">
-        <v>-1.16501048693158</v>
+        <v>-1.3172948356718199</v>
       </c>
       <c r="N197" s="5">
-        <v>1.43794953157717</v>
+        <v>1.40845312157087</v>
       </c>
       <c r="O197" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P197" s="6" t="s">
         <v>270</v>
@@ -13615,7 +13610,7 @@
         <v>6.6090002059936497</v>
       </c>
       <c r="S197" s="5">
-        <v>6.4899997711181596</v>
+        <v>6.4800000190734899</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13629,13 +13624,13 @@
         <v>2763052.75</v>
       </c>
       <c r="D198" s="5">
-        <v>563776192</v>
+        <v>565285504</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F198" s="5">
-        <v>1.32387006282806</v>
+        <v>1.32000756263733</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>0</v>
@@ -13688,38 +13683,38 @@
         <v>2717922.75</v>
       </c>
       <c r="D199" s="5">
-        <v>1932284160</v>
+        <v>1931806720</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H199" s="5">
-        <v>-2.5751089121273E-2</v>
+        <v>-1.7169085526357999E-2</v>
       </c>
       <c r="I199" s="5">
-        <v>-0.171412901820511</v>
+        <v>-0.239848196351367</v>
       </c>
       <c r="J199" s="5">
-        <v>0.49176224802214302</v>
+        <v>0.70909527696181296</v>
       </c>
       <c r="K199" s="5">
-        <v>1.64935976734308</v>
+        <v>1.4548289534157499</v>
       </c>
       <c r="L199" s="5">
-        <v>-0.68212760777443004</v>
+        <v>-0.63140236258972804</v>
       </c>
       <c r="M199" s="5">
-        <v>-1.47183042634212</v>
+        <v>-1.4887468120437799</v>
       </c>
       <c r="N199" s="5">
-        <v>-0.93553841515685598</v>
+        <v>-0.88510716215093299</v>
       </c>
       <c r="O199" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P199" s="6" t="s">
         <v>270</v>
@@ -13731,7 +13726,7 @@
         <v>5.9660000801086399</v>
       </c>
       <c r="S199" s="5">
-        <v>5.8239998817443803</v>
+        <v>5.8229999542236301</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13742,16 +13737,16 @@
         <v>448</v>
       </c>
       <c r="C200" s="5">
-        <v>2674004.75</v>
+        <v>2672936.5</v>
       </c>
       <c r="D200" s="5">
-        <v>1023577920</v>
+        <v>1023169024</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F200" s="5">
-        <v>2.6789808273315399</v>
+        <v>2.6778974533081099</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>236</v>
@@ -13772,7 +13767,7 @@
         <v>0.87983947662448903</v>
       </c>
       <c r="M200" s="5">
-        <v>1.66989597158964</v>
+        <v>1.56428361325387</v>
       </c>
       <c r="N200" s="5">
         <v>10.430868647472501</v>
@@ -13804,13 +13799,13 @@
         <v>2612373.25</v>
       </c>
       <c r="D201" s="5">
-        <v>311416032</v>
+        <v>313186528</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F201" s="5">
-        <v>0.57078891992569003</v>
+        <v>0.56836515665054299</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>0</v>
@@ -13863,37 +13858,37 @@
         <v>2575397.25</v>
       </c>
       <c r="D202" s="5">
-        <v>6697988096</v>
+        <v>6703006720</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F202" s="5">
-        <v>2.8368275165557901</v>
+        <v>2.83366799354553</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H202" s="5">
-        <v>0.27125734043529398</v>
+        <v>0.11150227018203999</v>
       </c>
       <c r="I202" s="5">
-        <v>0.98382867590645096</v>
+        <v>0.83214309855494895</v>
       </c>
       <c r="J202" s="5">
-        <v>0.207685380971978</v>
+        <v>0.457275076444286</v>
       </c>
       <c r="K202" s="5">
-        <v>3.1218853836461302</v>
+        <v>2.77659889072768</v>
       </c>
       <c r="L202" s="5">
-        <v>2.5786210024539402</v>
+        <v>2.75568143695646</v>
       </c>
       <c r="M202" s="5">
-        <v>3.8125026409359601</v>
+        <v>3.9282559381133901</v>
       </c>
       <c r="N202" s="5">
-        <v>13.0069762420879</v>
+        <v>13.1830473678573</v>
       </c>
       <c r="O202" s="6" t="s">
         <v>23</v>
@@ -13908,7 +13903,7 @@
         <v>5.59299993515015</v>
       </c>
       <c r="S202" s="5">
-        <v>5.4709000587463397</v>
+        <v>5.4770002365112296</v>
       </c>
     </row>
     <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13922,7 +13917,7 @@
         <v>2570366.25</v>
       </c>
       <c r="D203" s="5">
-        <v>677376896</v>
+        <v>677344768</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>91</v>
@@ -13976,40 +13971,40 @@
         <v>457</v>
       </c>
       <c r="C204" s="5">
-        <v>2542216</v>
+        <v>2557810.5</v>
       </c>
       <c r="D204" s="5">
-        <v>1085247232</v>
+        <v>1087727744</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F204" s="5">
-        <v>3.1319761276245099</v>
+        <v>3.13135862350464</v>
       </c>
       <c r="G204" s="6" t="s">
         <v>241</v>
       </c>
       <c r="H204" s="5">
-        <v>-0.30715337744936499</v>
+        <v>0.12124843584842</v>
       </c>
       <c r="I204" s="5">
-        <v>0.63873377163554701</v>
+        <v>0.18904129094139399</v>
       </c>
       <c r="J204" s="5">
-        <v>-2.47801675206115</v>
+        <v>-2.4737683918331501</v>
       </c>
       <c r="K204" s="5">
-        <v>-1.5494402002325E-2</v>
+        <v>-1.46373013809007</v>
       </c>
       <c r="L204" s="5">
-        <v>-4.2278739849149796</v>
+        <v>-4.8371222907964899</v>
       </c>
       <c r="M204" s="5">
-        <v>-4.0181121146830803</v>
+        <v>-3.83732354197581</v>
       </c>
       <c r="N204" s="5">
-        <v>6.9935443773762902</v>
+        <v>7.29732059898096</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>23</v>
@@ -14024,7 +14019,7 @@
         <v>40.500221851977599</v>
       </c>
       <c r="S204" s="5">
-        <v>37.862480163574197</v>
+        <v>37.908390045166001</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14038,13 +14033,13 @@
         <v>2496868.25</v>
       </c>
       <c r="D205" s="5">
-        <v>409046048</v>
+        <v>424114816</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F205" s="5">
-        <v>6.4291133880615199</v>
+        <v>6.3654923439025897</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>0</v>
@@ -14097,13 +14092,13 @@
         <v>2486024</v>
       </c>
       <c r="D206" s="5">
-        <v>1024028928</v>
+        <v>1024488064</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F206" s="5">
-        <v>1.6636486053466799</v>
+        <v>1.6623446941375699</v>
       </c>
       <c r="G206" s="6" t="s">
         <v>0</v>
@@ -14150,19 +14145,19 @@
         <v>461</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C207" s="5">
         <v>2483610</v>
       </c>
       <c r="D207" s="5">
-        <v>1147147904</v>
+        <v>1148637312</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F207" s="5">
-        <v>1.8797626495361299</v>
+        <v>1.8769778013229399</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>0</v>
@@ -14215,13 +14210,13 @@
         <v>2376110.5</v>
       </c>
       <c r="D208" s="5">
-        <v>536221504</v>
+        <v>536844000</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F208" s="5">
-        <v>1.8444393873214699</v>
+        <v>1.8431556224823</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>0</v>
@@ -14274,13 +14269,13 @@
         <v>2315519.5</v>
       </c>
       <c r="D209" s="5">
-        <v>639161280</v>
+        <v>640185024</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F209" s="5">
-        <v>8.0751733779907209</v>
+        <v>8.0608282089233398</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>0</v>
@@ -14330,16 +14325,16 @@
         <v>257</v>
       </c>
       <c r="C210" s="5">
-        <v>2280126.75</v>
+        <v>2279215.75</v>
       </c>
       <c r="D210" s="5">
-        <v>406486784</v>
+        <v>410282080</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F210" s="5">
-        <v>3.06586861610413</v>
+        <v>3.0500397682189901</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>236</v>
@@ -14360,7 +14355,7 @@
         <v>-3.38705307537183</v>
       </c>
       <c r="M210" s="5">
-        <v>-5.3671545447754996</v>
+        <v>-5.4654569762773697</v>
       </c>
       <c r="N210" s="5">
         <v>1.13710115195058</v>
@@ -14392,38 +14387,38 @@
         <v>2246696.25</v>
       </c>
       <c r="D211" s="5">
-        <v>1525684480</v>
+        <v>1492515072</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H211" s="5">
-        <v>3.7541861995782001E-2</v>
+        <v>-9.3864173261960001E-3</v>
       </c>
       <c r="I211" s="5">
-        <v>4.6936210440384998E-2</v>
+        <v>3.7545387485594002E-2</v>
       </c>
       <c r="J211" s="5">
-        <v>0.112719181162291</v>
+        <v>4.6931661341421002E-2</v>
       </c>
       <c r="K211" s="5">
-        <v>0.16916962844975</v>
+        <v>0.140945211133747</v>
       </c>
       <c r="L211" s="5">
-        <v>0.37671841908140102</v>
+        <v>0.367296641392234</v>
       </c>
       <c r="M211" s="5">
-        <v>0.42400901394317198</v>
+        <v>0.41458279736141801</v>
       </c>
       <c r="N211" s="5">
-        <v>1.11954488562287</v>
+        <v>1.0812801324850101</v>
       </c>
       <c r="O211" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P211" s="6" t="s">
         <v>270</v>
@@ -14435,7 +14430,7 @@
         <v>5.36199998855591</v>
       </c>
       <c r="S211" s="5">
-        <v>5.3289999961853001</v>
+        <v>5.3284997940063503</v>
       </c>
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14446,16 +14441,16 @@
         <v>468</v>
       </c>
       <c r="C212" s="5">
-        <v>2231379.75</v>
+        <v>2230488.25</v>
       </c>
       <c r="D212" s="5">
-        <v>1481434112</v>
+        <v>1488480384</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F212" s="5">
-        <v>3.4816248416900599</v>
+        <v>3.47490358352661</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>236</v>
@@ -14476,7 +14471,7 @@
         <v>0.76858943953992398</v>
       </c>
       <c r="M212" s="5">
-        <v>0.92873132629585098</v>
+        <v>0.82388887281104095</v>
       </c>
       <c r="N212" s="5">
         <v>10.1388917108975</v>
@@ -14505,16 +14500,16 @@
         <v>468</v>
       </c>
       <c r="C213" s="5">
-        <v>2213875</v>
+        <v>2212990.5</v>
       </c>
       <c r="D213" s="5">
-        <v>1591968000</v>
+        <v>1602095616</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F213" s="5">
-        <v>3.4339230060577401</v>
+        <v>3.4126162528991699</v>
       </c>
       <c r="G213" s="6" t="s">
         <v>236</v>
@@ -14535,7 +14530,7 @@
         <v>-0.57574618787813403</v>
       </c>
       <c r="M213" s="5">
-        <v>-1.2514949360849501</v>
+        <v>-1.35407262048473</v>
       </c>
       <c r="N213" s="5">
         <v>0.78718627058491597</v>
@@ -14567,37 +14562,37 @@
         <v>2208634.25</v>
       </c>
       <c r="D214" s="5">
-        <v>5638691328</v>
+        <v>5651002368</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F214" s="5">
-        <v>4.3899998664856001</v>
+        <v>4.3798322677612296</v>
       </c>
       <c r="G214" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H214" s="5">
-        <v>-0.32039925987540402</v>
+        <v>0.23214476449149299</v>
       </c>
       <c r="I214" s="5">
-        <v>-0.33813602305139401</v>
+        <v>0.23214476449149299</v>
       </c>
       <c r="J214" s="5">
-        <v>-3.16445058466517</v>
+        <v>-2.8724689757983599</v>
       </c>
       <c r="K214" s="5">
-        <v>0.73754244699892901</v>
+        <v>0.35759120659426502</v>
       </c>
       <c r="L214" s="5">
-        <v>-4.0594630059019501</v>
+        <v>-4.3944780388180398</v>
       </c>
       <c r="M214" s="5">
-        <v>-5.2370380583954201</v>
+        <v>-5.0170508035709203</v>
       </c>
       <c r="N214" s="5">
-        <v>2.9255189179854701</v>
+        <v>3.6935079714049999</v>
       </c>
       <c r="O214" s="6" t="s">
         <v>335</v>
@@ -14612,7 +14607,7 @@
         <v>60.889999389648402</v>
       </c>
       <c r="S214" s="5">
-        <v>56</v>
+        <v>56.130001068115199</v>
       </c>
     </row>
     <row r="215" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14626,13 +14621,13 @@
         <v>2193550.25</v>
       </c>
       <c r="D215" s="5">
-        <v>750187520</v>
+        <v>750149952</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F215" s="5">
-        <v>2.2842288017273001E-2</v>
+        <v>2.2843431681395E-2</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>0</v>
@@ -14685,37 +14680,37 @@
         <v>2173954.75</v>
       </c>
       <c r="D216" s="5">
-        <v>1039426752</v>
+        <v>1054678848</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F216" s="5">
-        <v>1.70142698287964</v>
+        <v>1.7064220905303999</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H216" s="5">
-        <v>0.33039878921172799</v>
+        <v>-0.29272357499101598</v>
       </c>
       <c r="I216" s="5">
-        <v>0.22002354110255401</v>
+        <v>-0.782818514719541</v>
       </c>
       <c r="J216" s="5">
-        <v>3.6232694362677198</v>
+        <v>3.7097482541848898</v>
       </c>
       <c r="K216" s="5">
-        <v>7.2514014077278901</v>
+        <v>6.5849968843679996</v>
       </c>
       <c r="L216" s="5">
-        <v>-2.56592654496693</v>
+        <v>-3.24439001351847</v>
       </c>
       <c r="M216" s="5">
-        <v>-6.0682382006911899</v>
+        <v>-6.3431986118821699</v>
       </c>
       <c r="N216" s="5">
-        <v>-10.0389014120077</v>
+        <v>-11.406606439010799</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>23</v>
@@ -14730,7 +14725,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="S216" s="5">
-        <v>5.4660000801086399</v>
+        <v>5.4499998092651403</v>
       </c>
     </row>
     <row r="217" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14741,16 +14736,16 @@
         <v>477</v>
       </c>
       <c r="C217" s="5">
-        <v>2168613</v>
+        <v>2167746.5</v>
       </c>
       <c r="D217" s="5">
-        <v>570911232</v>
+        <v>571320832</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F217" s="5">
-        <v>2.0111732482910201</v>
+        <v>2.00892853736877</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>236</v>
@@ -14771,7 +14766,7 @@
         <v>0.72862728607787597</v>
       </c>
       <c r="M217" s="5">
-        <v>1.2298597400940201</v>
+        <v>1.12470448131281</v>
       </c>
       <c r="N217" s="5">
         <v>8.1011031864890199</v>
@@ -14803,7 +14798,7 @@
         <v>2164738.5</v>
       </c>
       <c r="D218" s="5">
-        <v>504595968</v>
+        <v>505454464</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>59</v>
@@ -14857,16 +14852,16 @@
         <v>481</v>
       </c>
       <c r="C219" s="5">
-        <v>2140179</v>
+        <v>2139324</v>
       </c>
       <c r="D219" s="5">
-        <v>1167015168</v>
+        <v>1165701120</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F219" s="5">
-        <v>4.1860466003418004</v>
+        <v>4.1982507705688503</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>236</v>
@@ -14887,7 +14882,7 @@
         <v>14.687851119604399</v>
       </c>
       <c r="M219" s="5">
-        <v>17.047962293389698</v>
+        <v>16.926375552122099</v>
       </c>
       <c r="N219" s="5">
         <v>47.378478717163503</v>
@@ -14916,16 +14911,16 @@
         <v>483</v>
       </c>
       <c r="C220" s="5">
-        <v>2137812.5</v>
+        <v>2136958.5</v>
       </c>
       <c r="D220" s="5">
-        <v>265081680</v>
+        <v>265694304</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F220" s="5">
-        <v>2.0247063636779798</v>
+        <v>2.01680684089661</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>236</v>
@@ -14946,7 +14941,7 @@
         <v>-1.5793229128239199</v>
       </c>
       <c r="M220" s="5">
-        <v>-1.7228372125187399</v>
+        <v>-1.8249252773617901</v>
       </c>
       <c r="N220" s="5">
         <v>4.1820437171529203</v>
@@ -14975,40 +14970,40 @@
         <v>485</v>
       </c>
       <c r="C221" s="5">
-        <v>2118568.5</v>
+        <v>2127603.25</v>
       </c>
       <c r="D221" s="5">
-        <v>1748386944</v>
+        <v>1754792960</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F221" s="5">
-        <v>0.598086178302765</v>
+        <v>0.598444044589996</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>486</v>
       </c>
       <c r="H221" s="5">
-        <v>-0.44338200772671099</v>
+        <v>0.22432822744367101</v>
       </c>
       <c r="I221" s="5">
-        <v>0.73001572616000499</v>
+        <v>0.87170366725515303</v>
       </c>
       <c r="J221" s="5">
-        <v>-2.1468811706890398</v>
+        <v>-1.74917659115151</v>
       </c>
       <c r="K221" s="5">
-        <v>0.61844178188825705</v>
+        <v>0.95361300052574405</v>
       </c>
       <c r="L221" s="5">
-        <v>-3.4521072620747</v>
+        <v>-3.0729070198327402</v>
       </c>
       <c r="M221" s="5">
-        <v>-3.7106387869364998</v>
+        <v>-3.3578314067817301</v>
       </c>
       <c r="N221" s="5">
-        <v>4.0591702238417904</v>
+        <v>4.0087405370526197</v>
       </c>
       <c r="O221" s="6" t="s">
         <v>23</v>
@@ -15023,7 +15018,7 @@
         <v>114.92027233776</v>
       </c>
       <c r="S221" s="5">
-        <v>109.388290405273</v>
+        <v>109.633682250977</v>
       </c>
     </row>
     <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15034,17 +15029,17 @@
         <v>490</v>
       </c>
       <c r="C222" s="5">
-        <v>2101682.75</v>
+        <v>2100843</v>
       </c>
       <c r="D222" s="5">
-        <v>1158146560</v>
+        <v>1162065536</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H222" s="5">
         <v>-0.62087594712966199</v>
@@ -15062,13 +15057,13 @@
         <v>-0.81727285150261497</v>
       </c>
       <c r="M222" s="5">
-        <v>-1.19851941249733</v>
+        <v>-1.30115212665716</v>
       </c>
       <c r="N222" s="5">
         <v>5.8172507203602999</v>
       </c>
       <c r="O222" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P222" s="6" t="s">
         <v>237</v>
@@ -15088,19 +15083,19 @@
         <v>491</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C223" s="5">
         <v>2079396</v>
       </c>
       <c r="D223" s="5">
-        <v>749555968</v>
+        <v>750489472</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F223" s="5">
-        <v>1.9948983192443901</v>
+        <v>1.9911527633667001</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>0</v>
@@ -15153,13 +15148,13 @@
         <v>2046719</v>
       </c>
       <c r="D224" s="5">
-        <v>429195008</v>
+        <v>430229824</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F224" s="5">
-        <v>1.9798511266708401</v>
+        <v>1.97490978240967</v>
       </c>
       <c r="G224" s="6" t="s">
         <v>0</v>
@@ -15212,13 +15207,13 @@
         <v>2034738.75</v>
       </c>
       <c r="D225" s="5">
-        <v>1012206016</v>
+        <v>1014922944</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F225" s="5">
-        <v>2.4239530563354501</v>
+        <v>2.4174640178680402</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>0</v>
@@ -15271,13 +15266,13 @@
         <v>2020573.25</v>
       </c>
       <c r="D226" s="5">
-        <v>764239552</v>
+        <v>766950080</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F226" s="5">
-        <v>2.2256782054901101</v>
+        <v>2.2157006263732901</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>0</v>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="464">
   <si>
     <t>USD</t>
   </si>
@@ -726,6 +726,21 @@
     <t>SPDR PORT MTGE B</t>
   </si>
   <si>
+    <t>AAA AU Equity</t>
+  </si>
+  <si>
+    <t>BETA AUS INTERES</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t>VWOB US Equity</t>
   </si>
   <si>
@@ -750,6 +765,12 @@
     <t>PIMCO 1-5 YR TIP</t>
   </si>
   <si>
+    <t>IGOV US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES INTERNAT</t>
+  </si>
+  <si>
     <t>LQDE LN Equity</t>
   </si>
   <si>
@@ -768,12 +789,6 @@
     <t>Ireland</t>
   </si>
   <si>
-    <t>IGOV US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES INTERNAT</t>
-  </si>
-  <si>
     <t>FLRN US Equity</t>
   </si>
   <si>
@@ -798,21 +813,6 @@
     <t>ISHARES TREASURY</t>
   </si>
   <si>
-    <t>AAA AU Equity</t>
-  </si>
-  <si>
-    <t>BETA AUS INTERES</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>ASE</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>PSA CN Equity</t>
   </si>
   <si>
@@ -924,21 +924,21 @@
     <t>CI HIGH INTEREST</t>
   </si>
   <si>
+    <t>LDUR US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO ENHANCED L</t>
+  </si>
+  <si>
+    <t>BSJN US Equity</t>
+  </si>
+  <si>
     <t>IAF AU Equity</t>
   </si>
   <si>
     <t>ISHARES CORE COM</t>
   </si>
   <si>
-    <t>LDUR US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO ENHANCED L</t>
-  </si>
-  <si>
-    <t>BSJN US Equity</t>
-  </si>
-  <si>
     <t>VAB CN Equity</t>
   </si>
   <si>
@@ -1110,22 +1110,49 @@
     <t>BMO SHORT CORPOR</t>
   </si>
   <si>
+    <t>HBRD AU Equity</t>
+  </si>
+  <si>
+    <t>BETA-ACTV AU HYB</t>
+  </si>
+  <si>
+    <t>IBTA LN Equity</t>
+  </si>
+  <si>
+    <t>ISH $TRS 1-3Y $A</t>
+  </si>
+  <si>
     <t>IHYU LN Equity</t>
   </si>
   <si>
     <t>ISH $ HY CRP $D</t>
   </si>
   <si>
-    <t>HBRD AU Equity</t>
-  </si>
-  <si>
-    <t>BETA-ACTV AU HYB</t>
-  </si>
-  <si>
-    <t>IBTA LN Equity</t>
-  </si>
-  <si>
-    <t>ISH $TRS 1-3Y $A</t>
+    <t>TAIL US Equity</t>
+  </si>
+  <si>
+    <t>CAMBRIA TAIL RIS</t>
+  </si>
+  <si>
+    <t>XSH CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CORE CA</t>
+  </si>
+  <si>
+    <t>EMHY US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES J.P. MOR</t>
+  </si>
+  <si>
+    <t>IHYG LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR € HY CORP</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
   <si>
     <t>ITPG LN Equity</t>
@@ -1137,33 +1164,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>IHYG LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR € HY CORP</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>TAIL US Equity</t>
-  </si>
-  <si>
-    <t>CAMBRIA TAIL RIS</t>
-  </si>
-  <si>
-    <t>XSH CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CORE CA</t>
-  </si>
-  <si>
-    <t>EMHY US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES J.P. MOR</t>
-  </si>
-  <si>
     <t>CORP US Equity</t>
   </si>
   <si>
@@ -1203,6 +1203,15 @@
     <t>IBDN US Equity</t>
   </si>
   <si>
+    <t>IEAC LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR CORE € CORP</t>
+  </si>
+  <si>
+    <t>Regular Cash</t>
+  </si>
+  <si>
     <t>ZFL CN Equity</t>
   </si>
   <si>
@@ -1218,55 +1227,64 @@
     <t>Final</t>
   </si>
   <si>
-    <t>IEAC LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR CORE € CORP</t>
-  </si>
-  <si>
-    <t>Regular Cash</t>
-  </si>
-  <si>
     <t>VRIG US Equity</t>
   </si>
   <si>
+    <t>IBDQ US Equity</t>
+  </si>
+  <si>
     <t>HPR CN Equity</t>
   </si>
   <si>
     <t>HORIZONS ACTIVE</t>
   </si>
   <si>
-    <t>IBDQ US Equity</t>
-  </si>
-  <si>
     <t>BSCP US Equity</t>
   </si>
   <si>
+    <t>MUNI US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO INTERMEDIA</t>
+  </si>
+  <si>
+    <t>IBDP US Equity</t>
+  </si>
+  <si>
+    <t>PMIF CN Equity</t>
+  </si>
+  <si>
+    <t>PIMCO MONTHLY IN</t>
+  </si>
+  <si>
     <t>IB01 LN Equity</t>
   </si>
   <si>
     <t>ISH US TR 0-1 $A</t>
   </si>
   <si>
+    <t>SUSC US Equity</t>
+  </si>
+  <si>
     <t>INXG LN Equity</t>
   </si>
   <si>
     <t>ISHR IND-LINK</t>
   </si>
   <si>
-    <t>MUNI US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO INTERMEDIA</t>
-  </si>
-  <si>
-    <t>IBDP US Equity</t>
-  </si>
-  <si>
-    <t>PMIF CN Equity</t>
-  </si>
-  <si>
-    <t>PIMCO MONTHLY IN</t>
+    <t>PFXF US Equity</t>
+  </si>
+  <si>
+    <t>VANECK PREFERRED</t>
+  </si>
+  <si>
+    <t>JMBS US Equity</t>
+  </si>
+  <si>
+    <t>ZMU CN Equity</t>
+  </si>
+  <si>
+    <t>BMO MID-TERM US</t>
   </si>
   <si>
     <t>TIPH LN Equity</t>
@@ -1278,24 +1296,6 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>SUSC US Equity</t>
-  </si>
-  <si>
-    <t>PFXF US Equity</t>
-  </si>
-  <si>
-    <t>VANECK PREFERRED</t>
-  </si>
-  <si>
-    <t>JMBS US Equity</t>
-  </si>
-  <si>
-    <t>ZMU CN Equity</t>
-  </si>
-  <si>
-    <t>BMO MID-TERM US</t>
-  </si>
-  <si>
     <t>TDTF US Equity</t>
   </si>
   <si>
@@ -1335,6 +1335,9 @@
     <t>INVESCO FUNDAMEN</t>
   </si>
   <si>
+    <t>BSJL US Equity</t>
+  </si>
+  <si>
     <t>CHCORP SW Equity</t>
   </si>
   <si>
@@ -1350,9 +1353,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>BSJL US Equity</t>
-  </si>
-  <si>
     <t>VAF AU Equity</t>
   </si>
   <si>
@@ -1405,6 +1405,12 @@
   </si>
   <si>
     <t>ISH $ SHT DR $D</t>
+  </si>
+  <si>
+    <t>IS15 LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR £ CORP 0-5Y</t>
   </si>
 </sst>
 </file>
@@ -1426,41 +1432,34 @@
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1881,7 +1880,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S207"/>
+  <dimension ref="A1:S208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1978,13 +1977,13 @@
         <v>2110660480</v>
       </c>
       <c r="D2" s="5">
-        <v>16996246528</v>
+        <v>16981428224</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5">
-        <v>1.5333892107009901</v>
+        <v>1.5333890914917001</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>0</v>
@@ -2037,7 +2036,7 @@
         <v>1810685952</v>
       </c>
       <c r="D3" s="5">
-        <v>42427359232</v>
+        <v>42521849856</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
@@ -2102,7 +2101,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="5">
-        <v>3.7507054805755602</v>
+        <v>3.7507057189941402</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -2214,13 +2213,13 @@
         <v>699763776</v>
       </c>
       <c r="D6" s="5">
-        <v>9746226176</v>
+        <v>9636316160</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="5">
-        <v>4.0963110923767099</v>
+        <v>4.0963115692138699</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -2273,7 +2272,7 @@
         <v>597982720</v>
       </c>
       <c r="D7" s="5">
-        <v>89158156288</v>
+        <v>89285591040</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>40</v>
@@ -2332,7 +2331,7 @@
         <v>469205856</v>
       </c>
       <c r="D8" s="5">
-        <v>33724164096</v>
+        <v>33749886976</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>43</v>
@@ -2391,7 +2390,7 @@
         <v>408638720</v>
       </c>
       <c r="D9" s="5">
-        <v>81640120320</v>
+        <v>81743659008</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>40</v>
@@ -2450,13 +2449,13 @@
         <v>381003840</v>
       </c>
       <c r="D10" s="5">
-        <v>21300475904</v>
+        <v>21334429696</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="5">
-        <v>3.6728875637054399</v>
+        <v>3.6848948001861599</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -2509,7 +2508,7 @@
         <v>231758288</v>
       </c>
       <c r="D11" s="5">
-        <v>41536315392</v>
+        <v>41552838656</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
@@ -2627,7 +2626,7 @@
         <v>180512560</v>
       </c>
       <c r="D13" s="5">
-        <v>41071845376</v>
+        <v>41162244096</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>56</v>
@@ -2686,13 +2685,13 @@
         <v>159565600</v>
       </c>
       <c r="D14" s="5">
-        <v>6427573760</v>
+        <v>6487540736</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="5">
-        <v>2.93597507476807</v>
+        <v>2.93597483634949</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>0</v>
@@ -2745,13 +2744,13 @@
         <v>158918288</v>
       </c>
       <c r="D15" s="5">
-        <v>20429414400</v>
+        <v>20441239552</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="5">
-        <v>4.61352586746216</v>
+        <v>4.6205477714538601</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -2804,7 +2803,7 @@
         <v>151518688</v>
       </c>
       <c r="D16" s="5">
-        <v>2380226816</v>
+        <v>2357734400</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>22</v>
@@ -2922,7 +2921,7 @@
         <v>143065360</v>
       </c>
       <c r="D18" s="5">
-        <v>19256135680</v>
+        <v>19350605824</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>43</v>
@@ -2978,10 +2977,10 @@
         <v>69</v>
       </c>
       <c r="C19" s="5">
-        <v>142436224</v>
+        <v>139006080</v>
       </c>
       <c r="D19" s="5">
-        <v>1266161152</v>
+        <v>1263651584</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>70</v>
@@ -2991,25 +2990,25 @@
         <v>71</v>
       </c>
       <c r="H19" s="5">
-        <v>0.31893525749986401</v>
+        <v>-0.155936286871416</v>
       </c>
       <c r="I19" s="5">
-        <v>0.63529187236672802</v>
+        <v>0.81156357700706805</v>
       </c>
       <c r="J19" s="5">
-        <v>-0.483852477122171</v>
+        <v>-0.86781790266355896</v>
       </c>
       <c r="K19" s="5">
-        <v>-3.2321178780542499</v>
+        <v>-3.8351128160029102</v>
       </c>
       <c r="L19" s="5">
-        <v>-2.4064211933977901</v>
+        <v>-2.1359067928217002</v>
       </c>
       <c r="M19" s="5">
-        <v>-5.4102840219964001</v>
+        <v>-5.5977679990824498</v>
       </c>
       <c r="N19" s="5">
-        <v>3.6598691464195401</v>
+        <v>3.35505891470642</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>23</v>
@@ -3024,7 +3023,7 @@
         <v>94.991085203285095</v>
       </c>
       <c r="S19" s="5">
-        <v>89.342453002929702</v>
+        <v>89.203132629394503</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -3095,7 +3094,7 @@
         <v>124346360</v>
       </c>
       <c r="D21" s="5">
-        <v>5978804736</v>
+        <v>5956742656</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>79</v>
@@ -3160,7 +3159,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="5">
-        <v>1.72493624687195</v>
+        <v>1.72493636608124</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>0</v>
@@ -3213,7 +3212,7 @@
         <v>121399312</v>
       </c>
       <c r="D23" s="5">
-        <v>25350295552</v>
+        <v>25281832960</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>56</v>
@@ -3328,10 +3327,10 @@
         <v>88</v>
       </c>
       <c r="C25" s="5">
-        <v>116003512</v>
+        <v>116003520</v>
       </c>
       <c r="D25" s="5">
-        <v>17757857792</v>
+        <v>17826322432</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>89</v>
@@ -3396,7 +3395,7 @@
         <v>93</v>
       </c>
       <c r="F26" s="5">
-        <v>1.69617855548859</v>
+        <v>1.6973394155502299</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>0</v>
@@ -3449,7 +3448,7 @@
         <v>108020944</v>
       </c>
       <c r="D27" s="5">
-        <v>4943745024</v>
+        <v>4960215552</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>32</v>
@@ -3573,7 +3572,7 @@
         <v>51</v>
       </c>
       <c r="F29" s="5">
-        <v>3.0353269577026398</v>
+        <v>3.0353267192840598</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>0</v>
@@ -3626,7 +3625,7 @@
         <v>100037016</v>
       </c>
       <c r="D30" s="5">
-        <v>11880947712</v>
+        <v>11789881344</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>28</v>
@@ -3685,7 +3684,7 @@
         <v>97250792</v>
       </c>
       <c r="D31" s="5">
-        <v>7430533632</v>
+        <v>7444306432</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>105</v>
@@ -3803,7 +3802,7 @@
         <v>91182504</v>
       </c>
       <c r="D33" s="5">
-        <v>16525113344</v>
+        <v>16587091968</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>65</v>
@@ -3919,7 +3918,7 @@
         <v>86415320</v>
       </c>
       <c r="D35" s="5">
-        <v>6821234688</v>
+        <v>6829288448</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>89</v>
@@ -4096,7 +4095,7 @@
         <v>74535920</v>
       </c>
       <c r="D38" s="5">
-        <v>1514755072</v>
+        <v>1510382720</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>22</v>
@@ -4150,10 +4149,10 @@
         <v>123</v>
       </c>
       <c r="C39" s="5">
-        <v>73783128</v>
+        <v>73783120</v>
       </c>
       <c r="D39" s="5">
-        <v>6863057408</v>
+        <v>6907393024</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>124</v>
@@ -4218,7 +4217,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="5">
-        <v>0.40243184566497803</v>
+        <v>0.40243187546730003</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>0</v>
@@ -4330,7 +4329,7 @@
         <v>65606084</v>
       </c>
       <c r="D42" s="5">
-        <v>13922656256</v>
+        <v>13969524736</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>70</v>
@@ -4448,7 +4447,7 @@
         <v>63156596</v>
       </c>
       <c r="D44" s="5">
-        <v>15093858304</v>
+        <v>15121029120</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>79</v>
@@ -4566,7 +4565,7 @@
         <v>56119044</v>
       </c>
       <c r="D46" s="5">
-        <v>6021107200</v>
+        <v>6069787136</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>40</v>
@@ -4625,13 +4624,13 @@
         <v>53898140</v>
       </c>
       <c r="D47" s="5">
-        <v>5226144768</v>
+        <v>5126154240</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="5">
-        <v>3.7875785827636701</v>
+        <v>3.7875788211822501</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>0</v>
@@ -4684,7 +4683,7 @@
         <v>52423944</v>
       </c>
       <c r="D48" s="5">
-        <v>13384794112</v>
+        <v>13374032896</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>65</v>
@@ -4743,7 +4742,7 @@
         <v>46835052</v>
       </c>
       <c r="D49" s="5">
-        <v>15055395840</v>
+        <v>15001924608</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>98</v>
@@ -4808,7 +4807,7 @@
         <v>51</v>
       </c>
       <c r="F50" s="5">
-        <v>0.88509112596511796</v>
+        <v>0.88509118556976296</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>0</v>
@@ -4861,7 +4860,7 @@
         <v>42548588</v>
       </c>
       <c r="D51" s="5">
-        <v>8139512320</v>
+        <v>8149744128</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>35</v>
@@ -4985,7 +4984,7 @@
         <v>28</v>
       </c>
       <c r="F53" s="5">
-        <v>3.0089273452758798</v>
+        <v>3.0089271068572998</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>0</v>
@@ -5097,7 +5096,7 @@
         <v>36271240</v>
       </c>
       <c r="D55" s="5">
-        <v>9099437056</v>
+        <v>9104562176</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>65</v>
@@ -5221,7 +5220,7 @@
         <v>98</v>
       </c>
       <c r="F57" s="5">
-        <v>1.8343194723129299</v>
+        <v>1.8343195915222199</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>0</v>
@@ -5333,7 +5332,7 @@
         <v>33244242</v>
       </c>
       <c r="D59" s="5">
-        <v>1916915072</v>
+        <v>1946789120</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>105</v>
@@ -5398,7 +5397,7 @@
         <v>40</v>
       </c>
       <c r="F60" s="5">
-        <v>2.0303618907928498</v>
+        <v>2.0303616523742698</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>0</v>
@@ -5451,7 +5450,7 @@
         <v>32810918</v>
       </c>
       <c r="D61" s="5">
-        <v>3906630144</v>
+        <v>3878010112</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>35</v>
@@ -5569,7 +5568,7 @@
         <v>32147884</v>
       </c>
       <c r="D63" s="5">
-        <v>5394061824</v>
+        <v>5430694400</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>105</v>
@@ -5634,7 +5633,7 @@
         <v>70</v>
       </c>
       <c r="F64" s="5">
-        <v>0.37513959407806402</v>
+        <v>0.37513962388038602</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>0</v>
@@ -5811,7 +5810,7 @@
         <v>56</v>
       </c>
       <c r="F67" s="5">
-        <v>0.36557808518409701</v>
+        <v>0.36557811498642001</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>0</v>
@@ -5870,7 +5869,7 @@
         <v>22</v>
       </c>
       <c r="F68" s="5">
-        <v>1.99487316608429</v>
+        <v>1.99487328529358</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>0</v>
@@ -5982,13 +5981,13 @@
         <v>27754272</v>
       </c>
       <c r="D70" s="5">
-        <v>7577816064</v>
+        <v>7581954048</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="5">
-        <v>4.8893179893493697</v>
+        <v>4.8893184661865199</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>0</v>
@@ -6100,13 +6099,13 @@
         <v>27336170</v>
       </c>
       <c r="D72" s="5">
-        <v>6105759232</v>
+        <v>6074340352</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>133</v>
       </c>
       <c r="F72" s="5">
-        <v>2.84829545021057</v>
+        <v>2.8482956886291499</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>0</v>
@@ -6213,10 +6212,10 @@
         <v>191</v>
       </c>
       <c r="C74" s="5">
-        <v>24087838</v>
+        <v>24087840</v>
       </c>
       <c r="D74" s="5">
-        <v>3243345920</v>
+        <v>3300992000</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>70</v>
@@ -6272,10 +6271,10 @@
         <v>193</v>
       </c>
       <c r="C75" s="5">
-        <v>23790572</v>
+        <v>23775374</v>
       </c>
       <c r="D75" s="5">
-        <v>2588423680</v>
+        <v>2680107008</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>35</v>
@@ -6302,7 +6301,7 @@
         <v>1.4163830828176001</v>
       </c>
       <c r="M75" s="5">
-        <v>1.93956074220647</v>
+        <v>1.8744383457699001</v>
       </c>
       <c r="N75" s="5">
         <v>5.4120585792082796</v>
@@ -6393,7 +6392,7 @@
         <v>22018804</v>
       </c>
       <c r="D77" s="5">
-        <v>3261064448</v>
+        <v>3261764608</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>70</v>
@@ -6570,13 +6569,13 @@
         <v>21092658</v>
       </c>
       <c r="D80" s="5">
-        <v>2131963648</v>
+        <v>2147283200</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F80" s="5">
-        <v>0.14781162142753601</v>
+        <v>0.14781160652637501</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>0</v>
@@ -6747,13 +6746,13 @@
         <v>18605680</v>
       </c>
       <c r="D83" s="5">
-        <v>3755608832</v>
+        <v>3760806912</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F83" s="5">
-        <v>1.6524817943573</v>
+        <v>1.65248167514801</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>0</v>
@@ -6803,7 +6802,7 @@
         <v>214</v>
       </c>
       <c r="C84" s="5">
-        <v>17921372</v>
+        <v>17921370</v>
       </c>
       <c r="D84" s="5">
         <v>3139017216</v>
@@ -6871,7 +6870,7 @@
         <v>93</v>
       </c>
       <c r="F85" s="5">
-        <v>0.70825433731079102</v>
+        <v>0.70825427770614602</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>0</v>
@@ -6983,7 +6982,7 @@
         <v>16755398</v>
       </c>
       <c r="D87" s="5">
-        <v>2625810176</v>
+        <v>2633004032</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>51</v>
@@ -7048,7 +7047,7 @@
         <v>22</v>
       </c>
       <c r="F88" s="5">
-        <v>1.48659420013428</v>
+        <v>1.48659408092499</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>0</v>
@@ -7160,7 +7159,7 @@
         <v>15762040</v>
       </c>
       <c r="D90" s="5">
-        <v>2378103552</v>
+        <v>2382017024</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>89</v>
@@ -7219,7 +7218,7 @@
         <v>15368631</v>
       </c>
       <c r="D91" s="5">
-        <v>3496380160</v>
+        <v>3484112128</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>65</v>
@@ -7335,7 +7334,7 @@
         <v>14400397</v>
       </c>
       <c r="D93" s="5">
-        <v>2513918976</v>
+        <v>2524274944</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>56</v>
@@ -7400,7 +7399,7 @@
         <v>98</v>
       </c>
       <c r="F94" s="5">
-        <v>2.4835166931152299</v>
+        <v>2.4835164546966602</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>0</v>
@@ -7450,158 +7449,158 @@
         <v>236</v>
       </c>
       <c r="C95" s="5">
-        <v>13001250</v>
+        <v>13622949</v>
       </c>
       <c r="D95" s="5">
-        <v>3105694720</v>
+        <v>1604994688</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F95" s="5">
-        <v>3.9541888236999498</v>
+        <v>0.30776435136795</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H95" s="5">
-        <v>-0.19877753380691501</v>
+        <v>-0.20816681449119501</v>
       </c>
       <c r="I95" s="5">
-        <v>0.454731412512421</v>
+        <v>1.9525967843794501</v>
       </c>
       <c r="J95" s="5">
-        <v>0.83177243326786299</v>
+        <v>1.1684936865533899</v>
       </c>
       <c r="K95" s="5">
-        <v>2.65642775216164</v>
+        <v>-3.8602226076787902</v>
       </c>
       <c r="L95" s="5">
-        <v>4.9561276194638202</v>
+        <v>-2.9117005192805498</v>
       </c>
       <c r="M95" s="5">
-        <v>0.181752235413568</v>
+        <v>-2.7849609172665799</v>
       </c>
       <c r="N95" s="5">
-        <v>3.3421305057534898</v>
+        <v>2.55283519878386</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="R95" s="5">
-        <v>82.449996948242202</v>
+        <v>39.776468449964</v>
       </c>
       <c r="S95" s="5">
-        <v>80.330001831054702</v>
+        <v>37.232051849365199</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A96" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C96" s="5">
-        <v>12996896</v>
+        <v>13001250</v>
       </c>
       <c r="D96" s="5">
-        <v>3092512512</v>
+        <v>3105694720</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F96" s="5">
-        <v>2.9443414211273198</v>
+        <v>3.9541888236999498</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>-0.308264542435843</v>
+        <v>-0.19877753380691501</v>
       </c>
       <c r="I96" s="5">
-        <v>0.245817600707321</v>
+        <v>0.454731412512421</v>
       </c>
       <c r="J96" s="5">
-        <v>0.18385336227044699</v>
+        <v>0.83177243326786299</v>
       </c>
       <c r="K96" s="5">
-        <v>1.22553809329167</v>
+        <v>2.65642775216164</v>
       </c>
       <c r="L96" s="5">
-        <v>1.34019942413517</v>
+        <v>4.9561276194638202</v>
       </c>
       <c r="M96" s="5">
-        <v>0.19214135779892499</v>
+        <v>0.181752235413568</v>
       </c>
       <c r="N96" s="5">
-        <v>0.70684670234424396</v>
+        <v>3.3421305057534898</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q96" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R96" s="5">
-        <v>49.634998321533203</v>
+        <v>82.449996948242202</v>
       </c>
       <c r="S96" s="5">
-        <v>48.509998321533203</v>
+        <v>80.330001831054702</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A97" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C97" s="5">
-        <v>12729161</v>
+        <v>12996896</v>
       </c>
       <c r="D97" s="5">
-        <v>911726976</v>
+        <v>3092512512</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F97" s="5">
-        <v>0.62488001585006703</v>
+        <v>2.9443414211273198</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>-9.8190485060319996E-3</v>
+        <v>-0.308264542435843</v>
       </c>
       <c r="I97" s="5">
-        <v>9.4057071926911998E-2</v>
+        <v>0.245817600707321</v>
       </c>
       <c r="J97" s="5">
-        <v>-0.107188147684323</v>
+        <v>0.18385336227044699</v>
       </c>
       <c r="K97" s="5">
-        <v>1.0010516389306301</v>
+        <v>1.22553809329167</v>
       </c>
       <c r="L97" s="5">
-        <v>1.1094349969022099</v>
+        <v>1.34019942413517</v>
       </c>
       <c r="M97" s="5">
-        <v>0.143594728863738</v>
+        <v>0.19214135779892499</v>
       </c>
       <c r="N97" s="5">
-        <v>-0.49109916993959102</v>
+        <v>0.70684670234424396</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>23</v>
@@ -7613,54 +7612,54 @@
         <v>25</v>
       </c>
       <c r="R97" s="5">
-        <v>122</v>
+        <v>49.634998321533203</v>
       </c>
       <c r="S97" s="5">
-        <v>119.18000030517599</v>
+        <v>48.509998321533203</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A98" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C98" s="5">
-        <v>12016815</v>
+        <v>12729161</v>
       </c>
       <c r="D98" s="5">
-        <v>1053583104</v>
+        <v>911726976</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F98" s="5">
-        <v>7.4235811233520499</v>
+        <v>0.62488001585006703</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H98" s="5">
-        <v>5.4612741908254998E-2</v>
+        <v>-9.8190485060319996E-3</v>
       </c>
       <c r="I98" s="5">
-        <v>9.1279218607099005E-2</v>
+        <v>9.4057071926911998E-2</v>
       </c>
       <c r="J98" s="5">
-        <v>0.12752722827944499</v>
+        <v>-0.107188147684323</v>
       </c>
       <c r="K98" s="5">
-        <v>1.6092453376429099</v>
+        <v>1.0010516389306301</v>
       </c>
       <c r="L98" s="5">
-        <v>3.4340922052658698</v>
+        <v>1.1094349969022099</v>
       </c>
       <c r="M98" s="5">
-        <v>4.4840866544183502</v>
+        <v>0.143594728863738</v>
       </c>
       <c r="N98" s="5">
-        <v>6.0489977688940497</v>
+        <v>-0.49109916993959102</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>23</v>
@@ -7672,77 +7671,77 @@
         <v>25</v>
       </c>
       <c r="R98" s="5">
-        <v>55.588001251220703</v>
+        <v>122</v>
       </c>
       <c r="S98" s="5">
-        <v>54.959999084472699</v>
+        <v>119.18000030517599</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A99" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C99" s="5">
-        <v>11677608</v>
+        <v>12016815</v>
       </c>
       <c r="D99" s="5">
-        <v>4029008384</v>
+        <v>1053583104</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="F99" s="5">
-        <v>2.6586461067199698</v>
+        <v>7.4235806465148899</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H99" s="5">
-        <v>-0.29314577528253299</v>
+        <v>5.4612741908254998E-2</v>
       </c>
       <c r="I99" s="5">
-        <v>4.6441332502467E-2</v>
+        <v>9.1279218607099005E-2</v>
       </c>
       <c r="J99" s="5">
-        <v>-0.85148865077822</v>
+        <v>0.12752722827944499</v>
       </c>
       <c r="K99" s="5">
-        <v>3.32690680847716</v>
+        <v>1.6092453376429099</v>
       </c>
       <c r="L99" s="5">
-        <v>3.95512314938127</v>
+        <v>3.4340922052658698</v>
       </c>
       <c r="M99" s="5">
-        <v>-1.2187240307152101</v>
+        <v>4.4840866544183502</v>
       </c>
       <c r="N99" s="5">
-        <v>1.2850562557380301</v>
+        <v>6.0489977688940497</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="R99" s="5">
-        <v>133.22999572753901</v>
+        <v>55.588001251220703</v>
       </c>
       <c r="S99" s="5">
-        <v>129.25</v>
+        <v>54.959999084472699</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A100" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="C100" s="5">
         <v>11606517</v>
@@ -7796,105 +7795,105 @@
     </row>
     <row r="101" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A101" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" s="5">
+        <v>11587768</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4016939520</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="5">
-        <v>11484746</v>
-      </c>
-      <c r="D101" s="5">
-        <v>2485715200</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F101" s="5">
-        <v>0.33094945549964899</v>
+        <v>2.6567962169647199</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H101" s="5">
-        <v>3.2637823371551002E-2</v>
+        <v>6.9629661810922006E-2</v>
       </c>
       <c r="I101" s="5">
-        <v>2.7587932644857E-2</v>
+        <v>0.116103331256157</v>
       </c>
       <c r="J101" s="5">
-        <v>6.0237539145214E-2</v>
+        <v>0.27911352324125899</v>
       </c>
       <c r="K101" s="5">
-        <v>8.9504509389160006E-2</v>
+        <v>2.8353081771131499</v>
       </c>
       <c r="L101" s="5">
-        <v>0.230513451763836</v>
+        <v>5.3992582756983403</v>
       </c>
       <c r="M101" s="5">
-        <v>0.47207301972924698</v>
+        <v>-1.1499429623252799</v>
       </c>
       <c r="N101" s="5">
-        <v>0.69620719569298795</v>
+        <v>2.1191243568556399</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="R101" s="5">
-        <v>30.680000305175799</v>
+        <v>133.22999572753901</v>
       </c>
       <c r="S101" s="5">
-        <v>30.649999618530298</v>
+        <v>129.33999633789099</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A102" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C102" s="5">
-        <v>11355954</v>
+        <v>11484746</v>
       </c>
       <c r="D102" s="5">
-        <v>1940696064</v>
+        <v>2473455104</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F102" s="5">
-        <v>4.0747351646423304</v>
+        <v>0.33094945549964899</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H102" s="5">
-        <v>-0.11333124320007699</v>
+        <v>3.2637823371551002E-2</v>
       </c>
       <c r="I102" s="5">
-        <v>0.26545200074499198</v>
+        <v>2.7587932644857E-2</v>
       </c>
       <c r="J102" s="5">
-        <v>0.37907793907598902</v>
+        <v>6.0237539145214E-2</v>
       </c>
       <c r="K102" s="5">
-        <v>2.08246482960315</v>
+        <v>8.9504509389160006E-2</v>
       </c>
       <c r="L102" s="5">
-        <v>5.6107779230396604</v>
+        <v>0.230513451763836</v>
       </c>
       <c r="M102" s="5">
-        <v>4.8271847896480304</v>
+        <v>0.47207301972924698</v>
       </c>
       <c r="N102" s="5">
-        <v>10.9795515032047</v>
+        <v>0.69620719569298795</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>23</v>
@@ -7906,54 +7905,54 @@
         <v>25</v>
       </c>
       <c r="R102" s="5">
-        <v>26.5</v>
+        <v>30.680000305175799</v>
       </c>
       <c r="S102" s="5">
-        <v>26.440000534057599</v>
+        <v>30.649999618530298</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A103" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C103" s="5">
-        <v>11320625</v>
+        <v>11355954</v>
       </c>
       <c r="D103" s="5">
-        <v>1805880064</v>
+        <v>1940696064</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F103" s="5">
-        <v>3.0919406414032</v>
+        <v>4.0747351646423304</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>-8.2445260510799007E-2</v>
+        <v>-0.11333124320007699</v>
       </c>
       <c r="I103" s="5">
-        <v>2.6275436974753999E-2</v>
+        <v>0.26545200074499198</v>
       </c>
       <c r="J103" s="5">
-        <v>-0.367399278472469</v>
+        <v>0.37907793907598902</v>
       </c>
       <c r="K103" s="5">
-        <v>1.30595759733494</v>
+        <v>2.08246482960315</v>
       </c>
       <c r="L103" s="5">
-        <v>4.4846939010409796</v>
+        <v>5.6107779230396604</v>
       </c>
       <c r="M103" s="5">
-        <v>4.9633990803535299</v>
+        <v>4.8271847896480304</v>
       </c>
       <c r="N103" s="5">
-        <v>9.8647770334933504</v>
+        <v>10.9795515032047</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>23</v>
@@ -7965,55 +7964,57 @@
         <v>25</v>
       </c>
       <c r="R103" s="5">
-        <v>61.180000305175803</v>
+        <v>26.5</v>
       </c>
       <c r="S103" s="5">
-        <v>60.599998474121101</v>
+        <v>26.440000534057599</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A104" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C104" s="5">
-        <v>11316575</v>
+        <v>11320625</v>
       </c>
       <c r="D104" s="5">
-        <v>271485024</v>
+        <v>1805880064</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F104" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="F104" s="5">
+        <v>3.09194040298462</v>
+      </c>
       <c r="G104" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>0</v>
+        <v>-8.2445260510799007E-2</v>
       </c>
       <c r="I104" s="5">
-        <v>0</v>
+        <v>2.6275436974753999E-2</v>
       </c>
       <c r="J104" s="5">
-        <v>-9.9388495212629994E-3</v>
+        <v>-0.367399278472469</v>
       </c>
       <c r="K104" s="5">
-        <v>0</v>
+        <v>1.30595759733494</v>
       </c>
       <c r="L104" s="5">
-        <v>-9.9388495212629994E-3</v>
+        <v>4.4846939010409796</v>
       </c>
       <c r="M104" s="5">
-        <v>2.0335348100969999E-3</v>
+        <v>4.9633990803535299</v>
       </c>
       <c r="N104" s="5">
-        <v>-2.1991795141152001E-2</v>
+        <v>9.8647770334933504</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="P104" s="6" t="s">
         <v>29</v>
@@ -8022,69 +8023,67 @@
         <v>25</v>
       </c>
       <c r="R104" s="5">
-        <v>50.310001373291001</v>
+        <v>61.180000305175803</v>
       </c>
       <c r="S104" s="5">
-        <v>50.275001525878899</v>
+        <v>60.599998474121101</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A105" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C105" s="5">
-        <v>11244106</v>
+        <v>11316575</v>
       </c>
       <c r="D105" s="5">
-        <v>1602953344</v>
+        <v>271485024</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F105" s="5">
-        <v>0.30779510736465499</v>
-      </c>
+      <c r="F105" s="5"/>
       <c r="G105" s="6" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="H105" s="5">
-        <v>0.68900458549929799</v>
+        <v>0</v>
       </c>
       <c r="I105" s="5">
-        <v>1.89231422392662</v>
+        <v>0</v>
       </c>
       <c r="J105" s="5">
-        <v>0.83094057225159301</v>
+        <v>-9.9388495212629994E-3</v>
       </c>
       <c r="K105" s="5">
-        <v>-2.5225395115543501</v>
+        <v>0</v>
       </c>
       <c r="L105" s="5">
-        <v>-4.2961774112564903</v>
+        <v>-9.9388495212629994E-3</v>
       </c>
       <c r="M105" s="5">
-        <v>-2.9085925118654399</v>
+        <v>2.0335348100969999E-3</v>
       </c>
       <c r="N105" s="5">
-        <v>2.9441493012970299</v>
+        <v>-2.1991795141152001E-2</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="R105" s="5">
-        <v>39.776468449964</v>
+        <v>50.310001373291001</v>
       </c>
       <c r="S105" s="5">
-        <v>37.309719085693402</v>
+        <v>50.275001525878899</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8095,10 +8094,10 @@
         <v>265</v>
       </c>
       <c r="C106" s="5">
-        <v>10633392</v>
+        <v>10626599</v>
       </c>
       <c r="D106" s="5">
-        <v>1426573696</v>
+        <v>1425662336</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>65</v>
@@ -8125,7 +8124,7 @@
         <v>1.1824223540715799</v>
       </c>
       <c r="M106" s="5">
-        <v>2.4442907120947801</v>
+        <v>2.3788458772942001</v>
       </c>
       <c r="N106" s="5">
         <v>5.57002746112998</v>
@@ -8157,7 +8156,7 @@
         <v>10452684</v>
       </c>
       <c r="D107" s="5">
-        <v>1452049152</v>
+        <v>1450730496</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>65</v>
@@ -8272,10 +8271,10 @@
         <v>271</v>
       </c>
       <c r="C109" s="5">
-        <v>9677620</v>
+        <v>9671438</v>
       </c>
       <c r="D109" s="5">
-        <v>3698699008</v>
+        <v>3698906624</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>35</v>
@@ -8302,7 +8301,7 @@
         <v>2.6809464736789099</v>
       </c>
       <c r="M109" s="5">
-        <v>-0.43287323595222499</v>
+        <v>-0.49648004231835902</v>
       </c>
       <c r="N109" s="5">
         <v>2.6885106088769199</v>
@@ -8331,16 +8330,16 @@
         <v>193</v>
       </c>
       <c r="C110" s="5">
-        <v>9182881</v>
+        <v>9177015</v>
       </c>
       <c r="D110" s="5">
-        <v>1254462592</v>
+        <v>1283594240</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F110" s="5">
-        <v>3.04761934280396</v>
+        <v>3.04761910438538</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>194</v>
@@ -8361,7 +8360,7 @@
         <v>2.64344740574403</v>
       </c>
       <c r="M110" s="5">
-        <v>0.80606541912660001</v>
+        <v>0.74166713736396594</v>
       </c>
       <c r="N110" s="5">
         <v>4.6498601936034696</v>
@@ -8458,7 +8457,7 @@
         <v>70</v>
       </c>
       <c r="F112" s="5">
-        <v>1.90085732936859</v>
+        <v>1.9008572101593</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>0</v>
@@ -8508,10 +8507,10 @@
         <v>278</v>
       </c>
       <c r="C113" s="5">
-        <v>8181504.5</v>
+        <v>8176278</v>
       </c>
       <c r="D113" s="5">
-        <v>948211904</v>
+        <v>947606208</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>70</v>
@@ -8536,7 +8535,7 @@
         <v>1.21095174812003</v>
       </c>
       <c r="M113" s="5">
-        <v>2.46704259872355</v>
+        <v>2.4015832292578301</v>
       </c>
       <c r="N113" s="5">
         <v>5.6188302440239202</v>
@@ -8624,7 +8623,7 @@
         <v>280</v>
       </c>
       <c r="C115" s="5">
-        <v>7564693.5</v>
+        <v>7564693</v>
       </c>
       <c r="D115" s="5">
         <v>2106955264</v>
@@ -8633,7 +8632,7 @@
         <v>89</v>
       </c>
       <c r="F115" s="5">
-        <v>1.4116997718811</v>
+        <v>1.41169965267181</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>0</v>
@@ -8808,7 +8807,7 @@
         <v>48</v>
       </c>
       <c r="F118" s="5">
-        <v>3.8015251159668</v>
+        <v>3.80152487754822</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>0</v>
@@ -8924,7 +8923,7 @@
         <v>93</v>
       </c>
       <c r="F120" s="5">
-        <v>2.2848527431488002</v>
+        <v>2.2848529815673801</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>0</v>
@@ -8977,7 +8976,7 @@
         <v>7024925</v>
       </c>
       <c r="D121" s="5">
-        <v>2371392000</v>
+        <v>2374256128</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>93</v>
@@ -9033,10 +9032,10 @@
         <v>294</v>
       </c>
       <c r="C122" s="5">
-        <v>7018932.5</v>
+        <v>7014448.5</v>
       </c>
       <c r="D122" s="5">
-        <v>4919926784</v>
+        <v>4916784128</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>40</v>
@@ -9063,7 +9062,7 @@
         <v>2.6670486206531199</v>
       </c>
       <c r="M122" s="5">
-        <v>-0.21234984067607399</v>
+        <v>-0.27609752475314903</v>
       </c>
       <c r="N122" s="5">
         <v>2.8206123931526301</v>
@@ -9092,7 +9091,7 @@
         <v>296</v>
       </c>
       <c r="C123" s="5">
-        <v>6899867.5</v>
+        <v>6899868</v>
       </c>
       <c r="D123" s="5">
         <v>689880448</v>
@@ -9210,10 +9209,10 @@
         <v>300</v>
       </c>
       <c r="C125" s="5">
-        <v>6705947.5</v>
+        <v>6701663.5</v>
       </c>
       <c r="D125" s="5">
-        <v>1650349824</v>
+        <v>1647298816</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>70</v>
@@ -9240,7 +9239,7 @@
         <v>1.16361304705677</v>
       </c>
       <c r="M125" s="5">
-        <v>2.39963895205064</v>
+        <v>2.3342226422858698</v>
       </c>
       <c r="N125" s="5">
         <v>5.5539963240797103</v>
@@ -9269,55 +9268,55 @@
         <v>302</v>
       </c>
       <c r="C126" s="5">
-        <v>6633931</v>
+        <v>6599613</v>
       </c>
       <c r="D126" s="5">
-        <v>1343785344</v>
+        <v>1165917440</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F126" s="5">
-        <v>2.5579040050506601</v>
+        <v>0.67231518030166604</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>0.56580584916068299</v>
+        <v>7.8596335445939997E-3</v>
       </c>
       <c r="I126" s="5">
-        <v>1.74407761632831</v>
+        <v>4.912126187206E-3</v>
       </c>
       <c r="J126" s="5">
-        <v>0.38600557316130801</v>
+        <v>3.4387516251354999E-2</v>
       </c>
       <c r="K126" s="5">
-        <v>-0.797051522051895</v>
+        <v>4.9248077738140002E-2</v>
       </c>
       <c r="L126" s="5">
-        <v>-1.8745084538309</v>
+        <v>0.113146223269012</v>
       </c>
       <c r="M126" s="5">
-        <v>-3.6328141665017402</v>
+        <v>0.31922344587991303</v>
       </c>
       <c r="N126" s="5">
-        <v>2.6444889786014301</v>
+        <v>1.07886408454634</v>
       </c>
       <c r="O126" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="R126" s="5">
-        <v>90.659687527963101</v>
+        <v>102.93000030517599</v>
       </c>
       <c r="S126" s="5">
-        <v>85.172882080078097</v>
+        <v>101.737998962402</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9325,117 +9324,117 @@
         <v>303</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C127" s="5">
-        <v>6599613</v>
+        <v>6523808.5</v>
       </c>
       <c r="D127" s="5">
-        <v>1165917440</v>
+        <v>667052032</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F127" s="5">
-        <v>0.67231518030166604</v>
+        <v>3.32191658020019</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>7.8596335445939997E-3</v>
+        <v>7.8610652496901995E-2</v>
       </c>
       <c r="I127" s="5">
-        <v>4.912126187206E-3</v>
+        <v>0.31520853566346901</v>
       </c>
       <c r="J127" s="5">
-        <v>3.4387516251354999E-2</v>
+        <v>0.71359189678064106</v>
       </c>
       <c r="K127" s="5">
-        <v>4.9248077738140002E-2</v>
+        <v>1.2565075670972501</v>
       </c>
       <c r="L127" s="5">
-        <v>0.113146223269012</v>
+        <v>2.6340177383977301</v>
       </c>
       <c r="M127" s="5">
-        <v>0.31922344587991303</v>
+        <v>2.8567139875530501</v>
       </c>
       <c r="N127" s="5">
-        <v>1.07886408454634</v>
+        <v>6.8060472878037199</v>
       </c>
       <c r="O127" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q127" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R127" s="5">
-        <v>102.93000030517599</v>
+        <v>25.514999389648398</v>
       </c>
       <c r="S127" s="5">
-        <v>101.737998962402</v>
+        <v>25.459999084472699</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A128" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="C128" s="5">
-        <v>6523808.5</v>
+        <v>6473906</v>
       </c>
       <c r="D128" s="5">
-        <v>679781952</v>
+        <v>1343462144</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F128" s="5">
-        <v>3.32191658020019</v>
+        <v>2.5614900588989298</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H128" s="5">
-        <v>7.8610652496901995E-2</v>
+        <v>-0.359052441473318</v>
       </c>
       <c r="I128" s="5">
-        <v>0.31520853566346901</v>
+        <v>1.46672478818064</v>
       </c>
       <c r="J128" s="5">
-        <v>0.71359189678064106</v>
+        <v>0.73653244694882303</v>
       </c>
       <c r="K128" s="5">
-        <v>1.2565075670972501</v>
+        <v>-2.0776382588178</v>
       </c>
       <c r="L128" s="5">
-        <v>2.6340177383977301</v>
+        <v>8.1483971158680002E-2</v>
       </c>
       <c r="M128" s="5">
-        <v>2.8567139875530501</v>
+        <v>-3.6559978458095999</v>
       </c>
       <c r="N128" s="5">
-        <v>6.8060472878037199</v>
+        <v>1.9124389366483401</v>
       </c>
       <c r="O128" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="R128" s="5">
-        <v>25.514999389648398</v>
+        <v>90.659687527963101</v>
       </c>
       <c r="S128" s="5">
-        <v>25.459999084472699</v>
+        <v>84.8670654296875</v>
       </c>
     </row>
     <row r="129" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9446,10 +9445,10 @@
         <v>307</v>
       </c>
       <c r="C129" s="5">
-        <v>6447611.5</v>
+        <v>6443493</v>
       </c>
       <c r="D129" s="5">
-        <v>2810627072</v>
+        <v>2810927872</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>308</v>
@@ -9476,7 +9475,7 @@
         <v>2.63540845979924</v>
       </c>
       <c r="M129" s="5">
-        <v>-0.53626315569759198</v>
+        <v>-0.59980391312951498</v>
       </c>
       <c r="N129" s="5">
         <v>2.5427647077819602</v>
@@ -9632,7 +9631,7 @@
         <v>93</v>
       </c>
       <c r="F132" s="5">
-        <v>1.66557133197784</v>
+        <v>1.66557121276856</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>0</v>
@@ -9750,7 +9749,7 @@
         <v>93</v>
       </c>
       <c r="F134" s="5">
-        <v>2.5864667892456099</v>
+        <v>2.5864670276641899</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>0</v>
@@ -9803,7 +9802,7 @@
         <v>5584742.5</v>
       </c>
       <c r="D135" s="5">
-        <v>883206016</v>
+        <v>900150016</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>35</v>
@@ -9921,7 +9920,7 @@
         <v>5322436.5</v>
       </c>
       <c r="D137" s="5">
-        <v>883960000</v>
+        <v>889700032</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>89</v>
@@ -10039,7 +10038,7 @@
         <v>5306138</v>
       </c>
       <c r="D139" s="5">
-        <v>1491553920</v>
+        <v>1502684928</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>89</v>
@@ -10154,55 +10153,55 @@
         <v>331</v>
       </c>
       <c r="C141" s="5">
-        <v>5256279.5</v>
+        <v>5238725.5</v>
       </c>
       <c r="D141" s="5">
-        <v>7507411968</v>
+        <v>7518663168</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F141" s="5">
-        <v>3.9357872009277299</v>
+        <v>3.93282222747803</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H141" s="5">
-        <v>-0.19474304534468101</v>
+        <v>7.5387214609889994E-2</v>
       </c>
       <c r="I141" s="5">
-        <v>0.66964285714285998</v>
+        <v>0.74553489685058605</v>
       </c>
       <c r="J141" s="5">
-        <v>0.86980808662493503</v>
+        <v>1.38883318830616</v>
       </c>
       <c r="K141" s="5">
-        <v>2.5729853027497001</v>
+        <v>2.0799321377137798</v>
       </c>
       <c r="L141" s="5">
-        <v>5.0906019426699496</v>
+        <v>6.51353703085136</v>
       </c>
       <c r="M141" s="5">
-        <v>-2.034993223905E-2</v>
+        <v>5.5021941123744998E-2</v>
       </c>
       <c r="N141" s="5">
-        <v>3.3017862278060099</v>
+        <v>3.7822045152722499</v>
       </c>
       <c r="O141" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R141" s="5">
         <v>115.860000610352</v>
       </c>
       <c r="S141" s="5">
-        <v>112.75</v>
+        <v>112.834999084473</v>
       </c>
     </row>
     <row r="142" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10334,13 +10333,13 @@
         <v>4835962.5</v>
       </c>
       <c r="D144" s="5">
-        <v>1633556992</v>
+        <v>1643537920</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F144" s="5">
-        <v>1.77619469165802</v>
+        <v>1.77619481086731</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>0</v>
@@ -10390,10 +10389,10 @@
         <v>338</v>
       </c>
       <c r="C145" s="5">
-        <v>4629350</v>
+        <v>4734451</v>
       </c>
       <c r="D145" s="5">
-        <v>539179136</v>
+        <v>539092032</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>89</v>
@@ -10403,25 +10402,25 @@
         <v>339</v>
       </c>
       <c r="H145" s="5">
-        <v>5.3986786435666997E-2</v>
+        <v>-7.0342946298306994E-2</v>
       </c>
       <c r="I145" s="5">
-        <v>0.63462150166058195</v>
+        <v>0.42237965006217698</v>
       </c>
       <c r="J145" s="5">
-        <v>0.73868299363302203</v>
+        <v>8.8300896184456995E-2</v>
       </c>
       <c r="K145" s="5">
-        <v>2.4907978759365998</v>
+        <v>2.1805690111835299</v>
       </c>
       <c r="L145" s="5">
-        <v>2.8068689844058499</v>
+        <v>3.2440982206729299</v>
       </c>
       <c r="M145" s="5">
-        <v>4.7993430966702899</v>
+        <v>4.7824150180641798</v>
       </c>
       <c r="N145" s="5">
-        <v>10.7083529044664</v>
+        <v>10.5179890240072</v>
       </c>
       <c r="O145" s="6" t="s">
         <v>340</v>
@@ -10436,7 +10435,7 @@
         <v>16.700928868155</v>
       </c>
       <c r="S145" s="5">
-        <v>16.6434326171875</v>
+        <v>16.6317253112793</v>
       </c>
     </row>
     <row r="146" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10509,13 +10508,13 @@
         <v>4339613</v>
       </c>
       <c r="D147" s="5">
-        <v>999936064</v>
+        <v>1002540032</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F147" s="5">
-        <v>0.98419350385665905</v>
+        <v>0.98419356346130404</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>0</v>
@@ -10568,13 +10567,13 @@
         <v>4303227</v>
       </c>
       <c r="D148" s="5">
-        <v>1899088000</v>
+        <v>1902211584</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>348</v>
       </c>
       <c r="F148" s="5">
-        <v>1.4754985570907599</v>
+        <v>1.4754986763000499</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>0</v>
@@ -10751,7 +10750,7 @@
         <v>70</v>
       </c>
       <c r="F151" s="5">
-        <v>1.21634817123413</v>
+        <v>1.21634829044342</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>0</v>
@@ -10801,10 +10800,10 @@
         <v>356</v>
       </c>
       <c r="C152" s="5">
-        <v>4029179.75</v>
+        <v>4026605.75</v>
       </c>
       <c r="D152" s="5">
-        <v>1771827456</v>
+        <v>1770695552</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>51</v>
@@ -10831,7 +10830,7 @@
         <v>10.6703451562312</v>
       </c>
       <c r="M152" s="5">
-        <v>22.9088509862036</v>
+        <v>22.830332706732801</v>
       </c>
       <c r="N152" s="5">
         <v>36.214196470630903</v>
@@ -10978,16 +10977,16 @@
         <v>362</v>
       </c>
       <c r="C155" s="5">
-        <v>3934710</v>
+        <v>3932196.25</v>
       </c>
       <c r="D155" s="5">
-        <v>1067884288</v>
+        <v>1067202112</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F155" s="5">
-        <v>2.92682909965515</v>
+        <v>2.92682933807373</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>194</v>
@@ -11008,7 +11007,7 @@
         <v>1.57544269164684</v>
       </c>
       <c r="M155" s="5">
-        <v>2.0995660402362</v>
+        <v>2.0343414270706601</v>
       </c>
       <c r="N155" s="5">
         <v>6.60771519645973</v>
@@ -11037,55 +11036,55 @@
         <v>364</v>
       </c>
       <c r="C156" s="5">
-        <v>3877820.75</v>
+        <v>3869590.5</v>
       </c>
       <c r="D156" s="5">
-        <v>4225483008</v>
+        <v>1009309376</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="F156" s="5">
-        <v>4.5443267822265598</v>
+        <v>2.6116602420806898</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H156" s="5">
-        <v>-7.6286668217229001E-2</v>
+        <v>-0.22809393333796901</v>
       </c>
       <c r="I156" s="5">
-        <v>0.34472910973812898</v>
+        <v>1.9701131268790499</v>
       </c>
       <c r="J156" s="5">
-        <v>0.88572075153390295</v>
+        <v>1.1656686756483301</v>
       </c>
       <c r="K156" s="5">
-        <v>2.0847533929251099</v>
+        <v>-2.9444069887666799</v>
       </c>
       <c r="L156" s="5">
-        <v>3.6204915016325101</v>
+        <v>-1.6354343246969401</v>
       </c>
       <c r="M156" s="5">
-        <v>4.0629291590479104</v>
+        <v>-0.398124823851709</v>
       </c>
       <c r="N156" s="5">
-        <v>8.7903055768136795</v>
+        <v>6.6156401969258898</v>
       </c>
       <c r="O156" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="R156" s="5">
-        <v>105.279998779297</v>
+        <v>8.1813598951561897</v>
       </c>
       <c r="S156" s="5">
-        <v>104.790000915527</v>
+        <v>7.6367726325988796</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11096,55 +11095,53 @@
         <v>366</v>
       </c>
       <c r="C157" s="5">
-        <v>3862943.5</v>
+        <v>3735560.25</v>
       </c>
       <c r="D157" s="5">
-        <v>1006214528</v>
+        <v>3342988800</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F157" s="5">
-        <v>2.60911989212036</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F157" s="5"/>
       <c r="G157" s="6" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="H157" s="5">
-        <v>0.68900458549929799</v>
+        <v>9.2296741502679996E-3</v>
       </c>
       <c r="I157" s="5">
-        <v>1.9098190540025799</v>
+        <v>4.6147802707086003E-2</v>
       </c>
       <c r="J157" s="5">
-        <v>0.84826306114156302</v>
+        <v>5.5385997800061003E-2</v>
       </c>
       <c r="K157" s="5">
-        <v>-1.60381037621616</v>
+        <v>1.845225121424E-2</v>
       </c>
       <c r="L157" s="5">
-        <v>-3.1229533203859199</v>
+        <v>0.14781775199834701</v>
       </c>
       <c r="M157" s="5">
-        <v>-0.50492397686134904</v>
+        <v>2.7685332001348002E-2</v>
       </c>
       <c r="N157" s="5">
-        <v>6.8534219397148499</v>
+        <v>0.18484711948041399</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="R157" s="5">
-        <v>8.1813598951561897</v>
+        <v>5.4569997787475604</v>
       </c>
       <c r="S157" s="5">
-        <v>7.6542310714721697</v>
+        <v>5.4200000762939498</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11155,53 +11152,55 @@
         <v>368</v>
       </c>
       <c r="C158" s="5">
-        <v>3737283.25</v>
+        <v>3672696.75</v>
       </c>
       <c r="D158" s="5">
-        <v>3342680320</v>
+        <v>4228508416</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F158" s="5"/>
+        <v>252</v>
+      </c>
+      <c r="F158" s="5">
+        <v>4.5378313064575204</v>
+      </c>
       <c r="G158" s="6" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H158" s="5">
-        <v>-9.2288223600409999E-3</v>
+        <v>0.14314488459621399</v>
       </c>
       <c r="I158" s="5">
-        <v>3.6914721448333E-2</v>
+        <v>0.488367456420646</v>
       </c>
       <c r="J158" s="5">
-        <v>-6.4539642860129004E-2</v>
+        <v>0.84567067409067098</v>
       </c>
       <c r="K158" s="5">
-        <v>4.6152063964655002E-2</v>
+        <v>2.05193092753046</v>
       </c>
       <c r="L158" s="5">
-        <v>0.101585514367164</v>
+        <v>4.3840921654117997</v>
       </c>
       <c r="M158" s="5">
-        <v>1.8453954611197001E-2</v>
+        <v>4.21188991890007</v>
       </c>
       <c r="N158" s="5">
-        <v>0.120076984578077</v>
+        <v>9.0866379595787592</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q158" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R158" s="5">
-        <v>5.4569997787475604</v>
+        <v>105.279998779297</v>
       </c>
       <c r="S158" s="5">
-        <v>5.4194998741149902</v>
+        <v>104.94000244140599</v>
       </c>
     </row>
     <row r="159" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11212,158 +11211,158 @@
         <v>370</v>
       </c>
       <c r="C159" s="5">
-        <v>3660406.5</v>
+        <v>3640847.25</v>
       </c>
       <c r="D159" s="5">
-        <v>1213724544</v>
+        <v>326725024</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="F159" s="5">
-        <v>1.02106380462647</v>
+        <v>0.57354044914245605</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="H159" s="5">
-        <v>0.19633528307481099</v>
+        <v>-0.426666259765629</v>
       </c>
       <c r="I159" s="5">
-        <v>0.69676610406941297</v>
+        <v>-0.32033885429139097</v>
       </c>
       <c r="J159" s="5">
-        <v>-0.51523932156333196</v>
+        <v>-1.89175300768222</v>
       </c>
       <c r="K159" s="5">
-        <v>1.8000906573356199</v>
+        <v>-1.7354166777317E-2</v>
       </c>
       <c r="L159" s="5">
-        <v>5.1650842880204104</v>
+        <v>-4.5205385383272496</v>
       </c>
       <c r="M159" s="5">
-        <v>5.9601601540248303</v>
+        <v>-9.1135756140118307</v>
       </c>
       <c r="N159" s="5">
-        <v>10.209724175178801</v>
+        <v>-14.690070895098</v>
       </c>
       <c r="O159" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="Q159" s="6" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="R159" s="5">
-        <v>7.8706742184162097</v>
+        <v>22.090000152587901</v>
       </c>
       <c r="S159" s="5">
-        <v>7.7722153663635298</v>
+        <v>18.670000076293899</v>
       </c>
     </row>
     <row r="160" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A160" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="C160" s="5">
-        <v>3650595</v>
+        <v>3609233.5</v>
       </c>
       <c r="D160" s="5">
-        <v>5930317824</v>
+        <v>1468014080</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="F160" s="5">
-        <v>3.2229061126709002</v>
+        <v>2.6299695968627899</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>374</v>
+        <v>194</v>
       </c>
       <c r="H160" s="5">
-        <v>0.17217623370635601</v>
+        <v>0.46524741797644398</v>
       </c>
       <c r="I160" s="5">
-        <v>0.89972124766268802</v>
+        <v>0.94091111572580699</v>
       </c>
       <c r="J160" s="5">
-        <v>0.33975292675840801</v>
+        <v>0.50011341513396301</v>
       </c>
       <c r="K160" s="5">
-        <v>-1.0268317336831601</v>
+        <v>-2.7923948143496302</v>
       </c>
       <c r="L160" s="5">
-        <v>0.70555863061230195</v>
+        <v>1.6812364852786501</v>
       </c>
       <c r="M160" s="5">
-        <v>1.9175955832983999E-2</v>
+        <v>2.1334219345676901</v>
       </c>
       <c r="N160" s="5">
-        <v>7.8388518518196699</v>
+        <v>6.4005828726019702</v>
       </c>
       <c r="O160" s="6" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="R160" s="5">
-        <v>126.72209060897799</v>
+        <v>16.3317835239903</v>
       </c>
       <c r="S160" s="5">
-        <v>123.64410400390599</v>
+        <v>15.677187919616699</v>
       </c>
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A161" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C161" s="5">
-        <v>3640847.25</v>
+        <v>3545562.5</v>
       </c>
       <c r="D161" s="5">
-        <v>326725024</v>
+        <v>490092512</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F161" s="5">
-        <v>0.57354044914245605</v>
+        <v>5.0191798210143999</v>
       </c>
       <c r="G161" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>-0.426666259765629</v>
+        <v>-0.17516535923974799</v>
       </c>
       <c r="I161" s="5">
-        <v>-0.32033885429139097</v>
+        <v>0.30788633175380398</v>
       </c>
       <c r="J161" s="5">
-        <v>-1.89175300768222</v>
+        <v>1.1545409509258</v>
       </c>
       <c r="K161" s="5">
-        <v>-1.7354166777317E-2</v>
+        <v>1.3966624774201899</v>
       </c>
       <c r="L161" s="5">
-        <v>-4.5205385383272496</v>
+        <v>4.2164190622955697</v>
       </c>
       <c r="M161" s="5">
-        <v>-9.1135756140118307</v>
+        <v>1.95092339493224</v>
       </c>
       <c r="N161" s="5">
-        <v>-14.690070895098</v>
+        <v>7.0372823052349904</v>
       </c>
       <c r="O161" s="6" t="s">
         <v>23</v>
@@ -11375,128 +11374,128 @@
         <v>25</v>
       </c>
       <c r="R161" s="5">
-        <v>22.090000152587901</v>
+        <v>46.7299995422363</v>
       </c>
       <c r="S161" s="5">
-        <v>18.670000076293899</v>
+        <v>45.590000152587898</v>
       </c>
     </row>
     <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A162" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="5">
+        <v>3545430.5</v>
+      </c>
+      <c r="D162" s="5">
+        <v>5924506624</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F162" s="5">
+        <v>3.2188818454742401</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C162" s="5">
-        <v>3611540.5</v>
-      </c>
-      <c r="D162" s="5">
-        <v>1459546240</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F162" s="5">
-        <v>2.6299693584442099</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="H162" s="5">
-        <v>0.46524741797644398</v>
+        <v>-3.4977638586808003E-2</v>
       </c>
       <c r="I162" s="5">
-        <v>0.94091111572580699</v>
+        <v>0.89007081751546502</v>
       </c>
       <c r="J162" s="5">
-        <v>0.50011341513396301</v>
+        <v>1.2017808647782</v>
       </c>
       <c r="K162" s="5">
-        <v>-2.7923948143496302</v>
+        <v>-1.46671180835521</v>
       </c>
       <c r="L162" s="5">
-        <v>1.6812364852786501</v>
+        <v>2.3026400940018901</v>
       </c>
       <c r="M162" s="5">
-        <v>2.19870988413235</v>
+        <v>7.6835042034751E-2</v>
       </c>
       <c r="N162" s="5">
-        <v>6.4005828726019702</v>
+        <v>7.9337865349194301</v>
       </c>
       <c r="O162" s="6" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="Q162" s="6" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="R162" s="5">
-        <v>16.3317835239903</v>
+        <v>126.72209060897799</v>
       </c>
       <c r="S162" s="5">
-        <v>15.677187919616699</v>
+        <v>123.60085296630901</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A163" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="C163" s="5">
+        <v>3531482.5</v>
+      </c>
+      <c r="D163" s="5">
+        <v>1212813056</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F163" s="5">
+        <v>1.02079057693481</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C163" s="5">
-        <v>3545562.5</v>
-      </c>
-      <c r="D163" s="5">
-        <v>490092512</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F163" s="5">
-        <v>5.0191798210143999</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="H163" s="5">
-        <v>-0.17516535923974799</v>
+        <v>-0.27603427941256298</v>
       </c>
       <c r="I163" s="5">
-        <v>0.30788633175380398</v>
+        <v>0.58672249099560603</v>
       </c>
       <c r="J163" s="5">
-        <v>1.1545409509258</v>
+        <v>0.34169776794152901</v>
       </c>
       <c r="K163" s="5">
-        <v>1.3966624774201899</v>
+        <v>0.75625174996176703</v>
       </c>
       <c r="L163" s="5">
-        <v>4.2164190622955697</v>
+        <v>6.3621871204293798</v>
       </c>
       <c r="M163" s="5">
-        <v>1.95092339493224</v>
+        <v>5.8128184531061899</v>
       </c>
       <c r="N163" s="5">
-        <v>7.0372823052349904</v>
+        <v>10.281847634177399</v>
       </c>
       <c r="O163" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="Q163" s="6" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="R163" s="5">
-        <v>46.7299995422363</v>
+        <v>7.8706742184162097</v>
       </c>
       <c r="S163" s="5">
-        <v>45.590000152587898</v>
+        <v>7.7507610321044904</v>
       </c>
     </row>
     <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11625,10 +11624,10 @@
         <v>386</v>
       </c>
       <c r="C166" s="5">
-        <v>3471420.5</v>
+        <v>3471420.25</v>
       </c>
       <c r="D166" s="5">
-        <v>413658496</v>
+        <v>418715456</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>56</v>
@@ -11741,13 +11740,13 @@
         <v>389</v>
       </c>
       <c r="C168" s="5">
-        <v>3433214.5</v>
+        <v>3431021.25</v>
       </c>
       <c r="D168" s="5">
-        <v>1239471488</v>
+        <v>1238679680</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="6" t="s">
@@ -11769,7 +11768,7 @@
         <v>2.4426505205958899</v>
       </c>
       <c r="M168" s="5">
-        <v>-4.2841341041055997E-2</v>
+        <v>-0.1066973128097</v>
       </c>
       <c r="N168" s="5">
         <v>2.9456873190945201</v>
@@ -11798,16 +11797,16 @@
         <v>391</v>
       </c>
       <c r="C169" s="5">
-        <v>3427877</v>
+        <v>3425687.25</v>
       </c>
       <c r="D169" s="5">
-        <v>341181504</v>
+        <v>340963552</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F169" s="5">
-        <v>1.8435754776001001</v>
+        <v>1.8435753583908101</v>
       </c>
       <c r="G169" s="6" t="s">
         <v>194</v>
@@ -11828,7 +11827,7 @@
         <v>1.16678654647442</v>
       </c>
       <c r="M169" s="5">
-        <v>1.5747052416341201</v>
+        <v>1.50981592707837</v>
       </c>
       <c r="N169" s="5">
         <v>4.5997946774962699</v>
@@ -11975,114 +11974,114 @@
         <v>395</v>
       </c>
       <c r="C172" s="5">
-        <v>3395187</v>
+        <v>3396724.25</v>
       </c>
       <c r="D172" s="5">
-        <v>1848312192</v>
+        <v>10954265600</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="F172" s="5">
-        <v>2.8461115360260001</v>
+        <v>0.70904588699340798</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="H172" s="5">
-        <v>-1.9259715638564E-2</v>
+        <v>-0.17822575457454601</v>
       </c>
       <c r="I172" s="5">
-        <v>1.0695945231727499</v>
+        <v>0.42956947404915202</v>
       </c>
       <c r="J172" s="5">
-        <v>-0.36104475043038398</v>
+        <v>0.47720163703666202</v>
       </c>
       <c r="K172" s="5">
-        <v>2.6780325837654702</v>
+        <v>-1.66467173142151</v>
       </c>
       <c r="L172" s="5">
-        <v>3.5580035076297598</v>
+        <v>0.68204193019190096</v>
       </c>
       <c r="M172" s="5">
-        <v>-6.2795410642603304</v>
+        <v>-2.8123515308271401</v>
       </c>
       <c r="N172" s="5">
-        <v>-5.6472313761397599</v>
+        <v>2.4444308414245599</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>23</v>
+        <v>396</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="Q172" s="6" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="R172" s="5">
-        <v>15.807668792609499</v>
+        <v>168.49770675659201</v>
       </c>
       <c r="S172" s="5">
-        <v>14.486615180969199</v>
+        <v>160.69180297851599</v>
       </c>
     </row>
     <row r="173" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A173" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C173" s="5">
-        <v>3380212.75</v>
+        <v>3393018</v>
       </c>
       <c r="D173" s="5">
-        <v>2010190848</v>
+        <v>1847131520</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="F173" s="5">
-        <v>0.83980244398117099</v>
+        <v>2.8461115360260001</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="H173" s="5">
-        <v>-0.18942112607544001</v>
+        <v>-1.9259715638564E-2</v>
       </c>
       <c r="I173" s="5">
-        <v>8.6343793425979996E-3</v>
+        <v>1.0695945231727499</v>
       </c>
       <c r="J173" s="5">
-        <v>-1.6793590493663799</v>
+        <v>-0.36104475043038398</v>
       </c>
       <c r="K173" s="5">
-        <v>1.7614849356989699</v>
+        <v>2.6780325837654702</v>
       </c>
       <c r="L173" s="5">
-        <v>2.3329719083118299</v>
+        <v>3.5580035076297598</v>
       </c>
       <c r="M173" s="5">
-        <v>-2.0931387757389701</v>
+        <v>-6.3394128239245298</v>
       </c>
       <c r="N173" s="5">
-        <v>1.5446143653517399</v>
+        <v>-5.6472313761397599</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>398</v>
+        <v>23</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="Q173" s="6" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="R173" s="5">
-        <v>20.245850000000001</v>
+        <v>15.807668792609499</v>
       </c>
       <c r="S173" s="5">
-        <v>19.659458160400401</v>
+        <v>14.486615180969199</v>
       </c>
     </row>
     <row r="174" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12093,55 +12092,55 @@
         <v>400</v>
       </c>
       <c r="C174" s="5">
-        <v>3372808.75</v>
+        <v>3341732.5</v>
       </c>
       <c r="D174" s="5">
-        <v>10934673408</v>
+        <v>2026141312</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F174" s="5">
-        <v>0.708914995193481</v>
+        <v>0.83751213550567605</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H174" s="5">
-        <v>0.12565798150736601</v>
+        <v>-3.0088117894589001E-2</v>
       </c>
       <c r="I174" s="5">
-        <v>0.58330996713147298</v>
+        <v>0.14572146012932199</v>
       </c>
       <c r="J174" s="5">
-        <v>-0.38850128994804001</v>
+        <v>-0.429153471512222</v>
       </c>
       <c r="K174" s="5">
-        <v>-1.0016760470461199</v>
+        <v>0.78592232127752104</v>
       </c>
       <c r="L174" s="5">
-        <v>-0.67273098604466697</v>
+        <v>2.9166907403047602</v>
       </c>
       <c r="M174" s="5">
-        <v>-2.7289583283296701</v>
+        <v>-1.98815312664454</v>
       </c>
       <c r="N174" s="5">
-        <v>2.5142488360902799</v>
+        <v>1.9907361881239301</v>
       </c>
       <c r="O174" s="6" t="s">
         <v>401</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q174" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R174" s="5">
-        <v>168.49770675659201</v>
+        <v>20.245850000000001</v>
       </c>
       <c r="S174" s="5">
-        <v>160.97871398925801</v>
+        <v>19.65354347229</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12149,7 +12148,7 @@
         <v>402</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C175" s="5">
         <v>3338591.5</v>
@@ -12208,117 +12207,117 @@
         <v>403</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="C176" s="5">
-        <v>3317572.25</v>
+        <v>3315728.25</v>
       </c>
       <c r="D176" s="5">
-        <v>1439655808</v>
+        <v>1174583936</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F176" s="5">
-        <v>3.9648902416229199</v>
+        <v>1.81269490718842</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="H176" s="5">
-        <v>5.0257023992573001E-2</v>
+        <v>-7.4178601981323006E-2</v>
       </c>
       <c r="I176" s="5">
-        <v>0.33233034289730201</v>
+        <v>5.8153414786366001E-2</v>
       </c>
       <c r="J176" s="5">
-        <v>1.0315533340421901</v>
+        <v>-0.32995375016309197</v>
       </c>
       <c r="K176" s="5">
-        <v>-2.76471260639092</v>
+        <v>0.31320535568373198</v>
       </c>
       <c r="L176" s="5">
-        <v>10.340557958667</v>
+        <v>0.90453399325103301</v>
       </c>
       <c r="M176" s="5">
-        <v>22.803812699795799</v>
+        <v>-0.30454283811536298</v>
       </c>
       <c r="N176" s="5">
-        <v>37.016332066012602</v>
+        <v>0.895012267282014</v>
       </c>
       <c r="O176" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="Q176" s="6" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="R176" s="5">
-        <v>8.0009946260925897</v>
+        <v>27.409999847412099</v>
       </c>
       <c r="S176" s="5">
-        <v>7.6468234062194798</v>
+        <v>26.940000534057599</v>
       </c>
     </row>
     <row r="177" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A177" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="C177" s="5">
-        <v>3315728.25</v>
+        <v>3315453</v>
       </c>
       <c r="D177" s="5">
-        <v>1174583936</v>
+        <v>1438736128</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F177" s="5">
-        <v>1.81269490718842</v>
+        <v>3.9648902416229199</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="H177" s="5">
-        <v>-7.4178601981323006E-2</v>
+        <v>5.0257023992573001E-2</v>
       </c>
       <c r="I177" s="5">
-        <v>5.8153414786366001E-2</v>
+        <v>0.33233034289730201</v>
       </c>
       <c r="J177" s="5">
-        <v>-0.32995375016309197</v>
+        <v>1.0315533340421901</v>
       </c>
       <c r="K177" s="5">
-        <v>0.31320535568373198</v>
+        <v>-2.76471260639092</v>
       </c>
       <c r="L177" s="5">
-        <v>0.90453399325103301</v>
+        <v>10.340557958667</v>
       </c>
       <c r="M177" s="5">
-        <v>-0.30454283811536298</v>
+        <v>22.7253615222909</v>
       </c>
       <c r="N177" s="5">
-        <v>0.895012267282014</v>
+        <v>37.016332066012602</v>
       </c>
       <c r="O177" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="Q177" s="6" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="R177" s="5">
-        <v>27.409999847412099</v>
+        <v>8.0009946260925897</v>
       </c>
       <c r="S177" s="5">
-        <v>26.940000534057599</v>
+        <v>7.6468234062194798</v>
       </c>
     </row>
     <row r="178" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12338,7 +12337,7 @@
         <v>89</v>
       </c>
       <c r="F178" s="5">
-        <v>1.6650974750518801</v>
+        <v>1.6650975942611701</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>0</v>
@@ -12388,53 +12387,55 @@
         <v>408</v>
       </c>
       <c r="C179" s="5">
-        <v>3247064</v>
+        <v>3141832.25</v>
       </c>
       <c r="D179" s="5">
-        <v>3748085760</v>
+        <v>669863232</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F179" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="F179" s="5">
+        <v>1.4809590578079199</v>
+      </c>
       <c r="G179" s="6" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H179" s="5">
-        <v>0</v>
+        <v>-5.2861285104621999E-2</v>
       </c>
       <c r="I179" s="5">
-        <v>0</v>
+        <v>-7.0493921856662006E-2</v>
       </c>
       <c r="J179" s="5">
-        <v>0</v>
+        <v>-0.33321004137274501</v>
       </c>
       <c r="K179" s="5">
-        <v>-2.6084512925505999E-2</v>
+        <v>0.51182670182632295</v>
       </c>
       <c r="L179" s="5">
-        <v>9.0504843826422002E-2</v>
+        <v>1.94054970312148</v>
       </c>
       <c r="M179" s="5">
-        <v>3.2176193697553E-2</v>
+        <v>1.0491674532528501</v>
       </c>
       <c r="N179" s="5">
-        <v>5.1611521928385001E-2</v>
+        <v>2.6070561359418498</v>
       </c>
       <c r="O179" s="6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="Q179" s="6" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="R179" s="5">
-        <v>102.49356079101599</v>
+        <v>57.1299018859863</v>
       </c>
       <c r="S179" s="5">
-        <v>102.110000610352</v>
+        <v>56.720001220703097</v>
       </c>
     </row>
     <row r="180" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12442,176 +12443,174 @@
         <v>409</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="C180" s="5">
-        <v>3177497.25</v>
+        <v>3123615.5</v>
       </c>
       <c r="D180" s="5">
-        <v>1366183168</v>
+        <v>1455495936</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="F180" s="5">
-        <v>0.23767562210559801</v>
+        <v>1.69062304496765</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="H180" s="5">
-        <v>-0.47849379284168297</v>
+        <v>0</v>
       </c>
       <c r="I180" s="5">
-        <v>-1.98754201325661</v>
+        <v>8.3958988326093997E-2</v>
       </c>
       <c r="J180" s="5">
-        <v>-1.2846020906597899</v>
+        <v>-0.105712645333167</v>
       </c>
       <c r="K180" s="5">
-        <v>4.3431942372131704</v>
+        <v>0.10264698649484801</v>
       </c>
       <c r="L180" s="5">
-        <v>10.582551802972</v>
+        <v>0.57461064788026905</v>
       </c>
       <c r="M180" s="5">
-        <v>4.8291403320925896</v>
+        <v>0.27744915370013801</v>
       </c>
       <c r="N180" s="5">
-        <v>10.7480233830307</v>
+        <v>1.19152814294641</v>
       </c>
       <c r="O180" s="6" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="Q180" s="6" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="R180" s="5">
-        <v>29.902305605888401</v>
+        <v>26.659999847412099</v>
       </c>
       <c r="S180" s="5">
-        <v>29.128463745117202</v>
+        <v>26.319999694824201</v>
       </c>
     </row>
     <row r="181" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A181" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="C181" s="5">
-        <v>3141832.25</v>
+        <v>3116687.5</v>
       </c>
       <c r="D181" s="5">
-        <v>669863232</v>
+        <v>1428634496</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F181" s="5">
-        <v>1.4809590578079199</v>
+        <v>2.9640059471130402</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="H181" s="5">
-        <v>-5.2861285104621999E-2</v>
+        <v>0.31162732227678602</v>
       </c>
       <c r="I181" s="5">
-        <v>-7.0493921856662006E-2</v>
+        <v>1.0859318173805701</v>
       </c>
       <c r="J181" s="5">
-        <v>-0.33321004137274501</v>
+        <v>0.62836751979142802</v>
       </c>
       <c r="K181" s="5">
-        <v>0.51182670182632295</v>
+        <v>-1.97802752133562</v>
       </c>
       <c r="L181" s="5">
-        <v>1.94054970312148</v>
+        <v>2.7039084366347499</v>
       </c>
       <c r="M181" s="5">
-        <v>1.0491674532528501</v>
+        <v>4.1372393316185097</v>
       </c>
       <c r="N181" s="5">
-        <v>2.6070561359418498</v>
+        <v>11.262797509932399</v>
       </c>
       <c r="O181" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="Q181" s="6" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="R181" s="5">
-        <v>57.1299018859863</v>
+        <v>16.6805049423679</v>
       </c>
       <c r="S181" s="5">
-        <v>56.720001220703097</v>
+        <v>16.1166591644287</v>
       </c>
     </row>
     <row r="182" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A182" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="C182" s="5">
-        <v>3123615.5</v>
+        <v>3093638.75</v>
       </c>
       <c r="D182" s="5">
-        <v>1455495936</v>
+        <v>3743596800</v>
       </c>
       <c r="E182" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F182" s="5"/>
+      <c r="G182" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F182" s="5">
-        <v>1.69062304496765</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="H182" s="5">
         <v>0</v>
       </c>
       <c r="I182" s="5">
-        <v>8.3958988326093997E-2</v>
+        <v>0</v>
       </c>
       <c r="J182" s="5">
-        <v>-0.105712645333167</v>
+        <v>9.7964117335540002E-3</v>
       </c>
       <c r="K182" s="5">
-        <v>0.10264698649484801</v>
+        <v>3.033618772452E-3</v>
       </c>
       <c r="L182" s="5">
-        <v>0.57461064788026905</v>
+        <v>3.2176193697553E-2</v>
       </c>
       <c r="M182" s="5">
-        <v>0.27744915370013801</v>
+        <v>3.2176193697553E-2</v>
       </c>
       <c r="N182" s="5">
-        <v>1.19152814294641</v>
+        <v>5.1611521928385001E-2</v>
       </c>
       <c r="O182" s="6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="Q182" s="6" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="R182" s="5">
-        <v>26.659999847412099</v>
+        <v>102.49356079101599</v>
       </c>
       <c r="S182" s="5">
-        <v>26.319999694824201</v>
+        <v>102.110000610352</v>
       </c>
     </row>
     <row r="183" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12619,220 +12618,220 @@
         <v>414</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="C183" s="5">
-        <v>3118679.75</v>
+        <v>3080100.75</v>
       </c>
       <c r="D183" s="5">
-        <v>1427936128</v>
+        <v>814320000</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F183" s="5">
-        <v>2.9640059471130402</v>
+        <v>1.9076293706893901</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="H183" s="5">
-        <v>0.31162732227678602</v>
+        <v>-0.28653267724730902</v>
       </c>
       <c r="I183" s="5">
-        <v>1.0859318173805701</v>
+        <v>-0.16400645793383001</v>
       </c>
       <c r="J183" s="5">
-        <v>0.62836751979142802</v>
+        <v>-0.767998464084652</v>
       </c>
       <c r="K183" s="5">
-        <v>-1.97802752133562</v>
+        <v>2.9285698117063501</v>
       </c>
       <c r="L183" s="5">
-        <v>2.7039084366347499</v>
+        <v>3.4881666453964</v>
       </c>
       <c r="M183" s="5">
-        <v>4.2038082049657701</v>
+        <v>-0.475232469934461</v>
       </c>
       <c r="N183" s="5">
-        <v>11.262797509932399</v>
+        <v>1.2931724265525799</v>
       </c>
       <c r="O183" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="R183" s="5">
-        <v>16.6805049423679</v>
+        <v>28.3922004699707</v>
       </c>
       <c r="S183" s="5">
-        <v>16.1166591644287</v>
+        <v>27.840000152587901</v>
       </c>
     </row>
     <row r="184" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A184" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="C184" s="5">
-        <v>3110733.25</v>
+        <v>3070852.25</v>
       </c>
       <c r="D184" s="5">
-        <v>3465690112</v>
+        <v>1375287040</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="F184" s="5">
-        <v>0.50472646951675404</v>
+        <v>0.23571090400219</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H184" s="5">
-        <v>0.21790388664395499</v>
+        <v>0.52828164895972796</v>
       </c>
       <c r="I184" s="5">
-        <v>0.72692173732673604</v>
+        <v>-1.30500414949659</v>
       </c>
       <c r="J184" s="5">
-        <v>-0.48349921112704802</v>
+        <v>-0.83075473012643697</v>
       </c>
       <c r="K184" s="5">
-        <v>1.6626258510472001</v>
+        <v>4.2445649097868001</v>
       </c>
       <c r="L184" s="5">
-        <v>5.13624734513873</v>
+        <v>10.8473897656385</v>
       </c>
       <c r="M184" s="5">
-        <v>5.8177776861968002</v>
+        <v>5.5276869887375097</v>
       </c>
       <c r="N184" s="5">
-        <v>10.112026540477601</v>
+        <v>11.757015869486001</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="P184" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q184" s="6" t="s">
-        <v>418</v>
+        <v>255</v>
       </c>
       <c r="R184" s="5">
-        <v>163.75359298324599</v>
+        <v>29.902305605888401</v>
       </c>
       <c r="S184" s="5">
-        <v>162.18011474609401</v>
+        <v>29.282344818115199</v>
       </c>
     </row>
     <row r="185" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A185" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="C185" s="5">
-        <v>3080100.75</v>
+        <v>3067286</v>
       </c>
       <c r="D185" s="5">
-        <v>814320000</v>
+        <v>1046660992</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F185" s="5">
-        <v>1.9076292514801001</v>
+        <v>6.3959393501281703</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H185" s="5">
-        <v>-0.28653267724730902</v>
+        <v>-4.6126516333344997E-2</v>
       </c>
       <c r="I185" s="5">
-        <v>-0.16400645793383001</v>
+        <v>0.67459197858574804</v>
       </c>
       <c r="J185" s="5">
-        <v>-0.767998464084652</v>
+        <v>1.1419701678343099</v>
       </c>
       <c r="K185" s="5">
-        <v>2.9285698117063501</v>
+        <v>4.2008321890306197</v>
       </c>
       <c r="L185" s="5">
-        <v>3.4881666453964</v>
+        <v>9.63973445564603</v>
       </c>
       <c r="M185" s="5">
-        <v>-0.475232469934461</v>
+        <v>8.2786562694391801</v>
       </c>
       <c r="N185" s="5">
-        <v>1.2931724265525799</v>
+        <v>18.079557452692299</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P185" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q185" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R185" s="5">
-        <v>28.3922004699707</v>
+        <v>21.75</v>
       </c>
       <c r="S185" s="5">
-        <v>27.840000152587901</v>
+        <v>21.670000076293899</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A186" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>421</v>
+        <v>269</v>
       </c>
       <c r="C186" s="5">
-        <v>3067286</v>
+        <v>3066392</v>
       </c>
       <c r="D186" s="5">
-        <v>1045577536</v>
+        <v>772124992</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F186" s="5">
-        <v>6.3959393501281703</v>
+        <v>1.2054760456085201</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H186" s="5">
-        <v>-4.6126516333344997E-2</v>
+        <v>1.8779716788120002E-2</v>
       </c>
       <c r="I186" s="5">
-        <v>0.67459197858574804</v>
+        <v>0.17578453401812</v>
       </c>
       <c r="J186" s="5">
-        <v>1.1419701678343099</v>
+        <v>-0.1432486124199</v>
       </c>
       <c r="K186" s="5">
-        <v>4.2008321890306197</v>
+        <v>0.527780700410729</v>
       </c>
       <c r="L186" s="5">
-        <v>9.63973445564603</v>
+        <v>0.37669390373704598</v>
       </c>
       <c r="M186" s="5">
-        <v>8.2786562694391801</v>
+        <v>0.41536745942467601</v>
       </c>
       <c r="N186" s="5">
-        <v>18.079557452692299</v>
+        <v>1.2850104414671599</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>23</v>
@@ -12844,128 +12843,128 @@
         <v>25</v>
       </c>
       <c r="R186" s="5">
-        <v>21.75</v>
+        <v>53.759998321533203</v>
       </c>
       <c r="S186" s="5">
-        <v>21.670000076293899</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="187" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A187" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>269</v>
+        <v>421</v>
       </c>
       <c r="C187" s="5">
-        <v>3066392</v>
+        <v>3056507.75</v>
       </c>
       <c r="D187" s="5">
-        <v>781443712</v>
+        <v>1547785600</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F187" s="5">
-        <v>1.2054760456085201</v>
+        <v>3.46598219871521</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="H187" s="5">
-        <v>1.8779716788120002E-2</v>
+        <v>0.18301973148162601</v>
       </c>
       <c r="I187" s="5">
-        <v>0.17578453401812</v>
+        <v>0.92945708681122496</v>
       </c>
       <c r="J187" s="5">
-        <v>-0.1432486124199</v>
+        <v>-0.198823821247152</v>
       </c>
       <c r="K187" s="5">
-        <v>0.527780700410729</v>
+        <v>-1.0531030161228501</v>
       </c>
       <c r="L187" s="5">
-        <v>0.37669390373704598</v>
+        <v>3.1777531263871501</v>
       </c>
       <c r="M187" s="5">
-        <v>0.41536745942467601</v>
+        <v>1.79844502179174</v>
       </c>
       <c r="N187" s="5">
-        <v>1.2850104414671599</v>
+        <v>6.2261988072991299</v>
       </c>
       <c r="O187" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="R187" s="5">
-        <v>53.759998321533203</v>
+        <v>12.857852028671999</v>
       </c>
       <c r="S187" s="5">
-        <v>53.25</v>
+        <v>12.4490613937378</v>
       </c>
     </row>
     <row r="188" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A188" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="5">
+        <v>2975556.25</v>
+      </c>
+      <c r="D188" s="5">
+        <v>3463347456</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F188" s="5">
+        <v>0.50470483303070102</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H188" s="5">
+        <v>-0.29845463515264498</v>
+      </c>
+      <c r="I188" s="5">
+        <v>0.59422407291946899</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0.28668889468441699</v>
+      </c>
+      <c r="K188" s="5">
+        <v>0.70810806354379996</v>
+      </c>
+      <c r="L188" s="5">
+        <v>6.4088500985178998</v>
+      </c>
+      <c r="M188" s="5">
+        <v>5.6468766632364398</v>
+      </c>
+      <c r="N188" s="5">
+        <v>10.1858716547212</v>
+      </c>
+      <c r="O188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P188" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q188" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C188" s="5">
-        <v>3058461.75</v>
-      </c>
-      <c r="D188" s="5">
-        <v>1548775040</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F188" s="5">
-        <v>3.46598219871521</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H188" s="5">
-        <v>0.18301973148162601</v>
-      </c>
-      <c r="I188" s="5">
-        <v>0.92945708681122496</v>
-      </c>
-      <c r="J188" s="5">
-        <v>-0.198823821247152</v>
-      </c>
-      <c r="K188" s="5">
-        <v>-1.0531030161228501</v>
-      </c>
-      <c r="L188" s="5">
-        <v>3.1777531263871501</v>
-      </c>
-      <c r="M188" s="5">
-        <v>1.8635188401212801</v>
-      </c>
-      <c r="N188" s="5">
-        <v>6.2261988072991299</v>
-      </c>
-      <c r="O188" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P188" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q188" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="R188" s="5">
-        <v>12.857852028671999</v>
+        <v>163.75359298324599</v>
       </c>
       <c r="S188" s="5">
-        <v>12.4490613937378</v>
+        <v>161.69607543945301</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12979,7 +12978,7 @@
         <v>2795981.5</v>
       </c>
       <c r="D189" s="5">
-        <v>668780032</v>
+        <v>674400000</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>35</v>
@@ -13035,55 +13034,55 @@
         <v>427</v>
       </c>
       <c r="C190" s="5">
-        <v>2688102</v>
+        <v>2793727</v>
       </c>
       <c r="D190" s="5">
-        <v>1664278656</v>
+        <v>1659443712</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F190" s="5">
-        <v>0.25214490294456499</v>
+        <v>0.25202217698097201</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H190" s="5">
-        <v>0.27734083443258201</v>
+        <v>-0.25416325778264698</v>
       </c>
       <c r="I190" s="5">
-        <v>0.69298987532226997</v>
+        <v>0.60500979936328703</v>
       </c>
       <c r="J190" s="5">
-        <v>-0.46559190384190002</v>
+        <v>-0.15545958178063701</v>
       </c>
       <c r="K190" s="5">
-        <v>-1.5668492964523799</v>
+        <v>-2.3151510601633101</v>
       </c>
       <c r="L190" s="5">
-        <v>-0.631541805359637</v>
+        <v>0.15136356673155499</v>
       </c>
       <c r="M190" s="5">
-        <v>0.90235290664817402</v>
+        <v>0.78414297078315298</v>
       </c>
       <c r="N190" s="5">
-        <v>3.9314202430149399</v>
+        <v>3.82345208440988</v>
       </c>
       <c r="O190" s="6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R190" s="5">
         <v>190.83588865356401</v>
       </c>
       <c r="S190" s="5">
-        <v>185.15547180175801</v>
+        <v>184.68487548828099</v>
       </c>
     </row>
     <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13094,10 +13093,10 @@
         <v>429</v>
       </c>
       <c r="C191" s="5">
-        <v>2661188.25</v>
+        <v>2622951.75</v>
       </c>
       <c r="D191" s="5">
-        <v>1607284224</v>
+        <v>1608072832</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>48</v>
@@ -13107,40 +13106,40 @@
         <v>70</v>
       </c>
       <c r="H191" s="5">
-        <v>-0.14696768867672499</v>
+        <v>4.9063933143301E-2</v>
       </c>
       <c r="I191" s="5">
-        <v>0.74134428639514005</v>
+        <v>0.79077195220347296</v>
       </c>
       <c r="J191" s="5">
-        <v>0.80777755522931605</v>
+        <v>1.3753137564876701</v>
       </c>
       <c r="K191" s="5">
-        <v>2.5490517353538502</v>
+        <v>2.0006649326266701</v>
       </c>
       <c r="L191" s="5">
-        <v>4.9244972387136201</v>
+        <v>6.3630073835152103</v>
       </c>
       <c r="M191" s="5">
-        <v>8.1827127569699995E-2</v>
+        <v>0.13093120832015101</v>
       </c>
       <c r="N191" s="5">
-        <v>3.0154970473207801</v>
+        <v>3.6597777350655001</v>
       </c>
       <c r="O191" s="6" t="s">
         <v>70</v>
       </c>
       <c r="P191" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q191" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R191" s="5">
         <v>6.1500000953674299</v>
       </c>
       <c r="S191" s="5">
-        <v>6.1149997711181596</v>
+        <v>6.1180000305175799</v>
       </c>
     </row>
     <row r="192" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13151,53 +13150,53 @@
         <v>431</v>
       </c>
       <c r="C192" s="5">
-        <v>2597825.75</v>
+        <v>2572539.75</v>
       </c>
       <c r="D192" s="5">
-        <v>1615462656</v>
+        <v>1621640576</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H192" s="5">
-        <v>-1.5978388258375002E-2</v>
+        <v>0.20776748453728</v>
       </c>
       <c r="I192" s="5">
-        <v>0.40115686573216602</v>
+        <v>0.60975782379841803</v>
       </c>
       <c r="J192" s="5">
-        <v>0.91935745114226597</v>
+        <v>0.90118689782907602</v>
       </c>
       <c r="K192" s="5">
-        <v>1.9719656127058101</v>
+        <v>2.1838302005925398</v>
       </c>
       <c r="L192" s="5">
-        <v>3.50702879260258</v>
+        <v>4.3087642286625796</v>
       </c>
       <c r="M192" s="5">
-        <v>3.8506202563112399</v>
+        <v>4.0663880776941497</v>
       </c>
       <c r="N192" s="5">
-        <v>8.5907649835026891</v>
+        <v>8.9487377279683393</v>
       </c>
       <c r="O192" s="6" t="s">
         <v>70</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q192" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R192" s="5">
         <v>6.2979998588562003</v>
       </c>
       <c r="S192" s="5">
-        <v>6.2569999694824201</v>
+        <v>6.2699999809265101</v>
       </c>
     </row>
     <row r="193" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13208,10 +13207,10 @@
         <v>433</v>
       </c>
       <c r="C193" s="5">
-        <v>2544996</v>
+        <v>2543370.5</v>
       </c>
       <c r="D193" s="5">
-        <v>1046950784</v>
+        <v>1048208896</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>308</v>
@@ -13238,7 +13237,7 @@
         <v>1.4514298916305901</v>
       </c>
       <c r="M193" s="5">
-        <v>1.91766025526992</v>
+        <v>1.8525518495959199</v>
       </c>
       <c r="N193" s="5">
         <v>5.45641288884533</v>
@@ -13267,10 +13266,10 @@
         <v>435</v>
       </c>
       <c r="C194" s="5">
-        <v>2442213.75</v>
+        <v>2440653.5</v>
       </c>
       <c r="D194" s="5">
-        <v>551771520</v>
+        <v>551419072</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>28</v>
@@ -13297,7 +13296,7 @@
         <v>1.0526443617167001</v>
       </c>
       <c r="M194" s="5">
-        <v>2.2459882527235102</v>
+        <v>2.1806701001577702</v>
       </c>
       <c r="N194" s="5">
         <v>5.3479272454703999</v>
@@ -13382,117 +13381,117 @@
         <v>438</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>439</v>
+        <v>280</v>
       </c>
       <c r="C196" s="5">
-        <v>2388390</v>
+        <v>2386490</v>
       </c>
       <c r="D196" s="5">
-        <v>1807983616</v>
+        <v>547638016</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F196" s="5">
-        <v>0.59880244731903098</v>
+        <v>0.42711865901946999</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="H196" s="5">
-        <v>-5.1359203190159998E-2</v>
+        <v>4.3479256007982997E-2</v>
       </c>
       <c r="I196" s="5">
-        <v>-0.56453761415602399</v>
+        <v>0</v>
       </c>
       <c r="J196" s="5">
-        <v>-1.31573717347487</v>
+        <v>7.9100194021530998E-2</v>
       </c>
       <c r="K196" s="5">
-        <v>-0.408582776158462</v>
+        <v>0.152937479686299</v>
       </c>
       <c r="L196" s="5">
-        <v>1.4353415825820299</v>
+        <v>0.55598135059406995</v>
       </c>
       <c r="M196" s="5">
-        <v>-3.0206338155179999</v>
+        <v>0.89176119867826498</v>
       </c>
       <c r="N196" s="5">
-        <v>0.83000138538220603</v>
+        <v>2.39219631136194</v>
       </c>
       <c r="O196" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P196" s="6" t="s">
-        <v>441</v>
+        <v>24</v>
       </c>
       <c r="Q196" s="6" t="s">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="R196" s="5">
-        <v>114.92027233776</v>
+        <v>23.180000305175799</v>
       </c>
       <c r="S196" s="5">
-        <v>109.68801116943401</v>
+        <v>23.0100002288818</v>
       </c>
     </row>
     <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A197" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" s="5">
+        <v>2362058.75</v>
+      </c>
+      <c r="D197" s="5">
+        <v>1808274560</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F197" s="5">
+        <v>0.598444044589996</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H197" s="5">
+        <v>-0.12597261105539201</v>
+      </c>
+      <c r="I197" s="5">
+        <v>-8.6195018619305994E-2</v>
+      </c>
+      <c r="J197" s="5">
+        <v>-4.6975703363460998E-2</v>
+      </c>
+      <c r="K197" s="5">
+        <v>-1.35138394226971</v>
+      </c>
+      <c r="L197" s="5">
+        <v>2.6046118021433098</v>
+      </c>
+      <c r="M197" s="5">
+        <v>-3.00502670620999</v>
+      </c>
+      <c r="N197" s="5">
+        <v>1.12243844610933</v>
+      </c>
+      <c r="O197" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P197" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q197" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C197" s="5">
-        <v>2386490</v>
-      </c>
-      <c r="D197" s="5">
-        <v>547638016</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F197" s="5">
-        <v>0.42711865901946999</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H197" s="5">
-        <v>4.3479256007982997E-2</v>
-      </c>
-      <c r="I197" s="5">
-        <v>0</v>
-      </c>
-      <c r="J197" s="5">
-        <v>7.9100194021530998E-2</v>
-      </c>
-      <c r="K197" s="5">
-        <v>0.152937479686299</v>
-      </c>
-      <c r="L197" s="5">
-        <v>0.55598135059406995</v>
-      </c>
-      <c r="M197" s="5">
-        <v>0.89176119867826498</v>
-      </c>
-      <c r="N197" s="5">
-        <v>2.39219631136194</v>
-      </c>
-      <c r="O197" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P197" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q197" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R197" s="5">
-        <v>23.180000305175799</v>
+        <v>114.92027233776</v>
       </c>
       <c r="S197" s="5">
-        <v>23.0100002288818</v>
+        <v>109.54982757568401</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13503,55 +13502,55 @@
         <v>445</v>
       </c>
       <c r="C198" s="5">
-        <v>2294106</v>
+        <v>2297610.25</v>
       </c>
       <c r="D198" s="5">
-        <v>1087082496</v>
+        <v>1086754944</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F198" s="5">
-        <v>3.1141633987426798</v>
+        <v>3.11722016334534</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="H198" s="5">
-        <v>0.59033007815920702</v>
+        <v>-0.36511576597351197</v>
       </c>
       <c r="I198" s="5">
-        <v>1.78668163591722</v>
+        <v>1.5478070386557801</v>
       </c>
       <c r="J198" s="5">
-        <v>0.39190342658628202</v>
+        <v>0.80587329335917202</v>
       </c>
       <c r="K198" s="5">
-        <v>-0.77967115954830102</v>
+        <v>-2.0522618323805402</v>
       </c>
       <c r="L198" s="5">
-        <v>-1.91191399750438</v>
+        <v>5.7124310889445001E-2</v>
       </c>
       <c r="M198" s="5">
-        <v>-3.6355222459266701</v>
+        <v>-3.6645678086359301</v>
       </c>
       <c r="N198" s="5">
-        <v>2.47929473030268</v>
+        <v>1.94774372752979</v>
       </c>
       <c r="O198" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="R198" s="5">
         <v>40.500221851977599</v>
       </c>
       <c r="S198" s="5">
-        <v>37.987941741943402</v>
+        <v>37.8492431640625</v>
       </c>
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13562,7 +13561,7 @@
         <v>333</v>
       </c>
       <c r="C199" s="5">
-        <v>2254003</v>
+        <v>2254002.75</v>
       </c>
       <c r="D199" s="5">
         <v>762663040</v>
@@ -13571,7 +13570,7 @@
         <v>70</v>
       </c>
       <c r="F199" s="5">
-        <v>1.97977447509766</v>
+        <v>1.97977459430695</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>0</v>
@@ -13621,16 +13620,16 @@
         <v>448</v>
       </c>
       <c r="C200" s="5">
-        <v>2229883.25</v>
+        <v>2228458.75</v>
       </c>
       <c r="D200" s="5">
-        <v>911252096</v>
+        <v>911494848</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F200" s="5">
-        <v>3.48964190483093</v>
+        <v>3.48964166641235</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>194</v>
@@ -13651,7 +13650,7 @@
         <v>1.3858284818244899</v>
       </c>
       <c r="M200" s="5">
-        <v>1.5948816160711099</v>
+        <v>1.52997941217343</v>
       </c>
       <c r="N200" s="5">
         <v>5.9883342150381296</v>
@@ -13683,13 +13682,13 @@
         <v>2142289</v>
       </c>
       <c r="D201" s="5">
-        <v>693698752</v>
+        <v>694622464</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F201" s="5">
-        <v>2.35141253471375</v>
+        <v>2.3514127731323202</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>0</v>
@@ -13739,10 +13738,10 @@
         <v>452</v>
       </c>
       <c r="C202" s="5">
-        <v>2142072.5</v>
+        <v>2140704</v>
       </c>
       <c r="D202" s="5">
-        <v>1040651968</v>
+        <v>1039987200</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>51</v>
@@ -13769,7 +13768,7 @@
         <v>1.73421456775811</v>
       </c>
       <c r="M202" s="5">
-        <v>2.16188742700567</v>
+        <v>2.0966230008565798</v>
       </c>
       <c r="N202" s="5">
         <v>6.3945012500258498</v>
@@ -13857,53 +13856,53 @@
         <v>455</v>
       </c>
       <c r="C204" s="5">
-        <v>2114969</v>
+        <v>2114068.75</v>
       </c>
       <c r="D204" s="5">
-        <v>1385244928</v>
+        <v>1384607104</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H204" s="5">
-        <v>-0.18385298015189999</v>
+        <v>-4.6044245951371E-2</v>
       </c>
       <c r="I204" s="5">
-        <v>8.4489434828393994E-2</v>
+        <v>3.8406286353853999E-2</v>
       </c>
       <c r="J204" s="5">
-        <v>-0.76161752169173802</v>
+        <v>0.22316492914960001</v>
       </c>
       <c r="K204" s="5">
-        <v>3.3061113111006999</v>
+        <v>2.8102300313903998</v>
       </c>
       <c r="L204" s="5">
-        <v>3.84124469543376</v>
+        <v>5.5771700767067696</v>
       </c>
       <c r="M204" s="5">
-        <v>-0.78428872258549098</v>
+        <v>-0.82997184870846596</v>
       </c>
       <c r="N204" s="5">
-        <v>1.3376880851527799</v>
+        <v>1.71821515723969</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>70</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R204" s="5">
         <v>6.6090002059936497</v>
       </c>
       <c r="S204" s="5">
-        <v>6.5149998664856001</v>
+        <v>6.5120000839233398</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13914,10 +13913,10 @@
         <v>457</v>
       </c>
       <c r="C205" s="5">
-        <v>2049261.625</v>
+        <v>2033647.25</v>
       </c>
       <c r="D205" s="5">
-        <v>3367444992</v>
+        <v>3368932352</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>28</v>
@@ -13927,40 +13926,40 @@
         <v>70</v>
       </c>
       <c r="H205" s="5">
-        <v>-8.8275103632739996E-3</v>
+        <v>4.4166720228888998E-2</v>
       </c>
       <c r="I205" s="5">
-        <v>7.9559974411314002E-2</v>
+        <v>0.12376183367151</v>
       </c>
       <c r="J205" s="5">
-        <v>-0.14994000633371499</v>
+        <v>3.5335311043805002E-2</v>
       </c>
       <c r="K205" s="5">
-        <v>0.194710268352249</v>
+        <v>0.14146590108516899</v>
       </c>
       <c r="L205" s="5">
-        <v>0.51496552403276197</v>
+        <v>0.76512850761676399</v>
       </c>
       <c r="M205" s="5">
-        <v>6.1869978806572003E-2</v>
+        <v>0.106064024975905</v>
       </c>
       <c r="N205" s="5">
-        <v>0.81930721239020798</v>
+        <v>0.97174116002063404</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>70</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q205" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R205" s="5">
         <v>5.6900000572204599</v>
       </c>
       <c r="S205" s="5">
-        <v>5.66050004959106</v>
+        <v>5.6630001068115199</v>
       </c>
     </row>
     <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14030,55 +14029,114 @@
         <v>461</v>
       </c>
       <c r="C207" s="5">
-        <v>2020712.875</v>
+        <v>2002912.625</v>
       </c>
       <c r="D207" s="5">
-        <v>2047953280</v>
+        <v>2052292224</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F207" s="5">
-        <v>1.4875415563583401</v>
+        <v>1.4876842498779299</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H207" s="5">
-        <v>-1.4407659864957E-2</v>
+        <v>-9.5967229901460002E-3</v>
       </c>
       <c r="I207" s="5">
-        <v>0.11054298290775801</v>
+        <v>0.10093565141373601</v>
       </c>
       <c r="J207" s="5">
-        <v>-0.115093988667825</v>
+        <v>4.8040593935372002E-2</v>
       </c>
       <c r="K207" s="5">
-        <v>0.209220486312089</v>
+        <v>8.9264435532432004E-2</v>
       </c>
       <c r="L207" s="5">
-        <v>0.48474593588847498</v>
+        <v>0.71616802292362403</v>
       </c>
       <c r="M207" s="5">
-        <v>4.8915923027114998E-2</v>
+        <v>3.9314505711330001E-2</v>
       </c>
       <c r="N207" s="5">
-        <v>0.66023354248028199</v>
+        <v>0.90468497815596705</v>
       </c>
       <c r="O207" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P207" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q207" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="R207" s="5">
         <v>105.580001831055</v>
       </c>
       <c r="S207" s="5">
-        <v>104.14499664306599</v>
+        <v>104.13500213623</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A208" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C208" s="5">
+        <v>2001707.875</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1782826496</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F208" s="5">
+        <v>1.7807210683822601</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H208" s="5">
+        <v>-0.246901316708381</v>
+      </c>
+      <c r="I208" s="5">
+        <v>0.64428355579764196</v>
+      </c>
+      <c r="J208" s="5">
+        <v>-0.14275721107630501</v>
+      </c>
+      <c r="K208" s="5">
+        <v>-1.96908850308005</v>
+      </c>
+      <c r="L208" s="5">
+        <v>0.83981317389185695</v>
+      </c>
+      <c r="M208" s="5">
+        <v>1.5650758321359</v>
+      </c>
+      <c r="N208" s="5">
+        <v>6.1696631752852404</v>
+      </c>
+      <c r="O208" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="P208" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q208" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="R208" s="5">
+        <v>152.34992346191399</v>
+      </c>
+      <c r="S208" s="5">
+        <v>148.29978942871099</v>
       </c>
     </row>
   </sheetData>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\download\16.01.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\download\17.01.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -531,6 +531,12 @@
     <t>ISHARES CORE 1-5</t>
   </si>
   <si>
+    <t>SCHZ US Equity</t>
+  </si>
+  <si>
+    <t>SCHWAB AGGR BD</t>
+  </si>
+  <si>
     <t>153130 KS Equity</t>
   </si>
   <si>
@@ -546,12 +552,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>SCHZ US Equity</t>
-  </si>
-  <si>
-    <t>SCHWAB AGGR BD</t>
-  </si>
-  <si>
     <t>FPE US Equity</t>
   </si>
   <si>
@@ -666,75 +666,75 @@
     <t>V/E INT MUNI</t>
   </si>
   <si>
+    <t>BOND US Equity</t>
+  </si>
+  <si>
+    <t>PIMCO ACTIVE BON</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>FIXD US Equity</t>
+  </si>
+  <si>
+    <t>FT TCW OPP FI</t>
+  </si>
+  <si>
+    <t>GVI US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES INTERMED</t>
+  </si>
+  <si>
+    <t>FALN US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES F A ETF</t>
+  </si>
+  <si>
+    <t>EDV US Equity</t>
+  </si>
+  <si>
+    <t>VGUARD EXTEND DU</t>
+  </si>
+  <si>
+    <t>GSY US Equity</t>
+  </si>
+  <si>
+    <t>INVESCO ULTRA SH</t>
+  </si>
+  <si>
+    <t>JMST US Equity</t>
+  </si>
+  <si>
+    <t>JPM ULTR-SHT MUN</t>
+  </si>
+  <si>
+    <t>EMLC US Equity</t>
+  </si>
+  <si>
+    <t>V/E JPM EM L C B</t>
+  </si>
+  <si>
+    <t>SUSC US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES ESG AWAR</t>
+  </si>
+  <si>
+    <t>FTSL US Equity</t>
+  </si>
+  <si>
+    <t>FT-SENIOR LOAN</t>
+  </si>
+  <si>
     <t>214980 KS Equity</t>
   </si>
   <si>
     <t>SS KODEX KRW ETF</t>
   </si>
   <si>
-    <t>BOND US Equity</t>
-  </si>
-  <si>
-    <t>PIMCO ACTIVE BON</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>FIXD US Equity</t>
-  </si>
-  <si>
-    <t>FT TCW OPP FI</t>
-  </si>
-  <si>
-    <t>GVI US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES INTERMED</t>
-  </si>
-  <si>
-    <t>FALN US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES F A ETF</t>
-  </si>
-  <si>
-    <t>EDV US Equity</t>
-  </si>
-  <si>
-    <t>VGUARD EXTEND DU</t>
-  </si>
-  <si>
-    <t>GSY US Equity</t>
-  </si>
-  <si>
-    <t>INVESCO ULTRA SH</t>
-  </si>
-  <si>
-    <t>JMST US Equity</t>
-  </si>
-  <si>
-    <t>JPM ULTR-SHT MUN</t>
-  </si>
-  <si>
-    <t>EMLC US Equity</t>
-  </si>
-  <si>
-    <t>V/E JPM EM L C B</t>
-  </si>
-  <si>
-    <t>SUSC US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES ESG AWAR</t>
-  </si>
-  <si>
-    <t>FTSL US Equity</t>
-  </si>
-  <si>
-    <t>FT-SENIOR LOAN</t>
-  </si>
-  <si>
     <t>SPMB US Equity</t>
   </si>
   <si>
@@ -954,6 +954,48 @@
     <t>TIPX US Equity</t>
   </si>
   <si>
+    <t>FLTR US Equity</t>
+  </si>
+  <si>
+    <t>VANECK IG FLOATI</t>
+  </si>
+  <si>
+    <t>VRP US Equity</t>
+  </si>
+  <si>
+    <t>INVESCO VARIABLE</t>
+  </si>
+  <si>
+    <t>CLTL US Equity</t>
+  </si>
+  <si>
+    <t>INVESCO TREASURY</t>
+  </si>
+  <si>
+    <t>IBDR US Equity</t>
+  </si>
+  <si>
+    <t>00679B TT Equity</t>
+  </si>
+  <si>
+    <t>YUANTA UST 20+</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>EBND US Equity</t>
+  </si>
+  <si>
+    <t>SPDR BL EM BOND</t>
+  </si>
+  <si>
     <t>AAA AU Equity</t>
   </si>
   <si>
@@ -969,48 +1011,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>FLTR US Equity</t>
-  </si>
-  <si>
-    <t>VANECK IG FLOATI</t>
-  </si>
-  <si>
-    <t>VRP US Equity</t>
-  </si>
-  <si>
-    <t>INVESCO VARIABLE</t>
-  </si>
-  <si>
-    <t>CLTL US Equity</t>
-  </si>
-  <si>
-    <t>INVESCO TREASURY</t>
-  </si>
-  <si>
-    <t>IBDR US Equity</t>
-  </si>
-  <si>
-    <t>EBND US Equity</t>
-  </si>
-  <si>
-    <t>SPDR BL EM BOND</t>
-  </si>
-  <si>
-    <t>00679B TT Equity</t>
-  </si>
-  <si>
-    <t>YUANTA UST 20+</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>Taipei</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>IB01 LN Equity</t>
   </si>
   <si>
@@ -1131,12 +1131,27 @@
     <t>SPDR SH-TERM BD</t>
   </si>
   <si>
+    <t>00772B TT Equity</t>
+  </si>
+  <si>
+    <t>CTBC BBUS 10 ETF</t>
+  </si>
+  <si>
     <t>CPD CN Equity</t>
   </si>
   <si>
     <t>ISHARES S&amp;P/TSX</t>
   </si>
   <si>
+    <t>XLB CN Equity</t>
+  </si>
+  <si>
+    <t>JAGG US Equity</t>
+  </si>
+  <si>
+    <t>JPM US AGG BOND</t>
+  </si>
+  <si>
     <t>159972 CH Equity</t>
   </si>
   <si>
@@ -1155,19 +1170,10 @@
     <t>China</t>
   </si>
   <si>
-    <t>JAGG US Equity</t>
-  </si>
-  <si>
-    <t>JPM US AGG BOND</t>
-  </si>
-  <si>
-    <t>XLB CN Equity</t>
-  </si>
-  <si>
-    <t>00772B TT Equity</t>
-  </si>
-  <si>
-    <t>CTBC BBUS 10 ETF</t>
+    <t>00720B TT Equity</t>
+  </si>
+  <si>
+    <t>YUANTA 20 CB ETF</t>
   </si>
   <si>
     <t>RAVI US Equity</t>
@@ -1191,12 +1197,6 @@
     <t>Muni-New York</t>
   </si>
   <si>
-    <t>00720B TT Equity</t>
-  </si>
-  <si>
-    <t>YUANTA 20 CB ETF</t>
-  </si>
-  <si>
     <t>SDIA LN Equity</t>
   </si>
   <si>
@@ -1290,24 +1290,24 @@
     <t>LEMB US Equity</t>
   </si>
   <si>
+    <t>00751B TT Equity</t>
+  </si>
+  <si>
+    <t>YT US 20AAA ETF</t>
+  </si>
+  <si>
+    <t>ZDB CN Equity</t>
+  </si>
+  <si>
+    <t>BMO DISCOUNT BON</t>
+  </si>
+  <si>
     <t>IHYG LN Equity</t>
   </si>
   <si>
     <t>ISHR € HY CORP</t>
   </si>
   <si>
-    <t>ZDB CN Equity</t>
-  </si>
-  <si>
-    <t>BMO DISCOUNT BON</t>
-  </si>
-  <si>
-    <t>00751B TT Equity</t>
-  </si>
-  <si>
-    <t>YT US 20AAA ETF</t>
-  </si>
-  <si>
     <t>IGLT LN Equity</t>
   </si>
   <si>
@@ -1353,6 +1353,12 @@
     <t>HORIZONS CDN SEL</t>
   </si>
   <si>
+    <t>00773B TT Equity</t>
+  </si>
+  <si>
+    <t>CTBC BBSR 10 ETF</t>
+  </si>
+  <si>
     <t>VSC CN Equity</t>
   </si>
   <si>
@@ -1365,10 +1371,10 @@
     <t>INVESCO FUNDAMEN</t>
   </si>
   <si>
-    <t>00773B TT Equity</t>
-  </si>
-  <si>
-    <t>CTBC BBSR 10 ETF</t>
+    <t>CLG CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 1-10 YEA</t>
   </si>
   <si>
     <t>273130 KS Equity</t>
@@ -1377,30 +1383,24 @@
     <t>SS KR BOND AA-</t>
   </si>
   <si>
-    <t>CLG CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 1-10 YEA</t>
-  </si>
-  <si>
     <t>LQDA LN Equity</t>
   </si>
   <si>
     <t>ISH $ CORP BD $A</t>
   </si>
   <si>
+    <t>XSH CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CORE CA</t>
+  </si>
+  <si>
     <t>IGTM LN Equity</t>
   </si>
   <si>
     <t>ISH $TR 7-10 £HD</t>
   </si>
   <si>
-    <t>XSH CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CORE CA</t>
-  </si>
-  <si>
     <t>HFR CN Equity</t>
   </si>
   <si>
@@ -1428,6 +1428,12 @@
     <t>BMO SHORT CORPOR</t>
   </si>
   <si>
+    <t>00725B TT Equity</t>
+  </si>
+  <si>
+    <t>CAT BBB CORP ETF</t>
+  </si>
+  <si>
     <t>IHYU LN Equity</t>
   </si>
   <si>
@@ -1440,12 +1446,6 @@
     <t>INVESCO CALIFORN</t>
   </si>
   <si>
-    <t>00725B TT Equity</t>
-  </si>
-  <si>
-    <t>CAT BBB CORP ETF</t>
-  </si>
-  <si>
     <t>DXP CN Equity</t>
   </si>
   <si>
@@ -1482,36 +1482,36 @@
     <t>ISHARES CORE 10+</t>
   </si>
   <si>
+    <t>AGGG LN Equity</t>
+  </si>
+  <si>
+    <t>ISH CORE GLB AGG</t>
+  </si>
+  <si>
+    <t>FLCB US Equity</t>
+  </si>
+  <si>
+    <t>FRANKLIN U.S. CO</t>
+  </si>
+  <si>
+    <t>GIGB US Equity</t>
+  </si>
+  <si>
+    <t>GS IN GR COR ETF</t>
+  </si>
+  <si>
+    <t>RPF CN Equity</t>
+  </si>
+  <si>
+    <t>RBC CAD PFD ETF</t>
+  </si>
+  <si>
     <t>HBRD AU Equity</t>
   </si>
   <si>
     <t>BETA-ACTV AU HYB</t>
   </si>
   <si>
-    <t>AGGG LN Equity</t>
-  </si>
-  <si>
-    <t>ISH CORE GLB AGG</t>
-  </si>
-  <si>
-    <t>FLCB US Equity</t>
-  </si>
-  <si>
-    <t>FRANKLIN U.S. CO</t>
-  </si>
-  <si>
-    <t>GIGB US Equity</t>
-  </si>
-  <si>
-    <t>GS IN GR COR ETF</t>
-  </si>
-  <si>
-    <t>RPF CN Equity</t>
-  </si>
-  <si>
-    <t>RBC CAD PFD ETF</t>
-  </si>
-  <si>
     <t>IHYA LN Equity</t>
   </si>
   <si>
@@ -1563,15 +1563,15 @@
     <t>MACKENZIE FLOATI</t>
   </si>
   <si>
+    <t>00687B TT Equity</t>
+  </si>
+  <si>
+    <t>CATHAY UST 20+</t>
+  </si>
+  <si>
     <t>CBO CN Equity</t>
   </si>
   <si>
-    <t>00687B TT Equity</t>
-  </si>
-  <si>
-    <t>CATHAY UST 20+</t>
-  </si>
-  <si>
     <t>VGB AU Equity</t>
   </si>
   <si>
@@ -1599,24 +1599,24 @@
     <t>ISH $TRS 20+Y $A</t>
   </si>
   <si>
+    <t>IDTL LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR $ TRS 20+YR</t>
+  </si>
+  <si>
+    <t>VAF AU Equity</t>
+  </si>
+  <si>
+    <t>VANG-AU FI I ETF</t>
+  </si>
+  <si>
     <t>IAF AU Equity</t>
   </si>
   <si>
     <t>ISHARES CORE COM</t>
   </si>
   <si>
-    <t>IDTL LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR $ TRS 20+YR</t>
-  </si>
-  <si>
-    <t>VAF AU Equity</t>
-  </si>
-  <si>
-    <t>VANG-AU FI I ETF</t>
-  </si>
-  <si>
     <t>ZCM CN Equity</t>
   </si>
   <si>
@@ -1641,24 +1641,24 @@
     <t>ISHARES HIGH QUA</t>
   </si>
   <si>
+    <t>MKB CN Equity</t>
+  </si>
+  <si>
+    <t>MACKENZIE CORE P</t>
+  </si>
+  <si>
+    <t>JPEA LN Equity</t>
+  </si>
+  <si>
+    <t>ISH JP $EM BD $A</t>
+  </si>
+  <si>
     <t>INXG LN Equity</t>
   </si>
   <si>
     <t>ISHR IND-LINK</t>
   </si>
   <si>
-    <t>MKB CN Equity</t>
-  </si>
-  <si>
-    <t>MACKENZIE CORE P</t>
-  </si>
-  <si>
-    <t>JPEA LN Equity</t>
-  </si>
-  <si>
-    <t>ISH JP $EM BD $A</t>
-  </si>
-  <si>
     <t>IS15 LN Equity</t>
   </si>
   <si>
@@ -1677,16 +1677,22 @@
     <t>ISH GLB AGG £H D</t>
   </si>
   <si>
+    <t>00795B TT Equity</t>
+  </si>
+  <si>
+    <t>CTBC US20 B ETF</t>
+  </si>
+  <si>
     <t>VIF AU Equity</t>
   </si>
   <si>
     <t>VAN INTL FI IN H</t>
   </si>
   <si>
-    <t>00795B TT Equity</t>
-  </si>
-  <si>
-    <t>CTBC US20 B ETF</t>
+    <t>00761B TT Equity</t>
+  </si>
+  <si>
+    <t>CA US COR10 ETF</t>
   </si>
   <si>
     <t>VBU CN Equity</t>
@@ -1699,12 +1705,6 @@
   </si>
   <si>
     <t>BMO SHORT FEDERA</t>
-  </si>
-  <si>
-    <t>00761B TT Equity</t>
-  </si>
-  <si>
-    <t>CA US COR10 ETF</t>
   </si>
   <si>
     <t>FGO CN Equity</t>
@@ -2608,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="5">
-        <v>7.3479185104370117</v>
+        <v>7.3479180335998544</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="5">
-        <v>3.554505348205566</v>
+        <v>3.554505586624146</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>64</v>
       </c>
       <c r="F16" s="5">
-        <v>3.873192310333252</v>
+        <v>3.8731920719146729</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>64</v>
       </c>
       <c r="F18" s="5">
-        <v>1.928091168403625</v>
+        <v>1.9280910491943359</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>36</v>
       </c>
       <c r="F31" s="5">
-        <v>11.709229469299316</v>
+        <v>11.709228515625</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5">
-        <v>2.379119873046875</v>
+        <v>2.3791201114654541</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>47</v>
       </c>
       <c r="F39" s="5">
-        <v>1.208816766738892</v>
+        <v>1.2088168859481809</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>73</v>
       </c>
       <c r="F43" s="5">
-        <v>3.725360631942749</v>
+        <v>3.7253603935241699</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>96</v>
       </c>
       <c r="F44" s="5">
-        <v>6.8636798858642578</v>
+        <v>6.8636794090270996</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>28</v>
       </c>
       <c r="F57" s="5">
-        <v>2.8918299674987793</v>
+        <v>2.891830205917358</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>47</v>
       </c>
       <c r="F60" s="5">
-        <v>2.0686230659484859</v>
+        <v>2.0686228275299072</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>0</v>
@@ -6117,112 +6117,112 @@
         <v>171</v>
       </c>
       <c r="C66" s="5">
-        <v>58798568</v>
+        <v>57935368</v>
       </c>
       <c r="D66" s="5">
-        <v>1208762752</v>
+        <v>7733838848</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2.790223121643066</v>
+      </c>
       <c r="G66" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H66" s="5">
-        <v>-0.16378762287986301</v>
+        <v>-0.44434848059860005</v>
       </c>
       <c r="I66" s="5">
-        <v>1.3317985091487961</v>
+        <v>0.9223515980857131</v>
       </c>
       <c r="J66" s="5">
-        <v>4.9134360192345525</v>
+        <v>0.6403710365924461</v>
       </c>
       <c r="K66" s="5">
-        <v>16.626589818067707</v>
+        <v>5.7831026462425115</v>
       </c>
       <c r="L66" s="5">
-        <v>6.5680449736484237</v>
+        <v>-0.90393336794579704</v>
       </c>
       <c r="M66" s="5">
-        <v>1.609122249212303</v>
+        <v>3.066807589016141</v>
       </c>
       <c r="N66" s="5">
-        <v>-2.764741295061079</v>
+        <v>-9.3299967257314158</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R66" s="5">
-        <v>86.853076178043551</v>
+        <v>53.139999389648437</v>
       </c>
       <c r="S66" s="5">
-        <v>84.512496948242188</v>
+        <v>47.049999237060547</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A67" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="5">
+        <v>57752416</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1202057984</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="5">
+        <v>-0.19839225437567901</v>
+      </c>
+      <c r="I67" s="5">
+        <v>-0.33205685869819301</v>
+      </c>
+      <c r="J67" s="5">
+        <v>5.843951653169599</v>
+      </c>
+      <c r="K67" s="5">
+        <v>16.962873315519865</v>
+      </c>
+      <c r="L67" s="5">
+        <v>7.7070079040213244</v>
+      </c>
+      <c r="M67" s="5">
+        <v>1.407537620930754</v>
+      </c>
+      <c r="N67" s="5">
+        <v>-2.5295042876081641</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="Q67" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="5">
-        <v>57935368</v>
-      </c>
-      <c r="D67" s="5">
-        <v>7733838848</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2.790223121643066</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>-0.44434848059860005</v>
-      </c>
-      <c r="I67" s="5">
-        <v>0.9223515980857131</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0.6403710365924461</v>
-      </c>
-      <c r="K67" s="5">
-        <v>5.7831026462425115</v>
-      </c>
-      <c r="L67" s="5">
-        <v>-0.90393336794579704</v>
-      </c>
-      <c r="M67" s="5">
-        <v>3.066807589016141</v>
-      </c>
-      <c r="N67" s="5">
-        <v>-9.3299967257314158</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R67" s="5">
-        <v>53.139999389648437</v>
+        <v>86.853076178043551</v>
       </c>
       <c r="S67" s="5">
-        <v>47.049999237060547</v>
+        <v>84.344825744628906</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -6301,7 +6301,7 @@
         <v>22</v>
       </c>
       <c r="F69" s="5">
-        <v>4.9557771682739258</v>
+        <v>4.955777645111084</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>47</v>
       </c>
       <c r="F71" s="5">
-        <v>0.75198984146118208</v>
+        <v>0.75198990106582608</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>189</v>
       </c>
       <c r="F74" s="5">
-        <v>6.3828301429748544</v>
+        <v>6.3828296661376953</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>0</v>
@@ -6644,40 +6644,40 @@
         <v>191</v>
       </c>
       <c r="C75" s="5">
-        <v>46815804</v>
+        <v>46847268</v>
       </c>
       <c r="D75" s="5">
-        <v>1384882176</v>
+        <v>1385812864</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F75" s="5">
-        <v>4.6898207664489746</v>
+        <v>4.6893525123596191</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H75" s="5">
-        <v>-0.30349743915697402</v>
+        <v>7.7199677186912008E-2</v>
       </c>
       <c r="I75" s="5">
-        <v>0.40104540701213504</v>
+        <v>-7.4554666964433011E-2</v>
       </c>
       <c r="J75" s="5">
-        <v>1.5157998609735661</v>
+        <v>2.7431489907802309</v>
       </c>
       <c r="K75" s="5">
-        <v>3.8120365532210432</v>
+        <v>4.8099576056739526</v>
       </c>
       <c r="L75" s="5">
-        <v>-1.514680035747562</v>
+        <v>-0.82370528152915201</v>
       </c>
       <c r="M75" s="5">
-        <v>1.1698584589989069</v>
+        <v>1.2479612631397301</v>
       </c>
       <c r="N75" s="5">
-        <v>-4.4948243125601302</v>
+        <v>-3.8605923868284102</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>23</v>
@@ -6692,7 +6692,7 @@
         <v>40.138019946849361</v>
       </c>
       <c r="S75" s="5">
-        <v>37.388057708740234</v>
+        <v>37.416919708251953</v>
       </c>
     </row>
     <row r="76" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -6771,7 +6771,7 @@
         <v>197</v>
       </c>
       <c r="F77" s="5">
-        <v>3.9140701293945313</v>
+        <v>3.9140703678131099</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>0</v>
@@ -6939,40 +6939,40 @@
         <v>203</v>
       </c>
       <c r="C80" s="5">
-        <v>41518236</v>
+        <v>41546140</v>
       </c>
       <c r="D80" s="5">
-        <v>3357324544</v>
+        <v>3359580928</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F80" s="5">
-        <v>2.8612101078033452</v>
+        <v>2.8581585884094238</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H80" s="5">
-        <v>-0.30781130449683003</v>
+        <v>0.17403976852401501</v>
       </c>
       <c r="I80" s="5">
-        <v>1.953602380127073</v>
+        <v>1.5688363056593602</v>
       </c>
       <c r="J80" s="5">
-        <v>1.1572946972734139</v>
+        <v>2.333520376057296</v>
       </c>
       <c r="K80" s="5">
-        <v>8.1371689347069509</v>
+        <v>9.8248954316807691</v>
       </c>
       <c r="L80" s="5">
-        <v>-0.32132412468558502</v>
+        <v>0.26140863869972303</v>
       </c>
       <c r="M80" s="5">
-        <v>3.9289806028999008</v>
+        <v>4.1098583601705494</v>
       </c>
       <c r="N80" s="5">
-        <v>-13.302918259545127</v>
+        <v>-12.114195366700987</v>
       </c>
       <c r="O80" s="6" t="s">
         <v>23</v>
@@ -6984,10 +6984,10 @@
         <v>194</v>
       </c>
       <c r="R80" s="5">
-        <v>24.673670805475965</v>
+        <v>24.666987458769189</v>
       </c>
       <c r="S80" s="5">
-        <v>20.970149993896484</v>
+        <v>21.006645202636719</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -6998,40 +6998,40 @@
         <v>205</v>
       </c>
       <c r="C81" s="5">
-        <v>39540604</v>
+        <v>39567176</v>
       </c>
       <c r="D81" s="5">
-        <v>1667710848</v>
+        <v>1668831744</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F81" s="5">
-        <v>3.9637060165405273</v>
+        <v>4.9545454978942871</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H81" s="5">
-        <v>-0.33355256675216005</v>
+        <v>0.117310783780722</v>
       </c>
       <c r="I81" s="5">
-        <v>0.40259513962550603</v>
+        <v>-6.4482625473194E-2</v>
       </c>
       <c r="J81" s="5">
-        <v>1.4692231004711731</v>
+        <v>2.739352779394943</v>
       </c>
       <c r="K81" s="5">
-        <v>3.7584150557582019</v>
+        <v>4.8590078459787236</v>
       </c>
       <c r="L81" s="5">
-        <v>-1.590130362247133</v>
+        <v>-0.82823696507757805</v>
       </c>
       <c r="M81" s="5">
-        <v>1.1406106426016029</v>
+        <v>1.259259485667052</v>
       </c>
       <c r="N81" s="5">
-        <v>-4.5355929212469892</v>
+        <v>-3.8823454370835671</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>206</v>
@@ -7046,7 +7046,7 @@
         <v>40.146042994139684</v>
       </c>
       <c r="S81" s="5">
-        <v>37.414104461669922</v>
+        <v>37.457992553710937</v>
       </c>
     </row>
     <row r="82" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7125,7 +7125,7 @@
         <v>36</v>
       </c>
       <c r="F83" s="5">
-        <v>3.8205990791320801</v>
+        <v>3.820598840713501</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>0</v>
@@ -7291,112 +7291,114 @@
         <v>216</v>
       </c>
       <c r="C86" s="5">
-        <v>33245822</v>
+        <v>33015632</v>
       </c>
       <c r="D86" s="5">
-        <v>1612062336</v>
+        <v>3551681280</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F86" s="5">
+        <v>3.7335047721862793</v>
+      </c>
       <c r="G86" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H86" s="5">
-        <v>-0.15901989545019601</v>
+        <v>-0.42730640238312101</v>
       </c>
       <c r="I86" s="5">
-        <v>1.3796088772901172</v>
+        <v>1.095447038677722</v>
       </c>
       <c r="J86" s="5">
-        <v>5.0918471597609214</v>
+        <v>1.0892987862470389</v>
       </c>
       <c r="K86" s="5">
-        <v>16.834215112150819</v>
+        <v>6.3775111717440325</v>
       </c>
       <c r="L86" s="5">
-        <v>6.8436360809600583</v>
+        <v>-0.41309436929665205</v>
       </c>
       <c r="M86" s="5">
-        <v>1.670934971980897</v>
+        <v>3.017236545371826</v>
       </c>
       <c r="N86" s="5">
-        <v>-2.5610700695883448</v>
+        <v>-10.944183780704908</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R86" s="5">
-        <v>87.139428138291166</v>
+        <v>108.12000274658203</v>
       </c>
       <c r="S86" s="5">
-        <v>84.960487365722656</v>
+        <v>93.209999084472656</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A87" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C87" s="5">
-        <v>33015632</v>
+        <v>32206786</v>
       </c>
       <c r="D87" s="5">
-        <v>3551681280</v>
+        <v>4087756544</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F87" s="5">
-        <v>3.733505010604858</v>
+        <v>4.2318711280822754</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H87" s="5">
-        <v>-0.42730640238312101</v>
+        <v>-0.43888690866541502</v>
       </c>
       <c r="I87" s="5">
-        <v>1.095447038677722</v>
+        <v>1.20454400797283</v>
       </c>
       <c r="J87" s="5">
-        <v>1.0892987862470389</v>
+        <v>1.503303740119555</v>
       </c>
       <c r="K87" s="5">
-        <v>6.3775111717440325</v>
+        <v>6.8705804082647814</v>
       </c>
       <c r="L87" s="5">
-        <v>-0.41309436929665205</v>
+        <v>-0.64414584388176011</v>
       </c>
       <c r="M87" s="5">
-        <v>3.017236545371826</v>
+        <v>3.30145906965158</v>
       </c>
       <c r="N87" s="5">
-        <v>-10.944183780704908</v>
+        <v>-11.126971738185819</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R87" s="5">
-        <v>108.12000274658203</v>
+        <v>52.569900512695313</v>
       </c>
       <c r="S87" s="5">
-        <v>93.209999084472656</v>
+        <v>45.369998931884766</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7407,55 +7409,55 @@
         <v>221</v>
       </c>
       <c r="C88" s="5">
-        <v>32206786</v>
+        <v>31667028</v>
       </c>
       <c r="D88" s="5">
-        <v>4087756544</v>
+        <v>2436029952</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F88" s="5">
-        <v>4.2318711280822754</v>
+        <v>2.3047394752502441</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H88" s="5">
-        <v>-0.43888690866541502</v>
+        <v>-0.20114854540552701</v>
       </c>
       <c r="I88" s="5">
-        <v>1.20454400797283</v>
+        <v>0.55979328987354504</v>
       </c>
       <c r="J88" s="5">
-        <v>1.503303740119555</v>
+        <v>0.64697135085420909</v>
       </c>
       <c r="K88" s="5">
-        <v>6.8705804082647814</v>
+        <v>3.739529490624371</v>
       </c>
       <c r="L88" s="5">
-        <v>-0.64414584388176011</v>
+        <v>-0.38501225529706801</v>
       </c>
       <c r="M88" s="5">
-        <v>3.30145906965158</v>
+        <v>1.6884670821705861</v>
       </c>
       <c r="N88" s="5">
-        <v>-11.126971738185819</v>
+        <v>-6.1773592735137273</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="Q88" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R88" s="5">
-        <v>52.569900512695313</v>
+        <v>113.45999908447266</v>
       </c>
       <c r="S88" s="5">
-        <v>45.369998931884766</v>
+        <v>104.19000244140625</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7466,55 +7468,53 @@
         <v>223</v>
       </c>
       <c r="C89" s="5">
-        <v>31667028</v>
+        <v>31516514</v>
       </c>
       <c r="D89" s="5">
-        <v>2436029952</v>
+        <v>3148889856</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="5">
-        <v>2.3047394752502441</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F89" s="5"/>
       <c r="G89" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H89" s="5">
-        <v>-0.20114854540552701</v>
+        <v>-0.19538584119739302</v>
       </c>
       <c r="I89" s="5">
-        <v>0.55979328987354504</v>
+        <v>1.631523153414371</v>
       </c>
       <c r="J89" s="5">
-        <v>0.64697135085420909</v>
+        <v>1.6972405610061529</v>
       </c>
       <c r="K89" s="5">
-        <v>3.739529490624371</v>
+        <v>8.621689803730348</v>
       </c>
       <c r="L89" s="5">
-        <v>-0.38501225529706801</v>
+        <v>5.9290047180408978</v>
       </c>
       <c r="M89" s="5">
-        <v>1.6884670821705861</v>
+        <v>3.7789527919987131</v>
       </c>
       <c r="N89" s="5">
-        <v>-6.1773592735137273</v>
+        <v>-9.3614976186801595</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="Q89" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R89" s="5">
-        <v>113.45999908447266</v>
+        <v>29.550899505615234</v>
       </c>
       <c r="S89" s="5">
-        <v>104.19000244140625</v>
+        <v>25.540000915527344</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7525,53 +7525,55 @@
         <v>225</v>
       </c>
       <c r="C90" s="5">
-        <v>31516514</v>
+        <v>31491106</v>
       </c>
       <c r="D90" s="5">
-        <v>3148889856</v>
+        <v>1144267776</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F90" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F90" s="5">
+        <v>3.040791511535645</v>
+      </c>
       <c r="G90" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>-0.19538584119739302</v>
+        <v>-1.119815580669647</v>
       </c>
       <c r="I90" s="5">
-        <v>1.631523153414371</v>
+        <v>2.145098846671023</v>
       </c>
       <c r="J90" s="5">
-        <v>1.6972405610061529</v>
+        <v>-1.149496961886787</v>
       </c>
       <c r="K90" s="5">
-        <v>8.621689803730348</v>
+        <v>11.334354746747222</v>
       </c>
       <c r="L90" s="5">
-        <v>5.9290047180408978</v>
+        <v>-8.9842438346186668</v>
       </c>
       <c r="M90" s="5">
-        <v>3.7789527919987131</v>
+        <v>9.8032052851448235</v>
       </c>
       <c r="N90" s="5">
-        <v>-9.3614976186801595</v>
+        <v>-31.053831460857406</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q90" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R90" s="5">
-        <v>29.550899505615234</v>
+        <v>135.77000427246094</v>
       </c>
       <c r="S90" s="5">
-        <v>25.540000915527344</v>
+        <v>90.949996948242188</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7582,40 +7584,40 @@
         <v>227</v>
       </c>
       <c r="C91" s="5">
-        <v>31491106</v>
+        <v>31194032</v>
       </c>
       <c r="D91" s="5">
-        <v>1144267776</v>
+        <v>2402577408</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F91" s="5">
-        <v>3.0407917499542241</v>
+        <v>5.1277341842651367</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H91" s="5">
-        <v>-1.119815580669647</v>
+        <v>4.0299128215260001E-2</v>
       </c>
       <c r="I91" s="5">
-        <v>2.145098846671023</v>
+        <v>0.26252234837136301</v>
       </c>
       <c r="J91" s="5">
-        <v>-1.149496961886787</v>
+        <v>0.69330143855310711</v>
       </c>
       <c r="K91" s="5">
-        <v>11.334354746747222</v>
+        <v>1.435929273350278</v>
       </c>
       <c r="L91" s="5">
-        <v>-8.9842438346186668</v>
+        <v>1.5371007561151511</v>
       </c>
       <c r="M91" s="5">
-        <v>9.8032052851448235</v>
+        <v>0.38415375035034705</v>
       </c>
       <c r="N91" s="5">
-        <v>-31.053831460857406</v>
+        <v>0.51630308027217409</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>23</v>
@@ -7627,10 +7629,10 @@
         <v>25</v>
       </c>
       <c r="R91" s="5">
-        <v>135.77000427246094</v>
+        <v>50.25</v>
       </c>
       <c r="S91" s="5">
-        <v>90.949996948242188</v>
+        <v>49.650001525878906</v>
       </c>
     </row>
     <row r="92" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7641,55 +7643,55 @@
         <v>229</v>
       </c>
       <c r="C92" s="5">
-        <v>31194032</v>
+        <v>30738764</v>
       </c>
       <c r="D92" s="5">
-        <v>2402577408</v>
+        <v>3489204224</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F92" s="5">
-        <v>5.1277341842651367</v>
+        <v>2.1454975605010991</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>4.0299128215260001E-2</v>
+        <v>-1.9747553660698001E-2</v>
       </c>
       <c r="I92" s="5">
-        <v>0.26252234837136301</v>
+        <v>0.11861913092481301</v>
       </c>
       <c r="J92" s="5">
-        <v>0.69330143855310711</v>
+        <v>0.23863263192318601</v>
       </c>
       <c r="K92" s="5">
-        <v>1.435929273350278</v>
+        <v>1.2083733466214501</v>
       </c>
       <c r="L92" s="5">
-        <v>1.5371007561151511</v>
+        <v>0.83296177606149202</v>
       </c>
       <c r="M92" s="5">
-        <v>0.38415375035034705</v>
+        <v>0.20777588315696902</v>
       </c>
       <c r="N92" s="5">
-        <v>0.51630308027217409</v>
+        <v>0.45520112346608704</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Q92" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R92" s="5">
-        <v>50.25</v>
+        <v>50.970001220703125</v>
       </c>
       <c r="S92" s="5">
-        <v>49.650001525878906</v>
+        <v>50.639999389648438</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7700,55 +7702,55 @@
         <v>231</v>
       </c>
       <c r="C93" s="5">
-        <v>30738764</v>
+        <v>29835476</v>
       </c>
       <c r="D93" s="5">
-        <v>3489204224</v>
+        <v>3005455872</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F93" s="5">
-        <v>2.1454975605010991</v>
+        <v>5.7510862350463867</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>-1.9747553660698001E-2</v>
+        <v>3.9526597562856002E-2</v>
       </c>
       <c r="I93" s="5">
-        <v>0.11861913092481301</v>
+        <v>2.1388166449184181</v>
       </c>
       <c r="J93" s="5">
-        <v>0.23863263192318601</v>
+        <v>4.4232120779597039</v>
       </c>
       <c r="K93" s="5">
-        <v>1.2083733466214501</v>
+        <v>13.264809142765044</v>
       </c>
       <c r="L93" s="5">
-        <v>0.83296177606149202</v>
+        <v>10.886641622096626</v>
       </c>
       <c r="M93" s="5">
-        <v>0.20777588315696902</v>
+        <v>4.4572841275686503</v>
       </c>
       <c r="N93" s="5">
-        <v>0.45520112346608704</v>
+        <v>-6.8712915313746237</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="Q93" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R93" s="5">
-        <v>50.970001220703125</v>
+        <v>29.200000762939453</v>
       </c>
       <c r="S93" s="5">
-        <v>50.639999389648438</v>
+        <v>25.309999465942383</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7759,55 +7761,53 @@
         <v>233</v>
       </c>
       <c r="C94" s="5">
-        <v>29835476</v>
+        <v>29138444</v>
       </c>
       <c r="D94" s="5">
-        <v>3005455872</v>
+        <v>876611712</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" s="5">
-        <v>5.7510867118835449</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F94" s="5"/>
       <c r="G94" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>3.9526597562856002E-2</v>
+        <v>-0.29500680920598904</v>
       </c>
       <c r="I94" s="5">
-        <v>2.1388166449184181</v>
+        <v>1.4066147960549951</v>
       </c>
       <c r="J94" s="5">
-        <v>4.4232120779597039</v>
+        <v>1.036177094835788</v>
       </c>
       <c r="K94" s="5">
-        <v>13.264809142765044</v>
+        <v>8.4412910986574765</v>
       </c>
       <c r="L94" s="5">
-        <v>10.886641622096626</v>
+        <v>0.67935860689036809</v>
       </c>
       <c r="M94" s="5">
-        <v>4.4572841275686503</v>
+        <v>3.9802616046517914</v>
       </c>
       <c r="N94" s="5">
-        <v>-6.8712915313746237</v>
+        <v>-11.382676473298492</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R94" s="5">
-        <v>29.200000762939453</v>
+        <v>26.819999694824219</v>
       </c>
       <c r="S94" s="5">
-        <v>25.309999465942383</v>
+        <v>23.184999465942383</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7818,41 +7818,43 @@
         <v>235</v>
       </c>
       <c r="C95" s="5">
-        <v>29138444</v>
+        <v>28816434</v>
       </c>
       <c r="D95" s="5">
-        <v>876611712</v>
+        <v>3840999936</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F95" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F95" s="5">
+        <v>7.1021485328674316</v>
+      </c>
       <c r="G95" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>-0.29500680920598904</v>
+        <v>-4.3822213039313003E-2</v>
       </c>
       <c r="I95" s="5">
-        <v>1.4066147960549951</v>
+        <v>0.75088374945659908</v>
       </c>
       <c r="J95" s="5">
-        <v>1.036177094835788</v>
+        <v>1.853087741442061</v>
       </c>
       <c r="K95" s="5">
-        <v>8.4412910986574765</v>
+        <v>4.7311488014908809</v>
       </c>
       <c r="L95" s="5">
-        <v>0.67935860689036809</v>
+        <v>5.8765842410538625</v>
       </c>
       <c r="M95" s="5">
-        <v>3.9802616046517914</v>
+        <v>2.309932217475219</v>
       </c>
       <c r="N95" s="5">
-        <v>-11.382676473298492</v>
+        <v>-0.50295100587288699</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P95" s="6" t="s">
         <v>30</v>
@@ -7861,10 +7863,10 @@
         <v>25</v>
       </c>
       <c r="R95" s="5">
-        <v>26.819999694824219</v>
+        <v>48.130001068115234</v>
       </c>
       <c r="S95" s="5">
-        <v>23.184999465942383</v>
+        <v>45.619998931884766</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7875,55 +7877,53 @@
         <v>237</v>
       </c>
       <c r="C96" s="5">
-        <v>28816434</v>
+        <v>28614200</v>
       </c>
       <c r="D96" s="5">
-        <v>3840999936</v>
+        <v>1603120640</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" s="5">
-        <v>7.1021485328674316</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F96" s="5"/>
       <c r="G96" s="6" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H96" s="5">
-        <v>-4.3822213039313003E-2</v>
+        <v>-0.20323279782621401</v>
       </c>
       <c r="I96" s="5">
-        <v>0.75088374945659908</v>
+        <v>-0.29923476595069604</v>
       </c>
       <c r="J96" s="5">
-        <v>1.853087741442061</v>
+        <v>5.9936709287131462</v>
       </c>
       <c r="K96" s="5">
-        <v>4.7311488014908809</v>
+        <v>17.182279092034669</v>
       </c>
       <c r="L96" s="5">
-        <v>5.8765842410538625</v>
+        <v>7.9646284040835402</v>
       </c>
       <c r="M96" s="5">
-        <v>2.309932217475219</v>
+        <v>1.464306286261263</v>
       </c>
       <c r="N96" s="5">
-        <v>-0.50295100587288699</v>
+        <v>-2.3395473575567149</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="R96" s="5">
-        <v>48.130001068115234</v>
+        <v>87.139428138291166</v>
       </c>
       <c r="S96" s="5">
-        <v>45.619998931884766</v>
+        <v>84.787818908691406</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8297,7 +8297,7 @@
         <v>73</v>
       </c>
       <c r="F103" s="5">
-        <v>2.2307195663452148</v>
+        <v>2.2307198047637939</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>44</v>
       </c>
       <c r="F104" s="5">
-        <v>5.8841462135314941</v>
+        <v>5.8841466903686523</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>0</v>
@@ -8406,40 +8406,40 @@
         <v>255</v>
       </c>
       <c r="C105" s="5">
-        <v>24452776</v>
+        <v>24469210</v>
       </c>
       <c r="D105" s="5">
-        <v>4610309632</v>
+        <v>4613408256</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F105" s="5">
-        <v>3.4632034301757812</v>
+        <v>3.4557232856750488</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H105" s="5">
-        <v>-0.27134067701216602</v>
+        <v>0.28381145310962802</v>
       </c>
       <c r="I105" s="5">
-        <v>1.8642893411941142</v>
+        <v>1.5910629435829771</v>
       </c>
       <c r="J105" s="5">
-        <v>1.2443172914614611</v>
+        <v>2.4207509225061759</v>
       </c>
       <c r="K105" s="5">
-        <v>8.199140415536089</v>
+        <v>10.056780074577976</v>
       </c>
       <c r="L105" s="5">
-        <v>-0.21175192254593303</v>
+        <v>0.149556194056366</v>
       </c>
       <c r="M105" s="5">
-        <v>3.8935513374249502</v>
+        <v>4.1884131351628939</v>
       </c>
       <c r="N105" s="5">
-        <v>-13.224299378927796</v>
+        <v>-12.134341067605103</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>23</v>
@@ -8451,10 +8451,10 @@
         <v>194</v>
       </c>
       <c r="R105" s="5">
-        <v>12.26902235772571</v>
+        <v>12.229176513495558</v>
       </c>
       <c r="S105" s="5">
-        <v>10.343283653259277</v>
+        <v>10.372638702392578</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8583,40 +8583,40 @@
         <v>261</v>
       </c>
       <c r="C108" s="5">
-        <v>23343048</v>
+        <v>23358736</v>
       </c>
       <c r="D108" s="5">
-        <v>2437033728</v>
+        <v>2438671616</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F108" s="5">
-        <v>2.984021663665771</v>
+        <v>2.9771275520324711</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H108" s="5">
-        <v>-0.30481138771011301</v>
+        <v>0.29893519734445201</v>
       </c>
       <c r="I108" s="5">
-        <v>0.94424321203137007</v>
+        <v>0.61052124422202902</v>
       </c>
       <c r="J108" s="5">
-        <v>1.3433823485421441</v>
+        <v>2.5943427984310712</v>
       </c>
       <c r="K108" s="5">
-        <v>5.2914343768733163</v>
+        <v>6.676109024196375</v>
       </c>
       <c r="L108" s="5">
-        <v>-1.777948974720756</v>
+        <v>-1.1365907463950831</v>
       </c>
       <c r="M108" s="5">
-        <v>1.9141571336655172</v>
+        <v>2.2188144204149611</v>
       </c>
       <c r="N108" s="5">
-        <v>-9.1732937592707398</v>
+        <v>-8.2417739358518602</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>23</v>
@@ -8631,7 +8631,7 @@
         <v>21.754133052761645</v>
       </c>
       <c r="S108" s="5">
-        <v>19.335821151733398</v>
+        <v>19.393621444702148</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8651,7 +8651,7 @@
         <v>67</v>
       </c>
       <c r="F109" s="5">
-        <v>2.7557494640350342</v>
+        <v>2.7557497024536133</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>67</v>
       </c>
       <c r="F118" s="5">
-        <v>5.7657265663146973</v>
+        <v>5.7657270431518555</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>73</v>
       </c>
       <c r="F120" s="5">
-        <v>2.4422955513000488</v>
+        <v>2.4422953128814702</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>67</v>
       </c>
       <c r="F121" s="5">
-        <v>6.0344829559326172</v>
+        <v>6.034482479095459</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>0</v>
@@ -9409,40 +9409,40 @@
         <v>287</v>
       </c>
       <c r="C122" s="5">
-        <v>17290970</v>
+        <v>17302592</v>
       </c>
       <c r="D122" s="5">
-        <v>1006171712</v>
+        <v>1006847936</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>288</v>
       </c>
       <c r="F122" s="5">
-        <v>1.6139199733734131</v>
+        <v>1.6096277236938481</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H122" s="5">
-        <v>-0.40968060795775202</v>
+        <v>0.33405431616984105</v>
       </c>
       <c r="I122" s="5">
-        <v>0.90388717260647711</v>
+        <v>0.63867407100630702</v>
       </c>
       <c r="J122" s="5">
-        <v>1.361884451850681</v>
+        <v>2.5671740414928479</v>
       </c>
       <c r="K122" s="5">
-        <v>5.1837318128920451</v>
+        <v>6.6234084037688046</v>
       </c>
       <c r="L122" s="5">
-        <v>-1.8990213581858151</v>
+        <v>-1.13817085768092</v>
       </c>
       <c r="M122" s="5">
-        <v>1.875709539458392</v>
+        <v>2.2160297443036159</v>
       </c>
       <c r="N122" s="5">
-        <v>-9.1416839311913574</v>
+        <v>-8.1960380436538856</v>
       </c>
       <c r="O122" s="6" t="s">
         <v>23</v>
@@ -9457,7 +9457,7 @@
         <v>18.865350849688522</v>
       </c>
       <c r="S122" s="5">
-        <v>16.791044235229492</v>
+        <v>16.847135543823242</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9477,7 +9477,7 @@
         <v>73</v>
       </c>
       <c r="F123" s="5">
-        <v>3.5414302349090581</v>
+        <v>3.541429996490479</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>96</v>
       </c>
       <c r="F125" s="5">
-        <v>6.3640847206115723</v>
+        <v>6.3640851974487305</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>73</v>
       </c>
       <c r="F127" s="5">
-        <v>2.62415623664856</v>
+        <v>2.6241564750671391</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>0</v>
@@ -9822,40 +9822,40 @@
         <v>301</v>
       </c>
       <c r="C129" s="5">
-        <v>13823133</v>
+        <v>13832423</v>
       </c>
       <c r="D129" s="5">
-        <v>2397936640</v>
+        <v>2399548416</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>288</v>
       </c>
       <c r="F129" s="5">
-        <v>2.1202530860900879</v>
+        <v>2.1151764392852779</v>
       </c>
       <c r="G129" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H129" s="5">
-        <v>-0.40847902658108803</v>
+        <v>0.30738256325304503</v>
       </c>
       <c r="I129" s="5">
-        <v>1.674181342893899</v>
+        <v>1.3804588770221391</v>
       </c>
       <c r="J129" s="5">
-        <v>0.85481018188147107</v>
+        <v>2.3447957989199741</v>
       </c>
       <c r="K129" s="5">
-        <v>7.8635868711298684</v>
+        <v>9.9635526165325885</v>
       </c>
       <c r="L129" s="5">
-        <v>-0.48914593044437904</v>
+        <v>8.0399694812572003E-2</v>
       </c>
       <c r="M129" s="5">
-        <v>4.0346659671677498</v>
+        <v>4.3544503900893714</v>
       </c>
       <c r="N129" s="5">
-        <v>-13.405457392758692</v>
+        <v>-12.118834764260889</v>
       </c>
       <c r="O129" s="6" t="s">
         <v>23</v>
@@ -9867,10 +9867,10 @@
         <v>194</v>
       </c>
       <c r="R129" s="5">
-        <v>20.136898469484677</v>
+        <v>20.125180487647292</v>
       </c>
       <c r="S129" s="5">
-        <v>17.100746154785156</v>
+        <v>17.153310775756836</v>
       </c>
     </row>
     <row r="130" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9890,7 +9890,7 @@
         <v>67</v>
       </c>
       <c r="F130" s="5">
-        <v>3.3879039287567139</v>
+        <v>3.387904167175293</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>309</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C134" s="5">
         <v>13370715</v>
@@ -10235,99 +10235,99 @@
         <v>312</v>
       </c>
       <c r="C136" s="5">
-        <v>13164333</v>
+        <v>13036015</v>
       </c>
       <c r="D136" s="5">
-        <v>1448329728</v>
+        <v>1105736704</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F136" s="5">
-        <v>3.0923252105712891</v>
+        <v>4.7999997138977051</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>-8.9174379737977011E-2</v>
+        <v>0.19999694824219802</v>
       </c>
       <c r="I136" s="5">
-        <v>1.4931111398983841</v>
+        <v>0.24009390352905902</v>
       </c>
       <c r="J136" s="5">
-        <v>1.922092576640644</v>
+        <v>1.2522019327590339</v>
       </c>
       <c r="K136" s="5">
-        <v>11.742843896481702</v>
+        <v>2.3007000518536769</v>
       </c>
       <c r="L136" s="5">
-        <v>4.0223675411214854</v>
+        <v>3.6233005817334352</v>
       </c>
       <c r="M136" s="5">
-        <v>2.296890189705159</v>
+        <v>0.68328007246085709</v>
       </c>
       <c r="N136" s="5">
-        <v>-2.9692104232147853</v>
+        <v>1.3664238646998061</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="Q136" s="6" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="R136" s="5">
-        <v>38.015730386545648</v>
+        <v>26.200000762939453</v>
       </c>
       <c r="S136" s="5">
-        <v>34.927524566650391</v>
+        <v>25.049999237060547</v>
       </c>
     </row>
     <row r="137" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A137" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C137" s="5">
-        <v>13036015</v>
+        <v>12893088</v>
       </c>
       <c r="D137" s="5">
-        <v>1105736704</v>
+        <v>1960182016</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F137" s="5">
-        <v>4.8000001907348633</v>
+        <v>5.2810344696044922</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>0.19999694824219802</v>
+        <v>0.129480736067</v>
       </c>
       <c r="I137" s="5">
-        <v>0.24009390352905902</v>
+        <v>2.3378945075511082</v>
       </c>
       <c r="J137" s="5">
-        <v>1.2522019327590339</v>
+        <v>2.5770762854621321</v>
       </c>
       <c r="K137" s="5">
-        <v>2.3007000518536769</v>
+        <v>6.8156728554308099</v>
       </c>
       <c r="L137" s="5">
-        <v>3.6233005817334352</v>
+        <v>6.3102226648992898</v>
       </c>
       <c r="M137" s="5">
-        <v>0.68328007246085709</v>
+        <v>3.617692699292796</v>
       </c>
       <c r="N137" s="5">
-        <v>1.3664238646998061</v>
+        <v>-5.4194902776752869</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>23</v>
@@ -10339,54 +10339,54 @@
         <v>25</v>
       </c>
       <c r="R137" s="5">
-        <v>26.200000762939453</v>
+        <v>25.879999160766602</v>
       </c>
       <c r="S137" s="5">
-        <v>25.049999237060547</v>
+        <v>23.200000762939453</v>
       </c>
     </row>
     <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A138" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C138" s="5">
-        <v>12893088</v>
+        <v>12493668</v>
       </c>
       <c r="D138" s="5">
-        <v>1960182016</v>
+        <v>713687104</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F138" s="5">
-        <v>5.2810344696044922</v>
+        <v>4.4783096313476562</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>0.129480736067</v>
+        <v>1.4215409880314001E-2</v>
       </c>
       <c r="I138" s="5">
-        <v>2.3378945075511082</v>
+        <v>9.4848215718146001E-2</v>
       </c>
       <c r="J138" s="5">
-        <v>2.5770762854621321</v>
+        <v>0.37425472339300803</v>
       </c>
       <c r="K138" s="5">
-        <v>6.8156728554308099</v>
+        <v>0.94961929400800804</v>
       </c>
       <c r="L138" s="5">
-        <v>6.3102226648992898</v>
+        <v>1.288125763393988</v>
       </c>
       <c r="M138" s="5">
-        <v>3.617692699292796</v>
+        <v>0.180370655032869</v>
       </c>
       <c r="N138" s="5">
-        <v>-5.4194902776752869</v>
+        <v>1.3148416054209471</v>
       </c>
       <c r="O138" s="6" t="s">
         <v>23</v>
@@ -10398,54 +10398,54 @@
         <v>25</v>
       </c>
       <c r="R138" s="5">
-        <v>25.879999160766602</v>
+        <v>105.62000274658203</v>
       </c>
       <c r="S138" s="5">
-        <v>23.200000762939453</v>
+        <v>105.52999877929688</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A139" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="C139" s="5">
-        <v>12493668</v>
+        <v>12491215</v>
       </c>
       <c r="D139" s="5">
-        <v>713687104</v>
+        <v>1135868032</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F139" s="5">
-        <v>4.4783096313476562</v>
+        <v>2.8103716373443599</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H139" s="5">
-        <v>1.4215409880314001E-2</v>
+        <v>-0.33670001235441804</v>
       </c>
       <c r="I139" s="5">
-        <v>9.4848215718146001E-2</v>
+        <v>0.38151823656524803</v>
       </c>
       <c r="J139" s="5">
-        <v>0.37425472339300803</v>
+        <v>0.6175081729022921</v>
       </c>
       <c r="K139" s="5">
-        <v>0.94961929400800804</v>
+        <v>4.281665339676799</v>
       </c>
       <c r="L139" s="5">
-        <v>1.288125763393988</v>
+        <v>0.47563325439699006</v>
       </c>
       <c r="M139" s="5">
-        <v>0.180370655032869</v>
+        <v>1.4132758814339841</v>
       </c>
       <c r="N139" s="5">
-        <v>1.3148416054209471</v>
+        <v>-6.1925657898912467</v>
       </c>
       <c r="O139" s="6" t="s">
         <v>23</v>
@@ -10457,69 +10457,69 @@
         <v>25</v>
       </c>
       <c r="R139" s="5">
-        <v>105.62000274658203</v>
+        <v>25.831199645996094</v>
       </c>
       <c r="S139" s="5">
-        <v>105.52999877929688</v>
+        <v>23.680000305175781</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A140" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C140" s="5">
+        <v>12408688</v>
+      </c>
+      <c r="D140" s="5">
+        <v>641964160</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F140" s="5">
+        <v>4.0917549133300781</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H140" s="5">
+        <v>-0.74501730964917601</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1.5195980235305222</v>
+      </c>
+      <c r="J140" s="5">
+        <v>-1.2507127418622699</v>
+      </c>
+      <c r="K140" s="5">
+        <v>7.5038054975583357</v>
+      </c>
+      <c r="L140" s="5">
+        <v>-7.1050242266214596</v>
+      </c>
+      <c r="M140" s="5">
+        <v>5.325290225441659</v>
+      </c>
+      <c r="N140" s="5">
+        <v>-24.761029793406575</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q140" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C140" s="5">
-        <v>12491215</v>
-      </c>
-      <c r="D140" s="5">
-        <v>1135868032</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F140" s="5">
-        <v>2.8103716373443599</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140" s="5">
-        <v>-0.33670001235441804</v>
-      </c>
-      <c r="I140" s="5">
-        <v>0.38151823656524803</v>
-      </c>
-      <c r="J140" s="5">
-        <v>0.6175081729022921</v>
-      </c>
-      <c r="K140" s="5">
-        <v>4.281665339676799</v>
-      </c>
-      <c r="L140" s="5">
-        <v>0.47563325439699006</v>
-      </c>
-      <c r="M140" s="5">
-        <v>1.4132758814339841</v>
-      </c>
-      <c r="N140" s="5">
-        <v>-6.1925657898912467</v>
-      </c>
-      <c r="O140" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P140" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q140" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R140" s="5">
-        <v>25.831199645996094</v>
+        <v>1.452556309295072</v>
       </c>
       <c r="S140" s="5">
-        <v>23.680000305175781</v>
+        <v>1.065248966217041</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10589,40 +10589,40 @@
         <v>326</v>
       </c>
       <c r="C142" s="5">
-        <v>12167596</v>
+        <v>12137140</v>
       </c>
       <c r="D142" s="5">
-        <v>643023936</v>
+        <v>1439851520</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F142" s="5">
-        <v>4.0615386962890634</v>
+        <v>3.0923252105712891</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>327</v>
       </c>
       <c r="H142" s="5">
-        <v>1.458301938705286</v>
+        <v>-0.15791037724023302</v>
       </c>
       <c r="I142" s="5">
-        <v>3.997456893148033</v>
+        <v>0.29948694021104705</v>
       </c>
       <c r="J142" s="5">
-        <v>0.47955654387710206</v>
+        <v>4.1982072897493339</v>
       </c>
       <c r="K142" s="5">
-        <v>7.975915394085864</v>
+        <v>12.819225471202845</v>
       </c>
       <c r="L142" s="5">
-        <v>-5.5343714791011518</v>
+        <v>3.7761935184935203</v>
       </c>
       <c r="M142" s="5">
-        <v>6.1158718389268119</v>
+        <v>2.1353527845015869</v>
       </c>
       <c r="N142" s="5">
-        <v>-23.789998621116126</v>
+        <v>-1.9387057788223581</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>23</v>
@@ -10634,10 +10634,10 @@
         <v>329</v>
       </c>
       <c r="R142" s="5">
-        <v>1.452556309295072</v>
+        <v>38.015730386545648</v>
       </c>
       <c r="S142" s="5">
-        <v>1.0732448101043701</v>
+        <v>34.872371673583984</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10661,25 +10661,25 @@
         <v>73</v>
       </c>
       <c r="H143" s="5">
-        <v>1.9376475082211003E-2</v>
+        <v>1.9365332803334002E-2</v>
       </c>
       <c r="I143" s="5">
-        <v>8.7238508173448012E-2</v>
+        <v>7.7521156415150005E-2</v>
       </c>
       <c r="J143" s="5">
-        <v>0.35961001922142405</v>
+        <v>0.29131424799384603</v>
       </c>
       <c r="K143" s="5">
-        <v>0.93841549934945412</v>
+        <v>0.96783444609320812</v>
       </c>
       <c r="L143" s="5">
-        <v>1.3147605880682312</v>
+        <v>1.3144951008421171</v>
       </c>
       <c r="M143" s="5">
-        <v>7.7536180285009013E-2</v>
+        <v>9.6916528227697002E-2</v>
       </c>
       <c r="N143" s="5">
-        <v>1.146053325800334</v>
+        <v>1.1656405956443241</v>
       </c>
       <c r="O143" s="6" t="s">
         <v>73</v>
@@ -10691,10 +10691,10 @@
         <v>333</v>
       </c>
       <c r="R143" s="5">
+        <v>103.31999969482422</v>
+      </c>
+      <c r="S143" s="5">
         <v>103.27999877929687</v>
-      </c>
-      <c r="S143" s="5">
-        <v>103.26000213623047</v>
       </c>
     </row>
     <row r="144" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10705,40 +10705,40 @@
         <v>261</v>
       </c>
       <c r="C144" s="5">
-        <v>11595640</v>
+        <v>11603433</v>
       </c>
       <c r="D144" s="5">
-        <v>945325376</v>
+        <v>945960704</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F144" s="5">
-        <v>3.533057689666748</v>
+        <v>3.5275917053222661</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H144" s="5">
-        <v>-8.5239545871674011E-2</v>
+        <v>0.22226730813441603</v>
       </c>
       <c r="I144" s="5">
-        <v>1.580147485305172</v>
+        <v>1.1925946233611431</v>
       </c>
       <c r="J144" s="5">
-        <v>1.133402175532261</v>
+        <v>2.752166255907595</v>
       </c>
       <c r="K144" s="5">
-        <v>8.0289451467374651</v>
+        <v>9.7095698618534065</v>
       </c>
       <c r="L144" s="5">
-        <v>3.2323313560645002E-2</v>
+        <v>0.39323881381467801</v>
       </c>
       <c r="M144" s="5">
-        <v>3.5371896538989529</v>
+        <v>3.7673189782606809</v>
       </c>
       <c r="N144" s="5">
-        <v>-12.241296917246968</v>
+        <v>-11.289284040095215</v>
       </c>
       <c r="O144" s="6" t="s">
         <v>23</v>
@@ -10750,10 +10750,10 @@
         <v>194</v>
       </c>
       <c r="R144" s="5">
-        <v>16.95971812128716</v>
+        <v>16.939496557817012</v>
       </c>
       <c r="S144" s="5">
-        <v>14.447761535644531</v>
+        <v>14.479873657226563</v>
       </c>
     </row>
     <row r="145" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10773,7 +10773,7 @@
         <v>73</v>
       </c>
       <c r="F145" s="5">
-        <v>2.9190902709960942</v>
+        <v>2.9190905094146729</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>67</v>
       </c>
       <c r="F147" s="5">
-        <v>3.4138164520263672</v>
+        <v>3.4138166904449458</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>0</v>
@@ -11175,10 +11175,10 @@
         <v>348</v>
       </c>
       <c r="C152" s="5">
-        <v>9084856</v>
+        <v>9090962</v>
       </c>
       <c r="D152" s="5">
-        <v>1535439744</v>
+        <v>1536471680</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>73</v>
@@ -11188,25 +11188,25 @@
         <v>73</v>
       </c>
       <c r="H152" s="5">
-        <v>-0.16209341639070701</v>
+        <v>0.17235411433449402</v>
       </c>
       <c r="I152" s="5">
-        <v>0.36882983074138004</v>
+        <v>-0.164295453554819</v>
       </c>
       <c r="J152" s="5">
-        <v>1.7700324049649829</v>
+        <v>2.926666016131851</v>
       </c>
       <c r="K152" s="5">
-        <v>4.2423907793661453</v>
+        <v>5.2534779399262099</v>
       </c>
       <c r="L152" s="5">
-        <v>-0.89491330434398109</v>
+        <v>-4.5173454426450002E-2</v>
       </c>
       <c r="M152" s="5">
-        <v>1.3768580173767919</v>
+        <v>1.5515852031527722</v>
       </c>
       <c r="N152" s="5">
-        <v>-3.7893545481411</v>
+        <v>-3.0775959596907492</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>73</v>
@@ -11221,7 +11221,7 @@
         <v>81.49663186585785</v>
       </c>
       <c r="S152" s="5">
-        <v>78.126869201660156</v>
+        <v>78.261520385742188</v>
       </c>
     </row>
     <row r="153" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11241,7 +11241,7 @@
         <v>55</v>
       </c>
       <c r="F153" s="5">
-        <v>5.7659692764282227</v>
+        <v>5.7659697532653809</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>0</v>
@@ -11409,40 +11409,40 @@
         <v>356</v>
       </c>
       <c r="C156" s="5">
-        <v>8046480.5</v>
+        <v>8051888.5</v>
       </c>
       <c r="D156" s="5">
-        <v>625975488</v>
+        <v>626396224</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F156" s="5">
-        <v>4.4389643669128418</v>
+        <v>4.4362297058105469</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H156" s="5">
-        <v>-0.30231155912496804</v>
+        <v>0.128902003891707</v>
       </c>
       <c r="I156" s="5">
-        <v>0.38277645275275302</v>
+        <v>-6.1669854842605003E-2</v>
       </c>
       <c r="J156" s="5">
-        <v>1.46442213713236</v>
+        <v>2.6957884615287142</v>
       </c>
       <c r="K156" s="5">
-        <v>3.7829634469906499</v>
+        <v>4.8457129446825009</v>
       </c>
       <c r="L156" s="5">
-        <v>-1.7637695965724951</v>
+        <v>-1.0041720982043809</v>
       </c>
       <c r="M156" s="5">
-        <v>1.17806967689924</v>
+        <v>1.3084902362117119</v>
       </c>
       <c r="N156" s="5">
-        <v>-5.4045383844567922</v>
+        <v>-4.7173524210532776</v>
       </c>
       <c r="O156" s="6" t="s">
         <v>23</v>
@@ -11457,7 +11457,7 @@
         <v>39.56828869626947</v>
       </c>
       <c r="S156" s="5">
-        <v>36.313434600830078</v>
+        <v>36.360240936279297</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11468,40 +11468,40 @@
         <v>358</v>
       </c>
       <c r="C157" s="5">
-        <v>7988827.5</v>
+        <v>7994197</v>
       </c>
       <c r="D157" s="5">
-        <v>1521631488</v>
+        <v>1522654208</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F157" s="5">
-        <v>5.6544504165649414</v>
+        <v>5.6367435455322266</v>
       </c>
       <c r="G157" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H157" s="5">
-        <v>-1.2736962786388921</v>
+        <v>0.38155525067289403</v>
       </c>
       <c r="I157" s="5">
-        <v>1.59750734967421</v>
+        <v>0.67642546716684104</v>
       </c>
       <c r="J157" s="5">
-        <v>5.9258766899349391</v>
+        <v>8.7575665181862217</v>
       </c>
       <c r="K157" s="5">
-        <v>8.6439705879265851</v>
+        <v>10.637359633222832</v>
       </c>
       <c r="L157" s="5">
-        <v>-5.7227637706247281</v>
+        <v>-4.2591418809232007</v>
       </c>
       <c r="M157" s="5">
-        <v>6.4309991084563265</v>
+        <v>6.8370921738982737</v>
       </c>
       <c r="N157" s="5">
-        <v>-19.668437527013481</v>
+        <v>-19.035673689112699</v>
       </c>
       <c r="O157" s="6" t="s">
         <v>23</v>
@@ -11516,7 +11516,7 @@
         <v>9.4045901677329553</v>
       </c>
       <c r="S157" s="5">
-        <v>7.1268658638000488</v>
+        <v>7.1540584564208984</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11536,7 +11536,7 @@
         <v>73</v>
       </c>
       <c r="F158" s="5">
-        <v>3.6408548355102539</v>
+        <v>3.6408545970916748</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>0</v>
@@ -11583,7 +11583,7 @@
         <v>361</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C159" s="5">
         <v>7705465</v>
@@ -11643,40 +11643,40 @@
         <v>363</v>
       </c>
       <c r="C160" s="5">
-        <v>7571196.5</v>
+        <v>7576285</v>
       </c>
       <c r="D160" s="5">
-        <v>1232527616</v>
+        <v>1233356032</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F160" s="5">
-        <v>2.6359143257141109</v>
+        <v>2.631578922271729</v>
       </c>
       <c r="G160" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H160" s="5">
-        <v>-0.61617856377322899</v>
+        <v>0.23206994941396003</v>
       </c>
       <c r="I160" s="5">
-        <v>1.491295988156627</v>
+        <v>0.71920551774591301</v>
       </c>
       <c r="J160" s="5">
-        <v>2.554053863283734</v>
+        <v>3.702772489970485</v>
       </c>
       <c r="K160" s="5">
-        <v>8.5103950864398037</v>
+        <v>9.6085784562412115</v>
       </c>
       <c r="L160" s="5">
-        <v>0.35656005038808802</v>
+        <v>1.370722304198968</v>
       </c>
       <c r="M160" s="5">
-        <v>2.891222579741104</v>
+        <v>3.130002187933334</v>
       </c>
       <c r="N160" s="5">
-        <v>-10.422187109689174</v>
+        <v>-9.74271655329696</v>
       </c>
       <c r="O160" s="6" t="s">
         <v>23</v>
@@ -11691,7 +11691,7 @@
         <v>15.751885059193228</v>
       </c>
       <c r="S160" s="5">
-        <v>13.58955192565918</v>
+        <v>13.621088981628418</v>
       </c>
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11761,40 +11761,40 @@
         <v>367</v>
       </c>
       <c r="C162" s="5">
-        <v>7172441</v>
+        <v>7177261.5</v>
       </c>
       <c r="D162" s="5">
-        <v>704521536</v>
+        <v>704995072</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>96</v>
       </c>
       <c r="F162" s="5">
-        <v>6.5335750579833984</v>
+        <v>6.4864859580993652</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H162" s="5">
-        <v>-0.97231944835817208</v>
+        <v>0.79365080466578009</v>
       </c>
       <c r="I162" s="5">
-        <v>1.3323810165981391</v>
+        <v>1.018808712389085</v>
       </c>
       <c r="J162" s="5">
-        <v>1.113948271230436</v>
+        <v>4.5201579225332864</v>
       </c>
       <c r="K162" s="5">
-        <v>10.226944175090669</v>
+        <v>12.202422417310554</v>
       </c>
       <c r="L162" s="5">
-        <v>1.193247720134383</v>
+        <v>1.831420376760295</v>
       </c>
       <c r="M162" s="5">
-        <v>3.69907577086992</v>
+        <v>4.5220843201563943</v>
       </c>
       <c r="N162" s="5">
-        <v>-15.665116607214458</v>
+        <v>-14.108830595813471</v>
       </c>
       <c r="O162" s="6" t="s">
         <v>23</v>
@@ -11809,7 +11809,7 @@
         <v>10.375541891490757</v>
       </c>
       <c r="S162" s="5">
-        <v>8.2238807678222656</v>
+        <v>8.289149284362793</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11879,55 +11879,55 @@
         <v>371</v>
       </c>
       <c r="C164" s="5">
-        <v>6704509</v>
+        <v>6824262.5</v>
       </c>
       <c r="D164" s="5">
-        <v>944379136</v>
+        <v>1821297664</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F164" s="5">
-        <v>5.2173914909362793</v>
+        <v>4.9328584671020508</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="H164" s="5">
-        <v>-1.4572522403073611</v>
+        <v>-0.19805194639717102</v>
       </c>
       <c r="I164" s="5">
-        <v>2.459166926317025</v>
+        <v>2.8822155938678322</v>
       </c>
       <c r="J164" s="5">
-        <v>6.7593319471008328</v>
+        <v>0.69792599649471909</v>
       </c>
       <c r="K164" s="5">
-        <v>9.4288965447069764</v>
+        <v>14.021251270244539</v>
       </c>
       <c r="L164" s="5">
-        <v>-5.5756859185719154</v>
+        <v>-3.4259236137946E-2</v>
       </c>
       <c r="M164" s="5">
-        <v>8.1151474211979213</v>
+        <v>6.186983156864545</v>
       </c>
       <c r="N164" s="5">
-        <v>-19.627813784495562</v>
+        <v>-18.031600024365012</v>
       </c>
       <c r="O164" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="Q164" s="6" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="R164" s="5">
-        <v>11.282298523203899</v>
+        <v>1.5063547523361902</v>
       </c>
       <c r="S164" s="5">
-        <v>8.5820894241333008</v>
+        <v>1.204926729202271</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11938,230 +11938,230 @@
         <v>373</v>
       </c>
       <c r="C165" s="5">
-        <v>6629359</v>
+        <v>6709015</v>
       </c>
       <c r="D165" s="5">
-        <v>580054592</v>
+        <v>945013824</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F165" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F165" s="5">
+        <v>5.1858258247375488</v>
+      </c>
       <c r="G165" s="6" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="H165" s="5">
-        <v>0.42681396187700404</v>
+        <v>0.67631290177914105</v>
       </c>
       <c r="I165" s="5">
-        <v>1.8677139601564141</v>
+        <v>1.8605869128959012</v>
       </c>
       <c r="J165" s="5">
-        <v>3.9668634702869849</v>
+        <v>8.5365813439662208</v>
       </c>
       <c r="K165" s="5">
-        <v>7.1193620179668127</v>
+        <v>11.664179201281865</v>
       </c>
       <c r="L165" s="5">
-        <v>1.735042157129318</v>
+        <v>-3.588010606981384</v>
       </c>
       <c r="M165" s="5">
-        <v>3.324356745504331</v>
+        <v>8.8463441119850383</v>
       </c>
       <c r="N165" s="5">
-        <v>-1.7521961294587831</v>
+        <v>-18.675922558379408</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>376</v>
+        <v>193</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>377</v>
+        <v>194</v>
       </c>
       <c r="R165" s="5">
-        <v>17.239744689086226</v>
+        <v>11.282298523203899</v>
       </c>
       <c r="S165" s="5">
-        <v>16.751976013183594</v>
+        <v>8.6401309967041016</v>
       </c>
     </row>
     <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A166" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="C166" s="5">
-        <v>6611297.5</v>
+        <v>6614391</v>
       </c>
       <c r="D166" s="5">
-        <v>1146758400</v>
+        <v>362882528</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F166" s="5">
-        <v>2.83899998664856</v>
+        <v>3.7314906120300293</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H166" s="5">
-        <v>-0.30985540941513801</v>
+        <v>0.16609370329430101</v>
       </c>
       <c r="I166" s="5">
-        <v>0.94988334085133208</v>
+        <v>2.77801654452221</v>
       </c>
       <c r="J166" s="5">
-        <v>0.72027458129897404</v>
+        <v>2.3187845765070052</v>
       </c>
       <c r="K166" s="5">
-        <v>5.6274897971692939</v>
+        <v>14.481973110496327</v>
       </c>
       <c r="L166" s="5">
-        <v>-0.95206793362154807</v>
+        <v>1.348276648033164</v>
       </c>
       <c r="M166" s="5">
-        <v>2.9340428109161381</v>
+        <v>6.7829962448789693</v>
       </c>
       <c r="N166" s="5">
-        <v>-9.6131895865909538</v>
+        <v>-17.777582797952206</v>
       </c>
       <c r="O166" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="Q166" s="6" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="R166" s="5">
-        <v>53.159999847412109</v>
+        <v>19.142834929216527</v>
       </c>
       <c r="S166" s="5">
-        <v>47.133499145507812</v>
+        <v>15.129565238952637</v>
       </c>
     </row>
     <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A167" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="C167" s="5">
-        <v>6609948.5</v>
+        <v>6611297.5</v>
       </c>
       <c r="D167" s="5">
-        <v>362638816</v>
+        <v>1146758400</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F167" s="5">
-        <v>3.7351779937744141</v>
+        <v>2.83899998664856</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="H167" s="5">
-        <v>-0.24471509007952802</v>
+        <v>-0.30985540941513801</v>
       </c>
       <c r="I167" s="5">
-        <v>3.175547424009495</v>
+        <v>0.94988334085133208</v>
       </c>
       <c r="J167" s="5">
-        <v>0.47716867042662003</v>
+        <v>0.72027458129897404</v>
       </c>
       <c r="K167" s="5">
-        <v>12.249656762950444</v>
+        <v>5.6274897971692939</v>
       </c>
       <c r="L167" s="5">
-        <v>1.4329299056154992</v>
+        <v>-0.95206793362154807</v>
       </c>
       <c r="M167" s="5">
-        <v>6.6059305069686047</v>
+        <v>2.9340428109161381</v>
       </c>
       <c r="N167" s="5">
-        <v>-19.259027970992726</v>
+        <v>-9.6131895865909538</v>
       </c>
       <c r="O167" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="R167" s="5">
-        <v>19.205666317069884</v>
+        <v>53.159999847412109</v>
       </c>
       <c r="S167" s="5">
-        <v>15.104477882385254</v>
+        <v>47.133499145507812</v>
       </c>
     </row>
     <row r="168" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A168" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C168" s="5">
+        <v>6564585.5</v>
+      </c>
+      <c r="D168" s="5">
+        <v>576048384</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H168" s="5">
+        <v>-0.57362707590220607</v>
+      </c>
+      <c r="I168" s="5">
+        <v>0.40533833622133902</v>
+      </c>
+      <c r="J168" s="5">
+        <v>3.7061345230904319</v>
+      </c>
+      <c r="K168" s="5">
+        <v>6.8856510261042558</v>
+      </c>
+      <c r="L168" s="5">
+        <v>1.9310241761937521</v>
+      </c>
+      <c r="M168" s="5">
+        <v>2.7316602592103441</v>
+      </c>
+      <c r="N168" s="5">
+        <v>-2.4158234878111862</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="P168" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="Q168" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C168" s="5">
-        <v>6445785.5</v>
-      </c>
-      <c r="D168" s="5">
-        <v>1824304256</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F168" s="5">
-        <v>4.9234137535095215</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H168" s="5">
-        <v>1.4653722966076139</v>
-      </c>
-      <c r="I168" s="5">
-        <v>5.0913800698000777</v>
-      </c>
-      <c r="J168" s="5">
-        <v>1.394927909292099</v>
-      </c>
-      <c r="K168" s="5">
-        <v>14.478649841979863</v>
-      </c>
-      <c r="L168" s="5">
-        <v>0.55520491147484907</v>
-      </c>
-      <c r="M168" s="5">
-        <v>6.3977058842903167</v>
-      </c>
-      <c r="N168" s="5">
-        <v>-17.737807213679545</v>
-      </c>
-      <c r="O168" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P168" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q168" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="R168" s="5">
-        <v>1.509714423875558</v>
+        <v>17.239744689086226</v>
       </c>
       <c r="S168" s="5">
-        <v>1.2073179483413701</v>
+        <v>16.6558837890625</v>
       </c>
     </row>
     <row r="169" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12172,55 +12172,55 @@
         <v>384</v>
       </c>
       <c r="C169" s="5">
-        <v>6241192.5</v>
+        <v>6467678.5</v>
       </c>
       <c r="D169" s="5">
-        <v>676397056</v>
+        <v>961342784</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F169" s="5">
-        <v>3.4858906269073491</v>
+        <v>5.474860668182373</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H169" s="5">
-        <v>4.2909589372409004E-2</v>
+        <v>-0.22955516301528303</v>
       </c>
       <c r="I169" s="5">
-        <v>0.12212396375865801</v>
+        <v>3.57318708353771</v>
       </c>
       <c r="J169" s="5">
-        <v>0.51833865998616202</v>
+        <v>-1.8205055005774631</v>
       </c>
       <c r="K169" s="5">
-        <v>1.22180649601189</v>
+        <v>15.606023575554495</v>
       </c>
       <c r="L169" s="5">
-        <v>1.6288920999814049</v>
+        <v>1.536319498953387</v>
       </c>
       <c r="M169" s="5">
-        <v>0.27149979229383903</v>
+        <v>3.4964022112311981</v>
       </c>
       <c r="N169" s="5">
-        <v>0.46659652598115603</v>
+        <v>-19.375979736571303</v>
       </c>
       <c r="O169" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P169" s="6" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="R169" s="5">
-        <v>75.510002136230469</v>
+        <v>1.496606035634729</v>
       </c>
       <c r="S169" s="5">
-        <v>74.601997375488281</v>
+        <v>1.182142376899719</v>
       </c>
     </row>
     <row r="170" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12231,55 +12231,55 @@
         <v>386</v>
       </c>
       <c r="C170" s="5">
-        <v>6233709.5</v>
+        <v>6241192.5</v>
       </c>
       <c r="D170" s="5">
-        <v>1095352704</v>
+        <v>676397056</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F170" s="5">
-        <v>5.5864152908325204</v>
+        <v>3.48589038848877</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="H170" s="5">
-        <v>-1.336132787024269</v>
+        <v>4.2909589372409004E-2</v>
       </c>
       <c r="I170" s="5">
-        <v>2.7771956701689193</v>
+        <v>0.12212396375865801</v>
       </c>
       <c r="J170" s="5">
-        <v>7.1166691933276516</v>
+        <v>0.51833865998616202</v>
       </c>
       <c r="K170" s="5">
-        <v>10.15338423874077</v>
+        <v>1.22180649601189</v>
       </c>
       <c r="L170" s="5">
-        <v>-4.8206483324097267</v>
+        <v>1.6288920999814049</v>
       </c>
       <c r="M170" s="5">
-        <v>7.8914813355214894</v>
+        <v>0.27149979229383903</v>
       </c>
       <c r="N170" s="5">
-        <v>-20.537523530451264</v>
+        <v>0.46659652598115603</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="Q170" s="6" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="R170" s="5">
-        <v>7.9120523645299681</v>
+        <v>75.510002136230469</v>
       </c>
       <c r="S170" s="5">
-        <v>5.932835578918457</v>
+        <v>74.601997375488281</v>
       </c>
     </row>
     <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12290,114 +12290,114 @@
         <v>388</v>
       </c>
       <c r="C171" s="5">
-        <v>6105621</v>
+        <v>6237899</v>
       </c>
       <c r="D171" s="5">
-        <v>528129024</v>
+        <v>1096088960</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="F171" s="5">
-        <v>2.0558261871337891</v>
+        <v>5.558448314666748</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H171" s="5">
-        <v>-0.130962944480917</v>
+        <v>0.57069314943423199</v>
       </c>
       <c r="I171" s="5">
-        <v>1.1751379194585581</v>
+        <v>1.357975613089879</v>
       </c>
       <c r="J171" s="5">
-        <v>0.96739531518979005</v>
+        <v>10.005784978232747</v>
       </c>
       <c r="K171" s="5">
-        <v>5.3304327391285211</v>
+        <v>12.445239409623877</v>
       </c>
       <c r="L171" s="5">
-        <v>1.6873716076981631</v>
+        <v>-3.0577315448001241</v>
       </c>
       <c r="M171" s="5">
-        <v>1.870228079578085</v>
+        <v>8.5072106283264013</v>
       </c>
       <c r="N171" s="5">
-        <v>-5.1646695325276104</v>
+        <v>-19.623425035831243</v>
       </c>
       <c r="O171" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="Q171" s="6" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="R171" s="5">
-        <v>57.453399658203125</v>
+        <v>7.9120523645299681</v>
       </c>
       <c r="S171" s="5">
-        <v>53.380001068115234</v>
+        <v>5.9666938781738281</v>
       </c>
     </row>
     <row r="172" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A172" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="5">
+        <v>6105621</v>
+      </c>
+      <c r="D172" s="5">
+        <v>528129024</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C172" s="5">
-        <v>6105307.5</v>
-      </c>
-      <c r="D172" s="5">
-        <v>962929792</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="F172" s="5">
-        <v>5.4626531600952148</v>
+        <v>2.0558261871337891</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="H172" s="5">
-        <v>1.3978382830605041</v>
+        <v>-0.130962944480917</v>
       </c>
       <c r="I172" s="5">
-        <v>5.4977256349803438</v>
+        <v>1.1751379194585581</v>
       </c>
       <c r="J172" s="5">
-        <v>-0.92238402654314411</v>
+        <v>0.96739531518979005</v>
       </c>
       <c r="K172" s="5">
-        <v>16.292960092886943</v>
+        <v>5.3304327391285211</v>
       </c>
       <c r="L172" s="5">
-        <v>1.9072345766314671</v>
+        <v>1.6873716076981631</v>
       </c>
       <c r="M172" s="5">
-        <v>3.7345301810915332</v>
+        <v>1.870228079578085</v>
       </c>
       <c r="N172" s="5">
-        <v>-19.137661187657596</v>
+        <v>-5.1646695325276104</v>
       </c>
       <c r="O172" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="Q172" s="6" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="R172" s="5">
-        <v>1.508264484933723</v>
+        <v>57.453399658203125</v>
       </c>
       <c r="S172" s="5">
-        <v>1.184862375259399</v>
+        <v>53.380001068115234</v>
       </c>
     </row>
     <row r="173" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12421,25 +12421,25 @@
         <v>73</v>
       </c>
       <c r="H173" s="5">
-        <v>1.8472704618899001E-2</v>
+        <v>-5.5416686006438003E-2</v>
       </c>
       <c r="I173" s="5">
-        <v>0.47322668086309205</v>
+        <v>0.13879327682120302</v>
       </c>
       <c r="J173" s="5">
-        <v>0.65067570544461406</v>
+        <v>0.59489843652555907</v>
       </c>
       <c r="K173" s="5">
-        <v>3.3206158552365972</v>
+        <v>3.1452529114018191</v>
       </c>
       <c r="L173" s="5">
-        <v>1.016887838325742</v>
+        <v>0.70723299737895906</v>
       </c>
       <c r="M173" s="5">
-        <v>0.90392435516784009</v>
+        <v>0.84800674423977107</v>
       </c>
       <c r="N173" s="5">
-        <v>-3.217730295986831</v>
+        <v>-3.089462458008263</v>
       </c>
       <c r="O173" s="6" t="s">
         <v>73</v>
@@ -12451,10 +12451,10 @@
         <v>333</v>
       </c>
       <c r="R173" s="5">
-        <v>5.5939998626708984</v>
+        <v>5.5840001106262207</v>
       </c>
       <c r="S173" s="5">
-        <v>5.4140000343322754</v>
+        <v>5.4109997749328613</v>
       </c>
     </row>
     <row r="174" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12465,40 +12465,40 @@
         <v>395</v>
       </c>
       <c r="C174" s="5">
-        <v>6090639</v>
+        <v>6065404</v>
       </c>
       <c r="D174" s="5">
-        <v>7997507072</v>
+        <v>7964370944</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>396</v>
       </c>
       <c r="F174" s="5">
-        <v>2.1651391983032231</v>
+        <v>2.1627082824707031</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>397</v>
       </c>
       <c r="H174" s="5">
-        <v>-0.12448165060634502</v>
+        <v>-1.7043144816153002E-2</v>
       </c>
       <c r="I174" s="5">
-        <v>2.164405613321629</v>
+        <v>1.1001214059313871</v>
       </c>
       <c r="J174" s="5">
-        <v>1.3158997572155551</v>
+        <v>3.102147938376731</v>
       </c>
       <c r="K174" s="5">
-        <v>15.641822390169402</v>
+        <v>16.289904323657712</v>
       </c>
       <c r="L174" s="5">
-        <v>5.3431709718429143</v>
+        <v>5.1107581333432739</v>
       </c>
       <c r="M174" s="5">
-        <v>2.6400787732555391</v>
+        <v>2.6225856759908073</v>
       </c>
       <c r="N174" s="5">
-        <v>-16.293858146083473</v>
+        <v>-15.735203065507953</v>
       </c>
       <c r="O174" s="6" t="s">
         <v>398</v>
@@ -12510,10 +12510,10 @@
         <v>333</v>
       </c>
       <c r="R174" s="5">
-        <v>151.92025426330568</v>
+        <v>150.41393031005859</v>
       </c>
       <c r="S174" s="5">
-        <v>125.23664855957031</v>
+        <v>125.21530914306641</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12592,7 +12592,7 @@
         <v>55</v>
       </c>
       <c r="F176" s="5">
-        <v>6.2594051361083984</v>
+        <v>6.2594046592712402</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>0</v>
@@ -12642,40 +12642,40 @@
         <v>404</v>
       </c>
       <c r="C177" s="5">
-        <v>5565405</v>
+        <v>5569145.5</v>
       </c>
       <c r="D177" s="5">
-        <v>490894816</v>
+        <v>491224736</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F177" s="5">
-        <v>2.1944081783294682</v>
+        <v>2.1918003559112549</v>
       </c>
       <c r="G177" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H177" s="5">
-        <v>-0.22458877247691902</v>
+        <v>0.18627028945243901</v>
       </c>
       <c r="I177" s="5">
-        <v>0.98167916373324005</v>
+        <v>0.612863660975416</v>
       </c>
       <c r="J177" s="5">
-        <v>1.3368092144252051</v>
+        <v>2.344228466587106</v>
       </c>
       <c r="K177" s="5">
-        <v>5.2461416615126488</v>
+        <v>6.5786915382687328</v>
       </c>
       <c r="L177" s="5">
-        <v>-1.7861376230027151</v>
+        <v>-1.2450165612813091</v>
       </c>
       <c r="M177" s="5">
-        <v>2.2474717741593149</v>
+        <v>2.4379284357908699</v>
       </c>
       <c r="N177" s="5">
-        <v>-8.6841400250428968</v>
+        <v>-7.9867481743778779</v>
       </c>
       <c r="O177" s="6" t="s">
         <v>23</v>
@@ -12690,7 +12690,7 @@
         <v>14.010591465633651</v>
       </c>
       <c r="S177" s="5">
-        <v>12.54477596282959</v>
+        <v>12.568142890930176</v>
       </c>
     </row>
     <row r="178" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12701,40 +12701,40 @@
         <v>406</v>
       </c>
       <c r="C178" s="5">
-        <v>5484659</v>
+        <v>5488345</v>
       </c>
       <c r="D178" s="5">
-        <v>1251407616</v>
+        <v>1252248704</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F178" s="5">
-        <v>3.3922262191772461</v>
+        <v>3.3826639652252202</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H178" s="5">
-        <v>-0.48395171196699005</v>
+        <v>0.35008604130399901</v>
       </c>
       <c r="I178" s="5">
-        <v>3.239313827272805</v>
+        <v>3.105431529860891</v>
       </c>
       <c r="J178" s="5">
-        <v>0.19056602972547002</v>
+        <v>1.9275526096760309</v>
       </c>
       <c r="K178" s="5">
-        <v>11.386244171194981</v>
+        <v>14.075672770225722</v>
       </c>
       <c r="L178" s="5">
-        <v>0.258517627374033</v>
+        <v>0.55326018964225709</v>
       </c>
       <c r="M178" s="5">
-        <v>7.5039508150066334</v>
+        <v>7.8803071406602809</v>
       </c>
       <c r="N178" s="5">
-        <v>-20.464630297801655</v>
+        <v>-18.8279348253904</v>
       </c>
       <c r="O178" s="6" t="s">
         <v>23</v>
@@ -12749,7 +12749,7 @@
         <v>13.590376376915783</v>
       </c>
       <c r="S178" s="5">
-        <v>10.559700965881348</v>
+        <v>10.59666919708252</v>
       </c>
     </row>
     <row r="179" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12769,7 +12769,7 @@
         <v>67</v>
       </c>
       <c r="F179" s="5">
-        <v>3.5003893375396729</v>
+        <v>3.5003890991210942</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>409</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C180" s="5">
         <v>4852382</v>
@@ -13064,31 +13064,31 @@
         <v>44</v>
       </c>
       <c r="F184" s="5">
-        <v>5.9633092880249023</v>
+        <v>5.9968676567077637</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H184" s="5">
-        <v>0.68540465304425302</v>
+        <v>-0.5595945778216761</v>
       </c>
       <c r="I184" s="5">
-        <v>1.8041726769312041</v>
+        <v>0.622936468390067</v>
       </c>
       <c r="J184" s="5">
-        <v>0.53640906034029301</v>
+        <v>1.817593171276366</v>
       </c>
       <c r="K184" s="5">
-        <v>13.524118307616707</v>
+        <v>13.607589367202412</v>
       </c>
       <c r="L184" s="5">
-        <v>8.6240226595631455</v>
+        <v>7.9670583314807466</v>
       </c>
       <c r="M184" s="5">
-        <v>3.374849157937065</v>
+        <v>2.796369107217922</v>
       </c>
       <c r="N184" s="5">
-        <v>-13.03909493986728</v>
+        <v>-12.954797513359683</v>
       </c>
       <c r="O184" s="6" t="s">
         <v>23</v>
@@ -13103,7 +13103,7 @@
         <v>105.31999969482422</v>
       </c>
       <c r="S184" s="5">
-        <v>86.669998168945313</v>
+        <v>86.18499755859375</v>
       </c>
     </row>
     <row r="185" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13127,25 +13127,25 @@
         <v>73</v>
       </c>
       <c r="H185" s="5">
-        <v>-3.8370204959470001E-2</v>
+        <v>-7.6779019018757999E-2</v>
       </c>
       <c r="I185" s="5">
-        <v>0.23085963888069802</v>
+        <v>0</v>
       </c>
       <c r="J185" s="5">
-        <v>0.38535608296745805</v>
+        <v>0.30828119132846304</v>
       </c>
       <c r="K185" s="5">
-        <v>1.6188840540702021</v>
+        <v>1.659832869547651</v>
       </c>
       <c r="L185" s="5">
-        <v>-1.9188783867585001E-2</v>
+        <v>-0.19172217653853402</v>
       </c>
       <c r="M185" s="5">
-        <v>0.54032954581215709</v>
+        <v>0.46313566706865905</v>
       </c>
       <c r="N185" s="5">
-        <v>-2.9071959043546092</v>
+        <v>-2.891255512845869</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>73</v>
@@ -13157,10 +13157,10 @@
         <v>333</v>
       </c>
       <c r="R185" s="5">
-        <v>5.3689999580383301</v>
+        <v>5.3629999160766602</v>
       </c>
       <c r="S185" s="5">
-        <v>5.2100000381469727</v>
+        <v>5.2059998512268066</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13180,31 +13180,31 @@
         <v>396</v>
       </c>
       <c r="F186" s="5">
-        <v>3.5791130065917969</v>
+        <v>3.5904135704040532</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H186" s="5">
-        <v>0.681773659145257</v>
+        <v>-0.31473708713132303</v>
       </c>
       <c r="I186" s="5">
-        <v>2.1730614576633611</v>
+        <v>0.92699797905024806</v>
       </c>
       <c r="J186" s="5">
-        <v>0.70120590268893901</v>
+        <v>1.083167408761776</v>
       </c>
       <c r="K186" s="5">
-        <v>10.375741285006978</v>
+        <v>10.59301024376138</v>
       </c>
       <c r="L186" s="5">
-        <v>1.4520079310762051</v>
+        <v>0.134768810968211</v>
       </c>
       <c r="M186" s="5">
-        <v>4.494720251975326</v>
+        <v>4.1658366132482314</v>
       </c>
       <c r="N186" s="5">
-        <v>-12.285607004591137</v>
+        <v>-12.143145227360508</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>421</v>
@@ -13216,10 +13216,10 @@
         <v>333</v>
       </c>
       <c r="R186" s="5">
-        <v>124.06999969482422</v>
+        <v>123.22000122070312</v>
       </c>
       <c r="S186" s="5">
-        <v>104.84999847412109</v>
+        <v>104.51999664306641</v>
       </c>
     </row>
     <row r="187" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13289,55 +13289,55 @@
         <v>424</v>
       </c>
       <c r="C188" s="5">
-        <v>4462519.5</v>
+        <v>4507226</v>
       </c>
       <c r="D188" s="5">
-        <v>4396060160</v>
+        <v>1748275200</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>396</v>
+        <v>67</v>
       </c>
       <c r="F188" s="5">
-        <v>3.6225485801696782</v>
+        <v>5.1382293701171884</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="H188" s="5">
-        <v>-0.32967495658885504</v>
+        <v>-0.50670608678253803</v>
       </c>
       <c r="I188" s="5">
-        <v>2.4238696033556111</v>
+        <v>2.8640071673679661</v>
       </c>
       <c r="J188" s="5">
-        <v>2.572501338601429</v>
+        <v>0.23935278360636103</v>
       </c>
       <c r="K188" s="5">
-        <v>19.380119263137296</v>
+        <v>13.930330588743489</v>
       </c>
       <c r="L188" s="5">
-        <v>14.500085460534095</v>
+        <v>-1.3279816969399281</v>
       </c>
       <c r="M188" s="5">
-        <v>3.2179295866971769</v>
+        <v>6.4363962711460498</v>
       </c>
       <c r="N188" s="5">
-        <v>-12.223059389768686</v>
+        <v>-20.289951870528988</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>421</v>
+        <v>23</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="R188" s="5">
-        <v>116.58545000000001</v>
+        <v>1.52404676070453</v>
       </c>
       <c r="S188" s="5">
-        <v>99.114105224609375</v>
+        <v>1.1824725866317749</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13348,40 +13348,40 @@
         <v>426</v>
       </c>
       <c r="C189" s="5">
-        <v>4458137</v>
+        <v>4461133</v>
       </c>
       <c r="D189" s="5">
-        <v>611961984</v>
+        <v>612373248</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F189" s="5">
-        <v>2.4390242099761958</v>
+        <v>2.4340770244598389</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H189" s="5">
-        <v>-0.20806724935531501</v>
+        <v>0.27059762221977002</v>
       </c>
       <c r="I189" s="5">
-        <v>1.908905498635205</v>
+        <v>1.5522744365478851</v>
       </c>
       <c r="J189" s="5">
-        <v>1.1644008656192419</v>
+        <v>2.4826331385594762</v>
       </c>
       <c r="K189" s="5">
-        <v>8.3133574388500442</v>
+        <v>9.9678574792523946</v>
       </c>
       <c r="L189" s="5">
-        <v>-0.26572114463088203</v>
+        <v>0.32191575454279003</v>
       </c>
       <c r="M189" s="5">
-        <v>3.9999553222630269</v>
+        <v>4.2813767284747062</v>
       </c>
       <c r="N189" s="5">
-        <v>-13.453916624867269</v>
+        <v>-12.288789850050019</v>
       </c>
       <c r="O189" s="6" t="s">
         <v>23</v>
@@ -13393,10 +13393,10 @@
         <v>194</v>
       </c>
       <c r="R189" s="5">
-        <v>12.949697912896905</v>
+        <v>12.927299478696487</v>
       </c>
       <c r="S189" s="5">
-        <v>11.014925956726074</v>
+        <v>11.044731140136719</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13407,55 +13407,55 @@
         <v>428</v>
       </c>
       <c r="C190" s="5">
-        <v>4405606</v>
+        <v>4444030</v>
       </c>
       <c r="D190" s="5">
-        <v>1751161344</v>
+        <v>4377846272</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="F190" s="5">
-        <v>5.1125311851501456</v>
+        <v>3.6183979511260991</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>327</v>
+        <v>397</v>
       </c>
       <c r="H190" s="5">
-        <v>1.4520063907633269</v>
+        <v>-1.4736613773370001E-2</v>
       </c>
       <c r="I190" s="5">
-        <v>5.4544594461209961</v>
+        <v>1.1250245789093281</v>
       </c>
       <c r="J190" s="5">
-        <v>1.1667199706596909</v>
+        <v>5.1491050524087978</v>
       </c>
       <c r="K190" s="5">
-        <v>14.989189903351363</v>
+        <v>19.872101361481477</v>
       </c>
       <c r="L190" s="5">
-        <v>-0.24229222957151703</v>
+        <v>14.168741554429154</v>
       </c>
       <c r="M190" s="5">
-        <v>6.9784626529549421</v>
+        <v>3.2027187590691231</v>
       </c>
       <c r="N190" s="5">
-        <v>-19.681491500011038</v>
+        <v>-11.678065403878367</v>
       </c>
       <c r="O190" s="6" t="s">
-        <v>23</v>
+        <v>421</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="R190" s="5">
-        <v>1.5245759523448972</v>
+        <v>115.962054095459</v>
       </c>
       <c r="S190" s="5">
-        <v>1.188494920730591</v>
+        <v>99.099494934082031</v>
       </c>
     </row>
     <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13466,40 +13466,40 @@
         <v>430</v>
       </c>
       <c r="C191" s="5">
-        <v>4350756</v>
+        <v>4324497.5</v>
       </c>
       <c r="D191" s="5">
-        <v>1423860608</v>
+        <v>1415267072</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>396</v>
       </c>
       <c r="F191" s="5">
-        <v>1.2920354604721069</v>
+        <v>1.293240070343018</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H191" s="5">
-        <v>-0.395510891429385</v>
+        <v>-0.24044630758873803</v>
       </c>
       <c r="I191" s="5">
-        <v>2.409328498946151</v>
+        <v>2.060760531742734</v>
       </c>
       <c r="J191" s="5">
-        <v>-1.0009334224084681</v>
+        <v>0.27730898071003401</v>
       </c>
       <c r="K191" s="5">
-        <v>17.673543991148311</v>
+        <v>20.742729441228857</v>
       </c>
       <c r="L191" s="5">
-        <v>-7.8400173443935914</v>
+        <v>-7.0779825212231806</v>
       </c>
       <c r="M191" s="5">
-        <v>3.2744971020986831</v>
+        <v>3.0261773871358639</v>
       </c>
       <c r="N191" s="5">
-        <v>-29.582227317091302</v>
+        <v>-29.226455206123436</v>
       </c>
       <c r="O191" s="6" t="s">
         <v>421</v>
@@ -13511,10 +13511,10 @@
         <v>333</v>
       </c>
       <c r="R191" s="5">
-        <v>18.766758416748047</v>
+        <v>18.606302636146545</v>
       </c>
       <c r="S191" s="5">
-        <v>13.106361389160156</v>
+        <v>13.074848175048828</v>
       </c>
     </row>
     <row r="192" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13643,40 +13643,40 @@
         <v>437</v>
       </c>
       <c r="C194" s="5">
-        <v>4147693.75</v>
+        <v>4150481.25</v>
       </c>
       <c r="D194" s="5">
-        <v>1761992960</v>
+        <v>1763177216</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F194" s="5">
-        <v>4.2023348808288574</v>
+        <v>4.1763343811035156</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H194" s="5">
-        <v>-0.42077770248971602</v>
+        <v>0.69019670963417201</v>
       </c>
       <c r="I194" s="5">
-        <v>1.5057876468846041</v>
+        <v>1.7238560234833722</v>
       </c>
       <c r="J194" s="5">
-        <v>2.093193272721416</v>
+        <v>4.4056557032202681</v>
       </c>
       <c r="K194" s="5">
-        <v>10.611939486556654</v>
+        <v>13.121428520090372</v>
       </c>
       <c r="L194" s="5">
-        <v>-2.9996967964509462</v>
+        <v>-1.6063096782726771</v>
       </c>
       <c r="M194" s="5">
-        <v>4.4658924158861524</v>
+        <v>5.1869125680305883</v>
       </c>
       <c r="N194" s="5">
-        <v>-16.500006314585182</v>
+        <v>-15.0413014151898</v>
       </c>
       <c r="O194" s="6" t="s">
         <v>23</v>
@@ -13691,7 +13691,7 @@
         <v>12.134456816404699</v>
       </c>
       <c r="S194" s="5">
-        <v>9.5895528793334961</v>
+        <v>9.6557388305664062</v>
       </c>
     </row>
     <row r="195" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13702,40 +13702,40 @@
         <v>439</v>
       </c>
       <c r="C195" s="5">
-        <v>3948302.5</v>
+        <v>3950956.25</v>
       </c>
       <c r="D195" s="5">
-        <v>1245521536</v>
+        <v>1246358656</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F195" s="5">
-        <v>2.9250457286834721</v>
+        <v>2.9133286476135249</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H195" s="5">
-        <v>-0.45247821276288602</v>
+        <v>0.46967014679986102</v>
       </c>
       <c r="I195" s="5">
-        <v>1.847674257659127</v>
+        <v>1.5366057571506442</v>
       </c>
       <c r="J195" s="5">
-        <v>1.2561246691468411</v>
+        <v>2.5826810682579642</v>
       </c>
       <c r="K195" s="5">
-        <v>6.8891845766691162</v>
+        <v>9.3426339395393363</v>
       </c>
       <c r="L195" s="5">
-        <v>-1.450042141002861</v>
+        <v>-0.54881194467689709</v>
       </c>
       <c r="M195" s="5">
-        <v>3.8560912806933079</v>
+        <v>4.3438723370719412</v>
       </c>
       <c r="N195" s="5">
-        <v>-14.231309405755432</v>
+        <v>-13.133161881319522</v>
       </c>
       <c r="O195" s="6" t="s">
         <v>23</v>
@@ -13747,10 +13747,10 @@
         <v>194</v>
       </c>
       <c r="R195" s="5">
-        <v>24.360613444881977</v>
+        <v>24.341998944369006</v>
       </c>
       <c r="S195" s="5">
-        <v>20.41044807434082</v>
+        <v>20.506309509277344</v>
       </c>
     </row>
     <row r="196" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13820,10 +13820,10 @@
         <v>443</v>
       </c>
       <c r="C197" s="5">
-        <v>3824283.25</v>
+        <v>3826853.5</v>
       </c>
       <c r="D197" s="5">
-        <v>1168667648</v>
+        <v>1169453184</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>396</v>
@@ -13833,25 +13833,25 @@
         <v>73</v>
       </c>
       <c r="H197" s="5">
-        <v>-0.32158288103076904</v>
+        <v>0.26329318607596403</v>
       </c>
       <c r="I197" s="5">
-        <v>1.9411164304678601</v>
+        <v>1.5121374130207199</v>
       </c>
       <c r="J197" s="5">
-        <v>1.023569400405133</v>
+        <v>2.4041387999002239</v>
       </c>
       <c r="K197" s="5">
-        <v>7.8941058312368639</v>
+        <v>9.747841198479378</v>
       </c>
       <c r="L197" s="5">
-        <v>-0.39465185718962104</v>
+        <v>0.10404047800893801</v>
       </c>
       <c r="M197" s="5">
-        <v>3.887966361078488</v>
+        <v>4.1614962976600944</v>
       </c>
       <c r="N197" s="5">
-        <v>-13.482064233990275</v>
+        <v>-12.329132366222096</v>
       </c>
       <c r="O197" s="6" t="s">
         <v>73</v>
@@ -13863,10 +13863,10 @@
         <v>194</v>
       </c>
       <c r="R197" s="5">
-        <v>39.29028120797004</v>
+        <v>39.255334752804778</v>
       </c>
       <c r="S197" s="5">
-        <v>34.276119232177734</v>
+        <v>34.366367340087891</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13877,55 +13877,55 @@
         <v>445</v>
       </c>
       <c r="C198" s="5">
-        <v>3783070.25</v>
+        <v>3806126.5</v>
       </c>
       <c r="D198" s="5">
-        <v>878423872</v>
+        <v>1808206080</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F198" s="5">
-        <v>2.1802883148193359</v>
+        <v>5.2819809913635254</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="H198" s="5">
-        <v>-0.25614548381935903</v>
+        <v>0.21394859434227301</v>
       </c>
       <c r="I198" s="5">
-        <v>1.1160378445315591</v>
+        <v>3.7352067671810651</v>
       </c>
       <c r="J198" s="5">
-        <v>1.719706513520691</v>
+        <v>0.97078855393306607</v>
       </c>
       <c r="K198" s="5">
-        <v>6.0205443877143772</v>
+        <v>15.712017420711334</v>
       </c>
       <c r="L198" s="5">
-        <v>-1.184405987530768</v>
+        <v>0.72310679141913703</v>
       </c>
       <c r="M198" s="5">
-        <v>2.13020880846102</v>
+        <v>6.2059755514649151</v>
       </c>
       <c r="N198" s="5">
-        <v>-9.3157438153873233</v>
+        <v>-19.52248837590038</v>
       </c>
       <c r="O198" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="R198" s="5">
-        <v>19.322741071823184</v>
+        <v>1.5348786222390669</v>
       </c>
       <c r="S198" s="5">
-        <v>17.082088470458984</v>
+        <v>1.200303792953491</v>
       </c>
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13936,55 +13936,55 @@
         <v>447</v>
       </c>
       <c r="C199" s="5">
-        <v>3716035</v>
+        <v>3785612.75</v>
       </c>
       <c r="D199" s="5">
-        <v>804079936</v>
+        <v>879014272</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F199" s="5">
-        <v>3.5972850322723389</v>
+        <v>2.1764848232269292</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H199" s="5">
-        <v>5.6594390711129004E-2</v>
+        <v>0.24208105159284601</v>
       </c>
       <c r="I199" s="5">
-        <v>1.202066399972668</v>
+        <v>0.58140213955058007</v>
       </c>
       <c r="J199" s="5">
-        <v>1.1078722543708119</v>
+        <v>2.7944308709722643</v>
       </c>
       <c r="K199" s="5">
-        <v>7.7589756598069215</v>
+        <v>7.323444144970348</v>
       </c>
       <c r="L199" s="5">
-        <v>4.8047726168799931</v>
+        <v>-0.50646630339216103</v>
       </c>
       <c r="M199" s="5">
-        <v>3.2710247575400202</v>
+        <v>2.3774466919385122</v>
       </c>
       <c r="N199" s="5">
-        <v>-4.9917546676145559</v>
+        <v>-8.4587829543827375</v>
       </c>
       <c r="O199" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P199" s="6" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="Q199" s="6" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="R199" s="5">
-        <v>19.25</v>
+        <v>19.322741071823184</v>
       </c>
       <c r="S199" s="5">
-        <v>17.680000305175781</v>
+        <v>17.123441696166992</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13995,55 +13995,55 @@
         <v>449</v>
       </c>
       <c r="C200" s="5">
-        <v>3580278.25</v>
+        <v>3716035</v>
       </c>
       <c r="D200" s="5">
-        <v>1811191040</v>
+        <v>804079936</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F200" s="5">
-        <v>5.2936310768127441</v>
+        <v>3.5972850322723389</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="H200" s="5">
-        <v>1.6427268691056711</v>
+        <v>5.6594390711129004E-2</v>
       </c>
       <c r="I200" s="5">
-        <v>5.2416143935466897</v>
+        <v>1.202066399972668</v>
       </c>
       <c r="J200" s="5">
-        <v>1.562171715924987</v>
+        <v>1.1078722543708119</v>
       </c>
       <c r="K200" s="5">
-        <v>15.394435900839976</v>
+        <v>7.7589756598069215</v>
       </c>
       <c r="L200" s="5">
-        <v>0.57652327515360602</v>
+        <v>4.8047726168799931</v>
       </c>
       <c r="M200" s="5">
-        <v>5.9792344690237309</v>
+        <v>3.2710247575400202</v>
       </c>
       <c r="N200" s="5">
-        <v>-19.604044206253434</v>
+        <v>-4.9917546676145559</v>
       </c>
       <c r="O200" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P200" s="6" t="s">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="Q200" s="6" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="R200" s="5">
-        <v>1.5348786222390669</v>
+        <v>19.25</v>
       </c>
       <c r="S200" s="5">
-        <v>1.1977412700653081</v>
+        <v>17.680000305175781</v>
       </c>
     </row>
     <row r="201" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14054,53 +14054,55 @@
         <v>451</v>
       </c>
       <c r="C201" s="5">
-        <v>3555174.5</v>
+        <v>3537547.5</v>
       </c>
       <c r="D201" s="5">
-        <v>1153437952</v>
+        <v>322139904</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F201" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="F201" s="5">
+        <v>2.5426721572875981</v>
+      </c>
       <c r="G201" s="6" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="H201" s="5">
-        <v>0.265896980750435</v>
+        <v>0.24422053626644802</v>
       </c>
       <c r="I201" s="5">
-        <v>2.7235097871549652</v>
+        <v>0.96480204902114108</v>
       </c>
       <c r="J201" s="5">
-        <v>7.1113490883304431</v>
+        <v>2.4384706885395508</v>
       </c>
       <c r="K201" s="5">
-        <v>21.574980544106246</v>
+        <v>7.826825213061972</v>
       </c>
       <c r="L201" s="5">
-        <v>6.1238709646493028</v>
+        <v>-0.24254785072640503</v>
       </c>
       <c r="M201" s="5">
-        <v>3.8869521171360111</v>
+        <v>3.163207920032729</v>
       </c>
       <c r="N201" s="5">
-        <v>-7.6598754710540673</v>
+        <v>-8.8472479172284952</v>
       </c>
       <c r="O201" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P201" s="6" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="Q201" s="6" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="R201" s="5">
-        <v>90.180546095175629</v>
+        <v>14.347616081501045</v>
       </c>
       <c r="S201" s="5">
-        <v>83.80621337890625</v>
+        <v>12.687625885009766</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14111,55 +14113,53 @@
         <v>453</v>
       </c>
       <c r="C202" s="5">
-        <v>3535171.75</v>
+        <v>3524227</v>
       </c>
       <c r="D202" s="5">
-        <v>321923520</v>
+        <v>1147040128</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F202" s="5">
-        <v>2.5471699237823491</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F202" s="5"/>
       <c r="G202" s="6" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="H202" s="5">
-        <v>-0.22563984111770902</v>
+        <v>-0.31355938728487903</v>
       </c>
       <c r="I202" s="5">
-        <v>1.336636190369012</v>
+        <v>0.60029150546279109</v>
       </c>
       <c r="J202" s="5">
-        <v>1.368283024877903</v>
+        <v>7.0902664051538888</v>
       </c>
       <c r="K202" s="5">
-        <v>6.2234023509608605</v>
+        <v>22.093776803275802</v>
       </c>
       <c r="L202" s="5">
-        <v>-0.78760627569660602</v>
+        <v>6.8904080352101724</v>
       </c>
       <c r="M202" s="5">
-        <v>2.911875984621215</v>
+        <v>3.5612048266085772</v>
       </c>
       <c r="N202" s="5">
-        <v>-9.942002755992041</v>
+        <v>-7.4233230291827272</v>
       </c>
       <c r="O202" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P202" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Q202" s="6" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="R202" s="5">
-        <v>14.347616081501045</v>
+        <v>90.180546095175629</v>
       </c>
       <c r="S202" s="5">
-        <v>12.656715393066406</v>
+        <v>83.543426513671875</v>
       </c>
     </row>
     <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14183,25 +14183,25 @@
         <v>73</v>
       </c>
       <c r="H203" s="5">
-        <v>0.73475483632425809</v>
+        <v>-0.48626657401010803</v>
       </c>
       <c r="I203" s="5">
-        <v>2.350222597246221</v>
+        <v>0.90394430374631807</v>
       </c>
       <c r="J203" s="5">
-        <v>0.84452831097194803</v>
+        <v>0.95925033149024708</v>
       </c>
       <c r="K203" s="5">
-        <v>10.453547362109683</v>
+        <v>10.631687725661054</v>
       </c>
       <c r="L203" s="5">
-        <v>1.694134291665383</v>
+        <v>9.9634779016644012E-2</v>
       </c>
       <c r="M203" s="5">
-        <v>4.5373189372173828</v>
+        <v>4.0289888978593646</v>
       </c>
       <c r="N203" s="5">
-        <v>-12.150939615538203</v>
+        <v>-12.335398316385804</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>73</v>
@@ -14213,10 +14213,10 @@
         <v>333</v>
       </c>
       <c r="R203" s="5">
-        <v>6.3330001831054687</v>
+        <v>6.2810001373291016</v>
       </c>
       <c r="S203" s="5">
-        <v>5.5524997711181641</v>
+        <v>5.5254998207092294</v>
       </c>
     </row>
     <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14227,55 +14227,55 @@
         <v>457</v>
       </c>
       <c r="C204" s="5">
-        <v>3427229.25</v>
+        <v>3407266.75</v>
       </c>
       <c r="D204" s="5">
-        <v>366351744</v>
+        <v>1037009984</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="F204" s="5">
-        <v>1.157024741172791</v>
+        <v>3.6683628559112549</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>431</v>
+        <v>192</v>
       </c>
       <c r="H204" s="5">
-        <v>0.22336184084683602</v>
+        <v>0.12258960212052601</v>
       </c>
       <c r="I204" s="5">
-        <v>2.0974516166333719</v>
+        <v>0.50276295077376099</v>
       </c>
       <c r="J204" s="5">
-        <v>-0.83005522469537008</v>
+        <v>2.654256559983903</v>
       </c>
       <c r="K204" s="5">
-        <v>13.18242198191728</v>
+        <v>7.1793710249013154</v>
       </c>
       <c r="L204" s="5">
-        <v>-0.46260572980905101</v>
+        <v>-0.6462667253623211</v>
       </c>
       <c r="M204" s="5">
-        <v>4.1919263945337182</v>
+        <v>2.3972614524386811</v>
       </c>
       <c r="N204" s="5">
-        <v>-21.04137563925682</v>
+        <v>-8.6458736138428698</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="R204" s="5">
-        <v>7.2267549499511716</v>
+        <v>15.302519414880612</v>
       </c>
       <c r="S204" s="5">
-        <v>5.6136984825134277</v>
+        <v>13.501605033874512</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14286,55 +14286,55 @@
         <v>459</v>
       </c>
       <c r="C205" s="5">
-        <v>3404978.25</v>
+        <v>3406544.75</v>
       </c>
       <c r="D205" s="5">
-        <v>1036313536</v>
+        <v>364140672</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="F205" s="5">
-        <v>3.6703929901123051</v>
+        <v>1.163859009742737</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>192</v>
+        <v>431</v>
       </c>
       <c r="H205" s="5">
-        <v>-0.17757027854916602</v>
+        <v>-0.73378213130375103</v>
       </c>
       <c r="I205" s="5">
-        <v>0.93533166642498811</v>
+        <v>-0.10928166374691901</v>
       </c>
       <c r="J205" s="5">
-        <v>1.6275172736148762</v>
+        <v>0.145080622828897</v>
       </c>
       <c r="K205" s="5">
-        <v>5.9794290553123464</v>
+        <v>14.651240796736499</v>
       </c>
       <c r="L205" s="5">
-        <v>-1.31290053927331</v>
+        <v>-0.84171762271080308</v>
       </c>
       <c r="M205" s="5">
-        <v>2.2718867533865428</v>
+        <v>3.4273846563894761</v>
       </c>
       <c r="N205" s="5">
-        <v>-9.328022044155249</v>
+        <v>-21.144503025658633</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="Q205" s="6" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="R205" s="5">
-        <v>15.302519414880612</v>
+        <v>7.1714159740448</v>
       </c>
       <c r="S205" s="5">
-        <v>13.485074043273926</v>
+        <v>5.5725064277648926</v>
       </c>
     </row>
     <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14342,43 +14342,43 @@
         <v>460</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C206" s="5">
-        <v>3385110</v>
+        <v>3387385.25</v>
       </c>
       <c r="D206" s="5">
-        <v>378571424</v>
+        <v>378825888</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F206" s="5">
-        <v>5.2102670669555664</v>
+        <v>5.2156219482421884</v>
       </c>
       <c r="G206" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H206" s="5">
-        <v>-0.34328976325670402</v>
+        <v>-3.5529967452452002E-2</v>
       </c>
       <c r="I206" s="5">
-        <v>0.63083919776529807</v>
+        <v>-6.1591270646222003E-2</v>
       </c>
       <c r="J206" s="5">
-        <v>1.7391883094131531</v>
+        <v>2.678026919575327</v>
       </c>
       <c r="K206" s="5">
-        <v>5.1117938200413437</v>
+        <v>6.0137682067863194</v>
       </c>
       <c r="L206" s="5">
-        <v>-0.41288372684021901</v>
+        <v>-0.302057349465434</v>
       </c>
       <c r="M206" s="5">
-        <v>1.5959866334410711</v>
+        <v>1.5598896124572099</v>
       </c>
       <c r="N206" s="5">
-        <v>-6.7408377547436125</v>
+        <v>-6.1434445253684462</v>
       </c>
       <c r="O206" s="6" t="s">
         <v>23</v>
@@ -14393,7 +14393,7 @@
         <v>8.0725408599074786</v>
       </c>
       <c r="S206" s="5">
-        <v>7.2686567306518555</v>
+        <v>7.2660737037658691</v>
       </c>
     </row>
     <row r="207" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14404,40 +14404,40 @@
         <v>462</v>
       </c>
       <c r="C207" s="5">
-        <v>3378572.5</v>
+        <v>3380843</v>
       </c>
       <c r="D207" s="5">
-        <v>212729104</v>
+        <v>212872080</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F207" s="5">
-        <v>4.7923321723937988</v>
+        <v>4.7913756370544434</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H207" s="5">
-        <v>-0.32338203411462801</v>
+        <v>8.7188913148961003E-2</v>
       </c>
       <c r="I207" s="5">
-        <v>0.38102830162061202</v>
+        <v>-0.10446826249456101</v>
       </c>
       <c r="J207" s="5">
-        <v>1.412595770575265</v>
+        <v>2.664421645377546</v>
       </c>
       <c r="K207" s="5">
-        <v>3.6551931668467259</v>
+        <v>4.6312123506571767</v>
       </c>
       <c r="L207" s="5">
-        <v>-1.8605334977406911</v>
+        <v>-1.1621276446507121</v>
       </c>
       <c r="M207" s="5">
-        <v>1.0508576144460771</v>
+        <v>1.13896275892782</v>
       </c>
       <c r="N207" s="5">
-        <v>-5.1137249342495412</v>
+        <v>-4.4836218290876815</v>
       </c>
       <c r="O207" s="6" t="s">
         <v>23</v>
@@ -14452,7 +14452,7 @@
         <v>40.129993838495587</v>
       </c>
       <c r="S207" s="5">
-        <v>37.373134613037109</v>
+        <v>37.405719757080078</v>
       </c>
     </row>
     <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14535,25 +14535,25 @@
         <v>73</v>
       </c>
       <c r="H209" s="5">
-        <v>0.357969242159273</v>
+        <v>-0.37598101440680104</v>
       </c>
       <c r="I209" s="5">
-        <v>1.2296321610965939</v>
+        <v>0.28141026447827699</v>
       </c>
       <c r="J209" s="5">
-        <v>0.689187525399371</v>
+        <v>0.42759642467589104</v>
       </c>
       <c r="K209" s="5">
-        <v>5.85774437284452</v>
+        <v>5.919124431891043</v>
       </c>
       <c r="L209" s="5">
-        <v>-0.62272065619519701</v>
+        <v>-1.289523647461333</v>
       </c>
       <c r="M209" s="5">
-        <v>2.72331732857849</v>
+        <v>2.337097158054191</v>
       </c>
       <c r="N209" s="5">
-        <v>-9.0406884585089387</v>
+        <v>-9.3508773720348835</v>
       </c>
       <c r="O209" s="6" t="s">
         <v>73</v>
@@ -14565,10 +14565,10 @@
         <v>333</v>
       </c>
       <c r="R209" s="5">
-        <v>5.7170000076293954</v>
+        <v>5.7039999961853027</v>
       </c>
       <c r="S209" s="5">
-        <v>5.186500072479248</v>
+        <v>5.1669998168945312</v>
       </c>
     </row>
     <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14579,40 +14579,40 @@
         <v>468</v>
       </c>
       <c r="C210" s="5">
-        <v>3244330.25</v>
+        <v>3246510.75</v>
       </c>
       <c r="D210" s="5">
-        <v>956720256</v>
+        <v>957363264</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F210" s="5">
-        <v>3.1842305660247798</v>
+        <v>3.1818182468414311</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H210" s="5">
-        <v>-0.19195454895407602</v>
+        <v>0.14307850199142302</v>
       </c>
       <c r="I210" s="5">
-        <v>1.0101120377468129</v>
+        <v>0.52107669581233906</v>
       </c>
       <c r="J210" s="5">
-        <v>1.592153738835989</v>
+        <v>2.6900697396383899</v>
       </c>
       <c r="K210" s="5">
-        <v>6.0015631563167906</v>
+        <v>7.2687664126042106</v>
       </c>
       <c r="L210" s="5">
-        <v>-1.125869441431226</v>
+        <v>-0.70577466788979104</v>
       </c>
       <c r="M210" s="5">
-        <v>2.131607655003886</v>
+        <v>2.2777360292964182</v>
       </c>
       <c r="N210" s="5">
-        <v>-9.2153895939120272</v>
+        <v>-8.4304921944141746</v>
       </c>
       <c r="O210" s="6" t="s">
         <v>23</v>
@@ -14627,7 +14627,7 @@
         <v>11.186005119871048</v>
       </c>
       <c r="S210" s="5">
-        <v>9.8432836532592773</v>
+        <v>9.8573665618896484</v>
       </c>
     </row>
     <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14638,55 +14638,55 @@
         <v>470</v>
       </c>
       <c r="C211" s="5">
-        <v>3111431.75</v>
+        <v>3191946.75</v>
       </c>
       <c r="D211" s="5">
-        <v>3846060032</v>
+        <v>1534077952</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>396</v>
+        <v>67</v>
       </c>
       <c r="F211" s="5">
-        <v>4.7915225028991699</v>
+        <v>4.7362756729125977</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H211" s="5">
-        <v>0.29281452677771802</v>
+        <v>-0.30172504408377804</v>
       </c>
       <c r="I211" s="5">
-        <v>1.5036798786129961</v>
+        <v>3.5260415357902142</v>
       </c>
       <c r="J211" s="5">
-        <v>0.94968097455041511</v>
+        <v>1.909220066148154</v>
       </c>
       <c r="K211" s="5">
-        <v>7.9870902323378568</v>
+        <v>15.191655770038359</v>
       </c>
       <c r="L211" s="5">
-        <v>5.393661863024235</v>
+        <v>2.3418108784872382</v>
       </c>
       <c r="M211" s="5">
-        <v>3.8634348675151031</v>
+        <v>6.2775247856392991</v>
       </c>
       <c r="N211" s="5">
-        <v>-4.9588258165858212</v>
+        <v>-17.565041050783915</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="Q211" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="R211" s="5">
-        <v>102.05000305175781</v>
+        <v>1.5161360190599962</v>
       </c>
       <c r="S211" s="5">
-        <v>92.480003356933594</v>
+        <v>1.2270505428314209</v>
       </c>
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14697,55 +14697,55 @@
         <v>472</v>
       </c>
       <c r="C212" s="5">
-        <v>3090793.25</v>
+        <v>3111431.75</v>
       </c>
       <c r="D212" s="5">
-        <v>603109504</v>
+        <v>3846060032</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>282</v>
+        <v>396</v>
       </c>
       <c r="F212" s="5">
-        <v>2.939347505569458</v>
+        <v>4.7845382690429687</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>-0.12067854347925801</v>
+        <v>0.14597156351186003</v>
       </c>
       <c r="I212" s="5">
-        <v>1.4297401471182971</v>
+        <v>0.88230222308280903</v>
       </c>
       <c r="J212" s="5">
-        <v>1.600079356581086</v>
+        <v>2.4388829912018521</v>
       </c>
       <c r="K212" s="5">
-        <v>6.7459147032798761</v>
+        <v>8.1570443284796124</v>
       </c>
       <c r="L212" s="5">
-        <v>1.8639721975001631</v>
+        <v>4.5939100268385555</v>
       </c>
       <c r="M212" s="5">
-        <v>2.8583287137674773</v>
+        <v>4.0150459473083266</v>
       </c>
       <c r="N212" s="5">
-        <v>-8.0914262928393992</v>
+        <v>-4.5393239871898476</v>
       </c>
       <c r="O212" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="Q212" s="6" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="R212" s="5">
-        <v>27.659999847412109</v>
+        <v>101.76999664306641</v>
       </c>
       <c r="S212" s="5">
-        <v>24.829999923706055</v>
+        <v>92.614997863769531</v>
       </c>
     </row>
     <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14756,55 +14756,55 @@
         <v>474</v>
       </c>
       <c r="C213" s="5">
-        <v>3059315</v>
+        <v>3090793.25</v>
       </c>
       <c r="D213" s="5">
-        <v>1536610432</v>
+        <v>603109504</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="F213" s="5">
-        <v>4.7222967147827148</v>
+        <v>2.939347505569458</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="H213" s="5">
-        <v>1.5297050258900491</v>
+        <v>-0.12067854347925801</v>
       </c>
       <c r="I213" s="5">
-        <v>5.4298581601038176</v>
+        <v>1.4297401471182971</v>
       </c>
       <c r="J213" s="5">
-        <v>2.608274538469169</v>
+        <v>1.600079356581086</v>
       </c>
       <c r="K213" s="5">
-        <v>15.906187713389542</v>
+        <v>6.7459147032798761</v>
       </c>
       <c r="L213" s="5">
-        <v>2.7470335225824321</v>
+        <v>1.8639721975001631</v>
       </c>
       <c r="M213" s="5">
-        <v>6.5991611516169391</v>
+        <v>2.8583287137674773</v>
       </c>
       <c r="N213" s="5">
-        <v>-17.087468118379867</v>
+        <v>-8.0914262928393992</v>
       </c>
       <c r="O213" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P213" s="6" t="s">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="Q213" s="6" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="R213" s="5">
-        <v>1.516963842037157</v>
+        <v>27.659999847412109</v>
       </c>
       <c r="S213" s="5">
-        <v>1.2307641506195071</v>
+        <v>24.829999923706055</v>
       </c>
     </row>
     <row r="214" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14815,40 +14815,40 @@
         <v>476</v>
       </c>
       <c r="C214" s="5">
-        <v>2988144.5</v>
+        <v>2990153</v>
       </c>
       <c r="D214" s="5">
-        <v>489036928</v>
+        <v>489365632</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F214" s="5">
-        <v>4.2963695526123047</v>
+        <v>4.2394504547119141</v>
       </c>
       <c r="G214" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H214" s="5">
-        <v>-1.6152959686398072</v>
+        <v>1.410721538760829</v>
       </c>
       <c r="I214" s="5">
-        <v>2.2012764227426822</v>
+        <v>2.2437996921612862</v>
       </c>
       <c r="J214" s="5">
-        <v>6.3352886865709834</v>
+        <v>9.4925597357631286</v>
       </c>
       <c r="K214" s="5">
-        <v>11.02491184698593</v>
+        <v>13.658106704352434</v>
       </c>
       <c r="L214" s="5">
-        <v>-2.7991091167699271</v>
+        <v>-0.13808114430127202</v>
       </c>
       <c r="M214" s="5">
-        <v>7.6051707278601999</v>
+        <v>9.1231800481385008</v>
       </c>
       <c r="N214" s="5">
-        <v>-17.731560722438154</v>
+        <v>-15.877694941064746</v>
       </c>
       <c r="O214" s="6" t="s">
         <v>23</v>
@@ -14863,7 +14863,7 @@
         <v>19.162252576445677</v>
       </c>
       <c r="S214" s="5">
-        <v>15.007463455200195</v>
+        <v>15.219176292419434</v>
       </c>
     </row>
     <row r="215" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14933,40 +14933,40 @@
         <v>480</v>
       </c>
       <c r="C216" s="5">
-        <v>2800672.75</v>
+        <v>2783769.5</v>
       </c>
       <c r="D216" s="5">
-        <v>1487791744</v>
+        <v>1478812288</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>396</v>
       </c>
       <c r="F216" s="5">
-        <v>0.80111110210418701</v>
+        <v>0.80142915248870805</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H216" s="5">
-        <v>-0.26248950308320801</v>
+        <v>-0.18706360307608702</v>
       </c>
       <c r="I216" s="5">
-        <v>1.257441544149063</v>
+        <v>0.19204031625341703</v>
       </c>
       <c r="J216" s="5">
-        <v>-0.83979542430235909</v>
+        <v>0.39085631673117005</v>
       </c>
       <c r="K216" s="5">
-        <v>10.406474586710623</v>
+        <v>12.089733821691251</v>
       </c>
       <c r="L216" s="5">
-        <v>0.35627295137821102</v>
+        <v>0.9143406269916281</v>
       </c>
       <c r="M216" s="5">
-        <v>1.5944728132338599</v>
+        <v>1.4044265318632561</v>
       </c>
       <c r="N216" s="5">
-        <v>-14.109464672510796</v>
+        <v>-13.859958885955059</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>421</v>
@@ -14978,10 +14978,10 @@
         <v>333</v>
       </c>
       <c r="R216" s="5">
-        <v>180.05668166809082</v>
+        <v>179.59837818603515</v>
       </c>
       <c r="S216" s="5">
-        <v>153.83340454101562</v>
+        <v>153.54563903808594</v>
       </c>
     </row>
     <row r="217" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14992,40 +14992,40 @@
         <v>482</v>
       </c>
       <c r="C217" s="5">
-        <v>2761803.25</v>
+        <v>2763659.5</v>
       </c>
       <c r="D217" s="5">
-        <v>686300736</v>
+        <v>686761984</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F217" s="5">
-        <v>5.7808804512023926</v>
+        <v>5.7995691299438477</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H217" s="5">
-        <v>-0.50358894379256602</v>
+        <v>-0.25524730284112201</v>
       </c>
       <c r="I217" s="5">
-        <v>1.5203862901970839</v>
+        <v>0.64913842595566407</v>
       </c>
       <c r="J217" s="5">
-        <v>3.3625179363034441</v>
+        <v>4.9319499913387475</v>
       </c>
       <c r="K217" s="5">
-        <v>10.6968755002677</v>
+        <v>10.644418759985697</v>
       </c>
       <c r="L217" s="5">
-        <v>3.5283178793859231</v>
+        <v>1.9004918566696061</v>
       </c>
       <c r="M217" s="5">
-        <v>4.3320822641472301</v>
+        <v>4.065777438170004</v>
       </c>
       <c r="N217" s="5">
-        <v>-10.088115436081058</v>
+        <v>-9.5775456053250547</v>
       </c>
       <c r="O217" s="6" t="s">
         <v>23</v>
@@ -15040,7 +15040,7 @@
         <v>16.217299859149939</v>
       </c>
       <c r="S217" s="5">
-        <v>13.895523071289063</v>
+        <v>13.860054969787598</v>
       </c>
     </row>
     <row r="218" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15051,40 +15051,40 @@
         <v>484</v>
       </c>
       <c r="C218" s="5">
-        <v>2691630.75</v>
+        <v>2693439.75</v>
       </c>
       <c r="D218" s="5">
-        <v>190703776</v>
+        <v>190831936</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F218" s="5">
-        <v>2.2841606140136719</v>
+        <v>2.2779662609100342</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H218" s="5">
-        <v>-0.34328976325670402</v>
+        <v>0.33931715920234601</v>
       </c>
       <c r="I218" s="5">
-        <v>1.9143889962435661</v>
+        <v>1.557009797245956</v>
       </c>
       <c r="J218" s="5">
-        <v>1.2193725423030881</v>
+        <v>2.1920572742364808</v>
       </c>
       <c r="K218" s="5">
-        <v>7.671045624934103</v>
+        <v>9.7019092072325961</v>
       </c>
       <c r="L218" s="5">
-        <v>-0.133931064025195</v>
+        <v>0.45189378027465904</v>
       </c>
       <c r="M218" s="5">
-        <v>4.1564376945509629</v>
+        <v>4.5098583600624798</v>
       </c>
       <c r="N218" s="5">
-        <v>-12.701816219633134</v>
+        <v>-11.570571616405811</v>
       </c>
       <c r="O218" s="6" t="s">
         <v>23</v>
@@ -15096,10 +15096,10 @@
         <v>194</v>
       </c>
       <c r="R218" s="5">
-        <v>12.774593471076527</v>
+        <v>12.766810983318978</v>
       </c>
       <c r="S218" s="5">
-        <v>10.977611541748047</v>
+        <v>11.014861106872559</v>
       </c>
     </row>
     <row r="219" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15169,55 +15169,55 @@
         <v>488</v>
       </c>
       <c r="C220" s="5">
-        <v>2676204.75</v>
+        <v>2670797.75</v>
       </c>
       <c r="D220" s="5">
-        <v>1277058176</v>
+        <v>660588928</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F220" s="5">
-        <v>4.3685159683227539</v>
+        <v>1.821071863174438</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H220" s="5">
-        <v>-0.32524268099252102</v>
+        <v>-0.17001409271880702</v>
       </c>
       <c r="I220" s="5">
-        <v>1.3124222716846661</v>
+        <v>0.90156220673254206</v>
       </c>
       <c r="J220" s="5">
-        <v>2.088948144428437</v>
+        <v>1.8146571942440071</v>
       </c>
       <c r="K220" s="5">
-        <v>12.97914091572907</v>
+        <v>9.7742165183752903</v>
       </c>
       <c r="L220" s="5">
-        <v>7.2451395150926254</v>
+        <v>0.62171586650137101</v>
       </c>
       <c r="M220" s="5">
-        <v>1.924978564188851</v>
+        <v>2.8157090052192362</v>
       </c>
       <c r="N220" s="5">
-        <v>-2.5612653891101793</v>
+        <v>-13.026703456677048</v>
       </c>
       <c r="O220" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P220" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="Q220" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R220" s="5">
-        <v>7.7807752039749998</v>
+        <v>5.1560001373291016</v>
       </c>
       <c r="S220" s="5">
-        <v>7.077455997467041</v>
+        <v>4.4039998054504395</v>
       </c>
     </row>
     <row r="221" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15228,55 +15228,53 @@
         <v>490</v>
       </c>
       <c r="C221" s="5">
-        <v>2670797.75</v>
+        <v>2660102.75</v>
       </c>
       <c r="D221" s="5">
-        <v>660588928</v>
+        <v>1506390016</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F221" s="5">
-        <v>1.817975759506226</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F221" s="5"/>
       <c r="G221" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H221" s="5">
-        <v>0.44398401336185306</v>
+        <v>-0.343716116589177</v>
       </c>
       <c r="I221" s="5">
-        <v>1.766562666236049</v>
+        <v>0.88146848233630104</v>
       </c>
       <c r="J221" s="5">
-        <v>1.079132485470313</v>
+        <v>0.70836387907797804</v>
       </c>
       <c r="K221" s="5">
-        <v>9.5013736219839107</v>
+        <v>5.6061963256674341</v>
       </c>
       <c r="L221" s="5">
-        <v>0.95378975028750412</v>
+        <v>-0.78085415207835907</v>
       </c>
       <c r="M221" s="5">
-        <v>2.990807892842029</v>
+        <v>2.7161112936571863</v>
       </c>
       <c r="N221" s="5">
-        <v>-13.039024497078099</v>
+        <v>-10.161231793407699</v>
       </c>
       <c r="O221" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="Q221" s="6" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="R221" s="5">
-        <v>5.179999828338623</v>
+        <v>24.790000915527344</v>
       </c>
       <c r="S221" s="5">
-        <v>4.4114999771118164</v>
+        <v>21.745000839233398</v>
       </c>
     </row>
     <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15287,41 +15285,43 @@
         <v>492</v>
       </c>
       <c r="C222" s="5">
-        <v>2660102.75</v>
+        <v>2616855.5</v>
       </c>
       <c r="D222" s="5">
-        <v>1506390016</v>
+        <v>675410048</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F222" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F222" s="5">
+        <v>3.1674783229827881</v>
+      </c>
       <c r="G222" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H222" s="5">
-        <v>-0.343716116589177</v>
+        <v>-0.23856128582845401</v>
       </c>
       <c r="I222" s="5">
-        <v>0.88146848233630104</v>
+        <v>1.4332999950371179</v>
       </c>
       <c r="J222" s="5">
-        <v>0.70836387907797804</v>
+        <v>1.0406108107523739</v>
       </c>
       <c r="K222" s="5">
-        <v>5.6061963256674341</v>
+        <v>8.6919691265161969</v>
       </c>
       <c r="L222" s="5">
-        <v>-0.78085415207835907</v>
+        <v>0.67273927802731204</v>
       </c>
       <c r="M222" s="5">
-        <v>2.7161112936571863</v>
+        <v>4.0488598792032704</v>
       </c>
       <c r="N222" s="5">
-        <v>-10.161231793407699</v>
+        <v>-11.063823855596011</v>
       </c>
       <c r="O222" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P222" s="6" t="s">
         <v>24</v>
@@ -15330,10 +15330,10 @@
         <v>25</v>
       </c>
       <c r="R222" s="5">
-        <v>24.790000915527344</v>
+        <v>53.049999237060547</v>
       </c>
       <c r="S222" s="5">
-        <v>21.745000839233398</v>
+        <v>46</v>
       </c>
     </row>
     <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15344,55 +15344,55 @@
         <v>494</v>
       </c>
       <c r="C223" s="5">
-        <v>2616855.5</v>
+        <v>2546137.25</v>
       </c>
       <c r="D223" s="5">
-        <v>675410048</v>
+        <v>622325248</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F223" s="5">
-        <v>3.1674783229827881</v>
+        <v>5.4794526100158691</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H223" s="5">
-        <v>-0.23856128582845401</v>
+        <v>0.73159554944377503</v>
       </c>
       <c r="I223" s="5">
-        <v>1.4332999950371179</v>
+        <v>0.91085360041627306</v>
       </c>
       <c r="J223" s="5">
-        <v>1.0406108107523739</v>
+        <v>9.5638123833018405</v>
       </c>
       <c r="K223" s="5">
-        <v>8.6919691265161969</v>
+        <v>11.63398599146468</v>
       </c>
       <c r="L223" s="5">
-        <v>0.67273927802731204</v>
+        <v>-3.396119474877946</v>
       </c>
       <c r="M223" s="5">
-        <v>4.0488598792032704</v>
+        <v>8.055289944305466</v>
       </c>
       <c r="N223" s="5">
-        <v>-11.063823855596011</v>
+        <v>-18.80829710587404</v>
       </c>
       <c r="O223" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P223" s="6" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="Q223" s="6" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="R223" s="5">
-        <v>53.049999237060547</v>
+        <v>19.314716494001139</v>
       </c>
       <c r="S223" s="5">
-        <v>46</v>
+        <v>14.718840599060059</v>
       </c>
     </row>
     <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15403,55 +15403,55 @@
         <v>496</v>
       </c>
       <c r="C224" s="5">
-        <v>2544427</v>
+        <v>2415071</v>
       </c>
       <c r="D224" s="5">
-        <v>621907264</v>
+        <v>1269582592</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F224" s="5">
-        <v>5.5158329010009766</v>
+        <v>4.3556547164916992</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="H224" s="5">
-        <v>-1.450583130329874</v>
+        <v>-5.9638353296976004E-2</v>
       </c>
       <c r="I224" s="5">
-        <v>2.3064038637417461</v>
+        <v>0.45703840229089904</v>
       </c>
       <c r="J224" s="5">
-        <v>6.8211383901938261</v>
+        <v>4.2052084475261431</v>
       </c>
       <c r="K224" s="5">
-        <v>9.6051757533255344</v>
+        <v>14.20249125048767</v>
       </c>
       <c r="L224" s="5">
-        <v>-5.2873314474447319</v>
+        <v>6.6878285589828455</v>
       </c>
       <c r="M224" s="5">
-        <v>7.2705037132732464</v>
+        <v>1.86419218537488</v>
       </c>
       <c r="N224" s="5">
-        <v>-19.926741468534857</v>
+        <v>-1.3336192958852471</v>
       </c>
       <c r="O224" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="R224" s="5">
-        <v>19.314716494001139</v>
+        <v>7.7807752039749998</v>
       </c>
       <c r="S224" s="5">
-        <v>14.611940383911133</v>
+        <v>7.073235034942627</v>
       </c>
     </row>
     <row r="225" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15475,25 +15475,25 @@
         <v>73</v>
       </c>
       <c r="H225" s="5">
-        <v>0.22052606422653401</v>
+        <v>6.7707970977171003E-2</v>
       </c>
       <c r="I225" s="5">
-        <v>1.5643816654839382</v>
+        <v>1.008030302499519</v>
       </c>
       <c r="J225" s="5">
-        <v>1.008719704046279</v>
+        <v>2.4432554683828211</v>
       </c>
       <c r="K225" s="5">
-        <v>8.2051273094070574</v>
+        <v>8.0804461801201377</v>
       </c>
       <c r="L225" s="5">
-        <v>5.3495043036085654</v>
+        <v>4.5354123787787692</v>
       </c>
       <c r="M225" s="5">
-        <v>3.7401196538874082</v>
+        <v>3.8103599839943492</v>
       </c>
       <c r="N225" s="5">
-        <v>-4.8324771566741864</v>
+        <v>-4.5527865451545306</v>
       </c>
       <c r="O225" s="6" t="s">
         <v>73</v>
@@ -15505,10 +15505,10 @@
         <v>333</v>
       </c>
       <c r="R225" s="5">
-        <v>6.245999813079834</v>
+        <v>6.1909999847412109</v>
       </c>
       <c r="S225" s="5">
-        <v>5.9079999923706055</v>
+        <v>5.9120001792907715</v>
       </c>
     </row>
     <row r="226" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15578,40 +15578,40 @@
         <v>502</v>
       </c>
       <c r="C227" s="5">
-        <v>2363426.75</v>
+        <v>2365015</v>
       </c>
       <c r="D227" s="5">
-        <v>469532704</v>
+        <v>469848288</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>288</v>
       </c>
       <c r="F227" s="5">
-        <v>4.1011643409729004</v>
+        <v>4.1278643608093262</v>
       </c>
       <c r="G227" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H227" s="5">
-        <v>-0.60035551273829302</v>
+        <v>-0.62290721840208008</v>
       </c>
       <c r="I227" s="5">
-        <v>0.75518191888779307</v>
+        <v>-0.20760085518556301</v>
       </c>
       <c r="J227" s="5">
-        <v>0.14535129720694201</v>
+        <v>1.677486377798032</v>
       </c>
       <c r="K227" s="5">
-        <v>5.7817527782101594</v>
+        <v>6.4858948228698532</v>
       </c>
       <c r="L227" s="5">
-        <v>-5.831127545954196</v>
+        <v>-6.1092795224451768</v>
       </c>
       <c r="M227" s="5">
-        <v>3.194156134971204</v>
+        <v>2.55135228743737</v>
       </c>
       <c r="N227" s="5">
-        <v>-17.174143596907477</v>
+        <v>-16.995571959811251</v>
       </c>
       <c r="O227" s="6" t="s">
         <v>23</v>
@@ -15623,10 +15623,10 @@
         <v>194</v>
       </c>
       <c r="R227" s="5">
-        <v>21.163682498590418</v>
+        <v>21.088108398848906</v>
       </c>
       <c r="S227" s="5">
-        <v>17.313432693481445</v>
+        <v>17.205587387084961</v>
       </c>
     </row>
     <row r="228" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15694,40 +15694,40 @@
         <v>507</v>
       </c>
       <c r="C229" s="5">
-        <v>2296374.5</v>
+        <v>2290177.5</v>
       </c>
       <c r="D229" s="5">
-        <v>1530175872</v>
+        <v>1526046592</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F229" s="5">
-        <v>0.60925191640853904</v>
+        <v>0.60921216011047408</v>
       </c>
       <c r="G229" s="6" t="s">
         <v>508</v>
       </c>
       <c r="H229" s="5">
-        <v>0.28616992082848303</v>
+        <v>6.0525374095199001E-2</v>
       </c>
       <c r="I229" s="5">
-        <v>0.61681888467499701</v>
+        <v>0.326067335404923</v>
       </c>
       <c r="J229" s="5">
-        <v>0.35861382438073802</v>
+        <v>1.253351695124572</v>
       </c>
       <c r="K229" s="5">
-        <v>12.141184236872959</v>
+        <v>12.324083178787859</v>
       </c>
       <c r="L229" s="5">
-        <v>6.0153970093379971</v>
+        <v>6.3665443997367843</v>
       </c>
       <c r="M229" s="5">
-        <v>0.87090285012363411</v>
+        <v>0.93195534142687109</v>
       </c>
       <c r="N229" s="5">
-        <v>-8.2107625659289756</v>
+        <v>-7.6426975591852742</v>
       </c>
       <c r="O229" s="6" t="s">
         <v>23</v>
@@ -15739,10 +15739,10 @@
         <v>510</v>
       </c>
       <c r="R229" s="5">
-        <v>108.21573034725104</v>
+        <v>108.11978624519043</v>
       </c>
       <c r="S229" s="5">
-        <v>99.207771301269531</v>
+        <v>99.267814636230469</v>
       </c>
     </row>
     <row r="230" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15753,10 +15753,10 @@
         <v>261</v>
       </c>
       <c r="C230" s="5">
-        <v>2287966</v>
+        <v>2289503.75</v>
       </c>
       <c r="D230" s="5">
-        <v>362873152</v>
+        <v>363117024</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>64</v>
@@ -15768,25 +15768,25 @@
         <v>192</v>
       </c>
       <c r="H230" s="5">
-        <v>-0.29215636542797602</v>
+        <v>6.7210795898820008E-2</v>
       </c>
       <c r="I230" s="5">
-        <v>2.1011160863655398</v>
+        <v>1.3956334008829121</v>
       </c>
       <c r="J230" s="5">
-        <v>1.169439736590649</v>
+        <v>2.261186585194475</v>
       </c>
       <c r="K230" s="5">
-        <v>8.2666969282409362</v>
+        <v>9.9575578492594232</v>
       </c>
       <c r="L230" s="5">
-        <v>-0.23754277070601201</v>
+        <v>-2.9784384039733002E-2</v>
       </c>
       <c r="M230" s="5">
-        <v>4.1204562784305621</v>
+        <v>4.1904364657887827</v>
       </c>
       <c r="N230" s="5">
-        <v>-13.578087111389902</v>
+        <v>-12.616631372806076</v>
       </c>
       <c r="O230" s="6" t="s">
         <v>23</v>
@@ -15798,10 +15798,10 @@
         <v>194</v>
       </c>
       <c r="R230" s="5">
-        <v>17.128303452533963</v>
+        <v>17.116032678306897</v>
       </c>
       <c r="S230" s="5">
-        <v>14.552238464355469</v>
+        <v>14.562019348144531</v>
       </c>
     </row>
     <row r="231" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15812,40 +15812,40 @@
         <v>513</v>
       </c>
       <c r="C231" s="5">
-        <v>2233473</v>
+        <v>2234974</v>
       </c>
       <c r="D231" s="5">
-        <v>869334336</v>
+        <v>869918656</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F231" s="5">
-        <v>11.284308433532715</v>
+        <v>11.297391891479492</v>
       </c>
       <c r="G231" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H231" s="5">
-        <v>-0.51609784346980903</v>
+        <v>-4.8677447876644006E-2</v>
       </c>
       <c r="I231" s="5">
-        <v>1.1998681874411781</v>
+        <v>0.53508393453469705</v>
       </c>
       <c r="J231" s="5">
-        <v>2.4700213529578412</v>
+        <v>3.614759009618695</v>
       </c>
       <c r="K231" s="5">
-        <v>4.7703795284796291</v>
+        <v>5.8078162107036979</v>
       </c>
       <c r="L231" s="5">
-        <v>-1.3311126774531949</v>
+        <v>-0.94965788379458604</v>
       </c>
       <c r="M231" s="5">
-        <v>2.5737904083541929</v>
+        <v>2.5238601049930591</v>
       </c>
       <c r="N231" s="5">
-        <v>-11.314776607086729</v>
+        <v>-10.847040164515608</v>
       </c>
       <c r="O231" s="6" t="s">
         <v>23</v>
@@ -15860,7 +15860,7 @@
         <v>15.479057065902218</v>
       </c>
       <c r="S231" s="5">
-        <v>12.888059616088867</v>
+        <v>12.881786346435547</v>
       </c>
     </row>
     <row r="232" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15868,117 +15868,117 @@
         <v>514</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>404</v>
+        <v>515</v>
       </c>
       <c r="C232" s="5">
-        <v>2174465</v>
+        <v>2218545.75</v>
       </c>
       <c r="D232" s="5">
-        <v>728417920</v>
+        <v>296998208</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F232" s="5">
-        <v>3.032488346099854</v>
+        <v>4.4877471923828134</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="H232" s="5">
-        <v>-0.34328976325670402</v>
+        <v>-0.76834844599140706</v>
       </c>
       <c r="I232" s="5">
-        <v>1.1365152854193821</v>
+        <v>1.545330809772949</v>
       </c>
       <c r="J232" s="5">
-        <v>1.5232907265411599</v>
+        <v>-1.26796832864533</v>
       </c>
       <c r="K232" s="5">
-        <v>5.9667888039889094</v>
+        <v>7.5746847323384436</v>
       </c>
       <c r="L232" s="5">
-        <v>-1.362560616298125</v>
+        <v>-6.8768683548890097</v>
       </c>
       <c r="M232" s="5">
-        <v>2.385612114686753</v>
+        <v>5.7501896937748995</v>
       </c>
       <c r="N232" s="5">
-        <v>-9.3598848230570848</v>
+        <v>-24.60315181867162</v>
       </c>
       <c r="O232" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="Q232" s="6" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="R232" s="5">
-        <v>14.644519338789921</v>
+        <v>1.5121317543369162</v>
       </c>
       <c r="S232" s="5">
-        <v>12.95522403717041</v>
+        <v>1.1184123754501341</v>
       </c>
     </row>
     <row r="233" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A233" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>516</v>
+        <v>404</v>
       </c>
       <c r="C233" s="5">
-        <v>2168518.25</v>
+        <v>2175926.25</v>
       </c>
       <c r="D233" s="5">
-        <v>297488512</v>
+        <v>728907456</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F233" s="5">
-        <v>4.4535598754882812</v>
+        <v>3.0307424068450932</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="H233" s="5">
-        <v>1.4131776627547501</v>
+        <v>0.12485451573425201</v>
       </c>
       <c r="I233" s="5">
-        <v>4.1550280292543817</v>
+        <v>0.5885321798200891</v>
       </c>
       <c r="J233" s="5">
-        <v>0.48990307296057406</v>
+        <v>2.6579658195708289</v>
       </c>
       <c r="K233" s="5">
-        <v>7.9550829632211828</v>
+        <v>7.3009444147097202</v>
       </c>
       <c r="L233" s="5">
-        <v>-5.4177481231621254</v>
+        <v>-0.87099977622944202</v>
       </c>
       <c r="M233" s="5">
-        <v>6.5690110339627683</v>
+        <v>2.5134451748740849</v>
       </c>
       <c r="N233" s="5">
-        <v>-23.535425641794994</v>
+        <v>-8.5240305550273519</v>
       </c>
       <c r="O233" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P233" s="6" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="Q233" s="6" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="R233" s="5">
-        <v>1.5121317543369162</v>
+        <v>14.644519338789921</v>
       </c>
       <c r="S233" s="5">
-        <v>1.127072215080261</v>
+        <v>12.971399307250977</v>
       </c>
     </row>
     <row r="234" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15989,53 +15989,53 @@
         <v>518</v>
       </c>
       <c r="C234" s="5">
-        <v>2150816.75</v>
+        <v>2083864.125</v>
       </c>
       <c r="D234" s="5">
-        <v>371513440</v>
+        <v>369338688</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="H234" s="5">
-        <v>-0.19383459510055001</v>
+        <v>-6.6351458811060009E-3</v>
       </c>
       <c r="I234" s="5">
-        <v>2.7465169244281551</v>
+        <v>1.288344581793033</v>
       </c>
       <c r="J234" s="5">
-        <v>0.94194437644961004</v>
+        <v>3.59423672992365</v>
       </c>
       <c r="K234" s="5">
-        <v>13.946566484027677</v>
+        <v>15.369778674665779</v>
       </c>
       <c r="L234" s="5">
-        <v>2.890364178569294</v>
+        <v>3.046443113814723</v>
       </c>
       <c r="M234" s="5">
-        <v>4.5314536671640537</v>
+        <v>4.5245178527215879</v>
       </c>
       <c r="N234" s="5">
-        <v>-11.732552607714641</v>
+        <v>-10.748999405480465</v>
       </c>
       <c r="O234" s="6" t="s">
         <v>519</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q234" s="6" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="R234" s="5">
         <v>36.518467044986608</v>
       </c>
       <c r="S234" s="5">
-        <v>32.18292236328125</v>
+        <v>32.1807861328125</v>
       </c>
     </row>
     <row r="235" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16046,55 +16046,55 @@
         <v>521</v>
       </c>
       <c r="C235" s="5">
-        <v>2055725.25</v>
+        <v>2056288.875</v>
       </c>
       <c r="D235" s="5">
-        <v>392857472</v>
+        <v>390557792</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F235" s="5">
-        <v>3.3994154930114751</v>
+        <v>3.3980896472930908</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="H235" s="5">
-        <v>-9.0052935150675001E-2</v>
+        <v>-0.11895431867754401</v>
       </c>
       <c r="I235" s="5">
-        <v>1.372588283074472</v>
+        <v>0.41612979908514097</v>
       </c>
       <c r="J235" s="5">
-        <v>1.8274415335744141</v>
+        <v>4.0214005689802157</v>
       </c>
       <c r="K235" s="5">
-        <v>11.670100669039307</v>
+        <v>12.944283785082277</v>
       </c>
       <c r="L235" s="5">
-        <v>4.7739699250602294</v>
+        <v>4.5057149923970918</v>
       </c>
       <c r="M235" s="5">
-        <v>2.165867826833523</v>
+        <v>2.0443371148391121</v>
       </c>
       <c r="N235" s="5">
-        <v>-3.476074217900782</v>
+        <v>-2.3751702353989268</v>
       </c>
       <c r="O235" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q235" s="6" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="R235" s="5">
         <v>19.501279916634147</v>
       </c>
       <c r="S235" s="5">
-        <v>17.853857040405273</v>
+        <v>17.832620620727539</v>
       </c>
     </row>
     <row r="236" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16105,40 +16105,40 @@
         <v>523</v>
       </c>
       <c r="C236" s="5">
-        <v>2031880.375</v>
+        <v>2033246</v>
       </c>
       <c r="D236" s="5">
-        <v>196775984</v>
+        <v>196908224</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F236" s="5">
-        <v>5.3237156867980957</v>
+        <v>5.312687873840332</v>
       </c>
       <c r="G236" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H236" s="5">
-        <v>-0.49787971735939501</v>
+        <v>0.22267869427306003</v>
       </c>
       <c r="I236" s="5">
-        <v>3.2620640826527709</v>
+        <v>2.922309040774107</v>
       </c>
       <c r="J236" s="5">
-        <v>0.36889671534536805</v>
+        <v>1.9744511127354201</v>
       </c>
       <c r="K236" s="5">
-        <v>11.940426111510449</v>
+        <v>14.601120631960086</v>
       </c>
       <c r="L236" s="5">
-        <v>0.94099467880501808</v>
+        <v>1.0864940643031671</v>
       </c>
       <c r="M236" s="5">
-        <v>7.1282060043476703</v>
+        <v>7.366757694676318</v>
       </c>
       <c r="N236" s="5">
-        <v>-20.212442227562466</v>
+        <v>-18.739008713229822</v>
       </c>
       <c r="O236" s="6" t="s">
         <v>23</v>
@@ -16150,10 +16150,10 @@
         <v>194</v>
       </c>
       <c r="R236" s="5">
-        <v>18.457498037295142</v>
+        <v>18.425873624445629</v>
       </c>
       <c r="S236" s="5">
-        <v>14.410447120666504</v>
+        <v>14.442536354064941</v>
       </c>
     </row>
     <row r="237" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16177,25 +16177,25 @@
         <v>73</v>
       </c>
       <c r="H237" s="5">
-        <v>1.353956428301917</v>
+        <v>-1.3058472304079531</v>
       </c>
       <c r="I237" s="5">
-        <v>2.486917664295119</v>
+        <v>0.264308459596374</v>
       </c>
       <c r="J237" s="5">
-        <v>-0.93676188441426111</v>
+        <v>-1.3897214655005261</v>
       </c>
       <c r="K237" s="5">
-        <v>8.5777840315305109</v>
+        <v>8.3369927162915367</v>
       </c>
       <c r="L237" s="5">
-        <v>-5.6861077567403218</v>
+        <v>-7.7707154394285771</v>
       </c>
       <c r="M237" s="5">
-        <v>6.3025181526290766</v>
+        <v>4.9143696634790679</v>
       </c>
       <c r="N237" s="5">
-        <v>-23.345094853545479</v>
+        <v>-24.130769876333382</v>
       </c>
       <c r="O237" s="6" t="s">
         <v>73</v>
@@ -16210,7 +16210,7 @@
         <v>6.5729999542236328</v>
       </c>
       <c r="S237" s="5">
-        <v>4.9967498779296884</v>
+        <v>4.9314999580383301</v>
       </c>
     </row>
     <row r="238" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16221,55 +16221,55 @@
         <v>527</v>
       </c>
       <c r="C238" s="5">
-        <v>2014123.625</v>
+        <v>1968484.625</v>
       </c>
       <c r="D238" s="5">
-        <v>1140047488</v>
+        <v>1331215232</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F238" s="5">
-        <v>0.51617097854614302</v>
+        <v>3.022721529006958</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>-0.15880645884285302</v>
+        <v>-1.0858581419101121</v>
       </c>
       <c r="I238" s="5">
-        <v>2.7193662129714191</v>
+        <v>0.50032115395202104</v>
       </c>
       <c r="J238" s="5">
-        <v>1.1586888804568929</v>
+        <v>-1.3846885687231691</v>
       </c>
       <c r="K238" s="5">
-        <v>13.874972989211564</v>
+        <v>8.4231079811487817</v>
       </c>
       <c r="L238" s="5">
-        <v>3.0997603173352979</v>
+        <v>-7.6810843505647597</v>
       </c>
       <c r="M238" s="5">
-        <v>4.3856992384534221</v>
+        <v>5.3098531259530901</v>
       </c>
       <c r="N238" s="5">
-        <v>-11.184775582620043</v>
+        <v>-24.130628718117052</v>
       </c>
       <c r="O238" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P238" s="6" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="Q238" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="R238" s="5">
-        <v>80.026540363116283</v>
+        <v>5.3670001029968262</v>
       </c>
       <c r="S238" s="5">
-        <v>70.064033508300781</v>
+        <v>3.9170000553131099</v>
       </c>
     </row>
     <row r="239" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16280,55 +16280,55 @@
         <v>529</v>
       </c>
       <c r="C239" s="5">
-        <v>1968484.625</v>
+        <v>1905827.875</v>
       </c>
       <c r="D239" s="5">
-        <v>1331215232</v>
+        <v>869825472</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F239" s="5">
-        <v>2.9898989200592041</v>
+        <v>0.57248061895370506</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="H239" s="5">
-        <v>1.2011226693716239</v>
+        <v>1.9748656318463002E-2</v>
       </c>
       <c r="I239" s="5">
-        <v>2.246324133913546</v>
+        <v>1.2940064320499991</v>
       </c>
       <c r="J239" s="5">
-        <v>-0.96301634892380605</v>
+        <v>3.851407075262836</v>
       </c>
       <c r="K239" s="5">
-        <v>8.1384632743039873</v>
+        <v>15.264604553209349</v>
       </c>
       <c r="L239" s="5">
-        <v>-5.8806449561953471</v>
+        <v>3.3218272237359741</v>
       </c>
       <c r="M239" s="5">
-        <v>6.4659220084414049</v>
+        <v>4.3680525234147893</v>
       </c>
       <c r="N239" s="5">
-        <v>-23.542668025789947</v>
+        <v>-10.06748086195125</v>
       </c>
       <c r="O239" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P239" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q239" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="R239" s="5">
-        <v>5.3670001029968262</v>
+        <v>35.523113198772094</v>
       </c>
       <c r="S239" s="5">
-        <v>3.9600000381469731</v>
+        <v>31.325321197509766</v>
       </c>
     </row>
     <row r="240" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16339,55 +16339,55 @@
         <v>531</v>
       </c>
       <c r="C240" s="5">
-        <v>1919499.125</v>
+        <v>1896621.25</v>
       </c>
       <c r="D240" s="5">
-        <v>874947200</v>
+        <v>1133373952</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F240" s="5">
-        <v>0.57337188720703103</v>
+        <v>0.51586323976516701</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="H240" s="5">
-        <v>-0.21780426413131601</v>
+        <v>-9.8352994925544002E-2</v>
       </c>
       <c r="I240" s="5">
-        <v>2.6449792264449101</v>
+        <v>1.0830881670600869</v>
       </c>
       <c r="J240" s="5">
-        <v>1.1602913364153531</v>
+        <v>3.859513591588537</v>
       </c>
       <c r="K240" s="5">
-        <v>13.861426372726848</v>
+        <v>15.23970239212642</v>
       </c>
       <c r="L240" s="5">
-        <v>3.086392151085104</v>
+        <v>3.132381330357159</v>
       </c>
       <c r="M240" s="5">
-        <v>4.3474453050644124</v>
+        <v>4.2830327769784349</v>
       </c>
       <c r="N240" s="5">
-        <v>-11.061135299989488</v>
+        <v>-10.23709092109295</v>
       </c>
       <c r="O240" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P240" s="6" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q240" s="6" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="R240" s="5">
-        <v>35.523113198772094</v>
+        <v>80.026540363116283</v>
       </c>
       <c r="S240" s="5">
-        <v>31.319135665893555</v>
+        <v>69.995124816894531</v>
       </c>
     </row>
     <row r="241" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16398,40 +16398,40 @@
         <v>533</v>
       </c>
       <c r="C241" s="5">
-        <v>1860398.875</v>
+        <v>1861649.25</v>
       </c>
       <c r="D241" s="5">
-        <v>429705408</v>
+        <v>429994208</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F241" s="5">
-        <v>3.7171716690063481</v>
+        <v>3.699731826782227</v>
       </c>
       <c r="G241" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H241" s="5">
-        <v>-0.20888788637130101</v>
+        <v>0.53890601729182908</v>
       </c>
       <c r="I241" s="5">
-        <v>1.3445771757269132</v>
+        <v>1.2609595912320031</v>
       </c>
       <c r="J241" s="5">
-        <v>1.002387512842762</v>
+        <v>2.662267696367659</v>
       </c>
       <c r="K241" s="5">
-        <v>8.4801997979525812</v>
+        <v>10.272934291285951</v>
       </c>
       <c r="L241" s="5">
-        <v>0.510803674998628</v>
+        <v>1.375233679523302</v>
       </c>
       <c r="M241" s="5">
-        <v>3.6217451658819622</v>
+        <v>4.1801689858037117</v>
       </c>
       <c r="N241" s="5">
-        <v>-12.669791865461644</v>
+        <v>-11.369830896133914</v>
       </c>
       <c r="O241" s="6" t="s">
         <v>23</v>
@@ -16443,10 +16443,10 @@
         <v>194</v>
       </c>
       <c r="R241" s="5">
-        <v>13.1232888028334</v>
+        <v>13.079761865720227</v>
       </c>
       <c r="S241" s="5">
-        <v>11.082089424133301</v>
+        <v>11.141811370849609</v>
       </c>
     </row>
     <row r="242" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16470,25 +16470,25 @@
         <v>73</v>
       </c>
       <c r="H242" s="5">
-        <v>0.12015467523418501</v>
+        <v>9.2356386479420013E-3</v>
       </c>
       <c r="I242" s="5">
-        <v>0</v>
+        <v>4.6177635844202002E-2</v>
       </c>
       <c r="J242" s="5">
-        <v>0.78153733397987601</v>
+        <v>0.6784382218476771</v>
       </c>
       <c r="K242" s="5">
-        <v>1.9386351077604451</v>
+        <v>1.86177668041716</v>
       </c>
       <c r="L242" s="5">
-        <v>2.8484637530399981</v>
+        <v>2.585224930309971</v>
       </c>
       <c r="M242" s="5">
-        <v>0.277723873764679</v>
+        <v>0.28698516198602003</v>
       </c>
       <c r="N242" s="5">
-        <v>1.5849167236533961</v>
+        <v>1.641960882530813</v>
       </c>
       <c r="O242" s="6" t="s">
         <v>73</v>
@@ -16503,7 +16503,7 @@
         <v>5.4219999313354492</v>
       </c>
       <c r="S242" s="5">
-        <v>5.4159998893737793</v>
+        <v>5.4165000915527344</v>
       </c>
     </row>
     <row r="243" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16514,40 +16514,40 @@
         <v>537</v>
       </c>
       <c r="C243" s="5">
-        <v>1715816.75</v>
+        <v>1705461.125</v>
       </c>
       <c r="D243" s="5">
-        <v>1899039744</v>
+        <v>1887578240</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F243" s="5">
-        <v>2.6630749702453613</v>
+        <v>2.6680092811584473</v>
       </c>
       <c r="G243" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H243" s="5">
-        <v>-0.33184704010687005</v>
+        <v>-0.33211409401161501</v>
       </c>
       <c r="I243" s="5">
-        <v>2.6689677709394788</v>
+        <v>1.8544576197527141</v>
       </c>
       <c r="J243" s="5">
-        <v>0.85154722588107712</v>
+        <v>2.3621798721235931</v>
       </c>
       <c r="K243" s="5">
-        <v>23.151957847283057</v>
+        <v>25.379366769906198</v>
       </c>
       <c r="L243" s="5">
-        <v>-0.32774921846112604</v>
+        <v>-5.8785877154688006E-2</v>
       </c>
       <c r="M243" s="5">
-        <v>4.2540461382050374</v>
+        <v>3.9078037574026951</v>
       </c>
       <c r="N243" s="5">
-        <v>-24.301651320765892</v>
+        <v>-23.982427896070568</v>
       </c>
       <c r="O243" s="6" t="s">
         <v>421</v>
@@ -16559,10 +16559,10 @@
         <v>333</v>
       </c>
       <c r="R243" s="5">
-        <v>205.23601483154295</v>
+        <v>202.46872901000978</v>
       </c>
       <c r="S243" s="5">
-        <v>151.83113098144531</v>
+        <v>151.32687377929687</v>
       </c>
     </row>
     <row r="244" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16573,40 +16573,40 @@
         <v>539</v>
       </c>
       <c r="C244" s="5">
-        <v>1701358.375</v>
+        <v>1702501.875</v>
       </c>
       <c r="D244" s="5">
-        <v>316400000</v>
+        <v>316612640</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F244" s="5">
-        <v>3.284480094909668</v>
+        <v>3.2792332172393799</v>
       </c>
       <c r="G244" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H244" s="5">
-        <v>-0.23687332584773102</v>
+        <v>0.22732199774298001</v>
       </c>
       <c r="I244" s="5">
-        <v>1.7866205197591971</v>
+        <v>1.1280748300140699</v>
       </c>
       <c r="J244" s="5">
-        <v>1.2650228892538531</v>
+        <v>2.5152071188130343</v>
       </c>
       <c r="K244" s="5">
-        <v>7.523273097061689</v>
+        <v>9.215433928211624</v>
       </c>
       <c r="L244" s="5">
-        <v>-0.66382349007267905</v>
+        <v>-0.10076545062384101</v>
       </c>
       <c r="M244" s="5">
-        <v>3.679637483044051</v>
+        <v>3.915324106223173</v>
       </c>
       <c r="N244" s="5">
-        <v>-12.892378028297502</v>
+        <v>-11.5473952295718</v>
       </c>
       <c r="O244" s="6" t="s">
         <v>23</v>
@@ -16618,10 +16618,10 @@
         <v>194</v>
       </c>
       <c r="R244" s="5">
-        <v>16.356255362194005</v>
+        <v>16.353714621061307</v>
       </c>
       <c r="S244" s="5">
-        <v>13.992537498474121</v>
+        <v>14.024345397949219</v>
       </c>
     </row>
     <row r="245" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16632,53 +16632,55 @@
         <v>541</v>
       </c>
       <c r="C245" s="5">
-        <v>1700196.125</v>
+        <v>1696967.375</v>
       </c>
       <c r="D245" s="5">
-        <v>999019072</v>
+        <v>368001280</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F245" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F245" s="5">
+        <v>3.3919329643249512</v>
+      </c>
       <c r="G245" s="6" t="s">
-        <v>431</v>
+        <v>192</v>
       </c>
       <c r="H245" s="5">
-        <v>-1.1114506361095791</v>
+        <v>0.27733049177347502</v>
       </c>
       <c r="I245" s="5">
-        <v>4.3504526444257063</v>
+        <v>1.3218324900082119</v>
       </c>
       <c r="J245" s="5">
-        <v>1.0295329124939689</v>
+        <v>3.258562732892845</v>
       </c>
       <c r="K245" s="5">
-        <v>32.198498342908287</v>
+        <v>11.209403499638526</v>
       </c>
       <c r="L245" s="5">
-        <v>-11.199417820331581</v>
+        <v>1.185065148309139</v>
       </c>
       <c r="M245" s="5">
-        <v>2.8309140304082492</v>
+        <v>4.09150020067377</v>
       </c>
       <c r="N245" s="5">
-        <v>-40.569727233713692</v>
+        <v>-11.971258028489872</v>
       </c>
       <c r="O245" s="6" t="s">
-        <v>519</v>
+        <v>23</v>
       </c>
       <c r="P245" s="6" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="Q245" s="6" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="R245" s="5">
-        <v>29.032656312561034</v>
+        <v>16.698763814750748</v>
       </c>
       <c r="S245" s="5">
-        <v>17.322128295898438</v>
+        <v>14.255843162536621</v>
       </c>
     </row>
     <row r="246" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16689,55 +16691,53 @@
         <v>543</v>
       </c>
       <c r="C246" s="5">
-        <v>1695827.625</v>
+        <v>1694633.25</v>
       </c>
       <c r="D246" s="5">
-        <v>367754112</v>
+        <v>2192073472</v>
       </c>
       <c r="E246" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F246" s="5">
-        <v>3.3990552425384521</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="H246" s="5">
-        <v>-0.55210902025248909</v>
+        <v>-0.75203061572011209</v>
       </c>
       <c r="I246" s="5">
-        <v>1.6549451509845881</v>
+        <v>0.57658447168593707</v>
       </c>
       <c r="J246" s="5">
-        <v>2.0816600031034138</v>
+        <v>1.7344509930487861</v>
       </c>
       <c r="K246" s="5">
-        <v>9.4922273355988018</v>
+        <v>13.667263433605669</v>
       </c>
       <c r="L246" s="5">
-        <v>0.77957247514737205</v>
+        <v>8.0469647874019223</v>
       </c>
       <c r="M246" s="5">
-        <v>3.8036211077768778</v>
+        <v>3.040882686598656</v>
       </c>
       <c r="N246" s="5">
-        <v>-13.008864368684369</v>
+        <v>-12.843244637260277</v>
       </c>
       <c r="O246" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P246" s="6" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="Q246" s="6" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="R246" s="5">
-        <v>16.698763814750748</v>
+        <v>5.8090000152587891</v>
       </c>
       <c r="S246" s="5">
-        <v>14.21641731262207</v>
+        <v>5.0149998664855957</v>
       </c>
     </row>
     <row r="247" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16748,41 +16748,41 @@
         <v>545</v>
       </c>
       <c r="C247" s="5">
-        <v>1694633.25</v>
+        <v>1689934.75</v>
       </c>
       <c r="D247" s="5">
-        <v>2192073472</v>
+        <v>992989568</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="6" t="s">
-        <v>73</v>
+        <v>431</v>
       </c>
       <c r="H247" s="5">
-        <v>0.71755578053591706</v>
+        <v>-0.18966100043363901</v>
       </c>
       <c r="I247" s="5">
-        <v>1.9058196348630261</v>
+        <v>4.583573968657717</v>
       </c>
       <c r="J247" s="5">
-        <v>0.66740105640406</v>
+        <v>-0.88808824749716508</v>
       </c>
       <c r="K247" s="5">
-        <v>13.767865825555226</v>
+        <v>35.243539986225784</v>
       </c>
       <c r="L247" s="5">
-        <v>8.8774013699128407</v>
+        <v>-9.9311186419326347</v>
       </c>
       <c r="M247" s="5">
-        <v>3.821653305200567</v>
+        <v>2.635883890103119</v>
       </c>
       <c r="N247" s="5">
-        <v>-12.789094864503436</v>
+        <v>-40.075393563687975</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="P247" s="6" t="s">
         <v>332</v>
@@ -16791,10 +16791,10 @@
         <v>333</v>
       </c>
       <c r="R247" s="5">
-        <v>5.8090000152587891</v>
+        <v>28.828721898078921</v>
       </c>
       <c r="S247" s="5">
-        <v>5.0529999732971191</v>
+        <v>17.289276123046875</v>
       </c>
     </row>
     <row r="248" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16805,40 +16805,40 @@
         <v>547</v>
       </c>
       <c r="C248" s="5">
-        <v>1680593.375</v>
+        <v>1670450.25</v>
       </c>
       <c r="D248" s="5">
-        <v>1786334848</v>
+        <v>1775553664</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F248" s="5">
-        <v>1.781097531318665</v>
+        <v>1.7803738117218022</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H248" s="5">
-        <v>-0.18382799440734801</v>
+        <v>-0.106845750625462</v>
       </c>
       <c r="I248" s="5">
-        <v>1.6458581515791599</v>
+        <v>0.62653500037486209</v>
       </c>
       <c r="J248" s="5">
-        <v>4.4130848874624005E-2</v>
+        <v>1.325486638574636</v>
       </c>
       <c r="K248" s="5">
-        <v>14.765582352268281</v>
+        <v>16.117286094415604</v>
       </c>
       <c r="L248" s="5">
-        <v>1.9969945172259471</v>
+        <v>2.6696500081913932</v>
       </c>
       <c r="M248" s="5">
-        <v>2.1634114632950401</v>
+        <v>2.0542541994524881</v>
       </c>
       <c r="N248" s="5">
-        <v>-15.004950737822199</v>
+        <v>-14.643737800506585</v>
       </c>
       <c r="O248" s="6" t="s">
         <v>421</v>
@@ -16850,10 +16850,10 @@
         <v>333</v>
       </c>
       <c r="R248" s="5">
-        <v>143.59284208374024</v>
+        <v>142.67468584136964</v>
       </c>
       <c r="S248" s="5">
-        <v>120.13655853271484</v>
+        <v>120.00820922851562</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16923,40 +16923,40 @@
         <v>551</v>
       </c>
       <c r="C250" s="5">
-        <v>1641072</v>
+        <v>1631167.5</v>
       </c>
       <c r="D250" s="5">
-        <v>609184192</v>
+        <v>605507520</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F250" s="5">
-        <v>1.859637379646301</v>
+        <v>1.862122654914856</v>
       </c>
       <c r="G250" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H250" s="5">
-        <v>2.5584985422911002E-2</v>
+        <v>-0.280708101663318</v>
       </c>
       <c r="I250" s="5">
-        <v>1.7634843947724741</v>
+        <v>0.32862585422182</v>
       </c>
       <c r="J250" s="5">
-        <v>-1.702656440238703</v>
+        <v>0.12507140486395202</v>
       </c>
       <c r="K250" s="5">
-        <v>11.639918728315735</v>
+        <v>13.598806422736365</v>
       </c>
       <c r="L250" s="5">
-        <v>0.46332548754439706</v>
+        <v>0.30679204360311002</v>
       </c>
       <c r="M250" s="5">
-        <v>2.9685274500041103</v>
+        <v>2.6794864512885259</v>
       </c>
       <c r="N250" s="5">
-        <v>-19.722489970269208</v>
+        <v>-19.415102001572791</v>
       </c>
       <c r="O250" s="6" t="s">
         <v>23</v>
@@ -16968,10 +16968,10 @@
         <v>333</v>
       </c>
       <c r="R250" s="5">
-        <v>6.9208605812072754</v>
+        <v>6.877546806430817</v>
       </c>
       <c r="S250" s="5">
-        <v>5.488555908203125</v>
+        <v>5.473149299621582</v>
       </c>
     </row>
     <row r="251" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16982,55 +16982,55 @@
         <v>553</v>
       </c>
       <c r="C251" s="5">
-        <v>1611516.375</v>
+        <v>1629532.125</v>
       </c>
       <c r="D251" s="5">
-        <v>435641792</v>
+        <v>310404704</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F251" s="5">
-        <v>1.321608424186707</v>
+        <v>4.1081738471984863</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H251" s="5">
-        <v>-0.103091876779049</v>
+        <v>-0.43017015405206704</v>
       </c>
       <c r="I251" s="5">
-        <v>2.4227980540785898</v>
+        <v>2.035995112661082</v>
       </c>
       <c r="J251" s="5">
-        <v>0.96386581123937309</v>
+        <v>-0.66975989684612303</v>
       </c>
       <c r="K251" s="5">
-        <v>13.862112351615652</v>
+        <v>7.7882899854233365</v>
       </c>
       <c r="L251" s="5">
-        <v>-0.46116798832831501</v>
+        <v>-6.0979707133753109</v>
       </c>
       <c r="M251" s="5">
-        <v>3.7103012494330572</v>
+        <v>6.0148393570457426</v>
       </c>
       <c r="N251" s="5">
-        <v>-14.262088114100557</v>
+        <v>-23.44208863117171</v>
       </c>
       <c r="O251" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q251" s="6" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="R251" s="5">
-        <v>31.877165029106692</v>
+        <v>1.451834166828158</v>
       </c>
       <c r="S251" s="5">
-        <v>26.826065063476562</v>
+        <v>1.0867124795913701</v>
       </c>
     </row>
     <row r="252" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17041,40 +17041,40 @@
         <v>555</v>
       </c>
       <c r="C252" s="5">
-        <v>1570623.375</v>
+        <v>1546931</v>
       </c>
       <c r="D252" s="5">
-        <v>310917152</v>
+        <v>433091680</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F252" s="5">
-        <v>4.0907716751098633</v>
+        <v>1.3216085433959961</v>
       </c>
       <c r="G252" s="6" t="s">
         <v>327</v>
       </c>
       <c r="H252" s="5">
-        <v>1.380660607697082</v>
+        <v>-0.20975422860893803</v>
       </c>
       <c r="I252" s="5">
-        <v>4.148054027167003</v>
+        <v>0.57304127148989403</v>
       </c>
       <c r="J252" s="5">
-        <v>0.70489948273750902</v>
+        <v>3.3390233619863041</v>
       </c>
       <c r="K252" s="5">
-        <v>7.9896183762879769</v>
+        <v>14.587188426395258</v>
       </c>
       <c r="L252" s="5">
-        <v>-4.9605733974285364</v>
+        <v>-0.85266545042738107</v>
       </c>
       <c r="M252" s="5">
-        <v>6.4728537962446708</v>
+        <v>3.492764507059309</v>
       </c>
       <c r="N252" s="5">
-        <v>-22.83377457044088</v>
+        <v>-13.634219472454657</v>
       </c>
       <c r="O252" s="6" t="s">
         <v>23</v>
@@ -17086,10 +17086,10 @@
         <v>329</v>
       </c>
       <c r="R252" s="5">
-        <v>1.451834166828158</v>
+        <v>31.877165029106692</v>
       </c>
       <c r="S252" s="5">
-        <v>1.091407418251038</v>
+        <v>26.769796371459961</v>
       </c>
     </row>
     <row r="253" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17100,55 +17100,55 @@
         <v>557</v>
       </c>
       <c r="C253" s="5">
-        <v>1502441.75</v>
+        <v>1533444.625</v>
       </c>
       <c r="D253" s="5">
-        <v>608577280</v>
+        <v>2112080896</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="F253" s="5">
-        <v>2.2062780857086182</v>
+        <v>3.8075094223022461</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="H253" s="5">
-        <v>-0.6995243260225491</v>
+        <v>-0.58490295989949104</v>
       </c>
       <c r="I253" s="5">
-        <v>1.137237847050443</v>
+        <v>2.4482001110355029</v>
       </c>
       <c r="J253" s="5">
-        <v>1.5978968745036459</v>
+        <v>0.53916686312567308</v>
       </c>
       <c r="K253" s="5">
-        <v>8.1888928683286455</v>
+        <v>13.442405725862905</v>
       </c>
       <c r="L253" s="5">
-        <v>-4.7286031107316662</v>
+        <v>-0.69597393016636</v>
       </c>
       <c r="M253" s="5">
-        <v>3.9055898107504432</v>
+        <v>6.1017060976706228</v>
       </c>
       <c r="N253" s="5">
-        <v>-16.273994832813955</v>
+        <v>-18.801806841407632</v>
       </c>
       <c r="O253" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P253" s="6" t="s">
-        <v>503</v>
+        <v>321</v>
       </c>
       <c r="Q253" s="6" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="R253" s="5">
-        <v>20.356457251721942</v>
+        <v>1.560537128807896</v>
       </c>
       <c r="S253" s="5">
-        <v>16.641790390014648</v>
+        <v>1.248844265937805</v>
       </c>
     </row>
     <row r="254" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17159,55 +17159,55 @@
         <v>559</v>
       </c>
       <c r="C254" s="5">
-        <v>1471742.125</v>
+        <v>1503451.5</v>
       </c>
       <c r="D254" s="5">
-        <v>234999856</v>
+        <v>608986304</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="F254" s="5">
-        <v>1.97309410572052</v>
+        <v>2.213225364685059</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H254" s="5">
-        <v>-0.41771768606666504</v>
+        <v>-0.24690016631064801</v>
       </c>
       <c r="I254" s="5">
-        <v>0.69718955133999405</v>
+        <v>6.0759054562554003E-2</v>
       </c>
       <c r="J254" s="5">
-        <v>1.1815244700637659</v>
+        <v>2.4830519516436222</v>
       </c>
       <c r="K254" s="5">
-        <v>4.7562419683612633</v>
+        <v>9.4523350881220871</v>
       </c>
       <c r="L254" s="5">
-        <v>-2.4038125696323691</v>
+        <v>-4.3326461240487451</v>
       </c>
       <c r="M254" s="5">
-        <v>1.883900296531182</v>
+        <v>3.6490467367016333</v>
       </c>
       <c r="N254" s="5">
-        <v>-9.2731179794051766</v>
+        <v>-15.499925364397193</v>
       </c>
       <c r="O254" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P254" s="6" t="s">
-        <v>193</v>
+        <v>503</v>
       </c>
       <c r="Q254" s="6" t="s">
         <v>194</v>
       </c>
       <c r="R254" s="5">
-        <v>11.210078853337192</v>
+        <v>20.205424735336045</v>
       </c>
       <c r="S254" s="5">
-        <v>9.9850749969482422</v>
+        <v>16.600702285766602</v>
       </c>
     </row>
     <row r="255" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17218,55 +17218,55 @@
         <v>561</v>
       </c>
       <c r="C255" s="5">
-        <v>1468770.625</v>
+        <v>1472731.25</v>
       </c>
       <c r="D255" s="5">
-        <v>2115567488</v>
+        <v>235157792</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F255" s="5">
-        <v>3.7854890823364262</v>
+        <v>1.9672130346298222</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="H255" s="5">
-        <v>1.428328884440822</v>
+        <v>0.36636509936214301</v>
       </c>
       <c r="I255" s="5">
-        <v>4.9171072883207101</v>
+        <v>0.50976521368646399</v>
       </c>
       <c r="J255" s="5">
-        <v>1.58135556755632</v>
+        <v>2.5834869251915471</v>
       </c>
       <c r="K255" s="5">
-        <v>14.392079507491484</v>
+        <v>6.079939149854896</v>
       </c>
       <c r="L255" s="5">
-        <v>0.27023573583684302</v>
+        <v>-1.469339312917461</v>
       </c>
       <c r="M255" s="5">
-        <v>6.7259493343078116</v>
+        <v>2.257167349086608</v>
       </c>
       <c r="N255" s="5">
-        <v>-17.972414210927411</v>
+        <v>-8.1538387365298846</v>
       </c>
       <c r="O255" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P255" s="6" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="Q255" s="6" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="R255" s="5">
-        <v>1.560537128807896</v>
+        <v>11.210078853337192</v>
       </c>
       <c r="S255" s="5">
-        <v>1.2561918497085571</v>
+        <v>10.021656036376953</v>
       </c>
     </row>
     <row r="256" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17277,10 +17277,10 @@
         <v>563</v>
       </c>
       <c r="C256" s="5">
-        <v>1429512.625</v>
+        <v>1430473.375</v>
       </c>
       <c r="D256" s="5">
-        <v>641201024</v>
+        <v>641632000</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>67</v>
@@ -17292,25 +17292,25 @@
         <v>192</v>
       </c>
       <c r="H256" s="5">
-        <v>-0.539459528398889</v>
+        <v>6.7210795898820008E-2</v>
       </c>
       <c r="I256" s="5">
-        <v>1.3201065734952391</v>
+        <v>0.62962585993555609</v>
       </c>
       <c r="J256" s="5">
-        <v>1.344568134085367</v>
+        <v>2.595549180804912</v>
       </c>
       <c r="K256" s="5">
-        <v>7.376940401644827</v>
+        <v>8.5210785647518392</v>
       </c>
       <c r="L256" s="5">
-        <v>-2.098420092168662</v>
+        <v>-1.674026592658417</v>
       </c>
       <c r="M256" s="5">
-        <v>3.4179127809801368</v>
+        <v>3.4874207832621851</v>
       </c>
       <c r="N256" s="5">
-        <v>-11.862408108602962</v>
+        <v>-11.049559236465267</v>
       </c>
       <c r="O256" s="6" t="s">
         <v>23</v>
@@ -17325,7 +17325,7 @@
         <v>8.7064679677978862</v>
       </c>
       <c r="S256" s="5">
-        <v>7.567164421081543</v>
+        <v>7.5722503662109384</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17336,40 +17336,40 @@
         <v>565</v>
       </c>
       <c r="C257" s="5">
-        <v>1380595.875</v>
+        <v>1381523.75</v>
       </c>
       <c r="D257" s="5">
-        <v>284427456</v>
+        <v>284618624</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F257" s="5">
-        <v>2.9586658477783203</v>
+        <v>2.952243328094482</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H257" s="5">
-        <v>-5.3379609957216002E-2</v>
+        <v>0.28490402369818502</v>
       </c>
       <c r="I257" s="5">
-        <v>2.173196662726284</v>
+        <v>1.749953072894828</v>
       </c>
       <c r="J257" s="5">
-        <v>1.567386895264389</v>
+        <v>2.597437905781264</v>
       </c>
       <c r="K257" s="5">
-        <v>8.0831400475230186</v>
+        <v>9.8594008350284987</v>
       </c>
       <c r="L257" s="5">
-        <v>0.65615135590271201</v>
+        <v>1.0120711842192209</v>
       </c>
       <c r="M257" s="5">
-        <v>4.064145969100208</v>
+        <v>4.3606289081933314</v>
       </c>
       <c r="N257" s="5">
-        <v>-11.841969725858936</v>
+        <v>-10.6648916214229</v>
       </c>
       <c r="O257" s="6" t="s">
         <v>23</v>
@@ -17381,10 +17381,10 @@
         <v>194</v>
       </c>
       <c r="R257" s="5">
-        <v>11.924552490644139</v>
+        <v>11.90820105327226</v>
       </c>
       <c r="S257" s="5">
-        <v>10.291045188903809</v>
+        <v>10.320363998413086</v>
       </c>
     </row>
     <row r="258" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17395,40 +17395,40 @@
         <v>567</v>
       </c>
       <c r="C258" s="5">
-        <v>1354963.25</v>
+        <v>1346785.5</v>
       </c>
       <c r="D258" s="5">
-        <v>306437696</v>
+        <v>304588224</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F258" s="5">
-        <v>2.940622091293335</v>
+        <v>2.9840142726898193</v>
       </c>
       <c r="G258" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H258" s="5">
-        <v>1.1438250711438109</v>
+        <v>-1.599450687135517</v>
       </c>
       <c r="I258" s="5">
-        <v>3.2006866330260841</v>
+        <v>8.1935977891859999E-3</v>
       </c>
       <c r="J258" s="5">
-        <v>-2.228470533844229</v>
+        <v>-1.54412231193426</v>
       </c>
       <c r="K258" s="5">
-        <v>16.20742295694253</v>
+        <v>17.320833244705192</v>
       </c>
       <c r="L258" s="5">
-        <v>-4.5036409462990026</v>
+        <v>-6.4321904271532393</v>
       </c>
       <c r="M258" s="5">
-        <v>7.4957875505449634</v>
+        <v>5.7764454379260375</v>
       </c>
       <c r="N258" s="5">
-        <v>-32.833177338176512</v>
+        <v>-33.414500998601952</v>
       </c>
       <c r="O258" s="6" t="s">
         <v>23</v>
@@ -17440,10 +17440,10 @@
         <v>333</v>
       </c>
       <c r="R258" s="5">
-        <v>6.9276887374877925</v>
+        <v>6.8869558965682991</v>
       </c>
       <c r="S258" s="5">
-        <v>4.5338120460510254</v>
+        <v>4.4612960815429687</v>
       </c>
     </row>
     <row r="259" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17454,40 +17454,40 @@
         <v>569</v>
       </c>
       <c r="C259" s="5">
-        <v>1271923</v>
+        <v>1264246.375</v>
       </c>
       <c r="D259" s="5">
-        <v>123444232</v>
+        <v>122699192</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>396</v>
       </c>
       <c r="F259" s="5">
-        <v>0.75989782810211204</v>
+        <v>0.7605454325675961</v>
       </c>
       <c r="G259" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H259" s="5">
-        <v>-0.16885306997535002</v>
+        <v>-0.23245820745437801</v>
       </c>
       <c r="I259" s="5">
-        <v>1.1983916141021791</v>
+        <v>-8.0694992951857003E-2</v>
       </c>
       <c r="J259" s="5">
-        <v>-0.97194836146532504</v>
+        <v>0.34147628228022903</v>
       </c>
       <c r="K259" s="5">
-        <v>9.1618282913293214</v>
+        <v>10.624928142336465</v>
       </c>
       <c r="L259" s="5">
-        <v>1.801233465573526</v>
+        <v>2.1063606689610159</v>
       </c>
       <c r="M259" s="5">
-        <v>1.4248508757016332</v>
+        <v>1.1890804854427059</v>
       </c>
       <c r="N259" s="5">
-        <v>-14.103981038350478</v>
+        <v>-13.897697164152556</v>
       </c>
       <c r="O259" s="6" t="s">
         <v>421</v>
@@ -17499,10 +17499,10 @@
         <v>333</v>
       </c>
       <c r="R259" s="5">
-        <v>6.7016817134857174</v>
+        <v>6.6740144777297985</v>
       </c>
       <c r="S259" s="5">
-        <v>5.7357883453369141</v>
+        <v>5.7224550247192383</v>
       </c>
     </row>
     <row r="260" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17513,40 +17513,40 @@
         <v>571</v>
       </c>
       <c r="C260" s="5">
-        <v>1211796.5</v>
+        <v>1206775.75</v>
       </c>
       <c r="D260" s="5">
-        <v>183081184</v>
+        <v>182322624</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F260" s="5">
-        <v>2.9578399658203129</v>
+        <v>2.99085521697998</v>
       </c>
       <c r="G260" s="6" t="s">
         <v>397</v>
       </c>
       <c r="H260" s="5">
-        <v>0.87976531215747711</v>
+        <v>-1.23173923796146</v>
       </c>
       <c r="I260" s="5">
-        <v>3.7594036077926769</v>
+        <v>0.77152194704246402</v>
       </c>
       <c r="J260" s="5">
-        <v>0.88589946585209112</v>
+        <v>0.57761312226249906</v>
       </c>
       <c r="K260" s="5">
-        <v>18.929744333884901</v>
+        <v>19.388795089250245</v>
       </c>
       <c r="L260" s="5">
-        <v>-0.79031931004256406</v>
+        <v>-3.041632001619154</v>
       </c>
       <c r="M260" s="5">
-        <v>7.3909704370431761</v>
+        <v>6.0681937161425106</v>
       </c>
       <c r="N260" s="5">
-        <v>-29.822857194416098</v>
+        <v>-30.113706123557371</v>
       </c>
       <c r="O260" s="6" t="s">
         <v>23</v>
@@ -17558,10 +17558,10 @@
         <v>333</v>
       </c>
       <c r="R260" s="5">
-        <v>5.9643861391067512</v>
+        <v>5.9415358703613279</v>
       </c>
       <c r="S260" s="5">
-        <v>4.0707864761352539</v>
+        <v>4.0206451416015634</v>
       </c>
     </row>
     <row r="261" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17572,40 +17572,40 @@
         <v>573</v>
       </c>
       <c r="C261" s="5">
-        <v>1158508.875</v>
+        <v>1151516.75</v>
       </c>
       <c r="D261" s="5">
-        <v>1480973440</v>
+        <v>1472035200</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F261" s="5">
-        <v>0.65853184461593606</v>
+        <v>0.66438692808151201</v>
       </c>
       <c r="G261" s="6" t="s">
         <v>431</v>
       </c>
       <c r="H261" s="5">
-        <v>8.8472866550138002E-2</v>
+        <v>-1.027411933680455</v>
       </c>
       <c r="I261" s="5">
-        <v>1.8248150309164051</v>
+        <v>-0.59127642661479507</v>
       </c>
       <c r="J261" s="5">
-        <v>-1.439854213837743</v>
+        <v>-8.0539803547419006E-2</v>
       </c>
       <c r="K261" s="5">
-        <v>11.203067995564432</v>
+        <v>11.963384618151206</v>
       </c>
       <c r="L261" s="5">
-        <v>-1.0611831174956681</v>
+        <v>-1.9051682087294459</v>
       </c>
       <c r="M261" s="5">
-        <v>2.8244345973315932</v>
+        <v>1.768004085539143</v>
       </c>
       <c r="N261" s="5">
-        <v>-20.196676432911232</v>
+        <v>-20.556720329734336</v>
       </c>
       <c r="O261" s="6" t="s">
         <v>23</v>
@@ -17617,10 +17617,10 @@
         <v>574</v>
       </c>
       <c r="R261" s="5">
-        <v>158.751</v>
+        <v>158.71827573852539</v>
       </c>
       <c r="S261" s="5">
-        <v>126.07013702392578</v>
+        <v>124.77487945556641</v>
       </c>
     </row>
     <row r="262" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17644,25 +17644,25 @@
         <v>73</v>
       </c>
       <c r="H262" s="5">
-        <v>5.5808397318891007E-2</v>
+        <v>0</v>
       </c>
       <c r="I262" s="5">
-        <v>0.19558449787677701</v>
+        <v>0.11167023636320401</v>
       </c>
       <c r="J262" s="5">
-        <v>0.54206136083265699</v>
+        <v>0.49509995807575102</v>
       </c>
       <c r="K262" s="5">
-        <v>1.414032569848467</v>
+        <v>1.586404332689151</v>
       </c>
       <c r="L262" s="5">
-        <v>2.0295970083713311</v>
+        <v>1.9329209298803551</v>
       </c>
       <c r="M262" s="5">
         <v>0.20492094523194601</v>
       </c>
       <c r="N262" s="5">
-        <v>1.567224000107315</v>
+        <v>1.5960017908075002</v>
       </c>
       <c r="O262" s="6" t="s">
         <v>73</v>
@@ -17674,7 +17674,7 @@
         <v>333</v>
       </c>
       <c r="R262" s="5">
-        <v>5.3839998245239258</v>
+        <v>5.3850002288818359</v>
       </c>
       <c r="S262" s="5">
         <v>5.379000186920166</v>
@@ -17697,31 +17697,31 @@
         <v>44</v>
       </c>
       <c r="F263" s="5">
-        <v>5.0855088233947754</v>
+        <v>5.0992779731750488</v>
       </c>
       <c r="G263" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H263" s="5">
-        <v>0.35000288998743301</v>
+        <v>-0.27002460754498303</v>
       </c>
       <c r="I263" s="5">
-        <v>2.713446627476368</v>
+        <v>1.407616964791325</v>
       </c>
       <c r="J263" s="5">
-        <v>4.4076757977951964</v>
+        <v>5.4055942101880472</v>
       </c>
       <c r="K263" s="5">
-        <v>13.73585218813307</v>
+        <v>13.854945221216685</v>
       </c>
       <c r="L263" s="5">
-        <v>11.396075116490989</v>
+        <v>10.937007355237039</v>
       </c>
       <c r="M263" s="5">
-        <v>4.073885739983929</v>
+        <v>3.7928606384577179</v>
       </c>
       <c r="N263" s="5">
-        <v>-7.5616862228680137</v>
+        <v>-7.6108795374811304</v>
       </c>
       <c r="O263" s="6" t="s">
         <v>398</v>
@@ -17736,7 +17736,7 @@
         <v>51.720001220703125</v>
       </c>
       <c r="S263" s="5">
-        <v>44.439998626708984</v>
+        <v>44.319999694824219</v>
       </c>
     </row>
     <row r="264" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17756,31 +17756,31 @@
         <v>33</v>
       </c>
       <c r="F264" s="5">
-        <v>2.2389626502990718</v>
+        <v>2.241384744644165</v>
       </c>
       <c r="G264" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H264" s="5">
-        <v>4.1182864880529003E-2</v>
+        <v>-0.10805364774887401</v>
       </c>
       <c r="I264" s="5">
-        <v>0.50682443341210104</v>
+        <v>0.12894573638531101</v>
       </c>
       <c r="J264" s="5">
-        <v>0.69816781549469908</v>
+        <v>0.606342313555297</v>
       </c>
       <c r="K264" s="5">
-        <v>3.2081790125332521</v>
+        <v>3.151133368921033</v>
       </c>
       <c r="L264" s="5">
-        <v>1.1799821302215461</v>
+        <v>0.70221219479067509</v>
       </c>
       <c r="M264" s="5">
-        <v>1.0713530121030821</v>
+        <v>0.96214172834434608</v>
       </c>
       <c r="N264" s="5">
-        <v>-3.0912898115584948</v>
+        <v>-3.091614557558231</v>
       </c>
       <c r="O264" s="6" t="s">
         <v>23</v>
@@ -17792,10 +17792,10 @@
         <v>333</v>
       </c>
       <c r="R264" s="5">
-        <v>102.19000244140625</v>
+        <v>102.01999664306641</v>
       </c>
       <c r="S264" s="5">
-        <v>97.169998168945313</v>
+        <v>97.06500244140625</v>
       </c>
     </row>
     <row r="265" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17806,40 +17806,40 @@
         <v>582</v>
       </c>
       <c r="C265" s="5">
-        <v>1065971.625</v>
+        <v>1066688.125</v>
       </c>
       <c r="D265" s="5">
-        <v>382764192</v>
+        <v>383021440</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F265" s="5">
-        <v>3.118371963500977</v>
+        <v>3.113795280456543</v>
       </c>
       <c r="G265" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H265" s="5">
-        <v>-1.10539721680214</v>
+        <v>0.45278705937847902</v>
       </c>
       <c r="I265" s="5">
-        <v>9.4017827036330007E-2</v>
+        <v>-1.7555719039519E-2</v>
       </c>
       <c r="J265" s="5">
-        <v>0.86424733745309512</v>
+        <v>3.1893510385627932</v>
       </c>
       <c r="K265" s="5">
-        <v>5.3911005928429123</v>
+        <v>6.692240598241983</v>
       </c>
       <c r="L265" s="5">
-        <v>-6.8485306549003528</v>
+        <v>-5.7758450933752981</v>
       </c>
       <c r="M265" s="5">
-        <v>2.409256442444851</v>
+        <v>2.8729523032219761</v>
       </c>
       <c r="N265" s="5">
-        <v>-15.908566264907043</v>
+        <v>-14.487482072892998</v>
       </c>
       <c r="O265" s="6" t="s">
         <v>23</v>
@@ -17854,7 +17854,7 @@
         <v>85.729923676322187</v>
       </c>
       <c r="S265" s="5">
-        <v>65.850746154785156</v>
+        <v>66.148910522460938</v>
       </c>
     </row>
     <row r="266" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17865,10 +17865,10 @@
         <v>584</v>
       </c>
       <c r="C266" s="5">
-        <v>1055270.875</v>
+        <v>1055980.125</v>
       </c>
       <c r="D266" s="5">
-        <v>231962320</v>
+        <v>232118224</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>33</v>
@@ -17878,25 +17878,25 @@
         <v>73</v>
       </c>
       <c r="H266" s="5">
-        <v>-0.30682470966136904</v>
+        <v>4.8906372544799001E-2</v>
       </c>
       <c r="I266" s="5">
-        <v>0.48628537676298506</v>
+        <v>-5.4610442268843006E-2</v>
       </c>
       <c r="J266" s="5">
-        <v>1.442036473596908</v>
+        <v>2.6565993270999622</v>
       </c>
       <c r="K266" s="5">
-        <v>3.8759205229971672</v>
+        <v>4.8363825397476079</v>
       </c>
       <c r="L266" s="5">
-        <v>-1.711961781717863</v>
+        <v>-1.047607428186625</v>
       </c>
       <c r="M266" s="5">
-        <v>1.2107716611257759</v>
+        <v>1.2602701781698531</v>
       </c>
       <c r="N266" s="5">
-        <v>-5.3919520120526805</v>
+        <v>-4.8001236216045022</v>
       </c>
       <c r="O266" s="6" t="s">
         <v>73</v>
@@ -17911,7 +17911,7 @@
         <v>43.235436581700554</v>
       </c>
       <c r="S266" s="5">
-        <v>40.80596923828125</v>
+        <v>40.825927734375</v>
       </c>
     </row>
     <row r="267" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17922,40 +17922,40 @@
         <v>586</v>
       </c>
       <c r="C267" s="5">
-        <v>1022218.3125</v>
+        <v>1022905.3125</v>
       </c>
       <c r="D267" s="5">
-        <v>398935360</v>
+        <v>399203488</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>288</v>
       </c>
       <c r="F267" s="5">
-        <v>4.1025643348693848</v>
+        <v>4.0938167572021484</v>
       </c>
       <c r="G267" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H267" s="5">
-        <v>0.19191531249198601</v>
+        <v>0.281034524153356</v>
       </c>
       <c r="I267" s="5">
-        <v>1.9547772652841471</v>
+        <v>0.91152446306352908</v>
       </c>
       <c r="J267" s="5">
-        <v>1.438516391803923</v>
+        <v>2.3632683860208559</v>
       </c>
       <c r="K267" s="5">
-        <v>6.550202936756877</v>
+        <v>8.2203784073264572</v>
       </c>
       <c r="L267" s="5">
-        <v>-2.4966118064520648</v>
+        <v>-1.677025329209336</v>
       </c>
       <c r="M267" s="5">
-        <v>3.4004901265819898</v>
+        <v>3.691081201981472</v>
       </c>
       <c r="N267" s="5">
-        <v>-15.04592255013355</v>
+        <v>-14.155545859041119</v>
       </c>
       <c r="O267" s="6" t="s">
         <v>23</v>
@@ -17970,7 +17970,7 @@
         <v>8.5299310820421432</v>
       </c>
       <c r="S267" s="5">
-        <v>6.985074520111084</v>
+        <v>7.0047049522399902</v>
       </c>
     </row>
     <row r="268" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17981,10 +17981,10 @@
         <v>588</v>
       </c>
       <c r="C268" s="5">
-        <v>1019732.625</v>
+        <v>1015507.625</v>
       </c>
       <c r="D268" s="5">
-        <v>1046135104</v>
+        <v>1041800704</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>396</v>
@@ -17994,25 +17994,25 @@
         <v>73</v>
       </c>
       <c r="H268" s="5">
-        <v>-0.24127054933759101</v>
+        <v>3.3838716276380003E-3</v>
       </c>
       <c r="I268" s="5">
-        <v>2.1715523300674939</v>
+        <v>1.078129035870679</v>
       </c>
       <c r="J268" s="5">
-        <v>1.3120949528952821</v>
+        <v>3.0315424108144469</v>
       </c>
       <c r="K268" s="5">
-        <v>15.447205824266108</v>
+        <v>16.257055748953263</v>
       </c>
       <c r="L268" s="5">
-        <v>5.0873811595633533</v>
+        <v>5.1177623041901876</v>
       </c>
       <c r="M268" s="5">
-        <v>2.641397391027112</v>
+        <v>2.6448706441516423</v>
       </c>
       <c r="N268" s="5">
-        <v>-16.280525295133373</v>
+        <v>-15.765132865366082</v>
       </c>
       <c r="O268" s="6" t="s">
         <v>73</v>
@@ -18024,10 +18024,10 @@
         <v>333</v>
       </c>
       <c r="R268" s="5">
-        <v>6.0681444304466252</v>
+        <v>6.0235914173126224</v>
       </c>
       <c r="S268" s="5">
-        <v>5.0940327644348145</v>
+        <v>5.094205379486084</v>
       </c>
     </row>
   </sheetData>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\download\20.02.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\download\21.02.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,6 +474,12 @@
     <t>SPDR PORTFOLIO A</t>
   </si>
   <si>
+    <t>SHYG US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 0-5 HY C</t>
+  </si>
+  <si>
     <t>153130 KS Equity</t>
   </si>
   <si>
@@ -489,12 +495,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>SHYG US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 0-5 HY C</t>
-  </si>
-  <si>
     <t>BIV US Equity</t>
   </si>
   <si>
@@ -525,27 +525,27 @@
     <t>USIG US Equity</t>
   </si>
   <si>
+    <t>PSA CN Equity</t>
+  </si>
+  <si>
+    <t>PURPOSE HIGH INT</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>PGX US Equity</t>
   </si>
   <si>
     <t>INVESCO PREFERRE</t>
   </si>
   <si>
-    <t>PSA CN Equity</t>
-  </si>
-  <si>
-    <t>PURPOSE HIGH INT</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>PULS US Equity</t>
   </si>
   <si>
@@ -696,6 +696,12 @@
     <t>ISHR C CA U BOND</t>
   </si>
   <si>
+    <t>214980 KS Equity</t>
+  </si>
+  <si>
+    <t>SS KODEX KRW ETF</t>
+  </si>
+  <si>
     <t>VNLA US Equity</t>
   </si>
   <si>
@@ -714,12 +720,6 @@
     <t>SPDR-PORT L/T C</t>
   </si>
   <si>
-    <t>214980 KS Equity</t>
-  </si>
-  <si>
-    <t>SS KODEX KRW ETF</t>
-  </si>
-  <si>
     <t>EDV US Equity</t>
   </si>
   <si>
@@ -768,6 +768,21 @@
     <t>ISHARES 0-5 IGC</t>
   </si>
   <si>
+    <t>00679B TT Equity</t>
+  </si>
+  <si>
+    <t>YUANTA UST 20+</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
     <t>JMST US Equity</t>
   </si>
   <si>
@@ -780,21 +795,6 @@
     <t>PIMCO 25+ Y Z C</t>
   </si>
   <si>
-    <t>00679B TT Equity</t>
-  </si>
-  <si>
-    <t>YUANTA UST 20+</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>Taipei</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>AAA AU Equity</t>
   </si>
   <si>
@@ -891,6 +891,12 @@
     <t>IBDP US Equity</t>
   </si>
   <si>
+    <t>00720B TT Equity</t>
+  </si>
+  <si>
+    <t>YUANTA 20 CB ETF</t>
+  </si>
+  <si>
     <t>TDTT US Equity</t>
   </si>
   <si>
@@ -906,12 +912,6 @@
     <t>Muni-California</t>
   </si>
   <si>
-    <t>00720B TT Equity</t>
-  </si>
-  <si>
-    <t>YUANTA 20 CB ETF</t>
-  </si>
-  <si>
     <t>FLTR US Equity</t>
   </si>
   <si>
@@ -1128,6 +1128,30 @@
     <t>ISH JP $EM BD $D</t>
   </si>
   <si>
+    <t>159972 CH Equity</t>
+  </si>
+  <si>
+    <t>PH CSI5Y LCL GV</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>00751B TT Equity</t>
+  </si>
+  <si>
+    <t>YT US 20AAA ETF</t>
+  </si>
+  <si>
     <t>CHCORP SW Equity</t>
   </si>
   <si>
@@ -1143,12 +1167,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>00751B TT Equity</t>
-  </si>
-  <si>
-    <t>YT US 20AAA ETF</t>
-  </si>
-  <si>
     <t>QLTA US Equity</t>
   </si>
   <si>
@@ -1167,16 +1185,22 @@
     <t>INVESCO FUNDAMEN</t>
   </si>
   <si>
+    <t>ZPR CN Equity</t>
+  </si>
+  <si>
+    <t>BMO LADDERED PRE</t>
+  </si>
+  <si>
     <t>LQDE LN Equity</t>
   </si>
   <si>
     <t>ISH $ CORP BD $D</t>
   </si>
   <si>
-    <t>ZPR CN Equity</t>
-  </si>
-  <si>
-    <t>BMO LADDERED PRE</t>
+    <t>VSB CN Equity</t>
+  </si>
+  <si>
+    <t>VANGUARD CA ST B</t>
   </si>
   <si>
     <t>LTPZ US Equity</t>
@@ -1185,30 +1209,6 @@
     <t>PIMCO 15+ YR US</t>
   </si>
   <si>
-    <t>VSB CN Equity</t>
-  </si>
-  <si>
-    <t>VANGUARD CA ST B</t>
-  </si>
-  <si>
-    <t>159972 CH Equity</t>
-  </si>
-  <si>
-    <t>PH CSI5Y LCL GV</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>ZST CN Equity</t>
   </si>
   <si>
@@ -1236,54 +1236,54 @@
     <t>BMO SHORT CORPOR</t>
   </si>
   <si>
+    <t>00725B TT Equity</t>
+  </si>
+  <si>
+    <t>CAT BBB CORP ETF</t>
+  </si>
+  <si>
     <t>ZFL CN Equity</t>
   </si>
   <si>
     <t>BMO LONG FEDERAL</t>
   </si>
   <si>
-    <t>00725B TT Equity</t>
-  </si>
-  <si>
-    <t>CAT BBB CORP ETF</t>
-  </si>
-  <si>
     <t>CMBS US Equity</t>
   </si>
   <si>
     <t>ISHARES CMBS ETF</t>
   </si>
   <si>
+    <t>AGZ US Equity</t>
+  </si>
+  <si>
+    <t>ISHARES AGENCY B</t>
+  </si>
+  <si>
     <t>00773B TT Equity</t>
   </si>
   <si>
     <t>CTBC BBSR 10 ETF</t>
   </si>
   <si>
-    <t>AGZ US Equity</t>
-  </si>
-  <si>
-    <t>ISHARES AGENCY B</t>
-  </si>
-  <si>
     <t>CMR CN Equity</t>
   </si>
   <si>
     <t>ISHARES PREMIUM</t>
   </si>
   <si>
+    <t>HPR CN Equity</t>
+  </si>
+  <si>
+    <t>HORIZONS ACTIVE</t>
+  </si>
+  <si>
     <t>RAVI US Equity</t>
   </si>
   <si>
     <t>FLEXSHARES ULTRA</t>
   </si>
   <si>
-    <t>HPR CN Equity</t>
-  </si>
-  <si>
-    <t>HORIZONS ACTIVE</t>
-  </si>
-  <si>
     <t>DIAL US Equity</t>
   </si>
   <si>
@@ -1347,18 +1347,18 @@
     <t>HRTFRD TR BD ETF</t>
   </si>
   <si>
+    <t>CLG CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES 1-10 YEA</t>
+  </si>
+  <si>
     <t>IUAA LN Equity</t>
   </si>
   <si>
     <t>ISH US AGG $ A</t>
   </si>
   <si>
-    <t>CLG CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES 1-10 YEA</t>
-  </si>
-  <si>
     <t>HYEM US Equity</t>
   </si>
   <si>
@@ -1371,6 +1371,12 @@
     <t>BMO MID CORPORAT</t>
   </si>
   <si>
+    <t>00687B TT Equity</t>
+  </si>
+  <si>
+    <t>CATHAY UST 20+</t>
+  </si>
+  <si>
     <t>ZMU CN Equity</t>
   </si>
   <si>
@@ -1389,12 +1395,6 @@
     <t>BMO CORE PLUS BN</t>
   </si>
   <si>
-    <t>00687B TT Equity</t>
-  </si>
-  <si>
-    <t>CATHAY UST 20+</t>
-  </si>
-  <si>
     <t>HBB CN Equity</t>
   </si>
   <si>
@@ -1425,6 +1425,12 @@
     <t>VANGUARD CANADIA</t>
   </si>
   <si>
+    <t>HBRD AU Equity</t>
+  </si>
+  <si>
+    <t>BETA-ACTV AU HYB</t>
+  </si>
+  <si>
     <t>BNDW US Equity</t>
   </si>
   <si>
@@ -1437,12 +1443,6 @@
     <t>ISHR CORE GILTS</t>
   </si>
   <si>
-    <t>HBRD AU Equity</t>
-  </si>
-  <si>
-    <t>BETA-ACTV AU HYB</t>
-  </si>
-  <si>
     <t>CPD CN Equity</t>
   </si>
   <si>
@@ -1494,6 +1494,15 @@
     <t>CI ENHANCED GOVE</t>
   </si>
   <si>
+    <t>VGB AU Equity</t>
+  </si>
+  <si>
+    <t>VANG AUS GOVT</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
     <t>HFR CN Equity</t>
   </si>
   <si>
@@ -1503,15 +1512,6 @@
     <t>SPDR FTSE INTERN</t>
   </si>
   <si>
-    <t>VGB AU Equity</t>
-  </si>
-  <si>
-    <t>VANG AUS GOVT</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
     <t>00780B TT Equity</t>
   </si>
   <si>
@@ -1524,15 +1524,15 @@
     <t>ISHARES CORE 10+</t>
   </si>
   <si>
+    <t>ZIC CN Equity</t>
+  </si>
+  <si>
     <t>IDTL LN Equity</t>
   </si>
   <si>
     <t>ISHR $ TRS 20+YR</t>
   </si>
   <si>
-    <t>ZIC CN Equity</t>
-  </si>
-  <si>
     <t>SDIG LN Equity</t>
   </si>
   <si>
@@ -1545,6 +1545,12 @@
     <t>ISH $TR 7-10 £HD</t>
   </si>
   <si>
+    <t>00795B TT Equity</t>
+  </si>
+  <si>
+    <t>CTBC US20 B ETF</t>
+  </si>
+  <si>
     <t>NYF US Equity</t>
   </si>
   <si>
@@ -1596,12 +1602,6 @@
     <t>ISH $TRS 20+Y $A</t>
   </si>
   <si>
-    <t>00795B TT Equity</t>
-  </si>
-  <si>
-    <t>CTBC US20 B ETF</t>
-  </si>
-  <si>
     <t>CBO CN Equity</t>
   </si>
   <si>
@@ -1659,75 +1659,81 @@
     <t>BMO SHORT FEDERA</t>
   </si>
   <si>
+    <t>00696B TT Equity</t>
+  </si>
+  <si>
+    <t>FUBON 20+ UST</t>
+  </si>
+  <si>
+    <t>IS15 LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR £ CORP 0-5Y</t>
+  </si>
+  <si>
+    <t>IDTG LN Equity</t>
+  </si>
+  <si>
+    <t>SHR $TRS 20+ £HD</t>
+  </si>
+  <si>
+    <t>XQB CN Equity</t>
+  </si>
+  <si>
+    <t>ISHARES HIGH QUA</t>
+  </si>
+  <si>
+    <t>ZDB CN Equity</t>
+  </si>
+  <si>
+    <t>BMO DISCOUNT BON</t>
+  </si>
+  <si>
+    <t>00740B TT Equity</t>
+  </si>
+  <si>
+    <t>FB 10 BBB EX CN</t>
+  </si>
+  <si>
+    <t>DXP CN Equity</t>
+  </si>
+  <si>
+    <t>DYNAMIC ACTIVE P</t>
+  </si>
+  <si>
+    <t>JPEA LN Equity</t>
+  </si>
+  <si>
+    <t>ISH JP $EM BD $A</t>
+  </si>
+  <si>
+    <t>TIPH LN Equity</t>
+  </si>
+  <si>
+    <t>LYX US TIPS DGBP</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
     <t>00761B TT Equity</t>
   </si>
   <si>
     <t>CA US COR10 ETF</t>
   </si>
   <si>
-    <t>IS15 LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR £ CORP 0-5Y</t>
-  </si>
-  <si>
-    <t>00696B TT Equity</t>
-  </si>
-  <si>
-    <t>FUBON 20+ UST</t>
-  </si>
-  <si>
-    <t>IDTG LN Equity</t>
-  </si>
-  <si>
-    <t>SHR $TRS 20+ £HD</t>
-  </si>
-  <si>
-    <t>00740B TT Equity</t>
-  </si>
-  <si>
-    <t>FB 10 BBB EX CN</t>
-  </si>
-  <si>
-    <t>XQB CN Equity</t>
-  </si>
-  <si>
-    <t>ISHARES HIGH QUA</t>
-  </si>
-  <si>
-    <t>ZDB CN Equity</t>
-  </si>
-  <si>
-    <t>BMO DISCOUNT BON</t>
-  </si>
-  <si>
-    <t>DXP CN Equity</t>
-  </si>
-  <si>
-    <t>DYNAMIC ACTIVE P</t>
-  </si>
-  <si>
-    <t>JPEA LN Equity</t>
-  </si>
-  <si>
-    <t>ISH JP $EM BD $A</t>
-  </si>
-  <si>
-    <t>TIPH LN Equity</t>
-  </si>
-  <si>
-    <t>LYX US TIPS DGBP</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>IGLH LN Equity</t>
   </si>
   <si>
     <t>ISH GLB GOVT £HD</t>
   </si>
   <si>
+    <t>VIF AU Equity</t>
+  </si>
+  <si>
+    <t>VAN INTL FI IN H</t>
+  </si>
+  <si>
     <t>EMHG LN Equity</t>
   </si>
   <si>
@@ -1746,28 +1752,22 @@
     <t>ISH $TRS 20+ €HD</t>
   </si>
   <si>
+    <t>273130 KS Equity</t>
+  </si>
+  <si>
+    <t>SS KR BOND AA-</t>
+  </si>
+  <si>
     <t>ZMP CN Equity</t>
   </si>
   <si>
     <t>BMO MID PROVINCI</t>
   </si>
   <si>
-    <t>VIF AU Equity</t>
-  </si>
-  <si>
-    <t>VAN INTL FI IN H</t>
-  </si>
-  <si>
     <t>FTSD US Equity</t>
   </si>
   <si>
     <t>FRANKLIN SHORT D</t>
-  </si>
-  <si>
-    <t>273130 KS Equity</t>
-  </si>
-  <si>
-    <t>SS KR BOND AA-</t>
   </si>
   <si>
     <t>INXG LN Equity</t>
@@ -2368,7 +2368,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5">
-        <v>5.9306979179382324</v>
+        <v>5.9306974411010742</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="5">
-        <v>6.2796196937561044</v>
+        <v>6.2796192169189453</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="5">
-        <v>2.6409459114074711</v>
+        <v>2.6409461498260498</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="5">
-        <v>2.7356441020965581</v>
+        <v>2.7356443405151372</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>67</v>
       </c>
       <c r="F17" s="5">
-        <v>4.0797138214111328</v>
+        <v>4.0797133445739746</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="5">
-        <v>6.9518027305603027</v>
+        <v>7.4641366004943848</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>51</v>
       </c>
       <c r="F32" s="5">
-        <v>4.7548332214355469</v>
+        <v>4.7548336982727051</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="5">
-        <v>9.5185346603393555</v>
+        <v>9.5185337066650391</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>73</v>
       </c>
       <c r="F50" s="5">
-        <v>4.2531251907348633</v>
+        <v>4.2531247138977051</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>43</v>
       </c>
       <c r="F55" s="5">
-        <v>3.0638546943664551</v>
+        <v>3.0638549327850342</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>0</v>
@@ -5539,112 +5539,112 @@
         <v>152</v>
       </c>
       <c r="C56" s="5">
-        <v>81229432</v>
+        <v>80524792</v>
       </c>
       <c r="D56" s="5">
-        <v>1149537920</v>
+        <v>4959878144</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="F56" s="5">
+        <v>7.0684003829956046</v>
+      </c>
       <c r="G56" s="6" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="H56" s="5">
-        <v>-0.64449568996859408</v>
+        <v>0.41252605537336301</v>
       </c>
       <c r="I56" s="5">
-        <v>-2.215392124982452</v>
+        <v>-2.4156370332551001E-2</v>
       </c>
       <c r="J56" s="5">
-        <v>-4.1947189759526049</v>
+        <v>-0.81076711753074204</v>
       </c>
       <c r="K56" s="5">
-        <v>4.8850527939614095</v>
+        <v>2.2704326255637901</v>
       </c>
       <c r="L56" s="5">
-        <v>2.8925342412979393</v>
+        <v>1.080739677692089</v>
       </c>
       <c r="M56" s="5">
-        <v>-2.6132062604736439</v>
+        <v>1.784794058687234</v>
       </c>
       <c r="N56" s="5">
-        <v>-5.9845158295096965</v>
+        <v>-0.63195128551204505</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="R56" s="5">
-        <v>86.590398228604016</v>
+        <v>44.404998779296875</v>
       </c>
       <c r="S56" s="5">
-        <v>81.0006103515625</v>
+        <v>41.380001068115234</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A57" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="5">
+        <v>80218704</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1149387264</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1.5315873858235001E-2</v>
+      </c>
+      <c r="I57" s="5">
+        <v>-1.762937831283518</v>
+      </c>
+      <c r="J57" s="5">
+        <v>-4.5673192130267992</v>
+      </c>
+      <c r="K57" s="5">
+        <v>4.2930647966398006</v>
+      </c>
+      <c r="L57" s="5">
+        <v>4.4654069975748722</v>
+      </c>
+      <c r="M57" s="5">
+        <v>-2.5982906219899178</v>
+      </c>
+      <c r="N57" s="5">
+        <v>-6.0508008762683811</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="5">
-        <v>80524792</v>
-      </c>
-      <c r="D57" s="5">
-        <v>4959878144</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="5">
-        <v>7.0683999061584473</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0.41252605537336301</v>
-      </c>
-      <c r="I57" s="5">
-        <v>-2.4156370332551001E-2</v>
-      </c>
-      <c r="J57" s="5">
-        <v>-0.81076711753074204</v>
-      </c>
-      <c r="K57" s="5">
-        <v>2.2704326255637901</v>
-      </c>
-      <c r="L57" s="5">
-        <v>1.080739677692089</v>
-      </c>
-      <c r="M57" s="5">
-        <v>1.784794058687234</v>
-      </c>
-      <c r="N57" s="5">
-        <v>-0.63195128551204505</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R57" s="5">
-        <v>44.404998779296875</v>
+        <v>86.590398228604016</v>
       </c>
       <c r="S57" s="5">
-        <v>41.380001068115234</v>
+        <v>81.013015747070312</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -5900,7 +5900,7 @@
         <v>83</v>
       </c>
       <c r="F62" s="5">
-        <v>2.961646556854248</v>
+        <v>2.9616467952728271</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>0</v>
@@ -6009,114 +6009,114 @@
         <v>169</v>
       </c>
       <c r="C64" s="5">
-        <v>67264184</v>
+        <v>67381864</v>
       </c>
       <c r="D64" s="5">
-        <v>5507917824</v>
+        <v>1379528704</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F64" s="5">
-        <v>5.9268884658813477</v>
+        <v>4.915287971496582</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H64" s="5">
-        <v>-0.24310966450757901</v>
+        <v>-0.33343237980857404</v>
       </c>
       <c r="I64" s="5">
-        <v>-0.48504014953489905</v>
+        <v>-0.78111022700425603</v>
       </c>
       <c r="J64" s="5">
-        <v>0.32574851974887004</v>
+        <v>-0.20836177873155801</v>
       </c>
       <c r="K64" s="5">
-        <v>5.7533715722041912</v>
+        <v>6.0027321241107004E-2</v>
       </c>
       <c r="L64" s="5">
-        <v>-2.402522901963311</v>
+        <v>-2.1868381453233998</v>
       </c>
       <c r="M64" s="5">
-        <v>10.645476541657617</v>
+        <v>1.264727070893312</v>
       </c>
       <c r="N64" s="5">
-        <v>-4.2169068966653285</v>
+        <v>-3.191865322602105</v>
       </c>
       <c r="O64" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="R64" s="5">
-        <v>13.779999732971191</v>
+        <v>40.110682003154643</v>
       </c>
       <c r="S64" s="5">
-        <v>12.310000419616699</v>
+        <v>37.204299926757813</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A65" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C65" s="5">
-        <v>67216976</v>
+        <v>67264184</v>
       </c>
       <c r="D65" s="5">
-        <v>1376152832</v>
+        <v>5507917824</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F65" s="5">
-        <v>4.9152884483337402</v>
+        <v>5.6773357391357422</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H65" s="5">
-        <v>-0.33343237980857404</v>
+        <v>-0.24310966450757901</v>
       </c>
       <c r="I65" s="5">
-        <v>-0.78111022700425603</v>
+        <v>-0.48504014953489905</v>
       </c>
       <c r="J65" s="5">
-        <v>-0.20836177873155801</v>
+        <v>0.32574851974887004</v>
       </c>
       <c r="K65" s="5">
-        <v>6.0027321241107004E-2</v>
+        <v>5.7533715722041912</v>
       </c>
       <c r="L65" s="5">
-        <v>-2.1868381453233998</v>
+        <v>-2.402522901963311</v>
       </c>
       <c r="M65" s="5">
-        <v>1.0169141665903549</v>
+        <v>10.645476541657617</v>
       </c>
       <c r="N65" s="5">
-        <v>-3.191865322602105</v>
+        <v>-4.2169068966653285</v>
       </c>
       <c r="O65" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R65" s="5">
-        <v>40.110682003154643</v>
+        <v>13.779999732971191</v>
       </c>
       <c r="S65" s="5">
-        <v>37.204299926757813</v>
+        <v>12.310000419616699</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -6195,7 +6195,7 @@
         <v>179</v>
       </c>
       <c r="F67" s="5">
-        <v>1.116451501846313</v>
+        <v>1.1164513826370239</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>185</v>
       </c>
       <c r="F70" s="5">
-        <v>3.7850008010864262</v>
+        <v>3.7850005626678471</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>64</v>
       </c>
       <c r="F72" s="5">
-        <v>4.1775698661804199</v>
+        <v>4.1775703430175781</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>77</v>
       </c>
       <c r="F73" s="5">
-        <v>2.6526098251342769</v>
+        <v>2.652610063552856</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>130</v>
       </c>
       <c r="F77" s="5">
-        <v>5.828458309173584</v>
+        <v>5.8284578323364258</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>83</v>
       </c>
       <c r="F79" s="5">
-        <v>3.38416576385498</v>
+        <v>3.3841655254364009</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>0</v>
@@ -7080,7 +7080,7 @@
         <v>64</v>
       </c>
       <c r="F82" s="5">
-        <v>0.82882058620452903</v>
+        <v>0.82882052659988403</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>0</v>
@@ -7257,7 +7257,7 @@
         <v>67</v>
       </c>
       <c r="F85" s="5">
-        <v>4.0383377075195313</v>
+        <v>4.038337230682373</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>0</v>
@@ -7366,10 +7366,10 @@
         <v>219</v>
       </c>
       <c r="C87" s="5">
-        <v>28302698</v>
+        <v>28372130</v>
       </c>
       <c r="D87" s="5">
-        <v>1657198720</v>
+        <v>1661264128</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>73</v>
@@ -7378,7 +7378,7 @@
         <v>4.4952154159545898</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H87" s="5">
         <v>-0.37316879190556501</v>
@@ -7396,7 +7396,7 @@
         <v>-2.250798368738649</v>
       </c>
       <c r="M87" s="5">
-        <v>0.96982191143706309</v>
+        <v>1.2175192898539191</v>
       </c>
       <c r="N87" s="5">
         <v>-3.2572986842934188</v>
@@ -7405,10 +7405,10 @@
         <v>23</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R87" s="5">
         <v>40.118704249088609</v>
@@ -7543,19 +7543,19 @@
         <v>224</v>
       </c>
       <c r="C90" s="5">
-        <v>27261930</v>
+        <v>27328808</v>
       </c>
       <c r="D90" s="5">
-        <v>3336162304</v>
+        <v>3344346624</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F90" s="5">
-        <v>3.015295028686523</v>
+        <v>3.0152947902679439</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H90" s="5">
         <v>-0.24772529345323802</v>
@@ -7573,7 +7573,7 @@
         <v>-5.0531845306736711</v>
       </c>
       <c r="M90" s="5">
-        <v>1.165181318948316</v>
+        <v>1.413357949602845</v>
       </c>
       <c r="N90" s="5">
         <v>-11.951215795137959</v>
@@ -7582,10 +7582,10 @@
         <v>23</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R90" s="5">
         <v>24.161074126703301</v>
@@ -7602,55 +7602,53 @@
         <v>226</v>
       </c>
       <c r="C91" s="5">
-        <v>27163692</v>
+        <v>27236102</v>
       </c>
       <c r="D91" s="5">
-        <v>2533757952</v>
+        <v>1532876544</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F91" s="5">
-        <v>3.5294160842895508</v>
-      </c>
+      <c r="F91" s="5"/>
       <c r="G91" s="6" t="s">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H91" s="5">
-        <v>2.0933730611139002E-2</v>
+        <v>-1.3221119537021001E-2</v>
       </c>
       <c r="I91" s="5">
-        <v>4.1868238584919004E-2</v>
+        <v>-1.7723742895471299</v>
       </c>
       <c r="J91" s="5">
-        <v>0.65277999725708002</v>
+        <v>-4.527697073144421</v>
       </c>
       <c r="K91" s="5">
-        <v>1.9202182392339839</v>
+        <v>4.6321467151959617</v>
       </c>
       <c r="L91" s="5">
-        <v>1.8718591095368</v>
+        <v>4.6831269052837854</v>
       </c>
       <c r="M91" s="5">
-        <v>1.119943150077507</v>
+        <v>-2.4806816295767309</v>
       </c>
       <c r="N91" s="5">
-        <v>1.2851421597257051</v>
+        <v>-5.8474005951156478</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="R91" s="5">
-        <v>49.369998931884766</v>
+        <v>86.91330895427248</v>
       </c>
       <c r="S91" s="5">
-        <v>47.790000915527344</v>
+        <v>81.491226196289063</v>
       </c>
     </row>
     <row r="92" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7661,55 +7659,55 @@
         <v>228</v>
       </c>
       <c r="C92" s="5">
-        <v>26559010</v>
+        <v>27163692</v>
       </c>
       <c r="D92" s="5">
-        <v>3148889856</v>
+        <v>2533757952</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F92" s="5">
-        <v>5.410895824432373</v>
+        <v>3.5294163227081299</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>0.48019543950572602</v>
+        <v>2.0933730611139002E-2</v>
       </c>
       <c r="I92" s="5">
-        <v>-0.43615664551062105</v>
+        <v>4.1868238584919004E-2</v>
       </c>
       <c r="J92" s="5">
-        <v>-1.017957314077178</v>
+        <v>0.65277999725708002</v>
       </c>
       <c r="K92" s="5">
-        <v>4.2129596902885869</v>
+        <v>1.9202182392339839</v>
       </c>
       <c r="L92" s="5">
-        <v>6.767270430632101E-2</v>
+        <v>1.8718591095368</v>
       </c>
       <c r="M92" s="5">
-        <v>2.4811978452038641</v>
+        <v>1.119943150077507</v>
       </c>
       <c r="N92" s="5">
-        <v>-5.8691327263138309</v>
+        <v>1.2851421597257051</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q92" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R92" s="5">
-        <v>28.209999084472656</v>
+        <v>49.369998931884766</v>
       </c>
       <c r="S92" s="5">
-        <v>25.110000610351563</v>
+        <v>47.790000915527344</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7720,55 +7718,55 @@
         <v>230</v>
       </c>
       <c r="C93" s="5">
-        <v>26495914</v>
+        <v>26559010</v>
       </c>
       <c r="D93" s="5">
-        <v>632677120</v>
+        <v>3148889856</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="F93" s="5">
-        <v>4.8176870346069336</v>
+        <v>5.4108963012695313</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>0.65645346182101605</v>
+        <v>0.48019543950572602</v>
       </c>
       <c r="I93" s="5">
-        <v>-0.94745615788181003</v>
+        <v>-0.43615664551062105</v>
       </c>
       <c r="J93" s="5">
-        <v>-3.5223095714309589</v>
+        <v>-1.017957314077178</v>
       </c>
       <c r="K93" s="5">
-        <v>3.2229346787059132</v>
+        <v>4.2129596902885869</v>
       </c>
       <c r="L93" s="5">
-        <v>-4.8395329376436873</v>
+        <v>6.767270430632101E-2</v>
       </c>
       <c r="M93" s="5">
-        <v>2.837916965365594</v>
+        <v>2.4811978452038641</v>
       </c>
       <c r="N93" s="5">
-        <v>-15.331661118361872</v>
+        <v>-5.8691327263138309</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q93" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R93" s="5">
-        <v>29.120000839233398</v>
+        <v>28.209999084472656</v>
       </c>
       <c r="S93" s="5">
-        <v>23</v>
+        <v>25.110000610351563</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7779,53 +7777,55 @@
         <v>232</v>
       </c>
       <c r="C94" s="5">
-        <v>24708414</v>
+        <v>26495914</v>
       </c>
       <c r="D94" s="5">
-        <v>1533077504</v>
+        <v>632677120</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F94" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="F94" s="5">
+        <v>4.8176870346069336</v>
+      </c>
       <c r="G94" s="6" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>-0.62086985499627501</v>
+        <v>0.65645346182101605</v>
       </c>
       <c r="I94" s="5">
-        <v>-2.1829358933164178</v>
+        <v>-0.94745615788181003</v>
       </c>
       <c r="J94" s="5">
-        <v>-4.1417929531539439</v>
+        <v>-3.5223095714309589</v>
       </c>
       <c r="K94" s="5">
-        <v>5.2560650645314233</v>
+        <v>3.2229346787059132</v>
       </c>
       <c r="L94" s="5">
-        <v>3.1661138311502408</v>
+        <v>-4.8395329376436873</v>
       </c>
       <c r="M94" s="5">
-        <v>-2.4677867790796841</v>
+        <v>2.837916965365594</v>
       </c>
       <c r="N94" s="5">
-        <v>-5.7540981719660049</v>
+        <v>-15.331661118361872</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="R94" s="5">
-        <v>86.91330895427248</v>
+        <v>29.120000839233398</v>
       </c>
       <c r="S94" s="5">
-        <v>81.501991271972656</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7963,7 +7963,7 @@
         <v>28</v>
       </c>
       <c r="F97" s="5">
-        <v>4.7577834129333496</v>
+        <v>4.7577838897705078</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>77</v>
       </c>
       <c r="F99" s="5">
-        <v>3.3832664489746089</v>
+        <v>3.4057121276855469</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>40</v>
       </c>
       <c r="F100" s="5">
-        <v>6.3047027587890634</v>
+        <v>6.393730640411377</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>51</v>
       </c>
       <c r="F101" s="5">
-        <v>7.4835882186889648</v>
+        <v>7.483588695526123</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>0</v>
@@ -8308,173 +8308,173 @@
         <v>250</v>
       </c>
       <c r="C103" s="5">
-        <v>20202078</v>
+        <v>20408742</v>
       </c>
       <c r="D103" s="5">
-        <v>3489204224</v>
+        <v>641266624</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F103" s="5">
-        <v>2.6041138172149658</v>
+        <v>3.988420724868774</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="H103" s="5">
-        <v>-9.8828311157710003E-3</v>
+        <v>1.3247229422598039</v>
       </c>
       <c r="I103" s="5">
-        <v>-0.13825734415854302</v>
+        <v>-0.44152863730495501</v>
       </c>
       <c r="J103" s="5">
-        <v>3.8637222370919003E-2</v>
+        <v>-2.4773961264520361</v>
       </c>
       <c r="K103" s="5">
-        <v>0.74988497076209404</v>
+        <v>2.944587002400656</v>
       </c>
       <c r="L103" s="5">
-        <v>0.99640789926878104</v>
+        <v>-8.9155373934048487</v>
       </c>
       <c r="M103" s="5">
-        <v>0.26628738869736202</v>
+        <v>2.223493761752326</v>
       </c>
       <c r="N103" s="5">
-        <v>0.93001204017126904</v>
+        <v>-22.887885704830524</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="R103" s="5">
-        <v>50.790000915527344</v>
+        <v>1.423163985504327</v>
       </c>
       <c r="S103" s="5">
-        <v>50.560001373291016</v>
+        <v>1.023673892021179</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A104" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C104" s="5">
-        <v>20091330</v>
+        <v>20202078</v>
       </c>
       <c r="D104" s="5">
-        <v>369958240</v>
+        <v>3489204224</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F104" s="5">
-        <v>2.7228808403015141</v>
+        <v>2.6041138172149658</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>1.1662813128897609</v>
+        <v>-9.8828311157710003E-3</v>
       </c>
       <c r="I104" s="5">
-        <v>-1.4712251995164241</v>
+        <v>-0.13825734415854302</v>
       </c>
       <c r="J104" s="5">
-        <v>-4.6682007972932871</v>
+        <v>3.8637222370919003E-2</v>
       </c>
       <c r="K104" s="5">
-        <v>3.7282263085850249</v>
+        <v>0.74988497076209404</v>
       </c>
       <c r="L104" s="5">
-        <v>-14.09405641853807</v>
+        <v>0.99640789926878104</v>
       </c>
       <c r="M104" s="5">
-        <v>4.3060033776584294</v>
+        <v>0.26628738869736202</v>
       </c>
       <c r="N104" s="5">
-        <v>-31.899982167869144</v>
+        <v>0.93001204017126904</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="Q104" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R104" s="5">
-        <v>144.91909790039063</v>
+        <v>50.790000915527344</v>
       </c>
       <c r="S104" s="5">
-        <v>91.080001831054687</v>
+        <v>50.560001373291016</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A105" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C105" s="5">
-        <v>19803886</v>
+        <v>20091330</v>
       </c>
       <c r="D105" s="5">
-        <v>640570624</v>
+        <v>369958240</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F105" s="5">
-        <v>4.0351448059082031</v>
+        <v>2.7228810787200932</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H105" s="5">
-        <v>-1.582783128670795</v>
+        <v>1.1662813128897609</v>
       </c>
       <c r="I105" s="5">
-        <v>-2.9545742522937513</v>
+        <v>-1.4712251995164241</v>
       </c>
       <c r="J105" s="5">
-        <v>-3.88879572664943</v>
+        <v>-4.6682007972932871</v>
       </c>
       <c r="K105" s="5">
-        <v>1.3126011883261901</v>
+        <v>3.7282263085850249</v>
       </c>
       <c r="L105" s="5">
-        <v>-11.168218660871432</v>
+        <v>-14.09405641853807</v>
       </c>
       <c r="M105" s="5">
-        <v>0.8870202586240381</v>
+        <v>4.3060033776584294</v>
       </c>
       <c r="N105" s="5">
-        <v>-23.921823708423219</v>
+        <v>-31.899982167869144</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="R105" s="5">
-        <v>1.423163985504327</v>
+        <v>144.91909790039063</v>
       </c>
       <c r="S105" s="5">
-        <v>1.010290265083313</v>
+        <v>91.080001831054687</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8485,40 +8485,40 @@
         <v>259</v>
       </c>
       <c r="C106" s="5">
-        <v>18180260</v>
+        <v>18776036</v>
       </c>
       <c r="D106" s="5">
-        <v>1421654400</v>
+        <v>1426617216</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F106" s="5">
-        <v>3.353239774703979</v>
+        <v>3.351902961730957</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>260</v>
       </c>
       <c r="H106" s="5">
-        <v>-0.51266659192554809</v>
+        <v>0.7594416554252531</v>
       </c>
       <c r="I106" s="5">
-        <v>-0.71216135988413409</v>
+        <v>-0.6760970058658281</v>
       </c>
       <c r="J106" s="5">
-        <v>-1.4626506407982911</v>
+        <v>-0.35445837580642103</v>
       </c>
       <c r="K106" s="5">
-        <v>3.579913031951087</v>
+        <v>4.4813049331355437</v>
       </c>
       <c r="L106" s="5">
-        <v>0.560903457197925</v>
+        <v>2.0114809199141881</v>
       </c>
       <c r="M106" s="5">
-        <v>1.0957296780886641</v>
+        <v>1.863492761120189</v>
       </c>
       <c r="N106" s="5">
-        <v>-2.8862315997129522</v>
+        <v>-1.7763471788082801</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>23</v>
@@ -8533,7 +8533,7 @@
         <v>38.015730386545648</v>
       </c>
       <c r="S106" s="5">
-        <v>34.421112060546875</v>
+        <v>34.682518005371094</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8544,10 +8544,10 @@
         <v>264</v>
       </c>
       <c r="C107" s="5">
-        <v>18133158</v>
+        <v>18177642</v>
       </c>
       <c r="D107" s="5">
-        <v>4581249536</v>
+        <v>4592487936</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>43</v>
@@ -8556,7 +8556,7 @@
         <v>3.5450515747070312</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H107" s="5">
         <v>-9.7895777079848006E-2</v>
@@ -8574,7 +8574,7 @@
         <v>-5.104263973567047</v>
       </c>
       <c r="M107" s="5">
-        <v>1.146594616856667</v>
+        <v>1.394725650942896</v>
       </c>
       <c r="N107" s="5">
         <v>-11.968224490642754</v>
@@ -8583,10 +8583,10 @@
         <v>23</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R107" s="5">
         <v>11.977891888112078</v>
@@ -8612,7 +8612,7 @@
         <v>67</v>
       </c>
       <c r="F108" s="5">
-        <v>2.841245174407959</v>
+        <v>2.629961252212524</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>64</v>
       </c>
       <c r="F110" s="5">
-        <v>2.9264249801635742</v>
+        <v>2.934196949005127</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>67</v>
       </c>
       <c r="F112" s="5">
-        <v>2.9833498001098633</v>
+        <v>2.838255643844604</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>67</v>
       </c>
       <c r="F115" s="5">
-        <v>2.0947318077087402</v>
+        <v>2.2257237434387211</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>0</v>
@@ -9073,10 +9073,10 @@
         <v>280</v>
       </c>
       <c r="C116" s="5">
-        <v>14931521</v>
+        <v>14968150</v>
       </c>
       <c r="D116" s="5">
-        <v>2421672192</v>
+        <v>2427613184</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>37</v>
@@ -9085,7 +9085,7 @@
         <v>2.4718227386474609</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H116" s="5">
         <v>-0.39302726668194504</v>
@@ -9103,7 +9103,7 @@
         <v>-3.673448497603593</v>
       </c>
       <c r="M116" s="5">
-        <v>0.76927481886457405</v>
+        <v>1.0164802187066391</v>
       </c>
       <c r="N116" s="5">
         <v>-7.9996439853947887</v>
@@ -9112,10 +9112,10 @@
         <v>23</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q116" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R116" s="5">
         <v>21.334386464874594</v>
@@ -9250,55 +9250,55 @@
         <v>286</v>
       </c>
       <c r="C119" s="5">
-        <v>12987794</v>
+        <v>13174691</v>
       </c>
       <c r="D119" s="5">
-        <v>1817344000</v>
+        <v>1819318656</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F119" s="5">
-        <v>5.2310376167297363</v>
+        <v>5.2128586769104004</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H119" s="5">
-        <v>-1.655330004608613</v>
+        <v>0.50071391500290408</v>
       </c>
       <c r="I119" s="5">
-        <v>-2.8893134801632909</v>
+        <v>-1.214274530689186</v>
       </c>
       <c r="J119" s="5">
-        <v>-4.6858983488166643</v>
+        <v>-4.072715566827334</v>
       </c>
       <c r="K119" s="5">
-        <v>1.5740554810251162</v>
+        <v>2.4997961817740282</v>
       </c>
       <c r="L119" s="5">
-        <v>-7.8022057169379604</v>
+        <v>-6.3613899499931676</v>
       </c>
       <c r="M119" s="5">
-        <v>0.54118312972011307</v>
+        <v>1.044606823959171</v>
       </c>
       <c r="N119" s="5">
-        <v>-16.197005198118795</v>
+        <v>-15.514666868840921</v>
       </c>
       <c r="O119" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P119" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q119" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R119" s="5">
         <v>1.434477351295484</v>
       </c>
       <c r="S119" s="5">
-        <v>1.1312752962112431</v>
+        <v>1.1369397640228269</v>
       </c>
     </row>
     <row r="120" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9377,7 +9377,7 @@
         <v>73</v>
       </c>
       <c r="F121" s="5">
-        <v>2.8914868831634521</v>
+        <v>2.891486644744873</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>0</v>
@@ -9427,53 +9427,55 @@
         <v>291</v>
       </c>
       <c r="C122" s="5">
-        <v>12168533</v>
+        <v>12322785</v>
       </c>
       <c r="D122" s="5">
-        <v>2140907264</v>
+        <v>960298240</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F122" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F122" s="5">
+        <v>5.7226276397705078</v>
+      </c>
       <c r="G122" s="6" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="H122" s="5">
-        <v>8.4703726802404011E-2</v>
+        <v>0.97695444884113902</v>
       </c>
       <c r="I122" s="5">
-        <v>-0.16899415039464102</v>
+        <v>0.17297947499732602</v>
       </c>
       <c r="J122" s="5">
-        <v>-8.4568533134355001E-2</v>
+        <v>-2.6900469370089719</v>
       </c>
       <c r="K122" s="5">
-        <v>0.95482706583600607</v>
+        <v>4.4419949506435694</v>
       </c>
       <c r="L122" s="5">
-        <v>-2.9668482808682279</v>
+        <v>-3.5579821157916798</v>
       </c>
       <c r="M122" s="5">
-        <v>0.46768155128424904</v>
+        <v>0.11678519135143201</v>
       </c>
       <c r="N122" s="5">
-        <v>-2.978725437058471</v>
+        <v>-14.331595915702833</v>
       </c>
       <c r="O122" s="6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="R122" s="5">
-        <v>26.479999542236328</v>
+        <v>1.415232156686719</v>
       </c>
       <c r="S122" s="5">
-        <v>23.629999160766602</v>
+        <v>1.1277204751968379</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9484,43 +9486,41 @@
         <v>293</v>
       </c>
       <c r="C123" s="5">
-        <v>12005857</v>
+        <v>12168533</v>
       </c>
       <c r="D123" s="5">
-        <v>1798852992</v>
+        <v>2140907264</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F123" s="5">
-        <v>2.2012734413146968</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H123" s="5">
-        <v>-0.46026222075610201</v>
+        <v>8.4703726802404011E-2</v>
       </c>
       <c r="I123" s="5">
-        <v>-1.5408878632645839</v>
+        <v>-0.16899415039464102</v>
       </c>
       <c r="J123" s="5">
-        <v>-1.9142559717732821</v>
+        <v>-8.4568533134355001E-2</v>
       </c>
       <c r="K123" s="5">
-        <v>1.257165883316524</v>
+        <v>0.95482706583600607</v>
       </c>
       <c r="L123" s="5">
-        <v>-0.91388260354097206</v>
+        <v>-2.9668482808682279</v>
       </c>
       <c r="M123" s="5">
-        <v>0.39322679513418302</v>
+        <v>0.46768155128424904</v>
       </c>
       <c r="N123" s="5">
-        <v>-4.5829560545891379</v>
+        <v>-2.978725437058471</v>
       </c>
       <c r="O123" s="6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="P123" s="6" t="s">
         <v>24</v>
@@ -9529,69 +9529,69 @@
         <v>25</v>
       </c>
       <c r="R123" s="5">
-        <v>60.299999237060547</v>
+        <v>26.479999542236328</v>
       </c>
       <c r="S123" s="5">
-        <v>56.229999542236328</v>
+        <v>23.629999160766602</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A124" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="5">
+        <v>12005857</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1798852992</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C124" s="5">
-        <v>11923020</v>
-      </c>
-      <c r="D124" s="5">
-        <v>959255936</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F124" s="5">
-        <v>5.7697968482971191</v>
+        <v>2.2012732028961182</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>-0.77750966038665503</v>
+        <v>-0.46026222075610201</v>
       </c>
       <c r="I124" s="5">
-        <v>-2.0115790562633351</v>
+        <v>-1.5408878632645839</v>
       </c>
       <c r="J124" s="5">
-        <v>-3.7680800547094111</v>
+        <v>-1.9142559717732821</v>
       </c>
       <c r="K124" s="5">
-        <v>2.792493259595652</v>
+        <v>1.257165883316524</v>
       </c>
       <c r="L124" s="5">
-        <v>-5.8552782622293131</v>
+        <v>-0.91388260354097206</v>
       </c>
       <c r="M124" s="5">
-        <v>-0.85184709935524106</v>
+        <v>0.39322679513418302</v>
       </c>
       <c r="N124" s="5">
-        <v>-15.276426547617882</v>
+        <v>-4.5829560545891379</v>
       </c>
       <c r="O124" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="R124" s="5">
-        <v>1.415232156686719</v>
+        <v>60.299999237060547</v>
       </c>
       <c r="S124" s="5">
-        <v>1.116809725761414</v>
+        <v>56.229999542236328</v>
       </c>
     </row>
     <row r="125" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9611,7 +9611,7 @@
         <v>28</v>
       </c>
       <c r="F125" s="5">
-        <v>5.6912112236022949</v>
+        <v>5.6912117004394531</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>0</v>
@@ -9661,40 +9661,40 @@
         <v>300</v>
       </c>
       <c r="C126" s="5">
-        <v>11835896</v>
+        <v>11839222</v>
       </c>
       <c r="D126" s="5">
-        <v>7860545536</v>
+        <v>7862754816</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>301</v>
       </c>
       <c r="F126" s="5">
-        <v>2.1739733219146729</v>
+        <v>2.1760513782501221</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>302</v>
       </c>
       <c r="H126" s="5">
-        <v>-0.169935261973331</v>
+        <v>-2.9997445501639002E-2</v>
       </c>
       <c r="I126" s="5">
-        <v>-0.32091031619354604</v>
+        <v>-0.76421069766603511</v>
       </c>
       <c r="J126" s="5">
-        <v>-2.153006613500696</v>
+        <v>-2.0950931589091448</v>
       </c>
       <c r="K126" s="5">
-        <v>3.97605854847638</v>
+        <v>3.7611534995764639</v>
       </c>
       <c r="L126" s="5">
-        <v>1.3468409838039541</v>
+        <v>3.6058548867643481</v>
       </c>
       <c r="M126" s="5">
-        <v>0.81632588388609306</v>
+        <v>0.78608356147231706</v>
       </c>
       <c r="N126" s="5">
-        <v>-14.50166891841349</v>
+        <v>-14.301295040609352</v>
       </c>
       <c r="O126" s="6" t="s">
         <v>303</v>
@@ -9706,10 +9706,10 @@
         <v>305</v>
       </c>
       <c r="R126" s="5">
-        <v>145.83763308105469</v>
+        <v>145.64189999999999</v>
       </c>
       <c r="S126" s="5">
-        <v>123.01140594482422</v>
+        <v>122.9744873046875</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9779,10 +9779,10 @@
         <v>280</v>
       </c>
       <c r="C128" s="5">
-        <v>11619545</v>
+        <v>11648050</v>
       </c>
       <c r="D128" s="5">
-        <v>939366720</v>
+        <v>941671104</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>51</v>
@@ -9791,7 +9791,7 @@
         <v>3.714585542678833</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H128" s="5">
         <v>-0.23600743044234201</v>
@@ -9809,7 +9809,7 @@
         <v>-3.8376356084372292</v>
       </c>
       <c r="M128" s="5">
-        <v>1.5918613332348119</v>
+        <v>1.8410846877416902</v>
       </c>
       <c r="N128" s="5">
         <v>-10.287748547304165</v>
@@ -9818,10 +9818,10 @@
         <v>23</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R128" s="5">
         <v>16.478484673693959</v>
@@ -9906,7 +9906,7 @@
         <v>130</v>
       </c>
       <c r="F130" s="5">
-        <v>6.6005277633666992</v>
+        <v>6.600527286529541</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>67</v>
       </c>
       <c r="F131" s="5">
-        <v>3.69190526008606</v>
+        <v>3.5977835655212402</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>0</v>
@@ -10083,7 +10083,7 @@
         <v>67</v>
       </c>
       <c r="F133" s="5">
-        <v>3.378456592559814</v>
+        <v>3.1193046569824219</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>0</v>
@@ -10260,7 +10260,7 @@
         <v>67</v>
       </c>
       <c r="F136" s="5">
-        <v>4.1539435386657706</v>
+        <v>3.8328132629394531</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>0</v>
@@ -10310,40 +10310,40 @@
         <v>323</v>
       </c>
       <c r="C137" s="5">
-        <v>9614727</v>
+        <v>9617429</v>
       </c>
       <c r="D137" s="5">
-        <v>4320775680</v>
+        <v>4321990144</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>301</v>
       </c>
       <c r="F137" s="5">
-        <v>3.5999348163604741</v>
+        <v>3.6038472652435303</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>302</v>
       </c>
       <c r="H137" s="5">
-        <v>-0.46592074947337003</v>
+        <v>-4.3075273205551004E-2</v>
       </c>
       <c r="I137" s="5">
-        <v>0.28819871965655203</v>
+        <v>-0.50400999983444306</v>
       </c>
       <c r="J137" s="5">
-        <v>-0.82609386783417704</v>
+        <v>-1.080746080169825</v>
       </c>
       <c r="K137" s="5">
-        <v>7.5089796275617848</v>
+        <v>6.7339132156329251</v>
       </c>
       <c r="L137" s="5">
-        <v>7.6667920073449469</v>
+        <v>10.035697575795277</v>
       </c>
       <c r="M137" s="5">
-        <v>2.4370419734369708</v>
+        <v>2.3929169377432391</v>
       </c>
       <c r="N137" s="5">
-        <v>-9.316533159807916</v>
+        <v>-8.6903715478012007</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>324</v>
@@ -10355,10 +10355,10 @@
         <v>305</v>
       </c>
       <c r="R137" s="5">
-        <v>112.48713180541992</v>
+        <v>112.21503654785155</v>
       </c>
       <c r="S137" s="5">
-        <v>98.364273071289062</v>
+        <v>98.321891784667969</v>
       </c>
     </row>
     <row r="138" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10382,25 +10382,25 @@
         <v>73</v>
       </c>
       <c r="H138" s="5">
-        <v>-1.9294329587194001E-2</v>
+        <v>3.8603468893128004E-2</v>
       </c>
       <c r="I138" s="5">
-        <v>6.7599896437698009E-2</v>
+        <v>9.6568275273512014E-2</v>
       </c>
       <c r="J138" s="5">
-        <v>0.31949058779132705</v>
+        <v>0.32907856009429803</v>
       </c>
       <c r="K138" s="5">
-        <v>1.0138437287612769</v>
+        <v>1.0528385765028681</v>
       </c>
       <c r="L138" s="5">
-        <v>1.4986839686304649</v>
+        <v>1.488157706622206</v>
       </c>
       <c r="M138" s="5">
-        <v>0.42644159731037901</v>
+        <v>0.46520968745289404</v>
       </c>
       <c r="N138" s="5">
-        <v>1.5882379868451311</v>
+        <v>1.6174899434620031</v>
       </c>
       <c r="O138" s="6" t="s">
         <v>73</v>
@@ -10412,10 +10412,10 @@
         <v>305</v>
       </c>
       <c r="R138" s="5">
-        <v>103.63999938964844</v>
+        <v>103.66000366210937</v>
       </c>
       <c r="S138" s="5">
-        <v>103.62000274658203</v>
+        <v>103.66000366210937</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10426,10 +10426,10 @@
         <v>328</v>
       </c>
       <c r="C139" s="5">
-        <v>9272073</v>
+        <v>9294819</v>
       </c>
       <c r="D139" s="5">
-        <v>2382821888</v>
+        <v>2388667136</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>329</v>
@@ -10438,7 +10438,7 @@
         <v>3.623400211334229</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H139" s="5">
         <v>-0.25950279444163504</v>
@@ -10456,7 +10456,7 @@
         <v>-5.0995927734285633</v>
       </c>
       <c r="M139" s="5">
-        <v>1.3993822163987919</v>
+        <v>1.648133384546036</v>
       </c>
       <c r="N139" s="5">
         <v>-12.008554589779896</v>
@@ -10465,10 +10465,10 @@
         <v>23</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R139" s="5">
         <v>19.731543443441112</v>
@@ -10553,7 +10553,7 @@
         <v>67</v>
       </c>
       <c r="F141" s="5">
-        <v>5.359349250793457</v>
+        <v>5.3593497276306152</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>73</v>
       </c>
       <c r="F144" s="5">
-        <v>5.6375322341918954</v>
+        <v>5.6848330497741699</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>341</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C146" s="5">
         <v>8382127.5</v>
@@ -11012,10 +11012,10 @@
         <v>347</v>
       </c>
       <c r="C149" s="5">
-        <v>7759105</v>
+        <v>7778139.5</v>
       </c>
       <c r="D149" s="5">
-        <v>1525761408</v>
+        <v>1529504384</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>73</v>
@@ -11040,7 +11040,7 @@
         <v>4.7020961738564002E-2</v>
       </c>
       <c r="M149" s="5">
-        <v>2.8451717995712</v>
+        <v>3.0974697531115152</v>
       </c>
       <c r="N149" s="5">
         <v>-0.94062866314551508</v>
@@ -11049,10 +11049,10 @@
         <v>73</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q149" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R149" s="5">
         <v>81.49663186585785</v>
@@ -11078,7 +11078,7 @@
         <v>64</v>
       </c>
       <c r="F150" s="5">
-        <v>3.5656108856201172</v>
+        <v>3.5683257579803471</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>0</v>
@@ -11246,10 +11246,10 @@
         <v>354</v>
       </c>
       <c r="C153" s="5">
-        <v>7153011</v>
+        <v>7170558.5</v>
       </c>
       <c r="D153" s="5">
-        <v>1224758656</v>
+        <v>1227763200</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>67</v>
@@ -11258,7 +11258,7 @@
         <v>4.5993332862854004</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H153" s="5">
         <v>-0.34343755673949</v>
@@ -11276,7 +11276,7 @@
         <v>-3.6686429414958699</v>
       </c>
       <c r="M153" s="5">
-        <v>1.683456319984389</v>
+        <v>1.9329043736901361</v>
       </c>
       <c r="N153" s="5">
         <v>-9.4501960689374993</v>
@@ -11285,10 +11285,10 @@
         <v>23</v>
       </c>
       <c r="P153" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q153" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R153" s="5">
         <v>15.266394104061632</v>
@@ -11314,7 +11314,7 @@
         <v>51</v>
       </c>
       <c r="F154" s="5">
-        <v>5.448153018951416</v>
+        <v>5.4519748687744141</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>0</v>
@@ -11482,10 +11482,10 @@
         <v>362</v>
       </c>
       <c r="C157" s="5">
-        <v>6910739.5</v>
+        <v>6927692.5</v>
       </c>
       <c r="D157" s="5">
-        <v>1029781312</v>
+        <v>1032307520</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>51</v>
@@ -11494,7 +11494,7 @@
         <v>3.1333332061767578</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H157" s="5">
         <v>-0.33765803164953501</v>
@@ -11512,7 +11512,7 @@
         <v>-2.973155739435041</v>
       </c>
       <c r="M157" s="5">
-        <v>1.4958420519359581</v>
+        <v>1.744829853642949</v>
       </c>
       <c r="N157" s="5">
         <v>-7.6057206099708559</v>
@@ -11521,10 +11521,10 @@
         <v>23</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R157" s="5">
         <v>14.930911841620301</v>
@@ -11659,19 +11659,19 @@
         <v>280</v>
       </c>
       <c r="C160" s="5">
-        <v>6716882.5</v>
+        <v>6733360</v>
       </c>
       <c r="D160" s="5">
-        <v>360352992</v>
+        <v>361236992</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F160" s="5">
-        <v>3.9191288948059082</v>
+        <v>3.9191291332244873</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H160" s="5">
         <v>2.1795252019841001E-2</v>
@@ -11689,7 +11689,7 @@
         <v>-7.4225830828423263</v>
       </c>
       <c r="M160" s="5">
-        <v>1.275880425451059</v>
+        <v>1.5243286211926281</v>
       </c>
       <c r="N160" s="5">
         <v>-17.942447617820733</v>
@@ -11698,10 +11698,10 @@
         <v>23</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R160" s="5">
         <v>18.594551312325738</v>
@@ -11727,31 +11727,31 @@
         <v>40</v>
       </c>
       <c r="F161" s="5">
-        <v>4.1979250907897949</v>
+        <v>4.181969165802002</v>
       </c>
       <c r="G161" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>-0.94483930514208703</v>
+        <v>0.38154248759370002</v>
       </c>
       <c r="I161" s="5">
-        <v>-0.92921703414059509</v>
+        <v>-0.92442803921811711</v>
       </c>
       <c r="J161" s="5">
-        <v>-2.7719136033682812</v>
+        <v>-2.9614773416482221</v>
       </c>
       <c r="K161" s="5">
-        <v>2.7476011403637872</v>
+        <v>3.4648353514298962</v>
       </c>
       <c r="L161" s="5">
-        <v>-1.0209875311577019</v>
+        <v>0.59227090660147808</v>
       </c>
       <c r="M161" s="5">
-        <v>0.38182134461124401</v>
+        <v>0.7648206428613411</v>
       </c>
       <c r="N161" s="5">
-        <v>-13.568200986436596</v>
+        <v>-13.043054789102682</v>
       </c>
       <c r="O161" s="6" t="s">
         <v>23</v>
@@ -11763,10 +11763,10 @@
         <v>305</v>
       </c>
       <c r="R161" s="5">
-        <v>102.5</v>
+        <v>101.59999847412109</v>
       </c>
       <c r="S161" s="5">
-        <v>83.870002746582031</v>
+        <v>84.19000244140625</v>
       </c>
     </row>
     <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11777,373 +11777,371 @@
         <v>370</v>
       </c>
       <c r="C162" s="5">
-        <v>6345837.5</v>
+        <v>6422780.5</v>
       </c>
       <c r="D162" s="5">
-        <v>1527035520</v>
+        <v>566964608</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="5">
-        <v>0.61541163921356201</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F162" s="5"/>
       <c r="G162" s="6" t="s">
         <v>371</v>
       </c>
       <c r="H162" s="5">
-        <v>-7.2313584014927004E-2</v>
+        <v>0.23352163831773501</v>
       </c>
       <c r="I162" s="5">
-        <v>-0.43934434969243902</v>
+        <v>-0.41624087981869701</v>
       </c>
       <c r="J162" s="5">
-        <v>-1.3509042394261539</v>
+        <v>-0.94441796714132009</v>
       </c>
       <c r="K162" s="5">
-        <v>3.6033482699652901</v>
+        <v>4.6847252668928752</v>
       </c>
       <c r="L162" s="5">
-        <v>2.3828670821478992</v>
+        <v>0.17639776628561901</v>
       </c>
       <c r="M162" s="5">
-        <v>0.154975568154958</v>
+        <v>1.17297898301818</v>
       </c>
       <c r="N162" s="5">
-        <v>-6.1483109901646964</v>
+        <v>-4.4567955309524727</v>
       </c>
       <c r="O162" s="6" t="s">
-        <v>23</v>
+        <v>372</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q162" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R162" s="5">
-        <v>106.0731864338992</v>
+        <v>17.239744689086226</v>
       </c>
       <c r="S162" s="5">
-        <v>98.204193115234375</v>
+        <v>16.403175354003906</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A163" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C163" s="5">
-        <v>6181717.5</v>
+        <v>6392742.5</v>
       </c>
       <c r="D163" s="5">
-        <v>1744480128</v>
+        <v>1746375552</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F163" s="5">
-        <v>5.4022312164306641</v>
+        <v>5.3879938125610352</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H163" s="5">
-        <v>-1.5825105306080611</v>
+        <v>0.41609323272517901</v>
       </c>
       <c r="I163" s="5">
-        <v>-2.8555591978112971</v>
+        <v>-1.1360091011863751</v>
       </c>
       <c r="J163" s="5">
-        <v>-4.9811495118434301</v>
+        <v>-4.4503858631176119</v>
       </c>
       <c r="K163" s="5">
-        <v>2.06494569171991</v>
+        <v>2.704119757936208</v>
       </c>
       <c r="L163" s="5">
-        <v>-9.0463286555791065</v>
+        <v>-7.4084929656580201</v>
       </c>
       <c r="M163" s="5">
-        <v>0.79229811691972107</v>
+        <v>1.2116880484924319</v>
       </c>
       <c r="N163" s="5">
-        <v>-17.827668937929541</v>
+        <v>-17.250816024655858</v>
       </c>
       <c r="O163" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q163" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R163" s="5">
         <v>1.450515013469456</v>
       </c>
       <c r="S163" s="5">
-        <v>1.119768619537354</v>
+        <v>1.124427914619446</v>
       </c>
     </row>
     <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A164" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C164" s="5">
-        <v>6139165.5</v>
+        <v>6360265</v>
       </c>
       <c r="D164" s="5">
-        <v>1194130048</v>
+        <v>1530507264</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F164" s="5">
-        <v>2.6684401035308838</v>
+        <v>0.61633282899856601</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="H164" s="5">
-        <v>0.277831269233486</v>
+        <v>0.21827315355371602</v>
       </c>
       <c r="I164" s="5">
-        <v>-0.55108549077721403</v>
+        <v>-0.44998797852546801</v>
       </c>
       <c r="J164" s="5">
-        <v>-1.855739268345546</v>
+        <v>-0.57665829520300305</v>
       </c>
       <c r="K164" s="5">
-        <v>1.995589239535644</v>
+        <v>3.7362254873231748</v>
       </c>
       <c r="L164" s="5">
-        <v>-2.9184308706198481</v>
+        <v>3.6221849292664032</v>
       </c>
       <c r="M164" s="5">
-        <v>1.502241586273634</v>
+        <v>0.37358699176852606</v>
       </c>
       <c r="N164" s="5">
-        <v>-8.8044059324088551</v>
+        <v>-5.8932938756438347</v>
       </c>
       <c r="O164" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="Q164" s="6" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="R164" s="5">
-        <v>53.700000762939453</v>
+        <v>105.66899018074079</v>
       </c>
       <c r="S164" s="5">
-        <v>46.919998168945313</v>
+        <v>98.418540954589844</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A165" s="6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C165" s="5">
-        <v>5970072.5</v>
+        <v>6139165.5</v>
       </c>
       <c r="D165" s="5">
-        <v>1119050112</v>
+        <v>1194130048</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F165" s="5">
-        <v>0.51978850364685103</v>
+        <v>2.6684398651123051</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H165" s="5">
-        <v>-0.78090244126718411</v>
+        <v>0.277831269233486</v>
       </c>
       <c r="I165" s="5">
-        <v>-1.137791760040352</v>
+        <v>-0.55108549077721403</v>
       </c>
       <c r="J165" s="5">
-        <v>-2.4116707892018141</v>
+        <v>-1.855739268345546</v>
       </c>
       <c r="K165" s="5">
-        <v>2.919299153323895</v>
+        <v>1.995589239535644</v>
       </c>
       <c r="L165" s="5">
-        <v>-1.8345677832989242</v>
+        <v>-2.9184308706198481</v>
       </c>
       <c r="M165" s="5">
-        <v>2.1562528652679491</v>
+        <v>1.502241586273634</v>
       </c>
       <c r="N165" s="5">
-        <v>-10.322957964566481</v>
+        <v>-8.8044059324088551</v>
       </c>
       <c r="O165" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="R165" s="5">
-        <v>80.026540363116283</v>
+        <v>53.700000762939453</v>
       </c>
       <c r="S165" s="5">
-        <v>68.567619323730469</v>
+        <v>46.919998168945313</v>
       </c>
     </row>
     <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A166" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C166" s="5">
-        <v>5939860</v>
+        <v>6046805.5</v>
       </c>
       <c r="D166" s="5">
-        <v>804079936</v>
+        <v>1122956544</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F166" s="5">
-        <v>3.7588438987731929</v>
+        <v>0.519528388977051</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H166" s="5">
-        <v>0.52295268666859906</v>
+        <v>0.74960645953328109</v>
       </c>
       <c r="I166" s="5">
-        <v>-0.34563001832637102</v>
+        <v>-0.76515028745278701</v>
       </c>
       <c r="J166" s="5">
-        <v>-1.5686409843025162</v>
+        <v>-2.4098433828467551</v>
       </c>
       <c r="K166" s="5">
-        <v>1.9889125546394442</v>
+        <v>3.783850647215647</v>
       </c>
       <c r="L166" s="5">
-        <v>-0.22384830985120502</v>
+        <v>0.17475474710637601</v>
       </c>
       <c r="M166" s="5">
-        <v>1.363586683572926</v>
+        <v>2.9220227355631678</v>
       </c>
       <c r="N166" s="5">
-        <v>-3.4267689875186691</v>
+        <v>-9.0782807565853894</v>
       </c>
       <c r="O166" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="Q166" s="6" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="R166" s="5">
-        <v>18.700000762939453</v>
+        <v>80.026540363116283</v>
       </c>
       <c r="S166" s="5">
-        <v>17.299999237060547</v>
+        <v>69.08160400390625</v>
       </c>
     </row>
     <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A167" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C167" s="5">
-        <v>5653480</v>
+        <v>5939860</v>
       </c>
       <c r="D167" s="5">
-        <v>3791912448</v>
+        <v>804079936</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="F167" s="5">
-        <v>3.704906702041626</v>
+        <v>3.9128322601318359</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H167" s="5">
-        <v>-0.54982578987081709</v>
+        <v>0.52295268666859906</v>
       </c>
       <c r="I167" s="5">
-        <v>-1.4209236831850709</v>
+        <v>-0.34563001832637102</v>
       </c>
       <c r="J167" s="5">
-        <v>-3.0532181651146129</v>
+        <v>-1.5686409843025162</v>
       </c>
       <c r="K167" s="5">
-        <v>1.8016498938298042</v>
+        <v>1.9889125546394442</v>
       </c>
       <c r="L167" s="5">
-        <v>-3.6208908808620381</v>
+        <v>-0.22384830985120502</v>
       </c>
       <c r="M167" s="5">
-        <v>0.94678554146805405</v>
+        <v>1.363586683572926</v>
       </c>
       <c r="N167" s="5">
-        <v>-11.100567716172316</v>
+        <v>-3.4267689875186691</v>
       </c>
       <c r="O167" s="6" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="R167" s="5">
-        <v>120.19000244140625</v>
+        <v>18.700000762939453</v>
       </c>
       <c r="S167" s="5">
-        <v>101.29000091552734</v>
+        <v>17.299999237060547</v>
       </c>
     </row>
     <row r="168" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A168" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C168" s="5">
-        <v>5640767</v>
+        <v>5654604.5</v>
       </c>
       <c r="D168" s="5">
-        <v>1512040192</v>
+        <v>1515749504</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F168" s="5">
-        <v>5.6191473007202148</v>
+        <v>5.6191468238830566</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H168" s="5">
         <v>-0.39302726668194504</v>
@@ -12161,7 +12159,7 @@
         <v>-8.4879759741602445</v>
       </c>
       <c r="M168" s="5">
-        <v>6.9292349916674656</v>
+        <v>7.1915518966807923</v>
       </c>
       <c r="N168" s="5">
         <v>-15.6824704457875</v>
@@ -12170,10 +12168,10 @@
         <v>23</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R168" s="5">
         <v>8.9875042190233962</v>
@@ -12184,73 +12182,75 @@
     </row>
     <row r="169" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A169" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C169" s="5">
-        <v>5503639</v>
+        <v>5653480</v>
       </c>
       <c r="D169" s="5">
-        <v>645447488</v>
+        <v>3791912448</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F169" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="F169" s="5">
+        <v>3.68779468536377</v>
+      </c>
       <c r="G169" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H169" s="5">
-        <v>0.689191184811344</v>
+        <v>0.46401541756830905</v>
       </c>
       <c r="I169" s="5">
-        <v>-0.31619009190633202</v>
+        <v>-0.97314127988659105</v>
       </c>
       <c r="J169" s="5">
-        <v>-1.1224831373761961</v>
+        <v>-2.6499537696493602</v>
       </c>
       <c r="K169" s="5">
-        <v>3.574830983086597</v>
+        <v>1.949477330610172</v>
       </c>
       <c r="L169" s="5">
-        <v>-9.3174565224170678</v>
+        <v>-2.2153563366972722</v>
       </c>
       <c r="M169" s="5">
-        <v>2.8502743811318791</v>
+        <v>1.415194189920066</v>
       </c>
       <c r="N169" s="5">
-        <v>-20.410587507203758</v>
+        <v>-10.506107080638582</v>
       </c>
       <c r="O169" s="6" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="P169" s="6" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R169" s="5">
-        <v>89.260002136230469</v>
+        <v>120.19000244140625</v>
       </c>
       <c r="S169" s="5">
-        <v>59.900001525878906</v>
+        <v>101.76000213623047</v>
       </c>
     </row>
     <row r="170" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A170" s="6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C170" s="5">
-        <v>5500880</v>
+        <v>5514374.5</v>
       </c>
       <c r="D170" s="5">
-        <v>999829504</v>
+        <v>1002282240</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>329</v>
@@ -12259,7 +12259,7 @@
         <v>3.6172962188720703</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H170" s="5">
         <v>-0.39302726668194504</v>
@@ -12277,7 +12277,7 @@
         <v>-3.7209840788265951</v>
       </c>
       <c r="M170" s="5">
-        <v>0.81450839717658308</v>
+        <v>1.0618247632316451</v>
       </c>
       <c r="N170" s="5">
         <v>-7.9039301134547602</v>
@@ -12286,10 +12286,10 @@
         <v>23</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q170" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R170" s="5">
         <v>18.499802846565956</v>
@@ -12300,59 +12300,59 @@
     </row>
     <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A171" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C171" s="5">
-        <v>5406757</v>
+        <v>5503639</v>
       </c>
       <c r="D171" s="5">
-        <v>565817344</v>
+        <v>645447488</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="6" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="H171" s="5">
-        <v>-0.14448727477843801</v>
+        <v>0.689191184811344</v>
       </c>
       <c r="I171" s="5">
-        <v>-0.72141604909192703</v>
+        <v>-0.31619009190633202</v>
       </c>
       <c r="J171" s="5">
-        <v>-1.283253633158066</v>
+        <v>-1.1224831373761961</v>
       </c>
       <c r="K171" s="5">
-        <v>4.9070447933895256</v>
+        <v>3.574830983086597</v>
       </c>
       <c r="L171" s="5">
-        <v>-0.64901037003520801</v>
+        <v>-9.3174565224170678</v>
       </c>
       <c r="M171" s="5">
-        <v>0.93726861966436603</v>
+        <v>2.8502743811318791</v>
       </c>
       <c r="N171" s="5">
-        <v>-4.45130710888757</v>
+        <v>-20.410587507203758</v>
       </c>
       <c r="O171" s="6" t="s">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>394</v>
+        <v>24</v>
       </c>
       <c r="Q171" s="6" t="s">
-        <v>395</v>
+        <v>25</v>
       </c>
       <c r="R171" s="5">
-        <v>17.239744689086226</v>
+        <v>89.260002136230469</v>
       </c>
       <c r="S171" s="5">
-        <v>16.364959716796875</v>
+        <v>59.900001525878906</v>
       </c>
     </row>
     <row r="172" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12363,10 +12363,10 @@
         <v>397</v>
       </c>
       <c r="C172" s="5">
-        <v>5327537.5</v>
+        <v>5340606.5</v>
       </c>
       <c r="D172" s="5">
-        <v>622029760</v>
+        <v>623555712</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>28</v>
@@ -12375,7 +12375,7 @@
         <v>4.6759638786315918</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H172" s="5">
         <v>-0.27031319914006002</v>
@@ -12393,7 +12393,7 @@
         <v>-2.2232294394415648</v>
       </c>
       <c r="M172" s="5">
-        <v>1.140880806445477</v>
+        <v>1.388997823513227</v>
       </c>
       <c r="N172" s="5">
         <v>-3.9632490820150861</v>
@@ -12402,10 +12402,10 @@
         <v>23</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q172" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R172" s="5">
         <v>39.362383362422655</v>
@@ -12431,7 +12431,7 @@
         <v>67</v>
       </c>
       <c r="F173" s="5">
-        <v>5.1764011383056641</v>
+        <v>4.6308999061584473</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>0</v>
@@ -12494,25 +12494,25 @@
         <v>73</v>
       </c>
       <c r="H174" s="5">
-        <v>3.7106503184536004E-2</v>
+        <v>-9.2776069611220004E-3</v>
       </c>
       <c r="I174" s="5">
-        <v>-0.22207983243147703</v>
+        <v>-0.16667224448394502</v>
       </c>
       <c r="J174" s="5">
-        <v>-0.42478971874138105</v>
+        <v>-0.50752335256873904</v>
       </c>
       <c r="K174" s="5">
-        <v>1.1538475301982041</v>
+        <v>1.059142558359039</v>
       </c>
       <c r="L174" s="5">
-        <v>-9.2654763984390001E-2</v>
+        <v>3.7109947377134002E-2</v>
       </c>
       <c r="M174" s="5">
-        <v>0.48457782159314605</v>
+        <v>0.47525525740630403</v>
       </c>
       <c r="N174" s="5">
-        <v>-2.3190467921587739</v>
+        <v>-2.4076822918015379</v>
       </c>
       <c r="O174" s="6" t="s">
         <v>73</v>
@@ -12527,7 +12527,7 @@
         <v>5.5500001907348633</v>
       </c>
       <c r="S174" s="5">
-        <v>5.3914999961853027</v>
+        <v>5.3909997940063477</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12606,7 +12606,7 @@
         <v>73</v>
       </c>
       <c r="F176" s="5">
-        <v>4.8823623657226562</v>
+        <v>5.2673583030700684</v>
       </c>
       <c r="G176" s="6" t="s">
         <v>0</v>
@@ -12656,10 +12656,10 @@
         <v>404</v>
       </c>
       <c r="C177" s="5">
-        <v>4868847.5</v>
+        <v>4880791.5</v>
       </c>
       <c r="D177" s="5">
-        <v>950689728</v>
+        <v>953021952</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>43</v>
@@ -12668,7 +12668,7 @@
         <v>3.1963469982147221</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H177" s="5">
         <v>-0.39302726668194504</v>
@@ -12686,7 +12686,7 @@
         <v>-2.882555026507216</v>
       </c>
       <c r="M177" s="5">
-        <v>1.3706056309337411</v>
+        <v>1.6192862048713059</v>
       </c>
       <c r="N177" s="5">
         <v>-7.4575515066613978</v>
@@ -12695,10 +12695,10 @@
         <v>23</v>
       </c>
       <c r="P177" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q177" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R177" s="5">
         <v>10.904066655836321</v>
@@ -12715,55 +12715,55 @@
         <v>406</v>
       </c>
       <c r="C178" s="5">
-        <v>4701179.5</v>
+        <v>4739693.5</v>
       </c>
       <c r="D178" s="5">
-        <v>1243519616</v>
+        <v>1532411136</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F178" s="5">
-        <v>3.6009001731872559</v>
+        <v>4.6353869438171387</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="H178" s="5">
-        <v>0.20837274986571502</v>
+        <v>0.52080892977095505</v>
       </c>
       <c r="I178" s="5">
-        <v>-2.3841479361767952</v>
+        <v>-1.333619923294282</v>
       </c>
       <c r="J178" s="5">
-        <v>-6.4224724523523786</v>
+        <v>-3.7063628462047582</v>
       </c>
       <c r="K178" s="5">
-        <v>-2.042896751730527</v>
+        <v>3.424991656827991</v>
       </c>
       <c r="L178" s="5">
-        <v>-9.2051451365745542</v>
+        <v>-3.301747220593898</v>
       </c>
       <c r="M178" s="5">
-        <v>0.92158364950458704</v>
+        <v>2.0228317344298752</v>
       </c>
       <c r="N178" s="5">
-        <v>-20.857899200268303</v>
+        <v>-13.769021027411711</v>
       </c>
       <c r="O178" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P178" s="6" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="Q178" s="6" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="R178" s="5">
-        <v>13.417124841874355</v>
+        <v>1.4359029514782191</v>
       </c>
       <c r="S178" s="5">
-        <v>9.8850574493408203</v>
+        <v>1.164927124977112</v>
       </c>
     </row>
     <row r="179" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12774,55 +12774,55 @@
         <v>408</v>
       </c>
       <c r="C179" s="5">
-        <v>4637253.5</v>
+        <v>4712712</v>
       </c>
       <c r="D179" s="5">
-        <v>1530747904</v>
+        <v>1246570240</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F179" s="5">
-        <v>4.6524820327758789</v>
+        <v>3.6009001731872559</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="H179" s="5">
-        <v>-1.5981661908924361</v>
+        <v>0.20837274986571502</v>
       </c>
       <c r="I179" s="5">
-        <v>-2.9553289902284563</v>
+        <v>-2.3841479361767952</v>
       </c>
       <c r="J179" s="5">
-        <v>-4.3410143304514648</v>
+        <v>-6.4224724523523786</v>
       </c>
       <c r="K179" s="5">
-        <v>2.8215288401852723</v>
+        <v>-2.042896751730527</v>
       </c>
       <c r="L179" s="5">
-        <v>-4.9437776715870676</v>
+        <v>-9.2051451365745542</v>
       </c>
       <c r="M179" s="5">
-        <v>1.494240665838942</v>
+        <v>1.1691626906718211</v>
       </c>
       <c r="N179" s="5">
-        <v>-14.352446812504605</v>
+        <v>-20.857899200268303</v>
       </c>
       <c r="O179" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="Q179" s="6" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="R179" s="5">
-        <v>1.4359029514782191</v>
+        <v>13.417124841874355</v>
       </c>
       <c r="S179" s="5">
-        <v>1.158891439437866</v>
+        <v>9.8850574493408203</v>
       </c>
     </row>
     <row r="180" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12892,55 +12892,55 @@
         <v>412</v>
       </c>
       <c r="C181" s="5">
-        <v>4429642</v>
+        <v>4423910.5</v>
       </c>
       <c r="D181" s="5">
-        <v>1804280832</v>
+        <v>656646208</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F181" s="5">
-        <v>5.4638586044311523</v>
+        <v>2.8277332782745361</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H181" s="5">
-        <v>-1.684794723501426</v>
+        <v>0.112281383085611</v>
       </c>
       <c r="I181" s="5">
-        <v>-3.2269245444338512</v>
+        <v>-0.22382307717100403</v>
       </c>
       <c r="J181" s="5">
-        <v>-2.7262026615670791</v>
+        <v>-0.70484625791036304</v>
       </c>
       <c r="K181" s="5">
-        <v>3.9561234183578708</v>
+        <v>0.95238705426843306</v>
       </c>
       <c r="L181" s="5">
-        <v>-6.3972617557417344</v>
+        <v>-1.552151151227676</v>
       </c>
       <c r="M181" s="5">
-        <v>3.1356022328937971</v>
+        <v>0.75990657031310704</v>
       </c>
       <c r="N181" s="5">
-        <v>-15.837875511421895</v>
+        <v>-5.1825163434377819</v>
       </c>
       <c r="O181" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="Q181" s="6" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="R181" s="5">
-        <v>1.459424810682471</v>
+        <v>115.73999786376953</v>
       </c>
       <c r="S181" s="5">
-        <v>1.1552749872207639</v>
+        <v>106.98999786376953</v>
       </c>
     </row>
     <row r="182" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12951,55 +12951,55 @@
         <v>414</v>
       </c>
       <c r="C182" s="5">
-        <v>4423910.5</v>
+        <v>4331134.5</v>
       </c>
       <c r="D182" s="5">
-        <v>656646208</v>
+        <v>1806241280</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F182" s="5">
-        <v>2.8277335166931152</v>
+        <v>5.4499006271362305</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="H182" s="5">
-        <v>0.112281383085611</v>
+        <v>0.40795974065990204</v>
       </c>
       <c r="I182" s="5">
-        <v>-0.22382307717100403</v>
+        <v>-1.5035011691869049</v>
       </c>
       <c r="J182" s="5">
-        <v>-0.70484625791036304</v>
+        <v>-2.1907661399022671</v>
       </c>
       <c r="K182" s="5">
-        <v>0.95238705426843306</v>
+        <v>4.5675420026255686</v>
       </c>
       <c r="L182" s="5">
-        <v>-1.552151151227676</v>
+        <v>-4.8776119768494608</v>
       </c>
       <c r="M182" s="5">
-        <v>0.75990657031310704</v>
+        <v>3.5563539682911482</v>
       </c>
       <c r="N182" s="5">
-        <v>-5.1825163434377819</v>
+        <v>-14.854401983440901</v>
       </c>
       <c r="O182" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="Q182" s="6" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="R182" s="5">
-        <v>115.73999786376953</v>
+        <v>1.459424810682471</v>
       </c>
       <c r="S182" s="5">
-        <v>106.98999786376953</v>
+        <v>1.159988164901733</v>
       </c>
     </row>
     <row r="183" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13010,19 +13010,19 @@
         <v>416</v>
       </c>
       <c r="C183" s="5">
-        <v>4215201.5</v>
+        <v>4225542.5</v>
       </c>
       <c r="D183" s="5">
-        <v>211388208</v>
+        <v>211906768</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F183" s="5">
-        <v>4.0446748733520508</v>
+        <v>4.0462889671325684</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H183" s="5">
         <v>-0.39302726668194504</v>
@@ -13040,7 +13040,7 @@
         <v>-2.5415122693134728</v>
       </c>
       <c r="M183" s="5">
-        <v>0.80155578019576201</v>
+        <v>1.048840371120296</v>
       </c>
       <c r="N183" s="5">
         <v>-3.8703063654040859</v>
@@ -13049,10 +13049,10 @@
         <v>23</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R183" s="5">
         <v>40.110682003154643</v>
@@ -13069,55 +13069,55 @@
         <v>418</v>
       </c>
       <c r="C184" s="5">
-        <v>4158561.25</v>
+        <v>4167109.25</v>
       </c>
       <c r="D184" s="5">
-        <v>676397056</v>
+        <v>1091118592</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F184" s="5">
-        <v>3.7879397869110112</v>
+        <v>5.4353828430175781</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H184" s="5">
-        <v>-2.0055340907643E-2</v>
+        <v>-0.64235612924527008</v>
       </c>
       <c r="I184" s="5">
-        <v>6.0214327477537008E-2</v>
+        <v>-1.0437092048172669</v>
       </c>
       <c r="J184" s="5">
-        <v>0.51094821643455901</v>
+        <v>-1.453392629715045</v>
       </c>
       <c r="K184" s="5">
-        <v>1.488028578035028</v>
+        <v>7.4331344951737099</v>
       </c>
       <c r="L184" s="5">
-        <v>1.803214356495086</v>
+        <v>-7.3957833968064541</v>
       </c>
       <c r="M184" s="5">
-        <v>0.82166147946181012</v>
+        <v>8.2334374972705469</v>
       </c>
       <c r="N184" s="5">
-        <v>1.324320440492466</v>
+        <v>-16.764543146980305</v>
       </c>
       <c r="O184" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P184" s="6" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="Q184" s="6" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="R184" s="5">
-        <v>75.279998779296875</v>
+        <v>7.5586027286208974</v>
       </c>
       <c r="S184" s="5">
-        <v>74.775001525878906</v>
+        <v>5.9102706909179687</v>
       </c>
     </row>
     <row r="185" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13128,55 +13128,55 @@
         <v>420</v>
       </c>
       <c r="C185" s="5">
-        <v>4156911.75</v>
+        <v>4158561.25</v>
       </c>
       <c r="D185" s="5">
-        <v>1088448384</v>
+        <v>676397056</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F185" s="5">
-        <v>5.4353828430175781</v>
+        <v>3.7879397869110112</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H185" s="5">
-        <v>-0.64235612924527008</v>
+        <v>-2.0055340907643E-2</v>
       </c>
       <c r="I185" s="5">
-        <v>-1.0437092048172669</v>
+        <v>6.0214327477537008E-2</v>
       </c>
       <c r="J185" s="5">
-        <v>-1.453392629715045</v>
+        <v>0.51094821643455901</v>
       </c>
       <c r="K185" s="5">
-        <v>7.4331344951737099</v>
+        <v>1.488028578035028</v>
       </c>
       <c r="L185" s="5">
-        <v>-7.3957833968064541</v>
+        <v>1.803214356495086</v>
       </c>
       <c r="M185" s="5">
-        <v>7.9685709117899739</v>
+        <v>0.82166147946181012</v>
       </c>
       <c r="N185" s="5">
-        <v>-16.764543146980305</v>
+        <v>1.324320440492466</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P185" s="6" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="Q185" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R185" s="5">
-        <v>7.5586027286208974</v>
+        <v>75.279998779296875</v>
       </c>
       <c r="S185" s="5">
-        <v>5.9102706909179687</v>
+        <v>74.775001525878906</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13259,25 +13259,25 @@
         <v>73</v>
       </c>
       <c r="H187" s="5">
-        <v>-0.51938191429384806</v>
+        <v>0.28901862590164901</v>
       </c>
       <c r="I187" s="5">
-        <v>-1.3973195773253839</v>
+        <v>-1.0213476327149971</v>
       </c>
       <c r="J187" s="5">
-        <v>-2.9672523213998052</v>
+        <v>-2.7747664191831278</v>
       </c>
       <c r="K187" s="5">
-        <v>1.977564081058869</v>
+        <v>1.82695794597838</v>
       </c>
       <c r="L187" s="5">
-        <v>-3.577847698274716</v>
+        <v>-2.2979132982734569</v>
       </c>
       <c r="M187" s="5">
-        <v>0.96959131873595206</v>
+        <v>1.2614122441438451</v>
       </c>
       <c r="N187" s="5">
-        <v>-11.017090423025843</v>
+        <v>-10.522378226652885</v>
       </c>
       <c r="O187" s="6" t="s">
         <v>73</v>
@@ -13292,7 +13292,7 @@
         <v>6.1360001564025879</v>
       </c>
       <c r="S187" s="5">
-        <v>5.3629999160766602</v>
+        <v>5.3784999847412109</v>
       </c>
     </row>
     <row r="188" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13316,25 +13316,25 @@
         <v>73</v>
       </c>
       <c r="H188" s="5">
-        <v>2.8925697746240001E-2</v>
+        <v>-3.8562574074807003E-2</v>
       </c>
       <c r="I188" s="5">
-        <v>-0.14441458748008001</v>
+        <v>-0.13484818923132902</v>
       </c>
       <c r="J188" s="5">
-        <v>-0.47975619904323502</v>
+        <v>-0.57537799220105401</v>
       </c>
       <c r="K188" s="5">
-        <v>0.65993633964727105</v>
+        <v>0.60159398531862707</v>
       </c>
       <c r="L188" s="5">
-        <v>-0.42243302672192501</v>
+        <v>-0.57537799220105401</v>
       </c>
       <c r="M188" s="5">
-        <v>7.7184676946062999E-2</v>
+        <v>3.8592338473031E-2</v>
       </c>
       <c r="N188" s="5">
-        <v>-2.3903694155060879</v>
+        <v>-2.5197410410114029</v>
       </c>
       <c r="O188" s="6" t="s">
         <v>73</v>
@@ -13349,7 +13349,7 @@
         <v>5.3480000495910645</v>
       </c>
       <c r="S188" s="5">
-        <v>5.185999870300293</v>
+        <v>5.1840000152587891</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13360,40 +13360,40 @@
         <v>428</v>
       </c>
       <c r="C189" s="5">
-        <v>3817884.25</v>
+        <v>3820743.25</v>
       </c>
       <c r="D189" s="5">
-        <v>1458305280</v>
+        <v>1459397376</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>301</v>
       </c>
       <c r="F189" s="5">
-        <v>0.80197036266326904</v>
+        <v>0.80053931474685702</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>429</v>
       </c>
       <c r="H189" s="5">
-        <v>-3.0629090722289004E-2</v>
+        <v>0.31211343918227102</v>
       </c>
       <c r="I189" s="5">
-        <v>-0.48972867700866102</v>
+        <v>-0.82368703196064008</v>
       </c>
       <c r="J189" s="5">
-        <v>-2.0475071147931119</v>
+        <v>-2.856732237265736</v>
       </c>
       <c r="K189" s="5">
-        <v>1.5490762242406091</v>
+        <v>1.6543869647245302</v>
       </c>
       <c r="L189" s="5">
-        <v>-1.385839150990442</v>
+        <v>0.98443263614438303</v>
       </c>
       <c r="M189" s="5">
-        <v>-8.541941186700501E-2</v>
+        <v>0.22642742185115003</v>
       </c>
       <c r="N189" s="5">
-        <v>-14.103583564487376</v>
+        <v>-13.694621858552402</v>
       </c>
       <c r="O189" s="6" t="s">
         <v>324</v>
@@ -13405,10 +13405,10 @@
         <v>305</v>
       </c>
       <c r="R189" s="5">
-        <v>177.81133901367187</v>
+        <v>177.38811346740721</v>
       </c>
       <c r="S189" s="5">
-        <v>151.28973388671875</v>
+        <v>151.76191711425781</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13419,10 +13419,10 @@
         <v>431</v>
       </c>
       <c r="C190" s="5">
-        <v>3753092</v>
+        <v>3762299</v>
       </c>
       <c r="D190" s="5">
-        <v>487800544</v>
+        <v>488997216</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>43</v>
@@ -13431,7 +13431,7 @@
         <v>2.162162065505981</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H190" s="5">
         <v>-0.39302726668194504</v>
@@ -13449,7 +13449,7 @@
         <v>-4.08937259439538</v>
       </c>
       <c r="M190" s="5">
-        <v>0.81486288620862302</v>
+        <v>1.0621801218899001</v>
       </c>
       <c r="N190" s="5">
         <v>-7.9692846793414489</v>
@@ -13458,10 +13458,10 @@
         <v>23</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q190" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R190" s="5">
         <v>13.786023754024995</v>
@@ -13475,7 +13475,7 @@
         <v>432</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C191" s="5">
         <v>3749286</v>
@@ -13535,10 +13535,10 @@
         <v>434</v>
       </c>
       <c r="C192" s="5">
-        <v>3717523.25</v>
+        <v>3726643</v>
       </c>
       <c r="D192" s="5">
-        <v>681974784</v>
+        <v>683647808</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>73</v>
@@ -13547,7 +13547,7 @@
         <v>3.7550709247589111</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H192" s="5">
         <v>-0.60979442113976401</v>
@@ -13565,7 +13565,7 @@
         <v>-2.296920700004546</v>
       </c>
       <c r="M192" s="5">
-        <v>2.4311802445746711</v>
+        <v>2.6824626013661761</v>
       </c>
       <c r="N192" s="5">
         <v>-9.3854165555176454</v>
@@ -13574,10 +13574,10 @@
         <v>23</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q192" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R192" s="5">
         <v>15.723518886301587</v>
@@ -13594,10 +13594,10 @@
         <v>280</v>
       </c>
       <c r="C193" s="5">
-        <v>3711760</v>
+        <v>3720865.75</v>
       </c>
       <c r="D193" s="5">
-        <v>360585856</v>
+        <v>361470432</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>54</v>
@@ -13606,7 +13606,7 @@
         <v>2.7229552268981929</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H193" s="5">
         <v>-0.23508447785373102</v>
@@ -13624,7 +13624,7 @@
         <v>-5.4719372386400682</v>
       </c>
       <c r="M193" s="5">
-        <v>0.76697280756232711</v>
+        <v>1.0141725601510609</v>
       </c>
       <c r="N193" s="5">
         <v>-12.752932036841669</v>
@@ -13633,10 +13633,10 @@
         <v>23</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q193" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R193" s="5">
         <v>16.802211359372688</v>
@@ -13662,7 +13662,7 @@
         <v>83</v>
       </c>
       <c r="F194" s="5">
-        <v>3.3711831569671631</v>
+        <v>3.371182918548584</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>0</v>
@@ -13721,31 +13721,31 @@
         <v>301</v>
       </c>
       <c r="F195" s="5">
-        <v>4.9230084419250488</v>
+        <v>4.8941903114318848</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H195" s="5">
-        <v>-0.61830358891538106</v>
+        <v>0.58882209389876605</v>
       </c>
       <c r="I195" s="5">
-        <v>-0.98999173866937107</v>
+        <v>-0.59288636876512202</v>
       </c>
       <c r="J195" s="5">
-        <v>-2.6708489738803021</v>
+        <v>-1.2219099954553281</v>
       </c>
       <c r="K195" s="5">
-        <v>1.5226690935701499</v>
+        <v>1.525006285823749</v>
       </c>
       <c r="L195" s="5">
-        <v>-1.2424105649556541</v>
+        <v>0.16468108538432202</v>
       </c>
       <c r="M195" s="5">
-        <v>1.089399383119249</v>
+        <v>1.684636101276604</v>
       </c>
       <c r="N195" s="5">
-        <v>-4.2492171313667546</v>
+        <v>-3.1547032107754669</v>
       </c>
       <c r="O195" s="6" t="s">
         <v>23</v>
@@ -13760,7 +13760,7 @@
         <v>100.01000213623047</v>
       </c>
       <c r="S195" s="5">
-        <v>90.010002136230469</v>
+        <v>90.540000915527344</v>
       </c>
     </row>
     <row r="196" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13780,7 +13780,7 @@
         <v>67</v>
       </c>
       <c r="F196" s="5">
-        <v>2.9673309326171879</v>
+        <v>2.967331171035767</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>0</v>
@@ -13830,53 +13830,55 @@
         <v>443</v>
       </c>
       <c r="C197" s="5">
-        <v>3593678</v>
+        <v>3599300.5</v>
       </c>
       <c r="D197" s="5">
-        <v>2043134208</v>
+        <v>320679104</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F197" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="F197" s="5">
+        <v>2.517985582351685</v>
+      </c>
       <c r="G197" s="6" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="H197" s="5">
-        <v>-0.19650674866503701</v>
+        <v>-0.51231977926320404</v>
       </c>
       <c r="I197" s="5">
-        <v>-0.72322474631909606</v>
+        <v>-1.392482665944661</v>
       </c>
       <c r="J197" s="5">
-        <v>-1.750650549056854</v>
+        <v>-2.3370157633441861</v>
       </c>
       <c r="K197" s="5">
-        <v>1.498797091598369</v>
+        <v>-0.86734238086184612</v>
       </c>
       <c r="L197" s="5">
-        <v>-3.257142929803758</v>
+        <v>-4.4802270732872351</v>
       </c>
       <c r="M197" s="5">
-        <v>0.59418124534873507</v>
+        <v>1.0287135062040149</v>
       </c>
       <c r="N197" s="5">
-        <v>-8.9132029841658582</v>
+        <v>-9.3969534216725936</v>
       </c>
       <c r="O197" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q197" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R197" s="5">
-        <v>5.6490001678466797</v>
+        <v>14.191418722255527</v>
       </c>
       <c r="S197" s="5">
-        <v>5.0789999961853027</v>
+        <v>12.36929988861084</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13887,55 +13889,53 @@
         <v>445</v>
       </c>
       <c r="C198" s="5">
-        <v>3590492.5</v>
+        <v>3593678</v>
       </c>
       <c r="D198" s="5">
-        <v>319894368</v>
+        <v>2043134208</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F198" s="5">
-        <v>2.517985582351685</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F198" s="5"/>
       <c r="G198" s="6" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="H198" s="5">
-        <v>-0.51231977926320404</v>
+        <v>0.13782180523094201</v>
       </c>
       <c r="I198" s="5">
-        <v>-1.392482665944661</v>
+        <v>-0.76097627965415704</v>
       </c>
       <c r="J198" s="5">
-        <v>-2.3370157633441861</v>
+        <v>-1.833627924377923</v>
       </c>
       <c r="K198" s="5">
-        <v>-0.86734238086184612</v>
+        <v>1.5777910258998771</v>
       </c>
       <c r="L198" s="5">
-        <v>-4.4802270732872351</v>
+        <v>-2.6416541356952261</v>
       </c>
       <c r="M198" s="5">
-        <v>0.7814781693187941</v>
+        <v>0.73282196189836701</v>
       </c>
       <c r="N198" s="5">
-        <v>-9.3969534216725936</v>
+        <v>-8.7221833938636362</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="R198" s="5">
-        <v>14.191418722255527</v>
+        <v>5.6490001678466797</v>
       </c>
       <c r="S198" s="5">
-        <v>12.36929988861084</v>
+        <v>5.0859999656677246</v>
       </c>
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13955,7 +13955,7 @@
         <v>40</v>
       </c>
       <c r="F199" s="5">
-        <v>6.3609752655029297</v>
+        <v>6.3609757423400879</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>0</v>
@@ -14005,10 +14005,10 @@
         <v>449</v>
       </c>
       <c r="C200" s="5">
-        <v>3459693.75</v>
+        <v>3468181</v>
       </c>
       <c r="D200" s="5">
-        <v>426996832</v>
+        <v>428044352</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>70</v>
@@ -14017,7 +14017,7 @@
         <v>3.7679181098937988</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H200" s="5">
         <v>-0.39302726668194504</v>
@@ -14035,7 +14035,7 @@
         <v>-3.502668914576057</v>
       </c>
       <c r="M200" s="5">
-        <v>1.8954069166624121</v>
+        <v>2.145374923817212</v>
       </c>
       <c r="N200" s="5">
         <v>-10.360582943541885</v>
@@ -14044,10 +14044,10 @@
         <v>23</v>
       </c>
       <c r="P200" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q200" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R200" s="5">
         <v>12.696407361789227</v>
@@ -14064,55 +14064,55 @@
         <v>451</v>
       </c>
       <c r="C201" s="5">
-        <v>3433273.75</v>
+        <v>3449116.25</v>
       </c>
       <c r="D201" s="5">
-        <v>1750886656</v>
+        <v>296675488</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F201" s="5">
-        <v>4.3062200546264648</v>
+        <v>4.7000617980957031</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="H201" s="5">
-        <v>-0.55164072086689708</v>
+        <v>0.96314903482475112</v>
       </c>
       <c r="I201" s="5">
-        <v>-1.781111900031918</v>
+        <v>-1.2655322691996871</v>
       </c>
       <c r="J201" s="5">
-        <v>-2.875196997417651</v>
+        <v>-3.3179982794119711</v>
       </c>
       <c r="K201" s="5">
-        <v>0.80951549146832702</v>
+        <v>2.1004288349036671</v>
       </c>
       <c r="L201" s="5">
-        <v>-7.3634772950704752</v>
+        <v>-9.6211229120112272</v>
       </c>
       <c r="M201" s="5">
-        <v>1.6581419484545501</v>
+        <v>1.824986130698081</v>
       </c>
       <c r="N201" s="5">
-        <v>-14.822147970275545</v>
+        <v>-23.34767383483274</v>
       </c>
       <c r="O201" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P201" s="6" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="Q201" s="6" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="R201" s="5">
-        <v>11.614374819347072</v>
+        <v>1.490024017683768</v>
       </c>
       <c r="S201" s="5">
-        <v>9.2992210388183594</v>
+        <v>1.064831614494324</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14123,55 +14123,55 @@
         <v>453</v>
       </c>
       <c r="C202" s="5">
-        <v>3385274.25</v>
+        <v>3441696</v>
       </c>
       <c r="D202" s="5">
-        <v>575110400</v>
+        <v>1755181824</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F202" s="5">
-        <v>3.6774709224700932</v>
+        <v>4.3062200546264648</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H202" s="5">
-        <v>0.33320005873300801</v>
+        <v>-0.55164072086689708</v>
       </c>
       <c r="I202" s="5">
-        <v>-0.58109143464454305</v>
+        <v>-1.781111900031918</v>
       </c>
       <c r="J202" s="5">
-        <v>-1.880519786333001</v>
+        <v>-2.875196997417651</v>
       </c>
       <c r="K202" s="5">
-        <v>2.3061206165221342</v>
+        <v>0.80951549146832702</v>
       </c>
       <c r="L202" s="5">
-        <v>-2.3515163318823311</v>
+        <v>-7.3634772950704752</v>
       </c>
       <c r="M202" s="5">
-        <v>1.714857805781111</v>
+        <v>1.907527901392525</v>
       </c>
       <c r="N202" s="5">
-        <v>-8.9635699278543424</v>
+        <v>-14.822147970275545</v>
       </c>
       <c r="O202" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P202" s="6" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="Q202" s="6" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="R202" s="5">
-        <v>86.610000610351563</v>
+        <v>11.614374819347072</v>
       </c>
       <c r="S202" s="5">
-        <v>75.279998779296875</v>
+        <v>9.2992210388183594</v>
       </c>
     </row>
     <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14182,55 +14182,55 @@
         <v>455</v>
       </c>
       <c r="C203" s="5">
-        <v>3372561</v>
+        <v>3385274.25</v>
       </c>
       <c r="D203" s="5">
-        <v>1237670656</v>
+        <v>575110400</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F203" s="5">
-        <v>2.976190567016602</v>
+        <v>3.6774706840515141</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H203" s="5">
-        <v>-0.39302726668194504</v>
+        <v>0.33320005873300801</v>
       </c>
       <c r="I203" s="5">
-        <v>-1.6149772175925501</v>
+        <v>-0.58109143464454305</v>
       </c>
       <c r="J203" s="5">
-        <v>-2.730059719272826</v>
+        <v>-1.880519786333001</v>
       </c>
       <c r="K203" s="5">
-        <v>-0.25139621874402701</v>
+        <v>2.3061206165221342</v>
       </c>
       <c r="L203" s="5">
-        <v>-5.0385558977478428</v>
+        <v>-2.3515163318823311</v>
       </c>
       <c r="M203" s="5">
-        <v>1.427972583460924</v>
+        <v>1.714857805781111</v>
       </c>
       <c r="N203" s="5">
-        <v>-12.938043377390173</v>
+        <v>-8.9635699278543424</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="Q203" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R203" s="5">
-        <v>23.821555528064703</v>
+        <v>86.610000610351563</v>
       </c>
       <c r="S203" s="5">
-        <v>19.933258056640625</v>
+        <v>75.279998779296875</v>
       </c>
     </row>
     <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14241,55 +14241,55 @@
         <v>457</v>
       </c>
       <c r="C204" s="5">
-        <v>3305475.5</v>
+        <v>3380834.5</v>
       </c>
       <c r="D204" s="5">
-        <v>296353504</v>
+        <v>1240706944</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F204" s="5">
-        <v>4.738154411315918</v>
+        <v>2.976190567016602</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="H204" s="5">
-        <v>-1.866138144573648</v>
+        <v>-0.39302726668194504</v>
       </c>
       <c r="I204" s="5">
-        <v>-3.3531468732977521</v>
+        <v>-1.6149772175925501</v>
       </c>
       <c r="J204" s="5">
-        <v>-4.3760011700840433</v>
+        <v>-2.730059719272826</v>
       </c>
       <c r="K204" s="5">
-        <v>0.72684127372761909</v>
+        <v>-0.25139621874402701</v>
       </c>
       <c r="L204" s="5">
-        <v>-11.520446093359627</v>
+        <v>-5.0385558977478428</v>
       </c>
       <c r="M204" s="5">
-        <v>0.85361550636269312</v>
+        <v>1.6767938889901579</v>
       </c>
       <c r="N204" s="5">
-        <v>-24.216250900095059</v>
+        <v>-12.938043377390173</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="R204" s="5">
-        <v>1.490024017683768</v>
+        <v>23.821555528064703</v>
       </c>
       <c r="S204" s="5">
-        <v>1.054673433303833</v>
+        <v>19.933258056640625</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14300,10 +14300,10 @@
         <v>459</v>
       </c>
       <c r="C205" s="5">
-        <v>3304954.75</v>
+        <v>3313062.25</v>
       </c>
       <c r="D205" s="5">
-        <v>1161301248</v>
+        <v>1164150144</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>301</v>
@@ -14328,7 +14328,7 @@
         <v>-5.2876416827579149</v>
       </c>
       <c r="M205" s="5">
-        <v>0.94055939139596811</v>
+        <v>1.1881849835170271</v>
       </c>
       <c r="N205" s="5">
         <v>-12.303103261615888</v>
@@ -14337,10 +14337,10 @@
         <v>73</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q205" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R205" s="5">
         <v>38.626133572005777</v>
@@ -14484,7 +14484,7 @@
         <v>40</v>
       </c>
       <c r="F208" s="5">
-        <v>6.4079189300537109</v>
+        <v>6.4079184532165527</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>0</v>
@@ -14534,10 +14534,10 @@
         <v>467</v>
       </c>
       <c r="C209" s="5">
-        <v>2866045.5</v>
+        <v>2873076.5</v>
       </c>
       <c r="D209" s="5">
-        <v>872886912</v>
+        <v>875028224</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>51</v>
@@ -14546,7 +14546,7 @@
         <v>3.927627325057983</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H209" s="5">
         <v>-0.52414957719680899</v>
@@ -14564,7 +14564,7 @@
         <v>-2.9343914631765999</v>
       </c>
       <c r="M209" s="5">
-        <v>1.23791828970532</v>
+        <v>1.486273357407963</v>
       </c>
       <c r="N209" s="5">
         <v>-7.48709528898448</v>
@@ -14573,10 +14573,10 @@
         <v>23</v>
       </c>
       <c r="P209" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q209" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R209" s="5">
         <v>18.863007808644642</v>
@@ -14593,55 +14593,55 @@
         <v>469</v>
       </c>
       <c r="C210" s="5">
-        <v>2805865</v>
+        <v>2856447</v>
       </c>
       <c r="D210" s="5">
-        <v>591755072</v>
+        <v>1257913216</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F210" s="5">
-        <v>2.2646842002868652</v>
+        <v>4.8088216781616211</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H210" s="5">
-        <v>0.31009905594694404</v>
+        <v>0.79899655979320805</v>
       </c>
       <c r="I210" s="5">
-        <v>-0.293551968743333</v>
+        <v>-0.77508284506915304</v>
       </c>
       <c r="J210" s="5">
-        <v>-1.1962354852455559</v>
+        <v>-0.82458927684874206</v>
       </c>
       <c r="K210" s="5">
-        <v>0.76772153918689401</v>
+        <v>5.6235455767991382</v>
       </c>
       <c r="L210" s="5">
-        <v>-3.2958531475883568</v>
+        <v>3.4739212991619079</v>
       </c>
       <c r="M210" s="5">
-        <v>1.500415578795633</v>
+        <v>0.95391171111936013</v>
       </c>
       <c r="N210" s="5">
-        <v>-8.4878907617049304</v>
+        <v>-1.6791323405776941</v>
       </c>
       <c r="O210" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P210" s="6" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="Q210" s="6" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="R210" s="5">
-        <v>76.747703552246094</v>
+        <v>7.7807752039749998</v>
       </c>
       <c r="S210" s="5">
-        <v>67.930000305175781</v>
+        <v>6.9821300506591797</v>
       </c>
     </row>
     <row r="211" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14652,55 +14652,55 @@
         <v>471</v>
       </c>
       <c r="C211" s="5">
-        <v>2796187.25</v>
+        <v>2805865</v>
       </c>
       <c r="D211" s="5">
-        <v>1395641216</v>
+        <v>591755072</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="F211" s="5">
-        <v>1.315627336502075</v>
+        <v>2.2646842002868652</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>-0.47067853113547103</v>
+        <v>0.31009905594694404</v>
       </c>
       <c r="I211" s="5">
-        <v>-1.455837466409615</v>
+        <v>-0.293551968743333</v>
       </c>
       <c r="J211" s="5">
-        <v>-3.91040990266176</v>
+        <v>-1.1962354852455559</v>
       </c>
       <c r="K211" s="5">
-        <v>-2.2553139524920329</v>
+        <v>0.76772153918689401</v>
       </c>
       <c r="L211" s="5">
-        <v>-10.613890418287287</v>
+        <v>-3.2958531475883568</v>
       </c>
       <c r="M211" s="5">
-        <v>-0.147485513041856</v>
+        <v>1.500415578795633</v>
       </c>
       <c r="N211" s="5">
-        <v>-28.652699645606759</v>
+        <v>-8.4878907617049304</v>
       </c>
       <c r="O211" s="6" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="Q211" s="6" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="R211" s="5">
-        <v>18.172244492149353</v>
+        <v>76.747703552246094</v>
       </c>
       <c r="S211" s="5">
-        <v>12.672084808349609</v>
+        <v>67.930000305175781</v>
       </c>
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14711,55 +14711,55 @@
         <v>473</v>
       </c>
       <c r="C212" s="5">
-        <v>2756676.75</v>
+        <v>2798281.25</v>
       </c>
       <c r="D212" s="5">
-        <v>1253537152</v>
+        <v>1396686336</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="F212" s="5">
-        <v>4.8183531761169434</v>
+        <v>1.309417128562927</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="H212" s="5">
-        <v>-0.39410074341321705</v>
+        <v>0.60801769214193802</v>
       </c>
       <c r="I212" s="5">
-        <v>-0.94809841139282802</v>
+        <v>-1.443863324164474</v>
       </c>
       <c r="J212" s="5">
-        <v>-2.0051168449332519</v>
+        <v>-4.0787551903515462</v>
       </c>
       <c r="K212" s="5">
-        <v>4.6294663620896292</v>
+        <v>-1.806979072337711</v>
       </c>
       <c r="L212" s="5">
-        <v>1.9421835599706889</v>
+        <v>-7.2624264278386867</v>
       </c>
       <c r="M212" s="5">
-        <v>0.15368719591792901</v>
+        <v>0.45963544108744703</v>
       </c>
       <c r="N212" s="5">
-        <v>-2.7430808408822389</v>
+        <v>-28.637813292804303</v>
       </c>
       <c r="O212" s="6" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="Q212" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="R212" s="5">
-        <v>7.7807752039749998</v>
+        <v>18.172244492149353</v>
       </c>
       <c r="S212" s="5">
-        <v>6.9267854690551758</v>
+        <v>12.749133110046387</v>
       </c>
     </row>
     <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14770,10 +14770,10 @@
         <v>475</v>
       </c>
       <c r="C213" s="5">
-        <v>2716763.75</v>
+        <v>2723428.5</v>
       </c>
       <c r="D213" s="5">
-        <v>938426432</v>
+        <v>940728512</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>51</v>
@@ -14782,7 +14782,7 @@
         <v>5.3839516639709473</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H213" s="5">
         <v>-0.56461125612354801</v>
@@ -14800,7 +14800,7 @@
         <v>-7.6468901110159031</v>
       </c>
       <c r="M213" s="5">
-        <v>8.7644672322399373</v>
+        <v>9.0312862964744056</v>
       </c>
       <c r="N213" s="5">
         <v>-15.884881798369355</v>
@@ -14809,10 +14809,10 @@
         <v>23</v>
       </c>
       <c r="P213" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q213" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R213" s="5">
         <v>10.819645746152304</v>
@@ -14829,10 +14829,10 @@
         <v>477</v>
       </c>
       <c r="C214" s="5">
-        <v>2649017.5</v>
+        <v>2655516</v>
       </c>
       <c r="D214" s="5">
-        <v>189501712</v>
+        <v>189966592</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>54</v>
@@ -14841,7 +14841,7 @@
         <v>2.349650382995605</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H214" s="5">
         <v>-0.53213970389995902</v>
@@ -14859,7 +14859,7 @@
         <v>-5.7950391818238138</v>
       </c>
       <c r="M214" s="5">
-        <v>0.80653200999840602</v>
+        <v>1.053828808521762</v>
       </c>
       <c r="N214" s="5">
         <v>-12.766891404216828</v>
@@ -14868,10 +14868,10 @@
         <v>23</v>
       </c>
       <c r="P214" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q214" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R214" s="5">
         <v>12.663001444802353</v>
@@ -14897,7 +14897,7 @@
         <v>73</v>
       </c>
       <c r="F215" s="5">
-        <v>6.7405476570129395</v>
+        <v>6.7405481338500977</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>0</v>
@@ -14960,25 +14960,25 @@
         <v>73</v>
       </c>
       <c r="H216" s="5">
-        <v>7.3169689310104008E-2</v>
+        <v>-0.10053585129374801</v>
       </c>
       <c r="I216" s="5">
-        <v>0.26574069461886601</v>
+        <v>0.14658537849074901</v>
       </c>
       <c r="J216" s="5">
-        <v>0.9037304285255181</v>
+        <v>0.74653798656065806</v>
       </c>
       <c r="K216" s="5">
-        <v>2.1280627797924718</v>
+        <v>2.063489420403775</v>
       </c>
       <c r="L216" s="5">
-        <v>2.877028194365217</v>
+        <v>2.6770603969850759</v>
       </c>
       <c r="M216" s="5">
-        <v>1.2960594587063889</v>
+        <v>1.1942206030025599</v>
       </c>
       <c r="N216" s="5">
-        <v>2.5492062873503811</v>
+        <v>2.4845244754344349</v>
       </c>
       <c r="O216" s="6" t="s">
         <v>73</v>
@@ -14993,7 +14993,7 @@
         <v>5.4710001945495614</v>
       </c>
       <c r="S216" s="5">
-        <v>5.4710001945495614</v>
+        <v>5.4654998779296884</v>
       </c>
     </row>
     <row r="217" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15004,10 +15004,10 @@
         <v>483</v>
       </c>
       <c r="C217" s="5">
-        <v>2496537.75</v>
+        <v>2502662.25</v>
       </c>
       <c r="D217" s="5">
-        <v>195535632</v>
+        <v>196015312</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>28</v>
@@ -15016,7 +15016,7 @@
         <v>3.5409188270568848</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H217" s="5">
         <v>4.4805144593707005E-2</v>
@@ -15034,7 +15034,7 @@
         <v>-8.3871964029136663</v>
       </c>
       <c r="M217" s="5">
-        <v>1.060740820820727</v>
+        <v>1.3086612398954371</v>
       </c>
       <c r="N217" s="5">
         <v>-19.456758207283531</v>
@@ -15046,7 +15046,7 @@
         <v>484</v>
       </c>
       <c r="Q217" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R217" s="5">
         <v>17.900362004279042</v>
@@ -15063,40 +15063,40 @@
         <v>486</v>
       </c>
       <c r="C218" s="5">
-        <v>2381562.5</v>
+        <v>2412508.25</v>
       </c>
       <c r="D218" s="5">
-        <v>858832384</v>
+        <v>861830464</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F218" s="5">
-        <v>0.57696509361267101</v>
+        <v>0.57683598995208707</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>260</v>
       </c>
       <c r="H218" s="5">
-        <v>-0.73720200788847101</v>
+        <v>0.65411652562963307</v>
       </c>
       <c r="I218" s="5">
-        <v>-1.105907950200258</v>
+        <v>-0.8194996702953431</v>
       </c>
       <c r="J218" s="5">
-        <v>-2.4602079120634719</v>
+        <v>-2.5097905059169312</v>
       </c>
       <c r="K218" s="5">
-        <v>2.9964865825359732</v>
+        <v>3.6862398707767641</v>
       </c>
       <c r="L218" s="5">
-        <v>-1.8245909888790821</v>
+        <v>0.170847617978476</v>
       </c>
       <c r="M218" s="5">
-        <v>2.1940855195730751</v>
+        <v>2.862553921172672</v>
       </c>
       <c r="N218" s="5">
-        <v>-10.109045985603892</v>
+        <v>-8.9771705671849222</v>
       </c>
       <c r="O218" s="6" t="s">
         <v>23</v>
@@ -15111,7 +15111,7 @@
         <v>35.523113198772094</v>
       </c>
       <c r="S218" s="5">
-        <v>30.672821044921875</v>
+        <v>30.873456954956055</v>
       </c>
     </row>
     <row r="219" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15181,19 +15181,19 @@
         <v>490</v>
       </c>
       <c r="C220" s="5">
-        <v>2335032.25</v>
+        <v>2340760.5</v>
       </c>
       <c r="D220" s="5">
-        <v>637159360</v>
+        <v>638722432</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F220" s="5">
-        <v>1.8072289228439331</v>
+        <v>1.8072290420532231</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H220" s="5">
         <v>-9.2102544402650005E-2</v>
@@ -15211,7 +15211,7 @@
         <v>-5.9818277348277604</v>
       </c>
       <c r="M220" s="5">
-        <v>0.94178860421512112</v>
+        <v>1.18941721181931</v>
       </c>
       <c r="N220" s="5">
         <v>-11.242959637405015</v>
@@ -15220,10 +15220,10 @@
         <v>23</v>
       </c>
       <c r="P220" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q220" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R220" s="5">
         <v>8.5590210442857408</v>
@@ -15237,174 +15237,174 @@
         <v>491</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="C221" s="5">
-        <v>2286318.5</v>
+        <v>2299925.25</v>
       </c>
       <c r="D221" s="5">
-        <v>376185184</v>
+        <v>365943904</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F221" s="5">
-        <v>5.4965381622314453</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F221" s="5"/>
       <c r="G221" s="6" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="H221" s="5">
-        <v>-0.39302726668194504</v>
+        <v>0.87516795542765802</v>
       </c>
       <c r="I221" s="5">
-        <v>-0.7173454009223531</v>
+        <v>-0.83994722576367109</v>
       </c>
       <c r="J221" s="5">
-        <v>0.71483709231874304</v>
+        <v>-2.5241602949748749</v>
       </c>
       <c r="K221" s="5">
-        <v>1.7387137901654359</v>
+        <v>3.6050485603737359</v>
       </c>
       <c r="L221" s="5">
-        <v>-1.0027926851237989</v>
+        <v>6.5272010106288011E-2</v>
       </c>
       <c r="M221" s="5">
-        <v>2.255337974361749</v>
+        <v>2.9727051335508352</v>
       </c>
       <c r="N221" s="5">
-        <v>-3.8258474156681821</v>
+        <v>-9.4493222095918039</v>
       </c>
       <c r="O221" s="6" t="s">
-        <v>23</v>
+        <v>493</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="Q221" s="6" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="R221" s="5">
-        <v>7.9323069805283568</v>
+        <v>36.518467044986608</v>
       </c>
       <c r="S221" s="5">
-        <v>7.2821650505065918</v>
+        <v>31.703018188476563</v>
       </c>
     </row>
     <row r="222" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A222" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="C222" s="5">
-        <v>2286131.5</v>
+        <v>2291927.25</v>
       </c>
       <c r="D222" s="5">
-        <v>534377248</v>
+        <v>377108032</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F222" s="5">
-        <v>7.4944906234741211</v>
+        <v>5.4965376853942871</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H222" s="5">
-        <v>-0.21531137375738801</v>
+        <v>-0.39302726668194504</v>
       </c>
       <c r="I222" s="5">
-        <v>-0.73774719160846203</v>
+        <v>-0.7173454009223531</v>
       </c>
       <c r="J222" s="5">
-        <v>-2.461672764953438</v>
+        <v>0.71483709231874304</v>
       </c>
       <c r="K222" s="5">
-        <v>1.193092787292982</v>
+        <v>1.7387137901654359</v>
       </c>
       <c r="L222" s="5">
-        <v>-3.6757897240618398</v>
+        <v>-1.0027926851237989</v>
       </c>
       <c r="M222" s="5">
-        <v>1.8470563392469552</v>
+        <v>2.5061889580110459</v>
       </c>
       <c r="N222" s="5">
-        <v>-12.958314105105885</v>
+        <v>-3.8258474156681821</v>
       </c>
       <c r="O222" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P222" s="6" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="Q222" s="6" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="R222" s="5">
-        <v>54.981399536132813</v>
+        <v>7.9323069805283568</v>
       </c>
       <c r="S222" s="5">
-        <v>41.709999084472656</v>
+        <v>7.2821650505065918</v>
       </c>
     </row>
     <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A223" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C223" s="5">
-        <v>2279397.5</v>
+        <v>2286131.5</v>
       </c>
       <c r="D223" s="5">
-        <v>364670880</v>
+        <v>534377248</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F223" s="5"/>
+      <c r="F223" s="5">
+        <v>7.4944901466369629</v>
+      </c>
       <c r="G223" s="6" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H223" s="5">
-        <v>-0.94719738282866806</v>
+        <v>-0.21531137375738801</v>
       </c>
       <c r="I223" s="5">
-        <v>-1.3551048082354189</v>
+        <v>-0.73774719160846203</v>
       </c>
       <c r="J223" s="5">
-        <v>-2.7167226767725543</v>
+        <v>-2.461672764953438</v>
       </c>
       <c r="K223" s="5">
-        <v>2.664376308169691</v>
+        <v>1.193092787292982</v>
       </c>
       <c r="L223" s="5">
-        <v>-2.275298285875949</v>
+        <v>-3.6757897240618398</v>
       </c>
       <c r="M223" s="5">
-        <v>2.0793394654371018</v>
+        <v>1.8470563392469552</v>
       </c>
       <c r="N223" s="5">
-        <v>-10.839205093467196</v>
+        <v>-12.958314105105885</v>
       </c>
       <c r="O223" s="6" t="s">
-        <v>496</v>
+        <v>23</v>
       </c>
       <c r="P223" s="6" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="Q223" s="6" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="R223" s="5">
-        <v>36.518467044986608</v>
+        <v>54.981399536132813</v>
       </c>
       <c r="S223" s="5">
-        <v>31.427968978881836</v>
+        <v>41.709999084472656</v>
       </c>
     </row>
     <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15415,55 +15415,55 @@
         <v>498</v>
       </c>
       <c r="C224" s="5">
-        <v>2209703.75</v>
+        <v>2252988.75</v>
       </c>
       <c r="D224" s="5">
-        <v>311648480</v>
+        <v>311987104</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F224" s="5">
-        <v>5.7240986824035645</v>
+        <v>5.7110223770141602</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H224" s="5">
-        <v>-0.85182924123579107</v>
+        <v>0.380768987181201</v>
       </c>
       <c r="I224" s="5">
-        <v>-2.0846450053042531</v>
+        <v>-0.94637505180278403</v>
       </c>
       <c r="J224" s="5">
-        <v>-1.7976618141718692</v>
+        <v>-1.2838540539902299</v>
       </c>
       <c r="K224" s="5">
-        <v>1.4267119661476531</v>
+        <v>2.2236256344774001</v>
       </c>
       <c r="L224" s="5">
-        <v>-4.3844713830763826</v>
+        <v>-3.43655752178742</v>
       </c>
       <c r="M224" s="5">
-        <v>0.79499695121674208</v>
+        <v>1.1787930402372251</v>
       </c>
       <c r="N224" s="5">
-        <v>-11.260164595881307</v>
+        <v>-10.422763613937015</v>
       </c>
       <c r="O224" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R224" s="5">
         <v>1.367475638186848</v>
       </c>
       <c r="S224" s="5">
-        <v>1.1486996412277219</v>
+        <v>1.153073668479919</v>
       </c>
     </row>
     <row r="225" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15530,117 +15530,117 @@
         <v>501</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="C226" s="5">
-        <v>2122792.5</v>
+        <v>2125075</v>
       </c>
       <c r="D226" s="5">
-        <v>1331215232</v>
+        <v>1838491264</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F226" s="5">
-        <v>3.1455898284912109</v>
+        <v>3.8961038589477539</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H226" s="5">
-        <v>-0.65980720878609</v>
+        <v>-3.8965924827683004E-2</v>
       </c>
       <c r="I226" s="5">
-        <v>-2.0939036162600182</v>
+        <v>-0.74376291489207702</v>
       </c>
       <c r="J226" s="5">
-        <v>-4.3213033969132342</v>
+        <v>-2.0819967074411361</v>
       </c>
       <c r="K226" s="5">
-        <v>1.94937983553507</v>
+        <v>2.1772125378116458</v>
       </c>
       <c r="L226" s="5">
-        <v>-10.139199953735867</v>
+        <v>-2.4240002552083362</v>
       </c>
       <c r="M226" s="5">
-        <v>1.196393959917486</v>
+        <v>1.9870311433307641</v>
       </c>
       <c r="N226" s="5">
-        <v>-24.164748051803318</v>
+        <v>-8.4953041140965126</v>
       </c>
       <c r="O226" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P226" s="6" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q226" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R226" s="5">
-        <v>5.3000001907348633</v>
+        <v>14.435015589528053</v>
       </c>
       <c r="S226" s="5">
-        <v>3.7639999389648442</v>
+        <v>12.562106132507324</v>
       </c>
     </row>
     <row r="227" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A227" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>451</v>
-      </c>
       <c r="C227" s="5">
-        <v>2119874.5</v>
+        <v>2122792.5</v>
       </c>
       <c r="D227" s="5">
-        <v>1833992192</v>
+        <v>1331215232</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F227" s="5">
-        <v>3.8961038589477539</v>
+        <v>3.129791259765625</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H227" s="5">
-        <v>-3.8965924827683004E-2</v>
+        <v>0.50478357369439009</v>
       </c>
       <c r="I227" s="5">
-        <v>-0.74376291489207702</v>
+        <v>-1.84224435639605</v>
       </c>
       <c r="J227" s="5">
-        <v>-2.0819967074411361</v>
+        <v>-3.7037023550488102</v>
       </c>
       <c r="K227" s="5">
-        <v>2.1772125378116458</v>
+        <v>2.862107531164515</v>
       </c>
       <c r="L227" s="5">
-        <v>-2.4240002552083362</v>
+        <v>-8.359660039536843</v>
       </c>
       <c r="M227" s="5">
-        <v>1.7374506317359371</v>
+        <v>1.7072167337982109</v>
       </c>
       <c r="N227" s="5">
-        <v>-8.4953041140965126</v>
+        <v>-24.16838072232451</v>
       </c>
       <c r="O227" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="Q227" s="6" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="R227" s="5">
-        <v>14.435015589528053</v>
+        <v>5.3000001907348633</v>
       </c>
       <c r="S227" s="5">
-        <v>12.562106132507324</v>
+        <v>3.782999992370605</v>
       </c>
     </row>
     <row r="228" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15660,31 +15660,31 @@
         <v>28</v>
       </c>
       <c r="F228" s="5">
-        <v>2.2494959831237789</v>
+        <v>2.2501940727233891</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H228" s="5">
-        <v>4.1368797383323004E-2</v>
+        <v>-3.1017712281212001E-2</v>
       </c>
       <c r="I228" s="5">
-        <v>-0.170314740096178</v>
+        <v>-0.22702773177283303</v>
       </c>
       <c r="J228" s="5">
-        <v>-0.39650066146301705</v>
+        <v>-0.524720549237911</v>
       </c>
       <c r="K228" s="5">
-        <v>1.154384377672413</v>
+        <v>1.049438704864847</v>
       </c>
       <c r="L228" s="5">
-        <v>5.3487115364130007E-3</v>
+        <v>-4.1016269576588001E-2</v>
       </c>
       <c r="M228" s="5">
-        <v>0.59808295391365907</v>
+        <v>0.56687972998259506</v>
       </c>
       <c r="N228" s="5">
-        <v>-2.3304091949715389</v>
+        <v>-2.30742854464564</v>
       </c>
       <c r="O228" s="6" t="s">
         <v>23</v>
@@ -15699,7 +15699,7 @@
         <v>101.25</v>
       </c>
       <c r="S228" s="5">
-        <v>96.714996337890625</v>
+        <v>96.68499755859375</v>
       </c>
     </row>
     <row r="229" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15710,40 +15710,40 @@
         <v>507</v>
       </c>
       <c r="C229" s="5">
-        <v>2078914.5</v>
+        <v>2080471.375</v>
       </c>
       <c r="D229" s="5">
-        <v>359091040</v>
+        <v>359359936</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>301</v>
       </c>
       <c r="F229" s="5">
-        <v>1.193694949150085</v>
+        <v>1.192691445350647</v>
       </c>
       <c r="G229" s="6" t="s">
         <v>429</v>
       </c>
       <c r="H229" s="5">
-        <v>-0.13748908489181802</v>
+        <v>0.21736434133885502</v>
       </c>
       <c r="I229" s="5">
-        <v>-1.20496955950764</v>
+        <v>-1.664591009981331</v>
       </c>
       <c r="J229" s="5">
-        <v>-4.5229135330447026</v>
+        <v>-5.5029709224274637</v>
       </c>
       <c r="K229" s="5">
-        <v>1.4720053389753129</v>
+        <v>1.5379145373187519</v>
       </c>
       <c r="L229" s="5">
-        <v>-6.5500265926525465</v>
+        <v>-4.0015359055204591</v>
       </c>
       <c r="M229" s="5">
-        <v>-0.57222472618893006</v>
+        <v>-0.35610419735714305</v>
       </c>
       <c r="N229" s="5">
-        <v>-22.6978207653856</v>
+        <v>-22.467795315904603</v>
       </c>
       <c r="O229" s="6" t="s">
         <v>23</v>
@@ -15755,10 +15755,10 @@
         <v>305</v>
       </c>
       <c r="R229" s="5">
-        <v>7.1089138648986809</v>
+        <v>7.0933491118431089</v>
       </c>
       <c r="S229" s="5">
-        <v>5.3570132255554199</v>
+        <v>5.3686575889587402</v>
       </c>
     </row>
     <row r="230" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15769,114 +15769,114 @@
         <v>509</v>
       </c>
       <c r="C230" s="5">
-        <v>2026692.125</v>
+        <v>2032478.75</v>
       </c>
       <c r="D230" s="5">
-        <v>528129024</v>
+        <v>310067456</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>510</v>
+        <v>67</v>
       </c>
       <c r="F230" s="5">
-        <v>2.2020399570465088</v>
+        <v>3.779125452041626</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="H230" s="5">
-        <v>-0.208888360558868</v>
+        <v>0.98954123765899704</v>
       </c>
       <c r="I230" s="5">
-        <v>-1.314555423360475</v>
+        <v>-1.3045440040076131</v>
       </c>
       <c r="J230" s="5">
-        <v>-1.673061593437408</v>
+        <v>-3.227245853506544</v>
       </c>
       <c r="K230" s="5">
-        <v>1.715320908297824</v>
+        <v>1.8846629304534401</v>
       </c>
       <c r="L230" s="5">
-        <v>-9.7178438541201007E-2</v>
+        <v>-9.3668218705575725</v>
       </c>
       <c r="M230" s="5">
-        <v>0.46611101204769906</v>
+        <v>1.57834719987695</v>
       </c>
       <c r="N230" s="5">
-        <v>-4.3067384939200366</v>
+        <v>-22.879737867017781</v>
       </c>
       <c r="O230" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P230" s="6" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="Q230" s="6" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="R230" s="5">
-        <v>56.310001373291016</v>
+        <v>1.4267016354554509</v>
       </c>
       <c r="S230" s="5">
-        <v>52.549999237060547</v>
+        <v>1.0315761566162109</v>
       </c>
     </row>
     <row r="231" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A231" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="C231" s="5">
+        <v>2026692.125</v>
+      </c>
+      <c r="D231" s="5">
+        <v>528129024</v>
+      </c>
+      <c r="E231" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C231" s="5">
-        <v>2019585.25</v>
-      </c>
-      <c r="D231" s="5">
-        <v>346270976</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F231" s="5">
-        <v>4.1763343811035156</v>
+        <v>2.2020399570465088</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H231" s="5">
-        <v>-8.3929128318261007E-2</v>
+        <v>-0.208888360558868</v>
       </c>
       <c r="I231" s="5">
-        <v>-1.4530532068830151</v>
+        <v>-1.314555423360475</v>
       </c>
       <c r="J231" s="5">
-        <v>-2.8827757815554129</v>
+        <v>-1.673061593437408</v>
       </c>
       <c r="K231" s="5">
-        <v>-0.32705938073325203</v>
+        <v>1.715320908297824</v>
       </c>
       <c r="L231" s="5">
-        <v>-5.0923331222402997</v>
+        <v>-9.7178438541201007E-2</v>
       </c>
       <c r="M231" s="5">
-        <v>1.223496185744821</v>
+        <v>0.46611101204769906</v>
       </c>
       <c r="N231" s="5">
-        <v>-11.659927227160916</v>
+        <v>-4.3067384939200366</v>
       </c>
       <c r="O231" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P231" s="6" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="Q231" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R231" s="5">
-        <v>11.346229676714634</v>
+        <v>56.310001373291016</v>
       </c>
       <c r="S231" s="5">
-        <v>9.5884313583374023</v>
+        <v>52.549999237060547</v>
       </c>
     </row>
     <row r="232" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15887,53 +15887,55 @@
         <v>514</v>
       </c>
       <c r="C232" s="5">
-        <v>1988592.75</v>
+        <v>2024539.625</v>
       </c>
       <c r="D232" s="5">
-        <v>1520056064</v>
+        <v>347120448</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F232" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F232" s="5">
+        <v>4.1763343811035156</v>
+      </c>
       <c r="G232" s="6" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="H232" s="5">
-        <v>-0.46713540252603103</v>
+        <v>-8.3929128318261007E-2</v>
       </c>
       <c r="I232" s="5">
-        <v>-0.89578031548796011</v>
+        <v>-1.4530532068830151</v>
       </c>
       <c r="J232" s="5">
-        <v>-2.4253753070811901</v>
+        <v>-2.8827757815554129</v>
       </c>
       <c r="K232" s="5">
-        <v>1.5802940418717442</v>
+        <v>-0.32705938073325203</v>
       </c>
       <c r="L232" s="5">
-        <v>-1.2953592538809231</v>
+        <v>-5.0923331222402997</v>
       </c>
       <c r="M232" s="5">
-        <v>1.0184303626449061</v>
+        <v>1.471815873397508</v>
       </c>
       <c r="N232" s="5">
-        <v>-4.1006882304524774</v>
+        <v>-11.659927227160916</v>
       </c>
       <c r="O232" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q232" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R232" s="5">
-        <v>6.0780000686645508</v>
+        <v>11.346229676714634</v>
       </c>
       <c r="S232" s="5">
-        <v>5.7529997825622559</v>
+        <v>9.5884313583374023</v>
       </c>
     </row>
     <row r="233" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15944,55 +15946,53 @@
         <v>516</v>
       </c>
       <c r="C233" s="5">
-        <v>1964474.875</v>
+        <v>1988592.75</v>
       </c>
       <c r="D233" s="5">
-        <v>603109504</v>
+        <v>1520056064</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F233" s="5">
-        <v>2.8420922756195068</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F233" s="5"/>
       <c r="G233" s="6" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H233" s="5">
-        <v>-0.63681464944045407</v>
+        <v>0.53016535963992306</v>
       </c>
       <c r="I233" s="5">
-        <v>-1.9261978280976091</v>
+        <v>-0.40468339967886202</v>
       </c>
       <c r="J233" s="5">
-        <v>-2.4911918434039841</v>
+        <v>-1.355956381802204</v>
       </c>
       <c r="K233" s="5">
-        <v>1.796611255337432</v>
+        <v>1.607524309522268</v>
       </c>
       <c r="L233" s="5">
-        <v>-1.618107183375139</v>
+        <v>0.23397250723871102</v>
       </c>
       <c r="M233" s="5">
-        <v>0.41711427719528504</v>
+        <v>1.5539950872796251</v>
       </c>
       <c r="N233" s="5">
-        <v>-7.6682863673533603</v>
+        <v>-3.3828911530378041</v>
       </c>
       <c r="O233" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P233" s="6" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="Q233" s="6" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R233" s="5">
-        <v>26.940000534057617</v>
+        <v>6.0780000686645508</v>
       </c>
       <c r="S233" s="5">
-        <v>24.184999465942383</v>
+        <v>5.7835001945495614</v>
       </c>
     </row>
     <row r="234" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16003,55 +16003,55 @@
         <v>518</v>
       </c>
       <c r="C234" s="5">
-        <v>1941753.75</v>
+        <v>1964474.875</v>
       </c>
       <c r="D234" s="5">
-        <v>700080768</v>
+        <v>603109504</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="F234" s="5">
-        <v>6.5873737335205078</v>
+        <v>2.8286952972412109</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>0.15678508140171102</v>
+        <v>-0.63681464944045407</v>
       </c>
       <c r="I234" s="5">
-        <v>-1.325798500727271</v>
+        <v>-1.9261978280976091</v>
       </c>
       <c r="J234" s="5">
-        <v>-1.745167234942357</v>
+        <v>-2.4911918434039841</v>
       </c>
       <c r="K234" s="5">
-        <v>1.8290335274673941</v>
+        <v>1.796611255337432</v>
       </c>
       <c r="L234" s="5">
-        <v>-5.7020218513747167</v>
+        <v>-1.618107183375139</v>
       </c>
       <c r="M234" s="5">
-        <v>2.759818472796693</v>
+        <v>0.41711427719528504</v>
       </c>
       <c r="N234" s="5">
-        <v>-11.573209658263639</v>
+        <v>-7.6682863673533603</v>
       </c>
       <c r="O234" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="Q234" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="R234" s="5">
-        <v>9.8697196999605215</v>
+        <v>26.940000534057617</v>
       </c>
       <c r="S234" s="5">
-        <v>8.1053028106689453</v>
+        <v>24.184999465942383</v>
       </c>
     </row>
     <row r="235" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16062,53 +16062,55 @@
         <v>520</v>
       </c>
       <c r="C235" s="5">
-        <v>1918914.125</v>
+        <v>1946517.25</v>
       </c>
       <c r="D235" s="5">
-        <v>641291008</v>
+        <v>701798144</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F235" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="F235" s="5">
+        <v>6.587374210357666</v>
+      </c>
       <c r="G235" s="6" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="H235" s="5">
-        <v>9.259573927189001E-3</v>
+        <v>0.15678508140171102</v>
       </c>
       <c r="I235" s="5">
-        <v>0.139020791249167</v>
+        <v>-1.325798500727271</v>
       </c>
       <c r="J235" s="5">
-        <v>0.41821631353833305</v>
+        <v>-1.745167234942357</v>
       </c>
       <c r="K235" s="5">
-        <v>1.3412174705769391</v>
+        <v>1.8290335274673941</v>
       </c>
       <c r="L235" s="5">
-        <v>2.0302185976394989</v>
+        <v>-5.7020218513747167</v>
       </c>
       <c r="M235" s="5">
-        <v>0.64269973685127102</v>
+        <v>3.011907039067796</v>
       </c>
       <c r="N235" s="5">
-        <v>2.117001891755943</v>
+        <v>-11.573209658263639</v>
       </c>
       <c r="O235" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q235" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R235" s="5">
-        <v>5.4070000648498544</v>
+        <v>9.8697196999605215</v>
       </c>
       <c r="S235" s="5">
-        <v>5.4025001525878906</v>
+        <v>8.1053028106689453</v>
       </c>
     </row>
     <row r="236" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16119,10 +16121,10 @@
         <v>522</v>
       </c>
       <c r="C236" s="5">
-        <v>1904727.25</v>
+        <v>1918914.125</v>
       </c>
       <c r="D236" s="5">
-        <v>230500192</v>
+        <v>641291008</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>28</v>
@@ -16132,40 +16134,40 @@
         <v>73</v>
       </c>
       <c r="H236" s="5">
-        <v>-0.32049185652166501</v>
+        <v>2.7758497365893003E-2</v>
       </c>
       <c r="I236" s="5">
-        <v>-0.75705895201883011</v>
+        <v>0.10187718473078101</v>
       </c>
       <c r="J236" s="5">
-        <v>-0.14058959034284302</v>
+        <v>0.40876692851659102</v>
       </c>
       <c r="K236" s="5">
-        <v>0.13311035331204901</v>
+        <v>1.426421467838646</v>
       </c>
       <c r="L236" s="5">
-        <v>-2.2561392557368443</v>
+        <v>2.0392711774537502</v>
       </c>
       <c r="M236" s="5">
-        <v>1.106210073786196</v>
+        <v>0.67063663800668305</v>
       </c>
       <c r="N236" s="5">
-        <v>-3.9965699210844363</v>
+        <v>2.106750797829426</v>
       </c>
       <c r="O236" s="6" t="s">
         <v>73</v>
       </c>
       <c r="P236" s="6" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="Q236" s="6" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="R236" s="5">
-        <v>43.182547443525742</v>
+        <v>5.4070000648498544</v>
       </c>
       <c r="S236" s="5">
-        <v>40.763813018798828</v>
+        <v>5.4039998054504395</v>
       </c>
     </row>
     <row r="237" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16176,53 +16178,53 @@
         <v>524</v>
       </c>
       <c r="C237" s="5">
-        <v>1884278.375</v>
+        <v>1909399.875</v>
       </c>
       <c r="D237" s="5">
-        <v>454030528</v>
+        <v>231065648</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H237" s="5">
-        <v>-0.68077641152384205</v>
+        <v>-0.32049185652166501</v>
       </c>
       <c r="I237" s="5">
-        <v>-2.0553641322918259</v>
+        <v>-0.75705895201883011</v>
       </c>
       <c r="J237" s="5">
-        <v>-4.1879286174656531</v>
+        <v>-0.14058959034284302</v>
       </c>
       <c r="K237" s="5">
-        <v>1.754384169630518</v>
+        <v>0.13311035331204901</v>
       </c>
       <c r="L237" s="5">
-        <v>-10.156328494034906</v>
+        <v>-2.2561392557368443</v>
       </c>
       <c r="M237" s="5">
-        <v>0.87224527760789705</v>
+        <v>1.3542420372267832</v>
       </c>
       <c r="N237" s="5">
-        <v>-24.111719097129313</v>
+        <v>-3.9965699210844363</v>
       </c>
       <c r="O237" s="6" t="s">
         <v>73</v>
       </c>
       <c r="P237" s="6" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q237" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R237" s="5">
-        <v>6.4899997711181641</v>
+        <v>43.182547443525742</v>
       </c>
       <c r="S237" s="5">
-        <v>4.7414999008178711</v>
+        <v>40.763813018798828</v>
       </c>
     </row>
     <row r="238" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16233,55 +16235,53 @@
         <v>526</v>
       </c>
       <c r="C238" s="5">
-        <v>1865306.125</v>
+        <v>1884278.375</v>
       </c>
       <c r="D238" s="5">
-        <v>309730912</v>
+        <v>454030528</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F238" s="5">
-        <v>3.810750007629395</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F238" s="5"/>
       <c r="G238" s="6" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="H238" s="5">
-        <v>-2.0993298063596288</v>
+        <v>0.50090278756906903</v>
       </c>
       <c r="I238" s="5">
-        <v>-3.4936047086979283</v>
+        <v>-1.75247802459193</v>
       </c>
       <c r="J238" s="5">
-        <v>-4.3112553097792166</v>
+        <v>-3.7323153614204241</v>
       </c>
       <c r="K238" s="5">
-        <v>0.73151477340389603</v>
+        <v>2.8101396047446991</v>
       </c>
       <c r="L238" s="5">
-        <v>-11.20283852527939</v>
+        <v>-8.3164983906345302</v>
       </c>
       <c r="M238" s="5">
-        <v>0.58303657487888105</v>
+        <v>1.377517166086939</v>
       </c>
       <c r="N238" s="5">
-        <v>-23.601998654032407</v>
+        <v>-24.108132606450916</v>
       </c>
       <c r="O238" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P238" s="6" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="Q238" s="6" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="R238" s="5">
-        <v>1.4267016354554509</v>
+        <v>6.4899997711181641</v>
       </c>
       <c r="S238" s="5">
-        <v>1.0214682817459111</v>
+        <v>4.7652502059936523</v>
       </c>
     </row>
     <row r="239" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16292,10 +16292,10 @@
         <v>431</v>
       </c>
       <c r="C239" s="5">
-        <v>1857971.5</v>
+        <v>1862529.375</v>
       </c>
       <c r="D239" s="5">
-        <v>723826496</v>
+        <v>725602112</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>43</v>
@@ -16304,7 +16304,7 @@
         <v>2.7020785808563232</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H239" s="5">
         <v>-0.22020555278757803</v>
@@ -16322,7 +16322,7 @@
         <v>-2.8980026237346523</v>
       </c>
       <c r="M239" s="5">
-        <v>1.7269896646289422</v>
+        <v>1.9765445135645709</v>
       </c>
       <c r="N239" s="5">
         <v>-7.3630971919554034</v>
@@ -16331,10 +16331,10 @@
         <v>23</v>
       </c>
       <c r="P239" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q239" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R239" s="5">
         <v>14.291354426742778</v>
@@ -16351,10 +16351,10 @@
         <v>529</v>
       </c>
       <c r="C240" s="5">
-        <v>1851405.5</v>
+        <v>1855947.25</v>
       </c>
       <c r="D240" s="5">
-        <v>380351488</v>
+        <v>381284576</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>73</v>
@@ -16363,7 +16363,7 @@
         <v>0.7893873453140261</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H240" s="5">
         <v>-0.19983841689225101</v>
@@ -16381,7 +16381,7 @@
         <v>-9.463242185723054</v>
       </c>
       <c r="M240" s="5">
-        <v>1.3446879682388559</v>
+        <v>1.5933049614254462</v>
       </c>
       <c r="N240" s="5">
         <v>-13.832053470858463</v>
@@ -16393,7 +16393,7 @@
         <v>484</v>
       </c>
       <c r="Q240" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R240" s="5">
         <v>85.729923676322187</v>
@@ -16410,40 +16410,40 @@
         <v>531</v>
       </c>
       <c r="C241" s="5">
-        <v>1849734.125</v>
+        <v>1851119.375</v>
       </c>
       <c r="D241" s="5">
-        <v>1861402752</v>
+        <v>1862796672</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F241" s="5">
-        <v>2.689240694046021</v>
+        <v>2.6859691143035889</v>
       </c>
       <c r="G241" s="6" t="s">
         <v>429</v>
       </c>
       <c r="H241" s="5">
-        <v>-0.17362622003828102</v>
+        <v>0.2550797866401</v>
       </c>
       <c r="I241" s="5">
-        <v>-1.0800763387150301</v>
+        <v>-1.542469951494529</v>
       </c>
       <c r="J241" s="5">
-        <v>-2.7239752244757609</v>
+        <v>-3.249491588508735</v>
       </c>
       <c r="K241" s="5">
-        <v>2.9827404401617352</v>
+        <v>2.994014075810258</v>
       </c>
       <c r="L241" s="5">
-        <v>-3.8965222130378012</v>
+        <v>-0.94155410168307307</v>
       </c>
       <c r="M241" s="5">
-        <v>1.641481389499688</v>
+        <v>1.900748263365859</v>
       </c>
       <c r="N241" s="5">
-        <v>-21.804663323417529</v>
+        <v>-21.434670736968563</v>
       </c>
       <c r="O241" s="6" t="s">
         <v>324</v>
@@ -16455,10 +16455,10 @@
         <v>305</v>
       </c>
       <c r="R241" s="5">
-        <v>195.45936170959473</v>
+        <v>195.06812370758058</v>
       </c>
       <c r="S241" s="5">
-        <v>148.02630615234375</v>
+        <v>148.40388488769531</v>
       </c>
     </row>
     <row r="242" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16469,10 +16469,10 @@
         <v>533</v>
       </c>
       <c r="C242" s="5">
-        <v>1811995.5</v>
+        <v>1816440.625</v>
       </c>
       <c r="D242" s="5">
-        <v>617987200</v>
+        <v>619503232</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>73</v>
@@ -16481,7 +16481,7 @@
         <v>5.5356230735778809</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H242" s="5">
         <v>-0.291279885027729</v>
@@ -16499,7 +16499,7 @@
         <v>-8.2334191519510149</v>
       </c>
       <c r="M242" s="5">
-        <v>7.1949540985502214</v>
+        <v>7.4579228609692905</v>
       </c>
       <c r="N242" s="5">
         <v>-16.223737750591372</v>
@@ -16508,10 +16508,10 @@
         <v>23</v>
       </c>
       <c r="P242" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q242" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R242" s="5">
         <v>18.471643276147375</v>
@@ -16528,10 +16528,10 @@
         <v>535</v>
       </c>
       <c r="C243" s="5">
-        <v>1752894</v>
+        <v>1757194.125</v>
       </c>
       <c r="D243" s="5">
-        <v>365436032</v>
+        <v>366332512</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>73</v>
@@ -16540,7 +16540,7 @@
         <v>2.7608973979949951</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H243" s="5">
         <v>-0.39302726668194504</v>
@@ -16558,7 +16558,7 @@
         <v>-3.8172102237093331</v>
       </c>
       <c r="M243" s="5">
-        <v>1.590211978144529</v>
+        <v>1.839431286482718</v>
       </c>
       <c r="N243" s="5">
         <v>-11.433828743184716</v>
@@ -16567,10 +16567,10 @@
         <v>23</v>
       </c>
       <c r="P243" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q243" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R243" s="5">
         <v>16.320568556094706</v>
@@ -16587,40 +16587,40 @@
         <v>537</v>
       </c>
       <c r="C244" s="5">
-        <v>1628629</v>
+        <v>1684665</v>
       </c>
       <c r="D244" s="5">
-        <v>385621824</v>
+        <v>386967968</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F244" s="5">
-        <v>3.6091418266296391</v>
+        <v>3.6133465766906738</v>
       </c>
       <c r="G244" s="6" t="s">
         <v>260</v>
       </c>
       <c r="H244" s="5">
-        <v>-0.45420598679970503</v>
+        <v>0.58200768892298105</v>
       </c>
       <c r="I244" s="5">
-        <v>-0.59753106987503501</v>
+        <v>-0.77508284506915304</v>
       </c>
       <c r="J244" s="5">
-        <v>-0.88271948131166711</v>
+        <v>-9.9427838679278013E-2</v>
       </c>
       <c r="K244" s="5">
-        <v>4.6229693768480962</v>
+        <v>5.2659846488949391</v>
       </c>
       <c r="L244" s="5">
-        <v>1.2705372881886219</v>
+        <v>2.5709035889876608</v>
       </c>
       <c r="M244" s="5">
-        <v>1.579841874415866</v>
+        <v>2.1710443645207582</v>
       </c>
       <c r="N244" s="5">
-        <v>-2.655000618573478</v>
+        <v>-1.5917337299882099</v>
       </c>
       <c r="O244" s="6" t="s">
         <v>23</v>
@@ -16635,7 +16635,7 @@
         <v>19.501279916634147</v>
       </c>
       <c r="S244" s="5">
-        <v>17.697971343994141</v>
+        <v>17.800973892211914</v>
       </c>
     </row>
     <row r="245" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16646,19 +16646,19 @@
         <v>539</v>
       </c>
       <c r="C245" s="5">
-        <v>1556375.25</v>
+        <v>1560193.25</v>
       </c>
       <c r="D245" s="5">
-        <v>863854656</v>
+        <v>865973888</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F245" s="5">
-        <v>7.4910955429077148</v>
+        <v>7.491096019744873</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H245" s="5">
         <v>-0.50660679616511006</v>
@@ -16676,7 +16676,7 @@
         <v>-3.308938256491412</v>
       </c>
       <c r="M245" s="5">
-        <v>4.0534354046507293</v>
+        <v>4.3086974490624153</v>
       </c>
       <c r="N245" s="5">
         <v>-8.3749368262143733</v>
@@ -16685,10 +16685,10 @@
         <v>23</v>
       </c>
       <c r="P245" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q245" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R245" s="5">
         <v>15.190889103350674</v>
@@ -16705,40 +16705,40 @@
         <v>541</v>
       </c>
       <c r="C246" s="5">
-        <v>1522719.5</v>
+        <v>1523859.875</v>
       </c>
       <c r="D246" s="5">
-        <v>597110784</v>
+        <v>597557952</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F246" s="5">
-        <v>1.8838375806808472</v>
+        <v>1.881929278373718</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>429</v>
       </c>
       <c r="H246" s="5">
-        <v>1.9326550325371002E-2</v>
+        <v>0.23464947397875402</v>
       </c>
       <c r="I246" s="5">
-        <v>-0.8661773969292571</v>
+        <v>-1.254838061960883</v>
       </c>
       <c r="J246" s="5">
-        <v>-3.2005422535704491</v>
+        <v>-4.0645973167636633</v>
       </c>
       <c r="K246" s="5">
-        <v>1.9007056741262569</v>
+        <v>1.6079487117074409</v>
       </c>
       <c r="L246" s="5">
-        <v>-4.1806230446313268</v>
+        <v>-1.6033389133072622</v>
       </c>
       <c r="M246" s="5">
-        <v>7.2251658960676007E-2</v>
+        <v>0.30707067107709202</v>
       </c>
       <c r="N246" s="5">
-        <v>-19.535382797732701</v>
+        <v>-19.143955766361277</v>
       </c>
       <c r="O246" s="6" t="s">
         <v>23</v>
@@ -16750,10 +16750,10 @@
         <v>305</v>
       </c>
       <c r="R246" s="5">
-        <v>6.7562590545654304</v>
+        <v>6.7460226296424874</v>
       </c>
       <c r="S246" s="5">
-        <v>5.3341751098632812</v>
+        <v>5.3466916084289551</v>
       </c>
     </row>
     <row r="247" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16823,19 +16823,19 @@
         <v>545</v>
       </c>
       <c r="C248" s="5">
-        <v>1473381.125</v>
+        <v>1476995.625</v>
       </c>
       <c r="D248" s="5">
-        <v>233518576</v>
+        <v>234091440</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F248" s="5">
-        <v>1.9879518747329712</v>
+        <v>1.9879517555236821</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H248" s="5">
         <v>-0.31797093672035803</v>
@@ -16853,7 +16853,7 @@
         <v>-4.124054197284055</v>
       </c>
       <c r="M248" s="5">
-        <v>0.65025062953052404</v>
+        <v>0.89716404133986005</v>
       </c>
       <c r="N248" s="5">
         <v>-8.2985220948280656</v>
@@ -16862,10 +16862,10 @@
         <v>23</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q248" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R248" s="5">
         <v>11.014607034555972</v>
@@ -16882,55 +16882,55 @@
         <v>547</v>
       </c>
       <c r="C249" s="5">
-        <v>1450674</v>
+        <v>1467321.125</v>
       </c>
       <c r="D249" s="5">
-        <v>2107496064</v>
+        <v>636981376</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F249" s="5">
-        <v>4.0449438095092773</v>
+        <v>3.097643136978149</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H249" s="5">
-        <v>-1.9674244686017079</v>
+        <v>0.95488436106752106</v>
       </c>
       <c r="I249" s="5">
-        <v>-3.1495593959471662</v>
+        <v>-1.2272935415525321</v>
       </c>
       <c r="J249" s="5">
-        <v>-5.3481820579005195</v>
+        <v>-3.4711560896367732</v>
       </c>
       <c r="K249" s="5">
-        <v>1.760585318614627</v>
+        <v>2.2546523835787369</v>
       </c>
       <c r="L249" s="5">
-        <v>-8.7654134718126446</v>
+        <v>-9.4902186622969005</v>
       </c>
       <c r="M249" s="5">
-        <v>0.39407216552840302</v>
+        <v>1.8801964322887832</v>
       </c>
       <c r="N249" s="5">
-        <v>-16.893050347872173</v>
+        <v>-23.276264747775777</v>
       </c>
       <c r="O249" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P249" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q249" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R249" s="5">
-        <v>1.4944367749289871</v>
+        <v>1.4889627901722051</v>
       </c>
       <c r="S249" s="5">
-        <v>1.1703981161117549</v>
+        <v>1.075697183609009</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16941,40 +16941,40 @@
         <v>549</v>
       </c>
       <c r="C250" s="5">
-        <v>1439738.625</v>
+        <v>1440816.875</v>
       </c>
       <c r="D250" s="5">
-        <v>1750931584</v>
+        <v>1752242816</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F250" s="5">
-        <v>1.7728099822998051</v>
+        <v>1.7697668075561519</v>
       </c>
       <c r="G250" s="6" t="s">
         <v>429</v>
       </c>
       <c r="H250" s="5">
-        <v>-8.1151515973277008E-2</v>
+        <v>0.30530112681497201</v>
       </c>
       <c r="I250" s="5">
-        <v>-0.65270120766530704</v>
+        <v>-0.93086314632632206</v>
       </c>
       <c r="J250" s="5">
-        <v>-1.6302836516357222</v>
+        <v>-2.2462815036928041</v>
       </c>
       <c r="K250" s="5">
-        <v>4.0617596581833837</v>
+        <v>3.9996307948385161</v>
       </c>
       <c r="L250" s="5">
-        <v>0.35132147887349002</v>
+        <v>2.8087267090704859</v>
       </c>
       <c r="M250" s="5">
-        <v>1.052078588859096</v>
+        <v>1.3605917234608129</v>
       </c>
       <c r="N250" s="5">
-        <v>-13.978195802967818</v>
+        <v>-13.501217644492126</v>
       </c>
       <c r="O250" s="6" t="s">
         <v>324</v>
@@ -16986,10 +16986,10 @@
         <v>305</v>
       </c>
       <c r="R250" s="5">
-        <v>140.61242742919922</v>
+        <v>140.24929551086424</v>
       </c>
       <c r="S250" s="5">
-        <v>118.82971954345703</v>
+        <v>119.1925048828125</v>
       </c>
     </row>
     <row r="251" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17000,55 +17000,55 @@
         <v>551</v>
       </c>
       <c r="C251" s="5">
-        <v>1435681.25</v>
+        <v>1415741</v>
       </c>
       <c r="D251" s="5">
-        <v>636290048</v>
+        <v>300589344</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F251" s="5">
-        <v>3.1224930286407471</v>
+        <v>3.089108943939209</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>255</v>
+        <v>429</v>
       </c>
       <c r="H251" s="5">
-        <v>-1.8812445396002351</v>
+        <v>0.67422137990167408</v>
       </c>
       <c r="I251" s="5">
-        <v>-3.3586053595570098</v>
+        <v>-2.6134060569466881</v>
       </c>
       <c r="J251" s="5">
-        <v>-4.5196670961443637</v>
+        <v>-6.554259777277105</v>
       </c>
       <c r="K251" s="5">
-        <v>1.0719097045825301</v>
+        <v>3.8636580359967532</v>
       </c>
       <c r="L251" s="5">
-        <v>-11.431639474324095</v>
+        <v>-7.8797896452868716</v>
       </c>
       <c r="M251" s="5">
-        <v>0.91655998328112909</v>
+        <v>0.87871132632817406</v>
       </c>
       <c r="N251" s="5">
-        <v>-23.950473899311941</v>
+        <v>-33.91255255134211</v>
       </c>
       <c r="O251" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="Q251" s="6" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="R251" s="5">
-        <v>1.4889627901722051</v>
+        <v>6.7137461945533747</v>
       </c>
       <c r="S251" s="5">
-        <v>1.0655225515365601</v>
+        <v>4.2547259330749512</v>
       </c>
     </row>
     <row r="252" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17059,55 +17059,55 @@
         <v>553</v>
       </c>
       <c r="C252" s="5">
-        <v>1414681.625</v>
+        <v>1410005.25</v>
       </c>
       <c r="D252" s="5">
-        <v>300364416</v>
+        <v>315176928</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F252" s="5">
-        <v>3.105802059173584</v>
+        <v>3.0065360069274898</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>429</v>
+        <v>170</v>
       </c>
       <c r="H252" s="5">
-        <v>-0.68823313546313403</v>
+        <v>-0.23000066607540301</v>
       </c>
       <c r="I252" s="5">
-        <v>-2.412530845668837</v>
+        <v>-1.5096223771746349</v>
       </c>
       <c r="J252" s="5">
-        <v>-6.3166820584687589</v>
+        <v>-2.920447053427877</v>
       </c>
       <c r="K252" s="5">
-        <v>2.726654208060042</v>
+        <v>-0.291663269411369</v>
       </c>
       <c r="L252" s="5">
-        <v>-11.51519894826315</v>
+        <v>-4.9036012352876135</v>
       </c>
       <c r="M252" s="5">
-        <v>0.20312046482569002</v>
+        <v>1.3669702489708111</v>
       </c>
       <c r="N252" s="5">
-        <v>-34.225361925561771</v>
+        <v>-11.393712203788242</v>
       </c>
       <c r="O252" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P252" s="6" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="Q252" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R252" s="5">
-        <v>6.7137461945533747</v>
+        <v>16.020529739855778</v>
       </c>
       <c r="S252" s="5">
-        <v>4.2262320518493652</v>
+        <v>13.615128517150879</v>
       </c>
     </row>
     <row r="253" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17118,55 +17118,55 @@
         <v>555</v>
       </c>
       <c r="C253" s="5">
-        <v>1413339</v>
+        <v>1403718</v>
       </c>
       <c r="D253" s="5">
-        <v>1010896192</v>
+        <v>609596416</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F253" s="5">
-        <v>5.3862433433532715</v>
+        <v>2.4982650279998779</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="H253" s="5">
-        <v>-1.543859241451961</v>
+        <v>-0.185225975980463</v>
       </c>
       <c r="I253" s="5">
-        <v>-2.849325736235309</v>
+        <v>-1.466572924324461</v>
       </c>
       <c r="J253" s="5">
-        <v>-4.3652842066009718</v>
+        <v>-3.0227223090845579</v>
       </c>
       <c r="K253" s="5">
-        <v>2.1618904235716001</v>
+        <v>-0.321642750295004</v>
       </c>
       <c r="L253" s="5">
-        <v>-5.1439541468893957</v>
+        <v>-5.0565386362653841</v>
       </c>
       <c r="M253" s="5">
-        <v>1.32927662508151</v>
+        <v>1.3470585311747389</v>
       </c>
       <c r="N253" s="5">
-        <v>-14.428123715931495</v>
+        <v>-12.179904939322716</v>
       </c>
       <c r="O253" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P253" s="6" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="Q253" s="6" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="R253" s="5">
-        <v>1.5446024502864639</v>
+        <v>12.656929085389269</v>
       </c>
       <c r="S253" s="5">
-        <v>1.24272608757019</v>
+        <v>10.685947418212891</v>
       </c>
     </row>
     <row r="254" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17177,55 +17177,55 @@
         <v>557</v>
       </c>
       <c r="C254" s="5">
-        <v>1406554.75</v>
+        <v>1393055.5</v>
       </c>
       <c r="D254" s="5">
-        <v>314405632</v>
+        <v>1011994624</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F254" s="5">
-        <v>3.0065357685089111</v>
+        <v>5.3691987991333008</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="H254" s="5">
-        <v>-0.23000066607540301</v>
+        <v>0.46939131581673604</v>
       </c>
       <c r="I254" s="5">
-        <v>-1.5096223771746349</v>
+        <v>-1.3259532287283049</v>
       </c>
       <c r="J254" s="5">
-        <v>-2.920447053427877</v>
+        <v>-3.780036608920001</v>
       </c>
       <c r="K254" s="5">
-        <v>-0.291663269411369</v>
+        <v>3.0088913312760202</v>
       </c>
       <c r="L254" s="5">
-        <v>-4.9036012352876135</v>
+        <v>-3.314657603220672</v>
       </c>
       <c r="M254" s="5">
-        <v>1.118907137318881</v>
+        <v>1.8049074499395521</v>
       </c>
       <c r="N254" s="5">
-        <v>-11.393712203788242</v>
+        <v>-13.798492816379104</v>
       </c>
       <c r="O254" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P254" s="6" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="Q254" s="6" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="R254" s="5">
-        <v>16.020529739855778</v>
+        <v>1.5446024502864639</v>
       </c>
       <c r="S254" s="5">
-        <v>13.615128517150879</v>
+        <v>1.2485594749450679</v>
       </c>
     </row>
     <row r="255" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17236,55 +17236,55 @@
         <v>559</v>
       </c>
       <c r="C255" s="5">
-        <v>1400282.875</v>
+        <v>1374694.25</v>
       </c>
       <c r="D255" s="5">
-        <v>608104576</v>
+        <v>487146528</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F255" s="5">
-        <v>2.4982650279998779</v>
+        <v>4.243614673614502</v>
       </c>
       <c r="G255" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H255" s="5">
+        <v>-0.63703866696659406</v>
+      </c>
+      <c r="I255" s="5">
+        <v>-0.134750490631075</v>
+      </c>
+      <c r="J255" s="5">
+        <v>0.13103015794464501</v>
+      </c>
+      <c r="K255" s="5">
+        <v>7.2327082383473176</v>
+      </c>
+      <c r="L255" s="5">
+        <v>-4.2821641573534297</v>
+      </c>
+      <c r="M255" s="5">
+        <v>8.9104846728067066</v>
+      </c>
+      <c r="N255" s="5">
+        <v>-13.422272091760867</v>
+      </c>
+      <c r="O255" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P255" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q255" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H255" s="5">
-        <v>-0.185225975980463</v>
-      </c>
-      <c r="I255" s="5">
-        <v>-1.466572924324461</v>
-      </c>
-      <c r="J255" s="5">
-        <v>-3.0227223090845579</v>
-      </c>
-      <c r="K255" s="5">
-        <v>-0.321642750295004</v>
-      </c>
-      <c r="L255" s="5">
-        <v>-5.0565386362653841</v>
-      </c>
-      <c r="M255" s="5">
-        <v>1.0990441470586589</v>
-      </c>
-      <c r="N255" s="5">
-        <v>-12.179904939322716</v>
-      </c>
-      <c r="O255" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P255" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q255" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="R255" s="5">
-        <v>12.656929085389269</v>
+        <v>18.330409640502442</v>
       </c>
       <c r="S255" s="5">
-        <v>10.685947418212891</v>
+        <v>15.098258018493652</v>
       </c>
     </row>
     <row r="256" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17295,55 +17295,53 @@
         <v>561</v>
       </c>
       <c r="C256" s="5">
-        <v>1371330.125</v>
+        <v>1328700.125</v>
       </c>
       <c r="D256" s="5">
-        <v>485954400</v>
+        <v>2192073472</v>
       </c>
       <c r="E256" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F256" s="5">
-        <v>4.243614673614502</v>
-      </c>
-      <c r="G256" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="H256" s="5">
-        <v>-0.63703866696659406</v>
+        <v>0.32095229646080803</v>
       </c>
       <c r="I256" s="5">
-        <v>-0.134750490631075</v>
+        <v>-0.87586727671870002</v>
       </c>
       <c r="J256" s="5">
-        <v>0.13103015794464501</v>
+        <v>-2.8994143555818752</v>
       </c>
       <c r="K256" s="5">
-        <v>7.2327082383473176</v>
+        <v>3.609380710831056</v>
       </c>
       <c r="L256" s="5">
-        <v>-4.2821641573534297</v>
+        <v>0.54633829948442802</v>
       </c>
       <c r="M256" s="5">
-        <v>8.6439612317578352</v>
+        <v>1.150601082274338</v>
       </c>
       <c r="N256" s="5">
-        <v>-13.422272091760867</v>
+        <v>-12.805527122119642</v>
       </c>
       <c r="O256" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P256" s="6" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="Q256" s="6" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="R256" s="5">
-        <v>18.330409640502442</v>
+        <v>5.6370000839233398</v>
       </c>
       <c r="S256" s="5">
-        <v>15.098258018493652</v>
+        <v>4.9229998588562012</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17354,112 +17352,114 @@
         <v>563</v>
       </c>
       <c r="C257" s="5">
-        <v>1328700.125</v>
+        <v>1319324.375</v>
       </c>
       <c r="D257" s="5">
-        <v>2192073472</v>
+        <v>1452709248</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F257" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F257" s="5">
+        <v>0.6681076884269711</v>
+      </c>
       <c r="G257" s="6" t="s">
-        <v>73</v>
+        <v>429</v>
       </c>
       <c r="H257" s="5">
-        <v>-0.74332203706309907</v>
+        <v>0.17740337383587201</v>
       </c>
       <c r="I257" s="5">
-        <v>-0.79348829264239706</v>
+        <v>-1.3103368277147749</v>
       </c>
       <c r="J257" s="5">
-        <v>-2.6918557956750471</v>
+        <v>-4.1891640688916931</v>
       </c>
       <c r="K257" s="5">
-        <v>3.061011223273868</v>
+        <v>2.484664021322236</v>
       </c>
       <c r="L257" s="5">
-        <v>-0.89366882741682707</v>
+        <v>-5.1361040943112002</v>
       </c>
       <c r="M257" s="5">
-        <v>0.82699452788468408</v>
+        <v>-8.5452953848297E-2</v>
       </c>
       <c r="N257" s="5">
-        <v>-13.3607009573533</v>
+        <v>-20.457355381414523</v>
       </c>
       <c r="O257" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P257" s="6" t="s">
         <v>304</v>
       </c>
       <c r="Q257" s="6" t="s">
-        <v>305</v>
+        <v>564</v>
       </c>
       <c r="R257" s="5">
-        <v>5.6779999732971191</v>
+        <v>158.71827573852539</v>
       </c>
       <c r="S257" s="5">
-        <v>4.907249927520752</v>
+        <v>122.50240325927734</v>
       </c>
     </row>
     <row r="258" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A258" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C258" s="5">
-        <v>1318337</v>
+        <v>1318616.875</v>
       </c>
       <c r="D258" s="5">
-        <v>1451622144</v>
+        <v>2109785984</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F258" s="5">
-        <v>0.66840320825576804</v>
+        <v>4.0144972801208496</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>429</v>
+        <v>251</v>
       </c>
       <c r="H258" s="5">
-        <v>-0.31308701990034904</v>
+        <v>0.91102996587104612</v>
       </c>
       <c r="I258" s="5">
-        <v>-0.89337267298820211</v>
+        <v>-1.13030064946813</v>
       </c>
       <c r="J258" s="5">
-        <v>-2.8378937995320652</v>
+        <v>-4.3503372192741701</v>
       </c>
       <c r="K258" s="5">
-        <v>2.5998867228311791</v>
+        <v>2.642577604151275</v>
       </c>
       <c r="L258" s="5">
-        <v>-6.6874852966457006</v>
+        <v>-6.7805802713251104</v>
       </c>
       <c r="M258" s="5">
-        <v>-0.26239083748582603</v>
+        <v>1.308692246914567</v>
       </c>
       <c r="N258" s="5">
-        <v>-20.722535409130995</v>
+        <v>-15.698062525380186</v>
       </c>
       <c r="O258" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P258" s="6" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="Q258" s="6" t="s">
-        <v>566</v>
+        <v>253</v>
       </c>
       <c r="R258" s="5">
-        <v>158.71827573852539</v>
+        <v>1.4944367749289871</v>
       </c>
       <c r="S258" s="5">
-        <v>122.28546905517578</v>
+        <v>1.181060791015625</v>
       </c>
     </row>
     <row r="259" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17470,40 +17470,40 @@
         <v>568</v>
       </c>
       <c r="C259" s="5">
-        <v>1286498.625</v>
+        <v>1287462.125</v>
       </c>
       <c r="D259" s="5">
-        <v>345199808</v>
+        <v>345458304</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F259" s="5">
-        <v>1.0003846883773799</v>
+        <v>0.99978023767471302</v>
       </c>
       <c r="G259" s="6" t="s">
         <v>429</v>
       </c>
       <c r="H259" s="5">
-        <v>3.0474537898728001E-2</v>
+        <v>0.19365526509636002</v>
       </c>
       <c r="I259" s="5">
-        <v>-0.75347264257988911</v>
+        <v>-1.352296763603422</v>
       </c>
       <c r="J259" s="5">
-        <v>-3.380928026707386</v>
+        <v>-4.2588962473394716</v>
       </c>
       <c r="K259" s="5">
-        <v>0.71094308825292407</v>
+        <v>0.554655621818267</v>
       </c>
       <c r="L259" s="5">
-        <v>-5.3328235502390182</v>
+        <v>-2.8966095214341352</v>
       </c>
       <c r="M259" s="5">
-        <v>-8.6346871109044002E-2</v>
+        <v>0.10714117872516701</v>
       </c>
       <c r="N259" s="5">
-        <v>-20.785572046024281</v>
+        <v>-20.578924475687678</v>
       </c>
       <c r="O259" s="6" t="s">
         <v>324</v>
@@ -17518,7 +17518,7 @@
         <v>6.9981908784866329</v>
       </c>
       <c r="S259" s="5">
-        <v>5.4669966697692871</v>
+        <v>5.4775838851928711</v>
       </c>
     </row>
     <row r="260" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17529,55 +17529,55 @@
         <v>570</v>
       </c>
       <c r="C260" s="5">
-        <v>1272391.875</v>
+        <v>1274459</v>
       </c>
       <c r="D260" s="5">
-        <v>175453728</v>
+        <v>429110912</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F260" s="5">
-        <v>4.0549101829528809</v>
+        <v>1.3358305692672729</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>429</v>
+        <v>260</v>
       </c>
       <c r="H260" s="5">
-        <v>-0.75058149237612304</v>
+        <v>0.9639881949115251</v>
       </c>
       <c r="I260" s="5">
-        <v>-1.1243109637857911</v>
+        <v>-1.112222606351021</v>
       </c>
       <c r="J260" s="5">
-        <v>-4.7105303464510921</v>
+        <v>-2.348336812112517</v>
       </c>
       <c r="K260" s="5">
-        <v>3.9357987866122102</v>
+        <v>2.7891310154017912</v>
       </c>
       <c r="L260" s="5">
-        <v>-2.3731815245576993</v>
+        <v>-3.9587937298953162</v>
       </c>
       <c r="M260" s="5">
-        <v>-0.24872227798514701</v>
+        <v>1.905652026230187</v>
       </c>
       <c r="N260" s="5">
-        <v>-25.231893603078159</v>
+        <v>-12.444418506729328</v>
       </c>
       <c r="O260" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P260" s="6" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="Q260" s="6" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="R260" s="5">
-        <v>6.0199858176231391</v>
+        <v>31.877165029106692</v>
       </c>
       <c r="S260" s="5">
-        <v>4.2686023712158203</v>
+        <v>26.359268188476563</v>
       </c>
     </row>
     <row r="261" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17588,55 +17588,55 @@
         <v>572</v>
       </c>
       <c r="C261" s="5">
-        <v>1257763.625</v>
+        <v>1273344.75</v>
       </c>
       <c r="D261" s="5">
-        <v>604741248</v>
+        <v>175585120</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="F261" s="5">
-        <v>1.6804937124252319</v>
+        <v>4.0455121994018546</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>172</v>
+        <v>429</v>
       </c>
       <c r="H261" s="5">
-        <v>-0.16488834501532401</v>
+        <v>0.36573548510228104</v>
       </c>
       <c r="I261" s="5">
-        <v>-1.325428702205744</v>
+        <v>-1.7801680757854039</v>
       </c>
       <c r="J261" s="5">
-        <v>-2.2737638899998798</v>
+        <v>-5.8919629552022119</v>
       </c>
       <c r="K261" s="5">
-        <v>0.21553911582135002</v>
+        <v>4.0878035890310027</v>
       </c>
       <c r="L261" s="5">
-        <v>-7.6731274693901401</v>
+        <v>0.8464230938164401</v>
       </c>
       <c r="M261" s="5">
-        <v>1.4442768241536901</v>
+        <v>0.11610354148718902</v>
       </c>
       <c r="N261" s="5">
-        <v>-14.653189793294219</v>
+        <v>-24.591242046807949</v>
       </c>
       <c r="O261" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P261" s="6" t="s">
-        <v>484</v>
+        <v>304</v>
       </c>
       <c r="Q261" s="6" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="R261" s="5">
-        <v>19.61338919100476</v>
+        <v>5.9623286126136774</v>
       </c>
       <c r="S261" s="5">
-        <v>16.225435256958008</v>
+        <v>4.2842140197753906</v>
       </c>
     </row>
     <row r="262" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17647,55 +17647,55 @@
         <v>574</v>
       </c>
       <c r="C262" s="5">
-        <v>1227946.875</v>
+        <v>1260849.125</v>
       </c>
       <c r="D262" s="5">
-        <v>179945824</v>
+        <v>606224768</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="F262" s="5">
-        <v>3.1200897693634029</v>
+        <v>1.6804935932159419</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="H262" s="5">
-        <v>-0.79204721435577308</v>
+        <v>-0.16488834501532401</v>
       </c>
       <c r="I262" s="5">
-        <v>-2.060954064305498</v>
+        <v>-1.325428702205744</v>
       </c>
       <c r="J262" s="5">
-        <v>-5.388553613109015</v>
+        <v>-2.2737638899998798</v>
       </c>
       <c r="K262" s="5">
-        <v>4.3116662108950043</v>
+        <v>0.21553911582135002</v>
       </c>
       <c r="L262" s="5">
-        <v>-7.5138200193142985</v>
+        <v>-7.6731274693901401</v>
       </c>
       <c r="M262" s="5">
-        <v>0.40553635348126205</v>
+        <v>1.693138126957372</v>
       </c>
       <c r="N262" s="5">
-        <v>-30.962546746463527</v>
+        <v>-14.653189793294219</v>
       </c>
       <c r="O262" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P262" s="6" t="s">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="Q262" s="6" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="R262" s="5">
-        <v>5.7480231508255004</v>
+        <v>19.61338919100476</v>
       </c>
       <c r="S262" s="5">
-        <v>3.8059954643249512</v>
+        <v>16.225435256958008</v>
       </c>
     </row>
     <row r="263" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17706,55 +17706,55 @@
         <v>576</v>
       </c>
       <c r="C263" s="5">
-        <v>1219990.75</v>
+        <v>1228292</v>
       </c>
       <c r="D263" s="5">
-        <v>282634624</v>
+        <v>179996400</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F263" s="5">
-        <v>3.0379748344421391</v>
+        <v>3.104194164276123</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="H263" s="5">
-        <v>-0.46713422829242102</v>
+        <v>0.57796728352681503</v>
       </c>
       <c r="I263" s="5">
-        <v>-1.7244801061203852</v>
+        <v>-2.0955303074556291</v>
       </c>
       <c r="J263" s="5">
-        <v>-3.3020197445599249</v>
+        <v>-5.3540893530399476</v>
       </c>
       <c r="K263" s="5">
-        <v>-0.98786191786158806</v>
+        <v>5.6186840127592674</v>
       </c>
       <c r="L263" s="5">
-        <v>-4.8125660215596167</v>
+        <v>-4.3101161371673413</v>
       </c>
       <c r="M263" s="5">
-        <v>0.95748892844118605</v>
+        <v>0.98584750445400704</v>
       </c>
       <c r="N263" s="5">
-        <v>-11.269790013909109</v>
+        <v>-30.590480757036566</v>
       </c>
       <c r="O263" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P263" s="6" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="Q263" s="6" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="R263" s="5">
-        <v>11.759623147705268</v>
+        <v>5.7480231508255004</v>
       </c>
       <c r="S263" s="5">
-        <v>9.9592142105102539</v>
+        <v>3.82799243927002</v>
       </c>
     </row>
     <row r="264" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17765,55 +17765,53 @@
         <v>578</v>
       </c>
       <c r="C264" s="5">
-        <v>1208314.125</v>
+        <v>1225882.875</v>
       </c>
       <c r="D264" s="5">
-        <v>427618144</v>
+        <v>1096780160</v>
       </c>
       <c r="E264" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F264" s="5"/>
+      <c r="G264" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F264" s="5">
-        <v>1.338289260864258</v>
-      </c>
-      <c r="G264" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="H264" s="5">
-        <v>-0.98749879136472707</v>
+        <v>-0.11913136789285501</v>
       </c>
       <c r="I264" s="5">
-        <v>-1.7080716542990042</v>
+        <v>-2.4301128372249399</v>
       </c>
       <c r="J264" s="5">
-        <v>-2.9681791830571291</v>
+        <v>-5.3507330581270001</v>
       </c>
       <c r="K264" s="5">
-        <v>1.6816907363167881</v>
+        <v>7.7792198622941289</v>
       </c>
       <c r="L264" s="5">
-        <v>-6.189992529865485</v>
+        <v>3.717302411308876</v>
       </c>
       <c r="M264" s="5">
-        <v>0.93267297395263105</v>
+        <v>-0.74196018538643704</v>
       </c>
       <c r="N264" s="5">
-        <v>-13.536696550311511</v>
+        <v>-9.6582168272178031</v>
       </c>
       <c r="O264" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P264" s="6" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="Q264" s="6" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="R264" s="5">
-        <v>31.877165029106692</v>
+        <v>89.035293722950982</v>
       </c>
       <c r="S264" s="5">
-        <v>26.107595443725586</v>
+        <v>80.072036743164062</v>
       </c>
     </row>
     <row r="265" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17824,55 +17822,55 @@
         <v>580</v>
       </c>
       <c r="C265" s="5">
-        <v>1198218.625</v>
+        <v>1222983.625</v>
       </c>
       <c r="D265" s="5">
-        <v>321016512</v>
+        <v>283327968</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F265" s="5">
-        <v>3.1932258605957031</v>
+        <v>3.0379748344421391</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H265" s="5">
-        <v>9.3306815510252009E-2</v>
+        <v>-0.46713422829242102</v>
       </c>
       <c r="I265" s="5">
-        <v>-0.11849820141210901</v>
+        <v>-1.7244801061203852</v>
       </c>
       <c r="J265" s="5">
-        <v>1.8097688720098003E-2</v>
+        <v>-3.3020197445599249</v>
       </c>
       <c r="K265" s="5">
-        <v>0.98424123007732112</v>
+        <v>-0.98786191786158806</v>
       </c>
       <c r="L265" s="5">
-        <v>-0.154469538642654</v>
+        <v>-4.8125660215596167</v>
       </c>
       <c r="M265" s="5">
-        <v>0.51561778920707901</v>
+        <v>1.205156051802625</v>
       </c>
       <c r="N265" s="5">
-        <v>-1.7790716805007212</v>
+        <v>-11.269790013909109</v>
       </c>
       <c r="O265" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P265" s="6" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="Q265" s="6" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="R265" s="5">
-        <v>93.459999084472656</v>
+        <v>11.759623147705268</v>
       </c>
       <c r="S265" s="5">
-        <v>89.683601379394531</v>
+        <v>9.9592142105102539</v>
       </c>
     </row>
     <row r="266" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17883,53 +17881,55 @@
         <v>582</v>
       </c>
       <c r="C266" s="5">
-        <v>1197081.75</v>
+        <v>1198218.625</v>
       </c>
       <c r="D266" s="5">
-        <v>1096923904</v>
+        <v>321016512</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F266" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="F266" s="5">
+        <v>3.1932258605957031</v>
+      </c>
       <c r="G266" s="6" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H266" s="5">
-        <v>-1.143965196194918</v>
+        <v>9.3306815510252009E-2</v>
       </c>
       <c r="I266" s="5">
-        <v>-2.948464209675417</v>
+        <v>-0.11849820141210901</v>
       </c>
       <c r="J266" s="5">
-        <v>-4.025218966317901</v>
+        <v>1.8097688720098003E-2</v>
       </c>
       <c r="K266" s="5">
-        <v>8.630168871141187</v>
+        <v>0.98424123007732112</v>
       </c>
       <c r="L266" s="5">
-        <v>1.8343118150470961</v>
+        <v>-0.154469538642654</v>
       </c>
       <c r="M266" s="5">
-        <v>-0.62357168697405607</v>
+        <v>0.51561778920707901</v>
       </c>
       <c r="N266" s="5">
-        <v>-9.4899651537697967</v>
+        <v>-1.7790716805007212</v>
       </c>
       <c r="O266" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P266" s="6" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="Q266" s="6" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="R266" s="5">
-        <v>89.035293722950982</v>
+        <v>93.459999084472656</v>
       </c>
       <c r="S266" s="5">
-        <v>80.16754150390625</v>
+        <v>89.683601379394531</v>
       </c>
     </row>
     <row r="267" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17940,10 +17940,10 @@
         <v>584</v>
       </c>
       <c r="C267" s="5">
-        <v>1189591.25</v>
+        <v>1190482.125</v>
       </c>
       <c r="D267" s="5">
-        <v>979219584</v>
+        <v>979952896</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>301</v>
@@ -17953,28 +17953,28 @@
         <v>429</v>
       </c>
       <c r="H267" s="5">
-        <v>-1.162231378861855</v>
+        <v>0.85042025750428107</v>
       </c>
       <c r="I267" s="5">
-        <v>-2.971796115951197</v>
+        <v>-2.7168929124336882</v>
       </c>
       <c r="J267" s="5">
-        <v>-5.4886832936149048</v>
+        <v>-4.6355328450672362</v>
       </c>
       <c r="K267" s="5">
-        <v>-5.8649212548632654</v>
+        <v>-5.2729501910993122</v>
       </c>
       <c r="L267" s="5">
-        <v>-18.524606308285961</v>
+        <v>-15.885743413475307</v>
       </c>
       <c r="M267" s="5">
-        <v>-1.386830143851647</v>
+        <v>-0.54820377082784899</v>
       </c>
       <c r="N267" s="5">
-        <v>-40.157429629645556</v>
+        <v>-40.68895119843031</v>
       </c>
       <c r="O267" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P267" s="6" t="s">
         <v>304</v>
@@ -17986,7 +17986,7 @@
         <v>28.828721898078921</v>
       </c>
       <c r="S267" s="5">
-        <v>16.611639022827148</v>
+        <v>16.752908706665039</v>
       </c>
     </row>
     <row r="268" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -18006,31 +18006,31 @@
         <v>40</v>
       </c>
       <c r="F268" s="5">
-        <v>5.2302708625793457</v>
+        <v>5.2278509140014648</v>
       </c>
       <c r="G268" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H268" s="5">
-        <v>-2.3142378408070003E-2</v>
+        <v>4.6286642414817003E-2</v>
       </c>
       <c r="I268" s="5">
-        <v>-1.0306934597163699</v>
+        <v>-0.98488389069765203</v>
       </c>
       <c r="J268" s="5">
-        <v>-2.52651184371806</v>
+        <v>-2.3271550346981469</v>
       </c>
       <c r="K268" s="5">
-        <v>6.4182743527949171</v>
+        <v>5.5298260787942199</v>
       </c>
       <c r="L268" s="5">
-        <v>3.1484417059387981</v>
+        <v>4.9427863117569304</v>
       </c>
       <c r="M268" s="5">
-        <v>1.193353881866366</v>
+        <v>1.2401928877252111</v>
       </c>
       <c r="N268" s="5">
-        <v>-11.533263625710678</v>
+        <v>-11.509489638846581</v>
       </c>
       <c r="O268" s="6" t="s">
         <v>303</v>
@@ -18042,10 +18042,10 @@
         <v>305</v>
       </c>
       <c r="R268" s="5">
-        <v>51.650001525878906</v>
+        <v>51.430000305175781</v>
       </c>
       <c r="S268" s="5">
-        <v>43.209999084472656</v>
+        <v>43.229999542236328</v>
       </c>
     </row>
   </sheetData>

--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\04.07.2023\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\05.07.2023\Daily Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -687,6 +687,21 @@
     <t>CI HIGH INTEREST</t>
   </si>
   <si>
+    <t>AAA AU Equity</t>
+  </si>
+  <si>
+    <t>BETA AUS INTERES</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t>BSCP US Equity</t>
   </si>
   <si>
@@ -699,30 +714,15 @@
     <t>JANUS HENDERSON</t>
   </si>
   <si>
+    <t>00687B TT Equity</t>
+  </si>
+  <si>
+    <t>CATHAY UST 20+</t>
+  </si>
+  <si>
     <t>BSCO US Equity</t>
   </si>
   <si>
-    <t>00687B TT Equity</t>
-  </si>
-  <si>
-    <t>CATHAY UST 20+</t>
-  </si>
-  <si>
-    <t>AAA AU Equity</t>
-  </si>
-  <si>
-    <t>BETA AUS INTERES</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>ASE</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>SPMB US Equity</t>
   </si>
   <si>
@@ -852,15 +852,15 @@
     <t>ISHARES INTERMED</t>
   </si>
   <si>
+    <t>IBDP US Equity</t>
+  </si>
+  <si>
     <t>00751B TT Equity</t>
   </si>
   <si>
     <t>YT US 20AAA ETF</t>
   </si>
   <si>
-    <t>IBDP US Equity</t>
-  </si>
-  <si>
     <t>HYMB US Equity</t>
   </si>
   <si>
@@ -915,6 +915,12 @@
     <t>PIMCO 0-5 YR H/Y</t>
   </si>
   <si>
+    <t>IBDS US Equity</t>
+  </si>
+  <si>
+    <t>ISHRS DEC 27 ETF</t>
+  </si>
+  <si>
     <t>IEAC LN Equity</t>
   </si>
   <si>
@@ -930,12 +936,6 @@
     <t>Regular Cash</t>
   </si>
   <si>
-    <t>IBDS US Equity</t>
-  </si>
-  <si>
-    <t>ISHRS DEC 27 ETF</t>
-  </si>
-  <si>
     <t>ZAG CN Equity</t>
   </si>
   <si>
@@ -948,6 +948,30 @@
     <t>INVESCO TAXABLE</t>
   </si>
   <si>
+    <t>153130 KS Equity</t>
+  </si>
+  <si>
+    <t>KODEX-KRCASH ETF</t>
+  </si>
+  <si>
+    <t>159972 CH Equity</t>
+  </si>
+  <si>
+    <t>PH CSI5Y LCL GV</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
     <t>AGGY US Equity</t>
   </si>
   <si>
@@ -957,51 +981,27 @@
     <t>JMBS US Equity</t>
   </si>
   <si>
-    <t>159972 CH Equity</t>
-  </si>
-  <si>
-    <t>PH CSI5Y LCL GV</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>TIPX US Equity</t>
   </si>
   <si>
+    <t>IGLS LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR UK GILT 0-5</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
     <t>QPON AU Equity</t>
   </si>
   <si>
     <t>BETA AUS BANK SE</t>
   </si>
   <si>
-    <t>153130 KS Equity</t>
-  </si>
-  <si>
-    <t>KODEX-KRCASH ETF</t>
-  </si>
-  <si>
-    <t>IGLS LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR UK GILT 0-5</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>ITM US Equity</t>
   </si>
   <si>
@@ -1020,21 +1020,21 @@
     <t>LEMB US Equity</t>
   </si>
   <si>
+    <t>IBDQ US Equity</t>
+  </si>
+  <si>
+    <t>FMB US Equity</t>
+  </si>
+  <si>
+    <t>FIRST TRUST MANA</t>
+  </si>
+  <si>
     <t>00795B TT Equity</t>
   </si>
   <si>
     <t>CTBC US20 B ETF</t>
   </si>
   <si>
-    <t>IBDQ US Equity</t>
-  </si>
-  <si>
-    <t>FMB US Equity</t>
-  </si>
-  <si>
-    <t>FIRST TRUST MANA</t>
-  </si>
-  <si>
     <t>CMF US Equity</t>
   </si>
   <si>
@@ -1134,18 +1134,18 @@
     <t>BMO LONG FEDERAL</t>
   </si>
   <si>
+    <t>00740B TT Equity</t>
+  </si>
+  <si>
+    <t>FB 10 BBB EX CN</t>
+  </si>
+  <si>
     <t>ULST US Equity</t>
   </si>
   <si>
     <t>SPDR SH-TERM BD</t>
   </si>
   <si>
-    <t>00740B TT Equity</t>
-  </si>
-  <si>
-    <t>FB 10 BBB EX CN</t>
-  </si>
-  <si>
     <t>IHYG LN Equity</t>
   </si>
   <si>
@@ -1155,6 +1155,12 @@
     <t>Interim</t>
   </si>
   <si>
+    <t>IAF AU Equity</t>
+  </si>
+  <si>
+    <t>ISHARES CORE COM</t>
+  </si>
+  <si>
     <t>00725B TT Equity</t>
   </si>
   <si>
@@ -1182,21 +1188,15 @@
     <t>FLEXSHARES ULTRA</t>
   </si>
   <si>
+    <t>XCB CN Equity</t>
+  </si>
+  <si>
     <t>00696B TT Equity</t>
   </si>
   <si>
     <t>FUBON 20+ UST</t>
   </si>
   <si>
-    <t>IAF AU Equity</t>
-  </si>
-  <si>
-    <t>ISHARES CORE COM</t>
-  </si>
-  <si>
-    <t>XCB CN Equity</t>
-  </si>
-  <si>
     <t>LTPZ US Equity</t>
   </si>
   <si>
@@ -1257,18 +1257,18 @@
     <t>CTBC BBSR 10 ETF</t>
   </si>
   <si>
+    <t>PMIF CN Equity</t>
+  </si>
+  <si>
+    <t>PIMCO MONTHLY IN</t>
+  </si>
+  <si>
     <t>PGF US Equity</t>
   </si>
   <si>
     <t>INVESCO FINANCIA</t>
   </si>
   <si>
-    <t>PMIF CN Equity</t>
-  </si>
-  <si>
-    <t>PIMCO MONTHLY IN</t>
-  </si>
-  <si>
     <t>ZPR CN Equity</t>
   </si>
   <si>
@@ -1281,6 +1281,12 @@
     <t>SPDR BL INT TREA</t>
   </si>
   <si>
+    <t>HBRD AU Equity</t>
+  </si>
+  <si>
+    <t>BETA-ACTV AU HYB</t>
+  </si>
+  <si>
     <t>LQDH US Equity</t>
   </si>
   <si>
@@ -1302,12 +1308,6 @@
     <t>ISHARES GNMA BON</t>
   </si>
   <si>
-    <t>HBRD AU Equity</t>
-  </si>
-  <si>
-    <t>BETA-ACTV AU HYB</t>
-  </si>
-  <si>
     <t>XGB CN Equity</t>
   </si>
   <si>
@@ -1317,18 +1317,18 @@
     <t>ISH $TRS 1-3Y $A</t>
   </si>
   <si>
+    <t>VGB AU Equity</t>
+  </si>
+  <si>
+    <t>VANG AUS GOVT</t>
+  </si>
+  <si>
     <t>AGZ US Equity</t>
   </si>
   <si>
     <t>ISHARES AGENCY B</t>
   </si>
   <si>
-    <t>VGB AU Equity</t>
-  </si>
-  <si>
-    <t>VANG AUS GOVT</t>
-  </si>
-  <si>
     <t>VAF AU Equity</t>
   </si>
   <si>
@@ -1347,18 +1347,18 @@
     <t>BMO ULTRA SHORT-</t>
   </si>
   <si>
+    <t>ZCS CN Equity</t>
+  </si>
+  <si>
+    <t>BMO SHORT CORPOR</t>
+  </si>
+  <si>
     <t>IEMB LN Equity</t>
   </si>
   <si>
     <t>ISH JP $EM BD $D</t>
   </si>
   <si>
-    <t>ZCS CN Equity</t>
-  </si>
-  <si>
-    <t>BMO SHORT CORPOR</t>
-  </si>
-  <si>
     <t>HPR CN Equity</t>
   </si>
   <si>
@@ -1392,18 +1392,18 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>00764B TT Equity</t>
+  </si>
+  <si>
+    <t>CAP ICE 25 ETF</t>
+  </si>
+  <si>
     <t>TDTF US Equity</t>
   </si>
   <si>
     <t>XLB CN Equity</t>
   </si>
   <si>
-    <t>00764B TT Equity</t>
-  </si>
-  <si>
-    <t>CAP ICE 25 ETF</t>
-  </si>
-  <si>
     <t>IGTM LN Equity</t>
   </si>
   <si>
@@ -1512,6 +1512,12 @@
     <t>MACKENZIE UNCONS</t>
   </si>
   <si>
+    <t>VIF AU Equity</t>
+  </si>
+  <si>
+    <t>VAN INTL FI IN H</t>
+  </si>
+  <si>
     <t>XSH CN Equity</t>
   </si>
   <si>
@@ -1524,12 +1530,6 @@
     <t>BMO HIGH YIELD U</t>
   </si>
   <si>
-    <t>VIF AU Equity</t>
-  </si>
-  <si>
-    <t>VAN INTL FI IN H</t>
-  </si>
-  <si>
     <t>IDTG LN Equity</t>
   </si>
   <si>
@@ -1560,21 +1560,21 @@
     <t>ISH US AGG $ A</t>
   </si>
   <si>
+    <t>INXG LN Equity</t>
+  </si>
+  <si>
+    <t>ISHR IND-LINK</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
     <t>DTLE LN Equity</t>
   </si>
   <si>
     <t>ISH $TRS 20+ €HD</t>
   </si>
   <si>
-    <t>INXG LN Equity</t>
-  </si>
-  <si>
-    <t>ISHR IND-LINK</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
     <t>IDTL LN Equity</t>
   </si>
   <si>
@@ -1593,6 +1593,12 @@
     <t>ISHARES S&amp;P/TSX</t>
   </si>
   <si>
+    <t>00724B TT Equity</t>
+  </si>
+  <si>
+    <t>CAP IND US BANK</t>
+  </si>
+  <si>
     <t>IBTG LN Equity</t>
   </si>
   <si>
@@ -1605,12 +1611,6 @@
     <t>ISH $TIPS £H DIS</t>
   </si>
   <si>
-    <t>00724B TT Equity</t>
-  </si>
-  <si>
-    <t>CAP IND US BANK</t>
-  </si>
-  <si>
     <t>IEML LN Equity</t>
   </si>
   <si>
@@ -1677,18 +1677,18 @@
     <t>ISH CORE GLB AGG</t>
   </si>
   <si>
+    <t>ZCM CN Equity</t>
+  </si>
+  <si>
+    <t>BMO MID CORPORAT</t>
+  </si>
+  <si>
     <t>IMBA LN Equity</t>
   </si>
   <si>
     <t>ISH US MBS $ A</t>
   </si>
   <si>
-    <t>ZCM CN Equity</t>
-  </si>
-  <si>
-    <t>BMO MID CORPORAT</t>
-  </si>
-  <si>
     <t>SDIG LN Equity</t>
   </si>
   <si>
@@ -1737,16 +1737,16 @@
     <t>FH EMEG CRE B ET</t>
   </si>
   <si>
+    <t>273130 KS Equity</t>
+  </si>
+  <si>
+    <t>SS KR BOND AA-</t>
+  </si>
+  <si>
     <t>EMCA LN Equity</t>
   </si>
   <si>
     <t>ISHR JPM$EM CP$A</t>
-  </si>
-  <si>
-    <t>273130 KS Equity</t>
-  </si>
-  <si>
-    <t>SS KR BOND AA-</t>
   </si>
   <si>
     <t>AGBP LN Equity</t>
@@ -2353,7 +2353,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5">
-        <v>6.4831385612487793</v>
+        <v>6.4831390380859384</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="5">
-        <v>3.887401819229126</v>
+        <v>3.8874015808105469</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="5">
-        <v>3.1326785087585449</v>
+        <v>3.132678747177124</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="5">
-        <v>6.4858894348144531</v>
+        <v>6.4858899116516113</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="5">
-        <v>3.06128978729248</v>
+        <v>3.0612895488739009</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>63</v>
       </c>
       <c r="F16" s="5">
-        <v>4.9867739677429199</v>
+        <v>4.9867744445800781</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="5">
-        <v>4.8007211685180664</v>
+        <v>4.8007206916809082</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>56</v>
       </c>
       <c r="F36" s="5">
-        <v>5.1770572662353516</v>
+        <v>5.1770577430725098</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>51</v>
       </c>
       <c r="F39" s="5">
-        <v>4.7784481048583984</v>
+        <v>4.7784476280212402</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="F47" s="5">
-        <v>3.932288646697998</v>
+        <v>3.9322884082794189</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>94</v>
       </c>
       <c r="F49" s="5">
-        <v>3.0783367156982422</v>
+        <v>3.0783369541168208</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>71</v>
       </c>
       <c r="F53" s="5">
-        <v>5.5526800155639648</v>
+        <v>5.5526795387268066</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>0</v>
@@ -5421,7 +5421,7 @@
         <v>63</v>
       </c>
       <c r="F54" s="5">
-        <v>3.561327457427979</v>
+        <v>3.561327219009399</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>32</v>
       </c>
       <c r="F56" s="5">
-        <v>3.929624080657959</v>
+        <v>3.9296243190765381</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>157</v>
       </c>
       <c r="C59" s="5">
-        <v>54355904</v>
+        <v>54483364</v>
       </c>
       <c r="D59" s="5">
-        <v>1400454400</v>
+        <v>1403738368</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>40</v>
@@ -5722,25 +5722,25 @@
         <v>158</v>
       </c>
       <c r="H59" s="5">
-        <v>0.19879847170432002</v>
+        <v>0.23449790357768002</v>
       </c>
       <c r="I59" s="5">
-        <v>-0.14292577652619301</v>
+        <v>-0.180942514132576</v>
       </c>
       <c r="J59" s="5">
-        <v>3.236477660505876</v>
+        <v>2.07749992602051</v>
       </c>
       <c r="K59" s="5">
-        <v>3.5725600977672078</v>
+        <v>3.0117329429723889</v>
       </c>
       <c r="L59" s="5">
-        <v>4.7986009260955198</v>
+        <v>4.4840003449094112</v>
       </c>
       <c r="M59" s="5">
-        <v>4.6088220109377076</v>
+        <v>4.8382242779278606</v>
       </c>
       <c r="N59" s="5">
-        <v>1.44155184178183</v>
+        <v>1.4971002139407159</v>
       </c>
       <c r="O59" s="6" t="s">
         <v>23</v>
@@ -5755,7 +5755,7 @@
         <v>39.299734160222187</v>
       </c>
       <c r="S59" s="5">
-        <v>37.818428039550781</v>
+        <v>37.844173431396484</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -5834,7 +5834,7 @@
         <v>164</v>
       </c>
       <c r="F61" s="5">
-        <v>3.9564025402069092</v>
+        <v>3.9564023017883301</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>0</v>
@@ -6415,10 +6415,10 @@
         <v>183</v>
       </c>
       <c r="C71" s="5">
-        <v>32317426</v>
+        <v>32732478</v>
       </c>
       <c r="D71" s="5">
-        <v>1526709504</v>
+        <v>1529763200</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>63</v>
@@ -6428,25 +6428,25 @@
         <v>184</v>
       </c>
       <c r="H71" s="5">
-        <v>0.92659952435298909</v>
+        <v>0.76794069918753005</v>
       </c>
       <c r="I71" s="5">
-        <v>8.3114148813168004E-2</v>
+        <v>0.151897126736</v>
       </c>
       <c r="J71" s="5">
-        <v>0.33694150955079205</v>
+        <v>1.10746971972262</v>
       </c>
       <c r="K71" s="5">
-        <v>1.253836156064136</v>
+        <v>2.2356435430189951</v>
       </c>
       <c r="L71" s="5">
-        <v>-0.132900659980939</v>
+        <v>-9.2054161295650003E-3</v>
       </c>
       <c r="M71" s="5">
-        <v>-1.7256541530104141</v>
+        <v>-1.5152724957312791</v>
       </c>
       <c r="N71" s="5">
-        <v>2.7185324378202762</v>
+        <v>3.1497944088069612</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>23</v>
@@ -6461,7 +6461,7 @@
         <v>86.244789309240332</v>
       </c>
       <c r="S71" s="5">
-        <v>81.908332824707031</v>
+        <v>82.537345886230469</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="F72" s="5">
-        <v>3.4059944152832031</v>
+        <v>3.4059946537017822</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>32</v>
       </c>
       <c r="F73" s="5">
-        <v>5.5176405906677246</v>
+        <v>5.5176410675048828</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>71</v>
       </c>
       <c r="F75" s="5">
-        <v>2.9964373111724854</v>
+        <v>2.9964370727539062</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>35</v>
       </c>
       <c r="F78" s="5">
-        <v>3.3908495903015141</v>
+        <v>3.3908498287200932</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>0</v>
@@ -6944,40 +6944,40 @@
         <v>204</v>
       </c>
       <c r="C80" s="5">
-        <v>25338844</v>
+        <v>24986276</v>
       </c>
       <c r="D80" s="5">
-        <v>625410496</v>
+        <v>626033728</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F80" s="5">
-        <v>3.6512432098388672</v>
+        <v>3.6523928642272949</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>205</v>
       </c>
       <c r="H80" s="5">
-        <v>0.62793926450599402</v>
+        <v>5.2079593445087002E-2</v>
       </c>
       <c r="I80" s="5">
-        <v>-0.73291608300113409</v>
+        <v>-0.54861348566610502</v>
       </c>
       <c r="J80" s="5">
-        <v>-1.378921591297755</v>
+        <v>-1.327560134611339</v>
       </c>
       <c r="K80" s="5">
-        <v>-1.1460390631536139</v>
+        <v>-1.094556322193341</v>
       </c>
       <c r="L80" s="5">
-        <v>2.9826106908555921</v>
+        <v>1.1024962655872941</v>
       </c>
       <c r="M80" s="5">
-        <v>2.7880156066594002</v>
+        <v>2.85805909968686</v>
       </c>
       <c r="N80" s="5">
-        <v>-8.3804101735435843</v>
+        <v>-8.683929435136994</v>
       </c>
       <c r="O80" s="6" t="s">
         <v>23</v>
@@ -6992,7 +6992,7 @@
         <v>1.2256945602508091</v>
       </c>
       <c r="S80" s="5">
-        <v>1.0203622579574581</v>
+        <v>1.0208935737609861</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7012,7 +7012,7 @@
         <v>32</v>
       </c>
       <c r="F81" s="5">
-        <v>5.7417340278625488</v>
+        <v>5.741734504699707</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>0</v>
@@ -7357,40 +7357,40 @@
         <v>221</v>
       </c>
       <c r="C87" s="5">
-        <v>20812590</v>
+        <v>20861394</v>
       </c>
       <c r="D87" s="5">
-        <v>1686463360</v>
+        <v>1690417920</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F87" s="5">
-        <v>5.1178584098815918</v>
+        <v>5.1168360710144043</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H87" s="5">
-        <v>0.21880647212095802</v>
+        <v>0.254517414390043</v>
       </c>
       <c r="I87" s="5">
-        <v>-0.10772744544481601</v>
+        <v>-0.15266081137329501</v>
       </c>
       <c r="J87" s="5">
-        <v>3.231435583739839</v>
+        <v>2.1133651265569759</v>
       </c>
       <c r="K87" s="5">
-        <v>3.5661333070479579</v>
+        <v>3.025937691459935</v>
       </c>
       <c r="L87" s="5">
-        <v>4.7849341683966484</v>
+        <v>4.4612486817446886</v>
       </c>
       <c r="M87" s="5">
-        <v>4.5951800022567157</v>
+        <v>4.8454886204421621</v>
       </c>
       <c r="N87" s="5">
-        <v>1.420369143555789</v>
+        <v>1.4556351695431902</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>23</v>
@@ -7405,7 +7405,7 @@
         <v>39.307583368522707</v>
       </c>
       <c r="S87" s="5">
-        <v>37.841106414794922</v>
+        <v>37.874431610107422</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7416,217 +7416,217 @@
         <v>223</v>
       </c>
       <c r="C88" s="5">
-        <v>19359418</v>
+        <v>19400760</v>
       </c>
       <c r="D88" s="5">
-        <v>1303352960</v>
+        <v>1384226048</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F88" s="5">
-        <v>3.4616990089416499</v>
+        <v>4.0297126770019531</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H88" s="5">
-        <v>0</v>
+        <v>0.36470568336923703</v>
       </c>
       <c r="I88" s="5">
-        <v>-9.9257856785662013E-2</v>
+        <v>0.28073045196324004</v>
       </c>
       <c r="J88" s="5">
-        <v>-0.10851477021843701</v>
+        <v>1.6307797882889159</v>
       </c>
       <c r="K88" s="5">
-        <v>-0.268259136360183</v>
+        <v>0.36019879914301905</v>
       </c>
       <c r="L88" s="5">
-        <v>1.5200422859215079</v>
+        <v>-0.38919114377046204</v>
       </c>
       <c r="M88" s="5">
-        <v>1.5704469827738881</v>
+        <v>1.8989005281744003E-2</v>
       </c>
       <c r="N88" s="5">
-        <v>0.87932209021228702</v>
+        <v>0.56174318829895808</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R88" s="5">
-        <v>20.739999771118164</v>
+        <v>35.672121470844786</v>
       </c>
       <c r="S88" s="5">
-        <v>20.129999160766602</v>
+        <v>33.546958923339844</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A89" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C89" s="5">
-        <v>19297286</v>
+        <v>19359418</v>
       </c>
       <c r="D89" s="5">
-        <v>2533757952</v>
+        <v>1303352960</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F89" s="5">
-        <v>4.1074075698852539</v>
+        <v>3.4616990089416499</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H89" s="5">
-        <v>0.111324458293449</v>
+        <v>0</v>
       </c>
       <c r="I89" s="5">
-        <v>6.6889685626400006E-3</v>
+        <v>-9.9257856785662013E-2</v>
       </c>
       <c r="J89" s="5">
-        <v>0.38438973381205205</v>
+        <v>-0.10851477021843701</v>
       </c>
       <c r="K89" s="5">
-        <v>1.136335040135239</v>
+        <v>-0.268259136360183</v>
       </c>
       <c r="L89" s="5">
-        <v>2.260735616336262</v>
+        <v>1.5200422859215079</v>
       </c>
       <c r="M89" s="5">
-        <v>2.4549042385945801</v>
+        <v>1.5704469827738881</v>
       </c>
       <c r="N89" s="5">
-        <v>3.6752247418555322</v>
+        <v>0.87932209021228702</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q89" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R89" s="5">
-        <v>48.849998474121094</v>
+        <v>20.739999771118164</v>
       </c>
       <c r="S89" s="5">
-        <v>47.680000305175781</v>
+        <v>20.129999160766602</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A90" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C90" s="5">
-        <v>18530320</v>
+        <v>19297286</v>
       </c>
       <c r="D90" s="5">
-        <v>2588890624</v>
+        <v>2533757952</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F90" s="5">
-        <v>2.889817476272583</v>
+        <v>4.1074080467224121</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>6.8059986254475999E-2</v>
+        <v>0.111324458293449</v>
       </c>
       <c r="I90" s="5">
-        <v>1.9434937307272002E-2</v>
+        <v>6.6889685626400006E-3</v>
       </c>
       <c r="J90" s="5">
-        <v>0.30944397123358103</v>
+        <v>0.38438973381205205</v>
       </c>
       <c r="K90" s="5">
-        <v>0.51180069799809902</v>
+        <v>1.136335040135239</v>
       </c>
       <c r="L90" s="5">
-        <v>1.765324473895435</v>
+        <v>2.260735616336262</v>
       </c>
       <c r="M90" s="5">
-        <v>1.9386966665722041</v>
+        <v>2.4549042385945801</v>
       </c>
       <c r="N90" s="5">
-        <v>1.6900403266423061</v>
+        <v>3.6752247418555322</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q90" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R90" s="5">
-        <v>20.889999389648437</v>
+        <v>48.849998474121094</v>
       </c>
       <c r="S90" s="5">
-        <v>20.583999633789063</v>
+        <v>47.680000305175781</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A91" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C91" s="5">
-        <v>18462246</v>
+        <v>18973466</v>
       </c>
       <c r="D91" s="5">
-        <v>289339840</v>
+        <v>289628160</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F91" s="5">
-        <v>4.2117929458618164</v>
+        <v>3.0057108402252202</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>205</v>
       </c>
       <c r="H91" s="5">
-        <v>0.7244600548449891</v>
+        <v>0.17390732155795302</v>
       </c>
       <c r="I91" s="5">
-        <v>-0.68389259169068206</v>
+        <v>-0.32671151775040003</v>
       </c>
       <c r="J91" s="5">
-        <v>-0.42465816382211102</v>
+        <v>-0.25148935390263399</v>
       </c>
       <c r="K91" s="5">
-        <v>-1.17540755741532</v>
+        <v>-1.0035443556578481</v>
       </c>
       <c r="L91" s="5">
-        <v>3.45368192454294</v>
+        <v>1.6113462013903179</v>
       </c>
       <c r="M91" s="5">
-        <v>3.142421004699969</v>
+        <v>3.3383822456282353</v>
       </c>
       <c r="N91" s="5">
-        <v>-8.4536227163435225</v>
+        <v>-8.7590128989267431</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>23</v>
@@ -7641,66 +7641,66 @@
         <v>1.274055323447935</v>
       </c>
       <c r="S91" s="5">
-        <v>1.067574620246887</v>
+        <v>1.069431066513062</v>
       </c>
     </row>
     <row r="92" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A92" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C92" s="5">
-        <v>18426706</v>
+        <v>18530320</v>
       </c>
       <c r="D92" s="5">
-        <v>1379676800</v>
+        <v>2588890624</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F92" s="5">
-        <v>4.0297126770019531</v>
+        <v>2.889817476272583</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>0.11617283739813201</v>
+        <v>6.8059986254475999E-2</v>
       </c>
       <c r="I92" s="5">
-        <v>-2.3847886766049001E-2</v>
+        <v>1.9434937307272002E-2</v>
       </c>
       <c r="J92" s="5">
-        <v>1.261473439591287</v>
+        <v>0.30944397123358103</v>
       </c>
       <c r="K92" s="5">
-        <v>-0.71180055857010804</v>
+        <v>0.51180069799809902</v>
       </c>
       <c r="L92" s="5">
-        <v>1.0150966484299579</v>
+        <v>1.765324473895435</v>
       </c>
       <c r="M92" s="5">
-        <v>-0.32961306481300601</v>
+        <v>1.9386966665722041</v>
       </c>
       <c r="N92" s="5">
-        <v>1.4274948234122231</v>
+        <v>1.6900403266423061</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="R92" s="5">
-        <v>35.672121470844786</v>
+        <v>20.889999389648437</v>
       </c>
       <c r="S92" s="5">
-        <v>33.425056457519531</v>
+        <v>20.583999633789063</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7720,7 +7720,7 @@
         <v>82</v>
       </c>
       <c r="F93" s="5">
-        <v>3.2361965179443359</v>
+        <v>3.236196756362915</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>0</v>
@@ -7779,7 +7779,7 @@
         <v>71</v>
       </c>
       <c r="F94" s="5">
-        <v>4.4487218856811523</v>
+        <v>4.4487214088439941</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>71</v>
       </c>
       <c r="F95" s="5">
-        <v>3.156043529510498</v>
+        <v>3.1560432910919189</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>66</v>
       </c>
       <c r="F99" s="5">
-        <v>3.2137844562530522</v>
+        <v>3.2137842178344731</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>0</v>
@@ -8183,40 +8183,40 @@
         <v>251</v>
       </c>
       <c r="C101" s="5">
-        <v>15844972</v>
+        <v>15882127</v>
       </c>
       <c r="D101" s="5">
-        <v>3395075840</v>
+        <v>3403036928</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F101" s="5">
-        <v>3.0936820507049561</v>
+        <v>3.1038250923156738</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H101" s="5">
-        <v>1.002266649110473</v>
+        <v>-9.3066359530469003E-2</v>
       </c>
       <c r="I101" s="5">
-        <v>0.60936846535464306</v>
+        <v>0.12893464198318</v>
       </c>
       <c r="J101" s="5">
-        <v>3.2809881055212879</v>
+        <v>1.5734053144731641</v>
       </c>
       <c r="K101" s="5">
-        <v>1.7924748410190321</v>
+        <v>4.8039977048164005E-2</v>
       </c>
       <c r="L101" s="5">
-        <v>4.7328415109411104</v>
+        <v>3.334768558008872</v>
       </c>
       <c r="M101" s="5">
-        <v>4.5431816789615054</v>
+        <v>4.4300458358761841</v>
       </c>
       <c r="N101" s="5">
-        <v>0.47029270005107804</v>
+        <v>-0.17661902480001801</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>23</v>
@@ -8231,7 +8231,7 @@
         <v>22.35829764659784</v>
       </c>
       <c r="S101" s="5">
-        <v>20.817901611328125</v>
+        <v>20.763994216918945</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8369,7 +8369,7 @@
         <v>164</v>
       </c>
       <c r="F104" s="5">
-        <v>4.7856101989746094</v>
+        <v>4.7856106758117676</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>0</v>
@@ -8487,7 +8487,7 @@
         <v>48</v>
       </c>
       <c r="F106" s="5">
-        <v>6.786865234375</v>
+        <v>6.7868647575378418</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>74</v>
       </c>
       <c r="F107" s="5">
-        <v>2.992094993591309</v>
+        <v>2.9920952320098881</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>0</v>
@@ -8668,25 +8668,25 @@
         <v>63</v>
       </c>
       <c r="H109" s="5">
-        <v>0</v>
+        <v>1.8972146847163002E-2</v>
       </c>
       <c r="I109" s="5">
-        <v>7.5960720932877007E-2</v>
+        <v>9.4947279159552006E-2</v>
       </c>
       <c r="J109" s="5">
-        <v>0.41920964676469602</v>
+        <v>0.43826132668165502</v>
       </c>
       <c r="K109" s="5">
-        <v>1.015914534399265</v>
+        <v>1.0447582850191981</v>
       </c>
       <c r="L109" s="5">
-        <v>2.2011096023622829</v>
+        <v>2.2006753363904559</v>
       </c>
       <c r="M109" s="5">
-        <v>2.151580940237463</v>
+        <v>2.170961288180151</v>
       </c>
       <c r="N109" s="5">
-        <v>3.353596838955974</v>
+        <v>3.3833450102398692</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>63</v>
@@ -8698,10 +8698,10 @@
         <v>269</v>
       </c>
       <c r="R109" s="5">
+        <v>105.44000244140625</v>
+      </c>
+      <c r="S109" s="5">
         <v>105.41999816894531</v>
-      </c>
-      <c r="S109" s="5">
-        <v>105.40000152587891</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8712,40 +8712,40 @@
         <v>271</v>
       </c>
       <c r="C110" s="5">
-        <v>12675004</v>
+        <v>12813866</v>
       </c>
       <c r="D110" s="5">
-        <v>936553664</v>
+        <v>937486912</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F110" s="5">
-        <v>5.7028799057006836</v>
+        <v>5.4638586044311523</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>205</v>
       </c>
       <c r="H110" s="5">
-        <v>1.0373554319300651</v>
+        <v>0.283349619482753</v>
       </c>
       <c r="I110" s="5">
-        <v>0.24763085173211702</v>
+        <v>0.79450130870213409</v>
       </c>
       <c r="J110" s="5">
-        <v>1.0320745440431711</v>
+        <v>1.3183485428192481</v>
       </c>
       <c r="K110" s="5">
-        <v>1.067917158737131</v>
+        <v>1.3542927174255541</v>
       </c>
       <c r="L110" s="5">
-        <v>2.1483388513421349</v>
+        <v>1.601752994255712</v>
       </c>
       <c r="M110" s="5">
-        <v>1.4321497995914529</v>
+        <v>1.7358891793536779</v>
       </c>
       <c r="N110" s="5">
-        <v>1.8520251458667309</v>
+        <v>1.405187690447951</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>23</v>
@@ -8760,7 +8760,7 @@
         <v>1.2413701504420209</v>
       </c>
       <c r="S110" s="5">
-        <v>1.1263488531112671</v>
+        <v>1.129540324211121</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8780,7 +8780,7 @@
         <v>63</v>
       </c>
       <c r="F111" s="5">
-        <v>4.5918517112731934</v>
+        <v>4.5918512344360352</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         <v>274</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C112" s="5">
         <v>12157084</v>
@@ -8945,117 +8945,117 @@
         <v>277</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C114" s="5">
-        <v>11716266</v>
+        <v>11670048</v>
       </c>
       <c r="D114" s="5">
-        <v>1703194240</v>
+        <v>1701792000</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F114" s="5">
-        <v>5.028571605682373</v>
+        <v>3.0675094127655029</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>1.039333735389403</v>
+        <v>-0.11086551137358101</v>
       </c>
       <c r="I114" s="5">
-        <v>0.24872299829616901</v>
+        <v>-7.027288396761501E-2</v>
       </c>
       <c r="J114" s="5">
-        <v>0.85580098550057704</v>
+        <v>0.25562845255684402</v>
       </c>
       <c r="K114" s="5">
-        <v>0.43462779328098405</v>
+        <v>0.62988428113177608</v>
       </c>
       <c r="L114" s="5">
-        <v>4.0396231250332093</v>
+        <v>1.52484803186832</v>
       </c>
       <c r="M114" s="5">
-        <v>3.806050861264842</v>
+        <v>1.940589385144742</v>
       </c>
       <c r="N114" s="5">
-        <v>-1.5722584413052081</v>
+        <v>1.6067984229944039</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R114" s="5">
-        <v>1.2907314399139329</v>
+        <v>24.924999237060547</v>
       </c>
       <c r="S114" s="5">
-        <v>1.1241006851196289</v>
+        <v>24.530000686645508</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A115" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="C115" s="5">
-        <v>11670048</v>
+        <v>11653563</v>
       </c>
       <c r="D115" s="5">
-        <v>1701792000</v>
+        <v>1704891520</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F115" s="5">
-        <v>3.0675091743469238</v>
+        <v>5.0185341835021973</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H115" s="5">
-        <v>-0.11086551137358101</v>
+        <v>0.28374915126347905</v>
       </c>
       <c r="I115" s="5">
-        <v>-7.027288396761501E-2</v>
+        <v>0.76760745601871505</v>
       </c>
       <c r="J115" s="5">
-        <v>0.25562845255684402</v>
+        <v>1.1419784647969111</v>
       </c>
       <c r="K115" s="5">
-        <v>0.62988428113177608</v>
+        <v>0.71961019721906705</v>
       </c>
       <c r="L115" s="5">
-        <v>1.52484803186832</v>
+        <v>2.9557900433290651</v>
       </c>
       <c r="M115" s="5">
-        <v>1.940589385144742</v>
+        <v>4.1173137114000724</v>
       </c>
       <c r="N115" s="5">
-        <v>1.6067984229944039</v>
+        <v>-2.0971878693571089</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R115" s="5">
-        <v>24.924999237060547</v>
+        <v>1.2907314399139329</v>
       </c>
       <c r="S115" s="5">
-        <v>24.530000686645508</v>
+        <v>1.1272902488708501</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9075,7 +9075,7 @@
         <v>74</v>
       </c>
       <c r="F116" s="5">
-        <v>3.856191873550415</v>
+        <v>3.8561916351318359</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>0</v>
@@ -9184,40 +9184,40 @@
         <v>284</v>
       </c>
       <c r="C118" s="5">
-        <v>11174545</v>
+        <v>11200748</v>
       </c>
       <c r="D118" s="5">
-        <v>1017485504</v>
+        <v>1019871488</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F118" s="5">
-        <v>2.584220170974731</v>
+        <v>2.585385799407959</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H118" s="5">
-        <v>0.284003201442729</v>
+        <v>0.189305482157476</v>
       </c>
       <c r="I118" s="5">
-        <v>-0.109561363748956</v>
+        <v>-0.32729657119580102</v>
       </c>
       <c r="J118" s="5">
-        <v>2.5064327090563281</v>
+        <v>1.349668131064208</v>
       </c>
       <c r="K118" s="5">
-        <v>1.5642061760752002</v>
+        <v>0.31422955097115701</v>
       </c>
       <c r="L118" s="5">
-        <v>3.0949156681542078</v>
+        <v>2.6068103102008688</v>
       </c>
       <c r="M118" s="5">
-        <v>2.9082219424661599</v>
+        <v>3.0873952091723829</v>
       </c>
       <c r="N118" s="5">
-        <v>-1.4911475912464329</v>
+        <v>-1.579170139162112</v>
       </c>
       <c r="O118" s="6" t="s">
         <v>23</v>
@@ -9232,7 +9232,7 @@
         <v>17.781441057097091</v>
       </c>
       <c r="S118" s="5">
-        <v>16.766195297241211</v>
+        <v>16.770046234130859</v>
       </c>
     </row>
     <row r="119" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9302,40 +9302,40 @@
         <v>289</v>
       </c>
       <c r="C120" s="5">
-        <v>11108474</v>
+        <v>11045277</v>
       </c>
       <c r="D120" s="5">
-        <v>1774333824</v>
+        <v>1776101888</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F120" s="5">
-        <v>3.8536720275878911</v>
+        <v>4.3502507209777832</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>205</v>
       </c>
       <c r="H120" s="5">
-        <v>0.87472431974082709</v>
+        <v>0.22332322663145601</v>
       </c>
       <c r="I120" s="5">
-        <v>6.7795753499333006E-2</v>
+        <v>0.54632888936789703</v>
       </c>
       <c r="J120" s="5">
-        <v>0.87563647487143303</v>
+        <v>1.100915201132135</v>
       </c>
       <c r="K120" s="5">
-        <v>0.28943394126534905</v>
+        <v>0.51340354111342201</v>
       </c>
       <c r="L120" s="5">
-        <v>3.792262000471069</v>
+        <v>2.910479713986946</v>
       </c>
       <c r="M120" s="5">
-        <v>3.684761301902828</v>
+        <v>3.9329979298173829</v>
       </c>
       <c r="N120" s="5">
-        <v>-0.59411522033572306</v>
+        <v>-0.79526454885621212</v>
       </c>
       <c r="O120" s="6" t="s">
         <v>23</v>
@@ -9350,7 +9350,7 @@
         <v>1.2940666123156639</v>
       </c>
       <c r="S120" s="5">
-        <v>1.1501156091690059</v>
+        <v>1.152684092521667</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9429,7 +9429,7 @@
         <v>63</v>
       </c>
       <c r="F122" s="5">
-        <v>2.1971888542175289</v>
+        <v>2.1971886157989502</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>0</v>
@@ -9597,114 +9597,114 @@
         <v>299</v>
       </c>
       <c r="C125" s="5">
-        <v>9863078</v>
+        <v>9858003</v>
       </c>
       <c r="D125" s="5">
-        <v>8028433408</v>
+        <v>689984960</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="F125" s="5">
-        <v>2.166637659072876</v>
+        <v>4.0923962593078613</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>-0.16516117408157402</v>
+        <v>-0.299989167329551</v>
       </c>
       <c r="I125" s="5">
-        <v>-0.16041987198749402</v>
+        <v>-0.38483925220295101</v>
       </c>
       <c r="J125" s="5">
-        <v>1.545645148168084</v>
+        <v>-0.51184392977451409</v>
       </c>
       <c r="K125" s="5">
-        <v>0.14398456586270902</v>
+        <v>-1.3878585135215999</v>
       </c>
       <c r="L125" s="5">
-        <v>4.6931656509995765</v>
+        <v>1.4971520711523301</v>
       </c>
       <c r="M125" s="5">
-        <v>3.279519865614966</v>
+        <v>1.736009222385237</v>
       </c>
       <c r="N125" s="5">
-        <v>4.2100255950442644</v>
+        <v>0.58259368161166503</v>
       </c>
       <c r="O125" s="6" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="R125" s="5">
-        <v>128.44346529159546</v>
+        <v>24.530000686645508</v>
       </c>
       <c r="S125" s="5">
-        <v>126.16712951660156</v>
+        <v>23.329999923706055</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A126" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" s="5">
+        <v>9848604</v>
+      </c>
+      <c r="D126" s="5">
+        <v>8016651776</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" s="5">
+        <v>2.1664505004882808</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="H126" s="5">
+        <v>-0.18374670443486202</v>
+      </c>
+      <c r="I126" s="5">
+        <v>-0.58400474444027006</v>
+      </c>
+      <c r="J126" s="5">
+        <v>1.359058371711219</v>
+      </c>
+      <c r="K126" s="5">
+        <v>-0.57774563107254606</v>
+      </c>
+      <c r="L126" s="5">
+        <v>3.4341835008734778</v>
+      </c>
+      <c r="M126" s="5">
+        <v>3.1368850830297168</v>
+      </c>
+      <c r="N126" s="5">
+        <v>4.2145741257705538</v>
+      </c>
+      <c r="O126" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C126" s="5">
-        <v>9858003</v>
-      </c>
-      <c r="D126" s="5">
-        <v>689984960</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" s="5">
-        <v>4.0923962593078613</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" s="5">
-        <v>-0.299989167329551</v>
-      </c>
-      <c r="I126" s="5">
-        <v>-0.38483925220295101</v>
-      </c>
-      <c r="J126" s="5">
-        <v>-0.51184392977451409</v>
-      </c>
-      <c r="K126" s="5">
-        <v>-1.3878585135215999</v>
-      </c>
-      <c r="L126" s="5">
-        <v>1.4971520711523301</v>
-      </c>
-      <c r="M126" s="5">
-        <v>1.736009222385237</v>
-      </c>
-      <c r="N126" s="5">
-        <v>0.58259368161166503</v>
-      </c>
-      <c r="O126" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="P126" s="6" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="R126" s="5">
-        <v>24.530000686645508</v>
+        <v>128.44346529159546</v>
       </c>
       <c r="S126" s="5">
-        <v>23.329999923706055</v>
+        <v>125.935302734375</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9715,40 +9715,40 @@
         <v>306</v>
       </c>
       <c r="C127" s="5">
-        <v>9734046</v>
+        <v>9756872</v>
       </c>
       <c r="D127" s="5">
-        <v>4662150144</v>
+        <v>4673082368</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F127" s="5">
-        <v>3.5450515747070312</v>
+        <v>3.56083083152771</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H127" s="5">
-        <v>0.97910148632349703</v>
+        <v>-0.20967580035345901</v>
       </c>
       <c r="I127" s="5">
-        <v>0.65532865694630804</v>
+        <v>-0.12566122893487</v>
       </c>
       <c r="J127" s="5">
-        <v>3.2841494579451291</v>
+        <v>1.4530430921665172</v>
       </c>
       <c r="K127" s="5">
-        <v>1.7444554660682732</v>
+        <v>-0.27389817651210002</v>
       </c>
       <c r="L127" s="5">
-        <v>4.6299446590489346</v>
+        <v>2.9884395755841231</v>
       </c>
       <c r="M127" s="5">
-        <v>4.4404711621229609</v>
+        <v>4.2056774936744654</v>
       </c>
       <c r="N127" s="5">
-        <v>0.41251876206454002</v>
+        <v>-0.354322904271409</v>
       </c>
       <c r="O127" s="6" t="s">
         <v>23</v>
@@ -9763,7 +9763,7 @@
         <v>11.046694125250491</v>
       </c>
       <c r="S127" s="5">
-        <v>10.235089302062988</v>
+        <v>10.196671485900879</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9833,55 +9833,53 @@
         <v>310</v>
       </c>
       <c r="C129" s="5">
-        <v>9058316</v>
+        <v>9145258</v>
       </c>
       <c r="D129" s="5">
-        <v>959936000</v>
+        <v>1147052928</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F129" s="5">
-        <v>3.6274933815002441</v>
-      </c>
+      <c r="F129" s="5"/>
       <c r="G129" s="6" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H129" s="5">
-        <v>-0.19748959457001103</v>
+        <v>0.76802575350294311</v>
       </c>
       <c r="I129" s="5">
-        <v>-0.42856389582793802</v>
+        <v>0.138129127514941</v>
       </c>
       <c r="J129" s="5">
-        <v>-0.128862246294148</v>
+        <v>1.090086116207134</v>
       </c>
       <c r="K129" s="5">
-        <v>-1.08530441457797</v>
+        <v>2.196513732810379</v>
       </c>
       <c r="L129" s="5">
-        <v>2.1213492347111012</v>
+        <v>-0.13686167627597901</v>
       </c>
       <c r="M129" s="5">
-        <v>2.6361526172249632</v>
+        <v>-1.6453801546116531</v>
       </c>
       <c r="N129" s="5">
-        <v>-1.3561231035394861</v>
+        <v>2.8252191724483122</v>
       </c>
       <c r="O129" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="R129" s="5">
-        <v>46.220001220703125</v>
+        <v>85.730163269603835</v>
       </c>
       <c r="S129" s="5">
-        <v>43.004901885986328</v>
+        <v>82.043548583984375</v>
       </c>
     </row>
     <row r="130" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -9889,159 +9887,159 @@
         <v>311</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="C130" s="5">
-        <v>9028338</v>
+        <v>9118501</v>
       </c>
       <c r="D130" s="5">
-        <v>775696512</v>
+        <v>538594048</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F130" s="5">
-        <v>4.6060948371887207</v>
-      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="6" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="H130" s="5">
-        <v>-0.23039637096427001</v>
+        <v>0.39267854576952005</v>
       </c>
       <c r="I130" s="5">
-        <v>-0.85869512069779408</v>
+        <v>0.21908115082907001</v>
       </c>
       <c r="J130" s="5">
-        <v>-0.23039637096427001</v>
+        <v>-1.02910016831983</v>
       </c>
       <c r="K130" s="5">
-        <v>-1.4188471662126001</v>
+        <v>-3.108688094273226</v>
       </c>
       <c r="L130" s="5">
-        <v>1.7765706196873232</v>
+        <v>-2.3776400664408999</v>
       </c>
       <c r="M130" s="5">
-        <v>2.089999224197769</v>
+        <v>-1.7930843627020692</v>
       </c>
       <c r="N130" s="5">
-        <v>-1.933316218856596</v>
+        <v>-3.651542488506776</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="Q130" s="6" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="R130" s="5">
-        <v>49.367500305175781</v>
+        <v>16.756753106025453</v>
       </c>
       <c r="S130" s="5">
-        <v>45.479999542236328</v>
+        <v>15.92339038848877</v>
       </c>
     </row>
     <row r="131" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A131" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C131" s="5">
-        <v>8845482</v>
+        <v>9058316</v>
       </c>
       <c r="D131" s="5">
-        <v>536608576</v>
+        <v>959936000</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F131" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F131" s="5">
+        <v>3.6274933815002441</v>
+      </c>
       <c r="G131" s="6" t="s">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="H131" s="5">
-        <v>0.12035301636637001</v>
+        <v>-0.19748959457001103</v>
       </c>
       <c r="I131" s="5">
-        <v>8.0602180583189006E-2</v>
+        <v>-0.42856389582793802</v>
       </c>
       <c r="J131" s="5">
-        <v>-1.4162175316810082</v>
+        <v>-0.128862246294148</v>
       </c>
       <c r="K131" s="5">
-        <v>-3.5440009946675839</v>
+        <v>-1.08530441457797</v>
       </c>
       <c r="L131" s="5">
-        <v>-2.146202026093702</v>
+        <v>2.1213492347111012</v>
       </c>
       <c r="M131" s="5">
-        <v>-2.170428698974769</v>
+        <v>2.6361526172249632</v>
       </c>
       <c r="N131" s="5">
-        <v>-4.0155122364898261</v>
+        <v>-1.3561231035394861</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="R131" s="5">
-        <v>16.756753106025453</v>
+        <v>46.220001220703125</v>
       </c>
       <c r="S131" s="5">
-        <v>15.86110782623291</v>
+        <v>43.004901885986328</v>
       </c>
     </row>
     <row r="132" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A132" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="C132" s="5">
-        <v>8546018</v>
+        <v>9028338</v>
       </c>
       <c r="D132" s="5">
-        <v>1455985024</v>
+        <v>775696512</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F132" s="5">
-        <v>5.9098844528198242</v>
+        <v>4.6060948371887207</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H132" s="5">
-        <v>-0.143890643941258</v>
+        <v>-0.23039637096427001</v>
       </c>
       <c r="I132" s="5">
-        <v>-0.35979839602875402</v>
+        <v>-0.85869512069779408</v>
       </c>
       <c r="J132" s="5">
-        <v>-0.30591162025659402</v>
+        <v>-0.23039637096427001</v>
       </c>
       <c r="K132" s="5">
-        <v>-1.7679500788138962</v>
+        <v>-1.4188471662126001</v>
       </c>
       <c r="L132" s="5">
-        <v>1.383046136080468</v>
+        <v>1.7765706196873232</v>
       </c>
       <c r="M132" s="5">
-        <v>1.492939445958164</v>
+        <v>2.089999224197769</v>
       </c>
       <c r="N132" s="5">
-        <v>-2.2810315767140881</v>
+        <v>-1.933316218856596</v>
       </c>
       <c r="O132" s="6" t="s">
         <v>23</v>
@@ -10053,69 +10051,69 @@
         <v>25</v>
       </c>
       <c r="R132" s="5">
-        <v>20.090000152587891</v>
+        <v>49.367500305175781</v>
       </c>
       <c r="S132" s="5">
-        <v>18.343099594116211</v>
+        <v>45.479999542236328</v>
       </c>
     </row>
     <row r="133" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A133" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="C133" s="5">
-        <v>8464098</v>
+        <v>8546018</v>
       </c>
       <c r="D133" s="5">
-        <v>374235456</v>
+        <v>1455985024</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F133" s="5">
-        <v>3.638802051544189</v>
+        <v>5.9098844528198242</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="H133" s="5">
-        <v>9.2133387505355005E-2</v>
+        <v>-0.143890643941258</v>
       </c>
       <c r="I133" s="5">
-        <v>-1.0467306192008001E-2</v>
+        <v>-0.35979839602875402</v>
       </c>
       <c r="J133" s="5">
-        <v>1.3461395678774579</v>
+        <v>-0.30591162025659402</v>
       </c>
       <c r="K133" s="5">
-        <v>-0.333296486792933</v>
+        <v>-1.7679500788138962</v>
       </c>
       <c r="L133" s="5">
-        <v>1.7291402554420192</v>
+        <v>1.383046136080468</v>
       </c>
       <c r="M133" s="5">
-        <v>0.44479430805046705</v>
+        <v>1.492939445958164</v>
       </c>
       <c r="N133" s="5">
-        <v>2.9840034949069949</v>
+        <v>-2.2810315767140881</v>
       </c>
       <c r="O133" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="R133" s="5">
-        <v>18.290844313546561</v>
+        <v>20.090000152587891</v>
       </c>
       <c r="S133" s="5">
-        <v>17.243032455444336</v>
+        <v>18.343099594116211</v>
       </c>
     </row>
     <row r="134" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10126,112 +10124,114 @@
         <v>322</v>
       </c>
       <c r="C134" s="5">
-        <v>8438270</v>
+        <v>8417486</v>
       </c>
       <c r="D134" s="5">
-        <v>1144763136</v>
+        <v>1542760320</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F134" s="5"/>
+        <v>302</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0.8178908228874211</v>
+      </c>
       <c r="G134" s="6" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="H134" s="5">
-        <v>0.92659952435298909</v>
+        <v>0.24637743213402602</v>
       </c>
       <c r="I134" s="5">
-        <v>5.5257790180296001E-2</v>
+        <v>-0.21482922099505003</v>
       </c>
       <c r="J134" s="5">
-        <v>0.31960570855285003</v>
+        <v>0.96217647536547313</v>
       </c>
       <c r="K134" s="5">
-        <v>1.2294013521690019</v>
+        <v>-0.72886859474792209</v>
       </c>
       <c r="L134" s="5">
-        <v>-0.25078225558856604</v>
+        <v>3.6414665288380332</v>
       </c>
       <c r="M134" s="5">
-        <v>-1.8555667176970991</v>
+        <v>3.6261994806931153</v>
       </c>
       <c r="N134" s="5">
-        <v>2.4149931039399331</v>
+        <v>1.000261784841205</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="R134" s="5">
-        <v>85.730163269603835</v>
+        <v>160.00983975448608</v>
       </c>
       <c r="S134" s="5">
-        <v>81.418235778808594</v>
+        <v>156.97154235839844</v>
       </c>
     </row>
     <row r="135" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A135" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C135" s="5">
-        <v>8398948</v>
+        <v>8334442.5</v>
       </c>
       <c r="D135" s="5">
-        <v>1539362688</v>
+        <v>375469440</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="F135" s="5">
-        <v>0.81848776340484608</v>
+        <v>3.637393712997437</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="H135" s="5">
-        <v>-0.27879448161956</v>
+        <v>0.34467616982492005</v>
       </c>
       <c r="I135" s="5">
-        <v>-0.47492613624631203</v>
+        <v>0.27413636331319302</v>
       </c>
       <c r="J135" s="5">
-        <v>0.71403981028246311</v>
+        <v>1.6954555600054322</v>
       </c>
       <c r="K135" s="5">
-        <v>-0.18223766777498701</v>
+        <v>0.64445230778289508</v>
       </c>
       <c r="L135" s="5">
-        <v>4.5492316036009672</v>
+        <v>0.33495412336936903</v>
       </c>
       <c r="M135" s="5">
-        <v>3.322578857947311</v>
+        <v>0.77598929921614002</v>
       </c>
       <c r="N135" s="5">
-        <v>0.97173993484505106</v>
+        <v>2.3456958656032261</v>
       </c>
       <c r="O135" s="6" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="R135" s="5">
-        <v>160.00983975448608</v>
+        <v>18.290844313546561</v>
       </c>
       <c r="S135" s="5">
-        <v>156.58575439453125</v>
+        <v>17.302463531494141</v>
       </c>
     </row>
     <row r="136" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10298,7 +10298,7 @@
         <v>329</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C137" s="5">
         <v>8143752</v>
@@ -10310,7 +10310,7 @@
         <v>66</v>
       </c>
       <c r="F137" s="5">
-        <v>3.5435516834259029</v>
+        <v>3.543551921844482</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>48</v>
       </c>
       <c r="F139" s="5">
-        <v>0.80861562490463301</v>
+        <v>0.80861568450927701</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>0</v>
@@ -10475,117 +10475,117 @@
         <v>333</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="C140" s="5">
-        <v>7950193.5</v>
+        <v>7888384.5</v>
       </c>
       <c r="D140" s="5">
-        <v>302400640</v>
+        <v>1306132608</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F140" s="5">
-        <v>3.0940594673156738</v>
+        <v>3.3194565773010249</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="H140" s="5">
-        <v>0.77495542510113102</v>
+        <v>-5.2420670783748007E-2</v>
       </c>
       <c r="I140" s="5">
-        <v>-0.60301590544851202</v>
+        <v>-0.17526256083612002</v>
       </c>
       <c r="J140" s="5">
-        <v>-0.36244380861316605</v>
+        <v>-0.13434621974789401</v>
       </c>
       <c r="K140" s="5">
-        <v>-1.138282982401873</v>
+        <v>-0.370609317314674</v>
       </c>
       <c r="L140" s="5">
-        <v>3.2831011937205949</v>
+        <v>1.298114365701974</v>
       </c>
       <c r="M140" s="5">
-        <v>2.993048602331672</v>
+        <v>1.506374206436067</v>
       </c>
       <c r="N140" s="5">
-        <v>-7.9255157245340939</v>
+        <v>0.77750136905769807</v>
       </c>
       <c r="O140" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R140" s="5">
-        <v>1.2363672646107531</v>
+        <v>25.190000534057617</v>
       </c>
       <c r="S140" s="5">
-        <v>1.038026690483093</v>
+        <v>24.299999237060547</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A141" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="C141" s="5">
-        <v>7888384.5</v>
+        <v>7886794</v>
       </c>
       <c r="D141" s="5">
-        <v>1306132608</v>
+        <v>2047643136</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F141" s="5">
-        <v>3.319456815719604</v>
+        <v>3.0171563625335689</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H141" s="5">
-        <v>-5.2420670783748007E-2</v>
+        <v>5.9192539692643008E-2</v>
       </c>
       <c r="I141" s="5">
-        <v>-0.17526256083612002</v>
+        <v>0.11333552187096101</v>
       </c>
       <c r="J141" s="5">
-        <v>-0.13434621974789401</v>
+        <v>0.90819732285871702</v>
       </c>
       <c r="K141" s="5">
-        <v>-0.370609317314674</v>
+        <v>0.33016905597582602</v>
       </c>
       <c r="L141" s="5">
-        <v>1.298114365701974</v>
+        <v>2.542930567860235</v>
       </c>
       <c r="M141" s="5">
-        <v>1.506374206436067</v>
+        <v>2.7475591572539093</v>
       </c>
       <c r="N141" s="5">
-        <v>0.77750136905769807</v>
+        <v>2.535440320157667</v>
       </c>
       <c r="O141" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R141" s="5">
-        <v>25.190000534057617</v>
+        <v>52</v>
       </c>
       <c r="S141" s="5">
-        <v>24.299999237060547</v>
+        <v>50.709999084472656</v>
       </c>
     </row>
     <row r="142" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10596,55 +10596,55 @@
         <v>337</v>
       </c>
       <c r="C142" s="5">
-        <v>7886794</v>
+        <v>7883605</v>
       </c>
       <c r="D142" s="5">
-        <v>2047643136</v>
+        <v>302701984</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F142" s="5">
-        <v>3.0171563625335689</v>
+        <v>3.095975399017334</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H142" s="5">
-        <v>5.9192539692643008E-2</v>
+        <v>2.1648529905494002E-2</v>
       </c>
       <c r="I142" s="5">
-        <v>0.11333552187096101</v>
+        <v>-0.42093713789860304</v>
       </c>
       <c r="J142" s="5">
-        <v>0.90819732285871702</v>
+        <v>-0.34087374246396501</v>
       </c>
       <c r="K142" s="5">
-        <v>0.33016905597582602</v>
+        <v>-1.116880874028225</v>
       </c>
       <c r="L142" s="5">
-        <v>2.542930567860235</v>
+        <v>1.484295327600949</v>
       </c>
       <c r="M142" s="5">
-        <v>2.7475591572539093</v>
+        <v>3.031884900086701</v>
       </c>
       <c r="N142" s="5">
-        <v>2.535440320157667</v>
+        <v>-8.5438832278752823</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R142" s="5">
-        <v>52</v>
+        <v>1.2363672646107531</v>
       </c>
       <c r="S142" s="5">
-        <v>50.709999084472656</v>
+        <v>1.038251399993896</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -10723,7 +10723,7 @@
         <v>51</v>
       </c>
       <c r="F144" s="5">
-        <v>10.949999809265137</v>
+        <v>10.950000762939453</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>48</v>
       </c>
       <c r="F146" s="5">
-        <v>5.1566472053527832</v>
+        <v>5.1566476821899414</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>66</v>
       </c>
       <c r="F147" s="5">
-        <v>3.8745520114898682</v>
+        <v>3.8745522499084473</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>0</v>
@@ -10950,40 +10950,40 @@
         <v>350</v>
       </c>
       <c r="C148" s="5">
-        <v>6918903.5</v>
+        <v>6935128</v>
       </c>
       <c r="D148" s="5">
-        <v>2424900096</v>
+        <v>2430586368</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F148" s="5">
-        <v>2.9998397827148442</v>
+        <v>3.0092060565948491</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H148" s="5">
-        <v>0.94774701830617802</v>
+        <v>-7.7480057094403004E-2</v>
       </c>
       <c r="I148" s="5">
-        <v>0.68661157104623605</v>
+        <v>2.1603125527569003E-2</v>
       </c>
       <c r="J148" s="5">
-        <v>3.2899854419090819</v>
+        <v>1.5259087899152979</v>
       </c>
       <c r="K148" s="5">
-        <v>1.7404288359849971</v>
+        <v>-0.16713558245360402</v>
       </c>
       <c r="L148" s="5">
-        <v>5.0114334326934129</v>
+        <v>3.1246004270960799</v>
       </c>
       <c r="M148" s="5">
-        <v>4.8212691009188244</v>
+        <v>4.7241675957929052</v>
       </c>
       <c r="N148" s="5">
-        <v>0.42655742146136005</v>
+        <v>-0.108423760471876</v>
       </c>
       <c r="O148" s="6" t="s">
         <v>23</v>
@@ -10998,7 +10998,7 @@
         <v>18.246631867382749</v>
       </c>
       <c r="S148" s="5">
-        <v>17.000528335571289</v>
+        <v>16.959152221679688</v>
       </c>
     </row>
     <row r="149" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11018,7 +11018,7 @@
         <v>66</v>
       </c>
       <c r="F149" s="5">
-        <v>5.9964427947998047</v>
+        <v>5.9964432716369629</v>
       </c>
       <c r="G149" s="6" t="s">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>63</v>
       </c>
       <c r="F150" s="5">
-        <v>3.459436178207397</v>
+        <v>3.4594359397888179</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>0</v>
@@ -11186,40 +11186,40 @@
         <v>356</v>
       </c>
       <c r="C152" s="5">
-        <v>6551896.5</v>
+        <v>6567260</v>
       </c>
       <c r="D152" s="5">
-        <v>215121120</v>
+        <v>215625568</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F152" s="5">
-        <v>4.9400477409362793</v>
+        <v>4.9380741119384775</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H152" s="5">
-        <v>0.17876608156994803</v>
+        <v>0.27456056954700003</v>
       </c>
       <c r="I152" s="5">
-        <v>-8.2867291852251002E-2</v>
+        <v>-0.15263688498247102</v>
       </c>
       <c r="J152" s="5">
-        <v>3.1954927820485151</v>
+        <v>2.0982005175503859</v>
       </c>
       <c r="K152" s="5">
-        <v>3.475542749925054</v>
+        <v>2.9667030481909111</v>
       </c>
       <c r="L152" s="5">
-        <v>4.504665672011865</v>
+        <v>4.3268231021452053</v>
       </c>
       <c r="M152" s="5">
-        <v>4.3154190417619809</v>
+        <v>4.585963089088918</v>
       </c>
       <c r="N152" s="5">
-        <v>0.91042566510450806</v>
+        <v>1.0161349230929151</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>23</v>
@@ -11234,7 +11234,7 @@
         <v>39.291881957183662</v>
       </c>
       <c r="S152" s="5">
-        <v>37.82598876953125</v>
+        <v>37.866870880126953</v>
       </c>
     </row>
     <row r="153" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11245,40 +11245,40 @@
         <v>358</v>
       </c>
       <c r="C153" s="5">
-        <v>6546881</v>
+        <v>6562233</v>
       </c>
       <c r="D153" s="5">
-        <v>2464436736</v>
+        <v>2470215680</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F153" s="5">
-        <v>2.6750097274780269</v>
+        <v>2.6792008876800542</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H153" s="5">
-        <v>0.47308854864349703</v>
+        <v>7.7701636495764004E-2</v>
       </c>
       <c r="I153" s="5">
-        <v>6.6771600102733003E-2</v>
+        <v>-0.19412392758320102</v>
       </c>
       <c r="J153" s="5">
-        <v>2.6598462974230852</v>
+        <v>1.3901009898112051</v>
       </c>
       <c r="K153" s="5">
-        <v>1.508670805369472</v>
+        <v>0.32994303817754905</v>
       </c>
       <c r="L153" s="5">
-        <v>3.175466061910059</v>
+        <v>2.6366384500022599</v>
       </c>
       <c r="M153" s="5">
-        <v>2.9886264681836083</v>
+        <v>3.053017892131527</v>
       </c>
       <c r="N153" s="5">
-        <v>-1.3448198439828469</v>
+        <v>-1.645307148185327</v>
       </c>
       <c r="O153" s="6" t="s">
         <v>23</v>
@@ -11293,7 +11293,7 @@
         <v>20.466321003944277</v>
       </c>
       <c r="S153" s="5">
-        <v>19.328746795654297</v>
+        <v>19.311649322509766</v>
       </c>
     </row>
     <row r="154" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11363,10 +11363,10 @@
         <v>362</v>
       </c>
       <c r="C155" s="5">
-        <v>6449054.5</v>
+        <v>6464177</v>
       </c>
       <c r="D155" s="5">
-        <v>1552704896</v>
+        <v>1556345856</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>63</v>
@@ -11376,25 +11376,25 @@
         <v>63</v>
       </c>
       <c r="H155" s="5">
-        <v>0.27165258438419704</v>
+        <v>0.19687501068992302</v>
       </c>
       <c r="I155" s="5">
-        <v>-0.36521960745384802</v>
+        <v>-0.34715008282194504</v>
       </c>
       <c r="J155" s="5">
-        <v>3.1775280061393962</v>
+        <v>2.158762522106827</v>
       </c>
       <c r="K155" s="5">
-        <v>3.4422359977519972</v>
+        <v>2.3423751088027078</v>
       </c>
       <c r="L155" s="5">
-        <v>4.5313080807886763</v>
+        <v>4.0413134724847311</v>
       </c>
       <c r="M155" s="5">
-        <v>4.3420132040222548</v>
+        <v>4.5315798419116593</v>
       </c>
       <c r="N155" s="5">
-        <v>1.68080519254814</v>
+        <v>1.6881279202143111</v>
       </c>
       <c r="O155" s="6" t="s">
         <v>63</v>
@@ -11409,7 +11409,7 @@
         <v>81.355543091618884</v>
       </c>
       <c r="S155" s="5">
-        <v>80.557861328125</v>
+        <v>80.582450866699219</v>
       </c>
     </row>
     <row r="156" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11429,7 +11429,7 @@
         <v>51</v>
       </c>
       <c r="F156" s="5">
-        <v>6.4285721778869629</v>
+        <v>6.4285717010498047</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>131</v>
       </c>
       <c r="F157" s="5">
-        <v>5.7546696662902832</v>
+        <v>5.754669189453125</v>
       </c>
       <c r="G157" s="6" t="s">
         <v>0</v>
@@ -11597,40 +11597,40 @@
         <v>370</v>
       </c>
       <c r="C159" s="5">
-        <v>5969012.5</v>
+        <v>5983009.5</v>
       </c>
       <c r="D159" s="5">
-        <v>1265479040</v>
+        <v>1268446464</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F159" s="5">
-        <v>3.5113387107849121</v>
+        <v>3.5450515747070312</v>
       </c>
       <c r="G159" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H159" s="5">
-        <v>2.100673175846679</v>
+        <v>-0.71872054014348008</v>
       </c>
       <c r="I159" s="5">
-        <v>1.9984361749762591</v>
+        <v>0.68964046458130901</v>
       </c>
       <c r="J159" s="5">
-        <v>5.1295266092126424</v>
+        <v>2.1285296785420682</v>
       </c>
       <c r="K159" s="5">
-        <v>1.8284123020761101</v>
+        <v>-1.1855147608136221</v>
       </c>
       <c r="L159" s="5">
-        <v>7.0597055481470328</v>
+        <v>3.5176820497679229</v>
       </c>
       <c r="M159" s="5">
-        <v>6.865832017427187</v>
+        <v>6.081673482166261</v>
       </c>
       <c r="N159" s="5">
-        <v>1.2194774425003501</v>
+        <v>0.15457226902000401</v>
       </c>
       <c r="O159" s="6" t="s">
         <v>23</v>
@@ -11645,7 +11645,7 @@
         <v>11.57160800514233</v>
       </c>
       <c r="S159" s="5">
-        <v>10.333358764648437</v>
+        <v>10.242057800292969</v>
       </c>
     </row>
     <row r="160" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11656,55 +11656,55 @@
         <v>372</v>
       </c>
       <c r="C160" s="5">
-        <v>5817648</v>
+        <v>5891620.5</v>
       </c>
       <c r="D160" s="5">
-        <v>383918400</v>
+        <v>987955264</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F160" s="5">
-        <v>4.3768520355224609</v>
+        <v>4.6231660842895508</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H160" s="5">
-        <v>5.3048853742399003E-2</v>
+        <v>0.15958304118659503</v>
       </c>
       <c r="I160" s="5">
-        <v>7.7904235257842E-2</v>
+        <v>0.54694033231732508</v>
       </c>
       <c r="J160" s="5">
-        <v>0.30223614698545703</v>
+        <v>1.55869895638534</v>
       </c>
       <c r="K160" s="5">
-        <v>1.0390807000260069</v>
+        <v>0.71883028782706604</v>
       </c>
       <c r="L160" s="5">
-        <v>2.3856967022227731</v>
+        <v>4.3396075730521622</v>
       </c>
       <c r="M160" s="5">
-        <v>2.3984947261776139</v>
+        <v>4.9749880115098399</v>
       </c>
       <c r="N160" s="5">
-        <v>4.3583755397357926</v>
+        <v>2.72738429677768</v>
       </c>
       <c r="O160" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R160" s="5">
-        <v>40.340000152587891</v>
+        <v>1.3614381381057341</v>
       </c>
       <c r="S160" s="5">
-        <v>40.125</v>
+        <v>1.2709740400314331</v>
       </c>
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11715,55 +11715,55 @@
         <v>374</v>
       </c>
       <c r="C161" s="5">
-        <v>5717803</v>
+        <v>5817648</v>
       </c>
       <c r="D161" s="5">
-        <v>986971776</v>
+        <v>383918400</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F161" s="5">
-        <v>5.0923819541931152</v>
+        <v>4.3768520355224609</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>0.87481444361059402</v>
+        <v>5.3048853742399003E-2</v>
       </c>
       <c r="I161" s="5">
-        <v>0.16082425092629501</v>
+        <v>7.7904235257842E-2</v>
       </c>
       <c r="J161" s="5">
-        <v>1.396886720887625</v>
+        <v>0.30223614698545703</v>
       </c>
       <c r="K161" s="5">
-        <v>0.55835620482813708</v>
+        <v>1.0390807000260069</v>
       </c>
       <c r="L161" s="5">
-        <v>5.076842432441242</v>
+        <v>2.3856967022227731</v>
       </c>
       <c r="M161" s="5">
-        <v>4.7909077488236704</v>
+        <v>2.3984947261776139</v>
       </c>
       <c r="N161" s="5">
-        <v>3.1128092463382551</v>
+        <v>4.3583755397357926</v>
       </c>
       <c r="O161" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="Q161" s="6" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R161" s="5">
-        <v>1.3614381381057341</v>
+        <v>40.340000152587891</v>
       </c>
       <c r="S161" s="5">
-        <v>1.268949031829834</v>
+        <v>40.125</v>
       </c>
     </row>
     <row r="162" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11774,40 +11774,40 @@
         <v>376</v>
       </c>
       <c r="C162" s="5">
-        <v>5670469</v>
+        <v>5662147.5</v>
       </c>
       <c r="D162" s="5">
-        <v>4413060096</v>
+        <v>4406584320</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F162" s="5">
-        <v>4.5514583587646484</v>
+        <v>4.5517086982727051</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H162" s="5">
-        <v>-8.4314364516680007E-2</v>
+        <v>-0.19786730454213203</v>
       </c>
       <c r="I162" s="5">
-        <v>0.45115372865645004</v>
+        <v>-0.26562663671554404</v>
       </c>
       <c r="J162" s="5">
-        <v>1.9458713747060761</v>
+        <v>1.744153826924943</v>
       </c>
       <c r="K162" s="5">
-        <v>1.1497820604629889</v>
+        <v>0.86082583687270309</v>
       </c>
       <c r="L162" s="5">
-        <v>6.9620328480399118</v>
+        <v>5.5517664742394723</v>
       </c>
       <c r="M162" s="5">
-        <v>5.9046331916489336</v>
+        <v>5.7434117733570433</v>
       </c>
       <c r="N162" s="5">
-        <v>14.669735499764759</v>
+        <v>14.297556697605485</v>
       </c>
       <c r="O162" s="6" t="s">
         <v>377</v>
@@ -11822,7 +11822,7 @@
         <v>101.95551300125122</v>
       </c>
       <c r="S162" s="5">
-        <v>99.171859741210937</v>
+        <v>98.975631713867188</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11833,55 +11833,55 @@
         <v>379</v>
       </c>
       <c r="C163" s="5">
-        <v>5652022</v>
+        <v>5585672.5</v>
       </c>
       <c r="D163" s="5">
-        <v>1494520320</v>
+        <v>1089588480</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F163" s="5">
-        <v>4.767064094543457</v>
+        <v>1.94975733757019</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H163" s="5">
-        <v>0.98780524154806804</v>
+        <v>0.30528530325479902</v>
       </c>
       <c r="I163" s="5">
-        <v>0.35688794004427005</v>
+        <v>-0.105750142362593</v>
       </c>
       <c r="J163" s="5">
-        <v>1.6067483681758921</v>
+        <v>-0.6077356944223401</v>
       </c>
       <c r="K163" s="5">
-        <v>1.017398681185111</v>
+        <v>-4.2141443945773354</v>
       </c>
       <c r="L163" s="5">
-        <v>4.8105401268643266</v>
+        <v>0.71635562095306904</v>
       </c>
       <c r="M163" s="5">
-        <v>5.0893773375642493</v>
+        <v>-0.153157501090706</v>
       </c>
       <c r="N163" s="5">
-        <v>3.3014454091397032</v>
+        <v>-0.80548277766301402</v>
       </c>
       <c r="O163" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q163" s="6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="R163" s="5">
-        <v>1.2660507315636411</v>
+        <v>72.482524110234664</v>
       </c>
       <c r="S163" s="5">
-        <v>1.1857656240463261</v>
+        <v>66.249542236328125</v>
       </c>
     </row>
     <row r="164" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -11889,102 +11889,102 @@
         <v>380</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="C164" s="5">
-        <v>5386624.5</v>
+        <v>5575907</v>
       </c>
       <c r="D164" s="5">
-        <v>709227968</v>
+        <v>1496009600</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F164" s="5">
-        <v>5.0431604385375977</v>
+        <v>4.6511631011962891</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H164" s="5">
-        <v>0.127608193761963</v>
+        <v>0.24623596528152703</v>
       </c>
       <c r="I164" s="5">
-        <v>0.21286140866914002</v>
+        <v>0.87893422970375412</v>
       </c>
       <c r="J164" s="5">
-        <v>0.40061845871146601</v>
+        <v>1.8569407258114401</v>
       </c>
       <c r="K164" s="5">
-        <v>1.2046161495038901</v>
+        <v>1.2661398479300261</v>
       </c>
       <c r="L164" s="5">
-        <v>3.3326529187191372</v>
+        <v>4.459583291161362</v>
       </c>
       <c r="M164" s="5">
-        <v>3.5099780370045459</v>
+        <v>5.3650595440666082</v>
       </c>
       <c r="N164" s="5">
-        <v>7.139651343458131</v>
+        <v>2.7139400703296568</v>
       </c>
       <c r="O164" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="Q164" s="6" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R164" s="5">
-        <v>23.929899215698242</v>
+        <v>1.2660507315636411</v>
       </c>
       <c r="S164" s="5">
-        <v>23.540000915527344</v>
+        <v>1.188685297966003</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A165" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="C165" s="5">
-        <v>5312949.5</v>
+        <v>5386624.5</v>
       </c>
       <c r="D165" s="5">
-        <v>575110400</v>
+        <v>709227968</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F165" s="5">
-        <v>3.850769996643066</v>
+        <v>5.0431604385375977</v>
       </c>
       <c r="G165" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H165" s="5">
-        <v>-0.12993178581245401</v>
+        <v>0.127608193761963</v>
       </c>
       <c r="I165" s="5">
-        <v>1.5479978097055001E-2</v>
+        <v>0.21286140866914002</v>
       </c>
       <c r="J165" s="5">
-        <v>0.307577541352821</v>
+        <v>0.40061845871146601</v>
       </c>
       <c r="K165" s="5">
-        <v>-1.0331610596261529</v>
+        <v>1.2046161495038901</v>
       </c>
       <c r="L165" s="5">
-        <v>2.7994701096350831</v>
+        <v>3.3326529187191372</v>
       </c>
       <c r="M165" s="5">
-        <v>3.353404121115688</v>
+        <v>3.5099780370045459</v>
       </c>
       <c r="N165" s="5">
-        <v>0.42362200527368304</v>
+        <v>7.139651343458131</v>
       </c>
       <c r="O165" s="6" t="s">
         <v>23</v>
@@ -11996,10 +11996,10 @@
         <v>25</v>
       </c>
       <c r="R165" s="5">
-        <v>79.779998779296875</v>
+        <v>23.929899215698242</v>
       </c>
       <c r="S165" s="5">
-        <v>75.319999694824219</v>
+        <v>23.540000915527344</v>
       </c>
     </row>
     <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12010,55 +12010,55 @@
         <v>384</v>
       </c>
       <c r="C166" s="5">
-        <v>5260824.5</v>
+        <v>5312949.5</v>
       </c>
       <c r="D166" s="5">
-        <v>1086749952</v>
+        <v>575110400</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F166" s="5">
-        <v>4.3490562438964844</v>
+        <v>3.850769996643066</v>
       </c>
       <c r="G166" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H166" s="5">
-        <v>-0.17948361574416902</v>
+        <v>-0.12993178581245401</v>
       </c>
       <c r="I166" s="5">
-        <v>-0.59053082431125303</v>
+        <v>1.5479978097055001E-2</v>
       </c>
       <c r="J166" s="5">
-        <v>-0.23518632374762702</v>
+        <v>0.307577541352821</v>
       </c>
       <c r="K166" s="5">
-        <v>-1.215620808698159</v>
+        <v>-1.0331610596261529</v>
       </c>
       <c r="L166" s="5">
-        <v>2.3235779204828551</v>
+        <v>2.7994701096350831</v>
       </c>
       <c r="M166" s="5">
-        <v>2.8190857908532152</v>
+        <v>3.353404121115688</v>
       </c>
       <c r="N166" s="5">
-        <v>0.34115611109562005</v>
+        <v>0.42362200527368304</v>
       </c>
       <c r="O166" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q166" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R166" s="5">
-        <v>35.400001525878906</v>
+        <v>79.779998779296875</v>
       </c>
       <c r="S166" s="5">
-        <v>33.369998931884766</v>
+        <v>75.319999694824219</v>
       </c>
     </row>
     <row r="167" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12069,40 +12069,40 @@
         <v>386</v>
       </c>
       <c r="C167" s="5">
-        <v>5126851.5</v>
+        <v>5260824.5</v>
       </c>
       <c r="D167" s="5">
-        <v>676397056</v>
+        <v>1086749952</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F167" s="5">
-        <v>4.4198222160339364</v>
+        <v>4.3490562438964844</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H167" s="5">
-        <v>4.7617349796680003E-2</v>
+        <v>-0.17948361574416902</v>
       </c>
       <c r="I167" s="5">
-        <v>0.16119911440206602</v>
+        <v>-0.59053082431125303</v>
       </c>
       <c r="J167" s="5">
-        <v>0.40257978316853305</v>
+        <v>-0.23518632374762702</v>
       </c>
       <c r="K167" s="5">
-        <v>1.267426244834446</v>
+        <v>-1.215620808698159</v>
       </c>
       <c r="L167" s="5">
-        <v>2.4690011995215371</v>
+        <v>2.3235779204828551</v>
       </c>
       <c r="M167" s="5">
-        <v>2.4944823359394959</v>
+        <v>2.8190857908532152</v>
       </c>
       <c r="N167" s="5">
-        <v>3.854041375290751</v>
+        <v>0.34115611109562005</v>
       </c>
       <c r="O167" s="6" t="s">
         <v>23</v>
@@ -12114,10 +12114,10 @@
         <v>25</v>
       </c>
       <c r="R167" s="5">
-        <v>74.970001220703125</v>
+        <v>35.400001525878906</v>
       </c>
       <c r="S167" s="5">
-        <v>74.715499877929688</v>
+        <v>33.369998931884766</v>
       </c>
     </row>
     <row r="168" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12128,55 +12128,55 @@
         <v>388</v>
       </c>
       <c r="C168" s="5">
-        <v>5121942</v>
+        <v>5126851.5</v>
       </c>
       <c r="D168" s="5">
-        <v>621231232</v>
+        <v>676397056</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F168" s="5">
-        <v>2.8334319591522221</v>
+        <v>4.4198222160339364</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="H168" s="5">
-        <v>0.744577451050765</v>
+        <v>4.7617349796680003E-2</v>
       </c>
       <c r="I168" s="5">
-        <v>-0.64883055864574102</v>
+        <v>0.16119911440206602</v>
       </c>
       <c r="J168" s="5">
-        <v>-0.32136220455036801</v>
+        <v>0.40257978316853305</v>
       </c>
       <c r="K168" s="5">
-        <v>-1.1578756155608441</v>
+        <v>1.267426244834446</v>
       </c>
       <c r="L168" s="5">
-        <v>3.554959578107808</v>
+        <v>2.4690011995215371</v>
       </c>
       <c r="M168" s="5">
-        <v>3.3407221750932692</v>
+        <v>2.4944823359394959</v>
       </c>
       <c r="N168" s="5">
-        <v>-8.1306173061658882</v>
+        <v>3.854041375290751</v>
       </c>
       <c r="O168" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="R168" s="5">
-        <v>1.274055323447935</v>
+        <v>74.970001220703125</v>
       </c>
       <c r="S168" s="5">
-        <v>1.083633184432983</v>
+        <v>74.715499877929688</v>
       </c>
     </row>
     <row r="169" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12184,117 +12184,117 @@
         <v>389</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="C169" s="5">
-        <v>5038396.5</v>
+        <v>5026059</v>
       </c>
       <c r="D169" s="5">
-        <v>1086007552</v>
+        <v>958196672</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F169" s="5">
-        <v>1.94916844367981</v>
+        <v>3.7854888439178471</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="H169" s="5">
-        <v>0.30528530325479902</v>
+        <v>-0.133044485527956</v>
       </c>
       <c r="I169" s="5">
-        <v>-0.105750142362593</v>
+        <v>-0.11476155176480801</v>
       </c>
       <c r="J169" s="5">
-        <v>-0.6077356944223401</v>
+        <v>1.5738238819594801</v>
       </c>
       <c r="K169" s="5">
-        <v>-4.2141443945773354</v>
+        <v>0.67431805028306302</v>
       </c>
       <c r="L169" s="5">
-        <v>0.71635562095306904</v>
+        <v>4.139075901857403</v>
       </c>
       <c r="M169" s="5">
-        <v>-0.48129890014125803</v>
+        <v>4.99266658425086</v>
       </c>
       <c r="N169" s="5">
-        <v>-0.80548277766301402</v>
+        <v>1.107860910192815</v>
       </c>
       <c r="O169" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P169" s="6" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="R169" s="5">
-        <v>72.482524110234664</v>
+        <v>15.54011851967851</v>
       </c>
       <c r="S169" s="5">
-        <v>66.249542236328125</v>
+        <v>14.38729190826416</v>
       </c>
     </row>
     <row r="170" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A170" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="C170" s="5">
-        <v>5014301</v>
+        <v>4986029</v>
       </c>
       <c r="D170" s="5">
-        <v>955955008</v>
+        <v>621850304</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F170" s="5">
-        <v>3.7716081142425542</v>
+        <v>2.7267336845397949</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H170" s="5">
-        <v>0.79232844314893702</v>
+        <v>8.3582858206666E-2</v>
       </c>
       <c r="I170" s="5">
-        <v>0.44971194736680403</v>
+        <v>-0.38488111966754601</v>
       </c>
       <c r="J170" s="5">
-        <v>3.6194955640745041</v>
+        <v>-0.23804795005947202</v>
       </c>
       <c r="K170" s="5">
-        <v>2.5808939242667921</v>
+        <v>-1.075260542888157</v>
       </c>
       <c r="L170" s="5">
-        <v>5.3392454677581691</v>
+        <v>1.4790160188239201</v>
       </c>
       <c r="M170" s="5">
-        <v>5.1484875038945832</v>
+        <v>3.44370323083607</v>
       </c>
       <c r="N170" s="5">
-        <v>2.025570517964614</v>
+        <v>-8.6203997572502189</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Q170" s="6" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="R170" s="5">
-        <v>15.54011851967851</v>
+        <v>1.274055323447935</v>
       </c>
       <c r="S170" s="5">
-        <v>14.430418014526367</v>
+        <v>1.0845388174057009</v>
       </c>
     </row>
     <row r="171" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12373,7 +12373,7 @@
         <v>63</v>
       </c>
       <c r="F172" s="5">
-        <v>3.6378638744354248</v>
+        <v>3.6378641128540039</v>
       </c>
       <c r="G172" s="6" t="s">
         <v>0</v>
@@ -12482,43 +12482,43 @@
         <v>398</v>
       </c>
       <c r="C174" s="5">
-        <v>4624547</v>
+        <v>4634754</v>
       </c>
       <c r="D174" s="5">
-        <v>1473215616</v>
+        <v>1476467200</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F174" s="5">
-        <v>1.9007518291473391</v>
+        <v>1.8960000276565552</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H174" s="5">
-        <v>-0.42392721914735804</v>
+        <v>0.42432684141451305</v>
       </c>
       <c r="I174" s="5">
-        <v>-0.91665254062884804</v>
+        <v>-0.41739964760256804</v>
       </c>
       <c r="J174" s="5">
-        <v>0.87157466927296812</v>
+        <v>1.299599835952181</v>
       </c>
       <c r="K174" s="5">
-        <v>-4.5094521308039042</v>
+        <v>-4.6503999193740819</v>
       </c>
       <c r="L174" s="5">
-        <v>2.003556878918578</v>
+        <v>0.43005924952730401</v>
       </c>
       <c r="M174" s="5">
-        <v>0.79476631696233602</v>
+        <v>1.2704074288372611</v>
       </c>
       <c r="N174" s="5">
-        <v>-11.527487346853205</v>
+        <v>-10.360256481707331</v>
       </c>
       <c r="O174" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>268</v>
@@ -12530,7 +12530,7 @@
         <v>15.298034534072876</v>
       </c>
       <c r="S174" s="5">
-        <v>12.665258407592773</v>
+        <v>12.718999862670898</v>
       </c>
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12727,7 +12727,7 @@
         <v>74</v>
       </c>
       <c r="F178" s="5">
-        <v>3.482972145080566</v>
+        <v>3.482972383499146</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>0</v>
@@ -12836,40 +12836,40 @@
         <v>411</v>
       </c>
       <c r="C180" s="5">
-        <v>3989824</v>
+        <v>4020522.25</v>
       </c>
       <c r="D180" s="5">
-        <v>1761579776</v>
+        <v>1763335168</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F180" s="5">
-        <v>4.3393597602844238</v>
+        <v>4.6627812385559082</v>
       </c>
       <c r="G180" s="6" t="s">
         <v>205</v>
       </c>
       <c r="H180" s="5">
-        <v>0.84324280236713911</v>
+        <v>0.30629462256506201</v>
       </c>
       <c r="I180" s="5">
-        <v>0.12228020381335201</v>
+        <v>0.59874657884131399</v>
       </c>
       <c r="J180" s="5">
-        <v>0.99578175737531405</v>
+        <v>1.3051264059157131</v>
       </c>
       <c r="K180" s="5">
-        <v>0.98024201770514607</v>
+        <v>1.289539068858558</v>
       </c>
       <c r="L180" s="5">
-        <v>4.9505748827948448</v>
+        <v>4.199455068069069</v>
       </c>
       <c r="M180" s="5">
-        <v>4.7201891162440557</v>
+        <v>5.0578064643939546</v>
       </c>
       <c r="N180" s="5">
-        <v>0.49034649505326205</v>
+        <v>0.39678798076905303</v>
       </c>
       <c r="O180" s="6" t="s">
         <v>23</v>
@@ -12884,7 +12884,7 @@
         <v>1.2887302601356909</v>
       </c>
       <c r="S180" s="5">
-        <v>1.154612064361572</v>
+        <v>1.158148407936096</v>
       </c>
     </row>
     <row r="181" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12895,55 +12895,55 @@
         <v>413</v>
       </c>
       <c r="C181" s="5">
-        <v>3976359.25</v>
+        <v>3976778</v>
       </c>
       <c r="D181" s="5">
-        <v>1288507392</v>
+        <v>1249309440</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F181" s="5">
-        <v>5.7730851173400879</v>
+        <v>3.9814527034759521</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H181" s="5">
-        <v>0.97560547684179011</v>
+        <v>-4.4713204580382006E-2</v>
       </c>
       <c r="I181" s="5">
-        <v>0.90529329769495304</v>
+        <v>-0.8814248040350251</v>
       </c>
       <c r="J181" s="5">
-        <v>-1.283488397069199</v>
+        <v>2.0730945455627041</v>
       </c>
       <c r="K181" s="5">
-        <v>9.4172621874500012E-2</v>
+        <v>2.414089170079103</v>
       </c>
       <c r="L181" s="5">
-        <v>2.5764371325926572</v>
+        <v>4.6444368596820773</v>
       </c>
       <c r="M181" s="5">
-        <v>3.5737061165264321</v>
+        <v>5.1812085915375672</v>
       </c>
       <c r="N181" s="5">
-        <v>-1.979782006634911</v>
+        <v>2.1012000906853072</v>
       </c>
       <c r="O181" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="Q181" s="6" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="R181" s="5">
-        <v>16.870000839233398</v>
+        <v>14.429266102030619</v>
       </c>
       <c r="S181" s="5">
-        <v>14.489999771118164</v>
+        <v>13.540090560913086</v>
       </c>
     </row>
     <row r="182" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12954,55 +12954,55 @@
         <v>415</v>
       </c>
       <c r="C182" s="5">
-        <v>3967474.5</v>
+        <v>3976359.25</v>
       </c>
       <c r="D182" s="5">
-        <v>1246386688</v>
+        <v>1288507392</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F182" s="5">
-        <v>3.9703621864318852</v>
+        <v>5.7730851173400879</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H182" s="5">
-        <v>-6.3951116942873004E-2</v>
+        <v>0.97560547684179011</v>
       </c>
       <c r="I182" s="5">
-        <v>-6.7308668774357011E-2</v>
+        <v>0.90529329769495304</v>
       </c>
       <c r="J182" s="5">
-        <v>4.0775716970834708</v>
+        <v>-1.283488397069199</v>
       </c>
       <c r="K182" s="5">
-        <v>3.994600345590182</v>
+        <v>9.4172621874500012E-2</v>
       </c>
       <c r="L182" s="5">
-        <v>5.4351535547224383</v>
+        <v>2.5764371325926572</v>
       </c>
       <c r="M182" s="5">
-        <v>5.2442219117015076</v>
+        <v>3.5737061165264321</v>
       </c>
       <c r="N182" s="5">
-        <v>2.055365356964534</v>
+        <v>-1.979782006634911</v>
       </c>
       <c r="O182" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="Q182" s="6" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="R182" s="5">
-        <v>14.429266102030619</v>
+        <v>16.870000839233398</v>
       </c>
       <c r="S182" s="5">
-        <v>13.56867504119873</v>
+        <v>14.489999771118164</v>
       </c>
     </row>
     <row r="183" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13013,40 +13013,40 @@
         <v>417</v>
       </c>
       <c r="C183" s="5">
-        <v>3925422.25</v>
+        <v>3934627</v>
       </c>
       <c r="D183" s="5">
-        <v>1538741376</v>
+        <v>1542349696</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F183" s="5">
-        <v>6.1363639831542969</v>
+        <v>6.1155157089233398</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H183" s="5">
-        <v>0.73107992007897005</v>
+        <v>0.57620337021786505</v>
       </c>
       <c r="I183" s="5">
-        <v>-0.17500366875458101</v>
+        <v>0.46812328056633501</v>
       </c>
       <c r="J183" s="5">
-        <v>6.5490920900050487</v>
+        <v>3.6102679761875089</v>
       </c>
       <c r="K183" s="5">
-        <v>2.688643732290608</v>
+        <v>2.2079720769992979</v>
       </c>
       <c r="L183" s="5">
-        <v>2.354226250936398</v>
+        <v>1.7777123599028E-2</v>
       </c>
       <c r="M183" s="5">
-        <v>2.1688738335561291</v>
+        <v>2.7419890845776562</v>
       </c>
       <c r="N183" s="5">
-        <v>-11.885670888023459</v>
+        <v>-11.027425040645822</v>
       </c>
       <c r="O183" s="6" t="s">
         <v>23</v>
@@ -13061,7 +13061,7 @@
         <v>8.1488460625223098</v>
       </c>
       <c r="S183" s="5">
-        <v>6.6520524024963379</v>
+        <v>6.6792736053466797</v>
       </c>
     </row>
     <row r="184" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13081,7 +13081,7 @@
         <v>56</v>
       </c>
       <c r="F184" s="5">
-        <v>1.6774330139160161</v>
+        <v>1.6774331331253052</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>0</v>
@@ -13131,55 +13131,55 @@
         <v>421</v>
       </c>
       <c r="C185" s="5">
-        <v>3774755.75</v>
+        <v>3792751</v>
       </c>
       <c r="D185" s="5">
-        <v>1221932544</v>
+        <v>1220534912</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F185" s="5">
-        <v>6.0130348205566406</v>
+        <v>5.3104395866394043</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H185" s="5">
-        <v>0.18193563426709403</v>
+        <v>0.24413768498980901</v>
       </c>
       <c r="I185" s="5">
-        <v>1.159261802851153</v>
+        <v>0.40684673997950505</v>
       </c>
       <c r="J185" s="5">
-        <v>1.9009699884590561</v>
+        <v>2.231727260413185</v>
       </c>
       <c r="K185" s="5">
-        <v>2.787376190303736</v>
+        <v>0.46241140251701601</v>
       </c>
       <c r="L185" s="5">
-        <v>5.2006148071926717</v>
+        <v>-1.622702539807408</v>
       </c>
       <c r="M185" s="5">
-        <v>5.4912555375142169</v>
+        <v>-1.5001204452653072</v>
       </c>
       <c r="N185" s="5">
-        <v>8.7200169248070836</v>
+        <v>2.7449875179410999</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P185" s="6" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="Q185" s="6" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R185" s="5">
-        <v>93.480003356933594</v>
+        <v>7.2481200531638024</v>
       </c>
       <c r="S185" s="5">
-        <v>93.117103576660156</v>
+        <v>6.6759123802185059</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13187,115 +13187,117 @@
         <v>422</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="C186" s="5">
-        <v>3630455</v>
+        <v>3774755.75</v>
       </c>
       <c r="D186" s="5">
-        <v>966742080</v>
+        <v>1221932544</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F186" s="5">
-        <v>2.865963220596313</v>
+        <v>6.0130352973937988</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H186" s="5">
-        <v>-7.7691590612972011E-2</v>
+        <v>0.18193563426709403</v>
       </c>
       <c r="I186" s="5">
-        <v>-0.16120554293958</v>
+        <v>1.159261802851153</v>
       </c>
       <c r="J186" s="5">
-        <v>-0.16120554293958</v>
+        <v>1.9009699884590561</v>
       </c>
       <c r="K186" s="5">
-        <v>-0.532886458099602</v>
+        <v>2.787376190303736</v>
       </c>
       <c r="L186" s="5">
-        <v>1.5621917905749072</v>
+        <v>5.2006148071926717</v>
       </c>
       <c r="M186" s="5">
-        <v>1.604926547042651</v>
+        <v>5.4912555375142169</v>
       </c>
       <c r="N186" s="5">
-        <v>0.98609832569116507</v>
+        <v>8.7200169248070836</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q186" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R186" s="5">
-        <v>24.440000534057617</v>
+        <v>93.480003356933594</v>
       </c>
       <c r="S186" s="5">
-        <v>23.834499359130859</v>
+        <v>93.117103576660156</v>
       </c>
     </row>
     <row r="187" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A187" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>424</v>
+        <v>247</v>
       </c>
       <c r="C187" s="5">
-        <v>3564153.5</v>
+        <v>3630455</v>
       </c>
       <c r="D187" s="5">
-        <v>3352196608</v>
+        <v>966742080</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F187" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="F187" s="5">
+        <v>2.865963220596313</v>
+      </c>
       <c r="G187" s="6" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>6.419634355470101E-2</v>
+        <v>-7.7691590612972011E-2</v>
       </c>
       <c r="I187" s="5">
-        <v>-6.4114025834106012E-2</v>
+        <v>-0.16120554293958</v>
       </c>
       <c r="J187" s="5">
-        <v>-0.18296134421406102</v>
+        <v>-0.16120554293958</v>
       </c>
       <c r="K187" s="5">
-        <v>-0.10071122170465201</v>
+        <v>-0.532886458099602</v>
       </c>
       <c r="L187" s="5">
-        <v>1.6679080783107652</v>
+        <v>1.5621917905749072</v>
       </c>
       <c r="M187" s="5">
-        <v>1.677386134298775</v>
+        <v>1.604926547042651</v>
       </c>
       <c r="N187" s="5">
-        <v>1.403345907771181</v>
+        <v>0.98609832569116507</v>
       </c>
       <c r="O187" s="6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="R187" s="5">
-        <v>5.5029997825622559</v>
+        <v>24.440000534057617</v>
       </c>
       <c r="S187" s="5">
-        <v>5.4555001258850098</v>
+        <v>23.834499359130859</v>
       </c>
     </row>
     <row r="188" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13306,55 +13308,53 @@
         <v>426</v>
       </c>
       <c r="C188" s="5">
-        <v>3563992.5</v>
+        <v>3564153.5</v>
       </c>
       <c r="D188" s="5">
-        <v>344737472</v>
+        <v>3352196608</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F188" s="5">
-        <v>3.331318616867065</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F188" s="5"/>
       <c r="G188" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H188" s="5">
+        <v>9.1600280499590011E-3</v>
+      </c>
+      <c r="I188" s="5">
         <v>0</v>
       </c>
-      <c r="H188" s="5">
-        <v>-8.8363788315371006E-2</v>
-      </c>
-      <c r="I188" s="5">
-        <v>-0.75617356846406902</v>
-      </c>
       <c r="J188" s="5">
-        <v>-0.33842695655178501</v>
+        <v>-0.17381807547454101</v>
       </c>
       <c r="K188" s="5">
-        <v>-1.0903304351491669</v>
+        <v>-0.28328737807710203</v>
       </c>
       <c r="L188" s="5">
-        <v>1.607374364535175</v>
+        <v>1.4880938389995051</v>
       </c>
       <c r="M188" s="5">
-        <v>2.0861578660712481</v>
+        <v>1.686699811389158</v>
       </c>
       <c r="N188" s="5">
-        <v>-2.0012945590946241</v>
+        <v>1.5636565597372032</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="R188" s="5">
-        <v>47.349998474121094</v>
+        <v>5.5029997825622559</v>
       </c>
       <c r="S188" s="5">
-        <v>43.680000305175781</v>
+        <v>5.4559998512268066</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13365,55 +13365,55 @@
         <v>428</v>
       </c>
       <c r="C189" s="5">
-        <v>3519363.75</v>
+        <v>3563992.5</v>
       </c>
       <c r="D189" s="5">
-        <v>1216523776</v>
+        <v>344737472</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F189" s="5">
-        <v>5.3157610893249512</v>
+        <v>3.331318855285645</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>0.10200171609000601</v>
+        <v>-8.8363788315371006E-2</v>
       </c>
       <c r="I189" s="5">
-        <v>0.12205532058460201</v>
+        <v>-0.75617356846406902</v>
       </c>
       <c r="J189" s="5">
-        <v>1.9827489380668031</v>
+        <v>-0.33842695655178501</v>
       </c>
       <c r="K189" s="5">
-        <v>-0.39143805863737202</v>
+        <v>-1.0903304351491669</v>
       </c>
       <c r="L189" s="5">
-        <v>-0.35184473001345101</v>
+        <v>1.607374364535175</v>
       </c>
       <c r="M189" s="5">
-        <v>-1.7253706815737679</v>
+        <v>2.0861578660712481</v>
       </c>
       <c r="N189" s="5">
-        <v>3.838449897279284</v>
+        <v>-2.0012945590946241</v>
       </c>
       <c r="O189" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="Q189" s="6" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="R189" s="5">
-        <v>7.2481200531638024</v>
+        <v>47.349998474121094</v>
       </c>
       <c r="S189" s="5">
-        <v>6.6596536636352539</v>
+        <v>43.680000305175781</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13424,40 +13424,40 @@
         <v>358</v>
       </c>
       <c r="C190" s="5">
-        <v>3513891.5</v>
+        <v>3522131.25</v>
       </c>
       <c r="D190" s="5">
-        <v>366953440</v>
+        <v>367813920</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F190" s="5">
-        <v>2.7745664119720459</v>
+        <v>2.7833421230316162</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H190" s="5">
-        <v>0.95450291572010104</v>
+        <v>-8.1540315462980004E-2</v>
       </c>
       <c r="I190" s="5">
-        <v>0.68538231291532803</v>
+        <v>-8.7659009251340007E-3</v>
       </c>
       <c r="J190" s="5">
-        <v>3.2073027688570339</v>
+        <v>1.434375841345781</v>
       </c>
       <c r="K190" s="5">
-        <v>1.2635685857669721</v>
+        <v>-0.50897196525953003</v>
       </c>
       <c r="L190" s="5">
-        <v>4.3210301185902864</v>
+        <v>2.7002826726963969</v>
       </c>
       <c r="M190" s="5">
-        <v>4.1321160324374162</v>
+        <v>4.0314255346870054</v>
       </c>
       <c r="N190" s="5">
-        <v>-0.32728465786261401</v>
+        <v>-0.80504189375745205</v>
       </c>
       <c r="O190" s="6" t="s">
         <v>23</v>
@@ -13472,7 +13472,7 @@
         <v>15.520212680932609</v>
       </c>
       <c r="S190" s="5">
-        <v>14.385063171386719</v>
+        <v>14.349470138549805</v>
       </c>
     </row>
     <row r="191" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13489,32 +13489,32 @@
         <v>2899755008</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H191" s="5">
-        <v>-5.7388280514137004E-2</v>
+        <v>1.9137369167521002E-2</v>
       </c>
       <c r="I191" s="5">
-        <v>-0.324307478638519</v>
+        <v>-0.171925523047534</v>
       </c>
       <c r="J191" s="5">
-        <v>-0.49514422485356102</v>
+        <v>-0.47610161326426803</v>
       </c>
       <c r="K191" s="5">
-        <v>-0.79742343174267205</v>
+        <v>-1.02273438464483</v>
       </c>
       <c r="L191" s="5">
-        <v>0.84925053001079209</v>
+        <v>0.78101795511855709</v>
       </c>
       <c r="M191" s="5">
-        <v>0.82979048795475108</v>
+        <v>0.84908665719127807</v>
       </c>
       <c r="N191" s="5">
-        <v>-0.210087018226912</v>
+        <v>-4.7815956265773001E-2</v>
       </c>
       <c r="O191" s="6" t="s">
         <v>63</v>
@@ -13529,7 +13529,7 @@
         <v>5.320000171661377</v>
       </c>
       <c r="S191" s="5">
-        <v>5.2249999046325684</v>
+        <v>5.2259998321533203</v>
       </c>
     </row>
     <row r="192" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13540,55 +13540,55 @@
         <v>433</v>
       </c>
       <c r="C192" s="5">
-        <v>3340629.25</v>
+        <v>3345676.75</v>
       </c>
       <c r="D192" s="5">
-        <v>656646208</v>
+        <v>355070080</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F192" s="5">
-        <v>3.223174095153809</v>
+        <v>0.87526869773864702</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H192" s="5">
-        <v>-8.8738118636023003E-2</v>
+        <v>0.30049834609364701</v>
       </c>
       <c r="I192" s="5">
-        <v>-0.40882804528026301</v>
+        <v>7.082838064465001E-2</v>
       </c>
       <c r="J192" s="5">
-        <v>-0.37169023997197803</v>
+        <v>-0.49575641177123103</v>
       </c>
       <c r="K192" s="5">
-        <v>-0.7324391255325251</v>
+        <v>-4.0850490355346274</v>
       </c>
       <c r="L192" s="5">
-        <v>1.509522937593011</v>
+        <v>-1.494690199975568</v>
       </c>
       <c r="M192" s="5">
-        <v>1.690736702883644</v>
+        <v>-0.42614935693137102</v>
       </c>
       <c r="N192" s="5">
-        <v>-0.93397973722769712</v>
+        <v>-2.3257069193927342</v>
       </c>
       <c r="O192" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="Q192" s="6" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="R192" s="5">
-        <v>111.34999847412109</v>
+        <v>33.325216561244886</v>
       </c>
       <c r="S192" s="5">
-        <v>106.58499908447266</v>
+        <v>30.39984130859375</v>
       </c>
     </row>
     <row r="193" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13599,55 +13599,55 @@
         <v>435</v>
       </c>
       <c r="C193" s="5">
-        <v>3334476.5</v>
+        <v>3340629.25</v>
       </c>
       <c r="D193" s="5">
-        <v>353903168</v>
+        <v>656646208</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F193" s="5">
-        <v>0.8746895790100101</v>
+        <v>3.223174095153809</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="H193" s="5">
-        <v>0.29482661911755004</v>
+        <v>-8.8738118636023003E-2</v>
       </c>
       <c r="I193" s="5">
-        <v>-8.2056891714721011E-2</v>
+        <v>-0.40882804528026301</v>
       </c>
       <c r="J193" s="5">
-        <v>-0.79386919406656509</v>
+        <v>-0.37169023997197803</v>
       </c>
       <c r="K193" s="5">
-        <v>-4.6267269418299062</v>
+        <v>-0.7324391255325251</v>
       </c>
       <c r="L193" s="5">
-        <v>0.49255437607480501</v>
+        <v>1.509522937593011</v>
       </c>
       <c r="M193" s="5">
-        <v>-0.70967995049767707</v>
+        <v>1.690736702883644</v>
       </c>
       <c r="N193" s="5">
-        <v>-1.2470418686023721</v>
+        <v>-0.93397973722769712</v>
       </c>
       <c r="O193" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="Q193" s="6" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="R193" s="5">
-        <v>33.325216561244886</v>
+        <v>111.34999847412109</v>
       </c>
       <c r="S193" s="5">
-        <v>30.30876350402832</v>
+        <v>106.58499908447266</v>
       </c>
     </row>
     <row r="194" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13658,55 +13658,55 @@
         <v>437</v>
       </c>
       <c r="C194" s="5">
-        <v>3284237</v>
+        <v>3300171</v>
       </c>
       <c r="D194" s="5">
-        <v>833473472</v>
+        <v>836221632</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F194" s="5">
-        <v>1.1358094215393071</v>
+        <v>1.135812520980835</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H194" s="5">
-        <v>0.11906479162828701</v>
+        <v>0.34467616982492005</v>
       </c>
       <c r="I194" s="5">
-        <v>-0.21758543281382703</v>
+        <v>-4.5602210276408005E-2</v>
       </c>
       <c r="J194" s="5">
-        <v>-0.79961821743560502</v>
+        <v>-0.45769814105576201</v>
       </c>
       <c r="K194" s="5">
-        <v>-4.3975014698382946</v>
+        <v>-3.67875481253559</v>
       </c>
       <c r="L194" s="5">
-        <v>0.50932952259563602</v>
+        <v>-1.271208269035262</v>
       </c>
       <c r="M194" s="5">
-        <v>-0.67936905243554102</v>
+        <v>-0.35188074688565801</v>
       </c>
       <c r="N194" s="5">
-        <v>-0.93937577015741303</v>
+        <v>-2.048878746576388</v>
       </c>
       <c r="O194" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P194" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q194" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="R194" s="5">
         <v>32.388676758231107</v>
       </c>
       <c r="S194" s="5">
-        <v>29.654809951782227</v>
+        <v>29.757022857666016</v>
       </c>
     </row>
     <row r="195" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13776,40 +13776,40 @@
         <v>441</v>
       </c>
       <c r="C196" s="5">
-        <v>3163468.25</v>
+        <v>3170886.25</v>
       </c>
       <c r="D196" s="5">
-        <v>633014208</v>
+        <v>634498624</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F196" s="5">
-        <v>4.6903929710388184</v>
+        <v>4.6942558288574219</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H196" s="5">
-        <v>0.30318131889335304</v>
+        <v>0.15201545895264801</v>
       </c>
       <c r="I196" s="5">
-        <v>-9.0694063198082001E-2</v>
+        <v>-0.23139406188279502</v>
       </c>
       <c r="J196" s="5">
-        <v>3.259694165917804</v>
+        <v>2.0140287681612579</v>
       </c>
       <c r="K196" s="5">
-        <v>3.6005102087065981</v>
+        <v>2.8784579900405389</v>
       </c>
       <c r="L196" s="5">
-        <v>4.8069842570466204</v>
+        <v>4.3730283672732018</v>
       </c>
       <c r="M196" s="5">
-        <v>4.6171901605844834</v>
+        <v>4.7603330503237515</v>
       </c>
       <c r="N196" s="5">
-        <v>1.320769320592063</v>
+        <v>0.99225888468437207</v>
       </c>
       <c r="O196" s="6" t="s">
         <v>23</v>
@@ -13824,7 +13824,7 @@
         <v>38.318418412067054</v>
       </c>
       <c r="S196" s="5">
-        <v>36.745029449462891</v>
+        <v>36.739788055419922</v>
       </c>
     </row>
     <row r="197" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13835,55 +13835,55 @@
         <v>443</v>
       </c>
       <c r="C197" s="5">
-        <v>3116965</v>
+        <v>3118098.25</v>
       </c>
       <c r="D197" s="5">
-        <v>5452527616</v>
+        <v>969746688</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F197" s="5">
-        <v>4.1973285675048828</v>
+        <v>3.5090417861938481</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H197" s="5">
-        <v>5.8618151983381002E-2</v>
+        <v>-3.4741712995556E-2</v>
       </c>
       <c r="I197" s="5">
-        <v>0.44726607522693801</v>
+        <v>-0.17308113692227101</v>
       </c>
       <c r="J197" s="5">
-        <v>1.7356116351137321</v>
+        <v>1.3910941506521279</v>
       </c>
       <c r="K197" s="5">
-        <v>1.1319211231909381</v>
+        <v>0.77384341249735511</v>
       </c>
       <c r="L197" s="5">
-        <v>3.667914467198496</v>
+        <v>3.2416456873177961</v>
       </c>
       <c r="M197" s="5">
-        <v>4.0739215539961293</v>
+        <v>3.6982819278809753</v>
       </c>
       <c r="N197" s="5">
-        <v>5.4693722377270992</v>
+        <v>-0.50300271244464501</v>
       </c>
       <c r="O197" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="Q197" s="6" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="R197" s="5">
-        <v>89.769996643066406</v>
+        <v>10.401946930444341</v>
       </c>
       <c r="S197" s="5">
-        <v>85.339996337890625</v>
+        <v>9.829803466796875</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13894,55 +13894,55 @@
         <v>445</v>
       </c>
       <c r="C198" s="5">
-        <v>3110803.75</v>
+        <v>3116965</v>
       </c>
       <c r="D198" s="5">
-        <v>967478016</v>
+        <v>5452527616</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F198" s="5">
-        <v>3.499616146087646</v>
+        <v>4.1988043785095206</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H198" s="5">
-        <v>0.54456305271477501</v>
+        <v>-3.5152074741251003E-2</v>
       </c>
       <c r="I198" s="5">
-        <v>0.36517399759132801</v>
+        <v>0.42377942705624805</v>
       </c>
       <c r="J198" s="5">
-        <v>2.7362680305611509</v>
+        <v>1.699849456873292</v>
       </c>
       <c r="K198" s="5">
-        <v>2.1414982621968952</v>
+        <v>1.1791587664881309</v>
       </c>
       <c r="L198" s="5">
-        <v>3.9382777441778538</v>
+        <v>2.7929941095421462</v>
       </c>
       <c r="M198" s="5">
-        <v>3.7500567811177499</v>
+        <v>4.0373374113053204</v>
       </c>
       <c r="N198" s="5">
-        <v>-0.20370213903168102</v>
+        <v>5.9591247593550722</v>
       </c>
       <c r="O198" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="R198" s="5">
-        <v>10.401946930444341</v>
+        <v>89.769996643066406</v>
       </c>
       <c r="S198" s="5">
-        <v>9.8495731353759766</v>
+        <v>85.30999755859375</v>
       </c>
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13953,40 +13953,40 @@
         <v>447</v>
       </c>
       <c r="C199" s="5">
-        <v>3006497.25</v>
+        <v>3013547.25</v>
       </c>
       <c r="D199" s="5">
-        <v>1107669376</v>
+        <v>1110266752</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F199" s="5">
-        <v>5.7642855644226074</v>
+        <v>5.7406291961669922</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H199" s="5">
-        <v>0.29651515556616803</v>
+        <v>0.64754846469681204</v>
       </c>
       <c r="I199" s="5">
-        <v>-0.30223156287556602</v>
+        <v>0.48231154409619204</v>
       </c>
       <c r="J199" s="5">
-        <v>5.4178594036747851</v>
+        <v>3.013908190182168</v>
       </c>
       <c r="K199" s="5">
-        <v>0.70321954028687006</v>
+        <v>1.0452311629572939</v>
       </c>
       <c r="L199" s="5">
-        <v>2.9459957634260681</v>
+        <v>0.28132566250109703</v>
       </c>
       <c r="M199" s="5">
-        <v>2.7595717155554089</v>
+        <v>3.4093032742980478</v>
       </c>
       <c r="N199" s="5">
-        <v>-11.115634623410408</v>
+        <v>-10.390512873316759</v>
       </c>
       <c r="O199" s="6" t="s">
         <v>23</v>
@@ -14001,7 +14001,7 @@
         <v>6.7200505727874864</v>
       </c>
       <c r="S199" s="5">
-        <v>5.5030617713928223</v>
+        <v>5.5295004844665527</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14012,40 +14012,40 @@
         <v>449</v>
       </c>
       <c r="C200" s="5">
-        <v>2877991.75</v>
+        <v>2884740.5</v>
       </c>
       <c r="D200" s="5">
-        <v>325543392</v>
+        <v>326306752</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F200" s="5">
-        <v>2.381238698959351</v>
+        <v>2.3927493095397949</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H200" s="5">
-        <v>0.64289264748811403</v>
+        <v>-0.24768806092426701</v>
       </c>
       <c r="I200" s="5">
-        <v>0.44744929915987403</v>
+        <v>-0.51277088078174304</v>
       </c>
       <c r="J200" s="5">
-        <v>2.6474121775573289</v>
+        <v>0.96654107340463602</v>
       </c>
       <c r="K200" s="5">
-        <v>1.2549112407983509</v>
+        <v>-0.70650076687159802</v>
       </c>
       <c r="L200" s="5">
-        <v>3.4851759678625083</v>
+        <v>2.1162571664181011</v>
       </c>
       <c r="M200" s="5">
-        <v>3.2977755230422012</v>
+        <v>3.0262908959478581</v>
       </c>
       <c r="N200" s="5">
-        <v>-0.82815887524866305</v>
+        <v>-1.49657698128115</v>
       </c>
       <c r="O200" s="6" t="s">
         <v>23</v>
@@ -14060,7 +14060,7 @@
         <v>13.412723941737228</v>
       </c>
       <c r="S200" s="5">
-        <v>12.570866584777832</v>
+        <v>12.51891040802002</v>
       </c>
     </row>
     <row r="201" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14077,34 +14077,34 @@
         <v>3791912448</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F201" s="5">
-        <v>4.2141594886779794</v>
+        <v>4.2178869247436523</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H201" s="5">
-        <v>0.19676992271071603</v>
+        <v>-8.8370327108056007E-2</v>
       </c>
       <c r="I201" s="5">
-        <v>0.147501123889549</v>
+        <v>0.39467344045500702</v>
       </c>
       <c r="J201" s="5">
-        <v>0.66089106838966805</v>
+        <v>0.57193670968263</v>
       </c>
       <c r="K201" s="5">
-        <v>-0.95548433703758207</v>
+        <v>-1.280317369775918</v>
       </c>
       <c r="L201" s="5">
-        <v>3.3790644641271461</v>
+        <v>2.6256677286610191</v>
       </c>
       <c r="M201" s="5">
-        <v>3.811788282427075</v>
+        <v>3.7200494655451832</v>
       </c>
       <c r="N201" s="5">
-        <v>0.86554705604056104</v>
+        <v>0.83387738885105611</v>
       </c>
       <c r="O201" s="6" t="s">
         <v>377</v>
@@ -14119,7 +14119,7 @@
         <v>109.93000030517578</v>
       </c>
       <c r="S201" s="5">
-        <v>101.83999633789062</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14130,40 +14130,40 @@
         <v>453</v>
       </c>
       <c r="C202" s="5">
-        <v>2862831.25</v>
+        <v>2862512</v>
       </c>
       <c r="D202" s="5">
-        <v>1576943104</v>
+        <v>1576767232</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F202" s="5">
-        <v>0.60975611209869407</v>
+        <v>0.74095058441162109</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>454</v>
       </c>
       <c r="H202" s="5">
-        <v>4.8318257587354002E-2</v>
+        <v>-9.4149062992677002E-2</v>
       </c>
       <c r="I202" s="5">
-        <v>-0.16679866671111002</v>
+        <v>-0.12981963300997501</v>
       </c>
       <c r="J202" s="5">
-        <v>1.29316701278761</v>
+        <v>1.197800445169461</v>
       </c>
       <c r="K202" s="5">
-        <v>3.0411736372831339</v>
+        <v>2.173201376879752</v>
       </c>
       <c r="L202" s="5">
-        <v>6.5414554491414201</v>
+        <v>4.6899285000304491</v>
       </c>
       <c r="M202" s="5">
-        <v>4.4778120415212452</v>
+        <v>4.3910879395079316</v>
       </c>
       <c r="N202" s="5">
-        <v>8.0209852225015865</v>
+        <v>8.3792585348694271</v>
       </c>
       <c r="O202" s="6" t="s">
         <v>23</v>
@@ -14178,7 +14178,7 @@
         <v>103.72655085468737</v>
       </c>
       <c r="S202" s="5">
-        <v>102.47711944580078</v>
+        <v>102.38063812255859</v>
       </c>
     </row>
     <row r="203" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14186,176 +14186,176 @@
         <v>457</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="C203" s="5">
-        <v>2762590.5</v>
+        <v>2820329.25</v>
       </c>
       <c r="D203" s="5">
-        <v>791779968</v>
+        <v>704146560</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F203" s="5">
-        <v>6.9629316329956055</v>
+        <v>3.4950287342071529</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H203" s="5">
-        <v>-9.3830631901748007E-2</v>
+        <v>2.3308316593429003E-2</v>
       </c>
       <c r="I203" s="5">
-        <v>-0.51396280822521001</v>
+        <v>-0.41682134626619405</v>
       </c>
       <c r="J203" s="5">
-        <v>-0.47210625683642404</v>
+        <v>5.6407984179563005E-2</v>
       </c>
       <c r="K203" s="5">
-        <v>-2.2812441758300221</v>
+        <v>-1.073854326065149</v>
       </c>
       <c r="L203" s="5">
-        <v>1.314266236267714</v>
+        <v>1.36322407345093</v>
       </c>
       <c r="M203" s="5">
-        <v>1.6145191861863579</v>
+        <v>3.7365057857366102</v>
       </c>
       <c r="N203" s="5">
-        <v>-2.8114221927330929</v>
+        <v>-10.032441827013539</v>
       </c>
       <c r="O203" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="Q203" s="6" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="R203" s="5">
-        <v>26.260000228881836</v>
+        <v>1.2840609678818</v>
       </c>
       <c r="S203" s="5">
-        <v>23.521299362182617</v>
+        <v>1.0668594837188721</v>
       </c>
     </row>
     <row r="204" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A204" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="C204" s="5">
-        <v>2749017</v>
+        <v>2762590.5</v>
       </c>
       <c r="D204" s="5">
-        <v>366716480</v>
+        <v>791779968</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F204" s="5">
-        <v>3.7804877758026123</v>
+        <v>6.9629316329956055</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H204" s="5">
-        <v>1.499694475651703</v>
+        <v>-9.3830631901748007E-2</v>
       </c>
       <c r="I204" s="5">
-        <v>1.58039441257114</v>
+        <v>-0.51396280822521001</v>
       </c>
       <c r="J204" s="5">
-        <v>4.6745515065351739</v>
+        <v>-0.47210625683642404</v>
       </c>
       <c r="K204" s="5">
-        <v>2.6148084818218509</v>
+        <v>-2.2812441758300221</v>
       </c>
       <c r="L204" s="5">
-        <v>7.0085885645081891</v>
+        <v>1.314266236267714</v>
       </c>
       <c r="M204" s="5">
-        <v>6.8148076011090186</v>
+        <v>1.6145191861863579</v>
       </c>
       <c r="N204" s="5">
-        <v>2.1982942717270419</v>
+        <v>-2.8114221927330929</v>
       </c>
       <c r="O204" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="R204" s="5">
-        <v>16.360236833904644</v>
+        <v>26.260000228881836</v>
       </c>
       <c r="S204" s="5">
-        <v>14.876408576965332</v>
+        <v>23.521299362182617</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A205" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="C205" s="5">
-        <v>2718330.25</v>
+        <v>2755463.25</v>
       </c>
       <c r="D205" s="5">
-        <v>703445632</v>
+        <v>367576384</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F205" s="5">
-        <v>3.4929237365722661</v>
+        <v>3.8017373085021973</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="H205" s="5">
-        <v>0.87795573328000009</v>
+        <v>-0.32575899564483102</v>
       </c>
       <c r="I205" s="5">
-        <v>-0.59481034519089904</v>
+        <v>0.44625715199953003</v>
       </c>
       <c r="J205" s="5">
-        <v>3.3091954408637006E-2</v>
+        <v>2.1075802162548118</v>
       </c>
       <c r="K205" s="5">
-        <v>-1.0969069721087801</v>
+        <v>0.19346404556244101</v>
       </c>
       <c r="L205" s="5">
-        <v>3.9482011463023881</v>
+        <v>4.2412941972166829</v>
       </c>
       <c r="M205" s="5">
-        <v>3.6956831372577659</v>
+        <v>6.4507009276209892</v>
       </c>
       <c r="N205" s="5">
-        <v>-9.4709525844743574</v>
+        <v>1.5161179584517241</v>
       </c>
       <c r="O205" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="Q205" s="6" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="R205" s="5">
-        <v>1.2840609678818</v>
+        <v>16.360236833904644</v>
       </c>
       <c r="S205" s="5">
-        <v>1.0666109323501589</v>
+        <v>14.803328514099121</v>
       </c>
     </row>
     <row r="206" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14366,40 +14366,40 @@
         <v>462</v>
       </c>
       <c r="C206" s="5">
-        <v>2636694.5</v>
+        <v>2642514</v>
       </c>
       <c r="D206" s="5">
-        <v>379050496</v>
+        <v>379887104</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F206" s="5">
-        <v>2.7116348743438721</v>
+        <v>2.7142372131347661</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H206" s="5">
-        <v>-0.34050783967370901</v>
+        <v>7.722533588598901E-2</v>
       </c>
       <c r="I206" s="5">
-        <v>-1.2270695725325131</v>
+        <v>-0.88101089607687311</v>
       </c>
       <c r="J206" s="5">
-        <v>0.72285469835373706</v>
+        <v>0.80063826120848602</v>
       </c>
       <c r="K206" s="5">
-        <v>-0.520929466470754</v>
+        <v>-1.6370861945924302</v>
       </c>
       <c r="L206" s="5">
-        <v>6.5199201175018429</v>
+        <v>5.1225844109484608</v>
       </c>
       <c r="M206" s="5">
-        <v>5.7657627141122658</v>
+        <v>5.8975730641711799</v>
       </c>
       <c r="N206" s="5">
-        <v>-0.46863958928425903</v>
+        <v>-0.63740269505491209</v>
       </c>
       <c r="O206" s="6" t="s">
         <v>23</v>
@@ -14414,7 +14414,7 @@
         <v>6.0586994297504422</v>
       </c>
       <c r="S206" s="5">
-        <v>5.628262996673584</v>
+        <v>5.6326093673706055</v>
       </c>
     </row>
     <row r="207" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14431,32 +14431,32 @@
         <v>1158852736</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H207" s="5">
-        <v>7.2655949134592002E-2</v>
+        <v>-0.14521505278619601</v>
       </c>
       <c r="I207" s="5">
-        <v>9.0718949405270005E-3</v>
+        <v>0.41985693318857803</v>
       </c>
       <c r="J207" s="5">
-        <v>0.51085346109309704</v>
+        <v>0.36489657218372601</v>
       </c>
       <c r="K207" s="5">
-        <v>-0.97070601640241205</v>
+        <v>-1.380425604086333</v>
       </c>
       <c r="L207" s="5">
-        <v>3.3971425211475559</v>
+        <v>2.736018594378931</v>
       </c>
       <c r="M207" s="5">
-        <v>3.7183422639490038</v>
+        <v>3.5677276184814311</v>
       </c>
       <c r="N207" s="5">
-        <v>0.80511748778633307</v>
+        <v>0.64031918951992206</v>
       </c>
       <c r="O207" s="6" t="s">
         <v>63</v>
@@ -14471,7 +14471,7 @@
         <v>5.7100000381469727</v>
       </c>
       <c r="S207" s="5">
-        <v>5.5089998245239258</v>
+        <v>5.500999927520752</v>
       </c>
     </row>
     <row r="208" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14554,25 +14554,25 @@
         <v>63</v>
       </c>
       <c r="H209" s="5">
-        <v>-8.2486581550167012E-2</v>
+        <v>-0.10319088739636501</v>
       </c>
       <c r="I209" s="5">
-        <v>-1.0415626897452011</v>
+        <v>-0.24729694008606101</v>
       </c>
       <c r="J209" s="5">
-        <v>0.19644389516799701</v>
+        <v>9.3050295572983013E-2</v>
       </c>
       <c r="K209" s="5">
-        <v>-3.6105024831672332</v>
+        <v>-4.082043389581191</v>
       </c>
       <c r="L209" s="5">
-        <v>2.6752086620319249</v>
+        <v>0.95943278803793908</v>
       </c>
       <c r="M209" s="5">
-        <v>3.0847778017974341</v>
+        <v>2.9784037048131928</v>
       </c>
       <c r="N209" s="5">
-        <v>-9.2433079582859072</v>
+        <v>-8.3672490263539956</v>
       </c>
       <c r="O209" s="6" t="s">
         <v>63</v>
@@ -14587,7 +14587,7 @@
         <v>5.5890002250671387</v>
       </c>
       <c r="S209" s="5">
-        <v>4.8454999923706055</v>
+        <v>4.8404998779296884</v>
       </c>
     </row>
     <row r="210" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14657,38 +14657,38 @@
         <v>472</v>
       </c>
       <c r="C211" s="5">
-        <v>2519128.25</v>
+        <v>2525035.5</v>
       </c>
       <c r="D211" s="5">
-        <v>1181808768</v>
+        <v>1184579968</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H211" s="5">
-        <v>1.112846858207672</v>
+        <v>-7.3440841697581E-2</v>
       </c>
       <c r="I211" s="5">
-        <v>0.6714243876071001</v>
+        <v>5.8060509291713004E-2</v>
       </c>
       <c r="J211" s="5">
-        <v>3.2727675113079391</v>
+        <v>1.433675498047116</v>
       </c>
       <c r="K211" s="5">
-        <v>1.532487253392345</v>
+        <v>-0.27818554429632802</v>
       </c>
       <c r="L211" s="5">
-        <v>4.4060404832331201</v>
+        <v>2.9030556359718851</v>
       </c>
       <c r="M211" s="5">
-        <v>4.2169724525176644</v>
+        <v>4.1246396489863724</v>
       </c>
       <c r="N211" s="5">
-        <v>0.20393687397233201</v>
+        <v>-0.57598031735066602</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>63</v>
@@ -14703,7 +14703,7 @@
         <v>36.148334002710271</v>
       </c>
       <c r="S211" s="5">
-        <v>34.447048187255859</v>
+        <v>34.364601135253906</v>
       </c>
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14720,34 +14720,34 @@
         <v>3846060032</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F212" s="5">
-        <v>5.6280727386474609</v>
+        <v>5.635594367980957</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>-2.2235786721392002E-2</v>
+        <v>-0.13346984950974902</v>
       </c>
       <c r="I212" s="5">
-        <v>0.82988169604087902</v>
+        <v>0.52619930845159102</v>
       </c>
       <c r="J212" s="5">
-        <v>0.42444419523479704</v>
+        <v>0.29040784069640502</v>
       </c>
       <c r="K212" s="5">
-        <v>0.33835836084019605</v>
+        <v>0.28059758569001203</v>
       </c>
       <c r="L212" s="5">
-        <v>3.331692491368043</v>
+        <v>2.5862842947111502</v>
       </c>
       <c r="M212" s="5">
-        <v>3.8655319093429119</v>
+        <v>3.7269027402110133</v>
       </c>
       <c r="N212" s="5">
-        <v>6.694771707354974</v>
+        <v>6.4146323798477178</v>
       </c>
       <c r="O212" s="6" t="s">
         <v>23</v>
@@ -14762,7 +14762,7 @@
         <v>95.30999755859375</v>
       </c>
       <c r="S212" s="5">
-        <v>89.910003662109375</v>
+        <v>89.790000915527344</v>
       </c>
     </row>
     <row r="213" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14773,40 +14773,40 @@
         <v>476</v>
       </c>
       <c r="C213" s="5">
-        <v>2470207.75</v>
+        <v>2476000.25</v>
       </c>
       <c r="D213" s="5">
-        <v>888301248</v>
+        <v>890384256</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F213" s="5">
-        <v>3.143469095230103</v>
+        <v>3.1448605060577388</v>
       </c>
       <c r="G213" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H213" s="5">
-        <v>0.46556757335189902</v>
+        <v>0.19014534145500603</v>
       </c>
       <c r="I213" s="5">
-        <v>-6.1433922989917004E-2</v>
+        <v>-0.27594188287365401</v>
       </c>
       <c r="J213" s="5">
-        <v>2.5489772394568839</v>
+        <v>1.3177277123613611</v>
       </c>
       <c r="K213" s="5">
-        <v>2.156487963124198</v>
+        <v>0.76102091426428808</v>
       </c>
       <c r="L213" s="5">
-        <v>3.796727705179848</v>
+        <v>3.26332192723926</v>
       </c>
       <c r="M213" s="5">
-        <v>3.6087630739085608</v>
+        <v>3.790026087006404</v>
       </c>
       <c r="N213" s="5">
-        <v>-0.30090169548824303</v>
+        <v>-0.34426574022127204</v>
       </c>
       <c r="O213" s="6" t="s">
         <v>23</v>
@@ -14821,7 +14821,7 @@
         <v>18.024806943376241</v>
       </c>
       <c r="S213" s="5">
-        <v>17.08367919921875</v>
+        <v>17.087745666503906</v>
       </c>
     </row>
     <row r="214" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -14900,7 +14900,7 @@
         <v>56</v>
       </c>
       <c r="F215" s="5">
-        <v>9.3730602264404297</v>
+        <v>9.3730592727661133</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>0</v>
@@ -15127,40 +15127,40 @@
         <v>488</v>
       </c>
       <c r="C219" s="5">
-        <v>2370996</v>
+        <v>2376229.25</v>
       </c>
       <c r="D219" s="5">
-        <v>1964865664</v>
+        <v>1969202432</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F219" s="5">
-        <v>3.5610134601593022</v>
+        <v>3.555007696151733</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H219" s="5">
-        <v>-0.35229340178435403</v>
+        <v>0.34250318016664205</v>
       </c>
       <c r="I219" s="5">
-        <v>-0.96016455113643306</v>
+        <v>-0.36377616198933804</v>
       </c>
       <c r="J219" s="5">
-        <v>0.29957588130715701</v>
+        <v>0.64310511839429407</v>
       </c>
       <c r="K219" s="5">
-        <v>-2.29878203739099</v>
+        <v>-2.5938470552343222</v>
       </c>
       <c r="L219" s="5">
-        <v>3.384013253809703</v>
+        <v>1.9879336020210301</v>
       </c>
       <c r="M219" s="5">
-        <v>2.5662144502218491</v>
+        <v>2.9662516803921068</v>
       </c>
       <c r="N219" s="5">
-        <v>-3.2436649821590002</v>
+        <v>-2.5041659115144892</v>
       </c>
       <c r="O219" s="6" t="s">
         <v>377</v>
@@ -15175,7 +15175,7 @@
         <v>165.30427152709962</v>
       </c>
       <c r="S219" s="5">
-        <v>146.55513000488281</v>
+        <v>147.05708312988281</v>
       </c>
     </row>
     <row r="220" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15186,40 +15186,40 @@
         <v>490</v>
       </c>
       <c r="C220" s="5">
-        <v>2228407</v>
+        <v>2370700.5</v>
       </c>
       <c r="D220" s="5">
-        <v>1236310528</v>
+        <v>1237542528</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F220" s="5">
-        <v>5.2941174507141113</v>
+        <v>5.3089008331298828</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>205</v>
       </c>
       <c r="H220" s="5">
-        <v>1.1199971838128819</v>
+        <v>0.39896947755264606</v>
       </c>
       <c r="I220" s="5">
-        <v>0.522855231435426</v>
+        <v>1.0023458584832889</v>
       </c>
       <c r="J220" s="5">
-        <v>1.4542133032198201</v>
+        <v>1.858984647990813</v>
       </c>
       <c r="K220" s="5">
-        <v>0.23214892293381703</v>
+        <v>0.63204460383143901</v>
       </c>
       <c r="L220" s="5">
-        <v>5.7718621960163095</v>
+        <v>5.0736990920779323</v>
       </c>
       <c r="M220" s="5">
-        <v>5.1230249579204523</v>
+        <v>5.5593792995441316</v>
       </c>
       <c r="N220" s="5">
-        <v>-0.48662903311921202</v>
+        <v>-1.0577511063915579</v>
       </c>
       <c r="O220" s="6" t="s">
         <v>23</v>
@@ -15234,7 +15234,7 @@
         <v>1.3637727842326801</v>
       </c>
       <c r="S220" s="5">
-        <v>1.2230216264724729</v>
+        <v>1.2279009819030759</v>
       </c>
     </row>
     <row r="221" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15304,40 +15304,40 @@
         <v>494</v>
       </c>
       <c r="C222" s="5">
-        <v>2194527</v>
+        <v>2199673</v>
       </c>
       <c r="D222" s="5">
-        <v>1781805568</v>
+        <v>1785983744</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F222" s="5">
-        <v>4.3234591484069824</v>
+        <v>4.3338685035705566</v>
       </c>
       <c r="G222" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H222" s="5">
-        <v>0.56131090835354103</v>
+        <v>-6.2553571679390008E-3</v>
       </c>
       <c r="I222" s="5">
-        <v>-0.35414896990696404</v>
+        <v>-0.39323377040356705</v>
       </c>
       <c r="J222" s="5">
-        <v>2.628128215395753</v>
+        <v>1.1520367780602609</v>
       </c>
       <c r="K222" s="5">
-        <v>2.382806755986389</v>
+        <v>-0.39870187814227104</v>
       </c>
       <c r="L222" s="5">
-        <v>5.0750782939492423</v>
+        <v>3.3952085611314691</v>
       </c>
       <c r="M222" s="5">
-        <v>4.8847987082245137</v>
+        <v>4.862330905060408</v>
       </c>
       <c r="N222" s="5">
-        <v>-1.9649087760377442</v>
+        <v>-2.9069463096959569</v>
       </c>
       <c r="O222" s="6" t="s">
         <v>23</v>
@@ -15352,7 +15352,7 @@
         <v>10.712897250230267</v>
       </c>
       <c r="S222" s="5">
-        <v>9.4413785934448242</v>
+        <v>9.4251136779785156</v>
       </c>
     </row>
     <row r="223" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15363,40 +15363,40 @@
         <v>496</v>
       </c>
       <c r="C223" s="5">
-        <v>2103761</v>
+        <v>2108694.25</v>
       </c>
       <c r="D223" s="5">
-        <v>694017792</v>
+        <v>695645248</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F223" s="5">
-        <v>4.6461877822875977</v>
+        <v>4.6771969795227051</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H223" s="5">
-        <v>0.15874206783261802</v>
+        <v>-4.1951631457415005E-2</v>
       </c>
       <c r="I223" s="5">
-        <v>0.20857950687491703</v>
+        <v>-0.6571456937099821</v>
       </c>
       <c r="J223" s="5">
-        <v>3.2652461433889219</v>
+        <v>2.075585762498688</v>
       </c>
       <c r="K223" s="5">
-        <v>2.4223608251931821</v>
+        <v>0.35191584036307105</v>
       </c>
       <c r="L223" s="5">
-        <v>4.4998769097464475</v>
+        <v>3.2066353769174332</v>
       </c>
       <c r="M223" s="5">
-        <v>4.3106389514263599</v>
+        <v>4.2510572019564208</v>
       </c>
       <c r="N223" s="5">
-        <v>1.6839742486875811</v>
+        <v>1.535274411919318</v>
       </c>
       <c r="O223" s="6" t="s">
         <v>23</v>
@@ -15411,7 +15411,7 @@
         <v>14.633379957331165</v>
       </c>
       <c r="S223" s="5">
-        <v>13.682062149047852</v>
+        <v>13.600605010986328</v>
       </c>
     </row>
     <row r="224" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15422,55 +15422,55 @@
         <v>498</v>
       </c>
       <c r="C224" s="5">
-        <v>2065449</v>
+        <v>2078130.5</v>
       </c>
       <c r="D224" s="5">
-        <v>1047966272</v>
+        <v>416360096</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F224" s="5">
-        <v>3.2922730445861821</v>
+        <v>1.7242332696914671</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="H224" s="5">
-        <v>0.43993532309083405</v>
+        <v>0.21388479412758302</v>
       </c>
       <c r="I224" s="5">
-        <v>9.6044968529241007E-2</v>
+        <v>-0.16056740129257702</v>
       </c>
       <c r="J224" s="5">
-        <v>2.6318216224689328</v>
+        <v>0.9155642513717811</v>
       </c>
       <c r="K224" s="5">
-        <v>1.954920251844072</v>
+        <v>-1.5326182714587191</v>
       </c>
       <c r="L224" s="5">
-        <v>4.0275263764816049</v>
+        <v>-0.85852491603654002</v>
       </c>
       <c r="M224" s="5">
-        <v>3.8391437938152251</v>
+        <v>-0.124046101881325</v>
       </c>
       <c r="N224" s="5">
-        <v>-0.43732640442288906</v>
+        <v>-5.3050923528284111</v>
       </c>
       <c r="O224" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="R224" s="5">
-        <v>14.256555069408156</v>
+        <v>28.849252288079544</v>
       </c>
       <c r="S224" s="5">
-        <v>13.500642776489258</v>
+        <v>25.652378082275391</v>
       </c>
     </row>
     <row r="225" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15481,40 +15481,40 @@
         <v>500</v>
       </c>
       <c r="C225" s="5">
-        <v>1992175.875</v>
+        <v>2070292.375</v>
       </c>
       <c r="D225" s="5">
-        <v>712443520</v>
+        <v>1050423680</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F225" s="5">
-        <v>6.642066478729248</v>
+        <v>3.2959640026092529</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H225" s="5">
-        <v>0.80972452658190108</v>
+        <v>0.12225065983340101</v>
       </c>
       <c r="I225" s="5">
-        <v>1.0668288303743449</v>
+        <v>-0.104323001287543</v>
       </c>
       <c r="J225" s="5">
-        <v>5.3646327650871184</v>
+        <v>1.447085030271245</v>
       </c>
       <c r="K225" s="5">
-        <v>4.3765733857701115</v>
+        <v>0.63577942751309502</v>
       </c>
       <c r="L225" s="5">
-        <v>6.8192874174105356</v>
+        <v>3.1885792096378212</v>
       </c>
       <c r="M225" s="5">
-        <v>6.6258492578848749</v>
+        <v>3.9503192936804381</v>
       </c>
       <c r="N225" s="5">
-        <v>4.8712869713731788</v>
+        <v>-0.39370415146267002</v>
       </c>
       <c r="O225" s="6" t="s">
         <v>23</v>
@@ -15526,10 +15526,10 @@
         <v>160</v>
       </c>
       <c r="R225" s="5">
-        <v>9.1301618106774356</v>
+        <v>14.256555069408156</v>
       </c>
       <c r="S225" s="5">
-        <v>8.1941194534301758</v>
+        <v>13.494705200195313</v>
       </c>
     </row>
     <row r="226" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15540,55 +15540,55 @@
         <v>502</v>
       </c>
       <c r="C226" s="5">
-        <v>1966601.75</v>
+        <v>1996847.375</v>
       </c>
       <c r="D226" s="5">
-        <v>414991744</v>
+        <v>714114112</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F226" s="5">
-        <v>1.719738364219666</v>
+        <v>6.6852364540100098</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="H226" s="5">
-        <v>0.25494981509361903</v>
+        <v>-0.41277000835441302</v>
       </c>
       <c r="I226" s="5">
-        <v>-0.36563404147468304</v>
+        <v>4.1934466789910006E-3</v>
       </c>
       <c r="J226" s="5">
-        <v>0.70018187468301507</v>
+        <v>2.1503686888252331</v>
       </c>
       <c r="K226" s="5">
-        <v>-2.0341140818415648</v>
+        <v>2.548550414767337</v>
       </c>
       <c r="L226" s="5">
-        <v>1.0483132596184721</v>
+        <v>5.9629799434029129</v>
       </c>
       <c r="M226" s="5">
-        <v>-0.322361228987667</v>
+        <v>6.1696245392765858</v>
       </c>
       <c r="N226" s="5">
-        <v>-3.7870619665391292</v>
+        <v>3.4706884270909071</v>
       </c>
       <c r="O226" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P226" s="6" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="Q226" s="6" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="R226" s="5">
-        <v>28.849252288079544</v>
+        <v>9.1301618106774356</v>
       </c>
       <c r="S226" s="5">
-        <v>25.597627639770508</v>
+        <v>8.1467475891113281</v>
       </c>
     </row>
     <row r="227" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15599,40 +15599,40 @@
         <v>504</v>
       </c>
       <c r="C227" s="5">
-        <v>1957575.125</v>
+        <v>1961895.75</v>
       </c>
       <c r="D227" s="5">
-        <v>317059648</v>
+        <v>317759456</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F227" s="5">
-        <v>3.4683725833892822</v>
+        <v>3.471580028533936</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H227" s="5">
-        <v>-0.16360508207280403</v>
+        <v>8.0717906622407007E-2</v>
       </c>
       <c r="I227" s="5">
-        <v>-1.2214981847412429</v>
+        <v>-0.51207527751493409</v>
       </c>
       <c r="J227" s="5">
-        <v>2.1167707744998538</v>
+        <v>2.199197294179434</v>
       </c>
       <c r="K227" s="5">
-        <v>-1.4321225491168099</v>
+        <v>-2.6421108305992091</v>
       </c>
       <c r="L227" s="5">
-        <v>8.132022418852447</v>
+        <v>5.8887238603188674</v>
       </c>
       <c r="M227" s="5">
-        <v>7.632157235770376</v>
+        <v>7.7700544855708209</v>
       </c>
       <c r="N227" s="5">
-        <v>-5.9019385949205976</v>
+        <v>-5.5065037666670591</v>
       </c>
       <c r="O227" s="6" t="s">
         <v>23</v>
@@ -15647,7 +15647,7 @@
         <v>5.2031642795562743</v>
       </c>
       <c r="S227" s="5">
-        <v>4.4661698341369629</v>
+        <v>4.4697747230529794</v>
       </c>
     </row>
     <row r="228" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15658,43 +15658,43 @@
         <v>506</v>
       </c>
       <c r="C228" s="5">
-        <v>1955170.25</v>
+        <v>1959485.625</v>
       </c>
       <c r="D228" s="5">
-        <v>1848254208</v>
+        <v>1852333568</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F228" s="5">
-        <v>2.3672161102294922</v>
+        <v>2.3662223815917969</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H228" s="5">
-        <v>-0.18085914675696202</v>
+        <v>0.21533914116536002</v>
       </c>
       <c r="I228" s="5">
-        <v>-0.50992070897079</v>
+        <v>-0.10157802075929601</v>
       </c>
       <c r="J228" s="5">
-        <v>0.636559427219341</v>
+        <v>0.85326932998828209</v>
       </c>
       <c r="K228" s="5">
-        <v>0.24102422287295402</v>
+        <v>-0.40492326145541402</v>
       </c>
       <c r="L228" s="5">
-        <v>5.265230640147478</v>
+        <v>4.4853654288443456</v>
       </c>
       <c r="M228" s="5">
-        <v>4.1194488740574409</v>
+        <v>4.3930789513599855</v>
       </c>
       <c r="N228" s="5">
-        <v>2.8504532145188222</v>
+        <v>2.837916436230858</v>
       </c>
       <c r="O228" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P228" s="6" t="s">
         <v>268</v>
@@ -15706,7 +15706,7 @@
         <v>124.23096599731446</v>
       </c>
       <c r="S228" s="5">
-        <v>120.91353607177734</v>
+        <v>121.17391204833984</v>
       </c>
     </row>
     <row r="229" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15789,25 +15789,25 @@
         <v>63</v>
       </c>
       <c r="H230" s="5">
-        <v>-2.6850362061681003E-2</v>
+        <v>-8.9468331028080012E-3</v>
       </c>
       <c r="I230" s="5">
-        <v>0.18833999251772801</v>
+        <v>7.1675094549351004E-2</v>
       </c>
       <c r="J230" s="5">
-        <v>0.67591754842437601</v>
+        <v>0.666910242106589</v>
       </c>
       <c r="K230" s="5">
-        <v>2.279798546122525</v>
+        <v>2.1584055305085892</v>
       </c>
       <c r="L230" s="5">
-        <v>3.2821703285609072</v>
+        <v>3.3302464634872959</v>
       </c>
       <c r="M230" s="5">
-        <v>3.4160292504854528</v>
+        <v>3.4067767909468532</v>
       </c>
       <c r="N230" s="5">
-        <v>5.986713163266244</v>
+        <v>6.0476605372139058</v>
       </c>
       <c r="O230" s="6" t="s">
         <v>63</v>
@@ -15822,7 +15822,7 @@
         <v>5.5999999046325684</v>
       </c>
       <c r="S230" s="5">
-        <v>5.5854997634887704</v>
+        <v>5.5850000381469727</v>
       </c>
     </row>
     <row r="231" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15846,25 +15846,25 @@
         <v>63</v>
       </c>
       <c r="H231" s="5">
-        <v>-0.15570060306258102</v>
+        <v>1.9491764102253003E-2</v>
       </c>
       <c r="I231" s="5">
-        <v>-0.58139019105275502</v>
+        <v>-0.21392757639502302</v>
       </c>
       <c r="J231" s="5">
-        <v>-0.46565176397837005</v>
+        <v>-0.44625076361949301</v>
       </c>
       <c r="K231" s="5">
-        <v>-1.554401300335218</v>
+        <v>-1.7614399149124551</v>
       </c>
       <c r="L231" s="5">
-        <v>1.483685235394838</v>
+        <v>0.80549878476790004</v>
       </c>
       <c r="M231" s="5">
-        <v>1.6042846403463429</v>
+        <v>1.6240891078262101</v>
       </c>
       <c r="N231" s="5">
-        <v>-1.949536737925206</v>
+        <v>-1.874164235517606</v>
       </c>
       <c r="O231" s="6" t="s">
         <v>63</v>
@@ -15879,7 +15879,7 @@
         <v>5.3860001564025879</v>
       </c>
       <c r="S231" s="5">
-        <v>5.130000114440918</v>
+        <v>5.1310000419616699</v>
       </c>
     </row>
     <row r="232" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15890,43 +15890,41 @@
         <v>514</v>
       </c>
       <c r="C232" s="5">
-        <v>1689192.5</v>
+        <v>1687794.5</v>
       </c>
       <c r="D232" s="5">
-        <v>183789168</v>
+        <v>1035929216</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F232" s="5">
-        <v>3.508672952651978</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F232" s="5"/>
       <c r="G232" s="6" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="H232" s="5">
-        <v>-0.130991244947609</v>
+        <v>0.28596301399510504</v>
       </c>
       <c r="I232" s="5">
-        <v>-0.88629366943783205</v>
+        <v>-0.49658872066252702</v>
       </c>
       <c r="J232" s="5">
-        <v>1.9511708164823061</v>
+        <v>4.2140058191305174</v>
       </c>
       <c r="K232" s="5">
-        <v>-3.9971721242204161</v>
+        <v>-7.4234981999651843</v>
       </c>
       <c r="L232" s="5">
-        <v>4.8742476392723777</v>
+        <v>0.53144501899902208</v>
       </c>
       <c r="M232" s="5">
-        <v>3.762284333489041</v>
+        <v>0.74437169427412608</v>
       </c>
       <c r="N232" s="5">
-        <v>-7.5571599197468364</v>
+        <v>-15.242148811382405</v>
       </c>
       <c r="O232" s="6" t="s">
-        <v>23</v>
+        <v>515</v>
       </c>
       <c r="P232" s="6" t="s">
         <v>268</v>
@@ -15935,55 +15933,57 @@
         <v>269</v>
       </c>
       <c r="R232" s="5">
-        <v>4.4383931372165684</v>
+        <v>21.889931880950929</v>
       </c>
       <c r="S232" s="5">
-        <v>3.8702678680419922</v>
+        <v>16.977319717407227</v>
       </c>
     </row>
     <row r="233" spans="1:19" s="4" customFormat="1" ht="12.75">
       <c r="A233" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C233" s="5">
-        <v>1684077.5</v>
+        <v>1686713.625</v>
       </c>
       <c r="D233" s="5">
-        <v>1033647808</v>
+        <v>183519456</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F233" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F233" s="5">
+        <v>3.5123879909515381</v>
+      </c>
       <c r="G233" s="6" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="H233" s="5">
-        <v>-1.0253623812637169</v>
+        <v>-0.29794414848911505</v>
       </c>
       <c r="I233" s="5">
-        <v>-1.467604269455502</v>
+        <v>-0.8778645308246571</v>
       </c>
       <c r="J233" s="5">
-        <v>3.916842085454419</v>
+        <v>1.6474132687184451</v>
       </c>
       <c r="K233" s="5">
-        <v>-7.2558283420442349</v>
+        <v>-5.121659276708213</v>
       </c>
       <c r="L233" s="5">
-        <v>2.1566291194591298</v>
+        <v>2.5349585120252538</v>
       </c>
       <c r="M233" s="5">
-        <v>0.40954469793477205</v>
+        <v>3.500434768130511</v>
       </c>
       <c r="N233" s="5">
-        <v>-16.896962113327263</v>
+        <v>-7.231247724583123</v>
       </c>
       <c r="O233" s="6" t="s">
-        <v>517</v>
+        <v>23</v>
       </c>
       <c r="P233" s="6" t="s">
         <v>268</v>
@@ -15992,10 +15992,10 @@
         <v>269</v>
       </c>
       <c r="R233" s="5">
-        <v>21.889931880950929</v>
+        <v>4.4383931372165684</v>
       </c>
       <c r="S233" s="5">
-        <v>16.928911209106445</v>
+        <v>3.858736515045166</v>
       </c>
     </row>
     <row r="234" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16015,31 +16015,31 @@
         <v>63</v>
       </c>
       <c r="F234" s="5">
-        <v>3.5387463569641109</v>
+        <v>3.5420253276824951</v>
       </c>
       <c r="G234" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>-0.132068526763995</v>
+        <v>-9.2567702586277001E-2</v>
       </c>
       <c r="I234" s="5">
-        <v>-0.90420972036696612</v>
+        <v>-0.329816564895269</v>
       </c>
       <c r="J234" s="5">
-        <v>0.33223144155913903</v>
+        <v>0.23935619996013902</v>
       </c>
       <c r="K234" s="5">
-        <v>-3.4928257966803322</v>
+        <v>-4.0274763742215276</v>
       </c>
       <c r="L234" s="5">
-        <v>2.524407682531304</v>
+        <v>1.0296761282509559</v>
       </c>
       <c r="M234" s="5">
-        <v>3.4478028241282881</v>
+        <v>3.3520435696779982</v>
       </c>
       <c r="N234" s="5">
-        <v>-9.2501934747562622</v>
+        <v>-8.3112917161211719</v>
       </c>
       <c r="O234" s="6" t="s">
         <v>23</v>
@@ -16054,7 +16054,7 @@
         <v>4.5029997825622559</v>
       </c>
       <c r="S234" s="5">
-        <v>3.780999898910522</v>
+        <v>3.777499914169312</v>
       </c>
     </row>
     <row r="235" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16078,25 +16078,25 @@
         <v>63</v>
       </c>
       <c r="H235" s="5">
-        <v>9.1061746982700007E-3</v>
+        <v>3.6404022149683003E-2</v>
       </c>
       <c r="I235" s="5">
-        <v>8.1989237153479E-2</v>
+        <v>0.11842310668321901</v>
       </c>
       <c r="J235" s="5">
-        <v>0.42962419389891404</v>
+        <v>0.46618461653529203</v>
       </c>
       <c r="K235" s="5">
-        <v>1.2720111399427529</v>
+        <v>1.280869295387421</v>
       </c>
       <c r="L235" s="5">
-        <v>2.35699883122924</v>
+        <v>2.356120891942171</v>
       </c>
       <c r="M235" s="5">
-        <v>2.337932218060268</v>
+        <v>2.3751873415724489</v>
       </c>
       <c r="N235" s="5">
-        <v>4.1027152609849793</v>
+        <v>4.0814369198199252</v>
       </c>
       <c r="O235" s="6" t="s">
         <v>63</v>
@@ -16111,7 +16111,7 @@
         <v>5.5</v>
       </c>
       <c r="S235" s="5">
-        <v>5.4935002326965332</v>
+        <v>5.4955000877380371</v>
       </c>
     </row>
     <row r="236" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16122,40 +16122,40 @@
         <v>523</v>
       </c>
       <c r="C236" s="5">
-        <v>1623575.375</v>
+        <v>1627382.625</v>
       </c>
       <c r="D236" s="5">
-        <v>954998144</v>
+        <v>957237568</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F236" s="5">
-        <v>5.9541983604431152</v>
+        <v>5.9315586090087891</v>
       </c>
       <c r="G236" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H236" s="5">
-        <v>0.63888210060429906</v>
+        <v>0.61708109620166607</v>
       </c>
       <c r="I236" s="5">
-        <v>-0.59440120712651601</v>
+        <v>0.49189239959901404</v>
       </c>
       <c r="J236" s="5">
-        <v>4.1543602083002229</v>
+        <v>1.0299263553522839</v>
       </c>
       <c r="K236" s="5">
-        <v>5.0546888921432005E-2</v>
+        <v>0.142756463855642</v>
       </c>
       <c r="L236" s="5">
-        <v>2.6771335578100079</v>
+        <v>-0.70191536404897703</v>
       </c>
       <c r="M236" s="5">
-        <v>2.4911963902722882</v>
+        <v>3.1080094224135379</v>
       </c>
       <c r="N236" s="5">
-        <v>-12.380245214294384</v>
+        <v>-11.575103349968007</v>
       </c>
       <c r="O236" s="6" t="s">
         <v>23</v>
@@ -16170,7 +16170,7 @@
         <v>9.7032498482314704</v>
       </c>
       <c r="S236" s="5">
-        <v>7.9219894409179687</v>
+        <v>7.9576401710510254</v>
       </c>
     </row>
     <row r="237" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16181,55 +16181,55 @@
         <v>525</v>
       </c>
       <c r="C237" s="5">
-        <v>1559042.625</v>
+        <v>1609952.875</v>
       </c>
       <c r="D237" s="5">
-        <v>127723144</v>
+        <v>2594918144</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="F237" s="5">
-        <v>1.8188683986663821</v>
+        <v>5.1498069763183594</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="H237" s="5">
-        <v>-0.19786916522914802</v>
+        <v>0.29184149031427103</v>
       </c>
       <c r="I237" s="5">
-        <v>-0.49706825009137001</v>
+        <v>0.35839818625951203</v>
       </c>
       <c r="J237" s="5">
-        <v>1.3987030265745442</v>
+        <v>1.1600005544240011</v>
       </c>
       <c r="K237" s="5">
-        <v>1.4025808443980601</v>
+        <v>1.299430199777607</v>
       </c>
       <c r="L237" s="5">
-        <v>6.5480231061863181</v>
+        <v>4.3251068436813478</v>
       </c>
       <c r="M237" s="5">
-        <v>5.2234326644380769</v>
+        <v>4.7788806400154371</v>
       </c>
       <c r="N237" s="5">
-        <v>4.1028032819074189</v>
+        <v>-0.12017149084787601</v>
       </c>
       <c r="O237" s="6" t="s">
-        <v>377</v>
+        <v>23</v>
       </c>
       <c r="P237" s="6" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="Q237" s="6" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="R237" s="5">
-        <v>5.9651961200237285</v>
+        <v>1.190674741117949</v>
       </c>
       <c r="S237" s="5">
-        <v>5.8847417831420898</v>
+        <v>1.0835744142532351</v>
       </c>
     </row>
     <row r="238" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16240,43 +16240,43 @@
         <v>527</v>
       </c>
       <c r="C238" s="5">
-        <v>1549869.5</v>
+        <v>1562483.75</v>
       </c>
       <c r="D238" s="5">
-        <v>1214812288</v>
+        <v>128005048</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F238" s="5">
-        <v>2.0749397277832031</v>
+        <v>1.8182798624038701</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H238" s="5">
-        <v>9.502091476210001E-3</v>
+        <v>0.20569294183689901</v>
       </c>
       <c r="I238" s="5">
-        <v>-0.68520760515810009</v>
+        <v>-0.40424926583800802</v>
       </c>
       <c r="J238" s="5">
-        <v>1.702437304639703</v>
+        <v>1.6072730018143799</v>
       </c>
       <c r="K238" s="5">
-        <v>0.17997794836992501</v>
+        <v>0.57520130234343103</v>
       </c>
       <c r="L238" s="5">
-        <v>7.333404832959145</v>
+        <v>5.7772434752431767</v>
       </c>
       <c r="M238" s="5">
-        <v>6.3021136939294564</v>
+        <v>5.4898091858948117</v>
       </c>
       <c r="N238" s="5">
-        <v>1.3944624767536771</v>
+        <v>3.9256355212534899</v>
       </c>
       <c r="O238" s="6" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="P238" s="6" t="s">
         <v>268</v>
@@ -16285,10 +16285,10 @@
         <v>269</v>
       </c>
       <c r="R238" s="5">
-        <v>6.5681948829174042</v>
+        <v>5.9651961200237285</v>
       </c>
       <c r="S238" s="5">
-        <v>6.1926445960998544</v>
+        <v>5.8968462944030762</v>
       </c>
     </row>
     <row r="239" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16299,55 +16299,55 @@
         <v>529</v>
       </c>
       <c r="C239" s="5">
-        <v>1534903.25</v>
+        <v>1553290.375</v>
       </c>
       <c r="D239" s="5">
-        <v>2592334848</v>
+        <v>1217493632</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="F239" s="5">
-        <v>5.0653982162475586</v>
+        <v>2.0751523971557622</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="H239" s="5">
-        <v>0.77678016967397401</v>
+        <v>0.16299626129356901</v>
       </c>
       <c r="I239" s="5">
-        <v>3.1616458960215005E-2</v>
+        <v>-0.36061572369261402</v>
       </c>
       <c r="J239" s="5">
-        <v>0.86563278847919811</v>
+        <v>1.8682084750907051</v>
       </c>
       <c r="K239" s="5">
-        <v>1.0046567043647809</v>
+        <v>-0.45564184496718102</v>
       </c>
       <c r="L239" s="5">
-        <v>4.9651529467653388</v>
+        <v>6.6139339338230352</v>
       </c>
       <c r="M239" s="5">
-        <v>4.4572108951074663</v>
+        <v>6.5258119605795528</v>
       </c>
       <c r="N239" s="5">
-        <v>0.60094860010058104</v>
+        <v>1.142464855679437</v>
       </c>
       <c r="O239" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P239" s="6" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="Q239" s="6" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="R239" s="5">
-        <v>1.190674741117949</v>
+        <v>6.5681948829174042</v>
       </c>
       <c r="S239" s="5">
-        <v>1.0804213285446169</v>
+        <v>6.2027382850646973</v>
       </c>
     </row>
     <row r="240" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16367,34 +16367,34 @@
         <v>48</v>
       </c>
       <c r="F240" s="5">
-        <v>4.9162497520446777</v>
+        <v>4.9109082221984863</v>
       </c>
       <c r="G240" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>0.41503374065656701</v>
+        <v>0.10876492436990801</v>
       </c>
       <c r="I240" s="5">
-        <v>0.48087698514345206</v>
+        <v>0.21777502788749001</v>
       </c>
       <c r="J240" s="5">
-        <v>2.5200737383360932</v>
+        <v>2.6315796190015779</v>
       </c>
       <c r="K240" s="5">
-        <v>2.956326203167436</v>
+        <v>2.700287987926453</v>
       </c>
       <c r="L240" s="5">
-        <v>7.952826604563823</v>
+        <v>7.8479755887564062</v>
       </c>
       <c r="M240" s="5">
-        <v>7.656993752357355</v>
+        <v>7.7740868001910268</v>
       </c>
       <c r="N240" s="5">
-        <v>12.114036880679958</v>
+        <v>11.873846380974706</v>
       </c>
       <c r="O240" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P240" s="6" t="s">
         <v>268</v>
@@ -16403,10 +16403,10 @@
         <v>269</v>
       </c>
       <c r="R240" s="5">
-        <v>46</v>
+        <v>46.069999694824219</v>
       </c>
       <c r="S240" s="5">
-        <v>45.970001220703125</v>
+        <v>46.020000457763672</v>
       </c>
     </row>
     <row r="241" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16417,40 +16417,40 @@
         <v>533</v>
       </c>
       <c r="C241" s="5">
-        <v>1513688.375</v>
+        <v>1517237.875</v>
       </c>
       <c r="D241" s="5">
-        <v>648411008</v>
+        <v>649931456</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F241" s="5">
-        <v>2.1124498844146729</v>
+        <v>2.1103308200836182</v>
       </c>
       <c r="G241" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H241" s="5">
-        <v>0.46133375206440802</v>
+        <v>0.33513725267935202</v>
       </c>
       <c r="I241" s="5">
-        <v>-0.134061609084724</v>
+        <v>-0.17218235734655102</v>
       </c>
       <c r="J241" s="5">
-        <v>2.8815451527772322</v>
+        <v>1.403129808121983</v>
       </c>
       <c r="K241" s="5">
-        <v>1.08307090754618</v>
+        <v>-0.47191855897786805</v>
       </c>
       <c r="L241" s="5">
-        <v>3.8546808012341893</v>
+        <v>2.7648873013927711</v>
       </c>
       <c r="M241" s="5">
-        <v>3.6666112231830583</v>
+        <v>3.9982608449951051</v>
       </c>
       <c r="N241" s="5">
-        <v>-2.1727017634193491</v>
+        <v>-2.3210768693357591</v>
       </c>
       <c r="O241" s="6" t="s">
         <v>23</v>
@@ -16465,7 +16465,7 @@
         <v>8.1165776062968078</v>
       </c>
       <c r="S241" s="5">
-        <v>7.5289139747619629</v>
+        <v>7.5416040420532227</v>
       </c>
     </row>
     <row r="242" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16476,40 +16476,40 @@
         <v>535</v>
       </c>
       <c r="C242" s="5">
-        <v>1494518</v>
+        <v>1498022.5</v>
       </c>
       <c r="D242" s="5">
-        <v>192848128</v>
+        <v>193300352</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F242" s="5">
-        <v>2.3529412746429439</v>
+        <v>2.3645319938659668</v>
       </c>
       <c r="G242" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H242" s="5">
-        <v>1.007544166377716</v>
+        <v>-0.25684554147218402</v>
       </c>
       <c r="I242" s="5">
-        <v>0.45342887497597001</v>
+        <v>-0.42740276395717403</v>
       </c>
       <c r="J242" s="5">
-        <v>2.736883680552515</v>
+        <v>0.8844321226949341</v>
       </c>
       <c r="K242" s="5">
-        <v>-7.5699144481645012E-2</v>
+        <v>-2.2318899531402541</v>
       </c>
       <c r="L242" s="5">
-        <v>3.6119869087015259</v>
+        <v>1.705230736236429</v>
       </c>
       <c r="M242" s="5">
-        <v>3.4243568230027051</v>
+        <v>3.1430698892241482</v>
       </c>
       <c r="N242" s="5">
-        <v>-0.55611108777479101</v>
+        <v>-1.3442396599012361</v>
       </c>
       <c r="O242" s="6" t="s">
         <v>23</v>
@@ -16524,7 +16524,7 @@
         <v>11.740417337818805</v>
       </c>
       <c r="S242" s="5">
-        <v>10.794466972351074</v>
+        <v>10.748865127563477</v>
       </c>
     </row>
     <row r="243" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16594,10 +16594,10 @@
         <v>539</v>
       </c>
       <c r="C244" s="5">
-        <v>1432293.75</v>
+        <v>1430191.875</v>
       </c>
       <c r="D244" s="5">
-        <v>787280832</v>
+        <v>786125504</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>63</v>
@@ -16607,25 +16607,25 @@
         <v>63</v>
       </c>
       <c r="H244" s="5">
-        <v>-1.5452895021839001E-2</v>
+        <v>-0.18283252355062501</v>
       </c>
       <c r="I244" s="5">
-        <v>0.112065773876191</v>
+        <v>-0.52880769342803502</v>
       </c>
       <c r="J244" s="5">
-        <v>2.1952750933349701</v>
+        <v>2.008428892932312</v>
       </c>
       <c r="K244" s="5">
-        <v>1.0085895264679401</v>
+        <v>0.303717593298169</v>
       </c>
       <c r="L244" s="5">
-        <v>4.8640155119542339</v>
+        <v>4.0632571812700302</v>
       </c>
       <c r="M244" s="5">
-        <v>3.1326511021667609</v>
+        <v>2.9911624036299771</v>
       </c>
       <c r="N244" s="5">
-        <v>6.5791516649696744</v>
+        <v>6.1616942354798532</v>
       </c>
       <c r="O244" s="6" t="s">
         <v>63</v>
@@ -16640,7 +16640,7 @@
         <v>114.85786853485108</v>
       </c>
       <c r="S244" s="5">
-        <v>114.08311462402344</v>
+        <v>113.87453460693359</v>
       </c>
     </row>
     <row r="245" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16664,25 +16664,25 @@
         <v>63</v>
       </c>
       <c r="H245" s="5">
-        <v>-0.15470696185017102</v>
+        <v>-0.21305745061045403</v>
       </c>
       <c r="I245" s="5">
-        <v>-0.28968456089126804</v>
+        <v>-0.25169431829826799</v>
       </c>
       <c r="J245" s="5">
-        <v>1.9370931538587002E-2</v>
+        <v>-0.19372779028477002</v>
       </c>
       <c r="K245" s="5">
-        <v>-0.44349718596189402</v>
+        <v>-0.78952225377875207</v>
       </c>
       <c r="L245" s="5">
-        <v>2.116294881140135</v>
+        <v>1.4772465467814522</v>
       </c>
       <c r="M245" s="5">
-        <v>2.7258273636977299</v>
+        <v>2.506962334798124</v>
       </c>
       <c r="N245" s="5">
-        <v>-0.76878649481344508</v>
+        <v>-0.71305026721810705</v>
       </c>
       <c r="O245" s="6" t="s">
         <v>63</v>
@@ -16697,7 +16697,7 @@
         <v>5.3499999046325684</v>
       </c>
       <c r="S245" s="5">
-        <v>5.1630001068115234</v>
+        <v>5.1519999504089364</v>
       </c>
     </row>
     <row r="246" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16714,32 +16714,32 @@
         <v>1520056064</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H246" s="5">
-        <v>2.5410852534113001E-2</v>
+        <v>-5.080879412046E-2</v>
       </c>
       <c r="I246" s="5">
-        <v>0.85397421984594302</v>
+        <v>0.57083950556493501</v>
       </c>
       <c r="J246" s="5">
-        <v>0.45934719708893301</v>
+        <v>0.40830501419681903</v>
       </c>
       <c r="K246" s="5">
-        <v>0.33984673149816103</v>
+        <v>0.42538873547846001</v>
       </c>
       <c r="L246" s="5">
-        <v>3.3969575434578569</v>
+        <v>2.4652728452176702</v>
       </c>
       <c r="M246" s="5">
-        <v>3.6874456859886222</v>
+        <v>3.6347633451812689</v>
       </c>
       <c r="N246" s="5">
-        <v>7.1687833850902161</v>
+        <v>6.6305350156137255</v>
       </c>
       <c r="O246" s="6" t="s">
         <v>63</v>
@@ -16754,7 +16754,7 @@
         <v>5.9879999160766602</v>
       </c>
       <c r="S246" s="5">
-        <v>5.9050002098083496</v>
+        <v>5.9019999504089364</v>
       </c>
     </row>
     <row r="247" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16824,40 +16824,40 @@
         <v>549</v>
       </c>
       <c r="C248" s="5">
-        <v>1286085.25</v>
+        <v>1289101.125</v>
       </c>
       <c r="D248" s="5">
-        <v>287625696</v>
+        <v>288300160</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F248" s="5">
-        <v>3.0425057411193852</v>
+        <v>3.0561797618865971</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H248" s="5">
-        <v>0.98712004397441011</v>
+        <v>-0.21397461034096102</v>
       </c>
       <c r="I248" s="5">
-        <v>0.54306970854867109</v>
+        <v>-9.4669146361925013E-2</v>
       </c>
       <c r="J248" s="5">
-        <v>2.858257184323842</v>
+        <v>1.103633903760382</v>
       </c>
       <c r="K248" s="5">
-        <v>0.78458661327960311</v>
+        <v>-1.291754115534915</v>
       </c>
       <c r="L248" s="5">
-        <v>4.0544352298890196</v>
+        <v>2.4114671592519339</v>
       </c>
       <c r="M248" s="5">
-        <v>3.8660039182037309</v>
+        <v>3.6280373903724072</v>
       </c>
       <c r="N248" s="5">
-        <v>0.19737267213024701</v>
+        <v>-0.35478641605121203</v>
       </c>
       <c r="O248" s="6" t="s">
         <v>23</v>
@@ -16872,7 +16872,7 @@
         <v>10.958476398574012</v>
       </c>
       <c r="S248" s="5">
-        <v>10.136820793151855</v>
+        <v>10.098336219787598</v>
       </c>
     </row>
     <row r="249" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16892,31 +16892,31 @@
         <v>35</v>
       </c>
       <c r="F249" s="5">
-        <v>1.8543354272842412</v>
+        <v>1.8498444557189941</v>
       </c>
       <c r="G249" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H249" s="5">
-        <v>-0.253693645979858</v>
+        <v>0.24277351876731401</v>
       </c>
       <c r="I249" s="5">
-        <v>-0.6432426765844661</v>
+        <v>-0.14970622130823202</v>
       </c>
       <c r="J249" s="5">
-        <v>-0.50610333994418599</v>
+        <v>-0.26455850606385001</v>
       </c>
       <c r="K249" s="5">
-        <v>-2.0606902714743298</v>
+        <v>-2.320607541149966</v>
       </c>
       <c r="L249" s="5">
-        <v>0.94802427422944202</v>
+        <v>0.72715368470730501</v>
       </c>
       <c r="M249" s="5">
-        <v>0.97137635807671407</v>
+        <v>1.2165081214090101</v>
       </c>
       <c r="N249" s="5">
-        <v>-2.0616103253281781</v>
+        <v>-1.5497982692769812</v>
       </c>
       <c r="O249" s="6" t="s">
         <v>23</v>
@@ -16931,7 +16931,7 @@
         <v>4.5854997634887704</v>
       </c>
       <c r="S249" s="5">
-        <v>4.3249998092651367</v>
+        <v>4.3354997634887704</v>
       </c>
     </row>
     <row r="250" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16942,53 +16942,55 @@
         <v>553</v>
       </c>
       <c r="C250" s="5">
-        <v>1247785.625</v>
+        <v>1250619.875</v>
       </c>
       <c r="D250" s="5">
-        <v>505859296</v>
+        <v>435556160</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F250" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="F250" s="5">
+        <v>4.1436467170715332</v>
+      </c>
       <c r="G250" s="6" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H250" s="5">
-        <v>-0.27310399298835503</v>
+        <v>0.30376343995153204</v>
       </c>
       <c r="I250" s="5">
-        <v>-0.80486870438936109</v>
+        <v>-6.7167059658202008E-2</v>
       </c>
       <c r="J250" s="5">
-        <v>-0.40406043016930604</v>
+        <v>1.1905733316591731</v>
       </c>
       <c r="K250" s="5">
-        <v>-1.26677477394882</v>
+        <v>-0.60099822899105604</v>
       </c>
       <c r="L250" s="5">
-        <v>0.64822792388907802</v>
+        <v>3.3533754874569333</v>
       </c>
       <c r="M250" s="5">
-        <v>0.79227506222476807</v>
+        <v>4.4394766152913379</v>
       </c>
       <c r="N250" s="5">
-        <v>-2.842923126499342</v>
+        <v>0.91666094956552913</v>
       </c>
       <c r="O250" s="6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="P250" s="6" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="Q250" s="6" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="R250" s="5">
-        <v>5.2140002250671387</v>
+        <v>11.798809479486602</v>
       </c>
       <c r="S250" s="5">
-        <v>4.9297499656677246</v>
+        <v>10.95310115814209</v>
       </c>
     </row>
     <row r="251" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -16999,55 +17001,53 @@
         <v>555</v>
       </c>
       <c r="C251" s="5">
-        <v>1247694.125</v>
+        <v>1247785.625</v>
       </c>
       <c r="D251" s="5">
-        <v>434537216</v>
+        <v>505859296</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F251" s="5">
-        <v>4.146510124206543</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F251" s="5"/>
       <c r="G251" s="6" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="H251" s="5">
-        <v>0.57578347074629399</v>
+        <v>-8.1143809483741003E-2</v>
       </c>
       <c r="I251" s="5">
-        <v>0.24753848430900702</v>
+        <v>-0.610372747928145</v>
       </c>
       <c r="J251" s="5">
-        <v>2.750069540762357</v>
+        <v>-0.48487636962738506</v>
       </c>
       <c r="K251" s="5">
-        <v>1.288846544123001</v>
+        <v>-1.916568306735245</v>
       </c>
       <c r="L251" s="5">
-        <v>4.3279097423479129</v>
+        <v>0.11686386919620401</v>
       </c>
       <c r="M251" s="5">
-        <v>4.1389831979415934</v>
+        <v>0.71048837057394709</v>
       </c>
       <c r="N251" s="5">
-        <v>1.150174101054779</v>
+        <v>-2.6723986370050912</v>
       </c>
       <c r="O251" s="6" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="Q251" s="6" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="R251" s="5">
-        <v>11.798809479486602</v>
+        <v>5.2140002250671387</v>
       </c>
       <c r="S251" s="5">
-        <v>10.938090324401855</v>
+        <v>4.9257497787475586</v>
       </c>
     </row>
     <row r="252" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17067,31 +17067,31 @@
         <v>32</v>
       </c>
       <c r="F252" s="5">
-        <v>2.973880529403687</v>
+        <v>2.978202342987061</v>
       </c>
       <c r="G252" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H252" s="5">
-        <v>-6.2147874481844008E-2</v>
+        <v>-0.14511506443983802</v>
       </c>
       <c r="I252" s="5">
-        <v>-9.319285303409601E-2</v>
+        <v>-0.12440674654883301</v>
       </c>
       <c r="J252" s="5">
-        <v>-0.14682076661854901</v>
+        <v>-0.291722772008285</v>
       </c>
       <c r="K252" s="5">
-        <v>-0.16734001609217702</v>
+        <v>-0.51656639652395409</v>
       </c>
       <c r="L252" s="5">
-        <v>1.576040578279692</v>
+        <v>1.4181215874474069</v>
       </c>
       <c r="M252" s="5">
-        <v>1.776788200620349</v>
+        <v>1.629094748838233</v>
       </c>
       <c r="N252" s="5">
-        <v>1.5095558835971361</v>
+        <v>1.3050343503139941</v>
       </c>
       <c r="O252" s="6" t="s">
         <v>23</v>
@@ -17106,7 +17106,7 @@
         <v>98.580001831054687</v>
       </c>
       <c r="S252" s="5">
-        <v>96.480003356933594</v>
+        <v>96.339996337890625</v>
       </c>
     </row>
     <row r="253" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17117,40 +17117,40 @@
         <v>447</v>
       </c>
       <c r="C253" s="5">
-        <v>1184252</v>
+        <v>1187029</v>
       </c>
       <c r="D253" s="5">
-        <v>382828256</v>
+        <v>383725952</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F253" s="5">
-        <v>5.4934425354003906</v>
+        <v>5.5103802680969238</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H253" s="5">
-        <v>0.46756336042794705</v>
+        <v>-7.3606982913654001E-2</v>
       </c>
       <c r="I253" s="5">
-        <v>0.12120637912904601</v>
+        <v>-0.42837532131966305</v>
       </c>
       <c r="J253" s="5">
-        <v>3.648149722421179</v>
+        <v>2.0413117425202691</v>
       </c>
       <c r="K253" s="5">
-        <v>4.2169663045322547</v>
+        <v>3.1938077829903651</v>
       </c>
       <c r="L253" s="5">
-        <v>6.002314273689402</v>
+        <v>5.0866656138017774</v>
       </c>
       <c r="M253" s="5">
-        <v>5.8103555640376836</v>
+        <v>5.7164353076245789</v>
       </c>
       <c r="N253" s="5">
-        <v>3.0754914456862852</v>
+        <v>2.5931115452234139</v>
       </c>
       <c r="O253" s="6" t="s">
         <v>23</v>
@@ -17165,7 +17165,7 @@
         <v>7.6621135412795072</v>
       </c>
       <c r="S253" s="5">
-        <v>7.3777308464050293</v>
+        <v>7.3600602149963379</v>
       </c>
     </row>
     <row r="254" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17176,40 +17176,40 @@
         <v>560</v>
       </c>
       <c r="C254" s="5">
-        <v>1165318.75</v>
+        <v>1168051.375</v>
       </c>
       <c r="D254" s="5">
-        <v>494535872</v>
+        <v>495695552</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F254" s="5">
-        <v>4.6006388664245614</v>
+        <v>4.5786957740783691</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H254" s="5">
-        <v>0.96518140315615708</v>
+        <v>0.71485571912917001</v>
       </c>
       <c r="I254" s="5">
-        <v>-0.48647704490698601</v>
+        <v>0.63430285896166605</v>
       </c>
       <c r="J254" s="5">
-        <v>4.3693849543247953</v>
+        <v>2.070348763998719</v>
       </c>
       <c r="K254" s="5">
-        <v>1.7151623485605501</v>
+        <v>1.3489140539927109</v>
       </c>
       <c r="L254" s="5">
-        <v>4.0939968640857796</v>
+        <v>1.901355434105434</v>
       </c>
       <c r="M254" s="5">
-        <v>3.9054939105660269</v>
+        <v>4.6323962713656908</v>
       </c>
       <c r="N254" s="5">
-        <v>-8.3679434879912691</v>
+        <v>-7.3096725123282251</v>
       </c>
       <c r="O254" s="6" t="s">
         <v>23</v>
@@ -17224,7 +17224,7 @@
         <v>16.580311539671378</v>
       </c>
       <c r="S254" s="5">
-        <v>14.196084976196289</v>
+        <v>14.273828506469727</v>
       </c>
     </row>
     <row r="255" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17235,40 +17235,40 @@
         <v>562</v>
       </c>
       <c r="C255" s="5">
-        <v>1143676.875</v>
+        <v>1146358.75</v>
       </c>
       <c r="D255" s="5">
-        <v>496414656</v>
+        <v>497578688</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F255" s="5">
-        <v>2.169981956481934</v>
+        <v>2.1765415668487549</v>
       </c>
       <c r="G255" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H255" s="5">
-        <v>0.34019322317626605</v>
+        <v>-6.7590606140866011E-2</v>
       </c>
       <c r="I255" s="5">
-        <v>0.127583730515446</v>
+        <v>-0.33256115850774903</v>
       </c>
       <c r="J255" s="5">
-        <v>2.628490487358071</v>
+        <v>1.1906265865951891</v>
       </c>
       <c r="K255" s="5">
-        <v>1.596110230779457</v>
+        <v>0.21509023350510001</v>
       </c>
       <c r="L255" s="5">
-        <v>3.318438300120929</v>
+        <v>2.4410377467762419</v>
       </c>
       <c r="M255" s="5">
-        <v>3.1313397991569398</v>
+        <v>3.0460013416049092</v>
       </c>
       <c r="N255" s="5">
-        <v>-1.641688303924671</v>
+        <v>-2.0111013906993551</v>
       </c>
       <c r="O255" s="6" t="s">
         <v>23</v>
@@ -17283,7 +17283,7 @@
         <v>13.290940732592073</v>
       </c>
       <c r="S255" s="5">
-        <v>12.540630340576172</v>
+        <v>12.511346817016602</v>
       </c>
     </row>
     <row r="256" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17294,40 +17294,40 @@
         <v>564</v>
       </c>
       <c r="C256" s="5">
-        <v>1132303.75</v>
+        <v>1134958.875</v>
       </c>
       <c r="D256" s="5">
-        <v>618843136</v>
+        <v>620294272</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F256" s="5">
-        <v>2.489626407623291</v>
+        <v>2.4982650279998779</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H256" s="5">
-        <v>0.9968897287803371</v>
+        <v>-0.11209573405514001</v>
       </c>
       <c r="I256" s="5">
-        <v>0.66913057899931105</v>
+        <v>-6.5121314025762003E-2</v>
       </c>
       <c r="J256" s="5">
-        <v>3.179065343146581</v>
+        <v>1.3979613374734521</v>
       </c>
       <c r="K256" s="5">
-        <v>1.636670109465066</v>
+        <v>-0.41708876654881205</v>
       </c>
       <c r="L256" s="5">
-        <v>4.4862148143626213</v>
+        <v>2.9664945846791251</v>
       </c>
       <c r="M256" s="5">
-        <v>4.2970015966174779</v>
+        <v>4.1642881109146046</v>
       </c>
       <c r="N256" s="5">
-        <v>0.297422799081626</v>
+        <v>-0.35113708477114702</v>
       </c>
       <c r="O256" s="6" t="s">
         <v>23</v>
@@ -17342,7 +17342,7 @@
         <v>11.72083553554387</v>
       </c>
       <c r="S256" s="5">
-        <v>10.93053150177002</v>
+        <v>10.900151252746582</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17353,40 +17353,40 @@
         <v>447</v>
       </c>
       <c r="C257" s="5">
-        <v>1131072.125</v>
+        <v>1133724.375</v>
       </c>
       <c r="D257" s="5">
-        <v>277662304</v>
+        <v>278313408</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F257" s="5">
-        <v>4.0598130226135254</v>
+        <v>4.0810022354125977</v>
       </c>
       <c r="G257" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H257" s="5">
-        <v>1.209729758803779</v>
+        <v>-0.28593241353899201</v>
       </c>
       <c r="I257" s="5">
-        <v>0.62921713085122299</v>
+        <v>-3.5720908848225E-2</v>
       </c>
       <c r="J257" s="5">
-        <v>3.3173854418744102</v>
+        <v>1.181948896122953</v>
       </c>
       <c r="K257" s="5">
-        <v>2.563104702987173</v>
+        <v>0.30819349637132304</v>
       </c>
       <c r="L257" s="5">
-        <v>4.6164921181859775</v>
+        <v>4.0296772042353268</v>
       </c>
       <c r="M257" s="5">
-        <v>4.4270429823544122</v>
+        <v>4.1126590535699226</v>
       </c>
       <c r="N257" s="5">
-        <v>2.3111212274294251</v>
+        <v>1.0852981879005301</v>
       </c>
       <c r="O257" s="6" t="s">
         <v>23</v>
@@ -17401,7 +17401,7 @@
         <v>7.8034224999083852</v>
       </c>
       <c r="S257" s="5">
-        <v>7.2794618606567383</v>
+        <v>7.2465958595275879</v>
       </c>
     </row>
     <row r="258" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17412,40 +17412,40 @@
         <v>567</v>
       </c>
       <c r="C258" s="5">
-        <v>1110064.25</v>
+        <v>1112667.25</v>
       </c>
       <c r="D258" s="5">
-        <v>879109504</v>
+        <v>881171008</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F258" s="5">
-        <v>12.452481269836426</v>
+        <v>12.574422836303711</v>
       </c>
       <c r="G258" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H258" s="5">
-        <v>0.73337845560921311</v>
+        <v>0.30259219396562304</v>
       </c>
       <c r="I258" s="5">
-        <v>0.74263745173386309</v>
+        <v>0.48329578119070704</v>
       </c>
       <c r="J258" s="5">
-        <v>5.0711233693151669</v>
+        <v>3.760836520218902</v>
       </c>
       <c r="K258" s="5">
-        <v>5.4560420995803272</v>
+        <v>4.7337362223780932</v>
       </c>
       <c r="L258" s="5">
-        <v>9.1755354385450794</v>
+        <v>8.529759333185293</v>
       </c>
       <c r="M258" s="5">
-        <v>8.9778303690669645</v>
+        <v>9.2910198423213473</v>
       </c>
       <c r="N258" s="5">
-        <v>3.6738519535085779</v>
+        <v>3.9210239744566833</v>
       </c>
       <c r="O258" s="6" t="s">
         <v>23</v>
@@ -17460,7 +17460,7 @@
         <v>14.201601627090509</v>
       </c>
       <c r="S258" s="5">
-        <v>13.251191139221191</v>
+        <v>13.131619453430176</v>
       </c>
     </row>
     <row r="259" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17530,10 +17530,10 @@
         <v>571</v>
       </c>
       <c r="C260" s="5">
-        <v>1099296.5</v>
+        <v>1090994.625</v>
       </c>
       <c r="D260" s="5">
-        <v>598813952</v>
+        <v>599410624</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>66</v>
@@ -17545,25 +17545,25 @@
         <v>205</v>
       </c>
       <c r="H260" s="5">
-        <v>0.52756330733208001</v>
+        <v>8.3582858206666E-2</v>
       </c>
       <c r="I260" s="5">
-        <v>0.17261591437305301</v>
+        <v>0.10744252737280301</v>
       </c>
       <c r="J260" s="5">
-        <v>1.435696518156959</v>
+        <v>1.5204793725486661</v>
       </c>
       <c r="K260" s="5">
-        <v>1.9338590239461162</v>
+        <v>2.0190582567986892</v>
       </c>
       <c r="L260" s="5">
-        <v>3.7880730939952478</v>
+        <v>3.1736168581435242</v>
       </c>
       <c r="M260" s="5">
-        <v>3.1675498150340879</v>
+        <v>3.270358301124876</v>
       </c>
       <c r="N260" s="5">
-        <v>5.5342485645416986</v>
+        <v>3.993840964136774</v>
       </c>
       <c r="O260" s="6" t="s">
         <v>23</v>
@@ -17578,7 +17578,7 @@
         <v>1.857347719595166</v>
       </c>
       <c r="S260" s="5">
-        <v>1.7182682752609251</v>
+        <v>1.719704270362854</v>
       </c>
     </row>
     <row r="261" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17589,53 +17589,53 @@
         <v>573</v>
       </c>
       <c r="C261" s="5">
-        <v>1076156.5</v>
+        <v>1090442.75</v>
       </c>
       <c r="D261" s="5">
-        <v>653030720</v>
+        <v>1094552576</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H261" s="5">
-        <v>-9.0450697382982004E-2</v>
+        <v>0.84514322708906209</v>
       </c>
       <c r="I261" s="5">
-        <v>-0.11755573074701001</v>
+        <v>0.18655424819631303</v>
       </c>
       <c r="J261" s="5">
-        <v>0.56445120011974204</v>
+        <v>0.70863908780236506</v>
       </c>
       <c r="K261" s="5">
-        <v>0.23592620811145901</v>
+        <v>0.88419809134818705</v>
       </c>
       <c r="L261" s="5">
-        <v>2.887476380216158</v>
+        <v>0.99323140010845212</v>
       </c>
       <c r="M261" s="5">
-        <v>2.8012996242372301</v>
+        <v>3.3707028924268002E-2</v>
       </c>
       <c r="N261" s="5">
-        <v>4.5329717066401543</v>
+        <v>2.8704176854243979</v>
       </c>
       <c r="O261" s="6" t="s">
         <v>63</v>
       </c>
       <c r="P261" s="6" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="Q261" s="6" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="R261" s="5">
-        <v>5.619999885559082</v>
+        <v>86.498761354252679</v>
       </c>
       <c r="S261" s="5">
-        <v>5.5229997634887704</v>
+        <v>80.932502746582031</v>
       </c>
     </row>
     <row r="262" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17646,53 +17646,53 @@
         <v>575</v>
       </c>
       <c r="C262" s="5">
-        <v>1067617.625</v>
+        <v>1076156.5</v>
       </c>
       <c r="D262" s="5">
-        <v>1092367616</v>
+        <v>653030720</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H262" s="5">
-        <v>1.4055666569406491</v>
+        <v>0.19916995968942702</v>
       </c>
       <c r="I262" s="5">
-        <v>0.10836181226257001</v>
+        <v>0.126650435050291</v>
       </c>
       <c r="J262" s="5">
-        <v>-0.13536015212880501</v>
+        <v>0.76474537703692402</v>
       </c>
       <c r="K262" s="5">
-        <v>0.29984942406082704</v>
+        <v>0.30813342243742903</v>
       </c>
       <c r="L262" s="5">
-        <v>1.0895534284283359</v>
+        <v>2.4150983223468541</v>
       </c>
       <c r="M262" s="5">
-        <v>-0.25640127285452302</v>
+        <v>3.00604893125902</v>
       </c>
       <c r="N262" s="5">
-        <v>2.6182811137333228</v>
+        <v>5.1691340104505379</v>
       </c>
       <c r="O262" s="6" t="s">
         <v>63</v>
       </c>
       <c r="P262" s="6" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="Q262" s="6" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="R262" s="5">
-        <v>86.498761354252679</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="S262" s="5">
-        <v>80.254241943359375</v>
+        <v>5.5339999198913574</v>
       </c>
     </row>
     <row r="263" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17703,40 +17703,40 @@
         <v>577</v>
       </c>
       <c r="C263" s="5">
-        <v>1055231.5</v>
+        <v>1057560.625</v>
       </c>
       <c r="D263" s="5">
-        <v>630300224</v>
+        <v>631691392</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F263" s="5">
-        <v>1.8617080450057981</v>
+        <v>1.8630565404891972</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H263" s="5">
-        <v>-0.17164412520414002</v>
+        <v>0.10076671364114301</v>
       </c>
       <c r="I263" s="5">
-        <v>-0.61701109302482204</v>
+        <v>-0.47048317574954801</v>
       </c>
       <c r="J263" s="5">
-        <v>1.8308675258984719</v>
+        <v>1.933479144576578</v>
       </c>
       <c r="K263" s="5">
-        <v>1.622218661470276</v>
+        <v>0.86243031504931211</v>
       </c>
       <c r="L263" s="5">
-        <v>7.633747129299806</v>
+        <v>6.6196349717070779</v>
       </c>
       <c r="M263" s="5">
-        <v>6.8724529798996681</v>
+        <v>7.0308137042914156</v>
       </c>
       <c r="N263" s="5">
-        <v>3.1390394590581132</v>
+        <v>2.9756154559638981</v>
       </c>
       <c r="O263" s="6" t="s">
         <v>23</v>
@@ -17751,7 +17751,7 @@
         <v>5.8143872749328613</v>
       </c>
       <c r="S263" s="5">
-        <v>5.7015876770019531</v>
+        <v>5.7073330879211426</v>
       </c>
     </row>
     <row r="264" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17762,40 +17762,40 @@
         <v>579</v>
       </c>
       <c r="C264" s="5">
-        <v>1046613.9375</v>
+        <v>1048924</v>
       </c>
       <c r="D264" s="5">
-        <v>609093504</v>
+        <v>610437888</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F264" s="5">
-        <v>2.9466054439544682</v>
+        <v>2.9459381103515629</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H264" s="5">
-        <v>-0.166374511401746</v>
+        <v>0.19596704780973101</v>
       </c>
       <c r="I264" s="5">
-        <v>-0.343222378353081</v>
+        <v>-5.6420837349658005E-2</v>
       </c>
       <c r="J264" s="5">
-        <v>1.908922930590085</v>
+        <v>2.1086308383118761</v>
       </c>
       <c r="K264" s="5">
-        <v>1.5573825539788371</v>
+        <v>0.7683710003053571</v>
       </c>
       <c r="L264" s="5">
-        <v>8.2394845097344405</v>
+        <v>7.0626537701739664</v>
       </c>
       <c r="M264" s="5">
-        <v>7.2007319039469664</v>
+        <v>7.4616828546079539</v>
       </c>
       <c r="N264" s="5">
-        <v>4.5227248470886217</v>
+        <v>4.3589518213154932</v>
       </c>
       <c r="O264" s="6" t="s">
         <v>377</v>
@@ -17810,7 +17810,7 @@
         <v>5.7967641716957097</v>
       </c>
       <c r="S264" s="5">
-        <v>5.6060428619384766</v>
+        <v>5.6170287132263184</v>
       </c>
     </row>
     <row r="265" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17821,10 +17821,10 @@
         <v>581</v>
       </c>
       <c r="C265" s="5">
-        <v>1039230.6875</v>
+        <v>1041667.625</v>
       </c>
       <c r="D265" s="5">
-        <v>234570608</v>
+        <v>235120656</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>32</v>
@@ -17834,25 +17834,25 @@
         <v>63</v>
       </c>
       <c r="H265" s="5">
-        <v>0.15874206783261802</v>
+        <v>0.28834383064966201</v>
       </c>
       <c r="I265" s="5">
-        <v>-0.144936512062421</v>
+        <v>-0.12933081124669701</v>
       </c>
       <c r="J265" s="5">
-        <v>3.1393419140751</v>
+        <v>2.0995159417903859</v>
       </c>
       <c r="K265" s="5">
-        <v>3.4719851878335821</v>
+        <v>2.964435011387434</v>
       </c>
       <c r="L265" s="5">
-        <v>4.7126611581255196</v>
+        <v>4.4878890118773551</v>
       </c>
       <c r="M265" s="5">
-        <v>4.5230378705790386</v>
+        <v>4.8085248794953239</v>
       </c>
       <c r="N265" s="5">
-        <v>1.10292750139771</v>
+        <v>1.108458261466017</v>
       </c>
       <c r="O265" s="6" t="s">
         <v>63</v>
@@ -17867,7 +17867,7 @@
         <v>42.453979441115941</v>
       </c>
       <c r="S265" s="5">
-        <v>42.217853546142578</v>
+        <v>42.269290924072266</v>
       </c>
     </row>
   </sheetData>
